--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -1,21 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Schema" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SCHEMA</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>BREAKDOWN BY</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Finance</t>
+  </si>
+  <si>
+    <t>TblAdvance</t>
+  </si>
+  <si>
+    <t>TblAdvanceDetail</t>
+  </si>
+  <si>
+    <t>Uang Muka</t>
+  </si>
+  <si>
+    <t>Perincian Uang Muka</t>
+  </si>
+  <si>
+    <t>CombinedBudgetSectionDetail_RefID</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>TblAdvancePayment</t>
+  </si>
+  <si>
+    <t>TblAdvancePaymentDetail</t>
+  </si>
+  <si>
+    <t>Pembayaran Uang Muka</t>
+  </si>
+  <si>
+    <t>Perincian Pembayaran Uang Muka</t>
+  </si>
+  <si>
+    <t>Setiap Uang Muka bisa saja memiliki sumber anggaran yang berbeda</t>
+  </si>
+  <si>
+    <t>MAIN REFERENCE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>Advance_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Finance.TblAdvance</t>
+  </si>
+  <si>
+    <t>AdvancePayment_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Finance.TblAdvancePayment</t>
+  </si>
+  <si>
+    <t>AdvanceDetail_RefID</t>
+  </si>
+  <si>
+    <t>Setiap Pembayaran Uang Muka bisa saja memiliki sumber Uang Muka yang berbeda</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>Setiap Pembayaran Uang Muka bisa saja bersifat parsial dari sumber Uang Muka yang sama</t>
+  </si>
+  <si>
+    <t>Setiap Uang Muka bisa saja memiliki sumber anggaran yang sama</t>
+  </si>
+  <si>
+    <t>BusinessDocumentVersion_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblBusinessDocumentVersion</t>
+  </si>
+  <si>
+    <t>TblPayment</t>
+  </si>
+  <si>
+    <t>TblPaymentDetail</t>
+  </si>
+  <si>
+    <t>Pembayaran</t>
+  </si>
+  <si>
+    <t>Perincian Pembayaran</t>
+  </si>
+  <si>
+    <t>Setiap dokumen Pembayaran Uang Muka bisa saja mengalami perubahan versi dokumen karena proses penyuntingan</t>
+  </si>
+  <si>
+    <t>Setiap dokumen Uang Muka bisa saja mengalami perubahan versi dokumen karena proses penyuntingan</t>
+  </si>
+  <si>
+    <t>Fitur cadangan yang sudah diakomodir untuk dikembangkan :</t>
+  </si>
+  <si>
+    <t>Payment_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Finance.TblPayment</t>
+  </si>
+  <si>
+    <t>PaymentDocument_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Finance.TblAdvancePayment
+SchData-OLTP-Finance.TblPaymentInstruction</t>
+  </si>
+  <si>
+    <t>PaymentMethod_RefID &amp; FundSource_RefID</t>
+  </si>
+  <si>
+    <t>Setiap dokumen Pembayaran bisa saja mengalami perubahan versi dokumen karena proses penyuntingan</t>
+  </si>
+  <si>
+    <t>Setiap dokumen Perincian Pembayaran bisa saja memiliki metode pembayaran yang berbeda-beda dan sumber dana yang berbeda-beda</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Supply</t>
+  </si>
+  <si>
+    <t>TblPurchaseOrder</t>
+  </si>
+  <si>
+    <t>TblPurchaseOrderDetail</t>
+  </si>
+  <si>
+    <t>Pesanan Pembelian</t>
+  </si>
+  <si>
+    <t>Perincian Pesanan Pembelian</t>
+  </si>
+  <si>
+    <t>Setiap dokumen Pesanan Pembelian bisa saja mengalami perubahan versi dokumen karena proses penyuntingan</t>
+  </si>
+  <si>
+    <t>PurchaseOrder_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Supply.TblPurchaseOrder</t>
+  </si>
+  <si>
+    <t>PurchaseRequisitionDetail_RefID</t>
+  </si>
+  <si>
+    <t>Setiap Pesanan Pembelian bisa saja bersifat parsial dari sumber Permintaan Pembelian (PR) yang sama</t>
+  </si>
+  <si>
+    <t>Setiap Pesanan Pembelian bisa saja memiliki sumber Permintaan Pembelian (PR) yang berbeda</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +198,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="1"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -40,18 +273,736 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +1049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +1084,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1292,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:11" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="59"/>
+    </row>
+    <row r="7" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="2:11" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="61"/>
+    </row>
+    <row r="14" spans="2:11" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="9" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="70"/>
+    </row>
+    <row r="16" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="59"/>
+    </row>
+    <row r="19" spans="2:9" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="32"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="32"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="2:9" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -53,9 +53,6 @@
     <t>FIELD</t>
   </si>
   <si>
-    <t>MAIN</t>
-  </si>
-  <si>
     <t>TblAdvancePayment</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Perincian Pembayaran Uang Muka</t>
   </si>
   <si>
-    <t>Setiap Uang Muka bisa saja memiliki sumber anggaran yang berbeda</t>
-  </si>
-  <si>
     <t>MAIN REFERENCE</t>
   </si>
   <si>
@@ -92,16 +86,7 @@
     <t>AdvanceDetail_RefID</t>
   </si>
   <si>
-    <t>Setiap Pembayaran Uang Muka bisa saja memiliki sumber Uang Muka yang berbeda</t>
-  </si>
-  <si>
     <t>●</t>
-  </si>
-  <si>
-    <t>Setiap Pembayaran Uang Muka bisa saja bersifat parsial dari sumber Uang Muka yang sama</t>
-  </si>
-  <si>
-    <t>Setiap Uang Muka bisa saja memiliki sumber anggaran yang sama</t>
   </si>
   <si>
     <t>BusinessDocumentVersion_RefID</t>
@@ -162,9 +147,6 @@
     <t>TblPurchaseOrderDetail</t>
   </si>
   <si>
-    <t>Pesanan Pembelian</t>
-  </si>
-  <si>
     <t>Perincian Pesanan Pembelian</t>
   </si>
   <si>
@@ -184,19 +166,290 @@
   </si>
   <si>
     <t>Setiap Pesanan Pembelian bisa saja memiliki sumber Permintaan Pembelian (PR) yang berbeda</t>
+  </si>
+  <si>
+    <t>TblPurchaseRequisition</t>
+  </si>
+  <si>
+    <t>Setiap dokumen Permintaan Pembelian bisa saja mengalami perubahan versi dokumen karena proses penyuntingan</t>
+  </si>
+  <si>
+    <t>TblPurchaseRequisitionDetail</t>
+  </si>
+  <si>
+    <t>Perincian Permintaan Pembelian</t>
+  </si>
+  <si>
+    <t>ENTITIES</t>
+  </si>
+  <si>
+    <t>PurchaseRequisition_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Supply.TblPurchaseRequisition</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Taxation</t>
+  </si>
+  <si>
+    <t>TblTransactionTax</t>
+  </si>
+  <si>
+    <t>Pajak Transaksi</t>
+  </si>
+  <si>
+    <t>TblTransactionTaxDetail</t>
+  </si>
+  <si>
+    <t>Perincian Pajak Transaksi</t>
+  </si>
+  <si>
+    <t>TransactionTax_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Taxation.TblTransactionTax</t>
+  </si>
+  <si>
+    <t>TaxType_RefID</t>
+  </si>
+  <si>
+    <t>TblTaxType</t>
+  </si>
+  <si>
+    <t>Jenis Pajak</t>
+  </si>
+  <si>
+    <t>Setiap Permintaan Pembelian bisa saja memiliki beberapa sumber anggaran yang berbeda dan produk yang berbeda</t>
+  </si>
+  <si>
+    <t>Setiap Uang Muka memiliki sumber anggaran sejenis dengan beberapa produk yang berbeda</t>
+  </si>
+  <si>
+    <t>Setiap Permintaan Pembelian memiliki sumber anggaran sejenis dengan beberapa produk yang berbeda</t>
+  </si>
+  <si>
+    <t>Setiap Uang Muka bisa saja memiliki beberapa sumber anggaran yang berbeda dan produk yang berbeda</t>
+  </si>
+  <si>
+    <t>Setiap Pembayaran Uang Muka bisa saja memiliki beberapa sumber Uang Muka yang berbeda</t>
+  </si>
+  <si>
+    <t>Setiap Pembayaran Uang Muka bisa saja bersifat parsial dari sumber Uang Muka yang sejenis</t>
+  </si>
+  <si>
+    <t>Setiap Pajak Transaksi memiliki jenis pajak tertentu saja dengan besaran tarif yang bervariatif</t>
+  </si>
+  <si>
+    <t>Setiap Pajak Transaksi bisa saja memiliki beberapa jenis pajak dengan besaran tarif yang bervariatif</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master</t>
+  </si>
+  <si>
+    <t>TblBank</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>TblBankAccount</t>
+  </si>
+  <si>
+    <t>Akun Bank</t>
+  </si>
+  <si>
+    <t>Bank_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblBank</t>
+  </si>
+  <si>
+    <t>Setiap Bank memiliki beberapa akun</t>
+  </si>
+  <si>
+    <t>TblBloodAglutinogenType</t>
+  </si>
+  <si>
+    <t>Jenis Darah Orang</t>
+  </si>
+  <si>
+    <t>TblBusinessDocument</t>
+  </si>
+  <si>
+    <t>TblBusinessDocumentVersion</t>
+  </si>
+  <si>
+    <t>Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>Versi Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BusinessDocument_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblBusinessDocument</t>
+  </si>
+  <si>
+    <t>Setiap Dokumen Bisnis bisa saja memiliki beberapa versi dokumen akibat penyuntingan</t>
+  </si>
+  <si>
+    <t>Pesanan Pembelian (PO)</t>
+  </si>
+  <si>
+    <t>Permintaan Pembelian (PR)</t>
+  </si>
+  <si>
+    <t>TblCitizenFamilyCard</t>
+  </si>
+  <si>
+    <t>Kartu Keluarga Warga Negara</t>
+  </si>
+  <si>
+    <t>TblCitizenFamilyCardMember</t>
+  </si>
+  <si>
+    <t>CitizenFamilyCard_RefID</t>
+  </si>
+  <si>
+    <t>CitizenIdentity_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblCitizenFamilyCard</t>
+  </si>
+  <si>
+    <t>TblCitizenFamilyRelationship</t>
+  </si>
+  <si>
+    <t>TblCitizenGender</t>
+  </si>
+  <si>
+    <t>TblCitizenIdentity</t>
+  </si>
+  <si>
+    <t>TblCitizenIdentityCard</t>
+  </si>
+  <si>
+    <t>TblCitizenMaritalStatus</t>
+  </si>
+  <si>
+    <t>TblCitizenProfession</t>
+  </si>
+  <si>
+    <t>Pekerjaan Warga Negara</t>
+  </si>
+  <si>
+    <t>Anggota Kartu Keluarga Warga Negara</t>
+  </si>
+  <si>
+    <t>Status Pernikahan Warga Negara</t>
+  </si>
+  <si>
+    <t>KTP Warga Negara</t>
+  </si>
+  <si>
+    <t>Identitas Warga Negara</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin Warga Negara</t>
+  </si>
+  <si>
+    <t>Hubungan Kekeluargaan Warga Negara</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblCitizenIdentity</t>
+  </si>
+  <si>
+    <t>TblCountry</t>
+  </si>
+  <si>
+    <t>TblCountryAdministrativeAreaLevel1</t>
+  </si>
+  <si>
+    <t>TblCountryAdministrativeAreaLevel2</t>
+  </si>
+  <si>
+    <t>TblCountryAdministrativeAreaLevel3</t>
+  </si>
+  <si>
+    <t>TblCountryAdministrativeAreaLevel4</t>
+  </si>
+  <si>
+    <t>Country_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblTblCountry</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblCountryAdministrativeAreaLevel1</t>
+  </si>
+  <si>
+    <t>CountryAdministrativeAreaLevel1_RefID</t>
+  </si>
+  <si>
+    <t>CountryAdministrativeAreaLevel2_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblCountryAdministrativeAreaLevel2</t>
+  </si>
+  <si>
+    <t>CountryAdministrativeAreaLevel3_RefID</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Master.TblCountryAdministrativeAreaLevel3</t>
+  </si>
+  <si>
+    <t>Negara</t>
+  </si>
+  <si>
+    <t>Propinsi (Daerah Tingkat 1)</t>
+  </si>
+  <si>
+    <t>Kabupaten / Kota (Daerah Tingkat 2)</t>
+  </si>
+  <si>
+    <t>Kecamatan (Daerah Tingkat 3)</t>
+  </si>
+  <si>
+    <t>Desa / Kelurahan (Daerah Tingkat 4)</t>
+  </si>
+  <si>
+    <t>Setiap Kabupaten / Kota bisa saja terdiri dari beberapa Kecamatan</t>
+  </si>
+  <si>
+    <t>Setiap Propinsi bisa saja terdiri dari beberapa Kabupaten / Kota</t>
+  </si>
+  <si>
+    <t>Setiap Negara bisa saja terdiri dari beberapa Propinsi</t>
+  </si>
+  <si>
+    <t>Setiap Kecamatan bisa saja terdiri dari beberapa Desa / Kelurahan</t>
+  </si>
+  <si>
+    <t>Setiap Kartu Keluarga Warga Negara bisa saja terdiri dari beberapa Anggota Warga Negara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,7 +485,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +517,36 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5FF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -292,6 +573,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -744,250 +1038,337 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,6 +1376,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD5FF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1293,502 +1681,1095 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="24" t="s">
+    <row r="2" spans="2:11" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:11" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="F5" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="97"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="97"/>
+      <c r="C8" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="97"/>
+      <c r="C9" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="97"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="97"/>
+      <c r="C12" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="D12" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="17" t="s">
+      <c r="E12" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="97"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="2:11" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="97"/>
+      <c r="C14" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="59"/>
-    </row>
-    <row r="7" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="37" t="s">
+      <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="I14" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="103"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="2:11" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="84"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
+    </row>
+    <row r="18" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="106"/>
+      <c r="C18" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="106"/>
+      <c r="C19" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+    </row>
+    <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="106"/>
+      <c r="C20" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+    </row>
+    <row r="21" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="106"/>
+      <c r="C21" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="106"/>
+      <c r="C22" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="88"/>
+    </row>
+    <row r="23" spans="2:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="106"/>
+      <c r="C23" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="106"/>
+      <c r="C24" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="106"/>
+      <c r="C25" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+    </row>
+    <row r="26" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="106"/>
+      <c r="C26" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
+    </row>
+    <row r="27" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="106"/>
+      <c r="C27" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="85"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="88"/>
+    </row>
+    <row r="28" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="106"/>
+      <c r="C28" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
+    </row>
+    <row r="29" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="106"/>
+      <c r="C29" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="88"/>
+    </row>
+    <row r="30" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="106"/>
+      <c r="C30" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+    </row>
+    <row r="31" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="106"/>
+      <c r="C31" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="106"/>
+      <c r="C32" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="106"/>
+      <c r="C33" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="106"/>
+      <c r="C34" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="106"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="103"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="72"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="104"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="78"/>
+    </row>
+    <row r="38" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="59"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="61" t="s">
+      <c r="F38" s="48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="57" t="s">
+      <c r="G38" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="97"/>
+      <c r="C39" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="61"/>
-    </row>
-    <row r="14" spans="2:11" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="7" t="s">
+      <c r="E39" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="97"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="9" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="2:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="61" t="s">
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="97"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="97"/>
+      <c r="C42" s="101" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="48" t="s">
+      <c r="D42" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="37" t="s">
+    </row>
+    <row r="43" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="97"/>
+      <c r="C43" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="D43" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="2:9" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="61" t="s">
+      <c r="E43" s="69" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="65"/>
-    </row>
-    <row r="21" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="65"/>
-    </row>
-    <row r="22" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="65"/>
-    </row>
-    <row r="23" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="65"/>
-    </row>
-    <row r="24" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="65"/>
-    </row>
-    <row r="25" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="65"/>
-    </row>
-    <row r="26" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="65"/>
-    </row>
-    <row r="27" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="65"/>
-    </row>
-    <row r="28" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="65"/>
-    </row>
-    <row r="29" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="65"/>
-    </row>
-    <row r="30" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="65"/>
-    </row>
-    <row r="31" spans="2:9" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
+      <c r="F43" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="97"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="97"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="97"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="42"/>
+    </row>
+    <row r="47" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="79"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="83"/>
+    </row>
+    <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="97"/>
+      <c r="C49" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="79"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="83"/>
+    </row>
+    <row r="50" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="97"/>
+      <c r="C50" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="97"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="97"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="97"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="42"/>
+    </row>
+    <row r="54" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="104"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="97"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="97"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="42"/>
+    </row>
+    <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="97"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="42"/>
+    </row>
+    <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="97"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="42"/>
+    </row>
+    <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="97"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="42"/>
+    </row>
+    <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="97"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="42"/>
+    </row>
+    <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="97"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="42"/>
+    </row>
+    <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="97"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="42"/>
+    </row>
+    <row r="63" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="97"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="42"/>
+    </row>
+    <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="97"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="97"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="42"/>
+    </row>
+    <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="97"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="42"/>
+    </row>
+    <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="97"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="42"/>
+    </row>
+    <row r="68" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="109"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
+  <mergeCells count="34">
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="E9:E11"/>

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="141">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>Setiap Kartu Keluarga Warga Negara bisa saja terdiri dari beberapa Anggota Warga Negara</t>
+  </si>
+  <si>
+    <t>TblBankBranch</t>
+  </si>
+  <si>
+    <t>Cabang Bank</t>
+  </si>
+  <si>
+    <t>Setiap Bank memiliki beberapa cabang</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1076,287 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,296 +1367,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,20 +1690,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K68"/>
+  <dimension ref="B1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1705,1067 +1714,1085 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="98" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="92" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="97"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="10" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="58"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="101" t="s">
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="92" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="24" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="10" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="88"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="97"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="58"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="92" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="97"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="68" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="40"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="2:11" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="40" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="103"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="60"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="2:11" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="106"/>
-      <c r="C18" s="101" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="48" t="s">
         <v>80</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="106"/>
-      <c r="C19" s="101" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="80"/>
+      <c r="C20" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-    </row>
-    <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="106"/>
-      <c r="C20" s="101" t="s">
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="80"/>
+      <c r="C21" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88"/>
-    </row>
-    <row r="21" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="106"/>
-      <c r="C21" s="102" t="s">
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="80"/>
+      <c r="C22" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E22" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G22" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I22" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="106"/>
-      <c r="C22" s="102" t="s">
+    <row r="23" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="80"/>
+      <c r="C23" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D23" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="88"/>
-    </row>
-    <row r="23" spans="2:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="106"/>
-      <c r="C23" s="102" t="s">
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="2:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="80"/>
+      <c r="C24" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D24" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E24" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G24" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I24" s="26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="106"/>
-      <c r="C24" s="102" t="s">
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="80"/>
+      <c r="C25" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D25" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
-    </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="106"/>
-      <c r="C25" s="102" t="s">
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="80"/>
+      <c r="C26" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D26" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-    </row>
-    <row r="26" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="106"/>
-      <c r="C26" s="102" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="80"/>
+      <c r="C27" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D27" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-    </row>
-    <row r="27" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="106"/>
-      <c r="C27" s="102" t="s">
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="80"/>
+      <c r="C28" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D28" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E28" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F28" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
-    </row>
-    <row r="28" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="106"/>
-      <c r="C28" s="102" t="s">
+      <c r="G28" s="62"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="80"/>
+      <c r="C29" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D29" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="88"/>
-    </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="106"/>
-      <c r="C29" s="102" t="s">
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="80"/>
+      <c r="C30" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D30" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="88"/>
-    </row>
-    <row r="30" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="106"/>
-      <c r="C30" s="102" t="s">
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="80"/>
+      <c r="C31" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D31" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-    </row>
-    <row r="31" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="106"/>
-      <c r="C31" s="102" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
+    </row>
+    <row r="32" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="80"/>
+      <c r="C32" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D32" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E32" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F32" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G32" s="45" t="s">
         <v>120</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="106"/>
-      <c r="C32" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="65" t="s">
-        <v>123</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="41" t="s">
-        <v>134</v>
+      <c r="I32" s="26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="106"/>
-      <c r="C33" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>124</v>
+      <c r="B33" s="80"/>
+      <c r="C33" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>123</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="41" t="s">
-        <v>133</v>
+      <c r="I33" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="106"/>
-      <c r="C34" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="65" t="s">
-        <v>126</v>
+      <c r="B34" s="80"/>
+      <c r="C34" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="41" t="s">
+      <c r="I34" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="80"/>
+      <c r="C35" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="106"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="38"/>
-    </row>
     <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="103"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="89" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="77"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="78"/>
-    </row>
-    <row r="38" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="97" t="s">
+      <c r="E37" s="49"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C39" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D39" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E39" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F39" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G39" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I39" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="97"/>
-      <c r="C39" s="98" t="s">
+    <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="74"/>
+      <c r="C40" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D40" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E40" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F40" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="56" t="s">
+      <c r="G40" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="38" t="s">
+      <c r="I40" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="97"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="10" t="s">
+    <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="74"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="39"/>
-    </row>
-    <row r="41" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="97"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>49</v>
-      </c>
+      <c r="I41" s="88"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="97"/>
-      <c r="C42" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>24</v>
-      </c>
+      <c r="B42" s="74"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="40" t="s">
+      <c r="I42" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="74"/>
+      <c r="C43" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="97"/>
-      <c r="C43" s="98" t="s">
+    <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="74"/>
+      <c r="C44" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D44" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E44" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F44" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G44" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I44" s="24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="10" t="s">
+    <row r="45" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="74"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I44" s="39"/>
-    </row>
-    <row r="45" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="97"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="8" t="s">
+      <c r="I45" s="88"/>
+    </row>
+    <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="74"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I46" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="97"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="42"/>
-    </row>
-    <row r="47" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="75"/>
+    <row r="47" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="74"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="50"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="46"/>
-    </row>
-    <row r="48" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="97" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="78"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="86"/>
+    </row>
+    <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C49" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D49" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="83"/>
-    </row>
-    <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="97"/>
-      <c r="C49" s="107" t="s">
+      <c r="E49" s="56"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="60"/>
+    </row>
+    <row r="50" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="74"/>
+      <c r="C50" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D50" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="79"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="83"/>
-    </row>
-    <row r="50" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="97"/>
-      <c r="C50" s="102" t="s">
+      <c r="E50" s="56"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="60"/>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="74"/>
+      <c r="C51" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D51" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="72" t="s">
+      <c r="E51" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F51" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="G51" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="38" t="s">
+      <c r="I51" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="97"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="10" t="s">
+    <row r="52" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="74"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="39"/>
-    </row>
-    <row r="52" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="97"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="8" t="s">
+      <c r="I52" s="88"/>
+    </row>
+    <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="74"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I53" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="97"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="42"/>
-    </row>
-    <row r="54" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="104"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="75"/>
+    <row r="54" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="74"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="50"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="46"/>
-    </row>
-    <row r="55" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="97"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="73"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="33"/>
       <c r="F55" s="30"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="42"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="86"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="97"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="62"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="42"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="97"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="62"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="42"/>
+      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="97"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="62"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="42"/>
+      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="97"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="62"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="42"/>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="97"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="62"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="42"/>
+      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="97"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="62"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="42"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="97"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="62"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="42"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="97"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="62"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="42"/>
+      <c r="I63" s="27"/>
     </row>
     <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="97"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="42"/>
+      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="97"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="62"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="42"/>
+      <c r="I65" s="27"/>
     </row>
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="97"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="62"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="42"/>
+      <c r="I66" s="27"/>
     </row>
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="97"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="62"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="42"/>
-    </row>
-    <row r="68" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="109"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="44"/>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="74"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="27"/>
+    </row>
+    <row r="69" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -2775,16 +2802,22 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Schema" sheetId="2" r:id="rId2"/>
+    <sheet name="Function" sheetId="3" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId2"/>
+    <sheet name="Schema" sheetId="2" r:id="rId3"/>
+    <sheet name="Database" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="287">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -439,13 +441,465 @@
   </si>
   <si>
     <t>Setiap Bank memiliki beberapa cabang</t>
+  </si>
+  <si>
+    <t>dbERPReborn</t>
+  </si>
+  <si>
+    <t>dbERPReborn-Data-OLAP</t>
+  </si>
+  <si>
+    <t>dbERPReborn-Data-OLTP</t>
+  </si>
+  <si>
+    <t>dbERPReborn-SysConfig</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>SchSysConfig</t>
+  </si>
+  <si>
+    <t>SchSystem</t>
+  </si>
+  <si>
+    <t>SchAccounting</t>
+  </si>
+  <si>
+    <t>SchBudgeting</t>
+  </si>
+  <si>
+    <t>SchCustomerRelation</t>
+  </si>
+  <si>
+    <t>SchDataAcquisition</t>
+  </si>
+  <si>
+    <t>SchFinance</t>
+  </si>
+  <si>
+    <t>SchFixedAsset</t>
+  </si>
+  <si>
+    <t>SchHumanResource</t>
+  </si>
+  <si>
+    <t>SchMaster</t>
+  </si>
+  <si>
+    <t>SchProduction</t>
+  </si>
+  <si>
+    <t>SchProject</t>
+  </si>
+  <si>
+    <t>SchSupplyChain</t>
+  </si>
+  <si>
+    <t>SchTaxation</t>
+  </si>
+  <si>
+    <t>SchData-OLAP</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Accounting</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Budgeting</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-CustomerRelation</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-DataAcquisition</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-FixedAsset</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-HumanResource</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Production</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-Project</t>
+  </si>
+  <si>
+    <t>SchData-OLTP-SupplyChain</t>
+  </si>
+  <si>
+    <t>SchSysAsset</t>
+  </si>
+  <si>
+    <t>SchSysConfig-Import</t>
+  </si>
+  <si>
+    <t>SchSysConfig-Initialize</t>
+  </si>
+  <si>
+    <t>SchSysConfig-Synchronize</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLAP</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchAccounting</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchBudgeting</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchCustomerRelation</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchDataAcquisition</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchFinance</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchFixedAsset</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchHumanResource</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchMaster</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchProduction</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchProject</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchSupplyChain</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper : dbERPReborn-Data-OLTP.SchTaxation</t>
+  </si>
+  <si>
+    <t>Local Schema</t>
+  </si>
+  <si>
+    <t>Foreign Data Wrapper :dbERPReborn-SysConfig.SchSysConfig</t>
+  </si>
+  <si>
+    <t>Skema untuk Inisialisasi Data</t>
+  </si>
+  <si>
+    <t>Skema untuk Import Data</t>
+  </si>
+  <si>
+    <t>Skema untuk Sinkronisasi Data</t>
+  </si>
+  <si>
+    <t>Skema Sistem Internal</t>
+  </si>
+  <si>
+    <t>Skema Konfigurasi Sistem</t>
+  </si>
+  <si>
+    <t>FWD Skema Konfigurasi Sistem</t>
+  </si>
+  <si>
+    <t>Skema untuk Library yang bersifat General</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Akuntansi</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Anggaran</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Hubungan Pelanggan</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Akuisisi Data Eksternal</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Keuangan</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Aset Tetap</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Sumberdaya Manusia</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Master</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Produksi</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Proyek</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Rantai Pasok</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Transaksi Modul Perpajakan</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Akuntansi</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Anggaran</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Hubungan Pelanggan</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Akuisisi Data Eksternal</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Keuangan</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Aset Tetap</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Sumberdaya Manusia</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Master</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Produksi</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Proyek</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Rantai Pasok</t>
+  </si>
+  <si>
+    <t>Skema Data Transaksi Modul Perpajakan</t>
+  </si>
+  <si>
+    <t>FWD Skema Data Analitik dan Resume</t>
+  </si>
+  <si>
+    <t>Database FrontEnd</t>
+  </si>
+  <si>
+    <t>Database BackEnd untuk Data Analitik dan Resume</t>
+  </si>
+  <si>
+    <t>Database BackEnd untuk Data Transaksi</t>
+  </si>
+  <si>
+    <t>Database BackEnd untuk Konfigurasi Sistem</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>Func_General_BigIntArray_Merge</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>LAST UPDATE</t>
+  </si>
+  <si>
+    <t>CREATE DATE</t>
+  </si>
+  <si>
+    <t>VERSIONING</t>
+  </si>
+  <si>
+    <t>1.00.0000</t>
+  </si>
+  <si>
+    <t>Func_General_BigIntArray_RemoveDuplicateElement</t>
+  </si>
+  <si>
+    <t>Func_General_BigIntArray_ReverseElementSequence</t>
+  </si>
+  <si>
+    <t>Menggabungkan Elemen pada suatu Array BigInt dengan Array BigInt lainnya</t>
+  </si>
+  <si>
+    <t>Menghapus duplikasi Elemen pada Array BigInt</t>
+  </si>
+  <si>
+    <t>Membalik urutan Elemen pada Array BigInt</t>
+  </si>
+  <si>
+    <t>Func_General_DataTypeConvert_JSONArrayToBigIntArray</t>
+  </si>
+  <si>
+    <t>Mengkonversi tipe data dari JSON Array ke BigInt Array</t>
+  </si>
+  <si>
+    <t>Func_General_DataTypeConvert_JSONArrayToVarCharArray</t>
+  </si>
+  <si>
+    <t>Mengkonversi tipe data dari JSON Array ke VarChar Array</t>
+  </si>
+  <si>
+    <t>Func_General_Hash_SHA256</t>
+  </si>
+  <si>
+    <t>Mendapatkan SHA256 dari varData</t>
+  </si>
+  <si>
+    <t>Func_General_JSONArray_RemoveElementByIndex</t>
+  </si>
+  <si>
+    <t>Menghapus elemen Array JSON berdasarkan Index</t>
+  </si>
+  <si>
+    <t>Func_General_JSONArray_RemoveElementByIndexArray</t>
+  </si>
+  <si>
+    <t>Menghapus element Array JSON berdasarkan Array Index (Multiple Index)</t>
+  </si>
+  <si>
+    <t>Func_General_NumberSay_English</t>
+  </si>
+  <si>
+    <t>Menampilkan terbilang untuk nominal angka dalam mode bahasa inggris</t>
+  </si>
+  <si>
+    <t>Func_General_NumberSay_Indonesian</t>
+  </si>
+  <si>
+    <t>Menampilkan terbilang untuk nominal angka dalam mode bahasa indonesia</t>
+  </si>
+  <si>
+    <t>Func_General_PeriodByDateTimeTZInterval</t>
+  </si>
+  <si>
+    <t>Mendapatkan Periode berdasarkan Interval Tanggal Awal dan Tanggal Akhir</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_CloudStorageFiles</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_CloudStorageSubDirectories</t>
+  </si>
+  <si>
+    <t>1.00.0002</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_LocalStorageFiles</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_LocalStorageSubDirectories</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List File Upload Staging Area Detail pada Cloud Storage berdasarkan RPK</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List File Upload Staging Area pada Cloud Storage</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List File Upload Staging Area Detail pada Local Storage berdasarkan RPK</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List File Upload Staging Area pada Local Storage</t>
+  </si>
+  <si>
+    <t>Func_GetData_APIWebTokenByUserSessionID</t>
+  </si>
+  <si>
+    <t>Mendapatkan API Web Token dari User Session ID</t>
+  </si>
+  <si>
+    <t>Func_GetData_ArrayOfSimplifiedEntities</t>
+  </si>
+  <si>
+    <t>Mendapatkan Simplifikasi Array dari Entities</t>
+  </si>
+  <si>
+    <t>Func_GetData_FileUpload_MasterFileRecord</t>
+  </si>
+  <si>
+    <t>1.01.0000</t>
+  </si>
+  <si>
+    <t>Mendapatkan Master File Record dari File Upload</t>
+  </si>
+  <si>
+    <t>Func_GetData_FileUpload_isFileAlreadyExist</t>
+  </si>
+  <si>
+    <t>Mendapatkan Signal apakah suatu file sudah terupload atau belum</t>
+  </si>
+  <si>
+    <t>Mendapatkan User Session ID dari API Web Token</t>
+  </si>
+  <si>
+    <t>Func_GetData_UserSessionIDByAPIWebToken</t>
+  </si>
+  <si>
+    <t>Func_GetFileEntities_StagingArea</t>
+  </si>
+  <si>
+    <t>Mendapatkan File Entities pada Staging Area</t>
+  </si>
+  <si>
+    <t>FuncSys_General_CreateSequence</t>
+  </si>
+  <si>
+    <t>Membangun Object Sequence pada Remote Schema</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAPIWebToken_SysEngine</t>
+  </si>
+  <si>
+    <t>Mendapatkan API Web Token untuk SysEngine</t>
+  </si>
+  <si>
+    <t>Func_GetData_APIWebTokenOfSysEngine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Obsolete, Replaced with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>SchSysAsset.Func_GetData_APIWebTokenOfSysEngine</t>
+    </r>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllExtensionsName</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh nama Extension yang terdapat didalam sistem</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllForeignObjectsEntity</t>
+  </si>
+  <si>
+    <t>1.00.0001</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh entitas Foreign yang terdapat didalam sistem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,19 +947,39 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -554,8 +1028,53 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="4"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="5"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1"/>
+        </stop>
+        <stop position="0.5">
+          <color rgb="FF00B050"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -789,19 +1308,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -955,17 +1461,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1043,11 +1538,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1058,327 +1629,446 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1690,20 +2380,1232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="96" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="146" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="147" customWidth="1"/>
+    <col min="8" max="8" width="16" style="147" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="142"/>
+      <c r="H2" s="145"/>
+    </row>
+    <row r="3" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="143" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="151" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="153" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="156">
+        <v>44910</v>
+      </c>
+      <c r="H4" s="157">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="103"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="162">
+        <v>44908</v>
+      </c>
+      <c r="H5" s="163">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="103"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="162">
+        <v>44908</v>
+      </c>
+      <c r="H6" s="163">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="103"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="162">
+        <v>44887</v>
+      </c>
+      <c r="H7" s="163">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="103"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="162">
+        <v>44887</v>
+      </c>
+      <c r="H8" s="163">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="103"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="162">
+        <v>44774</v>
+      </c>
+      <c r="H9" s="163">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="103"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="162">
+        <v>44897</v>
+      </c>
+      <c r="H10" s="163">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="103"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="162">
+        <v>44897</v>
+      </c>
+      <c r="H11" s="163">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="103"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="120" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="162">
+        <v>44748</v>
+      </c>
+      <c r="H12" s="163">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="103"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="162">
+        <v>44735</v>
+      </c>
+      <c r="H13" s="163">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="103"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="162">
+        <v>44854</v>
+      </c>
+      <c r="H14" s="163">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="103"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="162">
+        <v>44770</v>
+      </c>
+      <c r="H15" s="163">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="103"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="161" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="162">
+        <v>44770</v>
+      </c>
+      <c r="H16" s="163">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="103"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="162">
+        <v>44770</v>
+      </c>
+      <c r="H17" s="163">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="103"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" s="162">
+        <v>44770</v>
+      </c>
+      <c r="H18" s="163">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="103"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="162">
+        <v>44777</v>
+      </c>
+      <c r="H19" s="163">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="103"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="162">
+        <v>44931</v>
+      </c>
+      <c r="H20" s="163">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="103"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="162">
+        <v>44847</v>
+      </c>
+      <c r="H21" s="163">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="103"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="120" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="161" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="162">
+        <v>44792</v>
+      </c>
+      <c r="H22" s="163">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="103"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="120" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="162">
+        <v>44776</v>
+      </c>
+      <c r="H23" s="163">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="103"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="162">
+        <v>44777</v>
+      </c>
+      <c r="H24" s="163">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="103"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="162">
+        <v>44770</v>
+      </c>
+      <c r="H25" s="163">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="103"/>
+      <c r="C26" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="164" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="165">
+        <v>44167</v>
+      </c>
+      <c r="H26" s="166">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="103"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="167" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="162">
+        <v>44167</v>
+      </c>
+      <c r="H27" s="163">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="103"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="162">
+        <v>43185</v>
+      </c>
+      <c r="H28" s="163">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="103"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="120" t="s">
+        <v>286</v>
+      </c>
+      <c r="F29" s="161" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" s="162">
+        <v>44216</v>
+      </c>
+      <c r="H29" s="163">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="103"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="163"/>
+    </row>
+    <row r="31" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="103"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="163"/>
+    </row>
+    <row r="32" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="103"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="163"/>
+    </row>
+    <row r="33" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="103"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="163"/>
+    </row>
+    <row r="34" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="103"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="163"/>
+    </row>
+    <row r="35" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="103"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="163"/>
+    </row>
+    <row r="36" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="103"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="163"/>
+    </row>
+    <row r="37" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="103"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="163"/>
+    </row>
+    <row r="38" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="103"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="163"/>
+    </row>
+    <row r="39" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="103"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="163"/>
+    </row>
+    <row r="40" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="103"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="163"/>
+    </row>
+    <row r="41" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="103"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="163"/>
+    </row>
+    <row r="42" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="103"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="163"/>
+    </row>
+    <row r="43" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="103"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="163"/>
+    </row>
+    <row r="44" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="103"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="163"/>
+    </row>
+    <row r="45" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="103"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="163"/>
+    </row>
+    <row r="46" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="103"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="163"/>
+    </row>
+    <row r="47" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="103"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="163"/>
+    </row>
+    <row r="48" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="103"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="163"/>
+    </row>
+    <row r="49" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="103"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="163"/>
+    </row>
+    <row r="50" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="103"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="163"/>
+    </row>
+    <row r="51" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="103"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="163"/>
+    </row>
+    <row r="52" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="103"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="163"/>
+    </row>
+    <row r="53" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="103"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="163"/>
+    </row>
+    <row r="54" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="103"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="163"/>
+    </row>
+    <row r="55" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="103"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="163"/>
+    </row>
+    <row r="56" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="103"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="163"/>
+    </row>
+    <row r="57" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="103"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="163"/>
+    </row>
+    <row r="58" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="103"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="163"/>
+    </row>
+    <row r="59" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="103"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="163"/>
+    </row>
+    <row r="60" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="103"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="163"/>
+    </row>
+    <row r="61" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="103"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="163"/>
+    </row>
+    <row r="62" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="103"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="162"/>
+      <c r="H62" s="163"/>
+    </row>
+    <row r="63" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="103"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="161"/>
+      <c r="G63" s="162"/>
+      <c r="H63" s="163"/>
+    </row>
+    <row r="64" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="103"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="163"/>
+    </row>
+    <row r="65" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="103"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="161"/>
+      <c r="G65" s="162"/>
+      <c r="H65" s="163"/>
+    </row>
+    <row r="66" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="103"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="163"/>
+    </row>
+    <row r="67" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="103"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="161"/>
+      <c r="G67" s="162"/>
+      <c r="H67" s="163"/>
+    </row>
+    <row r="68" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="103"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="161"/>
+      <c r="G68" s="162"/>
+      <c r="H68" s="163"/>
+    </row>
+    <row r="69" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="103"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="161"/>
+      <c r="G69" s="162"/>
+      <c r="H69" s="163"/>
+    </row>
+    <row r="70" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="103"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="162"/>
+      <c r="H70" s="163"/>
+    </row>
+    <row r="71" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="103"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="161"/>
+      <c r="G71" s="162"/>
+      <c r="H71" s="163"/>
+    </row>
+    <row r="72" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="103"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="162"/>
+      <c r="H72" s="163"/>
+    </row>
+    <row r="73" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="103"/>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="162"/>
+      <c r="H73" s="163"/>
+    </row>
+    <row r="74" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="103"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="120"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="162"/>
+      <c r="H74" s="163"/>
+    </row>
+    <row r="75" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="103"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="120"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="162"/>
+      <c r="H75" s="163"/>
+    </row>
+    <row r="76" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="103"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="120"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="162"/>
+      <c r="H76" s="163"/>
+    </row>
+    <row r="77" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="103"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="161"/>
+      <c r="G77" s="162"/>
+      <c r="H77" s="163"/>
+    </row>
+    <row r="78" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="103"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="162"/>
+      <c r="H78" s="163"/>
+    </row>
+    <row r="79" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="103"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="120"/>
+      <c r="F79" s="161"/>
+      <c r="G79" s="162"/>
+      <c r="H79" s="163"/>
+    </row>
+    <row r="80" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="103"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="120"/>
+      <c r="F80" s="161"/>
+      <c r="G80" s="162"/>
+      <c r="H80" s="163"/>
+    </row>
+    <row r="81" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="103"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="120"/>
+      <c r="F81" s="161"/>
+      <c r="G81" s="162"/>
+      <c r="H81" s="163"/>
+    </row>
+    <row r="82" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="103"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="161"/>
+      <c r="G82" s="162"/>
+      <c r="H82" s="163"/>
+    </row>
+    <row r="83" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="103"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="120"/>
+      <c r="F83" s="161"/>
+      <c r="G83" s="162"/>
+      <c r="H83" s="163"/>
+    </row>
+    <row r="84" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="103"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="162"/>
+      <c r="H84" s="163"/>
+    </row>
+    <row r="85" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="103"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="120"/>
+      <c r="F85" s="161"/>
+      <c r="G85" s="162"/>
+      <c r="H85" s="163"/>
+    </row>
+    <row r="86" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="103"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="162"/>
+      <c r="H86" s="163"/>
+    </row>
+    <row r="87" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="103"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="161"/>
+      <c r="G87" s="162"/>
+      <c r="H87" s="163"/>
+    </row>
+    <row r="88" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="103"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="120"/>
+      <c r="F88" s="161"/>
+      <c r="G88" s="162"/>
+      <c r="H88" s="163"/>
+    </row>
+    <row r="89" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="103"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="120"/>
+      <c r="F89" s="161"/>
+      <c r="G89" s="162"/>
+      <c r="H89" s="163"/>
+    </row>
+    <row r="90" spans="2:8" s="97" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="106"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="159"/>
+      <c r="H90" s="160"/>
+    </row>
+    <row r="91" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F91" s="119"/>
+      <c r="G91" s="148"/>
+      <c r="H91" s="148"/>
+    </row>
+    <row r="92" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F92" s="119"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="148"/>
+    </row>
+    <row r="93" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F93" s="119"/>
+      <c r="G93" s="148"/>
+      <c r="H93" s="148"/>
+    </row>
+    <row r="94" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F94" s="119"/>
+      <c r="G94" s="148"/>
+      <c r="H94" s="148"/>
+    </row>
+    <row r="95" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F95" s="119"/>
+      <c r="G95" s="148"/>
+      <c r="H95" s="148"/>
+    </row>
+    <row r="96" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F96" s="119"/>
+      <c r="G96" s="148"/>
+      <c r="H96" s="148"/>
+    </row>
+    <row r="97" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F97" s="119"/>
+      <c r="G97" s="148"/>
+      <c r="H97" s="148"/>
+    </row>
+    <row r="98" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F98" s="119"/>
+      <c r="G98" s="148"/>
+      <c r="H98" s="148"/>
+    </row>
+    <row r="99" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F99" s="119"/>
+      <c r="G99" s="148"/>
+      <c r="H99" s="148"/>
+    </row>
+    <row r="100" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F100" s="119"/>
+      <c r="G100" s="148"/>
+      <c r="H100" s="148"/>
+    </row>
+    <row r="101" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F101" s="119"/>
+      <c r="G101" s="148"/>
+      <c r="H101" s="148"/>
+    </row>
+    <row r="102" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F102" s="119"/>
+      <c r="G102" s="148"/>
+      <c r="H102" s="148"/>
+    </row>
+    <row r="103" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F103" s="119"/>
+      <c r="G103" s="148"/>
+      <c r="H103" s="148"/>
+    </row>
+    <row r="104" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F104" s="119"/>
+      <c r="G104" s="148"/>
+      <c r="H104" s="148"/>
+    </row>
+    <row r="105" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F105" s="119"/>
+      <c r="G105" s="148"/>
+      <c r="H105" s="148"/>
+    </row>
+    <row r="106" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F106" s="119"/>
+      <c r="G106" s="148"/>
+      <c r="H106" s="148"/>
+    </row>
+    <row r="107" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F107" s="119"/>
+      <c r="G107" s="148"/>
+      <c r="H107" s="148"/>
+    </row>
+    <row r="108" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F108" s="119"/>
+      <c r="G108" s="148"/>
+      <c r="H108" s="148"/>
+    </row>
+    <row r="109" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F109" s="119"/>
+      <c r="G109" s="148"/>
+      <c r="H109" s="148"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1714,1085 +3616,1091 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+    <row r="2" spans="2:11" s="28" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="104" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
-    </row>
-    <row r="3" spans="2:11" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="H2" s="129"/>
+      <c r="I2" s="131"/>
+    </row>
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="110"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="88" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="74"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="87" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="88"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="74"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="94"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="29" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="74"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="92" t="s">
+      <c r="G9" s="88" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="16" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="74"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="87" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="88"/>
+      <c r="I10" s="78"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="74"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="94"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="95" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="88" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="74"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="48" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="94"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="2:11" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
-      <c r="C14" s="76" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="77"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:11" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="75" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="37" t="s">
         <v>80</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="37" t="s">
         <v>80</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
-      <c r="C20" s="75" t="s">
+      <c r="B20" s="67"/>
+      <c r="C20" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="80"/>
-      <c r="C21" s="75" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
-      <c r="C22" s="76" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="34" t="s">
         <v>90</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
-      <c r="C23" s="76" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="2:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="80"/>
-      <c r="C24" s="76" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="G24" s="37" t="s">
         <v>99</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="80"/>
-      <c r="C25" s="76" t="s">
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="C25" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="80"/>
-      <c r="C26" s="76" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-    </row>
-    <row r="27" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="80"/>
-      <c r="C27" s="76" t="s">
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="67"/>
+      <c r="C27" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
     </row>
     <row r="28" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80"/>
-      <c r="C28" s="76" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="80"/>
-      <c r="C29" s="76" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
-    </row>
-    <row r="30" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="80"/>
-      <c r="C30" s="76" t="s">
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="67"/>
+      <c r="C30" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="54"/>
     </row>
     <row r="31" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="80"/>
-      <c r="C31" s="76" t="s">
+      <c r="B31" s="67"/>
+      <c r="C31" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="80"/>
-      <c r="C32" s="76" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="34" t="s">
         <v>120</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="I32" s="18" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="80"/>
-      <c r="C33" s="76" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="34" t="s">
         <v>123</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="80"/>
-      <c r="C34" s="76" t="s">
+      <c r="B34" s="67"/>
+      <c r="C34" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="34" t="s">
         <v>124</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="80"/>
-      <c r="C35" s="76" t="s">
+      <c r="B35" s="67"/>
+      <c r="C35" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="34" t="s">
         <v>126</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="80"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="45"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="77"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="66" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="40"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="74"/>
-      <c r="C40" s="95" t="s">
+      <c r="B40" s="61"/>
+      <c r="C40" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="101" t="s">
+      <c r="F40" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="92" t="s">
+      <c r="G40" s="88" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="74"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="87" t="s">
+      <c r="B41" s="61"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="88"/>
+      <c r="I41" s="78"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="74"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="94"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="74"/>
-      <c r="C43" s="75" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="74"/>
-      <c r="C44" s="95" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="98" t="s">
+      <c r="D44" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="89" t="s">
+      <c r="E44" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="101" t="s">
+      <c r="F44" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="92" t="s">
+      <c r="G44" s="88" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="74"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="87" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="88"/>
+      <c r="I45" s="78"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="74"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="94"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="I46" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="47" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="74"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="42"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="27"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="78"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="86"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="92"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="60"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
     </row>
     <row r="50" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="74"/>
-      <c r="C50" s="81" t="s">
+      <c r="B50" s="61"/>
+      <c r="C50" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="60"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
     </row>
     <row r="51" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="74"/>
-      <c r="C51" s="76" t="s">
+      <c r="B51" s="61"/>
+      <c r="C51" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="74"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="87" t="s">
+      <c r="B52" s="61"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="88"/>
+      <c r="I52" s="78"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="74"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="41"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="25" t="s">
+      <c r="I53" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="74"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="42"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="27"/>
+      <c r="I54" s="19"/>
     </row>
     <row r="55" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="78"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="86"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="92"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="74"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="42"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="27"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="74"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="42"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="27"/>
+      <c r="I57" s="19"/>
     </row>
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="74"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="42"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="27"/>
+      <c r="I58" s="19"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="74"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="42"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="27"/>
+      <c r="I59" s="19"/>
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="74"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="42"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="27"/>
+      <c r="I60" s="19"/>
     </row>
     <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="74"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="42"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="27"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="74"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="42"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="27"/>
+      <c r="I62" s="19"/>
     </row>
     <row r="63" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="74"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="42"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="27"/>
+      <c r="I63" s="19"/>
     </row>
     <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="74"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="42"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="27"/>
+      <c r="I64" s="19"/>
     </row>
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="74"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="42"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="27"/>
+      <c r="I65" s="19"/>
     </row>
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="74"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="42"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="27"/>
+      <c r="I66" s="19"/>
     </row>
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="74"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="42"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="27"/>
+      <c r="I67" s="19"/>
     </row>
     <row r="68" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="42"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="27"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="83"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="29"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -2803,43 +4711,570 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="97" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="97" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="97"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="129" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="130"/>
+      <c r="E3" s="132"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="103"/>
+      <c r="C5" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="103"/>
+      <c r="C6" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="103"/>
+      <c r="C7" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="103"/>
+      <c r="C8" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="103"/>
+      <c r="C9" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="103"/>
+      <c r="C10" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="103"/>
+      <c r="C11" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="120" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="103"/>
+      <c r="C12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="103"/>
+      <c r="C13" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="103"/>
+      <c r="C14" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="103"/>
+      <c r="C15" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="103"/>
+      <c r="C16" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="103"/>
+      <c r="C17" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="103"/>
+      <c r="C18" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="103"/>
+      <c r="C19" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="103"/>
+      <c r="C20" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="103"/>
+      <c r="C21" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="121" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="104"/>
+      <c r="C22" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="123" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="124" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="121" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="103"/>
+      <c r="C25" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="121" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="103"/>
+      <c r="C26" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="121" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="103"/>
+      <c r="C27" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="103"/>
+      <c r="C28" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="103"/>
+      <c r="C29" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="103"/>
+      <c r="C30" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="121" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="103"/>
+      <c r="C31" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="103"/>
+      <c r="C32" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="103"/>
+      <c r="C33" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="103"/>
+      <c r="C34" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="121" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="103"/>
+      <c r="C35" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="121" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="103"/>
+      <c r="C36" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="106"/>
+      <c r="C38" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="127" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="96"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="97" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="134"/>
+    </row>
+    <row r="4" spans="2:3" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="135" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -809,9 +809,6 @@
     <t>Mendapatkan Data List File Upload Staging Area pada Local Storage</t>
   </si>
   <si>
-    <t>Func_GetData_APIWebTokenByUserSessionID</t>
-  </si>
-  <si>
     <t>Mendapatkan API Web Token dari User Session ID</t>
   </si>
   <si>
@@ -860,7 +857,25 @@
     <t>Mendapatkan API Web Token untuk SysEngine</t>
   </si>
   <si>
-    <t>Func_GetData_APIWebTokenOfSysEngine</t>
+    <t>FuncSys_General_GetAllExtensionsName</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh nama Extension yang terdapat didalam sistem</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllForeignObjectsEntity</t>
+  </si>
+  <si>
+    <t>1.00.0001</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh entitas Foreign yang terdapat didalam sistem</t>
+  </si>
+  <si>
+    <t>Func_GetData_APIWebToken_ByUserSessionID</t>
+  </si>
+  <si>
+    <t>Func_GetData_APIWebToken_SysEngine</t>
   </si>
   <si>
     <r>
@@ -873,23 +888,8 @@
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>SchSysAsset.Func_GetData_APIWebTokenOfSysEngine</t>
+      <t>SchSysAsset.Func_GetData_APIWebToken_SysEngine</t>
     </r>
-  </si>
-  <si>
-    <t>FuncSys_General_GetAllExtensionsName</t>
-  </si>
-  <si>
-    <t>Menampilkan seluruh nama Extension yang terdapat didalam sistem</t>
-  </si>
-  <si>
-    <t>FuncSys_General_GetAllForeignObjectsEntity</t>
-  </si>
-  <si>
-    <t>1.00.0001</t>
-  </si>
-  <si>
-    <t>Menampilkan seluruh entitas Foreign yang terdapat didalam sistem</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1848,63 +1848,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1921,15 +1864,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,12 +1872,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1960,74 +1888,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2035,40 +1921,154 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2383,1202 +2383,1202 @@
   <dimension ref="B1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="96" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="146" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="147" customWidth="1"/>
-    <col min="8" max="8" width="16" style="147" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="96"/>
+    <col min="1" max="1" width="1.42578125" style="77" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="77" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="109" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="110" customWidth="1"/>
+    <col min="8" max="8" width="16" style="110" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="144" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="142"/>
-      <c r="H2" s="145"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="136"/>
     </row>
     <row r="3" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="152" t="s">
+      <c r="H3" s="114" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="108" t="s">
+    <row r="4" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="156">
+      <c r="G4" s="118">
         <v>44910</v>
       </c>
-      <c r="H4" s="157">
+      <c r="H4" s="119">
         <v>44910</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="103"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99" t="s">
+    <row r="5" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="84"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="161" t="s">
+      <c r="F5" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="162">
+      <c r="G5" s="124">
         <v>44908</v>
       </c>
-      <c r="H5" s="163">
+      <c r="H5" s="125">
         <v>44908</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99" t="s">
+    <row r="6" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="84"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="161" t="s">
+      <c r="F6" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="124">
         <v>44908</v>
       </c>
-      <c r="H6" s="163">
+      <c r="H6" s="125">
         <v>44908</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99" t="s">
+    <row r="7" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="84"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="161" t="s">
+      <c r="F7" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="162">
+      <c r="G7" s="124">
         <v>44887</v>
       </c>
-      <c r="H7" s="163">
+      <c r="H7" s="125">
         <v>44887</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99" t="s">
+    <row r="8" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="84"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="162">
+      <c r="G8" s="124">
         <v>44887</v>
       </c>
-      <c r="H8" s="163">
+      <c r="H8" s="125">
         <v>44887</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99" t="s">
+    <row r="9" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="84"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="124">
         <v>44774</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="125">
         <v>44774</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99" t="s">
+    <row r="10" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="84"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E10" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="161" t="s">
+      <c r="F10" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="162">
+      <c r="G10" s="124">
         <v>44897</v>
       </c>
-      <c r="H10" s="163">
+      <c r="H10" s="125">
         <v>44897</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99" t="s">
+    <row r="11" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="84"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="161" t="s">
+      <c r="F11" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="162">
+      <c r="G11" s="124">
         <v>44897</v>
       </c>
-      <c r="H11" s="163">
+      <c r="H11" s="125">
         <v>44897</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99" t="s">
+    <row r="12" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="84"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="161" t="s">
+      <c r="F12" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="162">
+      <c r="G12" s="124">
         <v>44748</v>
       </c>
-      <c r="H12" s="163">
+      <c r="H12" s="125">
         <v>44748</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99" t="s">
+    <row r="13" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="84"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="120" t="s">
+      <c r="E13" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="161" t="s">
+      <c r="F13" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="162">
+      <c r="G13" s="124">
         <v>44735</v>
       </c>
-      <c r="H13" s="163">
+      <c r="H13" s="125">
         <v>44735</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="103"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99" t="s">
+    <row r="14" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="84"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="162">
+      <c r="G14" s="124">
         <v>44854</v>
       </c>
-      <c r="H14" s="163">
+      <c r="H14" s="125">
         <v>44854</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99" t="s">
+    <row r="15" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="84"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="124">
         <v>44770</v>
       </c>
-      <c r="H15" s="163">
+      <c r="H15" s="125">
         <v>44770</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99" t="s">
+    <row r="16" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="84"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="161" t="s">
+      <c r="F16" s="123" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="124">
         <v>44770</v>
       </c>
-      <c r="H16" s="163">
+      <c r="H16" s="125">
         <v>44427</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="103"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99" t="s">
+    <row r="17" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="84"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="E17" s="120" t="s">
+      <c r="E17" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="161" t="s">
+      <c r="F17" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="124">
         <v>44770</v>
       </c>
-      <c r="H17" s="163">
+      <c r="H17" s="125">
         <v>44770</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99" t="s">
+    <row r="18" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="84"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E18" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="F18" s="161" t="s">
+      <c r="F18" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="124">
         <v>44770</v>
       </c>
-      <c r="H18" s="163">
+      <c r="H18" s="125">
         <v>44427</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99" t="s">
+    <row r="19" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="84"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="120" t="s">
+      <c r="F19" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="124">
+        <v>44777</v>
+      </c>
+      <c r="H19" s="125">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="84"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="124">
+        <v>44931</v>
+      </c>
+      <c r="H20" s="125">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="84"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="F19" s="161" t="s">
+      <c r="E21" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G21" s="124">
+        <v>44847</v>
+      </c>
+      <c r="H21" s="125">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="84"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="124">
+        <v>44792</v>
+      </c>
+      <c r="H22" s="125">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="84"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="124">
+        <v>44776</v>
+      </c>
+      <c r="H23" s="125">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="84"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="F24" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="124">
         <v>44777</v>
       </c>
-      <c r="H19" s="163">
+      <c r="H24" s="125">
         <v>44777</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99" t="s">
+    <row r="25" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="84"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="124">
+        <v>44770</v>
+      </c>
+      <c r="H25" s="125">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="84"/>
+      <c r="C26" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="127">
+        <v>44167</v>
+      </c>
+      <c r="H26" s="128">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="84"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="129" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="124">
+        <v>44167</v>
+      </c>
+      <c r="H27" s="125">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="84"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="E20" s="120" t="s">
-        <v>279</v>
-      </c>
-      <c r="F20" s="161" t="s">
+      <c r="F28" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="162">
-        <v>44931</v>
-      </c>
-      <c r="H20" s="163">
-        <v>44931</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" s="161" t="s">
-        <v>232</v>
-      </c>
-      <c r="G21" s="162">
-        <v>44847</v>
-      </c>
-      <c r="H21" s="163">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="120" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="161" t="s">
-        <v>268</v>
-      </c>
-      <c r="G22" s="162">
-        <v>44792</v>
-      </c>
-      <c r="H22" s="163">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="E23" s="120" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" s="161" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" s="162">
-        <v>44776</v>
-      </c>
-      <c r="H23" s="163">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" s="120" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" s="161" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="162">
-        <v>44777</v>
-      </c>
-      <c r="H24" s="163">
-        <v>44777</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="103"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="120" t="s">
-        <v>275</v>
-      </c>
-      <c r="F25" s="161" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="162">
-        <v>44770</v>
-      </c>
-      <c r="H25" s="163">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
-      <c r="C26" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="98" t="s">
-        <v>276</v>
-      </c>
-      <c r="E26" s="125" t="s">
-        <v>277</v>
-      </c>
-      <c r="F26" s="164" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" s="165">
-        <v>44167</v>
-      </c>
-      <c r="H26" s="166">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="167" t="s">
-        <v>278</v>
-      </c>
-      <c r="E27" s="120" t="s">
+      <c r="G28" s="124">
+        <v>43185</v>
+      </c>
+      <c r="H28" s="125">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="84"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="F27" s="161" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="162">
-        <v>44167</v>
-      </c>
-      <c r="H27" s="163">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="103"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99" t="s">
+      <c r="E29" s="96" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="123" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="120" t="s">
-        <v>283</v>
-      </c>
-      <c r="F28" s="161" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="162">
-        <v>43185</v>
-      </c>
-      <c r="H28" s="163">
-        <v>43185</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="120" t="s">
-        <v>286</v>
-      </c>
-      <c r="F29" s="161" t="s">
-        <v>285</v>
-      </c>
-      <c r="G29" s="162">
+      <c r="G29" s="124">
         <v>44216</v>
       </c>
-      <c r="H29" s="163">
+      <c r="H29" s="125">
         <v>44216</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="163"/>
-    </row>
-    <row r="31" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="103"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="163"/>
-    </row>
-    <row r="32" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="163"/>
-    </row>
-    <row r="33" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="163"/>
-    </row>
-    <row r="34" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="103"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="163"/>
-    </row>
-    <row r="35" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="103"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="163"/>
-    </row>
-    <row r="36" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="103"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="163"/>
-    </row>
-    <row r="37" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="162"/>
-      <c r="H37" s="163"/>
-    </row>
-    <row r="38" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="163"/>
-    </row>
-    <row r="39" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="103"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="163"/>
-    </row>
-    <row r="40" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="163"/>
-    </row>
-    <row r="41" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="103"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="163"/>
-    </row>
-    <row r="42" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="103"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="163"/>
-    </row>
-    <row r="43" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="103"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="163"/>
-    </row>
-    <row r="44" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="103"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="163"/>
-    </row>
-    <row r="45" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="103"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="163"/>
-    </row>
-    <row r="46" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="103"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="163"/>
-    </row>
-    <row r="47" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="103"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="163"/>
-    </row>
-    <row r="48" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="103"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="163"/>
-    </row>
-    <row r="49" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B49" s="103"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="163"/>
-    </row>
-    <row r="50" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="103"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="163"/>
-    </row>
-    <row r="51" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="103"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="163"/>
-    </row>
-    <row r="52" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="103"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="163"/>
-    </row>
-    <row r="53" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="103"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="163"/>
-    </row>
-    <row r="54" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="103"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="163"/>
-    </row>
-    <row r="55" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="103"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="163"/>
-    </row>
-    <row r="56" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="103"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="163"/>
-    </row>
-    <row r="57" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="103"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="163"/>
-    </row>
-    <row r="58" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="103"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="161"/>
-      <c r="G58" s="162"/>
-      <c r="H58" s="163"/>
-    </row>
-    <row r="59" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="103"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="162"/>
-      <c r="H59" s="163"/>
-    </row>
-    <row r="60" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="103"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="162"/>
-      <c r="H60" s="163"/>
-    </row>
-    <row r="61" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="103"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="161"/>
-      <c r="G61" s="162"/>
-      <c r="H61" s="163"/>
-    </row>
-    <row r="62" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="103"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="162"/>
-      <c r="H62" s="163"/>
-    </row>
-    <row r="63" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="103"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="161"/>
-      <c r="G63" s="162"/>
-      <c r="H63" s="163"/>
-    </row>
-    <row r="64" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="103"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="161"/>
-      <c r="G64" s="162"/>
-      <c r="H64" s="163"/>
-    </row>
-    <row r="65" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="103"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="161"/>
-      <c r="G65" s="162"/>
-      <c r="H65" s="163"/>
-    </row>
-    <row r="66" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="103"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="161"/>
-      <c r="G66" s="162"/>
-      <c r="H66" s="163"/>
-    </row>
-    <row r="67" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="103"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="161"/>
-      <c r="G67" s="162"/>
-      <c r="H67" s="163"/>
-    </row>
-    <row r="68" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="103"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="161"/>
-      <c r="G68" s="162"/>
-      <c r="H68" s="163"/>
-    </row>
-    <row r="69" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="103"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="161"/>
-      <c r="G69" s="162"/>
-      <c r="H69" s="163"/>
-    </row>
-    <row r="70" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="103"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="120"/>
-      <c r="F70" s="161"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="163"/>
-    </row>
-    <row r="71" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="103"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="161"/>
-      <c r="G71" s="162"/>
-      <c r="H71" s="163"/>
-    </row>
-    <row r="72" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="103"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="161"/>
-      <c r="G72" s="162"/>
-      <c r="H72" s="163"/>
-    </row>
-    <row r="73" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="103"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="161"/>
-      <c r="G73" s="162"/>
-      <c r="H73" s="163"/>
-    </row>
-    <row r="74" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="103"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="161"/>
-      <c r="G74" s="162"/>
-      <c r="H74" s="163"/>
-    </row>
-    <row r="75" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="103"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="120"/>
-      <c r="F75" s="161"/>
-      <c r="G75" s="162"/>
-      <c r="H75" s="163"/>
-    </row>
-    <row r="76" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="103"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="120"/>
-      <c r="F76" s="161"/>
-      <c r="G76" s="162"/>
-      <c r="H76" s="163"/>
-    </row>
-    <row r="77" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="103"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="120"/>
-      <c r="F77" s="161"/>
-      <c r="G77" s="162"/>
-      <c r="H77" s="163"/>
-    </row>
-    <row r="78" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="103"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="120"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="162"/>
-      <c r="H78" s="163"/>
-    </row>
-    <row r="79" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="103"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="120"/>
-      <c r="F79" s="161"/>
-      <c r="G79" s="162"/>
-      <c r="H79" s="163"/>
-    </row>
-    <row r="80" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="103"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="120"/>
-      <c r="F80" s="161"/>
-      <c r="G80" s="162"/>
-      <c r="H80" s="163"/>
-    </row>
-    <row r="81" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="103"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="120"/>
-      <c r="F81" s="161"/>
-      <c r="G81" s="162"/>
-      <c r="H81" s="163"/>
-    </row>
-    <row r="82" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="103"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="99"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="161"/>
-      <c r="G82" s="162"/>
-      <c r="H82" s="163"/>
-    </row>
-    <row r="83" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="103"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="120"/>
-      <c r="F83" s="161"/>
-      <c r="G83" s="162"/>
-      <c r="H83" s="163"/>
-    </row>
-    <row r="84" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="103"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="120"/>
-      <c r="F84" s="161"/>
-      <c r="G84" s="162"/>
-      <c r="H84" s="163"/>
-    </row>
-    <row r="85" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="103"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="99"/>
-      <c r="E85" s="120"/>
-      <c r="F85" s="161"/>
-      <c r="G85" s="162"/>
-      <c r="H85" s="163"/>
-    </row>
-    <row r="86" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="103"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="161"/>
-      <c r="G86" s="162"/>
-      <c r="H86" s="163"/>
-    </row>
-    <row r="87" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="103"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="99"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="161"/>
-      <c r="G87" s="162"/>
-      <c r="H87" s="163"/>
-    </row>
-    <row r="88" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="103"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="120"/>
-      <c r="F88" s="161"/>
-      <c r="G88" s="162"/>
-      <c r="H88" s="163"/>
-    </row>
-    <row r="89" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="103"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="120"/>
-      <c r="F89" s="161"/>
-      <c r="G89" s="162"/>
-      <c r="H89" s="163"/>
-    </row>
-    <row r="90" spans="2:8" s="97" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="106"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="158"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="160"/>
-    </row>
-    <row r="91" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F91" s="119"/>
-      <c r="G91" s="148"/>
-      <c r="H91" s="148"/>
-    </row>
-    <row r="92" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F92" s="119"/>
-      <c r="G92" s="148"/>
-      <c r="H92" s="148"/>
-    </row>
-    <row r="93" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F93" s="119"/>
-      <c r="G93" s="148"/>
-      <c r="H93" s="148"/>
-    </row>
-    <row r="94" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F94" s="119"/>
-      <c r="G94" s="148"/>
-      <c r="H94" s="148"/>
-    </row>
-    <row r="95" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F95" s="119"/>
-      <c r="G95" s="148"/>
-      <c r="H95" s="148"/>
-    </row>
-    <row r="96" spans="2:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F96" s="119"/>
-      <c r="G96" s="148"/>
-      <c r="H96" s="148"/>
-    </row>
-    <row r="97" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F97" s="119"/>
-      <c r="G97" s="148"/>
-      <c r="H97" s="148"/>
-    </row>
-    <row r="98" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F98" s="119"/>
-      <c r="G98" s="148"/>
-      <c r="H98" s="148"/>
-    </row>
-    <row r="99" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F99" s="119"/>
-      <c r="G99" s="148"/>
-      <c r="H99" s="148"/>
-    </row>
-    <row r="100" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F100" s="119"/>
-      <c r="G100" s="148"/>
-      <c r="H100" s="148"/>
-    </row>
-    <row r="101" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F101" s="119"/>
-      <c r="G101" s="148"/>
-      <c r="H101" s="148"/>
-    </row>
-    <row r="102" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F102" s="119"/>
-      <c r="G102" s="148"/>
-      <c r="H102" s="148"/>
-    </row>
-    <row r="103" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F103" s="119"/>
-      <c r="G103" s="148"/>
-      <c r="H103" s="148"/>
-    </row>
-    <row r="104" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F104" s="119"/>
-      <c r="G104" s="148"/>
-      <c r="H104" s="148"/>
-    </row>
-    <row r="105" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F105" s="119"/>
-      <c r="G105" s="148"/>
-      <c r="H105" s="148"/>
-    </row>
-    <row r="106" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F106" s="119"/>
-      <c r="G106" s="148"/>
-      <c r="H106" s="148"/>
-    </row>
-    <row r="107" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F107" s="119"/>
-      <c r="G107" s="148"/>
-      <c r="H107" s="148"/>
-    </row>
-    <row r="108" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F108" s="119"/>
-      <c r="G108" s="148"/>
-      <c r="H108" s="148"/>
-    </row>
-    <row r="109" spans="6:8" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F109" s="119"/>
-      <c r="G109" s="148"/>
-      <c r="H109" s="148"/>
+    <row r="30" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="84"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
+    </row>
+    <row r="31" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="84"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
+    </row>
+    <row r="32" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="84"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
+    </row>
+    <row r="33" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="84"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
+    </row>
+    <row r="34" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="84"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
+    </row>
+    <row r="35" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="84"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="125"/>
+    </row>
+    <row r="36" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="84"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
+    </row>
+    <row r="37" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="84"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="125"/>
+    </row>
+    <row r="38" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="84"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="125"/>
+    </row>
+    <row r="39" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="84"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="125"/>
+    </row>
+    <row r="40" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="84"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125"/>
+    </row>
+    <row r="41" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="84"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="125"/>
+    </row>
+    <row r="42" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="84"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="125"/>
+    </row>
+    <row r="43" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="84"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="125"/>
+    </row>
+    <row r="44" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="84"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="125"/>
+    </row>
+    <row r="45" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="84"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="125"/>
+    </row>
+    <row r="46" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="84"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="125"/>
+    </row>
+    <row r="47" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="84"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="125"/>
+    </row>
+    <row r="48" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="84"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="125"/>
+    </row>
+    <row r="49" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="84"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="125"/>
+    </row>
+    <row r="50" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="84"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="125"/>
+    </row>
+    <row r="51" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="84"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="125"/>
+    </row>
+    <row r="52" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="84"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="125"/>
+    </row>
+    <row r="53" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="84"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="125"/>
+    </row>
+    <row r="54" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="84"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="125"/>
+    </row>
+    <row r="55" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="84"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="125"/>
+    </row>
+    <row r="56" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="84"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="125"/>
+    </row>
+    <row r="57" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="84"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="125"/>
+    </row>
+    <row r="58" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="84"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="125"/>
+    </row>
+    <row r="59" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="84"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="125"/>
+    </row>
+    <row r="60" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="84"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="125"/>
+    </row>
+    <row r="61" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="84"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="125"/>
+    </row>
+    <row r="62" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="84"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="125"/>
+    </row>
+    <row r="63" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="84"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="125"/>
+    </row>
+    <row r="64" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="84"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="125"/>
+    </row>
+    <row r="65" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="84"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="125"/>
+    </row>
+    <row r="66" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="84"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="125"/>
+    </row>
+    <row r="67" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="84"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="125"/>
+    </row>
+    <row r="68" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="84"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="125"/>
+    </row>
+    <row r="69" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="84"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="125"/>
+    </row>
+    <row r="70" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="84"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="123"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="125"/>
+    </row>
+    <row r="71" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="84"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="123"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="125"/>
+    </row>
+    <row r="72" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="84"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="123"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="125"/>
+    </row>
+    <row r="73" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="84"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="125"/>
+    </row>
+    <row r="74" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="84"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="125"/>
+    </row>
+    <row r="75" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="84"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="125"/>
+    </row>
+    <row r="76" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="84"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="123"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="125"/>
+    </row>
+    <row r="77" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="84"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="123"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="125"/>
+    </row>
+    <row r="78" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="84"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="125"/>
+    </row>
+    <row r="79" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="84"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="123"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="125"/>
+    </row>
+    <row r="80" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="84"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="123"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="125"/>
+    </row>
+    <row r="81" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="84"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="123"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="125"/>
+    </row>
+    <row r="82" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="84"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="123"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="125"/>
+    </row>
+    <row r="83" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="84"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="123"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="125"/>
+    </row>
+    <row r="84" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="84"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="123"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="125"/>
+    </row>
+    <row r="85" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="84"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="125"/>
+    </row>
+    <row r="86" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="84"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="125"/>
+    </row>
+    <row r="87" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="84"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="123"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="125"/>
+    </row>
+    <row r="88" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="84"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="123"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="125"/>
+    </row>
+    <row r="89" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="84"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="123"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="125"/>
+    </row>
+    <row r="90" spans="2:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="120"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="122"/>
+    </row>
+    <row r="91" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F91" s="95"/>
+      <c r="G91" s="111"/>
+      <c r="H91" s="111"/>
+    </row>
+    <row r="92" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F92" s="95"/>
+      <c r="G92" s="111"/>
+      <c r="H92" s="111"/>
+    </row>
+    <row r="93" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F93" s="95"/>
+      <c r="G93" s="111"/>
+      <c r="H93" s="111"/>
+    </row>
+    <row r="94" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F94" s="95"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="111"/>
+    </row>
+    <row r="95" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F95" s="95"/>
+      <c r="G95" s="111"/>
+      <c r="H95" s="111"/>
+    </row>
+    <row r="96" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F96" s="95"/>
+      <c r="G96" s="111"/>
+      <c r="H96" s="111"/>
+    </row>
+    <row r="97" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F97" s="95"/>
+      <c r="G97" s="111"/>
+      <c r="H97" s="111"/>
+    </row>
+    <row r="98" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F98" s="95"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="111"/>
+    </row>
+    <row r="99" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F99" s="95"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+    </row>
+    <row r="100" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F100" s="95"/>
+      <c r="G100" s="111"/>
+      <c r="H100" s="111"/>
+    </row>
+    <row r="101" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F101" s="95"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
+    </row>
+    <row r="102" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F102" s="95"/>
+      <c r="G102" s="111"/>
+      <c r="H102" s="111"/>
+    </row>
+    <row r="103" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F103" s="95"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="111"/>
+    </row>
+    <row r="104" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F104" s="95"/>
+      <c r="G104" s="111"/>
+      <c r="H104" s="111"/>
+    </row>
+    <row r="105" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F105" s="95"/>
+      <c r="G105" s="111"/>
+      <c r="H105" s="111"/>
+    </row>
+    <row r="106" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F106" s="95"/>
+      <c r="G106" s="111"/>
+      <c r="H106" s="111"/>
+    </row>
+    <row r="107" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F107" s="95"/>
+      <c r="G107" s="111"/>
+      <c r="H107" s="111"/>
+    </row>
+    <row r="108" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F108" s="95"/>
+      <c r="G108" s="111"/>
+      <c r="H108" s="111"/>
+    </row>
+    <row r="109" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F109" s="95"/>
+      <c r="G109" s="111"/>
+      <c r="H109" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3617,44 +3617,44 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="136" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="136" t="s">
+      <c r="F2" s="158"/>
+      <c r="G2" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="129"/>
-      <c r="I2" s="131"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="130" t="s">
+      <c r="H3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="132"/>
+      <c r="I3" s="163"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -3684,19 +3684,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="150" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="144" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -3708,23 +3708,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="83"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="77" t="s">
+      <c r="F6" s="154"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="78"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="84"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="90"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -3758,19 +3758,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="144" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -3783,24 +3783,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="77" t="s">
+      <c r="C10" s="148"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="140"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="90"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="150" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -3822,7 +3822,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="144" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -3834,15 +3834,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="84"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="152"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="90"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -3887,10 +3887,10 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-    </row>
-    <row r="17" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H16" s="137"/>
+      <c r="I16" s="138"/>
+    </row>
+    <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
         <v>75</v>
       </c>
@@ -4302,19 +4302,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="82" t="s">
+      <c r="D40" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="88" t="s">
+      <c r="G40" s="144" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -4326,23 +4326,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="77" t="s">
+      <c r="C41" s="148"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="78"/>
+      <c r="I41" s="140"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="90"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="146"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -4376,19 +4376,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="93" t="s">
+      <c r="E44" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="85" t="s">
+      <c r="F44" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="88" t="s">
+      <c r="G44" s="144" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -4400,23 +4400,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="77" t="s">
+      <c r="C45" s="148"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="78"/>
+      <c r="I45" s="140"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="90"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="146"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -4441,8 +4441,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="92"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="138"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -4505,10 +4505,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="77" t="s">
+      <c r="H52" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="78"/>
+      <c r="I52" s="140"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -4541,8 +4541,8 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="92"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="138"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="61"/>
@@ -4686,21 +4686,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -4711,15 +4705,21 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4738,462 +4738,462 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="97" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="97" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="97" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52" style="97" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" style="97" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="97"/>
+    <col min="1" max="1" width="2.85546875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="129" t="s">
+      <c r="C2" s="165"/>
+      <c r="D2" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="131" t="s">
+      <c r="E2" s="158" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="132"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="97" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="103"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="97" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
-      <c r="C6" s="99" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="97" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
-      <c r="C8" s="99" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="97" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
-      <c r="C10" s="99" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="97" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
-      <c r="C13" s="99" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="97" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="103"/>
-      <c r="C14" s="99" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="97" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
-      <c r="C16" s="99" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="120" t="s">
+      <c r="D16" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="103"/>
-      <c r="C17" s="99" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="97" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
-      <c r="C18" s="99" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="97" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
-      <c r="C19" s="99" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="97" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
-      <c r="C20" s="99" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="97" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
-      <c r="C21" s="99" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E21" s="121" t="s">
+      <c r="E21" s="97" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="104"/>
-      <c r="C22" s="100" t="s">
+      <c r="B22" s="85"/>
+      <c r="C22" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="99" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="100" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="121" t="s">
+      <c r="E24" s="97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="103"/>
-      <c r="C25" s="99" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="121" t="s">
+      <c r="E25" s="97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
-      <c r="C26" s="99" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="121" t="s">
+      <c r="E26" s="97" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
-      <c r="C27" s="99" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="121" t="s">
+      <c r="E27" s="97" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="103"/>
-      <c r="C28" s="99" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="121" t="s">
+      <c r="E28" s="97" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
-      <c r="C29" s="99" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="121" t="s">
+      <c r="E29" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
-      <c r="C30" s="99" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="121" t="s">
+      <c r="E30" s="97" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="103"/>
-      <c r="C31" s="99" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="121" t="s">
+      <c r="E31" s="97" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
-      <c r="C32" s="99" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="120" t="s">
+      <c r="D32" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="121" t="s">
+      <c r="E32" s="97" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
-      <c r="C33" s="99" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="120" t="s">
+      <c r="D33" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="121" t="s">
+      <c r="E33" s="97" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="103"/>
-      <c r="C34" s="99" t="s">
+      <c r="B34" s="84"/>
+      <c r="C34" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="121" t="s">
+      <c r="E34" s="97" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="103"/>
-      <c r="C35" s="99" t="s">
+      <c r="B35" s="84"/>
+      <c r="C35" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="121" t="s">
+      <c r="E35" s="97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="103"/>
-      <c r="C36" s="99" t="s">
+      <c r="B36" s="84"/>
+      <c r="C36" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="121" t="s">
+      <c r="E36" s="97" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="126" t="s">
+      <c r="E37" s="102" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="106"/>
-      <c r="C38" s="107" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="127" t="s">
+      <c r="D38" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="E38" s="128" t="s">
+      <c r="E38" s="104" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5218,56 +5218,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="96"/>
+    <col min="1" max="1" width="1.42578125" style="77" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="166" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="97" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="109" t="s">
+    <row r="3" spans="2:3" s="78" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="134"/>
-    </row>
-    <row r="4" spans="2:3" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="108" t="s">
+      <c r="C3" s="167"/>
+    </row>
+    <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="2:3" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+    <row r="5" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="97" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="97" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="103" t="s">
+    <row r="6" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="97" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="104" t="s">
         <v>225</v>
       </c>
     </row>

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="340">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -834,9 +834,6 @@
   </si>
   <si>
     <t>Mendapatkan User Session ID dari API Web Token</t>
-  </si>
-  <si>
-    <t>Func_GetData_UserSessionIDByAPIWebToken</t>
   </si>
   <si>
     <t>Func_GetFileEntities_StagingArea</t>
@@ -890,6 +887,176 @@
       </rPr>
       <t>SchSysAsset.Func_GetData_APIWebToken_SysEngine</t>
     </r>
+  </si>
+  <si>
+    <t>FuncSys_General_GetTableRecordsLastModified</t>
+  </si>
+  <si>
+    <t>menampilkan informasi perubahan terakhir pada records yang terdapat didalam table</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_VarChar</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_TimestampTZ</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_SmallInt</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_Int</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_Numeric</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_Boolean</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_BigInt</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal BOOLEAN yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal BIGINT yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal INT yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal NUMERIC yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal SMALLINT yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal TIMESTAMPTZ yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal VARCHAR yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>Func_GetData_UserSessionID_ByAPIWebToken</t>
+  </si>
+  <si>
+    <t>Func_GetData_APIWebToken_IsExist</t>
+  </si>
+  <si>
+    <t>Mengecek Apakah API Web Token ada atau tidak</t>
+  </si>
+  <si>
+    <t>Func_General_JSONArray_ExtractToElements</t>
+  </si>
+  <si>
+    <t>Mengkestraksi element pada Array JSON</t>
+  </si>
+  <si>
+    <t>Func_GetStringLiteralConvertion_JSON</t>
+  </si>
+  <si>
+    <t>Menghasilkan String Literal JSON yang diperlukan dalam men-generate String Query (Seperti : varSQL) dari varData.
+Bila varData adalah NULL adalah maka akan menghasilkan string NULL tanpa "Under Closing Single Quote", dan bila selainnya maka akan dimunculkan string varData dalam kondisi "Under Closing Single Quote"</t>
+  </si>
+  <si>
+    <t>TblAppObject_WorkFlow</t>
+  </si>
+  <si>
+    <t>WorkFlow</t>
+  </si>
+  <si>
+    <t>TblAppObject_WorkFlowEdge</t>
+  </si>
+  <si>
+    <t>TblAppObject_WorkFlowNode</t>
+  </si>
+  <si>
+    <t>Edge pada Graph WorkFlow</t>
+  </si>
+  <si>
+    <t>Node pada Graph WorkFlow</t>
+  </si>
+  <si>
+    <t>TblAppObject_WorkFlowVersion</t>
+  </si>
+  <si>
+    <t>Versi WorkFlow</t>
+  </si>
+  <si>
+    <t>WorkFlow_RefID</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblAppObject_WorkFlow</t>
+  </si>
+  <si>
+    <t>WorkFlowVersion_RefID</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblAppObject_WorkFlowVersion</t>
+  </si>
+  <si>
+    <t>Func_General_GetWorkFlowPathSegment</t>
+  </si>
+  <si>
+    <t>Func_General_SetWorkFlowGraphExportToPath</t>
+  </si>
+  <si>
+    <t>Mengkespor Work Flow Graph menjadi Work Flow Path berdasarkan Work Flow Version (varWorkFlowVersion_RefID) pada Table SchSysConfig.TblAppObject_WorkFlowPath</t>
+  </si>
+  <si>
+    <t>Func_General_GetWorkFlowPath</t>
+  </si>
+  <si>
+    <t>Mendapatkan Path Approval dari Workflow berdasarkan ID WorkFlowVersion (varWorkFlowVersion_RefID)</t>
+  </si>
+  <si>
+    <t>Mendapatkan Worklow Path Segment dari Workflow Graph berdasarkan ID WorkFlowVersion (varWorkFlowVersion_RefID) dan ID Start Work Flow Node (varStartWorkFlowNode_RefID)</t>
+  </si>
+  <si>
+    <t>Func_General_GetWorkFlowApproverEntities</t>
+  </si>
+  <si>
+    <t>Mendapatkan Approver Entity dari Workflow berdasarkan Array ID WorkerCareerInternal (varArrayID)</t>
+  </si>
+  <si>
+    <t>Func_General_SetWorkFlowGraph</t>
+  </si>
+  <si>
+    <t>Mengeset WorkFlow Graph</t>
+  </si>
+  <si>
+    <t>Func_TblAppObject_WorkFlow_SET</t>
+  </si>
+  <si>
+    <t>Mengeset data (INSERT dan UPDATE) pada tabel TblAppObject_WorkFlow</t>
+  </si>
+  <si>
+    <t>Func_General_GetWorkFlowGraphToClosedGraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (Membuang Path yang berbentuk ranting)</t>
+  </si>
+  <si>
+    <t>Mendapatkan Workflow Closed Graph dari Workflow Graph (dengan membuang Path yang berbentuk ranting)</t>
+  </si>
+  <si>
+    <t>Func_General_SetWorkFlowGraphWithoutLoopPath</t>
+  </si>
+  <si>
+    <t>Menghapus Edge yang menyebabkan Loop pada ID WorkFlowVersion (varWorkFlowVersion_RefID)</t>
+  </si>
+  <si>
+    <t>Sudah bener</t>
+  </si>
+  <si>
+    <t>doble cross</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1916,45 +2083,111 @@
     <xf numFmtId="164" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1976,18 +2209,78 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1996,66 +2289,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2380,10 +2613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H109"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2399,23 +2635,23 @@
     <col min="9" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+    <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132" t="s">
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="154" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="136"/>
-    </row>
-    <row r="3" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="155"/>
+      <c r="H2" s="156"/>
+    </row>
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
         <v>145</v>
       </c>
@@ -2425,7 +2661,7 @@
       <c r="D3" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="133"/>
+      <c r="E3" s="153"/>
       <c r="F3" s="112" t="s">
         <v>228</v>
       </c>
@@ -2436,1149 +2672,1633 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+    <row r="4" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="116" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="119">
         <v>44910</v>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="120">
         <v>44910</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="84"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80" t="s">
+    <row r="5" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="123" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="124">
+      <c r="G5" s="125">
         <v>44908</v>
       </c>
-      <c r="H5" s="125">
+      <c r="H5" s="126">
         <v>44908</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="84"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80" t="s">
+    <row r="6" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="124">
+      <c r="G6" s="125">
         <v>44908</v>
       </c>
-      <c r="H6" s="125">
+      <c r="H6" s="126">
         <v>44908</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="84"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80" t="s">
+    <row r="7" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="123" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="125">
         <v>44887</v>
       </c>
-      <c r="H7" s="125">
+      <c r="H7" s="126">
         <v>44887</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="84"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80" t="s">
+    <row r="8" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="124">
+      <c r="G8" s="125">
         <v>44887</v>
       </c>
-      <c r="H8" s="125">
+      <c r="H8" s="126">
         <v>44887</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="84"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80" t="s">
+    <row r="9" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="123" t="s">
+      <c r="F9" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="124">
+      <c r="G9" s="125">
         <v>44774</v>
       </c>
-      <c r="H9" s="125">
+      <c r="H9" s="126">
         <v>44774</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80" t="s">
+    <row r="10" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="125">
+        <v>44897</v>
+      </c>
+      <c r="H10" s="126">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E11" s="123" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F11" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="124">
+      <c r="G11" s="125">
         <v>44897</v>
       </c>
-      <c r="H10" s="125">
+      <c r="H11" s="126">
         <v>44897</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="84"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80" t="s">
+    <row r="12" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E12" s="123" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F12" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="124">
+      <c r="G12" s="125">
         <v>44897</v>
       </c>
-      <c r="H11" s="125">
+      <c r="H12" s="126">
         <v>44897</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80" t="s">
+    <row r="13" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E13" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F13" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="124">
+      <c r="G13" s="125">
         <v>44748</v>
       </c>
-      <c r="H12" s="125">
+      <c r="H13" s="126">
         <v>44748</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="84"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80" t="s">
+    <row r="14" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E14" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F14" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="124">
+      <c r="G14" s="125">
         <v>44735</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H14" s="126">
         <v>44735</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="84"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80" t="s">
+    <row r="15" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E15" s="123" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="123" t="s">
+      <c r="F15" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="124">
+      <c r="G15" s="125">
         <v>44854</v>
       </c>
-      <c r="H14" s="125">
+      <c r="H15" s="126">
         <v>44854</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80" t="s">
+    <row r="16" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E16" s="123" t="s">
         <v>259</v>
       </c>
-      <c r="F15" s="123" t="s">
+      <c r="F16" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="124">
+      <c r="G16" s="125">
         <v>44770</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H16" s="126">
         <v>44770</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80" t="s">
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E17" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F17" s="124" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="124">
+      <c r="G17" s="125">
         <v>44770</v>
       </c>
-      <c r="H16" s="125">
+      <c r="H17" s="126">
         <v>44427</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80" t="s">
+    <row r="18" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E18" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F18" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="124">
+      <c r="G18" s="125">
         <v>44770</v>
       </c>
-      <c r="H17" s="125">
+      <c r="H18" s="126">
         <v>44770</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="84"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80" t="s">
+    <row r="19" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E19" s="123" t="s">
         <v>262</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F19" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="124">
+      <c r="G19" s="125">
         <v>44770</v>
       </c>
-      <c r="H18" s="125">
+      <c r="H19" s="126">
         <v>44427</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="84"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80" t="s">
+    <row r="20" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="125">
+        <v>44777</v>
+      </c>
+      <c r="H20" s="126">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="123" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="125">
+        <v>44935</v>
+      </c>
+      <c r="H21" s="126">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="E19" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="123" t="s">
+      <c r="E22" s="123" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G22" s="125">
+        <v>44931</v>
+      </c>
+      <c r="H22" s="126">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="125">
+        <v>44847</v>
+      </c>
+      <c r="H23" s="126">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24" s="125">
+        <v>44792</v>
+      </c>
+      <c r="H24" s="126">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="125">
+        <v>44776</v>
+      </c>
+      <c r="H25" s="126">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="123" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="125">
         <v>44777</v>
       </c>
-      <c r="H19" s="125">
+      <c r="H26" s="126">
         <v>44777</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="84"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80" t="s">
+    <row r="27" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="123" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" s="125">
+        <v>44770</v>
+      </c>
+      <c r="H27" s="126">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="127" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="125">
+        <v>44937</v>
+      </c>
+      <c r="H28" s="126">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" s="127" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="125">
+        <v>44937</v>
+      </c>
+      <c r="H29" s="126">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="125">
+        <v>44937</v>
+      </c>
+      <c r="H30" s="126">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="127" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="125">
+        <v>44949</v>
+      </c>
+      <c r="H31" s="126">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="E32" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="125">
+        <v>44937</v>
+      </c>
+      <c r="H32" s="126">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="127" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="125">
+        <v>44937</v>
+      </c>
+      <c r="H33" s="126">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="125">
+        <v>44937</v>
+      </c>
+      <c r="H34" s="126">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="125">
+        <v>44937</v>
+      </c>
+      <c r="H35" s="126">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="129" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="131">
+        <v>44167</v>
+      </c>
+      <c r="H36" s="132">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="133" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" s="123" t="s">
         <v>285</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="F37" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="125">
+        <v>44167</v>
+      </c>
+      <c r="H37" s="126">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="E38" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="124">
-        <v>44931</v>
-      </c>
-      <c r="H20" s="125">
-        <v>44931</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="84"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="F21" s="123" t="s">
+      <c r="G38" s="125">
+        <v>43185</v>
+      </c>
+      <c r="H38" s="126">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" s="125">
+        <v>44216</v>
+      </c>
+      <c r="H39" s="126">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="126"/>
+    </row>
+    <row r="41" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="123" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="124">
-        <v>44847</v>
-      </c>
-      <c r="H21" s="125">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="84"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="F22" s="123" t="s">
-        <v>267</v>
-      </c>
-      <c r="G22" s="124">
-        <v>44792</v>
-      </c>
-      <c r="H22" s="125">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="84"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="96" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23" s="123" t="s">
+      <c r="G41" s="125">
+        <v>44949</v>
+      </c>
+      <c r="H41" s="126">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="126"/>
+    </row>
+    <row r="43" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="126"/>
+    </row>
+    <row r="44" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="126"/>
+    </row>
+    <row r="45" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
+    </row>
+    <row r="46" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
+    </row>
+    <row r="47" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="122" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="E47" s="127" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G23" s="124">
-        <v>44776</v>
-      </c>
-      <c r="H23" s="125">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="84"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="F24" s="123" t="s">
+      <c r="G47" s="125">
+        <v>44902</v>
+      </c>
+      <c r="H47" s="126">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G24" s="124">
-        <v>44777</v>
-      </c>
-      <c r="H24" s="125">
-        <v>44777</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="84"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>274</v>
-      </c>
-      <c r="F25" s="123" t="s">
+      <c r="G48" s="125">
+        <v>44897</v>
+      </c>
+      <c r="H48" s="126">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" s="127" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G49" s="125">
+        <v>44900</v>
+      </c>
+      <c r="H49" s="126">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="E50" s="123" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G50" s="125">
+        <v>44896</v>
+      </c>
+      <c r="H50" s="126">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122" t="s">
+        <v>322</v>
+      </c>
+      <c r="E51" s="127" t="s">
+        <v>323</v>
+      </c>
+      <c r="F51" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G51" s="125">
+        <v>44945</v>
+      </c>
+      <c r="H51" s="126">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="E52" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="F52" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G52" s="125">
+        <v>44910</v>
+      </c>
+      <c r="H52" s="126">
+        <v>44910</v>
+      </c>
+      <c r="J52" s="78" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="124">
-        <v>44770</v>
-      </c>
-      <c r="H25" s="125">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="84"/>
-      <c r="C26" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="F26" s="126" t="s">
+      <c r="G53" s="125">
+        <v>44893</v>
+      </c>
+      <c r="H53" s="126">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
+    </row>
+    <row r="55" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="126"/>
+    </row>
+    <row r="56" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="126"/>
+    </row>
+    <row r="57" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="126"/>
+    </row>
+    <row r="58" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" s="122" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="F58" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="127">
-        <v>44167</v>
-      </c>
-      <c r="H26" s="128">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="84"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="129" t="s">
-        <v>277</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="F27" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="124">
-        <v>44167</v>
-      </c>
-      <c r="H27" s="125">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="84"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="124">
-        <v>43185</v>
-      </c>
-      <c r="H28" s="125">
-        <v>43185</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="84"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" s="124">
-        <v>44216</v>
-      </c>
-      <c r="H29" s="125">
-        <v>44216</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="84"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="125"/>
-    </row>
-    <row r="31" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="125"/>
-    </row>
-    <row r="32" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="84"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="125"/>
-    </row>
-    <row r="33" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="84"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="125"/>
-    </row>
-    <row r="34" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="84"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
-    </row>
-    <row r="35" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="84"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="125"/>
-    </row>
-    <row r="36" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="84"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="125"/>
-    </row>
-    <row r="37" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="84"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="125"/>
-    </row>
-    <row r="38" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="84"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="125"/>
-    </row>
-    <row r="39" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="84"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="125"/>
-    </row>
-    <row r="40" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="84"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="125"/>
-    </row>
-    <row r="41" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="84"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="125"/>
-    </row>
-    <row r="42" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="84"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
-    </row>
-    <row r="43" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="84"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="125"/>
-    </row>
-    <row r="44" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B44" s="84"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="125"/>
-    </row>
-    <row r="45" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="84"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="125"/>
-    </row>
-    <row r="46" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="84"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="125"/>
-    </row>
-    <row r="47" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="84"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="125"/>
-    </row>
-    <row r="48" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="84"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="125"/>
-    </row>
-    <row r="49" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B49" s="84"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="125"/>
-    </row>
-    <row r="50" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="84"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="125"/>
-    </row>
-    <row r="51" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="84"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="125"/>
-    </row>
-    <row r="52" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="84"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="125"/>
-    </row>
-    <row r="53" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="84"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="125"/>
-    </row>
-    <row r="54" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="84"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="125"/>
-    </row>
-    <row r="55" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="84"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="125"/>
-    </row>
-    <row r="56" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="84"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="125"/>
-    </row>
-    <row r="57" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="84"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="125"/>
-    </row>
-    <row r="58" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="84"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="125"/>
-    </row>
-    <row r="59" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="84"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="125"/>
-    </row>
-    <row r="60" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="84"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="125"/>
-    </row>
-    <row r="61" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="84"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="125"/>
-    </row>
-    <row r="62" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="84"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="125"/>
-    </row>
-    <row r="63" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="84"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="123"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="125"/>
-    </row>
-    <row r="64" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="84"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="125"/>
-    </row>
-    <row r="65" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="84"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="125"/>
-    </row>
-    <row r="66" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="84"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="125"/>
-    </row>
-    <row r="67" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="84"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="123"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="125"/>
-    </row>
-    <row r="68" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="84"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="123"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="125"/>
-    </row>
-    <row r="69" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="84"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="125"/>
-    </row>
-    <row r="70" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="84"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="123"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="125"/>
-    </row>
-    <row r="71" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="84"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="125"/>
-    </row>
-    <row r="72" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="84"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="123"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="125"/>
-    </row>
-    <row r="73" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="84"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="125"/>
-    </row>
-    <row r="74" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="84"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="123"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="125"/>
-    </row>
-    <row r="75" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="84"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="123"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="125"/>
-    </row>
-    <row r="76" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="84"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="123"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="125"/>
-    </row>
-    <row r="77" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="84"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="123"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="125"/>
-    </row>
-    <row r="78" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="84"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="125"/>
-    </row>
-    <row r="79" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="84"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="123"/>
-      <c r="G79" s="124"/>
-      <c r="H79" s="125"/>
-    </row>
-    <row r="80" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="84"/>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="123"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="125"/>
-    </row>
-    <row r="81" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="84"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="123"/>
-      <c r="G81" s="124"/>
-      <c r="H81" s="125"/>
-    </row>
-    <row r="82" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="84"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="125"/>
-    </row>
-    <row r="83" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="84"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="123"/>
-      <c r="G83" s="124"/>
-      <c r="H83" s="125"/>
-    </row>
-    <row r="84" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="84"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="123"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="125"/>
-    </row>
-    <row r="85" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="84"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="96"/>
-      <c r="F85" s="123"/>
-      <c r="G85" s="124"/>
-      <c r="H85" s="125"/>
-    </row>
-    <row r="86" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="84"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="123"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="125"/>
-    </row>
-    <row r="87" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="84"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="123"/>
-      <c r="G87" s="124"/>
-      <c r="H87" s="125"/>
-    </row>
-    <row r="88" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="84"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="96"/>
-      <c r="F88" s="123"/>
-      <c r="G88" s="124"/>
-      <c r="H88" s="125"/>
-    </row>
-    <row r="89" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="84"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="96"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="124"/>
-      <c r="H89" s="125"/>
-    </row>
-    <row r="90" spans="2:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="120"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="122"/>
-    </row>
-    <row r="91" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F91" s="95"/>
-      <c r="G91" s="111"/>
-      <c r="H91" s="111"/>
-    </row>
-    <row r="92" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F92" s="95"/>
-      <c r="G92" s="111"/>
-      <c r="H92" s="111"/>
-    </row>
-    <row r="93" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F93" s="95"/>
-      <c r="G93" s="111"/>
-      <c r="H93" s="111"/>
-    </row>
-    <row r="94" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F94" s="95"/>
-      <c r="G94" s="111"/>
-      <c r="H94" s="111"/>
-    </row>
-    <row r="95" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F95" s="95"/>
-      <c r="G95" s="111"/>
-      <c r="H95" s="111"/>
-    </row>
-    <row r="96" spans="2:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F96" s="95"/>
-      <c r="G96" s="111"/>
-      <c r="H96" s="111"/>
-    </row>
-    <row r="97" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F97" s="95"/>
-      <c r="G97" s="111"/>
-      <c r="H97" s="111"/>
-    </row>
-    <row r="98" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F98" s="95"/>
-      <c r="G98" s="111"/>
-      <c r="H98" s="111"/>
-    </row>
-    <row r="99" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F99" s="95"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-    </row>
-    <row r="100" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F100" s="95"/>
-      <c r="G100" s="111"/>
-      <c r="H100" s="111"/>
-    </row>
-    <row r="101" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F101" s="95"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-    </row>
-    <row r="102" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F102" s="95"/>
-      <c r="G102" s="111"/>
-      <c r="H102" s="111"/>
-    </row>
-    <row r="103" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F103" s="95"/>
-      <c r="G103" s="111"/>
-      <c r="H103" s="111"/>
-    </row>
-    <row r="104" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F104" s="95"/>
-      <c r="G104" s="111"/>
-      <c r="H104" s="111"/>
-    </row>
-    <row r="105" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F105" s="95"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-    </row>
-    <row r="106" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F106" s="95"/>
-      <c r="G106" s="111"/>
-      <c r="H106" s="111"/>
-    </row>
-    <row r="107" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F107" s="95"/>
-      <c r="G107" s="111"/>
-      <c r="H107" s="111"/>
-    </row>
-    <row r="108" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F108" s="95"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="111"/>
-    </row>
-    <row r="109" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F109" s="95"/>
-      <c r="G109" s="111"/>
-      <c r="H109" s="111"/>
+      <c r="G58" s="125">
+        <v>44900</v>
+      </c>
+      <c r="H58" s="126">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="121"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="126"/>
+    </row>
+    <row r="60" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="121"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="126"/>
+    </row>
+    <row r="61" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="124"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="126"/>
+    </row>
+    <row r="62" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="126"/>
+    </row>
+    <row r="63" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="126"/>
+    </row>
+    <row r="64" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="126"/>
+    </row>
+    <row r="65" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="126"/>
+    </row>
+    <row r="66" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="121"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="126"/>
+    </row>
+    <row r="67" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="122"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="126"/>
+    </row>
+    <row r="68" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="126"/>
+    </row>
+    <row r="69" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="121"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="126"/>
+    </row>
+    <row r="70" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="121"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="123"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="126"/>
+    </row>
+    <row r="71" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="121"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="126"/>
+    </row>
+    <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="121"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="126"/>
+    </row>
+    <row r="73" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="121"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="126"/>
+    </row>
+    <row r="74" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="121"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="122"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="126"/>
+    </row>
+    <row r="75" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="121"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="122"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="126"/>
+    </row>
+    <row r="76" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="122"/>
+      <c r="E76" s="123"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="126"/>
+    </row>
+    <row r="77" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="124"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="126"/>
+    </row>
+    <row r="78" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="121"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="126"/>
+    </row>
+    <row r="79" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="122"/>
+      <c r="D79" s="122"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="124"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="126"/>
+    </row>
+    <row r="80" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="121"/>
+      <c r="C80" s="122"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="123"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="126"/>
+    </row>
+    <row r="81" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="121"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="123"/>
+      <c r="F81" s="124"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="126"/>
+    </row>
+    <row r="82" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="121"/>
+      <c r="C82" s="122"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="123"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="126"/>
+    </row>
+    <row r="83" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="121"/>
+      <c r="C83" s="122"/>
+      <c r="D83" s="122"/>
+      <c r="E83" s="123"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="125"/>
+      <c r="H83" s="126"/>
+    </row>
+    <row r="84" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="121"/>
+      <c r="C84" s="122"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="125"/>
+      <c r="H84" s="126"/>
+    </row>
+    <row r="85" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="121"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="126"/>
+    </row>
+    <row r="86" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="121"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="126"/>
+    </row>
+    <row r="87" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="123"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="125"/>
+      <c r="H87" s="126"/>
+    </row>
+    <row r="88" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="123"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="125"/>
+      <c r="H88" s="126"/>
+    </row>
+    <row r="89" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="121"/>
+      <c r="C89" s="122"/>
+      <c r="D89" s="122"/>
+      <c r="E89" s="123"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="126"/>
+    </row>
+    <row r="90" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="121"/>
+      <c r="C90" s="122"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="123"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="125"/>
+      <c r="H90" s="126"/>
+    </row>
+    <row r="91" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="121"/>
+      <c r="C91" s="122"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="123"/>
+      <c r="F91" s="124"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="126"/>
+    </row>
+    <row r="92" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="121"/>
+      <c r="C92" s="122"/>
+      <c r="D92" s="122"/>
+      <c r="E92" s="123"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="125"/>
+      <c r="H92" s="126"/>
+    </row>
+    <row r="93" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="121"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="123"/>
+      <c r="F93" s="124"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="126"/>
+    </row>
+    <row r="94" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="122"/>
+      <c r="D94" s="122"/>
+      <c r="E94" s="123"/>
+      <c r="F94" s="124"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="126"/>
+    </row>
+    <row r="95" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="121"/>
+      <c r="C95" s="122"/>
+      <c r="D95" s="122"/>
+      <c r="E95" s="123"/>
+      <c r="F95" s="124"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="126"/>
+    </row>
+    <row r="96" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="121"/>
+      <c r="C96" s="122"/>
+      <c r="D96" s="122"/>
+      <c r="E96" s="123"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="125"/>
+      <c r="H96" s="126"/>
+    </row>
+    <row r="97" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="121"/>
+      <c r="C97" s="122"/>
+      <c r="D97" s="122"/>
+      <c r="E97" s="123"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="126"/>
+    </row>
+    <row r="98" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="121"/>
+      <c r="C98" s="122"/>
+      <c r="D98" s="122"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="124"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="126"/>
+    </row>
+    <row r="99" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="121"/>
+      <c r="C99" s="122"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="123"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="125"/>
+      <c r="H99" s="126"/>
+    </row>
+    <row r="100" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="121"/>
+      <c r="C100" s="122"/>
+      <c r="D100" s="122"/>
+      <c r="E100" s="123"/>
+      <c r="F100" s="124"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="126"/>
+    </row>
+    <row r="101" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="123"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="126"/>
+    </row>
+    <row r="102" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="135"/>
+      <c r="D102" s="135"/>
+      <c r="E102" s="136"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="138"/>
+      <c r="H102" s="139"/>
+    </row>
+    <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="141"/>
+      <c r="H103" s="141"/>
+    </row>
+    <row r="104" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="140"/>
+      <c r="G104" s="141"/>
+      <c r="H104" s="141"/>
+    </row>
+    <row r="105" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="140"/>
+      <c r="G105" s="141"/>
+      <c r="H105" s="141"/>
+    </row>
+    <row r="106" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="140"/>
+      <c r="G106" s="141"/>
+      <c r="H106" s="141"/>
+    </row>
+    <row r="107" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="140"/>
+      <c r="G107" s="141"/>
+      <c r="H107" s="141"/>
+    </row>
+    <row r="108" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="140"/>
+      <c r="G108" s="141"/>
+      <c r="H108" s="141"/>
+    </row>
+    <row r="109" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="140"/>
+      <c r="G109" s="141"/>
+      <c r="H109" s="141"/>
+    </row>
+    <row r="110" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="140"/>
+      <c r="G110" s="141"/>
+      <c r="H110" s="141"/>
+    </row>
+    <row r="111" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="140"/>
+      <c r="G111" s="141"/>
+      <c r="H111" s="141"/>
+    </row>
+    <row r="112" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="140"/>
+      <c r="G112" s="141"/>
+      <c r="H112" s="141"/>
+    </row>
+    <row r="113" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="140"/>
+      <c r="G113" s="141"/>
+      <c r="H113" s="141"/>
+    </row>
+    <row r="114" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="141"/>
+      <c r="H114" s="141"/>
+    </row>
+    <row r="115" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="140"/>
+      <c r="G115" s="141"/>
+      <c r="H115" s="141"/>
+    </row>
+    <row r="116" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="140"/>
+      <c r="G116" s="141"/>
+      <c r="H116" s="141"/>
+    </row>
+    <row r="117" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="140"/>
+      <c r="G117" s="141"/>
+      <c r="H117" s="141"/>
+    </row>
+    <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="140"/>
+      <c r="G118" s="141"/>
+      <c r="H118" s="141"/>
+    </row>
+    <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F119" s="95"/>
+      <c r="G119" s="111"/>
+      <c r="H119" s="111"/>
+    </row>
+    <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F120" s="95"/>
+      <c r="G120" s="111"/>
+      <c r="H120" s="111"/>
+    </row>
+    <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F121" s="95"/>
+      <c r="G121" s="111"/>
+      <c r="H121" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3592,13 +4312,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K69"/>
+  <dimension ref="B1:K75"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3617,20 +4337,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="156" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="158"/>
-      <c r="G2" s="156" t="s">
+      <c r="F2" s="161"/>
+      <c r="G2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="157"/>
-      <c r="I2" s="158"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -3651,10 +4371,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="163"/>
+      <c r="I3" s="166"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -3684,19 +4404,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="170" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="176" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -3708,23 +4428,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="151"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="139" t="s">
+      <c r="F6" s="174"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="152"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="146"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="178"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -3758,19 +4478,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="141" t="s">
+      <c r="E9" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="153" t="s">
+      <c r="F9" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="176" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -3783,24 +4503,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="139" t="s">
+      <c r="C10" s="168"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="140"/>
+      <c r="I10" s="158"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="146"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="178"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -3810,10 +4530,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="170" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -3822,7 +4542,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="176" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -3834,15 +4554,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="152"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="172"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="146"/>
+      <c r="G13" s="178"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -3887,8 +4607,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="138"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -4302,19 +5022,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="147" t="s">
+      <c r="C40" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="150" t="s">
+      <c r="D40" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="141" t="s">
+      <c r="E40" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="153" t="s">
+      <c r="F40" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="144" t="s">
+      <c r="G40" s="176" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -4326,23 +5046,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="139" t="s">
+      <c r="C41" s="168"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="140"/>
+      <c r="I41" s="158"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="146"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -4376,19 +5096,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="147" t="s">
+      <c r="C44" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="150" t="s">
+      <c r="D44" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="141" t="s">
+      <c r="E44" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="153" t="s">
+      <c r="F44" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="144" t="s">
+      <c r="G44" s="176" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -4400,23 +5120,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="139" t="s">
+      <c r="C45" s="168"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="140"/>
+      <c r="I45" s="158"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="146"/>
+      <c r="C46" s="169"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="178"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -4441,8 +5161,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="138"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="180"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -4505,10 +5225,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="139" t="s">
+      <c r="H52" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="140"/>
+      <c r="I52" s="158"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -4541,74 +5261,100 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="138"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="180"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="61"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="61"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="19"/>
+      <c r="B56" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="145" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" s="147" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="49"/>
+    </row>
+    <row r="57" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="64"/>
+      <c r="C57" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" s="147" t="s">
+        <v>313</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="F57" s="149" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" s="143"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="17"/>
+    </row>
+    <row r="58" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="64"/>
+      <c r="C58" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D58" s="147" t="s">
+        <v>314</v>
+      </c>
+      <c r="E58" s="42"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="61"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="19"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" s="149" t="s">
+        <v>318</v>
+      </c>
+      <c r="G59" s="143"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="61"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="14"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="146"/>
       <c r="E60" s="39"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="32"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="142"/>
       <c r="H60" s="9"/>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="61"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="19"/>
+    <row r="61" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="180"/>
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="61"/>
       <c r="C62" s="69"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="35"/>
+      <c r="E62" s="39"/>
       <c r="F62" s="12"/>
       <c r="G62" s="32"/>
       <c r="H62" s="9"/>
@@ -4618,7 +5364,7 @@
       <c r="B63" s="61"/>
       <c r="C63" s="69"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="35"/>
+      <c r="E63" s="39"/>
       <c r="F63" s="12"/>
       <c r="G63" s="32"/>
       <c r="H63" s="9"/>
@@ -4628,7 +5374,7 @@
       <c r="B64" s="61"/>
       <c r="C64" s="69"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="35"/>
+      <c r="E64" s="39"/>
       <c r="F64" s="12"/>
       <c r="G64" s="32"/>
       <c r="H64" s="9"/>
@@ -4638,7 +5384,7 @@
       <c r="B65" s="61"/>
       <c r="C65" s="69"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="35"/>
+      <c r="E65" s="39"/>
       <c r="F65" s="12"/>
       <c r="G65" s="32"/>
       <c r="H65" s="9"/>
@@ -4648,7 +5394,7 @@
       <c r="B66" s="61"/>
       <c r="C66" s="69"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="35"/>
+      <c r="E66" s="39"/>
       <c r="F66" s="12"/>
       <c r="G66" s="32"/>
       <c r="H66" s="9"/>
@@ -4658,7 +5404,7 @@
       <c r="B67" s="61"/>
       <c r="C67" s="69"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="35"/>
+      <c r="E67" s="39"/>
       <c r="F67" s="12"/>
       <c r="G67" s="32"/>
       <c r="H67" s="9"/>
@@ -4674,27 +5420,94 @@
       <c r="H68" s="9"/>
       <c r="I68" s="19"/>
     </row>
-    <row r="69" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="70"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+    <row r="69" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="61"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="19"/>
+    </row>
+    <row r="70" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="61"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="19"/>
+    </row>
+    <row r="71" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="61"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="19"/>
+    </row>
+    <row r="72" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="61"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="19"/>
+    </row>
+    <row r="73" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="61"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="74" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="61"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="19"/>
+    </row>
+    <row r="75" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="70"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+  <mergeCells count="35">
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -4705,21 +5518,15 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4748,14 +5555,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="157" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="158" t="s">
+      <c r="E2" s="161" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4766,8 +5573,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -5229,7 +6036,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="186" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5237,7 +6044,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="167"/>
+      <c r="C3" s="187"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="342">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1056,7 +1056,13 @@
     <t>Sudah bener</t>
   </si>
   <si>
-    <t>doble cross</t>
+    <t xml:space="preserve">   Workflow berdasarkan ID WorkFlowVersion (varWorkFlowVersion_RefID)</t>
+  </si>
+  <si>
+    <t>mendapatkan Path Approval versi COMPACT dari  Workflow berdasarkan ID WorkFlowVersion (varWorkFlowVersion_RefID)</t>
+  </si>
+  <si>
+    <t>Func_General_GetWorkFlowPath_COMPACT</t>
   </si>
 </sst>
 </file>
@@ -2209,12 +2215,63 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2238,57 +2295,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2613,13 +2619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3525,39 +3531,39 @@
       <c r="B49" s="121"/>
       <c r="C49" s="122"/>
       <c r="D49" s="122" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E49" s="127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" s="124" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G49" s="125">
-        <v>44900</v>
+        <v>44950</v>
       </c>
       <c r="H49" s="126">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="121"/>
       <c r="C50" s="122"/>
       <c r="D50" s="122" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" s="123" t="s">
-        <v>330</v>
+        <v>341</v>
+      </c>
+      <c r="E50" s="127" t="s">
+        <v>340</v>
       </c>
       <c r="F50" s="124" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G50" s="125">
-        <v>44896</v>
+        <v>44950</v>
       </c>
       <c r="H50" s="126">
-        <v>44896</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3565,83 +3571,103 @@
       <c r="B51" s="121"/>
       <c r="C51" s="122"/>
       <c r="D51" s="122" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E51" s="127" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F51" s="124" t="s">
         <v>281</v>
       </c>
       <c r="G51" s="125">
-        <v>44945</v>
+        <v>44900</v>
       </c>
       <c r="H51" s="126">
         <v>44949</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="121"/>
       <c r="C52" s="122"/>
       <c r="D52" s="122" t="s">
-        <v>336</v>
-      </c>
-      <c r="E52" s="127" t="s">
-        <v>337</v>
+        <v>329</v>
+      </c>
+      <c r="E52" s="123" t="s">
+        <v>330</v>
       </c>
       <c r="F52" s="124" t="s">
         <v>281</v>
       </c>
       <c r="G52" s="125">
-        <v>44910</v>
+        <v>44896</v>
       </c>
       <c r="H52" s="126">
-        <v>44910</v>
-      </c>
-      <c r="J52" s="78" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="121"/>
       <c r="C53" s="122"/>
       <c r="D53" s="122" t="s">
-        <v>331</v>
-      </c>
-      <c r="E53" s="123" t="s">
-        <v>332</v>
+        <v>322</v>
+      </c>
+      <c r="E53" s="127" t="s">
+        <v>323</v>
       </c>
       <c r="F53" s="124" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="G53" s="125">
-        <v>44893</v>
+        <v>44945</v>
       </c>
       <c r="H53" s="126">
-        <v>44893</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="121"/>
       <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="126"/>
+      <c r="D54" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="F54" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="125">
+        <v>44910</v>
+      </c>
+      <c r="H54" s="126">
+        <v>44910</v>
+      </c>
+      <c r="J54" s="78" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="126"/>
+      <c r="D55" s="122" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="F55" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="125">
+        <v>44893</v>
+      </c>
+      <c r="H55" s="126">
+        <v>44893</v>
+      </c>
     </row>
     <row r="56" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
@@ -3663,27 +3689,15 @@
       <c r="G57" s="125"/>
       <c r="H57" s="126"/>
     </row>
-    <row r="58" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="121"/>
-      <c r="C58" s="122" t="s">
-        <v>339</v>
-      </c>
-      <c r="D58" s="122" t="s">
-        <v>324</v>
-      </c>
-      <c r="E58" s="127" t="s">
-        <v>325</v>
-      </c>
-      <c r="F58" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G58" s="125">
-        <v>44900</v>
-      </c>
-      <c r="H58" s="126">
-        <v>44900</v>
-      </c>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="126"/>
     </row>
     <row r="59" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
@@ -3714,6 +3728,9 @@
       <c r="F61" s="124"/>
       <c r="G61" s="125"/>
       <c r="H61" s="126"/>
+      <c r="J61" s="78" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
@@ -4105,25 +4122,25 @@
       <c r="G100" s="125"/>
       <c r="H100" s="126"/>
     </row>
-    <row r="101" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="121"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="124"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="126"/>
-    </row>
-    <row r="102" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="134"/>
+      <c r="C101" s="135"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="136"/>
+      <c r="F101" s="137"/>
+      <c r="G101" s="138"/>
+      <c r="H101" s="139"/>
+    </row>
+    <row r="102" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="134"/>
-      <c r="C102" s="135"/>
-      <c r="D102" s="135"/>
-      <c r="E102" s="136"/>
-      <c r="F102" s="137"/>
-      <c r="G102" s="138"/>
-      <c r="H102" s="139"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="140"/>
+      <c r="G102" s="141"/>
+      <c r="H102" s="141"/>
     </row>
     <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -4276,14 +4293,9 @@
       <c r="H117" s="141"/>
     </row>
     <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="140"/>
-      <c r="G118" s="141"/>
-      <c r="H118" s="141"/>
+      <c r="F118" s="95"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="111"/>
     </row>
     <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F119" s="95"/>
@@ -4294,11 +4306,6 @@
       <c r="F120" s="95"/>
       <c r="G120" s="111"/>
       <c r="H120" s="111"/>
-    </row>
-    <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F121" s="95"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4337,20 +4344,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="159" t="s">
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="161"/>
-      <c r="G2" s="159" t="s">
+      <c r="F2" s="178"/>
+      <c r="G2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -4371,10 +4378,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="166"/>
+      <c r="I3" s="183"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -4416,7 +4423,7 @@
       <c r="F5" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="164" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4432,11 +4439,11 @@
       <c r="D6" s="171"/>
       <c r="E6" s="35"/>
       <c r="F6" s="174"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="157" t="s">
+      <c r="G6" s="165"/>
+      <c r="H6" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="158"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
@@ -4444,7 +4451,7 @@
       <c r="D7" s="172"/>
       <c r="E7" s="36"/>
       <c r="F7" s="175"/>
-      <c r="G7" s="178"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -4484,13 +4491,13 @@
       <c r="D9" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="161" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="164" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -4505,22 +4512,22 @@
       <c r="B10" s="61"/>
       <c r="C10" s="168"/>
       <c r="D10" s="171"/>
-      <c r="E10" s="182"/>
+      <c r="E10" s="162"/>
       <c r="F10" s="174"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="157" t="s">
+      <c r="G10" s="165"/>
+      <c r="H10" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="158"/>
+      <c r="I10" s="160"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
       <c r="C11" s="169"/>
       <c r="D11" s="172"/>
-      <c r="E11" s="183"/>
+      <c r="E11" s="163"/>
       <c r="F11" s="175"/>
-      <c r="G11" s="178"/>
+      <c r="G11" s="166"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -4542,7 +4549,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="G12" s="164" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -4562,7 +4569,7 @@
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="178"/>
+      <c r="G13" s="166"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -4607,8 +4614,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="180"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="158"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -5028,13 +5035,13 @@
       <c r="D40" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="181" t="s">
+      <c r="E40" s="161" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="164" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5048,21 +5055,21 @@
       <c r="B41" s="61"/>
       <c r="C41" s="168"/>
       <c r="D41" s="171"/>
-      <c r="E41" s="182"/>
+      <c r="E41" s="162"/>
       <c r="F41" s="174"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="157" t="s">
+      <c r="G41" s="165"/>
+      <c r="H41" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="158"/>
+      <c r="I41" s="160"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
       <c r="C42" s="169"/>
       <c r="D42" s="172"/>
-      <c r="E42" s="183"/>
+      <c r="E42" s="163"/>
       <c r="F42" s="175"/>
-      <c r="G42" s="178"/>
+      <c r="G42" s="166"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5102,13 +5109,13 @@
       <c r="D44" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="181" t="s">
+      <c r="E44" s="161" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="176" t="s">
+      <c r="G44" s="164" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5122,21 +5129,21 @@
       <c r="B45" s="61"/>
       <c r="C45" s="168"/>
       <c r="D45" s="171"/>
-      <c r="E45" s="182"/>
+      <c r="E45" s="162"/>
       <c r="F45" s="174"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="157" t="s">
+      <c r="G45" s="165"/>
+      <c r="H45" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="158"/>
+      <c r="I45" s="160"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
       <c r="C46" s="169"/>
       <c r="D46" s="172"/>
-      <c r="E46" s="183"/>
+      <c r="E46" s="163"/>
       <c r="F46" s="175"/>
-      <c r="G46" s="178"/>
+      <c r="G46" s="166"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5161,8 +5168,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="179"/>
-      <c r="I48" s="180"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5225,10 +5232,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="157" t="s">
+      <c r="H52" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="158"/>
+      <c r="I52" s="160"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5261,8 +5268,8 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="180"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="158"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="61" t="s">
@@ -5347,8 +5354,8 @@
       <c r="E61" s="25"/>
       <c r="F61" s="22"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="179"/>
-      <c r="I61" s="180"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="158"/>
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="61"/>
@@ -5492,22 +5499,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -5518,15 +5518,22 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5559,10 +5566,10 @@
         <v>54</v>
       </c>
       <c r="C2" s="185"/>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="177" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="178" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5573,8 +5580,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -1008,9 +1008,6 @@
     <t>Func_General_SetWorkFlowGraphExportToPath</t>
   </si>
   <si>
-    <t>Mengkespor Work Flow Graph menjadi Work Flow Path berdasarkan Work Flow Version (varWorkFlowVersion_RefID) pada Table SchSysConfig.TblAppObject_WorkFlowPath</t>
-  </si>
-  <si>
     <t>Func_General_GetWorkFlowPath</t>
   </si>
   <si>
@@ -1063,6 +1060,9 @@
   </si>
   <si>
     <t>Func_General_GetWorkFlowPath_COMPACT</t>
+  </si>
+  <si>
+    <t>Mengekspor Work Flow Graph menjadi Work Flow Path berdasarkan Work Flow Version (varWorkFlowVersion_RefID) pada Table SchSysConfig.TblAppObject_WorkFlowPath</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +2625,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3488,13 +3488,13 @@
       <c r="A47" s="1"/>
       <c r="B47" s="121"/>
       <c r="C47" s="122" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D47" s="122" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" s="127" t="s">
         <v>327</v>
-      </c>
-      <c r="E47" s="127" t="s">
-        <v>328</v>
       </c>
       <c r="F47" s="124" t="s">
         <v>232</v>
@@ -3511,10 +3511,10 @@
       <c r="B48" s="121"/>
       <c r="C48" s="122"/>
       <c r="D48" s="122" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E48" s="127" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F48" s="124" t="s">
         <v>232</v>
@@ -3531,10 +3531,10 @@
       <c r="B49" s="121"/>
       <c r="C49" s="122"/>
       <c r="D49" s="122" t="s">
+        <v>323</v>
+      </c>
+      <c r="E49" s="127" t="s">
         <v>324</v>
-      </c>
-      <c r="E49" s="127" t="s">
-        <v>325</v>
       </c>
       <c r="F49" s="124" t="s">
         <v>232</v>
@@ -3551,10 +3551,10 @@
       <c r="B50" s="121"/>
       <c r="C50" s="122"/>
       <c r="D50" s="122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" s="127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F50" s="124" t="s">
         <v>232</v>
@@ -3574,7 +3574,7 @@
         <v>321</v>
       </c>
       <c r="E51" s="127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F51" s="124" t="s">
         <v>281</v>
@@ -3591,10 +3591,10 @@
       <c r="B52" s="121"/>
       <c r="C52" s="122"/>
       <c r="D52" s="122" t="s">
+        <v>328</v>
+      </c>
+      <c r="E52" s="123" t="s">
         <v>329</v>
-      </c>
-      <c r="E52" s="123" t="s">
-        <v>330</v>
       </c>
       <c r="F52" s="124" t="s">
         <v>281</v>
@@ -3614,7 +3614,7 @@
         <v>322</v>
       </c>
       <c r="E53" s="127" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F53" s="124" t="s">
         <v>281</v>
@@ -3631,10 +3631,10 @@
       <c r="B54" s="121"/>
       <c r="C54" s="122"/>
       <c r="D54" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="E54" s="127" t="s">
         <v>336</v>
-      </c>
-      <c r="E54" s="127" t="s">
-        <v>337</v>
       </c>
       <c r="F54" s="124" t="s">
         <v>281</v>
@@ -3646,7 +3646,7 @@
         <v>44910</v>
       </c>
       <c r="J54" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -3654,10 +3654,10 @@
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
       <c r="D55" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="E55" s="123" t="s">
         <v>331</v>
-      </c>
-      <c r="E55" s="123" t="s">
-        <v>332</v>
       </c>
       <c r="F55" s="124" t="s">
         <v>232</v>
@@ -3729,7 +3729,7 @@
       <c r="G61" s="125"/>
       <c r="H61" s="126"/>
       <c r="J61" s="78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="346">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1063,6 +1063,18 @@
   </si>
   <si>
     <t>Mengekspor Work Flow Graph menjadi Work Flow Path berdasarkan Work Flow Version (varWorkFlowVersion_RefID) pada Table SchSysConfig.TblAppObject_WorkFlowPath</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_AppObject_WorkFlowPath</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List Work Flow Path berdasarkan ID Branch (varBranch_RefID) dan ID Work Flow Version (varWorkFlowVersion_RefID)</t>
+  </si>
+  <si>
+    <t>Func_GetDataPickList_AppObject_WorkFlowPath</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Pick List Work Flow Path berdasarkan ID Branch (varBranch_RefID) dan ID Work Flow Version (varWorkFlowVersion_RefID)</t>
   </si>
 </sst>
 </file>
@@ -2215,18 +2227,78 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2235,66 +2307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2622,10 +2634,10 @@
   <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3540,10 +3552,10 @@
         <v>232</v>
       </c>
       <c r="G49" s="125">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H49" s="126">
-        <v>44950</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3560,10 +3572,10 @@
         <v>232</v>
       </c>
       <c r="G50" s="125">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H50" s="126">
-        <v>44950</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3649,45 +3661,65 @@
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
       <c r="D55" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="E55" s="123" t="s">
-        <v>331</v>
+        <v>342</v>
+      </c>
+      <c r="E55" s="127" t="s">
+        <v>343</v>
       </c>
       <c r="F55" s="124" t="s">
         <v>232</v>
       </c>
       <c r="G55" s="125">
-        <v>44893</v>
+        <v>44951</v>
       </c>
       <c r="H55" s="126">
-        <v>44893</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="121"/>
       <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="126"/>
+      <c r="D56" s="122" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" s="127" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G56" s="125">
+        <v>44952</v>
+      </c>
+      <c r="H56" s="126">
+        <v>44952</v>
+      </c>
     </row>
     <row r="57" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="121"/>
       <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="126"/>
+      <c r="D57" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="F57" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" s="125">
+        <v>44893</v>
+      </c>
+      <c r="H57" s="126">
+        <v>44893</v>
+      </c>
     </row>
     <row r="58" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
@@ -4344,20 +4376,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="176" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="178"/>
-      <c r="G2" s="176" t="s">
+      <c r="F2" s="161"/>
+      <c r="G2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="177"/>
-      <c r="I2" s="178"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -4378,10 +4410,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="182" t="s">
+      <c r="H3" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="183"/>
+      <c r="I3" s="166"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -4423,7 +4455,7 @@
       <c r="F5" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="164" t="s">
+      <c r="G5" s="176" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4439,11 +4471,11 @@
       <c r="D6" s="171"/>
       <c r="E6" s="35"/>
       <c r="F6" s="174"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="159" t="s">
+      <c r="G6" s="177"/>
+      <c r="H6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="160"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
@@ -4451,7 +4483,7 @@
       <c r="D7" s="172"/>
       <c r="E7" s="36"/>
       <c r="F7" s="175"/>
-      <c r="G7" s="166"/>
+      <c r="G7" s="178"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -4491,13 +4523,13 @@
       <c r="D9" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="161" t="s">
+      <c r="E9" s="181" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="164" t="s">
+      <c r="G9" s="176" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -4512,22 +4544,22 @@
       <c r="B10" s="61"/>
       <c r="C10" s="168"/>
       <c r="D10" s="171"/>
-      <c r="E10" s="162"/>
+      <c r="E10" s="182"/>
       <c r="F10" s="174"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="159" t="s">
+      <c r="G10" s="177"/>
+      <c r="H10" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="160"/>
+      <c r="I10" s="158"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
       <c r="C11" s="169"/>
       <c r="D11" s="172"/>
-      <c r="E11" s="163"/>
+      <c r="E11" s="183"/>
       <c r="F11" s="175"/>
-      <c r="G11" s="166"/>
+      <c r="G11" s="178"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -4549,7 +4581,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="164" t="s">
+      <c r="G12" s="176" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -4569,7 +4601,7 @@
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="166"/>
+      <c r="G13" s="178"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -4614,8 +4646,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="158"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -5035,13 +5067,13 @@
       <c r="D40" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="161" t="s">
+      <c r="E40" s="181" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="164" t="s">
+      <c r="G40" s="176" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5055,21 +5087,21 @@
       <c r="B41" s="61"/>
       <c r="C41" s="168"/>
       <c r="D41" s="171"/>
-      <c r="E41" s="162"/>
+      <c r="E41" s="182"/>
       <c r="F41" s="174"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="159" t="s">
+      <c r="G41" s="177"/>
+      <c r="H41" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="160"/>
+      <c r="I41" s="158"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
       <c r="C42" s="169"/>
       <c r="D42" s="172"/>
-      <c r="E42" s="163"/>
+      <c r="E42" s="183"/>
       <c r="F42" s="175"/>
-      <c r="G42" s="166"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5109,13 +5141,13 @@
       <c r="D44" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="161" t="s">
+      <c r="E44" s="181" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="164" t="s">
+      <c r="G44" s="176" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5129,21 +5161,21 @@
       <c r="B45" s="61"/>
       <c r="C45" s="168"/>
       <c r="D45" s="171"/>
-      <c r="E45" s="162"/>
+      <c r="E45" s="182"/>
       <c r="F45" s="174"/>
-      <c r="G45" s="165"/>
-      <c r="H45" s="159" t="s">
+      <c r="G45" s="177"/>
+      <c r="H45" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="160"/>
+      <c r="I45" s="158"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
       <c r="C46" s="169"/>
       <c r="D46" s="172"/>
-      <c r="E46" s="163"/>
+      <c r="E46" s="183"/>
       <c r="F46" s="175"/>
-      <c r="G46" s="166"/>
+      <c r="G46" s="178"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5168,8 +5200,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="158"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="180"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5232,10 +5264,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="159" t="s">
+      <c r="H52" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="160"/>
+      <c r="I52" s="158"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5268,8 +5300,8 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="158"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="180"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="61" t="s">
@@ -5354,8 +5386,8 @@
       <c r="E61" s="25"/>
       <c r="F61" s="22"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="158"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="180"/>
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="61"/>
@@ -5499,15 +5531,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -5518,22 +5557,15 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5566,10 +5598,10 @@
         <v>54</v>
       </c>
       <c r="C2" s="185"/>
-      <c r="D2" s="177" t="s">
+      <c r="D2" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="178" t="s">
+      <c r="E2" s="161" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5580,8 +5612,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="386">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1075,6 +1075,126 @@
   </si>
   <si>
     <t>Mendapatkan Data Pick List Work Flow Path berdasarkan ID Branch (varBranch_RefID) dan ID Work Flow Version (varWorkFlowVersion_RefID)</t>
+  </si>
+  <si>
+    <t>TblAppObject_WorkFlowPath</t>
+  </si>
+  <si>
+    <t>TblAppObject_WorkFlowPathSequence</t>
+  </si>
+  <si>
+    <t>Path dari Graph WorkFlow</t>
+  </si>
+  <si>
+    <t>Urutan Approver Path dari Graph WorkFlow</t>
+  </si>
+  <si>
+    <t>WorkFlowPath_RefID</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblAppObject_WorkFlowPath</t>
+  </si>
+  <si>
+    <t>TblDBObject_Index</t>
+  </si>
+  <si>
+    <t>TblDBObject_FieldRelation</t>
+  </si>
+  <si>
+    <t>TblDBObject_ForeignObject</t>
+  </si>
+  <si>
+    <t>Index dari Objek Table</t>
+  </si>
+  <si>
+    <t>Table_RefID</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblDBObject_Table</t>
+  </si>
+  <si>
+    <t>TblDBObject_LastModified</t>
+  </si>
+  <si>
+    <t>Informasi Modifikasi Terakhir dari Table</t>
+  </si>
+  <si>
+    <t>TblDBObject_Parameter</t>
+  </si>
+  <si>
+    <t>Parameter Sistem Objek Database</t>
+  </si>
+  <si>
+    <t>TblDBObject_Partition_RemovableRecord_Key</t>
+  </si>
+  <si>
+    <t>TblDBObject_Partition_RemovableRecord_Parameter</t>
+  </si>
+  <si>
+    <t>Kunci Removable Record Partisi Table</t>
+  </si>
+  <si>
+    <t>Parameter Removable Record Partisi Table</t>
+  </si>
+  <si>
+    <t>Partition_RemovableRecord_Parameter_RefID</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblDBObject_Partition_RemovableRecord_Parameter</t>
+  </si>
+  <si>
+    <t>TblDBObject_Schema</t>
+  </si>
+  <si>
+    <t>TblDBObject_Table</t>
+  </si>
+  <si>
+    <t>TblDBObject_User</t>
+  </si>
+  <si>
+    <t>Skema Database</t>
+  </si>
+  <si>
+    <t>Table Database</t>
+  </si>
+  <si>
+    <t>Pengguna Database</t>
+  </si>
+  <si>
+    <t>Schema_RefID</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblDBObject_Schema</t>
+  </si>
+  <si>
+    <t>TblAppObject_InstitutionBranch</t>
+  </si>
+  <si>
+    <t>TblAppObject_InstitutionCompany</t>
+  </si>
+  <si>
+    <t>TblAppObject_InstitutionRegional</t>
+  </si>
+  <si>
+    <t>Institusi Perusahaan</t>
+  </si>
+  <si>
+    <t>Institusi Kawasan</t>
+  </si>
+  <si>
+    <t>Institusi Cabang Perusahaan</t>
+  </si>
+  <si>
+    <t>AppObject_InstitutionRegional_RefID</t>
+  </si>
+  <si>
+    <t>AppObject_InstitutionCompany_RefID</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblAppObject_InstitutionRegional</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblAppObject_InstitutionCompany</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2202,6 +2322,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2633,7 +2777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -2655,19 +2799,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152" t="s">
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="162" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="156"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="164"/>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
@@ -2679,7 +2823,7 @@
       <c r="D3" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="153"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="112" t="s">
         <v>228</v>
       </c>
@@ -4351,47 +4495,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K75"/>
+  <dimension ref="B1:K90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="28" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="162" t="s">
+    <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="159" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="161"/>
-      <c r="G2" s="159" t="s">
+      <c r="F2" s="169"/>
+      <c r="G2" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
-    </row>
-    <row r="3" spans="2:11" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="168"/>
+      <c r="I2" s="169"/>
+    </row>
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
@@ -4410,10 +4554,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="166"/>
+      <c r="I3" s="174"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -4443,19 +4587,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="173" t="s">
+      <c r="F5" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="184" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4465,25 +4609,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="171"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="179"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="157" t="s">
+      <c r="F6" s="182"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="158"/>
+      <c r="I6" s="166"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="172"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="178"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -4517,19 +4661,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="170" t="s">
+      <c r="D9" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="173" t="s">
+      <c r="F9" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="184" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -4540,26 +4684,26 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="157" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="158"/>
+      <c r="I10" s="166"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="178"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="186"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -4569,10 +4713,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="170" t="s">
+      <c r="D12" s="178" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -4581,7 +4725,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="G12" s="184" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -4593,15 +4737,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="172"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="178"/>
+      <c r="G13" s="186"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -4639,15 +4783,15 @@
       <c r="H15" s="6"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="2:11" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="65"/>
       <c r="C16" s="66"/>
       <c r="D16" s="41"/>
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="180"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="188"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -4779,7 +4923,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="54"/>
     </row>
-    <row r="24" spans="2:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="67"/>
       <c r="C24" s="63" t="s">
         <v>97</v>
@@ -4803,7 +4947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B25" s="67"/>
       <c r="C25" s="63" t="s">
         <v>101</v>
@@ -4817,7 +4961,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="54"/>
     </row>
-    <row r="26" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="67"/>
       <c r="C26" s="63" t="s">
         <v>102</v>
@@ -4831,7 +4975,7 @@
       <c r="H26" s="53"/>
       <c r="I26" s="54"/>
     </row>
-    <row r="27" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="67"/>
       <c r="C27" s="63" t="s">
         <v>103</v>
@@ -4877,7 +5021,7 @@
       <c r="H29" s="53"/>
       <c r="I29" s="54"/>
     </row>
-    <row r="30" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="67"/>
       <c r="C30" s="63" t="s">
         <v>106</v>
@@ -4905,7 +5049,7 @@
       <c r="H31" s="58"/>
       <c r="I31" s="59"/>
     </row>
-    <row r="32" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="67"/>
       <c r="C32" s="63" t="s">
         <v>116</v>
@@ -5023,7 +5167,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="65"/>
       <c r="C38" s="66"/>
       <c r="D38" s="41"/>
@@ -5061,19 +5205,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="167" t="s">
+      <c r="C40" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="170" t="s">
+      <c r="D40" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="181" t="s">
+      <c r="E40" s="189" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="173" t="s">
+      <c r="F40" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="184" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5085,23 +5229,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="157" t="s">
+      <c r="C41" s="176"/>
+      <c r="D41" s="179"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="158"/>
+      <c r="I41" s="166"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="178"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="186"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5135,19 +5279,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="167" t="s">
+      <c r="C44" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="170" t="s">
+      <c r="D44" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="181" t="s">
+      <c r="E44" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="173" t="s">
+      <c r="F44" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="176" t="s">
+      <c r="G44" s="184" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5157,25 +5301,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="174"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="157" t="s">
+      <c r="C45" s="176"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="158"/>
+      <c r="I45" s="166"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="178"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5193,15 +5337,15 @@
       <c r="H47" s="9"/>
       <c r="I47" s="19"/>
     </row>
-    <row r="48" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="65"/>
       <c r="C48" s="66"/>
       <c r="D48" s="41"/>
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="179"/>
-      <c r="I48" s="180"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="188"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5257,17 +5401,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="61"/>
       <c r="C52" s="69"/>
       <c r="D52" s="14"/>
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="157" t="s">
+      <c r="H52" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="158"/>
+      <c r="I52" s="166"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5293,246 +5437,484 @@
       <c r="H54" s="9"/>
       <c r="I54" s="19"/>
     </row>
-    <row r="55" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="65"/>
       <c r="C55" s="66"/>
       <c r="D55" s="41"/>
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="180"/>
+      <c r="H55" s="187"/>
+      <c r="I55" s="188"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="145" t="s">
-        <v>309</v>
-      </c>
-      <c r="D56" s="147" t="s">
-        <v>310</v>
-      </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="49"/>
-    </row>
-    <row r="57" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="64"/>
-      <c r="C57" s="145" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="147" t="s">
-        <v>313</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="F57" s="149" t="s">
-        <v>320</v>
-      </c>
-      <c r="G57" s="143"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="17"/>
-    </row>
-    <row r="58" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C56" s="155" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" s="156" t="s">
+        <v>381</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="F56" s="157" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" s="154"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="61"/>
+      <c r="C57" s="155" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" s="151" t="s">
+        <v>379</v>
+      </c>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="49"/>
+    </row>
+    <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="64"/>
-      <c r="C58" s="145" t="s">
-        <v>312</v>
-      </c>
-      <c r="D58" s="147" t="s">
-        <v>314</v>
-      </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="143"/>
+      <c r="C58" s="155" t="s">
+        <v>378</v>
+      </c>
+      <c r="D58" s="156" t="s">
+        <v>380</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="F58" s="157" t="s">
+        <v>385</v>
+      </c>
+      <c r="G58" s="154"/>
       <c r="H58" s="8"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="64"/>
+      <c r="B59" s="61"/>
       <c r="C59" s="145" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D59" s="147" t="s">
-        <v>316</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="F59" s="149" t="s">
-        <v>318</v>
-      </c>
-      <c r="G59" s="143"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="17"/>
+        <v>310</v>
+      </c>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="49"/>
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="64"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="2:9" s="5" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="179"/>
-      <c r="I61" s="180"/>
+      <c r="C60" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" s="147" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="F60" s="149" t="s">
+        <v>320</v>
+      </c>
+      <c r="G60" s="143"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="64"/>
+      <c r="C61" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="147" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="61"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="61"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="19"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="150" t="s">
+        <v>346</v>
+      </c>
+      <c r="D62" s="151" t="s">
+        <v>348</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" s="152" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" s="153"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="64"/>
+      <c r="C63" s="150" t="s">
+        <v>347</v>
+      </c>
+      <c r="D63" s="151" t="s">
+        <v>349</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="F63" s="152" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" s="153"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="17"/>
     </row>
     <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="61"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="19"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="D64" s="147" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="F64" s="149" t="s">
+        <v>318</v>
+      </c>
+      <c r="G64" s="143"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="17"/>
     </row>
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="61"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="19"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="150" t="s">
+        <v>353</v>
+      </c>
+      <c r="D65" s="151"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="17"/>
     </row>
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="61"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="19"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="150" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" s="151"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="152"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="17"/>
     </row>
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="61"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="19"/>
-    </row>
-    <row r="68" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="61"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="19"/>
-    </row>
-    <row r="69" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="61"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="61"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="19"/>
-    </row>
-    <row r="71" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="61"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="19"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" s="151" t="s">
+        <v>355</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="F67" s="152" t="s">
+        <v>357</v>
+      </c>
+      <c r="G67" s="153"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="64"/>
+      <c r="C68" s="150" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="151" t="s">
+        <v>359</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="F68" s="152" t="s">
+        <v>357</v>
+      </c>
+      <c r="G68" s="153"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="64"/>
+      <c r="C69" s="150" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="151" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" s="45"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
+    </row>
+    <row r="70" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="64"/>
+      <c r="C70" s="150" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" s="151" t="s">
+        <v>364</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="152" t="s">
+        <v>367</v>
+      </c>
+      <c r="G70" s="153"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="64"/>
+      <c r="C71" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="D71" s="151" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" s="45"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="49"/>
     </row>
     <row r="72" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="61"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="19"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="150" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" s="151" t="s">
+        <v>371</v>
+      </c>
+      <c r="E72" s="45"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="49"/>
     </row>
     <row r="73" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="19"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="150" t="s">
+        <v>369</v>
+      </c>
+      <c r="D73" s="151" t="s">
+        <v>372</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="F73" s="152" t="s">
+        <v>375</v>
+      </c>
+      <c r="G73" s="153"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="17"/>
     </row>
     <row r="74" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="61"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="19"/>
-    </row>
-    <row r="75" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="70"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="21"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D74" s="151" t="s">
+        <v>373</v>
+      </c>
+      <c r="E74" s="45"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="49"/>
+    </row>
+    <row r="75" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="64"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="146"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="19"/>
+    </row>
+    <row r="76" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="187"/>
+      <c r="I76" s="188"/>
+    </row>
+    <row r="77" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="61"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="19"/>
+    </row>
+    <row r="78" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="61"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="19"/>
+    </row>
+    <row r="79" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="61"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="19"/>
+    </row>
+    <row r="80" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="61"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="19"/>
+    </row>
+    <row r="81" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="61"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="61"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="19"/>
+    </row>
+    <row r="83" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="61"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="61"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="19"/>
+    </row>
+    <row r="85" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="61"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="19"/>
+    </row>
+    <row r="86" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="61"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="19"/>
+    </row>
+    <row r="87" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="61"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="19"/>
+    </row>
+    <row r="88" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="61"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="19"/>
+    </row>
+    <row r="89" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="61"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="19"/>
+    </row>
+    <row r="90" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="70"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="35">
     <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H76:I76"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="G44:G46"/>
@@ -5594,14 +5976,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="160" t="s">
+      <c r="C2" s="193"/>
+      <c r="D2" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="169" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5612,8 +5994,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -6075,7 +6457,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="194" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6083,7 +6465,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="187"/>
+      <c r="C3" s="195"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="394">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1195,6 +1195,30 @@
   </si>
   <si>
     <t>SchSysConfig.TblAppObject_InstitutionCompany</t>
+  </si>
+  <si>
+    <t>TblLDAPObject_User</t>
+  </si>
+  <si>
+    <t>Pengguna LDAP</t>
+  </si>
+  <si>
+    <t>TblLog_BusinessDocumentWorkFlowPath</t>
+  </si>
+  <si>
+    <t>TblLog_BusinessDocumentWorkFlowPathHistory</t>
+  </si>
+  <si>
+    <t>Log_BusinessDocumentWorkFlowPath</t>
+  </si>
+  <si>
+    <t>SchSysConfig.TblLog_BusinessDocumentWorkFlowPath</t>
+  </si>
+  <si>
+    <t>Riwayat Work Flow Path Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>Work Flow Path Dokumen Bisnis</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2350,6 +2374,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2371,12 +2407,63 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2400,57 +2487,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2799,19 +2835,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="162" t="s">
+      <c r="F2" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="163"/>
-      <c r="H2" s="164"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
@@ -2823,7 +2859,7 @@
       <c r="D3" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="161"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="112" t="s">
         <v>228</v>
       </c>
@@ -4495,13 +4531,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K90"/>
+  <dimension ref="B1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4520,20 +4556,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="191" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="167" t="s">
+      <c r="C2" s="192"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="169"/>
-      <c r="G2" s="167" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="168"/>
-      <c r="I2" s="169"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="190"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -4554,10 +4590,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="174"/>
+      <c r="I3" s="195"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -4587,19 +4623,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="178" t="s">
+      <c r="D5" s="182" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="181" t="s">
+      <c r="F5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="176" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4611,23 +4647,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="165" t="s">
+      <c r="F6" s="186"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="166"/>
+      <c r="I6" s="172"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="186"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="178"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -4661,19 +4697,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="189" t="s">
+      <c r="E9" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="181" t="s">
+      <c r="F9" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="176" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -4686,24 +4722,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="165" t="s">
+      <c r="C10" s="180"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="166"/>
+      <c r="I10" s="172"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="186"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="178"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -4713,10 +4749,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="182" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -4725,7 +4761,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="184" t="s">
+      <c r="G12" s="176" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -4737,15 +4773,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="180"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="184"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="186"/>
+      <c r="G13" s="178"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -4790,8 +4826,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="188"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="170"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -5205,19 +5241,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="175" t="s">
+      <c r="C40" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="178" t="s">
+      <c r="D40" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="189" t="s">
+      <c r="E40" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="181" t="s">
+      <c r="F40" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="184" t="s">
+      <c r="G40" s="176" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5229,23 +5265,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="165" t="s">
+      <c r="C41" s="180"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="186"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="166"/>
+      <c r="I41" s="172"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="186"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5279,19 +5315,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="175" t="s">
+      <c r="C44" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="189" t="s">
+      <c r="E44" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="184" t="s">
+      <c r="G44" s="176" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5303,23 +5339,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="190"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="165" t="s">
+      <c r="C45" s="180"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="166"/>
+      <c r="I45" s="172"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="178"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5344,8 +5380,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="188"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="170"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5408,10 +5444,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="165" t="s">
+      <c r="H52" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="166"/>
+      <c r="I52" s="172"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5444,8 +5480,8 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="188"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="170"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
@@ -5753,99 +5789,119 @@
     </row>
     <row r="75" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="64"/>
-      <c r="C75" s="144"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="19"/>
-    </row>
-    <row r="76" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="65"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="187"/>
-      <c r="I76" s="188"/>
-    </row>
-    <row r="77" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="61"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="19"/>
+      <c r="C75" s="158" t="s">
+        <v>386</v>
+      </c>
+      <c r="D75" s="159" t="s">
+        <v>387</v>
+      </c>
+      <c r="E75" s="45"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+    </row>
+    <row r="76" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="64"/>
+      <c r="C76" s="158" t="s">
+        <v>388</v>
+      </c>
+      <c r="D76" s="159" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="161"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B77" s="64"/>
+      <c r="C77" s="158" t="s">
+        <v>389</v>
+      </c>
+      <c r="D77" s="159" t="s">
+        <v>392</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="161"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="17"/>
     </row>
     <row r="78" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="61"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="19"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="158"/>
+      <c r="D78" s="159"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="160"/>
+      <c r="G78" s="161"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="17"/>
     </row>
     <row r="79" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="61"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="19"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="161"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="61"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="19"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="159"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="160"/>
+      <c r="G80" s="161"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="17"/>
     </row>
     <row r="81" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="61"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="19"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="158"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="160"/>
+      <c r="G81" s="161"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="61"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="14"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="146"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="32"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="142"/>
       <c r="H82" s="9"/>
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="61"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="19"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="169"/>
+      <c r="I83" s="170"/>
     </row>
     <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="61"/>
       <c r="C84" s="69"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="35"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="12"/>
       <c r="G84" s="32"/>
       <c r="H84" s="9"/>
@@ -5855,7 +5911,7 @@
       <c r="B85" s="61"/>
       <c r="C85" s="69"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="35"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="12"/>
       <c r="G85" s="32"/>
       <c r="H85" s="9"/>
@@ -5865,7 +5921,7 @@
       <c r="B86" s="61"/>
       <c r="C86" s="69"/>
       <c r="D86" s="14"/>
-      <c r="E86" s="35"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="12"/>
       <c r="G86" s="32"/>
       <c r="H86" s="9"/>
@@ -5875,7 +5931,7 @@
       <c r="B87" s="61"/>
       <c r="C87" s="69"/>
       <c r="D87" s="14"/>
-      <c r="E87" s="35"/>
+      <c r="E87" s="39"/>
       <c r="F87" s="12"/>
       <c r="G87" s="32"/>
       <c r="H87" s="9"/>
@@ -5885,7 +5941,7 @@
       <c r="B88" s="61"/>
       <c r="C88" s="69"/>
       <c r="D88" s="14"/>
-      <c r="E88" s="35"/>
+      <c r="E88" s="39"/>
       <c r="F88" s="12"/>
       <c r="G88" s="32"/>
       <c r="H88" s="9"/>
@@ -5895,40 +5951,103 @@
       <c r="B89" s="61"/>
       <c r="C89" s="69"/>
       <c r="D89" s="14"/>
-      <c r="E89" s="35"/>
+      <c r="E89" s="39"/>
       <c r="F89" s="12"/>
       <c r="G89" s="32"/>
       <c r="H89" s="9"/>
       <c r="I89" s="19"/>
     </row>
-    <row r="90" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="70"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="21"/>
+    <row r="90" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="61"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="61"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="19"/>
+    </row>
+    <row r="92" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="61"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="19"/>
+    </row>
+    <row r="93" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="61"/>
+      <c r="C93" s="69"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="61"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="19"/>
+    </row>
+    <row r="95" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="61"/>
+      <c r="C95" s="69"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="19"/>
+    </row>
+    <row r="96" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="61"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="19"/>
+    </row>
+    <row r="97" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="70"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -5939,15 +6058,22 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5976,14 +6102,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="168" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="189" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="169" t="s">
+      <c r="E2" s="190" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5994,8 +6120,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="195"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -6457,7 +6583,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="198" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6465,7 +6591,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="195"/>
+      <c r="C3" s="199"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="401">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1038,9 +1038,6 @@
     <t>Func_General_GetWorkFlowGraphToClosedGraph</t>
   </si>
   <si>
-    <t xml:space="preserve">   (Membuang Path yang berbentuk ranting)</t>
-  </si>
-  <si>
     <t>Mendapatkan Workflow Closed Graph dari Workflow Graph (dengan membuang Path yang berbentuk ranting)</t>
   </si>
   <si>
@@ -1053,9 +1050,6 @@
     <t>Sudah bener</t>
   </si>
   <si>
-    <t xml:space="preserve">   Workflow berdasarkan ID WorkFlowVersion (varWorkFlowVersion_RefID)</t>
-  </si>
-  <si>
     <t>mendapatkan Path Approval versi COMPACT dari  Workflow berdasarkan ID WorkFlowVersion (varWorkFlowVersion_RefID)</t>
   </si>
   <si>
@@ -1219,6 +1213,33 @@
   </si>
   <si>
     <t>Work Flow Path Dokumen Bisnis</t>
+  </si>
+  <si>
+    <t>FuncSys_General_SetRecordUpdateFields</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetTableIdentity</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetTableFieldIdentity</t>
+  </si>
+  <si>
+    <t>Mendapatkan FieldName, FieldType, FieldMaxChar, dan FieldFullType dari suatu Table yang diidentifikasi melalui Nama Schema (varSchemaName) dan Nama Table (varTableName)</t>
+  </si>
+  <si>
+    <t>Mendapatkan identitas berupa Sys_RPK, Sys_PID, Sys_SID, SchemaName, dan TableName dari suatu Table yang diidentifikasi melalui Nama Schema (varSchemaName) dan Nama Table (varTableName)</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetTableRecordType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Record Type Table berdasarkan Nama Schema (varSchemaName) dan Nama Table (varTableName)</t>
+  </si>
+  <si>
+    <t>Menampilkan informasi perubahan terakhir pada records yang terdapat didalam table berdasarkan Nama Schema (varSchemaName) dan Nama Table (varTableName)</t>
+  </si>
+  <si>
+    <t>Mengupdate satu atau beberapa field yang didefiniskan pada Array Data (varData) pada Record Table yang diidentifikasi melalui Record ID (varID)</t>
   </si>
 </sst>
 </file>
@@ -2407,18 +2428,78 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2427,66 +2508,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2811,13 +2832,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3680,7 +3701,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="121"/>
       <c r="C47" s="122" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="122" t="s">
         <v>326</v>
@@ -3706,7 +3727,7 @@
         <v>332</v>
       </c>
       <c r="E48" s="127" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F48" s="124" t="s">
         <v>232</v>
@@ -3718,7 +3739,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="121"/>
       <c r="C49" s="122"/>
@@ -3738,15 +3759,15 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="121"/>
       <c r="C50" s="122"/>
       <c r="D50" s="122" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E50" s="127" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F50" s="124" t="s">
         <v>232</v>
@@ -3758,7 +3779,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="121"/>
       <c r="C51" s="122"/>
@@ -3778,7 +3799,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="121"/>
       <c r="C52" s="122"/>
@@ -3798,7 +3819,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="121"/>
       <c r="C53" s="122"/>
@@ -3806,7 +3827,7 @@
         <v>322</v>
       </c>
       <c r="E53" s="127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F53" s="124" t="s">
         <v>281</v>
@@ -3818,15 +3839,15 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="121"/>
       <c r="C54" s="122"/>
       <c r="D54" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="E54" s="127" t="s">
         <v>335</v>
-      </c>
-      <c r="E54" s="127" t="s">
-        <v>336</v>
       </c>
       <c r="F54" s="124" t="s">
         <v>281</v>
@@ -3837,19 +3858,16 @@
       <c r="H54" s="126">
         <v>44910</v>
       </c>
-      <c r="J54" s="78" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
       <c r="D55" s="122" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E55" s="127" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F55" s="124" t="s">
         <v>232</v>
@@ -3861,15 +3879,15 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="121"/>
       <c r="C56" s="122"/>
       <c r="D56" s="122" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E56" s="127" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F56" s="124" t="s">
         <v>232</v>
@@ -3881,27 +3899,17 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="121"/>
       <c r="C57" s="122"/>
-      <c r="D57" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="E57" s="123" t="s">
-        <v>331</v>
-      </c>
-      <c r="F57" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G57" s="125">
-        <v>44893</v>
-      </c>
-      <c r="H57" s="126">
-        <v>44893</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D57" s="122"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="126"/>
+    </row>
+    <row r="58" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="121"/>
       <c r="C58" s="122"/>
@@ -3911,7 +3919,7 @@
       <c r="G58" s="125"/>
       <c r="H58" s="126"/>
     </row>
-    <row r="59" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="121"/>
       <c r="C59" s="122"/>
@@ -3921,75 +3929,122 @@
       <c r="G59" s="125"/>
       <c r="H59" s="126"/>
     </row>
-    <row r="60" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="121"/>
       <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="126"/>
-    </row>
-    <row r="61" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D60" s="122" t="s">
+        <v>394</v>
+      </c>
+      <c r="E60" s="127" t="s">
+        <v>395</v>
+      </c>
+      <c r="F60" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="125">
+        <v>44957</v>
+      </c>
+      <c r="H60" s="126">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="121"/>
       <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="126"/>
-      <c r="J61" s="78" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D61" s="122" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" s="127" t="s">
+        <v>396</v>
+      </c>
+      <c r="F61" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G61" s="125">
+        <v>44281</v>
+      </c>
+      <c r="H61" s="126">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="121"/>
       <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="126"/>
-    </row>
-    <row r="63" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D62" s="122" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" s="127" t="s">
+        <v>398</v>
+      </c>
+      <c r="F62" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="125">
+        <v>43257</v>
+      </c>
+      <c r="H62" s="126">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="121"/>
       <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="126"/>
-    </row>
-    <row r="64" spans="1:10" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D63" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" s="127" t="s">
+        <v>399</v>
+      </c>
+      <c r="F63" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="125">
+        <v>44949</v>
+      </c>
+      <c r="H63" s="126">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="121"/>
       <c r="C64" s="122"/>
       <c r="D64" s="122"/>
-      <c r="E64" s="123"/>
+      <c r="E64" s="127"/>
       <c r="F64" s="124"/>
       <c r="G64" s="125"/>
       <c r="H64" s="126"/>
     </row>
-    <row r="65" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="121"/>
       <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="126"/>
+      <c r="D65" s="122" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" s="127" t="s">
+        <v>400</v>
+      </c>
+      <c r="F65" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="125">
+        <v>44957</v>
+      </c>
+      <c r="H65" s="126">
+        <v>44957</v>
+      </c>
     </row>
     <row r="66" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="121"/>
       <c r="C66" s="122"/>
       <c r="D66" s="122"/>
-      <c r="E66" s="123"/>
+      <c r="E66" s="127"/>
       <c r="F66" s="124"/>
       <c r="G66" s="125"/>
       <c r="H66" s="126"/>
@@ -4008,11 +4063,21 @@
       <c r="A68" s="1"/>
       <c r="B68" s="121"/>
       <c r="C68" s="122"/>
-      <c r="D68" s="122"/>
-      <c r="E68" s="123"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="126"/>
+      <c r="D68" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="F68" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" s="125">
+        <v>44893</v>
+      </c>
+      <c r="H68" s="126">
+        <v>44893</v>
+      </c>
     </row>
     <row r="69" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
@@ -4334,55 +4399,55 @@
       <c r="G100" s="125"/>
       <c r="H100" s="126"/>
     </row>
-    <row r="101" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="134"/>
-      <c r="C101" s="135"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="136"/>
-      <c r="F101" s="137"/>
-      <c r="G101" s="138"/>
-      <c r="H101" s="139"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="123"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="126"/>
     </row>
     <row r="102" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="141"/>
-      <c r="H102" s="141"/>
+      <c r="B102" s="121"/>
+      <c r="C102" s="122"/>
+      <c r="D102" s="122"/>
+      <c r="E102" s="123"/>
+      <c r="F102" s="124"/>
+      <c r="G102" s="125"/>
+      <c r="H102" s="126"/>
     </row>
     <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="140"/>
-      <c r="G103" s="141"/>
-      <c r="H103" s="141"/>
+      <c r="B103" s="121"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="123"/>
+      <c r="F103" s="124"/>
+      <c r="G103" s="125"/>
+      <c r="H103" s="126"/>
     </row>
     <row r="104" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="140"/>
-      <c r="G104" s="141"/>
-      <c r="H104" s="141"/>
-    </row>
-    <row r="105" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B104" s="121"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="122"/>
+      <c r="E104" s="123"/>
+      <c r="F104" s="124"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="126"/>
+    </row>
+    <row r="105" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="140"/>
-      <c r="G105" s="141"/>
-      <c r="H105" s="141"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="135"/>
+      <c r="D105" s="135"/>
+      <c r="E105" s="136"/>
+      <c r="F105" s="137"/>
+      <c r="G105" s="138"/>
+      <c r="H105" s="139"/>
     </row>
     <row r="106" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
@@ -4505,19 +4570,59 @@
       <c r="H117" s="141"/>
     </row>
     <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F118" s="95"/>
-      <c r="G118" s="111"/>
-      <c r="H118" s="111"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="140"/>
+      <c r="G118" s="141"/>
+      <c r="H118" s="141"/>
     </row>
     <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F119" s="95"/>
-      <c r="G119" s="111"/>
-      <c r="H119" s="111"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="140"/>
+      <c r="G119" s="141"/>
+      <c r="H119" s="141"/>
     </row>
     <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F120" s="95"/>
-      <c r="G120" s="111"/>
-      <c r="H120" s="111"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="140"/>
+      <c r="G120" s="141"/>
+      <c r="H120" s="141"/>
+    </row>
+    <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="140"/>
+      <c r="G121" s="141"/>
+      <c r="H121" s="141"/>
+    </row>
+    <row r="122" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F122" s="95"/>
+      <c r="G122" s="111"/>
+      <c r="H122" s="111"/>
+    </row>
+    <row r="123" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F123" s="95"/>
+      <c r="G123" s="111"/>
+      <c r="H123" s="111"/>
+    </row>
+    <row r="124" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F124" s="95"/>
+      <c r="G124" s="111"/>
+      <c r="H124" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4533,11 +4638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4556,20 +4661,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="188" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="188" t="s">
+      <c r="F2" s="173"/>
+      <c r="G2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="189"/>
-      <c r="I2" s="190"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -4590,10 +4695,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="194" t="s">
+      <c r="H3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="195"/>
+      <c r="I3" s="178"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -4635,7 +4740,7 @@
       <c r="F5" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="188" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4651,11 +4756,11 @@
       <c r="D6" s="183"/>
       <c r="E6" s="35"/>
       <c r="F6" s="186"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="171" t="s">
+      <c r="G6" s="189"/>
+      <c r="H6" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="172"/>
+      <c r="I6" s="170"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
@@ -4663,7 +4768,7 @@
       <c r="D7" s="184"/>
       <c r="E7" s="36"/>
       <c r="F7" s="187"/>
-      <c r="G7" s="178"/>
+      <c r="G7" s="190"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -4703,13 +4808,13 @@
       <c r="D9" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="173" t="s">
+      <c r="E9" s="193" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="188" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -4724,22 +4829,22 @@
       <c r="B10" s="61"/>
       <c r="C10" s="180"/>
       <c r="D10" s="183"/>
-      <c r="E10" s="174"/>
+      <c r="E10" s="194"/>
       <c r="F10" s="186"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="171" t="s">
+      <c r="G10" s="189"/>
+      <c r="H10" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="172"/>
+      <c r="I10" s="170"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
       <c r="C11" s="181"/>
       <c r="D11" s="184"/>
-      <c r="E11" s="175"/>
+      <c r="E11" s="195"/>
       <c r="F11" s="187"/>
-      <c r="G11" s="178"/>
+      <c r="G11" s="190"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -4761,7 +4866,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="G12" s="188" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -4781,7 +4886,7 @@
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="178"/>
+      <c r="G13" s="190"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -4826,8 +4931,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="170"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="192"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -5247,13 +5352,13 @@
       <c r="D40" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="173" t="s">
+      <c r="E40" s="193" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="188" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5267,21 +5372,21 @@
       <c r="B41" s="61"/>
       <c r="C41" s="180"/>
       <c r="D41" s="183"/>
-      <c r="E41" s="174"/>
+      <c r="E41" s="194"/>
       <c r="F41" s="186"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="171" t="s">
+      <c r="G41" s="189"/>
+      <c r="H41" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="172"/>
+      <c r="I41" s="170"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
       <c r="C42" s="181"/>
       <c r="D42" s="184"/>
-      <c r="E42" s="175"/>
+      <c r="E42" s="195"/>
       <c r="F42" s="187"/>
-      <c r="G42" s="178"/>
+      <c r="G42" s="190"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5321,13 +5426,13 @@
       <c r="D44" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="173" t="s">
+      <c r="E44" s="193" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="176" t="s">
+      <c r="G44" s="188" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5341,21 +5446,21 @@
       <c r="B45" s="61"/>
       <c r="C45" s="180"/>
       <c r="D45" s="183"/>
-      <c r="E45" s="174"/>
+      <c r="E45" s="194"/>
       <c r="F45" s="186"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="171" t="s">
+      <c r="G45" s="189"/>
+      <c r="H45" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="172"/>
+      <c r="I45" s="170"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
       <c r="C46" s="181"/>
       <c r="D46" s="184"/>
-      <c r="E46" s="175"/>
+      <c r="E46" s="195"/>
       <c r="F46" s="187"/>
-      <c r="G46" s="178"/>
+      <c r="G46" s="190"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5380,8 +5485,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="170"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="192"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5444,10 +5549,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="171" t="s">
+      <c r="H52" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="172"/>
+      <c r="I52" s="170"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5480,24 +5585,24 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="170"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="192"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="155" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D56" s="156" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E56" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="F56" s="157" t="s">
         <v>382</v>
-      </c>
-      <c r="F56" s="157" t="s">
-        <v>384</v>
       </c>
       <c r="G56" s="154"/>
       <c r="H56" s="8"/>
@@ -5506,10 +5611,10 @@
     <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="61"/>
       <c r="C57" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="151" t="s">
         <v>377</v>
-      </c>
-      <c r="D57" s="151" t="s">
-        <v>379</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="46"/>
@@ -5520,16 +5625,16 @@
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="64"/>
       <c r="C58" s="155" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="156" t="s">
         <v>378</v>
       </c>
-      <c r="D58" s="156" t="s">
-        <v>380</v>
-      </c>
       <c r="E58" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="F58" s="157" t="s">
         <v>383</v>
-      </c>
-      <c r="F58" s="157" t="s">
-        <v>385</v>
       </c>
       <c r="G58" s="154"/>
       <c r="H58" s="8"/>
@@ -5584,10 +5689,10 @@
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="64"/>
       <c r="C62" s="150" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" s="151" t="s">
         <v>346</v>
-      </c>
-      <c r="D62" s="151" t="s">
-        <v>348</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>319</v>
@@ -5602,16 +5707,16 @@
     <row r="63" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="64"/>
       <c r="C63" s="150" t="s">
+        <v>345</v>
+      </c>
+      <c r="D63" s="151" t="s">
         <v>347</v>
       </c>
-      <c r="D63" s="151" t="s">
+      <c r="E63" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="F63" s="152" t="s">
         <v>349</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="F63" s="152" t="s">
-        <v>351</v>
       </c>
       <c r="G63" s="153"/>
       <c r="H63" s="8"/>
@@ -5638,7 +5743,7 @@
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="64"/>
       <c r="C65" s="150" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D65" s="151"/>
       <c r="E65" s="42"/>
@@ -5650,7 +5755,7 @@
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="64"/>
       <c r="C66" s="150" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D66" s="151"/>
       <c r="E66" s="42"/>
@@ -5662,16 +5767,16 @@
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="64"/>
       <c r="C67" s="150" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D67" s="151" t="s">
+        <v>353</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="F67" s="152" t="s">
         <v>355</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="F67" s="152" t="s">
-        <v>357</v>
       </c>
       <c r="G67" s="153"/>
       <c r="H67" s="8"/>
@@ -5680,16 +5785,16 @@
     <row r="68" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="64"/>
       <c r="C68" s="150" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D68" s="151" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F68" s="152" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G68" s="153"/>
       <c r="H68" s="8"/>
@@ -5698,10 +5803,10 @@
     <row r="69" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B69" s="64"/>
       <c r="C69" s="150" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D69" s="151" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="46"/>
@@ -5712,16 +5817,16 @@
     <row r="70" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B70" s="64"/>
       <c r="C70" s="150" t="s">
+        <v>360</v>
+      </c>
+      <c r="D70" s="151" t="s">
         <v>362</v>
       </c>
-      <c r="D70" s="151" t="s">
+      <c r="E70" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="E70" s="42" t="s">
-        <v>366</v>
-      </c>
       <c r="F70" s="152" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G70" s="153"/>
       <c r="H70" s="8"/>
@@ -5730,10 +5835,10 @@
     <row r="71" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B71" s="64"/>
       <c r="C71" s="150" t="s">
+        <v>361</v>
+      </c>
+      <c r="D71" s="151" t="s">
         <v>363</v>
-      </c>
-      <c r="D71" s="151" t="s">
-        <v>365</v>
       </c>
       <c r="E71" s="45"/>
       <c r="F71" s="46"/>
@@ -5744,10 +5849,10 @@
     <row r="72" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="64"/>
       <c r="C72" s="150" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D72" s="151" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="46"/>
@@ -5758,16 +5863,16 @@
     <row r="73" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="64"/>
       <c r="C73" s="150" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D73" s="151" t="s">
+        <v>370</v>
+      </c>
+      <c r="E73" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="E73" s="42" t="s">
-        <v>374</v>
-      </c>
       <c r="F73" s="152" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G73" s="153"/>
       <c r="H73" s="8"/>
@@ -5776,10 +5881,10 @@
     <row r="74" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="64"/>
       <c r="C74" s="150" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D74" s="151" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E74" s="45"/>
       <c r="F74" s="46"/>
@@ -5790,10 +5895,10 @@
     <row r="75" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="64"/>
       <c r="C75" s="158" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D75" s="159" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E75" s="45"/>
       <c r="F75" s="46"/>
@@ -5804,10 +5909,10 @@
     <row r="76" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B76" s="64"/>
       <c r="C76" s="158" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D76" s="159" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E76" s="42" t="s">
         <v>90</v>
@@ -5822,16 +5927,16 @@
     <row r="77" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B77" s="64"/>
       <c r="C77" s="158" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" s="159" t="s">
+        <v>390</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="F77" s="160" t="s">
         <v>389</v>
-      </c>
-      <c r="D77" s="159" t="s">
-        <v>392</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>390</v>
-      </c>
-      <c r="F77" s="160" t="s">
-        <v>391</v>
       </c>
       <c r="G77" s="161"/>
       <c r="H77" s="8"/>
@@ -5894,8 +5999,8 @@
       <c r="E83" s="25"/>
       <c r="F83" s="22"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="170"/>
+      <c r="H83" s="191"/>
+      <c r="I83" s="192"/>
     </row>
     <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="61"/>
@@ -6039,15 +6144,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -6058,22 +6170,15 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6106,10 +6211,10 @@
         <v>54</v>
       </c>
       <c r="C2" s="197"/>
-      <c r="D2" s="189" t="s">
+      <c r="D2" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="173" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6120,8 +6225,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="194"/>
-      <c r="E3" s="195"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="415">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1240,6 +1240,48 @@
   </si>
   <si>
     <t>Mengupdate satu atau beberapa field yang didefiniskan pada Array Data (varData) pada Record Table yang diidentifikasi melalui Record ID (varID)</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllIndexName</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllLDAPUserToPerson</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh nama Index yang terdapat didalam sistem berdasarkan Nama Skema (varSchemaName) dan Nama Tabel (varTableName)</t>
+  </si>
+  <si>
+    <t>Menampilkan pemetaan RPK, ID, dan Name dari LDAP User ke Person</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllPartitionTablesName</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh nama Table Berpartisi yang terdapat didalam sistem berdasarkan Nama Skema (varSchemaName) dan Nama Tabel (varTableName)</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllSchemasName</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh nama Schema yang terdapat didalam sistem</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllTablesName</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh nama Table yang terdapat didalam sistem berdasarkan Nama Skema (varSchemaName)</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetAllUsersName</t>
+  </si>
+  <si>
+    <t>Menampilkan seluruh nama User yang terdapat didalam sistem</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetBranchGroupFilter</t>
+  </si>
+  <si>
+    <t>Menampilkan ID Institution Branch satu Group yang difilter berdasarkan ID Institution Branch (varBranchID)</t>
   </si>
 </sst>
 </file>
@@ -2832,13 +2874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3617,294 +3659,262 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="121"/>
       <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="126"/>
+      <c r="D40" s="122" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="127" t="s">
+        <v>403</v>
+      </c>
+      <c r="F40" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="125">
+        <v>43720</v>
+      </c>
+      <c r="H40" s="126">
+        <v>43720</v>
+      </c>
     </row>
     <row r="41" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="121"/>
       <c r="C41" s="122"/>
       <c r="D41" s="122" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" s="123" t="s">
-        <v>287</v>
+        <v>402</v>
+      </c>
+      <c r="E41" s="127" t="s">
+        <v>404</v>
       </c>
       <c r="F41" s="124" t="s">
         <v>232</v>
       </c>
       <c r="G41" s="125">
-        <v>44949</v>
+        <v>43785</v>
       </c>
       <c r="H41" s="126">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="121"/>
       <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
+      <c r="D42" s="122" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" s="127" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="125">
+        <v>43208</v>
+      </c>
+      <c r="H42" s="126">
+        <v>43208</v>
+      </c>
     </row>
     <row r="43" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="121"/>
       <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="125"/>
-      <c r="H43" s="126"/>
-    </row>
-    <row r="44" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D43" s="122" t="s">
+        <v>407</v>
+      </c>
+      <c r="E43" s="127" t="s">
+        <v>408</v>
+      </c>
+      <c r="F43" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="125">
+        <v>43181</v>
+      </c>
+      <c r="H43" s="126">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="121"/>
       <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="126"/>
+      <c r="D44" s="122" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="127" t="s">
+        <v>410</v>
+      </c>
+      <c r="F44" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="125">
+        <v>44958</v>
+      </c>
+      <c r="H44" s="126">
+        <v>43181</v>
+      </c>
     </row>
     <row r="45" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="121"/>
       <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="126"/>
-    </row>
-    <row r="46" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D45" s="122" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" s="127" t="s">
+        <v>412</v>
+      </c>
+      <c r="F45" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G45" s="125">
+        <v>44958</v>
+      </c>
+      <c r="H45" s="126">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="121"/>
       <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
-    </row>
-    <row r="47" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D46" s="122" t="s">
+        <v>413</v>
+      </c>
+      <c r="E46" s="127" t="s">
+        <v>414</v>
+      </c>
+      <c r="F46" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G46" s="125">
+        <v>44958</v>
+      </c>
+      <c r="H46" s="126">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="121"/>
-      <c r="C47" s="122" t="s">
-        <v>336</v>
-      </c>
-      <c r="D47" s="122" t="s">
-        <v>326</v>
-      </c>
-      <c r="E47" s="127" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G47" s="125">
-        <v>44902</v>
-      </c>
-      <c r="H47" s="126">
-        <v>44902</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="126"/>
+    </row>
+    <row r="48" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="121"/>
       <c r="C48" s="122"/>
-      <c r="D48" s="122" t="s">
-        <v>332</v>
-      </c>
-      <c r="E48" s="127" t="s">
-        <v>333</v>
-      </c>
-      <c r="F48" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="125">
-        <v>44897</v>
-      </c>
-      <c r="H48" s="126">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D48" s="122"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="126"/>
+    </row>
+    <row r="49" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="121"/>
       <c r="C49" s="122"/>
-      <c r="D49" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="E49" s="127" t="s">
-        <v>324</v>
-      </c>
-      <c r="F49" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G49" s="125">
-        <v>44951</v>
-      </c>
-      <c r="H49" s="126">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D49" s="122"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="126"/>
+    </row>
+    <row r="50" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="121"/>
       <c r="C50" s="122"/>
-      <c r="D50" s="122" t="s">
-        <v>338</v>
-      </c>
-      <c r="E50" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="F50" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G50" s="125">
-        <v>44951</v>
-      </c>
-      <c r="H50" s="126">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D50" s="122"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="126"/>
+    </row>
+    <row r="51" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="121"/>
       <c r="C51" s="122"/>
-      <c r="D51" s="122" t="s">
-        <v>321</v>
-      </c>
-      <c r="E51" s="127" t="s">
-        <v>325</v>
-      </c>
-      <c r="F51" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="G51" s="125">
-        <v>44900</v>
-      </c>
-      <c r="H51" s="126">
-        <v>44949</v>
-      </c>
+      <c r="D51" s="122"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="126"/>
     </row>
     <row r="52" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="121"/>
       <c r="C52" s="122"/>
-      <c r="D52" s="122" t="s">
-        <v>328</v>
-      </c>
-      <c r="E52" s="123" t="s">
-        <v>329</v>
-      </c>
-      <c r="F52" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="G52" s="125">
-        <v>44896</v>
-      </c>
-      <c r="H52" s="126">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D52" s="122"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="126"/>
+    </row>
+    <row r="53" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="121"/>
       <c r="C53" s="122"/>
       <c r="D53" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="E53" s="127" t="s">
-        <v>339</v>
+        <v>286</v>
+      </c>
+      <c r="E53" s="123" t="s">
+        <v>287</v>
       </c>
       <c r="F53" s="124" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G53" s="125">
-        <v>44945</v>
+        <v>44949</v>
       </c>
       <c r="H53" s="126">
         <v>44949</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="121"/>
       <c r="C54" s="122"/>
-      <c r="D54" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="E54" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="F54" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="G54" s="125">
-        <v>44910</v>
-      </c>
-      <c r="H54" s="126">
-        <v>44910</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D54" s="122"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="126"/>
+    </row>
+    <row r="55" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="121"/>
       <c r="C55" s="122"/>
-      <c r="D55" s="122" t="s">
-        <v>340</v>
-      </c>
-      <c r="E55" s="127" t="s">
-        <v>341</v>
-      </c>
-      <c r="F55" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G55" s="125">
-        <v>44951</v>
-      </c>
-      <c r="H55" s="126">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D55" s="122"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="126"/>
+    </row>
+    <row r="56" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="121"/>
       <c r="C56" s="122"/>
-      <c r="D56" s="122" t="s">
-        <v>342</v>
-      </c>
-      <c r="E56" s="127" t="s">
-        <v>343</v>
-      </c>
-      <c r="F56" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G56" s="125">
-        <v>44952</v>
-      </c>
-      <c r="H56" s="126">
-        <v>44952</v>
-      </c>
+      <c r="D56" s="122"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="126"/>
     </row>
     <row r="57" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="121"/>
       <c r="C57" s="122"/>
       <c r="D57" s="122"/>
-      <c r="E57" s="123"/>
+      <c r="E57" s="127"/>
       <c r="F57" s="124"/>
       <c r="G57" s="125"/>
       <c r="H57" s="126"/>
@@ -3919,54 +3929,66 @@
       <c r="G58" s="125"/>
       <c r="H58" s="126"/>
     </row>
-    <row r="59" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="121"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="126"/>
-    </row>
-    <row r="60" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C59" s="122" t="s">
+        <v>336</v>
+      </c>
+      <c r="D59" s="122" t="s">
+        <v>326</v>
+      </c>
+      <c r="E59" s="127" t="s">
+        <v>327</v>
+      </c>
+      <c r="F59" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="125">
+        <v>44902</v>
+      </c>
+      <c r="H59" s="126">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="121"/>
       <c r="C60" s="122"/>
       <c r="D60" s="122" t="s">
-        <v>394</v>
+        <v>332</v>
       </c>
       <c r="E60" s="127" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="F60" s="124" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G60" s="125">
-        <v>44957</v>
+        <v>44897</v>
       </c>
       <c r="H60" s="126">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="121"/>
       <c r="C61" s="122"/>
       <c r="D61" s="122" t="s">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="E61" s="127" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="F61" s="124" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G61" s="125">
-        <v>44281</v>
+        <v>44951</v>
       </c>
       <c r="H61" s="126">
-        <v>44557</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3974,19 +3996,19 @@
       <c r="B62" s="121"/>
       <c r="C62" s="122"/>
       <c r="D62" s="122" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="E62" s="127" t="s">
-        <v>398</v>
+        <v>337</v>
       </c>
       <c r="F62" s="124" t="s">
         <v>232</v>
       </c>
       <c r="G62" s="125">
-        <v>43257</v>
+        <v>44951</v>
       </c>
       <c r="H62" s="126">
-        <v>43257</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -3994,16 +4016,16 @@
       <c r="B63" s="121"/>
       <c r="C63" s="122"/>
       <c r="D63" s="122" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="E63" s="127" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="F63" s="124" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="G63" s="125">
-        <v>44949</v>
+        <v>44900</v>
       </c>
       <c r="H63" s="126">
         <v>44949</v>
@@ -4013,70 +4035,100 @@
       <c r="A64" s="1"/>
       <c r="B64" s="121"/>
       <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="126"/>
+      <c r="D64" s="122" t="s">
+        <v>328</v>
+      </c>
+      <c r="E64" s="123" t="s">
+        <v>329</v>
+      </c>
+      <c r="F64" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G64" s="125">
+        <v>44896</v>
+      </c>
+      <c r="H64" s="126">
+        <v>44896</v>
+      </c>
     </row>
     <row r="65" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="121"/>
       <c r="C65" s="122"/>
       <c r="D65" s="122" t="s">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E65" s="127" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="F65" s="124" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="G65" s="125">
-        <v>44957</v>
+        <v>44945</v>
       </c>
       <c r="H65" s="126">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="121"/>
       <c r="C66" s="122"/>
-      <c r="D66" s="122"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="126"/>
-    </row>
-    <row r="67" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D66" s="122" t="s">
+        <v>334</v>
+      </c>
+      <c r="E66" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="F66" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G66" s="125">
+        <v>44910</v>
+      </c>
+      <c r="H66" s="126">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="121"/>
       <c r="C67" s="122"/>
-      <c r="D67" s="122"/>
-      <c r="E67" s="123"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="126"/>
-    </row>
-    <row r="68" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D67" s="122" t="s">
+        <v>340</v>
+      </c>
+      <c r="E67" s="127" t="s">
+        <v>341</v>
+      </c>
+      <c r="F67" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G67" s="125">
+        <v>44951</v>
+      </c>
+      <c r="H67" s="126">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="121"/>
       <c r="C68" s="122"/>
       <c r="D68" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="123" t="s">
-        <v>331</v>
+        <v>342</v>
+      </c>
+      <c r="E68" s="127" t="s">
+        <v>343</v>
       </c>
       <c r="F68" s="124" t="s">
         <v>232</v>
       </c>
       <c r="G68" s="125">
-        <v>44893</v>
+        <v>44952</v>
       </c>
       <c r="H68" s="126">
-        <v>44893</v>
+        <v>44952</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -4109,72 +4161,122 @@
       <c r="G71" s="125"/>
       <c r="H71" s="126"/>
     </row>
-    <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="121"/>
       <c r="C72" s="122"/>
-      <c r="D72" s="122"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="126"/>
-    </row>
-    <row r="73" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="122" t="s">
+        <v>394</v>
+      </c>
+      <c r="E72" s="127" t="s">
+        <v>395</v>
+      </c>
+      <c r="F72" s="124" t="s">
+        <v>267</v>
+      </c>
+      <c r="G72" s="125">
+        <v>44957</v>
+      </c>
+      <c r="H72" s="126">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="121"/>
       <c r="C73" s="122"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="126"/>
-    </row>
-    <row r="74" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D73" s="122" t="s">
+        <v>393</v>
+      </c>
+      <c r="E73" s="127" t="s">
+        <v>396</v>
+      </c>
+      <c r="F73" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="G73" s="125">
+        <v>44281</v>
+      </c>
+      <c r="H73" s="126">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="121"/>
       <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="126"/>
-    </row>
-    <row r="75" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D74" s="122" t="s">
+        <v>397</v>
+      </c>
+      <c r="E74" s="127" t="s">
+        <v>398</v>
+      </c>
+      <c r="F74" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G74" s="125">
+        <v>43257</v>
+      </c>
+      <c r="H74" s="126">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="121"/>
       <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="123"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="126"/>
+      <c r="D75" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" s="127" t="s">
+        <v>399</v>
+      </c>
+      <c r="F75" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="125">
+        <v>44949</v>
+      </c>
+      <c r="H75" s="126">
+        <v>44949</v>
+      </c>
     </row>
     <row r="76" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="121"/>
       <c r="C76" s="122"/>
       <c r="D76" s="122"/>
-      <c r="E76" s="123"/>
+      <c r="E76" s="127"/>
       <c r="F76" s="124"/>
       <c r="G76" s="125"/>
       <c r="H76" s="126"/>
     </row>
-    <row r="77" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="121"/>
       <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="124"/>
-      <c r="G77" s="125"/>
-      <c r="H77" s="126"/>
+      <c r="D77" s="122" t="s">
+        <v>392</v>
+      </c>
+      <c r="E77" s="127" t="s">
+        <v>400</v>
+      </c>
+      <c r="F77" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G77" s="125">
+        <v>44957</v>
+      </c>
+      <c r="H77" s="126">
+        <v>44957</v>
+      </c>
     </row>
     <row r="78" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="121"/>
       <c r="C78" s="122"/>
       <c r="D78" s="122"/>
-      <c r="E78" s="123"/>
+      <c r="E78" s="127"/>
       <c r="F78" s="124"/>
       <c r="G78" s="125"/>
       <c r="H78" s="126"/>
@@ -4193,11 +4295,21 @@
       <c r="A80" s="1"/>
       <c r="B80" s="121"/>
       <c r="C80" s="122"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="123"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="126"/>
+      <c r="D80" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="E80" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="F80" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="125">
+        <v>44893</v>
+      </c>
+      <c r="H80" s="126">
+        <v>44893</v>
+      </c>
     </row>
     <row r="81" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
@@ -4439,135 +4551,135 @@
       <c r="G104" s="125"/>
       <c r="H104" s="126"/>
     </row>
-    <row r="105" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="134"/>
-      <c r="C105" s="135"/>
-      <c r="D105" s="135"/>
-      <c r="E105" s="136"/>
-      <c r="F105" s="137"/>
-      <c r="G105" s="138"/>
-      <c r="H105" s="139"/>
+      <c r="B105" s="121"/>
+      <c r="C105" s="122"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="123"/>
+      <c r="F105" s="124"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="126"/>
     </row>
     <row r="106" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="140"/>
-      <c r="G106" s="141"/>
-      <c r="H106" s="141"/>
+      <c r="B106" s="121"/>
+      <c r="C106" s="122"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="123"/>
+      <c r="F106" s="124"/>
+      <c r="G106" s="125"/>
+      <c r="H106" s="126"/>
     </row>
     <row r="107" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="140"/>
-      <c r="G107" s="141"/>
-      <c r="H107" s="141"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="122"/>
+      <c r="D107" s="122"/>
+      <c r="E107" s="123"/>
+      <c r="F107" s="124"/>
+      <c r="G107" s="125"/>
+      <c r="H107" s="126"/>
     </row>
     <row r="108" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="140"/>
-      <c r="G108" s="141"/>
-      <c r="H108" s="141"/>
+      <c r="B108" s="121"/>
+      <c r="C108" s="122"/>
+      <c r="D108" s="122"/>
+      <c r="E108" s="123"/>
+      <c r="F108" s="124"/>
+      <c r="G108" s="125"/>
+      <c r="H108" s="126"/>
     </row>
     <row r="109" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="140"/>
-      <c r="G109" s="141"/>
-      <c r="H109" s="141"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="122"/>
+      <c r="D109" s="122"/>
+      <c r="E109" s="123"/>
+      <c r="F109" s="124"/>
+      <c r="G109" s="125"/>
+      <c r="H109" s="126"/>
     </row>
     <row r="110" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="140"/>
-      <c r="G110" s="141"/>
-      <c r="H110" s="141"/>
+      <c r="B110" s="121"/>
+      <c r="C110" s="122"/>
+      <c r="D110" s="122"/>
+      <c r="E110" s="123"/>
+      <c r="F110" s="124"/>
+      <c r="G110" s="125"/>
+      <c r="H110" s="126"/>
     </row>
     <row r="111" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="140"/>
-      <c r="G111" s="141"/>
-      <c r="H111" s="141"/>
+      <c r="B111" s="121"/>
+      <c r="C111" s="122"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="123"/>
+      <c r="F111" s="124"/>
+      <c r="G111" s="125"/>
+      <c r="H111" s="126"/>
     </row>
     <row r="112" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="140"/>
-      <c r="G112" s="141"/>
-      <c r="H112" s="141"/>
+      <c r="B112" s="121"/>
+      <c r="C112" s="122"/>
+      <c r="D112" s="122"/>
+      <c r="E112" s="123"/>
+      <c r="F112" s="124"/>
+      <c r="G112" s="125"/>
+      <c r="H112" s="126"/>
     </row>
     <row r="113" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="140"/>
-      <c r="G113" s="141"/>
-      <c r="H113" s="141"/>
+      <c r="B113" s="121"/>
+      <c r="C113" s="122"/>
+      <c r="D113" s="122"/>
+      <c r="E113" s="123"/>
+      <c r="F113" s="124"/>
+      <c r="G113" s="125"/>
+      <c r="H113" s="126"/>
     </row>
     <row r="114" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="140"/>
-      <c r="G114" s="141"/>
-      <c r="H114" s="141"/>
+      <c r="B114" s="121"/>
+      <c r="C114" s="122"/>
+      <c r="D114" s="122"/>
+      <c r="E114" s="123"/>
+      <c r="F114" s="124"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="126"/>
     </row>
     <row r="115" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="140"/>
-      <c r="G115" s="141"/>
-      <c r="H115" s="141"/>
+      <c r="B115" s="121"/>
+      <c r="C115" s="122"/>
+      <c r="D115" s="122"/>
+      <c r="E115" s="123"/>
+      <c r="F115" s="124"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="126"/>
     </row>
     <row r="116" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="140"/>
-      <c r="G116" s="141"/>
-      <c r="H116" s="141"/>
-    </row>
-    <row r="117" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="121"/>
+      <c r="C116" s="122"/>
+      <c r="D116" s="122"/>
+      <c r="E116" s="123"/>
+      <c r="F116" s="124"/>
+      <c r="G116" s="125"/>
+      <c r="H116" s="126"/>
+    </row>
+    <row r="117" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="140"/>
-      <c r="G117" s="141"/>
-      <c r="H117" s="141"/>
+      <c r="B117" s="134"/>
+      <c r="C117" s="135"/>
+      <c r="D117" s="135"/>
+      <c r="E117" s="136"/>
+      <c r="F117" s="137"/>
+      <c r="G117" s="138"/>
+      <c r="H117" s="139"/>
     </row>
     <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
@@ -4610,19 +4722,139 @@
       <c r="H121" s="141"/>
     </row>
     <row r="122" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F122" s="95"/>
-      <c r="G122" s="111"/>
-      <c r="H122" s="111"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="140"/>
+      <c r="G122" s="141"/>
+      <c r="H122" s="141"/>
     </row>
     <row r="123" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F123" s="95"/>
-      <c r="G123" s="111"/>
-      <c r="H123" s="111"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="140"/>
+      <c r="G123" s="141"/>
+      <c r="H123" s="141"/>
     </row>
     <row r="124" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F124" s="95"/>
-      <c r="G124" s="111"/>
-      <c r="H124" s="111"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="140"/>
+      <c r="G124" s="141"/>
+      <c r="H124" s="141"/>
+    </row>
+    <row r="125" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="140"/>
+      <c r="G125" s="141"/>
+      <c r="H125" s="141"/>
+    </row>
+    <row r="126" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="140"/>
+      <c r="G126" s="141"/>
+      <c r="H126" s="141"/>
+    </row>
+    <row r="127" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="140"/>
+      <c r="G127" s="141"/>
+      <c r="H127" s="141"/>
+    </row>
+    <row r="128" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="140"/>
+      <c r="G128" s="141"/>
+      <c r="H128" s="141"/>
+    </row>
+    <row r="129" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="140"/>
+      <c r="G129" s="141"/>
+      <c r="H129" s="141"/>
+    </row>
+    <row r="130" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="140"/>
+      <c r="G130" s="141"/>
+      <c r="H130" s="141"/>
+    </row>
+    <row r="131" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="140"/>
+      <c r="G131" s="141"/>
+      <c r="H131" s="141"/>
+    </row>
+    <row r="132" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="140"/>
+      <c r="G132" s="141"/>
+      <c r="H132" s="141"/>
+    </row>
+    <row r="133" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="140"/>
+      <c r="G133" s="141"/>
+      <c r="H133" s="141"/>
+    </row>
+    <row r="134" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F134" s="95"/>
+      <c r="G134" s="111"/>
+      <c r="H134" s="111"/>
+    </row>
+    <row r="135" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F135" s="95"/>
+      <c r="G135" s="111"/>
+      <c r="H135" s="111"/>
+    </row>
+    <row r="136" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F136" s="95"/>
+      <c r="G136" s="111"/>
+      <c r="H136" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4631,6 +4863,7 @@
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -2010,7 +2010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2314,18 +2314,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2351,9 +2339,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2362,9 +2347,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2470,12 +2452,63 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2500,57 +2533,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2562,6 +2544,63 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2874,13 +2913,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2898,19 +2937,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="160" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
@@ -2922,7 +2961,7 @@
       <c r="D3" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="165"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="112" t="s">
         <v>228</v>
       </c>
@@ -2941,1755 +2980,1755 @@
       <c r="C4" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="201" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="202" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="203" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="119">
+      <c r="G4" s="204">
         <v>44910</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="205">
         <v>44910</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="194" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="123" t="s">
+      <c r="E5" s="195" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="125">
+      <c r="G5" s="197">
         <v>44908</v>
       </c>
-      <c r="H5" s="126">
+      <c r="H5" s="198">
         <v>44908</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="194" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="195" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="197">
         <v>44908</v>
       </c>
-      <c r="H6" s="126">
+      <c r="H6" s="198">
         <v>44908</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="194" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="195" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="197">
         <v>44887</v>
       </c>
-      <c r="H7" s="126">
+      <c r="H7" s="198">
         <v>44887</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="194" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="195" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="124" t="s">
+      <c r="F8" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="197">
         <v>44887</v>
       </c>
-      <c r="H8" s="126">
+      <c r="H8" s="198">
         <v>44887</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="194" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="125">
+      <c r="G9" s="197">
         <v>44774</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="198">
         <v>44774</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="194" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="195" t="s">
         <v>306</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="197">
         <v>44897</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="198">
         <v>44897</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="194" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="195" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="197">
         <v>44897</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="198">
         <v>44897</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122" t="s">
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="194" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="195" t="s">
         <v>247</v>
       </c>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="197">
         <v>44897</v>
       </c>
-      <c r="H12" s="126">
+      <c r="H12" s="198">
         <v>44897</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122" t="s">
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="194" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="197">
         <v>44748</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="198">
         <v>44748</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122" t="s">
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="194" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="195" t="s">
         <v>251</v>
       </c>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="125">
+      <c r="G14" s="197">
         <v>44735</v>
       </c>
-      <c r="H14" s="126">
+      <c r="H14" s="198">
         <v>44735</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122" t="s">
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="194" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="195" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="124" t="s">
+      <c r="F15" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="197">
         <v>44854</v>
       </c>
-      <c r="H15" s="126">
+      <c r="H15" s="198">
         <v>44854</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122" t="s">
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="194" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="195" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G16" s="125">
+      <c r="G16" s="197">
         <v>44770</v>
       </c>
-      <c r="H16" s="126">
+      <c r="H16" s="198">
         <v>44770</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122" t="s">
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="E17" s="123" t="s">
+      <c r="E17" s="195" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="124" t="s">
+      <c r="F17" s="196" t="s">
         <v>256</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="197">
         <v>44770</v>
       </c>
-      <c r="H17" s="126">
+      <c r="H17" s="198">
         <v>44427</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122" t="s">
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="194" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="195" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="124" t="s">
+      <c r="F18" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18" s="197">
         <v>44770</v>
       </c>
-      <c r="H18" s="126">
+      <c r="H18" s="198">
         <v>44770</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122" t="s">
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="194" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="123" t="s">
+      <c r="E19" s="195" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="124" t="s">
+      <c r="F19" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="197">
         <v>44770</v>
       </c>
-      <c r="H19" s="126">
+      <c r="H19" s="198">
         <v>44427</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122" t="s">
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="194" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="123" t="s">
+      <c r="E20" s="195" t="s">
         <v>263</v>
       </c>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="197">
         <v>44777</v>
       </c>
-      <c r="H20" s="126">
+      <c r="H20" s="198">
         <v>44777</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122" t="s">
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="194" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="195" t="s">
         <v>304</v>
       </c>
-      <c r="F21" s="124" t="s">
+      <c r="F21" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="197">
         <v>44935</v>
       </c>
-      <c r="H21" s="126">
+      <c r="H21" s="198">
         <v>44935</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122" t="s">
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="194" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="195" t="s">
         <v>277</v>
       </c>
-      <c r="F22" s="124" t="s">
+      <c r="F22" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G22" s="125">
+      <c r="G22" s="197">
         <v>44931</v>
       </c>
-      <c r="H22" s="126">
+      <c r="H22" s="198">
         <v>44931</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122" t="s">
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="194" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="123" t="s">
+      <c r="E23" s="195" t="s">
         <v>265</v>
       </c>
-      <c r="F23" s="124" t="s">
+      <c r="F23" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G23" s="125">
+      <c r="G23" s="197">
         <v>44847</v>
       </c>
-      <c r="H23" s="126">
+      <c r="H23" s="198">
         <v>44847</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122" t="s">
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="194" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="123" t="s">
+      <c r="E24" s="195" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="124" t="s">
+      <c r="F24" s="196" t="s">
         <v>267</v>
       </c>
-      <c r="G24" s="125">
+      <c r="G24" s="197">
         <v>44792</v>
       </c>
-      <c r="H24" s="126">
+      <c r="H24" s="198">
         <v>44770</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="194" t="s">
         <v>269</v>
       </c>
-      <c r="E25" s="123" t="s">
+      <c r="E25" s="195" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="124" t="s">
+      <c r="F25" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25" s="197">
         <v>44776</v>
       </c>
-      <c r="H25" s="126">
+      <c r="H25" s="198">
         <v>44776</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122" t="s">
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="194" t="s">
         <v>302</v>
       </c>
-      <c r="E26" s="123" t="s">
+      <c r="E26" s="195" t="s">
         <v>271</v>
       </c>
-      <c r="F26" s="124" t="s">
+      <c r="F26" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="125">
+      <c r="G26" s="197">
         <v>44777</v>
       </c>
-      <c r="H26" s="126">
+      <c r="H26" s="198">
         <v>44777</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122" t="s">
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="194" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="195" t="s">
         <v>273</v>
       </c>
-      <c r="F27" s="124" t="s">
+      <c r="F27" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="125">
+      <c r="G27" s="197">
         <v>44770</v>
       </c>
-      <c r="H27" s="126">
+      <c r="H27" s="198">
         <v>44770</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122" t="s">
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="194" t="s">
         <v>294</v>
       </c>
-      <c r="E28" s="127" t="s">
+      <c r="E28" s="200" t="s">
         <v>296</v>
       </c>
-      <c r="F28" s="124" t="s">
+      <c r="F28" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G28" s="125">
+      <c r="G28" s="197">
         <v>44937</v>
       </c>
-      <c r="H28" s="126">
+      <c r="H28" s="198">
         <v>44937</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122" t="s">
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="194" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="127" t="s">
+      <c r="E29" s="200" t="s">
         <v>295</v>
       </c>
-      <c r="F29" s="124" t="s">
+      <c r="F29" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G29" s="125">
+      <c r="G29" s="197">
         <v>44937</v>
       </c>
-      <c r="H29" s="126">
+      <c r="H29" s="198">
         <v>44937</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122" t="s">
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="194" t="s">
         <v>291</v>
       </c>
-      <c r="E30" s="127" t="s">
+      <c r="E30" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="F30" s="124" t="s">
+      <c r="F30" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="125">
+      <c r="G30" s="197">
         <v>44937</v>
       </c>
-      <c r="H30" s="126">
+      <c r="H30" s="198">
         <v>44937</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122" t="s">
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="194" t="s">
         <v>307</v>
       </c>
-      <c r="E31" s="127" t="s">
+      <c r="E31" s="200" t="s">
         <v>308</v>
       </c>
-      <c r="F31" s="124" t="s">
+      <c r="F31" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G31" s="125">
+      <c r="G31" s="197">
         <v>44949</v>
       </c>
-      <c r="H31" s="126">
+      <c r="H31" s="198">
         <v>44949</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122" t="s">
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="194" t="s">
         <v>292</v>
       </c>
-      <c r="E32" s="127" t="s">
+      <c r="E32" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="F32" s="124" t="s">
+      <c r="F32" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G32" s="125">
+      <c r="G32" s="197">
         <v>44937</v>
       </c>
-      <c r="H32" s="126">
+      <c r="H32" s="198">
         <v>44937</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122" t="s">
+      <c r="B33" s="117"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="194" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="127" t="s">
+      <c r="E33" s="200" t="s">
         <v>299</v>
       </c>
-      <c r="F33" s="124" t="s">
+      <c r="F33" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="125">
+      <c r="G33" s="197">
         <v>44937</v>
       </c>
-      <c r="H33" s="126">
+      <c r="H33" s="198">
         <v>44937</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122" t="s">
+      <c r="B34" s="117"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="194" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="127" t="s">
+      <c r="E34" s="200" t="s">
         <v>300</v>
       </c>
-      <c r="F34" s="124" t="s">
+      <c r="F34" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G34" s="125">
+      <c r="G34" s="197">
         <v>44937</v>
       </c>
-      <c r="H34" s="126">
+      <c r="H34" s="198">
         <v>44937</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122" t="s">
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="E35" s="127" t="s">
+      <c r="E35" s="206" t="s">
         <v>301</v>
       </c>
-      <c r="F35" s="124" t="s">
+      <c r="F35" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="G35" s="125">
+      <c r="G35" s="126">
         <v>44937</v>
       </c>
-      <c r="H35" s="126">
+      <c r="H35" s="127">
         <v>44937</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="129" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="130" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="131">
-        <v>44167</v>
-      </c>
-      <c r="H36" s="132">
-        <v>44167</v>
-      </c>
+      <c r="B36" s="117"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="212"/>
     </row>
     <row r="37" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="133" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="123" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" s="124" t="s">
+      <c r="B37" s="117"/>
+      <c r="C37" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="207" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" s="208" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="209" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="125">
+      <c r="G37" s="210">
         <v>44167</v>
       </c>
-      <c r="H37" s="126">
+      <c r="H37" s="211">
         <v>44167</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="123" t="s">
-        <v>279</v>
-      </c>
-      <c r="F38" s="124" t="s">
+      <c r="B38" s="117"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="199" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" s="195" t="s">
+        <v>285</v>
+      </c>
+      <c r="F38" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G38" s="125">
-        <v>43185</v>
-      </c>
-      <c r="H38" s="126">
-        <v>43185</v>
+      <c r="G38" s="197">
+        <v>44167</v>
+      </c>
+      <c r="H38" s="198">
+        <v>44167</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122" t="s">
+      <c r="B39" s="117"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="194" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="195" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="196" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="197">
+        <v>43185</v>
+      </c>
+      <c r="H39" s="198">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="194" t="s">
         <v>280</v>
       </c>
-      <c r="E39" s="123" t="s">
+      <c r="E40" s="195" t="s">
         <v>282</v>
       </c>
-      <c r="F39" s="124" t="s">
+      <c r="F40" s="196" t="s">
         <v>281</v>
       </c>
-      <c r="G39" s="125">
+      <c r="G40" s="197">
         <v>44216</v>
       </c>
-      <c r="H39" s="126">
+      <c r="H40" s="198">
         <v>44216</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122" t="s">
+    <row r="41" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="194" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="127" t="s">
+      <c r="E41" s="200" t="s">
         <v>403</v>
       </c>
-      <c r="F40" s="124" t="s">
+      <c r="F41" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G40" s="125">
+      <c r="G41" s="197">
         <v>43720</v>
       </c>
-      <c r="H40" s="126">
+      <c r="H41" s="198">
         <v>43720</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122" t="s">
+    <row r="42" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="194" t="s">
         <v>402</v>
       </c>
-      <c r="E41" s="127" t="s">
+      <c r="E42" s="200" t="s">
         <v>404</v>
       </c>
-      <c r="F41" s="124" t="s">
+      <c r="F42" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G41" s="125">
+      <c r="G42" s="197">
         <v>43785</v>
       </c>
-      <c r="H41" s="126">
+      <c r="H42" s="198">
         <v>43785</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="121"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122" t="s">
+    <row r="43" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="194" t="s">
         <v>405</v>
       </c>
-      <c r="E42" s="127" t="s">
+      <c r="E43" s="200" t="s">
         <v>406</v>
       </c>
-      <c r="F42" s="124" t="s">
+      <c r="F43" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="125">
+      <c r="G43" s="197">
         <v>43208</v>
       </c>
-      <c r="H42" s="126">
+      <c r="H43" s="198">
         <v>43208</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122" t="s">
+    <row r="44" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="194" t="s">
         <v>407</v>
       </c>
-      <c r="E43" s="127" t="s">
+      <c r="E44" s="200" t="s">
         <v>408</v>
       </c>
-      <c r="F43" s="124" t="s">
+      <c r="F44" s="196" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="125">
+      <c r="G44" s="197">
         <v>43181</v>
       </c>
-      <c r="H43" s="126">
+      <c r="H44" s="198">
         <v>43181</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122" t="s">
+    <row r="45" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="194" t="s">
         <v>409</v>
       </c>
-      <c r="E44" s="127" t="s">
+      <c r="E45" s="200" t="s">
         <v>410</v>
       </c>
-      <c r="F44" s="124" t="s">
+      <c r="F45" s="196" t="s">
         <v>281</v>
       </c>
-      <c r="G44" s="125">
+      <c r="G45" s="197">
         <v>44958</v>
       </c>
-      <c r="H44" s="126">
+      <c r="H45" s="198">
         <v>43181</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122" t="s">
+    <row r="46" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="194" t="s">
         <v>411</v>
       </c>
-      <c r="E45" s="127" t="s">
+      <c r="E46" s="200" t="s">
         <v>412</v>
       </c>
-      <c r="F45" s="124" t="s">
+      <c r="F46" s="196" t="s">
         <v>281</v>
       </c>
-      <c r="G45" s="125">
+      <c r="G46" s="197">
         <v>44958</v>
       </c>
-      <c r="H45" s="126">
+      <c r="H46" s="198">
         <v>43181</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122" t="s">
+    <row r="47" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="194" t="s">
         <v>413</v>
       </c>
-      <c r="E46" s="127" t="s">
+      <c r="E47" s="200" t="s">
         <v>414</v>
       </c>
-      <c r="F46" s="124" t="s">
+      <c r="F47" s="196" t="s">
         <v>281</v>
       </c>
-      <c r="G46" s="125">
+      <c r="G47" s="197">
         <v>44958</v>
       </c>
-      <c r="H46" s="126">
+      <c r="H47" s="198">
         <v>43922</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="126"/>
     </row>
     <row r="48" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="126"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="122"/>
     </row>
     <row r="49" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="126"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="122"/>
     </row>
     <row r="50" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="121"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="126"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="122"/>
     </row>
     <row r="51" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="121"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="126"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="118"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="122"/>
     </row>
     <row r="52" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
       <c r="E52" s="123"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="126"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="122"/>
     </row>
     <row r="53" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122" t="s">
-        <v>286</v>
-      </c>
-      <c r="E53" s="123" t="s">
-        <v>287</v>
-      </c>
-      <c r="F53" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G53" s="125">
-        <v>44949</v>
-      </c>
-      <c r="H53" s="126">
-        <v>44949</v>
-      </c>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="122"/>
     </row>
     <row r="54" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="126"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="119" t="s">
+        <v>287</v>
+      </c>
+      <c r="F54" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="121">
+        <v>44949</v>
+      </c>
+      <c r="H54" s="122">
+        <v>44949</v>
+      </c>
     </row>
     <row r="55" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="121"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="126"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="122"/>
     </row>
     <row r="56" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="126"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="122"/>
     </row>
     <row r="57" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="121"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="126"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="122"/>
     </row>
     <row r="58" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="122"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
       <c r="E58" s="123"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="126"/>
-    </row>
-    <row r="59" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F58" s="120"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="122"/>
+    </row>
+    <row r="59" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="122" t="s">
-        <v>336</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>326</v>
-      </c>
-      <c r="E59" s="127" t="s">
-        <v>327</v>
-      </c>
-      <c r="F59" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G59" s="125">
-        <v>44902</v>
-      </c>
-      <c r="H59" s="126">
-        <v>44902</v>
-      </c>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="122"/>
     </row>
     <row r="60" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122" t="s">
-        <v>332</v>
-      </c>
-      <c r="E60" s="127" t="s">
-        <v>333</v>
-      </c>
-      <c r="F60" s="124" t="s">
+      <c r="B60" s="117"/>
+      <c r="C60" s="118" t="s">
+        <v>336</v>
+      </c>
+      <c r="D60" s="118" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="F60" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="G60" s="125">
-        <v>44897</v>
-      </c>
-      <c r="H60" s="126">
-        <v>44897</v>
+      <c r="G60" s="121">
+        <v>44902</v>
+      </c>
+      <c r="H60" s="122">
+        <v>44902</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="E61" s="127" t="s">
-        <v>324</v>
-      </c>
-      <c r="F61" s="124" t="s">
+      <c r="B61" s="117"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118" t="s">
+        <v>332</v>
+      </c>
+      <c r="E61" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="F61" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="G61" s="125">
-        <v>44951</v>
-      </c>
-      <c r="H61" s="126">
-        <v>44951</v>
+      <c r="G61" s="121">
+        <v>44897</v>
+      </c>
+      <c r="H61" s="122">
+        <v>44897</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122" t="s">
-        <v>338</v>
-      </c>
-      <c r="E62" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="F62" s="124" t="s">
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="F62" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="G62" s="125">
+      <c r="G62" s="121">
         <v>44951</v>
       </c>
-      <c r="H62" s="126">
+      <c r="H62" s="122">
         <v>44951</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122" t="s">
+      <c r="B63" s="117"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118" t="s">
+        <v>338</v>
+      </c>
+      <c r="E63" s="123" t="s">
+        <v>337</v>
+      </c>
+      <c r="F63" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="121">
+        <v>44951</v>
+      </c>
+      <c r="H63" s="122">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118" t="s">
         <v>321</v>
       </c>
-      <c r="E63" s="127" t="s">
+      <c r="E64" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="F63" s="124" t="s">
+      <c r="F64" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="G63" s="125">
+      <c r="G64" s="121">
         <v>44900</v>
       </c>
-      <c r="H63" s="126">
+      <c r="H64" s="122">
         <v>44949</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122" t="s">
+    <row r="65" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="E64" s="123" t="s">
+      <c r="E65" s="119" t="s">
         <v>329</v>
       </c>
-      <c r="F64" s="124" t="s">
+      <c r="F65" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="125">
+      <c r="G65" s="121">
         <v>44896</v>
       </c>
-      <c r="H64" s="126">
+      <c r="H65" s="122">
         <v>44896</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122" t="s">
-        <v>322</v>
-      </c>
-      <c r="E65" s="127" t="s">
-        <v>339</v>
-      </c>
-      <c r="F65" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="G65" s="125">
-        <v>44945</v>
-      </c>
-      <c r="H65" s="126">
-        <v>44949</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="E66" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="F66" s="124" t="s">
+      <c r="B66" s="117"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="123" t="s">
+        <v>339</v>
+      </c>
+      <c r="F66" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="G66" s="125">
-        <v>44910</v>
-      </c>
-      <c r="H66" s="126">
-        <v>44910</v>
+      <c r="G66" s="121">
+        <v>44945</v>
+      </c>
+      <c r="H66" s="122">
+        <v>44949</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="122" t="s">
-        <v>340</v>
-      </c>
-      <c r="E67" s="127" t="s">
-        <v>341</v>
-      </c>
-      <c r="F67" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67" s="125">
-        <v>44951</v>
-      </c>
-      <c r="H67" s="126">
-        <v>44951</v>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118" t="s">
+        <v>334</v>
+      </c>
+      <c r="E67" s="123" t="s">
+        <v>335</v>
+      </c>
+      <c r="F67" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="G67" s="121">
+        <v>44910</v>
+      </c>
+      <c r="H67" s="122">
+        <v>44910</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="122" t="s">
+      <c r="B68" s="117"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118" t="s">
+        <v>340</v>
+      </c>
+      <c r="E68" s="123" t="s">
+        <v>341</v>
+      </c>
+      <c r="F68" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" s="121">
+        <v>44951</v>
+      </c>
+      <c r="H68" s="122">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118" t="s">
         <v>342</v>
       </c>
-      <c r="E68" s="127" t="s">
+      <c r="E69" s="123" t="s">
         <v>343</v>
       </c>
-      <c r="F68" s="124" t="s">
+      <c r="F69" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="125">
+      <c r="G69" s="121">
         <v>44952</v>
       </c>
-      <c r="H68" s="126">
+      <c r="H69" s="122">
         <v>44952</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="121"/>
-      <c r="C69" s="122"/>
-      <c r="D69" s="122"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="124"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="126"/>
     </row>
     <row r="70" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="121"/>
-      <c r="C70" s="122"/>
-      <c r="D70" s="122"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="126"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="122"/>
     </row>
     <row r="71" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="121"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="122"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="126"/>
-    </row>
-    <row r="72" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B71" s="117"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="122"/>
+    </row>
+    <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="121"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="122" t="s">
-        <v>394</v>
-      </c>
-      <c r="E72" s="127" t="s">
-        <v>395</v>
-      </c>
-      <c r="F72" s="124" t="s">
-        <v>267</v>
-      </c>
-      <c r="G72" s="125">
-        <v>44957</v>
-      </c>
-      <c r="H72" s="126">
-        <v>42982</v>
-      </c>
+      <c r="B72" s="117"/>
+      <c r="C72" s="118"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="122"/>
     </row>
     <row r="73" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="121"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="122" t="s">
+      <c r="B73" s="117"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="118" t="s">
+        <v>394</v>
+      </c>
+      <c r="E73" s="123" t="s">
+        <v>395</v>
+      </c>
+      <c r="F73" s="120" t="s">
+        <v>267</v>
+      </c>
+      <c r="G73" s="121">
+        <v>44957</v>
+      </c>
+      <c r="H73" s="122">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="118" t="s">
         <v>393</v>
       </c>
-      <c r="E73" s="127" t="s">
+      <c r="E74" s="123" t="s">
         <v>396</v>
       </c>
-      <c r="F73" s="124" t="s">
+      <c r="F74" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="G73" s="125">
+      <c r="G74" s="121">
         <v>44281</v>
       </c>
-      <c r="H73" s="126">
+      <c r="H74" s="122">
         <v>44557</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="121"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122" t="s">
-        <v>397</v>
-      </c>
-      <c r="E74" s="127" t="s">
-        <v>398</v>
-      </c>
-      <c r="F74" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G74" s="125">
-        <v>43257</v>
-      </c>
-      <c r="H74" s="126">
-        <v>43257</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="121"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="122" t="s">
+      <c r="B75" s="117"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118" t="s">
+        <v>397</v>
+      </c>
+      <c r="E75" s="123" t="s">
+        <v>398</v>
+      </c>
+      <c r="F75" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="121">
+        <v>43257</v>
+      </c>
+      <c r="H75" s="122">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="E75" s="127" t="s">
+      <c r="E76" s="123" t="s">
         <v>399</v>
       </c>
-      <c r="F75" s="124" t="s">
+      <c r="F76" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="G75" s="125">
+      <c r="G76" s="121">
         <v>44949</v>
       </c>
-      <c r="H75" s="126">
+      <c r="H76" s="122">
         <v>44949</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="126"/>
-    </row>
-    <row r="77" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122" t="s">
+      <c r="B77" s="117"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="122"/>
+    </row>
+    <row r="78" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118" t="s">
         <v>392</v>
       </c>
-      <c r="E77" s="127" t="s">
+      <c r="E78" s="123" t="s">
         <v>400</v>
       </c>
-      <c r="F77" s="124" t="s">
+      <c r="F78" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="G77" s="125">
+      <c r="G78" s="121">
         <v>44957</v>
       </c>
-      <c r="H77" s="126">
+      <c r="H78" s="122">
         <v>44957</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="121"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="126"/>
     </row>
     <row r="79" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="122"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
       <c r="E79" s="123"/>
-      <c r="F79" s="124"/>
-      <c r="G79" s="125"/>
-      <c r="H79" s="126"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="122"/>
     </row>
     <row r="80" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="121"/>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80" s="123" t="s">
-        <v>331</v>
-      </c>
-      <c r="F80" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="G80" s="125">
-        <v>44893</v>
-      </c>
-      <c r="H80" s="126">
-        <v>44893</v>
-      </c>
+      <c r="B80" s="117"/>
+      <c r="C80" s="118"/>
+      <c r="D80" s="118"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="120"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="122"/>
     </row>
     <row r="81" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="122"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="123"/>
-      <c r="F81" s="124"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="126"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="118"/>
+      <c r="D81" s="118" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="F81" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" s="121">
+        <v>44893</v>
+      </c>
+      <c r="H81" s="122">
+        <v>44893</v>
+      </c>
     </row>
     <row r="82" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="121"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="126"/>
+      <c r="B82" s="117"/>
+      <c r="C82" s="118"/>
+      <c r="D82" s="118"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="120"/>
+      <c r="G82" s="121"/>
+      <c r="H82" s="122"/>
     </row>
     <row r="83" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="121"/>
-      <c r="C83" s="122"/>
-      <c r="D83" s="122"/>
-      <c r="E83" s="123"/>
-      <c r="F83" s="124"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="126"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="120"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="122"/>
     </row>
     <row r="84" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="121"/>
-      <c r="C84" s="122"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="126"/>
+      <c r="B84" s="117"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="119"/>
+      <c r="F84" s="120"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="122"/>
     </row>
     <row r="85" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="121"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="123"/>
-      <c r="F85" s="124"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="126"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="120"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="122"/>
     </row>
     <row r="86" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="121"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="123"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="126"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="122"/>
     </row>
     <row r="87" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="123"/>
-      <c r="F87" s="124"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="126"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="120"/>
+      <c r="G87" s="121"/>
+      <c r="H87" s="122"/>
     </row>
     <row r="88" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="121"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
-      <c r="E88" s="123"/>
-      <c r="F88" s="124"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="126"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="120"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="122"/>
     </row>
     <row r="89" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="121"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="122"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="126"/>
+      <c r="B89" s="117"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
+      <c r="E89" s="119"/>
+      <c r="F89" s="120"/>
+      <c r="G89" s="121"/>
+      <c r="H89" s="122"/>
     </row>
     <row r="90" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="123"/>
-      <c r="F90" s="124"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="126"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="120"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="122"/>
     </row>
     <row r="91" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="121"/>
-      <c r="C91" s="122"/>
-      <c r="D91" s="122"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="124"/>
-      <c r="G91" s="125"/>
-      <c r="H91" s="126"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="118"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="120"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="122"/>
     </row>
     <row r="92" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="121"/>
-      <c r="C92" s="122"/>
-      <c r="D92" s="122"/>
-      <c r="E92" s="123"/>
-      <c r="F92" s="124"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="126"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="118"/>
+      <c r="D92" s="118"/>
+      <c r="E92" s="119"/>
+      <c r="F92" s="120"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="122"/>
     </row>
     <row r="93" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="121"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="122"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="124"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="126"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="118"/>
+      <c r="D93" s="118"/>
+      <c r="E93" s="119"/>
+      <c r="F93" s="120"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="122"/>
     </row>
     <row r="94" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="121"/>
-      <c r="C94" s="122"/>
-      <c r="D94" s="122"/>
-      <c r="E94" s="123"/>
-      <c r="F94" s="124"/>
-      <c r="G94" s="125"/>
-      <c r="H94" s="126"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="118"/>
+      <c r="D94" s="118"/>
+      <c r="E94" s="119"/>
+      <c r="F94" s="120"/>
+      <c r="G94" s="121"/>
+      <c r="H94" s="122"/>
     </row>
     <row r="95" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="121"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="122"/>
-      <c r="E95" s="123"/>
-      <c r="F95" s="124"/>
-      <c r="G95" s="125"/>
-      <c r="H95" s="126"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="118"/>
+      <c r="D95" s="118"/>
+      <c r="E95" s="119"/>
+      <c r="F95" s="120"/>
+      <c r="G95" s="121"/>
+      <c r="H95" s="122"/>
     </row>
     <row r="96" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="121"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122"/>
-      <c r="E96" s="123"/>
-      <c r="F96" s="124"/>
-      <c r="G96" s="125"/>
-      <c r="H96" s="126"/>
+      <c r="B96" s="117"/>
+      <c r="C96" s="118"/>
+      <c r="D96" s="118"/>
+      <c r="E96" s="119"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="121"/>
+      <c r="H96" s="122"/>
     </row>
     <row r="97" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="121"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="122"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="124"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="126"/>
+      <c r="B97" s="117"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="119"/>
+      <c r="F97" s="120"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="122"/>
     </row>
     <row r="98" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="121"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="122"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="126"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="118"/>
+      <c r="D98" s="118"/>
+      <c r="E98" s="119"/>
+      <c r="F98" s="120"/>
+      <c r="G98" s="121"/>
+      <c r="H98" s="122"/>
     </row>
     <row r="99" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="121"/>
-      <c r="C99" s="122"/>
-      <c r="D99" s="122"/>
-      <c r="E99" s="123"/>
-      <c r="F99" s="124"/>
-      <c r="G99" s="125"/>
-      <c r="H99" s="126"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="120"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="122"/>
     </row>
     <row r="100" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="121"/>
-      <c r="C100" s="122"/>
-      <c r="D100" s="122"/>
-      <c r="E100" s="123"/>
-      <c r="F100" s="124"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="126"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="119"/>
+      <c r="F100" s="120"/>
+      <c r="G100" s="121"/>
+      <c r="H100" s="122"/>
     </row>
     <row r="101" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="121"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="124"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="126"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="118"/>
+      <c r="D101" s="118"/>
+      <c r="E101" s="119"/>
+      <c r="F101" s="120"/>
+      <c r="G101" s="121"/>
+      <c r="H101" s="122"/>
     </row>
     <row r="102" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="121"/>
-      <c r="C102" s="122"/>
-      <c r="D102" s="122"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="124"/>
-      <c r="G102" s="125"/>
-      <c r="H102" s="126"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="120"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="122"/>
     </row>
     <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="121"/>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="124"/>
-      <c r="G103" s="125"/>
-      <c r="H103" s="126"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="119"/>
+      <c r="F103" s="120"/>
+      <c r="G103" s="121"/>
+      <c r="H103" s="122"/>
     </row>
     <row r="104" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="121"/>
-      <c r="C104" s="122"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="123"/>
-      <c r="F104" s="124"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="126"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="119"/>
+      <c r="F104" s="120"/>
+      <c r="G104" s="121"/>
+      <c r="H104" s="122"/>
     </row>
     <row r="105" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="121"/>
-      <c r="C105" s="122"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="123"/>
-      <c r="F105" s="124"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="126"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="121"/>
+      <c r="H105" s="122"/>
     </row>
     <row r="106" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="121"/>
-      <c r="C106" s="122"/>
-      <c r="D106" s="122"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="124"/>
-      <c r="G106" s="125"/>
-      <c r="H106" s="126"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="120"/>
+      <c r="G106" s="121"/>
+      <c r="H106" s="122"/>
     </row>
     <row r="107" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="121"/>
-      <c r="C107" s="122"/>
-      <c r="D107" s="122"/>
-      <c r="E107" s="123"/>
-      <c r="F107" s="124"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="126"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="118"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="119"/>
+      <c r="F107" s="120"/>
+      <c r="G107" s="121"/>
+      <c r="H107" s="122"/>
     </row>
     <row r="108" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="121"/>
-      <c r="C108" s="122"/>
-      <c r="D108" s="122"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="124"/>
-      <c r="G108" s="125"/>
-      <c r="H108" s="126"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="118"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="119"/>
+      <c r="F108" s="120"/>
+      <c r="G108" s="121"/>
+      <c r="H108" s="122"/>
     </row>
     <row r="109" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="121"/>
-      <c r="C109" s="122"/>
-      <c r="D109" s="122"/>
-      <c r="E109" s="123"/>
-      <c r="F109" s="124"/>
-      <c r="G109" s="125"/>
-      <c r="H109" s="126"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="119"/>
+      <c r="F109" s="120"/>
+      <c r="G109" s="121"/>
+      <c r="H109" s="122"/>
     </row>
     <row r="110" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="121"/>
-      <c r="C110" s="122"/>
-      <c r="D110" s="122"/>
-      <c r="E110" s="123"/>
-      <c r="F110" s="124"/>
-      <c r="G110" s="125"/>
-      <c r="H110" s="126"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="118"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="120"/>
+      <c r="G110" s="121"/>
+      <c r="H110" s="122"/>
     </row>
     <row r="111" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="121"/>
-      <c r="C111" s="122"/>
-      <c r="D111" s="122"/>
-      <c r="E111" s="123"/>
-      <c r="F111" s="124"/>
-      <c r="G111" s="125"/>
-      <c r="H111" s="126"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="119"/>
+      <c r="F111" s="120"/>
+      <c r="G111" s="121"/>
+      <c r="H111" s="122"/>
     </row>
     <row r="112" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="121"/>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="123"/>
-      <c r="F112" s="124"/>
-      <c r="G112" s="125"/>
-      <c r="H112" s="126"/>
+      <c r="B112" s="117"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="119"/>
+      <c r="F112" s="120"/>
+      <c r="G112" s="121"/>
+      <c r="H112" s="122"/>
     </row>
     <row r="113" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="121"/>
-      <c r="C113" s="122"/>
-      <c r="D113" s="122"/>
-      <c r="E113" s="123"/>
-      <c r="F113" s="124"/>
-      <c r="G113" s="125"/>
-      <c r="H113" s="126"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="120"/>
+      <c r="G113" s="121"/>
+      <c r="H113" s="122"/>
     </row>
     <row r="114" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="121"/>
-      <c r="C114" s="122"/>
-      <c r="D114" s="122"/>
-      <c r="E114" s="123"/>
-      <c r="F114" s="124"/>
-      <c r="G114" s="125"/>
-      <c r="H114" s="126"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="118"/>
+      <c r="E114" s="119"/>
+      <c r="F114" s="120"/>
+      <c r="G114" s="121"/>
+      <c r="H114" s="122"/>
     </row>
     <row r="115" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="121"/>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="123"/>
-      <c r="F115" s="124"/>
-      <c r="G115" s="125"/>
-      <c r="H115" s="126"/>
+      <c r="B115" s="117"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="120"/>
+      <c r="G115" s="121"/>
+      <c r="H115" s="122"/>
     </row>
     <row r="116" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="121"/>
-      <c r="C116" s="122"/>
-      <c r="D116" s="122"/>
-      <c r="E116" s="123"/>
-      <c r="F116" s="124"/>
-      <c r="G116" s="125"/>
-      <c r="H116" s="126"/>
-    </row>
-    <row r="117" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="117"/>
+      <c r="C116" s="118"/>
+      <c r="D116" s="118"/>
+      <c r="E116" s="119"/>
+      <c r="F116" s="120"/>
+      <c r="G116" s="121"/>
+      <c r="H116" s="122"/>
+    </row>
+    <row r="117" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="134"/>
-      <c r="C117" s="135"/>
-      <c r="D117" s="135"/>
-      <c r="E117" s="136"/>
-      <c r="F117" s="137"/>
-      <c r="G117" s="138"/>
-      <c r="H117" s="139"/>
-    </row>
-    <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="117"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="119"/>
+      <c r="F117" s="120"/>
+      <c r="G117" s="121"/>
+      <c r="H117" s="122"/>
+    </row>
+    <row r="118" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="140"/>
-      <c r="G118" s="141"/>
-      <c r="H118" s="141"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="129"/>
+      <c r="D118" s="129"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="131"/>
+      <c r="G118" s="132"/>
+      <c r="H118" s="133"/>
     </row>
     <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
@@ -4697,9 +4736,9 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="140"/>
-      <c r="G119" s="141"/>
-      <c r="H119" s="141"/>
+      <c r="F119" s="134"/>
+      <c r="G119" s="135"/>
+      <c r="H119" s="135"/>
     </row>
     <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
@@ -4707,9 +4746,9 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="140"/>
-      <c r="G120" s="141"/>
-      <c r="H120" s="141"/>
+      <c r="F120" s="134"/>
+      <c r="G120" s="135"/>
+      <c r="H120" s="135"/>
     </row>
     <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -4717,9 +4756,9 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="140"/>
-      <c r="G121" s="141"/>
-      <c r="H121" s="141"/>
+      <c r="F121" s="134"/>
+      <c r="G121" s="135"/>
+      <c r="H121" s="135"/>
     </row>
     <row r="122" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
@@ -4727,9 +4766,9 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="140"/>
-      <c r="G122" s="141"/>
-      <c r="H122" s="141"/>
+      <c r="F122" s="134"/>
+      <c r="G122" s="135"/>
+      <c r="H122" s="135"/>
     </row>
     <row r="123" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -4737,9 +4776,9 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="140"/>
-      <c r="G123" s="141"/>
-      <c r="H123" s="141"/>
+      <c r="F123" s="134"/>
+      <c r="G123" s="135"/>
+      <c r="H123" s="135"/>
     </row>
     <row r="124" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
@@ -4747,9 +4786,9 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="140"/>
-      <c r="G124" s="141"/>
-      <c r="H124" s="141"/>
+      <c r="F124" s="134"/>
+      <c r="G124" s="135"/>
+      <c r="H124" s="135"/>
     </row>
     <row r="125" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
@@ -4757,9 +4796,9 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="140"/>
-      <c r="G125" s="141"/>
-      <c r="H125" s="141"/>
+      <c r="F125" s="134"/>
+      <c r="G125" s="135"/>
+      <c r="H125" s="135"/>
     </row>
     <row r="126" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
@@ -4767,9 +4806,9 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="140"/>
-      <c r="G126" s="141"/>
-      <c r="H126" s="141"/>
+      <c r="F126" s="134"/>
+      <c r="G126" s="135"/>
+      <c r="H126" s="135"/>
     </row>
     <row r="127" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -4777,9 +4816,9 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="140"/>
-      <c r="G127" s="141"/>
-      <c r="H127" s="141"/>
+      <c r="F127" s="134"/>
+      <c r="G127" s="135"/>
+      <c r="H127" s="135"/>
     </row>
     <row r="128" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
@@ -4787,9 +4826,9 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="140"/>
-      <c r="G128" s="141"/>
-      <c r="H128" s="141"/>
+      <c r="F128" s="134"/>
+      <c r="G128" s="135"/>
+      <c r="H128" s="135"/>
     </row>
     <row r="129" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
@@ -4797,9 +4836,9 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="140"/>
-      <c r="G129" s="141"/>
-      <c r="H129" s="141"/>
+      <c r="F129" s="134"/>
+      <c r="G129" s="135"/>
+      <c r="H129" s="135"/>
     </row>
     <row r="130" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
@@ -4807,9 +4846,9 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="140"/>
-      <c r="G130" s="141"/>
-      <c r="H130" s="141"/>
+      <c r="F130" s="134"/>
+      <c r="G130" s="135"/>
+      <c r="H130" s="135"/>
     </row>
     <row r="131" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -4817,9 +4856,9 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="140"/>
-      <c r="G131" s="141"/>
-      <c r="H131" s="141"/>
+      <c r="F131" s="134"/>
+      <c r="G131" s="135"/>
+      <c r="H131" s="135"/>
     </row>
     <row r="132" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
@@ -4827,9 +4866,9 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="140"/>
-      <c r="G132" s="141"/>
-      <c r="H132" s="141"/>
+      <c r="F132" s="134"/>
+      <c r="G132" s="135"/>
+      <c r="H132" s="135"/>
     </row>
     <row r="133" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
@@ -4837,14 +4876,19 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="140"/>
-      <c r="G133" s="141"/>
-      <c r="H133" s="141"/>
+      <c r="F133" s="134"/>
+      <c r="G133" s="135"/>
+      <c r="H133" s="135"/>
     </row>
     <row r="134" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F134" s="95"/>
-      <c r="G134" s="111"/>
-      <c r="H134" s="111"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="134"/>
+      <c r="G134" s="135"/>
+      <c r="H134" s="135"/>
     </row>
     <row r="135" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F135" s="95"/>
@@ -4855,6 +4899,11 @@
       <c r="F136" s="95"/>
       <c r="G136" s="111"/>
       <c r="H136" s="111"/>
+    </row>
+    <row r="137" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F137" s="95"/>
+      <c r="G137" s="111"/>
+      <c r="H137" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4872,10 +4921,10 @@
   <dimension ref="B1:K97"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4894,20 +4943,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="171" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="171" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -4928,10 +4977,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="178"/>
+      <c r="I3" s="189"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -4961,19 +5010,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="176" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="185" t="s">
+      <c r="F5" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="188" t="s">
+      <c r="G5" s="170" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4985,23 +5034,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="183"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="177"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="169" t="s">
+      <c r="F6" s="180"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="170"/>
+      <c r="I6" s="166"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="184"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="178"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="190"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -5035,19 +5084,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="193" t="s">
+      <c r="E9" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="185" t="s">
+      <c r="F9" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="188" t="s">
+      <c r="G9" s="170" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -5060,24 +5109,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="169" t="s">
+      <c r="C10" s="174"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="170"/>
+      <c r="I10" s="166"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="190"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="172"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -5087,10 +5136,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="176" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -5099,7 +5148,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="188" t="s">
+      <c r="G12" s="170" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -5111,15 +5160,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="184"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="190"/>
+      <c r="G13" s="172"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -5164,8 +5213,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="191"/>
-      <c r="I16" s="192"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="164"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -5579,19 +5628,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="179" t="s">
+      <c r="C40" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="193" t="s">
+      <c r="E40" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="185" t="s">
+      <c r="F40" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="188" t="s">
+      <c r="G40" s="170" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5603,23 +5652,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="183"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="169" t="s">
+      <c r="C41" s="174"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="170"/>
+      <c r="I41" s="166"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="190"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="172"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5653,19 +5702,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="179" t="s">
+      <c r="C44" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="193" t="s">
+      <c r="E44" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="185" t="s">
+      <c r="F44" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="188" t="s">
+      <c r="G44" s="170" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5677,23 +5726,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="180"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="169" t="s">
+      <c r="C45" s="174"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="170"/>
+      <c r="I45" s="166"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="190"/>
+      <c r="C46" s="175"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="172"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5718,8 +5767,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="192"/>
+      <c r="H48" s="163"/>
+      <c r="I48" s="164"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5782,10 +5831,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="169" t="s">
+      <c r="H52" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="170"/>
+      <c r="I52" s="166"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5818,35 +5867,35 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="191"/>
-      <c r="I55" s="192"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="164"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="155" t="s">
+      <c r="C56" s="149" t="s">
         <v>374</v>
       </c>
-      <c r="D56" s="156" t="s">
+      <c r="D56" s="150" t="s">
         <v>379</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="F56" s="157" t="s">
+      <c r="F56" s="151" t="s">
         <v>382</v>
       </c>
-      <c r="G56" s="154"/>
+      <c r="G56" s="148"/>
       <c r="H56" s="8"/>
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="61"/>
-      <c r="C57" s="155" t="s">
+      <c r="C57" s="149" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="151" t="s">
+      <c r="D57" s="145" t="s">
         <v>377</v>
       </c>
       <c r="E57" s="45"/>
@@ -5857,28 +5906,28 @@
     </row>
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="64"/>
-      <c r="C58" s="155" t="s">
+      <c r="C58" s="149" t="s">
         <v>376</v>
       </c>
-      <c r="D58" s="156" t="s">
+      <c r="D58" s="150" t="s">
         <v>378</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="F58" s="157" t="s">
+      <c r="F58" s="151" t="s">
         <v>383</v>
       </c>
-      <c r="G58" s="154"/>
+      <c r="G58" s="148"/>
       <c r="H58" s="8"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61"/>
-      <c r="C59" s="145" t="s">
+      <c r="C59" s="139" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="147" t="s">
+      <c r="D59" s="141" t="s">
         <v>310</v>
       </c>
       <c r="E59" s="45"/>
@@ -5889,28 +5938,28 @@
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="64"/>
-      <c r="C60" s="145" t="s">
+      <c r="C60" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="147" t="s">
+      <c r="D60" s="141" t="s">
         <v>313</v>
       </c>
       <c r="E60" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F60" s="149" t="s">
+      <c r="F60" s="143" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="143"/>
+      <c r="G60" s="137"/>
       <c r="H60" s="8"/>
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="64"/>
-      <c r="C61" s="145" t="s">
+      <c r="C61" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="D61" s="147" t="s">
+      <c r="D61" s="141" t="s">
         <v>314</v>
       </c>
       <c r="E61" s="45"/>
@@ -5921,124 +5970,124 @@
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="64"/>
-      <c r="C62" s="150" t="s">
+      <c r="C62" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="D62" s="151" t="s">
+      <c r="D62" s="145" t="s">
         <v>346</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F62" s="152" t="s">
+      <c r="F62" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="G62" s="153"/>
+      <c r="G62" s="147"/>
       <c r="H62" s="8"/>
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="64"/>
-      <c r="C63" s="150" t="s">
+      <c r="C63" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="D63" s="151" t="s">
+      <c r="D63" s="145" t="s">
         <v>347</v>
       </c>
       <c r="E63" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="F63" s="152" t="s">
+      <c r="F63" s="146" t="s">
         <v>349</v>
       </c>
-      <c r="G63" s="153"/>
+      <c r="G63" s="147"/>
       <c r="H63" s="8"/>
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="64"/>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="139" t="s">
         <v>315</v>
       </c>
-      <c r="D64" s="147" t="s">
+      <c r="D64" s="141" t="s">
         <v>316</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="F64" s="149" t="s">
+      <c r="F64" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="G64" s="143"/>
+      <c r="G64" s="137"/>
       <c r="H64" s="8"/>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="64"/>
-      <c r="C65" s="150" t="s">
+      <c r="C65" s="144" t="s">
         <v>351</v>
       </c>
-      <c r="D65" s="151"/>
+      <c r="D65" s="145"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="153"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="147"/>
       <c r="H65" s="8"/>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="64"/>
-      <c r="C66" s="150" t="s">
+      <c r="C66" s="144" t="s">
         <v>352</v>
       </c>
-      <c r="D66" s="151"/>
+      <c r="D66" s="145"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="152"/>
-      <c r="G66" s="153"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="147"/>
       <c r="H66" s="8"/>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="64"/>
-      <c r="C67" s="150" t="s">
+      <c r="C67" s="144" t="s">
         <v>350</v>
       </c>
-      <c r="D67" s="151" t="s">
+      <c r="D67" s="145" t="s">
         <v>353</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F67" s="152" t="s">
+      <c r="F67" s="146" t="s">
         <v>355</v>
       </c>
-      <c r="G67" s="153"/>
+      <c r="G67" s="147"/>
       <c r="H67" s="8"/>
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="64"/>
-      <c r="C68" s="150" t="s">
+      <c r="C68" s="144" t="s">
         <v>356</v>
       </c>
-      <c r="D68" s="151" t="s">
+      <c r="D68" s="145" t="s">
         <v>357</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F68" s="152" t="s">
+      <c r="F68" s="146" t="s">
         <v>355</v>
       </c>
-      <c r="G68" s="153"/>
+      <c r="G68" s="147"/>
       <c r="H68" s="8"/>
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B69" s="64"/>
-      <c r="C69" s="150" t="s">
+      <c r="C69" s="144" t="s">
         <v>358</v>
       </c>
-      <c r="D69" s="151" t="s">
+      <c r="D69" s="145" t="s">
         <v>359</v>
       </c>
       <c r="E69" s="45"/>
@@ -6049,28 +6098,28 @@
     </row>
     <row r="70" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B70" s="64"/>
-      <c r="C70" s="150" t="s">
+      <c r="C70" s="144" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="151" t="s">
+      <c r="D70" s="145" t="s">
         <v>362</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="F70" s="152" t="s">
+      <c r="F70" s="146" t="s">
         <v>365</v>
       </c>
-      <c r="G70" s="153"/>
+      <c r="G70" s="147"/>
       <c r="H70" s="8"/>
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B71" s="64"/>
-      <c r="C71" s="150" t="s">
+      <c r="C71" s="144" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="151" t="s">
+      <c r="D71" s="145" t="s">
         <v>363</v>
       </c>
       <c r="E71" s="45"/>
@@ -6081,10 +6130,10 @@
     </row>
     <row r="72" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="64"/>
-      <c r="C72" s="150" t="s">
+      <c r="C72" s="144" t="s">
         <v>366</v>
       </c>
-      <c r="D72" s="151" t="s">
+      <c r="D72" s="145" t="s">
         <v>369</v>
       </c>
       <c r="E72" s="45"/>
@@ -6095,28 +6144,28 @@
     </row>
     <row r="73" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="64"/>
-      <c r="C73" s="150" t="s">
+      <c r="C73" s="144" t="s">
         <v>367</v>
       </c>
-      <c r="D73" s="151" t="s">
+      <c r="D73" s="145" t="s">
         <v>370</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F73" s="152" t="s">
+      <c r="F73" s="146" t="s">
         <v>373</v>
       </c>
-      <c r="G73" s="153"/>
+      <c r="G73" s="147"/>
       <c r="H73" s="8"/>
       <c r="I73" s="17"/>
     </row>
     <row r="74" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="64"/>
-      <c r="C74" s="150" t="s">
+      <c r="C74" s="144" t="s">
         <v>368</v>
       </c>
-      <c r="D74" s="151" t="s">
+      <c r="D74" s="145" t="s">
         <v>371</v>
       </c>
       <c r="E74" s="45"/>
@@ -6127,10 +6176,10 @@
     </row>
     <row r="75" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="64"/>
-      <c r="C75" s="158" t="s">
+      <c r="C75" s="152" t="s">
         <v>384</v>
       </c>
-      <c r="D75" s="159" t="s">
+      <c r="D75" s="153" t="s">
         <v>385</v>
       </c>
       <c r="E75" s="45"/>
@@ -6141,87 +6190,87 @@
     </row>
     <row r="76" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B76" s="64"/>
-      <c r="C76" s="158" t="s">
+      <c r="C76" s="152" t="s">
         <v>386</v>
       </c>
-      <c r="D76" s="159" t="s">
+      <c r="D76" s="153" t="s">
         <v>391</v>
       </c>
       <c r="E76" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F76" s="160" t="s">
+      <c r="F76" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="161"/>
+      <c r="G76" s="155"/>
       <c r="H76" s="8"/>
       <c r="I76" s="17"/>
     </row>
     <row r="77" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B77" s="64"/>
-      <c r="C77" s="158" t="s">
+      <c r="C77" s="152" t="s">
         <v>387</v>
       </c>
-      <c r="D77" s="159" t="s">
+      <c r="D77" s="153" t="s">
         <v>390</v>
       </c>
       <c r="E77" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="F77" s="160" t="s">
+      <c r="F77" s="154" t="s">
         <v>389</v>
       </c>
-      <c r="G77" s="161"/>
+      <c r="G77" s="155"/>
       <c r="H77" s="8"/>
       <c r="I77" s="17"/>
     </row>
     <row r="78" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="64"/>
-      <c r="C78" s="158"/>
-      <c r="D78" s="159"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="153"/>
       <c r="E78" s="42"/>
-      <c r="F78" s="160"/>
-      <c r="G78" s="161"/>
+      <c r="F78" s="154"/>
+      <c r="G78" s="155"/>
       <c r="H78" s="8"/>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="64"/>
-      <c r="C79" s="158"/>
-      <c r="D79" s="159"/>
+      <c r="C79" s="152"/>
+      <c r="D79" s="153"/>
       <c r="E79" s="42"/>
-      <c r="F79" s="160"/>
-      <c r="G79" s="161"/>
+      <c r="F79" s="154"/>
+      <c r="G79" s="155"/>
       <c r="H79" s="8"/>
       <c r="I79" s="17"/>
     </row>
     <row r="80" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="64"/>
-      <c r="C80" s="158"/>
-      <c r="D80" s="159"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="153"/>
       <c r="E80" s="42"/>
-      <c r="F80" s="160"/>
-      <c r="G80" s="161"/>
+      <c r="F80" s="154"/>
+      <c r="G80" s="155"/>
       <c r="H80" s="8"/>
       <c r="I80" s="17"/>
     </row>
     <row r="81" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="64"/>
-      <c r="C81" s="158"/>
-      <c r="D81" s="159"/>
+      <c r="C81" s="152"/>
+      <c r="D81" s="153"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="160"/>
-      <c r="G81" s="161"/>
+      <c r="F81" s="154"/>
+      <c r="G81" s="155"/>
       <c r="H81" s="8"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="64"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="146"/>
+      <c r="C82" s="138"/>
+      <c r="D82" s="140"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="148"/>
-      <c r="G82" s="142"/>
+      <c r="F82" s="142"/>
+      <c r="G82" s="136"/>
       <c r="H82" s="9"/>
       <c r="I82" s="19"/>
     </row>
@@ -6232,8 +6281,8 @@
       <c r="E83" s="25"/>
       <c r="F83" s="22"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="191"/>
-      <c r="I83" s="192"/>
+      <c r="H83" s="163"/>
+      <c r="I83" s="164"/>
     </row>
     <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="61"/>
@@ -6377,22 +6426,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -6403,15 +6445,22 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6422,7 +6471,7 @@
   <dimension ref="B1:E38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
@@ -6440,14 +6489,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="172" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="173" t="s">
+      <c r="E2" s="184" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6458,8 +6507,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -6921,7 +6970,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="192" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6929,7 +6978,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="199"/>
+      <c r="C3" s="193"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="425">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1282,6 +1282,36 @@
   </si>
   <si>
     <t>Menampilkan ID Institution Branch satu Group yang difilter berdasarkan ID Institution Branch (varBranchID)</t>
+  </si>
+  <si>
+    <t>Func_General_DataCheck_IsNumeric</t>
+  </si>
+  <si>
+    <t>Mengecek apakah Data Input (varData) termasuk dalam kategori data numerik atau tidak</t>
+  </si>
+  <si>
+    <t>Func_General_DataTypeConvert_RecordToVarCharArray</t>
+  </si>
+  <si>
+    <t>Func_General_DataTypeConvert_VarCharArrayToRecord</t>
+  </si>
+  <si>
+    <t>Func_General_DataTypeConvert_VarCharArrayToValues</t>
+  </si>
+  <si>
+    <t>Mengkonversi tipe data dari Record ke VarChar Array</t>
+  </si>
+  <si>
+    <t>Mengkonversi tipe data dari Array VarChar ke Record</t>
+  </si>
+  <si>
+    <t>Mengkonversi tipe data dari Array VarChar ke Values</t>
+  </si>
+  <si>
+    <t>Func_SQLTools_QuerySpeedUp</t>
+  </si>
+  <si>
+    <t>Mempercepat waktu proses Query Rumit Berlapis (melibatkan banyak open table dalam proses join) menjadi Query Sedehana (berbasis Values) yang lebih efisien dalam penggunaan memory</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2335,18 +2365,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2431,6 +2449,60 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2544,63 +2616,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2913,13 +2928,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2937,19 +2952,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="174" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="162"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="176"/>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
@@ -2961,7 +2976,7 @@
       <c r="D3" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="159"/>
+      <c r="E3" s="173"/>
       <c r="F3" s="112" t="s">
         <v>228</v>
       </c>
@@ -2980,19 +2995,19 @@
       <c r="C4" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="201" t="s">
+      <c r="D4" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="202" t="s">
+      <c r="E4" s="160" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="203" t="s">
+      <c r="F4" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="204">
+      <c r="G4" s="162">
         <v>44910</v>
       </c>
-      <c r="H4" s="205">
+      <c r="H4" s="163">
         <v>44910</v>
       </c>
     </row>
@@ -3000,19 +3015,19 @@
       <c r="A5" s="1"/>
       <c r="B5" s="117"/>
       <c r="C5" s="118"/>
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="152" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="E5" s="153" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="196" t="s">
+      <c r="F5" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="197">
+      <c r="G5" s="155">
         <v>44908</v>
       </c>
-      <c r="H5" s="198">
+      <c r="H5" s="156">
         <v>44908</v>
       </c>
     </row>
@@ -3020,19 +3035,19 @@
       <c r="A6" s="1"/>
       <c r="B6" s="117"/>
       <c r="C6" s="118"/>
-      <c r="D6" s="194" t="s">
+      <c r="D6" s="152" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="195" t="s">
+      <c r="E6" s="153" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="196" t="s">
+      <c r="F6" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="197">
+      <c r="G6" s="155">
         <v>44908</v>
       </c>
-      <c r="H6" s="198">
+      <c r="H6" s="156">
         <v>44908</v>
       </c>
     </row>
@@ -3040,39 +3055,39 @@
       <c r="A7" s="1"/>
       <c r="B7" s="117"/>
       <c r="C7" s="118"/>
-      <c r="D7" s="194" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="195" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="196" t="s">
+      <c r="D7" s="152" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="158" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="197">
-        <v>44887</v>
-      </c>
-      <c r="H7" s="198">
-        <v>44887</v>
+      <c r="G7" s="155">
+        <v>44960</v>
+      </c>
+      <c r="H7" s="156">
+        <v>44960</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="117"/>
       <c r="C8" s="118"/>
-      <c r="D8" s="194" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="195" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="196" t="s">
+      <c r="D8" s="152" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="197">
+      <c r="G8" s="155">
         <v>44887</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="156">
         <v>44887</v>
       </c>
     </row>
@@ -3080,479 +3095,479 @@
       <c r="A9" s="1"/>
       <c r="B9" s="117"/>
       <c r="C9" s="118"/>
-      <c r="D9" s="194" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" s="195" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="196" t="s">
+      <c r="D9" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="153" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G9" s="197">
-        <v>44774</v>
-      </c>
-      <c r="H9" s="198">
-        <v>44774</v>
+      <c r="G9" s="155">
+        <v>44887</v>
+      </c>
+      <c r="H9" s="156">
+        <v>44887</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="117"/>
       <c r="C10" s="118"/>
-      <c r="D10" s="194" t="s">
-        <v>305</v>
-      </c>
-      <c r="E10" s="195" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="196" t="s">
+      <c r="D10" s="152" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" s="158" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G10" s="197">
-        <v>44897</v>
-      </c>
-      <c r="H10" s="198">
-        <v>44897</v>
+      <c r="G10" s="155">
+        <v>44959</v>
+      </c>
+      <c r="H10" s="156">
+        <v>44959</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="117"/>
       <c r="C11" s="118"/>
-      <c r="D11" s="194" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="195" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="196" t="s">
+      <c r="D11" s="152" t="s">
+        <v>418</v>
+      </c>
+      <c r="E11" s="153" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="197">
-        <v>44897</v>
-      </c>
-      <c r="H11" s="198">
-        <v>44897</v>
+      <c r="G11" s="155">
+        <v>44960</v>
+      </c>
+      <c r="H11" s="156">
+        <v>44960</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="117"/>
       <c r="C12" s="118"/>
-      <c r="D12" s="194" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="195" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="196" t="s">
+      <c r="D12" s="152" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="153" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G12" s="197">
-        <v>44897</v>
-      </c>
-      <c r="H12" s="198">
-        <v>44897</v>
+      <c r="G12" s="155">
+        <v>44960</v>
+      </c>
+      <c r="H12" s="156">
+        <v>44960</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="117"/>
       <c r="C13" s="118"/>
-      <c r="D13" s="194" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="195" t="s">
-        <v>249</v>
-      </c>
-      <c r="F13" s="196" t="s">
+      <c r="D13" s="152" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="153" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="197">
-        <v>44748</v>
-      </c>
-      <c r="H13" s="198">
-        <v>44748</v>
+      <c r="G13" s="155">
+        <v>44774</v>
+      </c>
+      <c r="H13" s="156">
+        <v>44774</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="117"/>
       <c r="C14" s="118"/>
-      <c r="D14" s="194" t="s">
-        <v>250</v>
-      </c>
-      <c r="E14" s="195" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" s="196" t="s">
+      <c r="D14" s="152" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="153" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="197">
-        <v>44735</v>
-      </c>
-      <c r="H14" s="198">
-        <v>44735</v>
+      <c r="G14" s="155">
+        <v>44897</v>
+      </c>
+      <c r="H14" s="156">
+        <v>44897</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="117"/>
       <c r="C15" s="118"/>
-      <c r="D15" s="194" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="195" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="196" t="s">
+      <c r="D15" s="152" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="153" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="197">
-        <v>44854</v>
-      </c>
-      <c r="H15" s="198">
-        <v>44854</v>
+      <c r="G15" s="155">
+        <v>44897</v>
+      </c>
+      <c r="H15" s="156">
+        <v>44897</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="117"/>
       <c r="C16" s="118"/>
-      <c r="D16" s="194" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="195" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16" s="196" t="s">
+      <c r="D16" s="152" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="153" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G16" s="197">
-        <v>44770</v>
-      </c>
-      <c r="H16" s="198">
-        <v>44770</v>
+      <c r="G16" s="155">
+        <v>44897</v>
+      </c>
+      <c r="H16" s="156">
+        <v>44897</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="117"/>
       <c r="C17" s="118"/>
-      <c r="D17" s="194" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="195" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="196" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="197">
-        <v>44770</v>
-      </c>
-      <c r="H17" s="198">
-        <v>44427</v>
+      <c r="D17" s="152" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="153" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="155">
+        <v>44748</v>
+      </c>
+      <c r="H17" s="156">
+        <v>44748</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="117"/>
       <c r="C18" s="118"/>
-      <c r="D18" s="194" t="s">
-        <v>257</v>
-      </c>
-      <c r="E18" s="195" t="s">
-        <v>261</v>
-      </c>
-      <c r="F18" s="196" t="s">
+      <c r="D18" s="152" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="153" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="197">
-        <v>44770</v>
-      </c>
-      <c r="H18" s="198">
-        <v>44770</v>
+      <c r="G18" s="155">
+        <v>44735</v>
+      </c>
+      <c r="H18" s="156">
+        <v>44735</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="117"/>
       <c r="C19" s="118"/>
-      <c r="D19" s="194" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="195" t="s">
-        <v>262</v>
-      </c>
-      <c r="F19" s="196" t="s">
+      <c r="D19" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="153" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="197">
-        <v>44770</v>
-      </c>
-      <c r="H19" s="198">
-        <v>44427</v>
+      <c r="G19" s="155">
+        <v>44854</v>
+      </c>
+      <c r="H19" s="156">
+        <v>44854</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="117"/>
       <c r="C20" s="118"/>
-      <c r="D20" s="194" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="195" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="196" t="s">
+      <c r="D20" s="152" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="153" t="s">
+        <v>259</v>
+      </c>
+      <c r="F20" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="197">
-        <v>44777</v>
-      </c>
-      <c r="H20" s="198">
-        <v>44777</v>
+      <c r="G20" s="155">
+        <v>44770</v>
+      </c>
+      <c r="H20" s="156">
+        <v>44770</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="117"/>
       <c r="C21" s="118"/>
-      <c r="D21" s="194" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="195" t="s">
-        <v>304</v>
-      </c>
-      <c r="F21" s="196" t="s">
-        <v>232</v>
-      </c>
-      <c r="G21" s="197">
-        <v>44935</v>
-      </c>
-      <c r="H21" s="198">
-        <v>44935</v>
+      <c r="D21" s="152" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="153" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="155">
+        <v>44770</v>
+      </c>
+      <c r="H21" s="156">
+        <v>44427</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="117"/>
       <c r="C22" s="118"/>
-      <c r="D22" s="194" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="195" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="196" t="s">
+      <c r="D22" s="152" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="153" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G22" s="197">
-        <v>44931</v>
-      </c>
-      <c r="H22" s="198">
-        <v>44931</v>
+      <c r="G22" s="155">
+        <v>44770</v>
+      </c>
+      <c r="H22" s="156">
+        <v>44770</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="117"/>
       <c r="C23" s="118"/>
-      <c r="D23" s="194" t="s">
-        <v>264</v>
-      </c>
-      <c r="E23" s="195" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="196" t="s">
+      <c r="D23" s="152" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="153" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G23" s="197">
-        <v>44847</v>
-      </c>
-      <c r="H23" s="198">
-        <v>44847</v>
+      <c r="G23" s="155">
+        <v>44770</v>
+      </c>
+      <c r="H23" s="156">
+        <v>44427</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="117"/>
       <c r="C24" s="118"/>
-      <c r="D24" s="194" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="195" t="s">
-        <v>268</v>
-      </c>
-      <c r="F24" s="196" t="s">
-        <v>267</v>
-      </c>
-      <c r="G24" s="197">
-        <v>44792</v>
-      </c>
-      <c r="H24" s="198">
-        <v>44770</v>
+      <c r="D24" s="152" t="s">
+        <v>283</v>
+      </c>
+      <c r="E24" s="153" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="155">
+        <v>44777</v>
+      </c>
+      <c r="H24" s="156">
+        <v>44777</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="117"/>
       <c r="C25" s="118"/>
-      <c r="D25" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="E25" s="195" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="196" t="s">
+      <c r="D25" s="152" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F25" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="197">
-        <v>44776</v>
-      </c>
-      <c r="H25" s="198">
-        <v>44776</v>
+      <c r="G25" s="155">
+        <v>44935</v>
+      </c>
+      <c r="H25" s="156">
+        <v>44935</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="117"/>
       <c r="C26" s="118"/>
-      <c r="D26" s="194" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="195" t="s">
-        <v>271</v>
-      </c>
-      <c r="F26" s="196" t="s">
+      <c r="D26" s="152" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="197">
-        <v>44777</v>
-      </c>
-      <c r="H26" s="198">
-        <v>44777</v>
+      <c r="G26" s="155">
+        <v>44931</v>
+      </c>
+      <c r="H26" s="156">
+        <v>44931</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="117"/>
       <c r="C27" s="118"/>
-      <c r="D27" s="194" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="195" t="s">
-        <v>273</v>
-      </c>
-      <c r="F27" s="196" t="s">
+      <c r="D27" s="152" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="153" t="s">
+        <v>265</v>
+      </c>
+      <c r="F27" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="197">
-        <v>44770</v>
-      </c>
-      <c r="H27" s="198">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G27" s="155">
+        <v>44847</v>
+      </c>
+      <c r="H27" s="156">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="117"/>
       <c r="C28" s="118"/>
-      <c r="D28" s="194" t="s">
-        <v>294</v>
-      </c>
-      <c r="E28" s="200" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" s="196" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="197">
-        <v>44937</v>
-      </c>
-      <c r="H28" s="198">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D28" s="152" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="154" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="155">
+        <v>44792</v>
+      </c>
+      <c r="H28" s="156">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="117"/>
       <c r="C29" s="118"/>
-      <c r="D29" s="194" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="200" t="s">
-        <v>295</v>
-      </c>
-      <c r="F29" s="196" t="s">
+      <c r="D29" s="152" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="153" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G29" s="197">
-        <v>44937</v>
-      </c>
-      <c r="H29" s="198">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G29" s="155">
+        <v>44776</v>
+      </c>
+      <c r="H29" s="156">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="117"/>
       <c r="C30" s="118"/>
-      <c r="D30" s="194" t="s">
-        <v>291</v>
-      </c>
-      <c r="E30" s="200" t="s">
-        <v>297</v>
-      </c>
-      <c r="F30" s="196" t="s">
+      <c r="D30" s="152" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" s="153" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="197">
-        <v>44937</v>
-      </c>
-      <c r="H30" s="198">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G30" s="155">
+        <v>44777</v>
+      </c>
+      <c r="H30" s="156">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="117"/>
       <c r="C31" s="118"/>
-      <c r="D31" s="194" t="s">
-        <v>307</v>
-      </c>
-      <c r="E31" s="200" t="s">
-        <v>308</v>
-      </c>
-      <c r="F31" s="196" t="s">
+      <c r="D31" s="152" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="153" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G31" s="197">
-        <v>44949</v>
-      </c>
-      <c r="H31" s="198">
-        <v>44949</v>
+      <c r="G31" s="155">
+        <v>44770</v>
+      </c>
+      <c r="H31" s="156">
+        <v>44770</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="117"/>
       <c r="C32" s="118"/>
-      <c r="D32" s="194" t="s">
-        <v>292</v>
-      </c>
-      <c r="E32" s="200" t="s">
-        <v>298</v>
-      </c>
-      <c r="F32" s="196" t="s">
+      <c r="D32" s="152" t="s">
+        <v>294</v>
+      </c>
+      <c r="E32" s="158" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G32" s="197">
+      <c r="G32" s="155">
         <v>44937</v>
       </c>
-      <c r="H32" s="198">
+      <c r="H32" s="156">
         <v>44937</v>
       </c>
     </row>
@@ -3560,19 +3575,19 @@
       <c r="A33" s="1"/>
       <c r="B33" s="117"/>
       <c r="C33" s="118"/>
-      <c r="D33" s="194" t="s">
-        <v>290</v>
-      </c>
-      <c r="E33" s="200" t="s">
-        <v>299</v>
-      </c>
-      <c r="F33" s="196" t="s">
+      <c r="D33" s="152" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="158" t="s">
+        <v>295</v>
+      </c>
+      <c r="F33" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="197">
+      <c r="G33" s="155">
         <v>44937</v>
       </c>
-      <c r="H33" s="198">
+      <c r="H33" s="156">
         <v>44937</v>
       </c>
     </row>
@@ -3580,19 +3595,19 @@
       <c r="A34" s="1"/>
       <c r="B34" s="117"/>
       <c r="C34" s="118"/>
-      <c r="D34" s="194" t="s">
-        <v>289</v>
-      </c>
-      <c r="E34" s="200" t="s">
-        <v>300</v>
-      </c>
-      <c r="F34" s="196" t="s">
+      <c r="D34" s="152" t="s">
+        <v>291</v>
+      </c>
+      <c r="E34" s="158" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G34" s="197">
+      <c r="G34" s="155">
         <v>44937</v>
       </c>
-      <c r="H34" s="198">
+      <c r="H34" s="156">
         <v>44937</v>
       </c>
     </row>
@@ -3600,310 +3615,360 @@
       <c r="A35" s="1"/>
       <c r="B35" s="117"/>
       <c r="C35" s="118"/>
-      <c r="D35" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="E35" s="206" t="s">
-        <v>301</v>
-      </c>
-      <c r="F35" s="125" t="s">
+      <c r="D35" s="152" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35" s="158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F35" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G35" s="126">
-        <v>44937</v>
-      </c>
-      <c r="H35" s="127">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G35" s="155">
+        <v>44949</v>
+      </c>
+      <c r="H35" s="156">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="117"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="212"/>
-    </row>
-    <row r="37" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C36" s="118"/>
+      <c r="D36" s="152" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="158" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="155">
+        <v>44937</v>
+      </c>
+      <c r="H36" s="156">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="117"/>
-      <c r="C37" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="207" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="208" t="s">
-        <v>275</v>
-      </c>
-      <c r="F37" s="209" t="s">
+      <c r="C37" s="118"/>
+      <c r="D37" s="152" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="158" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="210">
-        <v>44167</v>
-      </c>
-      <c r="H37" s="211">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G37" s="155">
+        <v>44937</v>
+      </c>
+      <c r="H37" s="156">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="117"/>
       <c r="C38" s="118"/>
-      <c r="D38" s="199" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="195" t="s">
-        <v>285</v>
-      </c>
-      <c r="F38" s="196" t="s">
+      <c r="D38" s="152" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="158" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G38" s="197">
-        <v>44167</v>
-      </c>
-      <c r="H38" s="198">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G38" s="155">
+        <v>44937</v>
+      </c>
+      <c r="H38" s="156">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="117"/>
       <c r="C39" s="118"/>
-      <c r="D39" s="194" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="195" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="196" t="s">
+      <c r="D39" s="152" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" s="158" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G39" s="197">
-        <v>43185</v>
-      </c>
-      <c r="H39" s="198">
-        <v>43185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G39" s="155">
+        <v>44937</v>
+      </c>
+      <c r="H39" s="156">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="117"/>
       <c r="C40" s="118"/>
-      <c r="D40" s="194" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="195" t="s">
-        <v>282</v>
-      </c>
-      <c r="F40" s="196" t="s">
-        <v>281</v>
-      </c>
-      <c r="G40" s="197">
-        <v>44216</v>
-      </c>
-      <c r="H40" s="198">
-        <v>44216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D40" s="118" t="s">
+        <v>423</v>
+      </c>
+      <c r="E40" s="123" t="s">
+        <v>424</v>
+      </c>
+      <c r="F40" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="121">
+        <v>44959</v>
+      </c>
+      <c r="H40" s="122">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="117"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="194" t="s">
-        <v>401</v>
-      </c>
-      <c r="E41" s="200" t="s">
-        <v>403</v>
-      </c>
-      <c r="F41" s="196" t="s">
-        <v>232</v>
-      </c>
-      <c r="G41" s="197">
-        <v>43720</v>
-      </c>
-      <c r="H41" s="198">
-        <v>43720</v>
-      </c>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="169"/>
     </row>
     <row r="42" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="194" t="s">
-        <v>402</v>
-      </c>
-      <c r="E42" s="200" t="s">
-        <v>404</v>
-      </c>
-      <c r="F42" s="196" t="s">
+      <c r="C42" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="164" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="165" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42" s="166" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="197">
-        <v>43785</v>
-      </c>
-      <c r="H42" s="198">
-        <v>43785</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G42" s="167">
+        <v>44167</v>
+      </c>
+      <c r="H42" s="168">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="117"/>
       <c r="C43" s="118"/>
-      <c r="D43" s="194" t="s">
-        <v>405</v>
-      </c>
-      <c r="E43" s="200" t="s">
-        <v>406</v>
-      </c>
-      <c r="F43" s="196" t="s">
+      <c r="D43" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="153" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G43" s="197">
-        <v>43208</v>
-      </c>
-      <c r="H43" s="198">
-        <v>43208</v>
+      <c r="G43" s="155">
+        <v>44167</v>
+      </c>
+      <c r="H43" s="156">
+        <v>44167</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="117"/>
       <c r="C44" s="118"/>
-      <c r="D44" s="194" t="s">
-        <v>407</v>
-      </c>
-      <c r="E44" s="200" t="s">
-        <v>408</v>
-      </c>
-      <c r="F44" s="196" t="s">
+      <c r="D44" s="152" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="153" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="197">
-        <v>43181</v>
-      </c>
-      <c r="H44" s="198">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G44" s="155">
+        <v>43185</v>
+      </c>
+      <c r="H44" s="156">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="117"/>
       <c r="C45" s="118"/>
-      <c r="D45" s="194" t="s">
-        <v>409</v>
-      </c>
-      <c r="E45" s="200" t="s">
-        <v>410</v>
-      </c>
-      <c r="F45" s="196" t="s">
+      <c r="D45" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" s="153" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="154" t="s">
         <v>281</v>
       </c>
-      <c r="G45" s="197">
-        <v>44958</v>
-      </c>
-      <c r="H45" s="198">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G45" s="155">
+        <v>44216</v>
+      </c>
+      <c r="H45" s="156">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="117"/>
       <c r="C46" s="118"/>
-      <c r="D46" s="194" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="200" t="s">
-        <v>412</v>
-      </c>
-      <c r="F46" s="196" t="s">
-        <v>281</v>
-      </c>
-      <c r="G46" s="197">
-        <v>44958</v>
-      </c>
-      <c r="H46" s="198">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D46" s="152" t="s">
+        <v>401</v>
+      </c>
+      <c r="E46" s="158" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="155">
+        <v>43720</v>
+      </c>
+      <c r="H46" s="156">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="117"/>
       <c r="C47" s="118"/>
-      <c r="D47" s="194" t="s">
-        <v>413</v>
-      </c>
-      <c r="E47" s="200" t="s">
-        <v>414</v>
-      </c>
-      <c r="F47" s="196" t="s">
-        <v>281</v>
-      </c>
-      <c r="G47" s="197">
-        <v>44958</v>
-      </c>
-      <c r="H47" s="198">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D47" s="152" t="s">
+        <v>402</v>
+      </c>
+      <c r="E47" s="158" t="s">
+        <v>404</v>
+      </c>
+      <c r="F47" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="G47" s="155">
+        <v>43785</v>
+      </c>
+      <c r="H47" s="156">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="117"/>
       <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="122"/>
+      <c r="D48" s="152" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="158" t="s">
+        <v>406</v>
+      </c>
+      <c r="F48" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="155">
+        <v>43208</v>
+      </c>
+      <c r="H48" s="156">
+        <v>43208</v>
+      </c>
     </row>
     <row r="49" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="117"/>
       <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="122"/>
-    </row>
-    <row r="50" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D49" s="152" t="s">
+        <v>407</v>
+      </c>
+      <c r="E49" s="158" t="s">
+        <v>408</v>
+      </c>
+      <c r="F49" s="154" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="155">
+        <v>43181</v>
+      </c>
+      <c r="H49" s="156">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="117"/>
       <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="122"/>
+      <c r="D50" s="152" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="158" t="s">
+        <v>410</v>
+      </c>
+      <c r="F50" s="154" t="s">
+        <v>281</v>
+      </c>
+      <c r="G50" s="155">
+        <v>44958</v>
+      </c>
+      <c r="H50" s="156">
+        <v>43181</v>
+      </c>
     </row>
     <row r="51" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="117"/>
       <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="122"/>
-    </row>
-    <row r="52" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D51" s="152" t="s">
+        <v>411</v>
+      </c>
+      <c r="E51" s="158" t="s">
+        <v>412</v>
+      </c>
+      <c r="F51" s="154" t="s">
+        <v>281</v>
+      </c>
+      <c r="G51" s="155">
+        <v>44958</v>
+      </c>
+      <c r="H51" s="156">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="117"/>
       <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="122"/>
+      <c r="D52" s="152" t="s">
+        <v>413</v>
+      </c>
+      <c r="E52" s="158" t="s">
+        <v>414</v>
+      </c>
+      <c r="F52" s="154" t="s">
+        <v>281</v>
+      </c>
+      <c r="G52" s="155">
+        <v>44958</v>
+      </c>
+      <c r="H52" s="156">
+        <v>43922</v>
+      </c>
     </row>
     <row r="53" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="117"/>
       <c r="C53" s="118"/>
       <c r="D53" s="118"/>
-      <c r="E53" s="119"/>
+      <c r="E53" s="123"/>
       <c r="F53" s="120"/>
       <c r="G53" s="121"/>
       <c r="H53" s="122"/>
@@ -3912,28 +3977,18 @@
       <c r="A54" s="1"/>
       <c r="B54" s="117"/>
       <c r="C54" s="118"/>
-      <c r="D54" s="118" t="s">
-        <v>286</v>
-      </c>
-      <c r="E54" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="F54" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G54" s="121">
-        <v>44949</v>
-      </c>
-      <c r="H54" s="122">
-        <v>44949</v>
-      </c>
+      <c r="D54" s="118"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="122"/>
     </row>
     <row r="55" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="117"/>
       <c r="C55" s="118"/>
       <c r="D55" s="118"/>
-      <c r="E55" s="119"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="120"/>
       <c r="G55" s="121"/>
       <c r="H55" s="122"/>
@@ -3943,7 +3998,7 @@
       <c r="B56" s="117"/>
       <c r="C56" s="118"/>
       <c r="D56" s="118"/>
-      <c r="E56" s="119"/>
+      <c r="E56" s="123"/>
       <c r="F56" s="120"/>
       <c r="G56" s="121"/>
       <c r="H56" s="122"/>
@@ -3953,7 +4008,7 @@
       <c r="B57" s="117"/>
       <c r="C57" s="118"/>
       <c r="D57" s="118"/>
-      <c r="E57" s="119"/>
+      <c r="E57" s="123"/>
       <c r="F57" s="120"/>
       <c r="G57" s="121"/>
       <c r="H57" s="122"/>
@@ -3963,7 +4018,7 @@
       <c r="B58" s="117"/>
       <c r="C58" s="118"/>
       <c r="D58" s="118"/>
-      <c r="E58" s="123"/>
+      <c r="E58" s="119"/>
       <c r="F58" s="120"/>
       <c r="G58" s="121"/>
       <c r="H58" s="122"/>
@@ -3972,132 +4027,92 @@
       <c r="A59" s="1"/>
       <c r="B59" s="117"/>
       <c r="C59" s="118"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="122"/>
-    </row>
-    <row r="60" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D59" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="119" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" s="121">
+        <v>44949</v>
+      </c>
+      <c r="H59" s="122">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="117"/>
-      <c r="C60" s="118" t="s">
-        <v>336</v>
-      </c>
-      <c r="D60" s="118" t="s">
-        <v>326</v>
-      </c>
-      <c r="E60" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="F60" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G60" s="121">
-        <v>44902</v>
-      </c>
-      <c r="H60" s="122">
-        <v>44902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="122"/>
+    </row>
+    <row r="61" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="117"/>
       <c r="C61" s="118"/>
-      <c r="D61" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="E61" s="123" t="s">
-        <v>333</v>
-      </c>
-      <c r="F61" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G61" s="121">
-        <v>44897</v>
-      </c>
-      <c r="H61" s="122">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D61" s="118"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="122"/>
+    </row>
+    <row r="62" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="117"/>
       <c r="C62" s="118"/>
-      <c r="D62" s="118" t="s">
-        <v>323</v>
-      </c>
-      <c r="E62" s="123" t="s">
-        <v>324</v>
-      </c>
-      <c r="F62" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G62" s="121">
-        <v>44951</v>
-      </c>
-      <c r="H62" s="122">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D62" s="118"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="122"/>
+    </row>
+    <row r="63" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="117"/>
       <c r="C63" s="118"/>
-      <c r="D63" s="118" t="s">
-        <v>338</v>
-      </c>
-      <c r="E63" s="123" t="s">
-        <v>337</v>
-      </c>
-      <c r="F63" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="121">
-        <v>44951</v>
-      </c>
-      <c r="H63" s="122">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D63" s="118"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="122"/>
+    </row>
+    <row r="64" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="117"/>
       <c r="C64" s="118"/>
-      <c r="D64" s="118" t="s">
-        <v>321</v>
-      </c>
-      <c r="E64" s="123" t="s">
-        <v>325</v>
-      </c>
-      <c r="F64" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="G64" s="121">
-        <v>44900</v>
-      </c>
-      <c r="H64" s="122">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D64" s="118"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="122"/>
+    </row>
+    <row r="65" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="117"/>
-      <c r="C65" s="118"/>
+      <c r="C65" s="118" t="s">
+        <v>336</v>
+      </c>
       <c r="D65" s="118" t="s">
-        <v>328</v>
-      </c>
-      <c r="E65" s="119" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="E65" s="123" t="s">
+        <v>327</v>
       </c>
       <c r="F65" s="120" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G65" s="121">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="H65" s="122">
-        <v>44896</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4105,19 +4120,19 @@
       <c r="B66" s="117"/>
       <c r="C66" s="118"/>
       <c r="D66" s="118" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E66" s="123" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F66" s="120" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G66" s="121">
-        <v>44945</v>
+        <v>44897</v>
       </c>
       <c r="H66" s="122">
-        <v>44949</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4125,19 +4140,19 @@
       <c r="B67" s="117"/>
       <c r="C67" s="118"/>
       <c r="D67" s="118" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E67" s="123" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F67" s="120" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G67" s="121">
-        <v>44910</v>
+        <v>44951</v>
       </c>
       <c r="H67" s="122">
-        <v>44910</v>
+        <v>44951</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -4145,10 +4160,10 @@
       <c r="B68" s="117"/>
       <c r="C68" s="118"/>
       <c r="D68" s="118" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E68" s="123" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F68" s="120" t="s">
         <v>232</v>
@@ -4165,199 +4180,229 @@
       <c r="B69" s="117"/>
       <c r="C69" s="118"/>
       <c r="D69" s="118" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="E69" s="123" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="F69" s="120" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="G69" s="121">
-        <v>44952</v>
+        <v>44900</v>
       </c>
       <c r="H69" s="122">
-        <v>44952</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="117"/>
       <c r="C70" s="118"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="120"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="122"/>
-    </row>
-    <row r="71" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D70" s="118" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="G70" s="121">
+        <v>44896</v>
+      </c>
+      <c r="H70" s="122">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="117"/>
       <c r="C71" s="118"/>
-      <c r="D71" s="118"/>
-      <c r="E71" s="119"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="122"/>
-    </row>
-    <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D71" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="123" t="s">
+        <v>339</v>
+      </c>
+      <c r="F71" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="G71" s="121">
+        <v>44945</v>
+      </c>
+      <c r="H71" s="122">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="117"/>
       <c r="C72" s="118"/>
-      <c r="D72" s="118"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="122"/>
-    </row>
-    <row r="73" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D72" s="118" t="s">
+        <v>334</v>
+      </c>
+      <c r="E72" s="123" t="s">
+        <v>335</v>
+      </c>
+      <c r="F72" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="G72" s="121">
+        <v>44910</v>
+      </c>
+      <c r="H72" s="122">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="117"/>
       <c r="C73" s="118"/>
       <c r="D73" s="118" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="E73" s="123" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="F73" s="120" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G73" s="121">
-        <v>44957</v>
+        <v>44951</v>
       </c>
       <c r="H73" s="122">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="117"/>
       <c r="C74" s="118"/>
       <c r="D74" s="118" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="E74" s="123" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="F74" s="120" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G74" s="121">
-        <v>44281</v>
+        <v>44952</v>
       </c>
       <c r="H74" s="122">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="117"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="118" t="s">
-        <v>397</v>
-      </c>
-      <c r="E75" s="123" t="s">
-        <v>398</v>
-      </c>
-      <c r="F75" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G75" s="121">
-        <v>43257</v>
-      </c>
-      <c r="H75" s="122">
-        <v>43257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D75" s="118"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="120"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="122"/>
+    </row>
+    <row r="76" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="117"/>
       <c r="C76" s="118"/>
-      <c r="D76" s="118" t="s">
-        <v>286</v>
-      </c>
-      <c r="E76" s="123" t="s">
-        <v>399</v>
-      </c>
-      <c r="F76" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G76" s="121">
-        <v>44949</v>
-      </c>
-      <c r="H76" s="122">
-        <v>44949</v>
-      </c>
+      <c r="D76" s="118"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="120"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="122"/>
     </row>
     <row r="77" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="117"/>
       <c r="C77" s="118"/>
       <c r="D77" s="118"/>
-      <c r="E77" s="123"/>
+      <c r="E77" s="119"/>
       <c r="F77" s="120"/>
       <c r="G77" s="121"/>
       <c r="H77" s="122"/>
     </row>
-    <row r="78" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="117"/>
       <c r="C78" s="118"/>
       <c r="D78" s="118" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E78" s="123" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F78" s="120" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G78" s="121">
         <v>44957</v>
       </c>
       <c r="H78" s="122">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="117"/>
       <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
-      <c r="E79" s="123"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="122"/>
-    </row>
-    <row r="80" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D79" s="118" t="s">
+        <v>393</v>
+      </c>
+      <c r="E79" s="123" t="s">
+        <v>396</v>
+      </c>
+      <c r="F79" s="120" t="s">
+        <v>281</v>
+      </c>
+      <c r="G79" s="121">
+        <v>44281</v>
+      </c>
+      <c r="H79" s="122">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="117"/>
       <c r="C80" s="118"/>
-      <c r="D80" s="118"/>
-      <c r="E80" s="119"/>
-      <c r="F80" s="120"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="122"/>
-    </row>
-    <row r="81" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D80" s="118" t="s">
+        <v>397</v>
+      </c>
+      <c r="E80" s="123" t="s">
+        <v>398</v>
+      </c>
+      <c r="F80" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="121">
+        <v>43257</v>
+      </c>
+      <c r="H80" s="122">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="117"/>
       <c r="C81" s="118"/>
       <c r="D81" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="E81" s="119" t="s">
-        <v>331</v>
+        <v>286</v>
+      </c>
+      <c r="E81" s="123" t="s">
+        <v>399</v>
       </c>
       <c r="F81" s="120" t="s">
         <v>232</v>
       </c>
       <c r="G81" s="121">
-        <v>44893</v>
+        <v>44949</v>
       </c>
       <c r="H81" s="122">
-        <v>44893</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -4365,27 +4410,37 @@
       <c r="B82" s="117"/>
       <c r="C82" s="118"/>
       <c r="D82" s="118"/>
-      <c r="E82" s="119"/>
+      <c r="E82" s="123"/>
       <c r="F82" s="120"/>
       <c r="G82" s="121"/>
       <c r="H82" s="122"/>
     </row>
-    <row r="83" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="117"/>
       <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="119"/>
-      <c r="F83" s="120"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="122"/>
+      <c r="D83" s="118" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" s="123" t="s">
+        <v>400</v>
+      </c>
+      <c r="F83" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" s="121">
+        <v>44957</v>
+      </c>
+      <c r="H83" s="122">
+        <v>44957</v>
+      </c>
     </row>
     <row r="84" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="117"/>
       <c r="C84" s="118"/>
       <c r="D84" s="118"/>
-      <c r="E84" s="119"/>
+      <c r="E84" s="123"/>
       <c r="F84" s="120"/>
       <c r="G84" s="121"/>
       <c r="H84" s="122"/>
@@ -4404,11 +4459,21 @@
       <c r="A86" s="1"/>
       <c r="B86" s="117"/>
       <c r="C86" s="118"/>
-      <c r="D86" s="118"/>
-      <c r="E86" s="119"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="121"/>
-      <c r="H86" s="122"/>
+      <c r="D86" s="118" t="s">
+        <v>330</v>
+      </c>
+      <c r="E86" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="F86" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" s="121">
+        <v>44893</v>
+      </c>
+      <c r="H86" s="122">
+        <v>44893</v>
+      </c>
     </row>
     <row r="87" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -4720,65 +4785,65 @@
       <c r="G117" s="121"/>
       <c r="H117" s="122"/>
     </row>
-    <row r="118" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="128"/>
-      <c r="C118" s="129"/>
-      <c r="D118" s="129"/>
-      <c r="E118" s="130"/>
-      <c r="F118" s="131"/>
-      <c r="G118" s="132"/>
-      <c r="H118" s="133"/>
+      <c r="B118" s="117"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="118"/>
+      <c r="E118" s="119"/>
+      <c r="F118" s="120"/>
+      <c r="G118" s="121"/>
+      <c r="H118" s="122"/>
     </row>
     <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="134"/>
-      <c r="G119" s="135"/>
-      <c r="H119" s="135"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="118"/>
+      <c r="E119" s="119"/>
+      <c r="F119" s="120"/>
+      <c r="G119" s="121"/>
+      <c r="H119" s="122"/>
     </row>
     <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="134"/>
-      <c r="G120" s="135"/>
-      <c r="H120" s="135"/>
+      <c r="B120" s="117"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="118"/>
+      <c r="E120" s="119"/>
+      <c r="F120" s="120"/>
+      <c r="G120" s="121"/>
+      <c r="H120" s="122"/>
     </row>
     <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="134"/>
-      <c r="G121" s="135"/>
-      <c r="H121" s="135"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="118"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="119"/>
+      <c r="F121" s="120"/>
+      <c r="G121" s="121"/>
+      <c r="H121" s="122"/>
     </row>
     <row r="122" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="134"/>
-      <c r="G122" s="135"/>
-      <c r="H122" s="135"/>
-    </row>
-    <row r="123" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B122" s="117"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="119"/>
+      <c r="F122" s="120"/>
+      <c r="G122" s="121"/>
+      <c r="H122" s="122"/>
+    </row>
+    <row r="123" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="134"/>
-      <c r="G123" s="135"/>
-      <c r="H123" s="135"/>
+      <c r="B123" s="124"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="125"/>
+      <c r="E123" s="126"/>
+      <c r="F123" s="127"/>
+      <c r="G123" s="128"/>
+      <c r="H123" s="129"/>
     </row>
     <row r="124" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
@@ -4786,9 +4851,9 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="134"/>
-      <c r="G124" s="135"/>
-      <c r="H124" s="135"/>
+      <c r="F124" s="130"/>
+      <c r="G124" s="131"/>
+      <c r="H124" s="131"/>
     </row>
     <row r="125" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
@@ -4796,9 +4861,9 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="134"/>
-      <c r="G125" s="135"/>
-      <c r="H125" s="135"/>
+      <c r="F125" s="130"/>
+      <c r="G125" s="131"/>
+      <c r="H125" s="131"/>
     </row>
     <row r="126" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
@@ -4806,9 +4871,9 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="134"/>
-      <c r="G126" s="135"/>
-      <c r="H126" s="135"/>
+      <c r="F126" s="130"/>
+      <c r="G126" s="131"/>
+      <c r="H126" s="131"/>
     </row>
     <row r="127" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
@@ -4816,9 +4881,9 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="134"/>
-      <c r="G127" s="135"/>
-      <c r="H127" s="135"/>
+      <c r="F127" s="130"/>
+      <c r="G127" s="131"/>
+      <c r="H127" s="131"/>
     </row>
     <row r="128" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
@@ -4826,9 +4891,9 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="134"/>
-      <c r="G128" s="135"/>
-      <c r="H128" s="135"/>
+      <c r="F128" s="130"/>
+      <c r="G128" s="131"/>
+      <c r="H128" s="131"/>
     </row>
     <row r="129" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
@@ -4836,9 +4901,9 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="134"/>
-      <c r="G129" s="135"/>
-      <c r="H129" s="135"/>
+      <c r="F129" s="130"/>
+      <c r="G129" s="131"/>
+      <c r="H129" s="131"/>
     </row>
     <row r="130" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
@@ -4846,9 +4911,9 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="134"/>
-      <c r="G130" s="135"/>
-      <c r="H130" s="135"/>
+      <c r="F130" s="130"/>
+      <c r="G130" s="131"/>
+      <c r="H130" s="131"/>
     </row>
     <row r="131" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -4856,9 +4921,9 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="134"/>
-      <c r="G131" s="135"/>
-      <c r="H131" s="135"/>
+      <c r="F131" s="130"/>
+      <c r="G131" s="131"/>
+      <c r="H131" s="131"/>
     </row>
     <row r="132" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
@@ -4866,9 +4931,9 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="134"/>
-      <c r="G132" s="135"/>
-      <c r="H132" s="135"/>
+      <c r="F132" s="130"/>
+      <c r="G132" s="131"/>
+      <c r="H132" s="131"/>
     </row>
     <row r="133" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
@@ -4876,9 +4941,9 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="134"/>
-      <c r="G133" s="135"/>
-      <c r="H133" s="135"/>
+      <c r="F133" s="130"/>
+      <c r="G133" s="131"/>
+      <c r="H133" s="131"/>
     </row>
     <row r="134" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
@@ -4886,24 +4951,74 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="134"/>
-      <c r="G134" s="135"/>
-      <c r="H134" s="135"/>
+      <c r="F134" s="130"/>
+      <c r="G134" s="131"/>
+      <c r="H134" s="131"/>
     </row>
     <row r="135" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F135" s="95"/>
-      <c r="G135" s="111"/>
-      <c r="H135" s="111"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="130"/>
+      <c r="G135" s="131"/>
+      <c r="H135" s="131"/>
     </row>
     <row r="136" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F136" s="95"/>
-      <c r="G136" s="111"/>
-      <c r="H136" s="111"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="130"/>
+      <c r="G136" s="131"/>
+      <c r="H136" s="131"/>
     </row>
     <row r="137" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F137" s="95"/>
-      <c r="G137" s="111"/>
-      <c r="H137" s="111"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="130"/>
+      <c r="G137" s="131"/>
+      <c r="H137" s="131"/>
+    </row>
+    <row r="138" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="130"/>
+      <c r="G138" s="131"/>
+      <c r="H138" s="131"/>
+    </row>
+    <row r="139" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="130"/>
+      <c r="G139" s="131"/>
+      <c r="H139" s="131"/>
+    </row>
+    <row r="140" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F140" s="95"/>
+      <c r="G140" s="111"/>
+      <c r="H140" s="111"/>
+    </row>
+    <row r="141" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F141" s="95"/>
+      <c r="G141" s="111"/>
+      <c r="H141" s="111"/>
+    </row>
+    <row r="142" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F142" s="95"/>
+      <c r="G142" s="111"/>
+      <c r="H142" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4943,20 +5058,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="182" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="182" t="s">
+      <c r="F2" s="198"/>
+      <c r="G2" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="184"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -4977,10 +5092,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="188" t="s">
+      <c r="H3" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="189"/>
+      <c r="I3" s="203"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -5010,19 +5125,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="190" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="179" t="s">
+      <c r="F5" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="170" t="s">
+      <c r="G5" s="184" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -5034,23 +5149,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="177"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="165" t="s">
+      <c r="F6" s="194"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="166"/>
+      <c r="I6" s="180"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="178"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="192"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="172"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -5084,19 +5199,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="170" t="s">
+      <c r="G9" s="184" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -5109,24 +5224,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="165" t="s">
+      <c r="C10" s="188"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="166"/>
+      <c r="I10" s="180"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="172"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="186"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -5136,10 +5251,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="190" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -5148,7 +5263,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="170" t="s">
+      <c r="G12" s="184" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -5160,15 +5275,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="178"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="172"/>
+      <c r="G13" s="186"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -5213,8 +5328,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="164"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -5628,19 +5743,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="173" t="s">
+      <c r="C40" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="167" t="s">
+      <c r="E40" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="179" t="s">
+      <c r="F40" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="170" t="s">
+      <c r="G40" s="184" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5652,23 +5767,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="165" t="s">
+      <c r="C41" s="188"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="166"/>
+      <c r="I41" s="180"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="172"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="186"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5702,19 +5817,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="173" t="s">
+      <c r="C44" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="167" t="s">
+      <c r="E44" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="179" t="s">
+      <c r="F44" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="170" t="s">
+      <c r="G44" s="184" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5726,23 +5841,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="165" t="s">
+      <c r="C45" s="188"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="166"/>
+      <c r="I45" s="180"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="175"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="172"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="186"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5767,8 +5882,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="164"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="178"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5831,10 +5946,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="165" t="s">
+      <c r="H52" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="166"/>
+      <c r="I52" s="180"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5867,35 +5982,35 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="164"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="178"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="149" t="s">
+      <c r="C56" s="145" t="s">
         <v>374</v>
       </c>
-      <c r="D56" s="150" t="s">
+      <c r="D56" s="146" t="s">
         <v>379</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="F56" s="151" t="s">
+      <c r="F56" s="147" t="s">
         <v>382</v>
       </c>
-      <c r="G56" s="148"/>
+      <c r="G56" s="144"/>
       <c r="H56" s="8"/>
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="61"/>
-      <c r="C57" s="149" t="s">
+      <c r="C57" s="145" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="145" t="s">
+      <c r="D57" s="141" t="s">
         <v>377</v>
       </c>
       <c r="E57" s="45"/>
@@ -5906,28 +6021,28 @@
     </row>
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="64"/>
-      <c r="C58" s="149" t="s">
+      <c r="C58" s="145" t="s">
         <v>376</v>
       </c>
-      <c r="D58" s="150" t="s">
+      <c r="D58" s="146" t="s">
         <v>378</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="F58" s="151" t="s">
+      <c r="F58" s="147" t="s">
         <v>383</v>
       </c>
-      <c r="G58" s="148"/>
+      <c r="G58" s="144"/>
       <c r="H58" s="8"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61"/>
-      <c r="C59" s="139" t="s">
+      <c r="C59" s="135" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="141" t="s">
+      <c r="D59" s="137" t="s">
         <v>310</v>
       </c>
       <c r="E59" s="45"/>
@@ -5938,28 +6053,28 @@
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="64"/>
-      <c r="C60" s="139" t="s">
+      <c r="C60" s="135" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="141" t="s">
+      <c r="D60" s="137" t="s">
         <v>313</v>
       </c>
       <c r="E60" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F60" s="143" t="s">
+      <c r="F60" s="139" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="137"/>
+      <c r="G60" s="133"/>
       <c r="H60" s="8"/>
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="64"/>
-      <c r="C61" s="139" t="s">
+      <c r="C61" s="135" t="s">
         <v>312</v>
       </c>
-      <c r="D61" s="141" t="s">
+      <c r="D61" s="137" t="s">
         <v>314</v>
       </c>
       <c r="E61" s="45"/>
@@ -5970,124 +6085,124 @@
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="64"/>
-      <c r="C62" s="144" t="s">
+      <c r="C62" s="140" t="s">
         <v>344</v>
       </c>
-      <c r="D62" s="145" t="s">
+      <c r="D62" s="141" t="s">
         <v>346</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F62" s="146" t="s">
+      <c r="F62" s="142" t="s">
         <v>320</v>
       </c>
-      <c r="G62" s="147"/>
+      <c r="G62" s="143"/>
       <c r="H62" s="8"/>
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="64"/>
-      <c r="C63" s="144" t="s">
+      <c r="C63" s="140" t="s">
         <v>345</v>
       </c>
-      <c r="D63" s="145" t="s">
+      <c r="D63" s="141" t="s">
         <v>347</v>
       </c>
       <c r="E63" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="F63" s="146" t="s">
+      <c r="F63" s="142" t="s">
         <v>349</v>
       </c>
-      <c r="G63" s="147"/>
+      <c r="G63" s="143"/>
       <c r="H63" s="8"/>
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="64"/>
-      <c r="C64" s="139" t="s">
+      <c r="C64" s="135" t="s">
         <v>315</v>
       </c>
-      <c r="D64" s="141" t="s">
+      <c r="D64" s="137" t="s">
         <v>316</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="F64" s="143" t="s">
+      <c r="F64" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="G64" s="137"/>
+      <c r="G64" s="133"/>
       <c r="H64" s="8"/>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="64"/>
-      <c r="C65" s="144" t="s">
+      <c r="C65" s="140" t="s">
         <v>351</v>
       </c>
-      <c r="D65" s="145"/>
+      <c r="D65" s="141"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="147"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="143"/>
       <c r="H65" s="8"/>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="64"/>
-      <c r="C66" s="144" t="s">
+      <c r="C66" s="140" t="s">
         <v>352</v>
       </c>
-      <c r="D66" s="145"/>
+      <c r="D66" s="141"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="147"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="143"/>
       <c r="H66" s="8"/>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="64"/>
-      <c r="C67" s="144" t="s">
+      <c r="C67" s="140" t="s">
         <v>350</v>
       </c>
-      <c r="D67" s="145" t="s">
+      <c r="D67" s="141" t="s">
         <v>353</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F67" s="146" t="s">
+      <c r="F67" s="142" t="s">
         <v>355</v>
       </c>
-      <c r="G67" s="147"/>
+      <c r="G67" s="143"/>
       <c r="H67" s="8"/>
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="64"/>
-      <c r="C68" s="144" t="s">
+      <c r="C68" s="140" t="s">
         <v>356</v>
       </c>
-      <c r="D68" s="145" t="s">
+      <c r="D68" s="141" t="s">
         <v>357</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F68" s="146" t="s">
+      <c r="F68" s="142" t="s">
         <v>355</v>
       </c>
-      <c r="G68" s="147"/>
+      <c r="G68" s="143"/>
       <c r="H68" s="8"/>
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B69" s="64"/>
-      <c r="C69" s="144" t="s">
+      <c r="C69" s="140" t="s">
         <v>358</v>
       </c>
-      <c r="D69" s="145" t="s">
+      <c r="D69" s="141" t="s">
         <v>359</v>
       </c>
       <c r="E69" s="45"/>
@@ -6098,28 +6213,28 @@
     </row>
     <row r="70" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B70" s="64"/>
-      <c r="C70" s="144" t="s">
+      <c r="C70" s="140" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="145" t="s">
+      <c r="D70" s="141" t="s">
         <v>362</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="F70" s="146" t="s">
+      <c r="F70" s="142" t="s">
         <v>365</v>
       </c>
-      <c r="G70" s="147"/>
+      <c r="G70" s="143"/>
       <c r="H70" s="8"/>
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B71" s="64"/>
-      <c r="C71" s="144" t="s">
+      <c r="C71" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="145" t="s">
+      <c r="D71" s="141" t="s">
         <v>363</v>
       </c>
       <c r="E71" s="45"/>
@@ -6130,10 +6245,10 @@
     </row>
     <row r="72" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="64"/>
-      <c r="C72" s="144" t="s">
+      <c r="C72" s="140" t="s">
         <v>366</v>
       </c>
-      <c r="D72" s="145" t="s">
+      <c r="D72" s="141" t="s">
         <v>369</v>
       </c>
       <c r="E72" s="45"/>
@@ -6144,28 +6259,28 @@
     </row>
     <row r="73" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="64"/>
-      <c r="C73" s="144" t="s">
+      <c r="C73" s="140" t="s">
         <v>367</v>
       </c>
-      <c r="D73" s="145" t="s">
+      <c r="D73" s="141" t="s">
         <v>370</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F73" s="146" t="s">
+      <c r="F73" s="142" t="s">
         <v>373</v>
       </c>
-      <c r="G73" s="147"/>
+      <c r="G73" s="143"/>
       <c r="H73" s="8"/>
       <c r="I73" s="17"/>
     </row>
     <row r="74" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="64"/>
-      <c r="C74" s="144" t="s">
+      <c r="C74" s="140" t="s">
         <v>368</v>
       </c>
-      <c r="D74" s="145" t="s">
+      <c r="D74" s="141" t="s">
         <v>371</v>
       </c>
       <c r="E74" s="45"/>
@@ -6176,10 +6291,10 @@
     </row>
     <row r="75" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="64"/>
-      <c r="C75" s="152" t="s">
+      <c r="C75" s="148" t="s">
         <v>384</v>
       </c>
-      <c r="D75" s="153" t="s">
+      <c r="D75" s="149" t="s">
         <v>385</v>
       </c>
       <c r="E75" s="45"/>
@@ -6190,87 +6305,87 @@
     </row>
     <row r="76" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B76" s="64"/>
-      <c r="C76" s="152" t="s">
+      <c r="C76" s="148" t="s">
         <v>386</v>
       </c>
-      <c r="D76" s="153" t="s">
+      <c r="D76" s="149" t="s">
         <v>391</v>
       </c>
       <c r="E76" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F76" s="154" t="s">
+      <c r="F76" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="155"/>
+      <c r="G76" s="151"/>
       <c r="H76" s="8"/>
       <c r="I76" s="17"/>
     </row>
     <row r="77" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B77" s="64"/>
-      <c r="C77" s="152" t="s">
+      <c r="C77" s="148" t="s">
         <v>387</v>
       </c>
-      <c r="D77" s="153" t="s">
+      <c r="D77" s="149" t="s">
         <v>390</v>
       </c>
       <c r="E77" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="F77" s="154" t="s">
+      <c r="F77" s="150" t="s">
         <v>389</v>
       </c>
-      <c r="G77" s="155"/>
+      <c r="G77" s="151"/>
       <c r="H77" s="8"/>
       <c r="I77" s="17"/>
     </row>
     <row r="78" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="64"/>
-      <c r="C78" s="152"/>
-      <c r="D78" s="153"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="149"/>
       <c r="E78" s="42"/>
-      <c r="F78" s="154"/>
-      <c r="G78" s="155"/>
+      <c r="F78" s="150"/>
+      <c r="G78" s="151"/>
       <c r="H78" s="8"/>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="64"/>
-      <c r="C79" s="152"/>
-      <c r="D79" s="153"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="42"/>
-      <c r="F79" s="154"/>
-      <c r="G79" s="155"/>
+      <c r="F79" s="150"/>
+      <c r="G79" s="151"/>
       <c r="H79" s="8"/>
       <c r="I79" s="17"/>
     </row>
     <row r="80" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="64"/>
-      <c r="C80" s="152"/>
-      <c r="D80" s="153"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="149"/>
       <c r="E80" s="42"/>
-      <c r="F80" s="154"/>
-      <c r="G80" s="155"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="151"/>
       <c r="H80" s="8"/>
       <c r="I80" s="17"/>
     </row>
     <row r="81" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="64"/>
-      <c r="C81" s="152"/>
-      <c r="D81" s="153"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="149"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="154"/>
-      <c r="G81" s="155"/>
+      <c r="F81" s="150"/>
+      <c r="G81" s="151"/>
       <c r="H81" s="8"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="64"/>
-      <c r="C82" s="138"/>
-      <c r="D82" s="140"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="136"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="136"/>
+      <c r="F82" s="138"/>
+      <c r="G82" s="132"/>
       <c r="H82" s="9"/>
       <c r="I82" s="19"/>
     </row>
@@ -6281,8 +6396,8 @@
       <c r="E83" s="25"/>
       <c r="F83" s="22"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="163"/>
-      <c r="I83" s="164"/>
+      <c r="H83" s="177"/>
+      <c r="I83" s="178"/>
     </row>
     <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="61"/>
@@ -6489,14 +6604,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="183" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="184" t="s">
+      <c r="E2" s="198" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6507,8 +6622,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -6970,7 +7085,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="206" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6978,7 +7093,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="193"/>
+      <c r="C3" s="207"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Database" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="450">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1312,6 +1313,81 @@
   </si>
   <si>
     <t>Mempercepat waktu proses Query Rumit Berlapis (melibatkan banyak open table dalam proses join) menjadi Query Sedehana (berbasis Values) yang lebih efisien dalam penggunaan memory</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_TaxTariff</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Tarif Pajak berdasarkan ID (varID).Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_TaxType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Jenis Pajak berdasarkan ID (varID). Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_TransactionTax</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Pajak Transaksi berdasarkan ID (varID). Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_TransactionTaxDetail</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Perincian Pajak Transaksi berdasarkan ID.  Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_TaxType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List Jenis Pajak berdasarkan ID Branch (varBranch_RefID)</t>
+  </si>
+  <si>
+    <t>Func_GetDataPickList_TaxType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Pick List Jenis Pajak berdasarkan ID Branch (varBranch_RefID)</t>
+  </si>
+  <si>
+    <t>Func_GetDataPreparation_TransactionTax</t>
+  </si>
+  <si>
+    <t>Mempersiapkan data untuk TransactionTaxDetail dari JSON Item List</t>
+  </si>
+  <si>
+    <t>Func_GetReport_DocForm_TransactionTax</t>
+  </si>
+  <si>
+    <t>Menampilkan Report - Document Form untuk Transaksi Pajak</t>
+  </si>
+  <si>
+    <t>Func_TblTaxTariff_SET</t>
+  </si>
+  <si>
+    <t>Mengeset data (INSERT dan UPDATE) pada tabel TblTaxTariff</t>
+  </si>
+  <si>
+    <t>Mengeset data (INSERT dan UPDATE) pada tabel TblTaxType</t>
+  </si>
+  <si>
+    <t>Func_TblTaxType_SET</t>
+  </si>
+  <si>
+    <t>Func_TblTransactionTaxDetail_SET</t>
+  </si>
+  <si>
+    <t>Mengeset data (INSERT dan UPDATE) pada tabel TblTransactionTaxDetail</t>
+  </si>
+  <si>
+    <t>Func_TblTransactionTax_SET</t>
+  </si>
+  <si>
+    <t>Mengeset data (INSERT dan UPDATE) pada tabel TblTransactionTax</t>
+  </si>
+  <si>
+    <t>1.00.0003</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1472,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1495,8 +1571,21 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2020,19 +2109,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2338,12 +2414,6 @@
     <xf numFmtId="164" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2470,21 +2540,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2500,7 +2555,13 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2524,18 +2585,78 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2545,66 +2666,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2616,6 +2677,19 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2928,43 +3002,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="77" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="77" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="109" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="110" customWidth="1"/>
-    <col min="8" max="8" width="16" style="110" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="77" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="110" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="110" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="172" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="169" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="175"/>
-      <c r="H2" s="176"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
@@ -2976,7 +3050,7 @@
       <c r="D3" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="173"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="112" t="s">
         <v>228</v>
       </c>
@@ -2987,2044 +3061,2762 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="1:8" s="204" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="203"/>
+      <c r="B4" s="205" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="159" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="160" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="161" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="162">
-        <v>44910</v>
-      </c>
-      <c r="H4" s="163">
-        <v>44910</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="152" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="153" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="155">
-        <v>44908</v>
-      </c>
-      <c r="H5" s="156">
-        <v>44908</v>
-      </c>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="163"/>
+    </row>
+    <row r="5" spans="1:8" s="204" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="203"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="207" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="163"/>
     </row>
     <row r="6" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="152" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="153" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G6" s="155">
-        <v>44908</v>
-      </c>
-      <c r="H6" s="156">
-        <v>44908</v>
-      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="152" t="s">
-        <v>415</v>
-      </c>
-      <c r="E7" s="158" t="s">
-        <v>416</v>
-      </c>
-      <c r="F7" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="155">
-        <v>44960</v>
-      </c>
-      <c r="H7" s="156">
-        <v>44960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
+    </row>
+    <row r="8" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="152" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="153" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="155">
-        <v>44887</v>
-      </c>
-      <c r="H8" s="156">
-        <v>44887</v>
-      </c>
+      <c r="B8" s="115"/>
+      <c r="C8" s="207" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="163"/>
     </row>
     <row r="9" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="152" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="153" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="155">
-        <v>44887</v>
-      </c>
-      <c r="H9" s="156">
-        <v>44887</v>
-      </c>
+      <c r="B9" s="115"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="152" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>420</v>
-      </c>
-      <c r="F10" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="155">
-        <v>44959</v>
-      </c>
-      <c r="H10" s="156">
-        <v>44959</v>
-      </c>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="E11" s="153" t="s">
-        <v>421</v>
-      </c>
-      <c r="F11" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G11" s="155">
-        <v>44960</v>
-      </c>
-      <c r="H11" s="156">
-        <v>44960</v>
-      </c>
+      <c r="B11" s="115"/>
+      <c r="C11" s="207" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="163"/>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="152" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" s="153" t="s">
-        <v>422</v>
-      </c>
-      <c r="F12" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="155">
-        <v>44960</v>
-      </c>
-      <c r="H12" s="156">
-        <v>44960</v>
-      </c>
+      <c r="B12" s="115"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="152" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="153" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" s="155">
-        <v>44774</v>
-      </c>
-      <c r="H13" s="156">
-        <v>44774</v>
-      </c>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="152" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="153" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="155">
-        <v>44897</v>
-      </c>
-      <c r="H14" s="156">
-        <v>44897</v>
-      </c>
+      <c r="B14" s="115"/>
+      <c r="C14" s="207" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="163"/>
     </row>
     <row r="15" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="152" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="153" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G15" s="155">
-        <v>44897</v>
-      </c>
-      <c r="H15" s="156">
-        <v>44897</v>
-      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="152" t="s">
-        <v>246</v>
-      </c>
-      <c r="E16" s="153" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="155">
-        <v>44897</v>
-      </c>
-      <c r="H16" s="156">
-        <v>44897</v>
-      </c>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
     </row>
     <row r="17" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="152" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="153" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="155">
-        <v>44748</v>
-      </c>
-      <c r="H17" s="156">
-        <v>44748</v>
-      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="207" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="163"/>
     </row>
     <row r="18" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="152" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="153" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="155">
-        <v>44735</v>
-      </c>
-      <c r="H18" s="156">
-        <v>44735</v>
-      </c>
+      <c r="B18" s="115"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="152" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="153" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="155">
-        <v>44854</v>
-      </c>
-      <c r="H19" s="156">
-        <v>44854</v>
-      </c>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="152" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="153" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G20" s="155">
-        <v>44770</v>
-      </c>
-      <c r="H20" s="156">
-        <v>44770</v>
-      </c>
+      <c r="B20" s="115"/>
+      <c r="C20" s="207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="163"/>
     </row>
     <row r="21" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="152" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="153" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="154" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" s="155">
-        <v>44770</v>
-      </c>
-      <c r="H21" s="156">
-        <v>44427</v>
-      </c>
+      <c r="B21" s="115"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="152" t="s">
-        <v>257</v>
-      </c>
-      <c r="E22" s="153" t="s">
-        <v>261</v>
-      </c>
-      <c r="F22" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G22" s="155">
-        <v>44770</v>
-      </c>
-      <c r="H22" s="156">
-        <v>44770</v>
-      </c>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
     </row>
     <row r="23" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="152" t="s">
-        <v>258</v>
-      </c>
-      <c r="E23" s="153" t="s">
-        <v>262</v>
-      </c>
-      <c r="F23" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" s="155">
-        <v>44770</v>
-      </c>
-      <c r="H23" s="156">
-        <v>44427</v>
-      </c>
+      <c r="B23" s="115"/>
+      <c r="C23" s="207" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="163"/>
     </row>
     <row r="24" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="152" t="s">
-        <v>283</v>
-      </c>
-      <c r="E24" s="153" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="155">
-        <v>44777</v>
-      </c>
-      <c r="H24" s="156">
-        <v>44777</v>
-      </c>
+      <c r="B24" s="115"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
     </row>
     <row r="25" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="152" t="s">
-        <v>303</v>
-      </c>
-      <c r="E25" s="153" t="s">
-        <v>304</v>
-      </c>
-      <c r="F25" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="155">
-        <v>44935</v>
-      </c>
-      <c r="H25" s="156">
-        <v>44935</v>
-      </c>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="152" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="F26" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" s="155">
-        <v>44931</v>
-      </c>
-      <c r="H26" s="156">
-        <v>44931</v>
-      </c>
+      <c r="B26" s="115"/>
+      <c r="C26" s="207" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="163"/>
     </row>
     <row r="27" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="152" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="153" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G27" s="155">
-        <v>44847</v>
-      </c>
-      <c r="H27" s="156">
-        <v>44847</v>
-      </c>
+      <c r="B27" s="115"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
     </row>
     <row r="28" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="152" t="s">
-        <v>266</v>
-      </c>
-      <c r="E28" s="153" t="s">
-        <v>268</v>
-      </c>
-      <c r="F28" s="154" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="155">
-        <v>44792</v>
-      </c>
-      <c r="H28" s="156">
-        <v>44770</v>
-      </c>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
     </row>
     <row r="29" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="152" t="s">
-        <v>269</v>
-      </c>
-      <c r="E29" s="153" t="s">
-        <v>270</v>
-      </c>
-      <c r="F29" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="155">
-        <v>44776</v>
-      </c>
-      <c r="H29" s="156">
-        <v>44776</v>
-      </c>
+      <c r="B29" s="115"/>
+      <c r="C29" s="207" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="163"/>
     </row>
     <row r="30" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="152" t="s">
-        <v>302</v>
-      </c>
-      <c r="E30" s="153" t="s">
-        <v>271</v>
-      </c>
-      <c r="F30" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G30" s="155">
-        <v>44777</v>
-      </c>
-      <c r="H30" s="156">
-        <v>44777</v>
-      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
     </row>
     <row r="31" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="152" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="153" t="s">
-        <v>273</v>
-      </c>
-      <c r="F31" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" s="155">
-        <v>44770</v>
-      </c>
-      <c r="H31" s="156">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="115"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="120"/>
+    </row>
+    <row r="32" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="152" t="s">
-        <v>294</v>
-      </c>
-      <c r="E32" s="158" t="s">
-        <v>296</v>
-      </c>
-      <c r="F32" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="155">
-        <v>44937</v>
-      </c>
-      <c r="H32" s="156">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="115"/>
+      <c r="C32" s="207" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="163"/>
+    </row>
+    <row r="33" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="152" t="s">
-        <v>293</v>
-      </c>
-      <c r="E33" s="158" t="s">
-        <v>295</v>
-      </c>
-      <c r="F33" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="155">
-        <v>44937</v>
-      </c>
-      <c r="H33" s="156">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="115"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
+    </row>
+    <row r="34" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="E34" s="158" t="s">
-        <v>297</v>
-      </c>
-      <c r="F34" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G34" s="155">
-        <v>44937</v>
-      </c>
-      <c r="H34" s="156">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="115"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="120"/>
+    </row>
+    <row r="35" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="152" t="s">
-        <v>307</v>
-      </c>
-      <c r="E35" s="158" t="s">
-        <v>308</v>
-      </c>
-      <c r="F35" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G35" s="155">
-        <v>44949</v>
-      </c>
-      <c r="H35" s="156">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B35" s="115"/>
+      <c r="C35" s="207" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="163"/>
+    </row>
+    <row r="36" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="152" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36" s="158" t="s">
-        <v>298</v>
-      </c>
-      <c r="F36" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="155">
-        <v>44937</v>
-      </c>
-      <c r="H36" s="156">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="115"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="120"/>
+    </row>
+    <row r="37" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="152" t="s">
-        <v>290</v>
-      </c>
-      <c r="E37" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="F37" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G37" s="155">
-        <v>44937</v>
-      </c>
-      <c r="H37" s="156">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="115"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="120"/>
+    </row>
+    <row r="38" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="152" t="s">
-        <v>289</v>
-      </c>
-      <c r="E38" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="F38" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="155">
-        <v>44937</v>
-      </c>
-      <c r="H38" s="156">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="115"/>
+      <c r="C38" s="207" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="163"/>
+    </row>
+    <row r="39" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="152" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="158" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G39" s="155">
-        <v>44937</v>
-      </c>
-      <c r="H39" s="156">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="115"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="120"/>
+    </row>
+    <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118" t="s">
-        <v>423</v>
-      </c>
-      <c r="E40" s="123" t="s">
-        <v>424</v>
-      </c>
-      <c r="F40" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G40" s="121">
-        <v>44959</v>
-      </c>
-      <c r="H40" s="122">
-        <v>44959</v>
-      </c>
+      <c r="B40" s="115"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="120"/>
     </row>
     <row r="41" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="169"/>
-    </row>
-    <row r="42" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="115"/>
+      <c r="C41" s="207" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="162"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="163"/>
+    </row>
+    <row r="42" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="164" t="s">
-        <v>274</v>
-      </c>
-      <c r="E42" s="165" t="s">
-        <v>275</v>
-      </c>
-      <c r="F42" s="166" t="s">
+      <c r="B42" s="115"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="157" t="s">
+        <v>425</v>
+      </c>
+      <c r="E42" s="164" t="s">
+        <v>426</v>
+      </c>
+      <c r="F42" s="159" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="160">
+        <v>44743</v>
+      </c>
+      <c r="H42" s="161">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="150" t="s">
+        <v>427</v>
+      </c>
+      <c r="E43" s="156" t="s">
+        <v>428</v>
+      </c>
+      <c r="F43" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="153">
+        <v>44743</v>
+      </c>
+      <c r="H43" s="154">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="150" t="s">
+        <v>429</v>
+      </c>
+      <c r="E44" s="156" t="s">
+        <v>430</v>
+      </c>
+      <c r="F44" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" s="153">
+        <v>44743</v>
+      </c>
+      <c r="H44" s="154">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="150" t="s">
+        <v>431</v>
+      </c>
+      <c r="E45" s="156" t="s">
+        <v>432</v>
+      </c>
+      <c r="F45" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" s="153">
+        <v>44743</v>
+      </c>
+      <c r="H45" s="154">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="150" t="s">
+        <v>433</v>
+      </c>
+      <c r="E46" s="151" t="s">
+        <v>434</v>
+      </c>
+      <c r="F46" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="167">
-        <v>44167</v>
-      </c>
-      <c r="H42" s="168">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="157" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" s="153" t="s">
-        <v>285</v>
-      </c>
-      <c r="F43" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" s="155">
-        <v>44167</v>
-      </c>
-      <c r="H43" s="156">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="152" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" s="153" t="s">
-        <v>279</v>
-      </c>
-      <c r="F44" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="155">
-        <v>43185</v>
-      </c>
-      <c r="H44" s="156">
-        <v>43185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="152" t="s">
-        <v>280</v>
-      </c>
-      <c r="E45" s="153" t="s">
-        <v>282</v>
-      </c>
-      <c r="F45" s="154" t="s">
-        <v>281</v>
-      </c>
-      <c r="G45" s="155">
-        <v>44216</v>
-      </c>
-      <c r="H45" s="156">
-        <v>44216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="152" t="s">
-        <v>401</v>
-      </c>
-      <c r="E46" s="158" t="s">
-        <v>403</v>
-      </c>
-      <c r="F46" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="155">
-        <v>43720</v>
-      </c>
-      <c r="H46" s="156">
-        <v>43720</v>
+      <c r="G46" s="153">
+        <v>44636</v>
+      </c>
+      <c r="H46" s="154">
+        <v>44636</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="152" t="s">
-        <v>402</v>
-      </c>
-      <c r="E47" s="158" t="s">
-        <v>404</v>
-      </c>
-      <c r="F47" s="154" t="s">
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="150" t="s">
+        <v>435</v>
+      </c>
+      <c r="E47" s="151" t="s">
+        <v>436</v>
+      </c>
+      <c r="F47" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G47" s="155">
-        <v>43785</v>
-      </c>
-      <c r="H47" s="156">
-        <v>43785</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G47" s="153">
+        <v>44636</v>
+      </c>
+      <c r="H47" s="154">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="152" t="s">
-        <v>405</v>
-      </c>
-      <c r="E48" s="158" t="s">
-        <v>406</v>
-      </c>
-      <c r="F48" s="154" t="s">
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="150" t="s">
+        <v>437</v>
+      </c>
+      <c r="E48" s="156" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="155">
-        <v>43208</v>
-      </c>
-      <c r="H48" s="156">
-        <v>43208</v>
+      <c r="G48" s="153">
+        <v>44825</v>
+      </c>
+      <c r="H48" s="154">
+        <v>44825</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="152" t="s">
-        <v>407</v>
-      </c>
-      <c r="E49" s="158" t="s">
-        <v>408</v>
-      </c>
-      <c r="F49" s="154" t="s">
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="150" t="s">
+        <v>439</v>
+      </c>
+      <c r="E49" s="151" t="s">
+        <v>440</v>
+      </c>
+      <c r="F49" s="152" t="s">
+        <v>256</v>
+      </c>
+      <c r="G49" s="153">
+        <v>44742</v>
+      </c>
+      <c r="H49" s="154">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="150" t="s">
+        <v>441</v>
+      </c>
+      <c r="E50" s="151" t="s">
+        <v>442</v>
+      </c>
+      <c r="F50" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G49" s="155">
-        <v>43181</v>
-      </c>
-      <c r="H49" s="156">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="152" t="s">
-        <v>409</v>
-      </c>
-      <c r="E50" s="158" t="s">
-        <v>410</v>
-      </c>
-      <c r="F50" s="154" t="s">
-        <v>281</v>
-      </c>
-      <c r="G50" s="155">
-        <v>44958</v>
-      </c>
-      <c r="H50" s="156">
-        <v>43181</v>
+      <c r="G50" s="153">
+        <v>44635</v>
+      </c>
+      <c r="H50" s="154">
+        <v>44635</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="152" t="s">
-        <v>411</v>
-      </c>
-      <c r="E51" s="158" t="s">
-        <v>412</v>
-      </c>
-      <c r="F51" s="154" t="s">
-        <v>281</v>
-      </c>
-      <c r="G51" s="155">
-        <v>44958</v>
-      </c>
-      <c r="H51" s="156">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="115"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="150" t="s">
+        <v>444</v>
+      </c>
+      <c r="E51" s="151" t="s">
+        <v>443</v>
+      </c>
+      <c r="F51" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="153">
+        <v>44635</v>
+      </c>
+      <c r="H51" s="154">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="152" t="s">
-        <v>413</v>
-      </c>
-      <c r="E52" s="158" t="s">
-        <v>414</v>
-      </c>
-      <c r="F52" s="154" t="s">
-        <v>281</v>
-      </c>
-      <c r="G52" s="155">
-        <v>44958</v>
-      </c>
-      <c r="H52" s="156">
-        <v>43922</v>
+      <c r="B52" s="115"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="E52" s="151" t="s">
+        <v>446</v>
+      </c>
+      <c r="F52" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="153">
+        <v>44644</v>
+      </c>
+      <c r="H52" s="154">
+        <v>44636</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="122"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="E53" s="151" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" s="152" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" s="153">
+        <v>44732</v>
+      </c>
+      <c r="H53" s="154">
+        <v>44637</v>
+      </c>
     </row>
     <row r="54" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="122"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="120"/>
     </row>
     <row r="55" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="122"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="207" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="162"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="162"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="163"/>
     </row>
     <row r="56" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="122"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="207"/>
+      <c r="D56" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="158" t="s">
+        <v>235</v>
+      </c>
+      <c r="F56" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="G56" s="160">
+        <v>44910</v>
+      </c>
+      <c r="H56" s="161">
+        <v>44910</v>
+      </c>
     </row>
     <row r="57" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="122"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="157" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="158" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="G57" s="160">
+        <v>44908</v>
+      </c>
+      <c r="H57" s="161">
+        <v>44908</v>
+      </c>
     </row>
     <row r="58" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="122"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="151" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" s="153">
+        <v>44908</v>
+      </c>
+      <c r="H58" s="154">
+        <v>44908</v>
+      </c>
     </row>
     <row r="59" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="118" t="s">
-        <v>286</v>
-      </c>
-      <c r="E59" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="F59" s="120" t="s">
+      <c r="B59" s="115"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="150" t="s">
+        <v>415</v>
+      </c>
+      <c r="E59" s="156" t="s">
+        <v>416</v>
+      </c>
+      <c r="F59" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="121">
-        <v>44949</v>
-      </c>
-      <c r="H59" s="122">
-        <v>44949</v>
+      <c r="G59" s="153">
+        <v>44960</v>
+      </c>
+      <c r="H59" s="154">
+        <v>44960</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="122"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="150" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="151" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="153">
+        <v>44887</v>
+      </c>
+      <c r="H60" s="154">
+        <v>44887</v>
+      </c>
     </row>
     <row r="61" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="122"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="150" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="151" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G61" s="153">
+        <v>44887</v>
+      </c>
+      <c r="H61" s="154">
+        <v>44887</v>
+      </c>
     </row>
     <row r="62" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="122"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="150" t="s">
+        <v>417</v>
+      </c>
+      <c r="E62" s="156" t="s">
+        <v>420</v>
+      </c>
+      <c r="F62" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="153">
+        <v>44959</v>
+      </c>
+      <c r="H62" s="154">
+        <v>44959</v>
+      </c>
     </row>
     <row r="63" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="122"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="150" t="s">
+        <v>418</v>
+      </c>
+      <c r="E63" s="151" t="s">
+        <v>421</v>
+      </c>
+      <c r="F63" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="153">
+        <v>44960</v>
+      </c>
+      <c r="H63" s="154">
+        <v>44960</v>
+      </c>
     </row>
     <row r="64" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="122"/>
-    </row>
-    <row r="65" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="115"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="150" t="s">
+        <v>419</v>
+      </c>
+      <c r="E64" s="151" t="s">
+        <v>422</v>
+      </c>
+      <c r="F64" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G64" s="153">
+        <v>44960</v>
+      </c>
+      <c r="H64" s="154">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="117"/>
-      <c r="C65" s="118" t="s">
-        <v>336</v>
-      </c>
-      <c r="D65" s="118" t="s">
-        <v>326</v>
-      </c>
-      <c r="E65" s="123" t="s">
-        <v>327</v>
-      </c>
-      <c r="F65" s="120" t="s">
+      <c r="B65" s="115"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="151" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G65" s="121">
-        <v>44902</v>
-      </c>
-      <c r="H65" s="122">
-        <v>44902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G65" s="153">
+        <v>44774</v>
+      </c>
+      <c r="H65" s="154">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="117"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="E66" s="123" t="s">
-        <v>333</v>
-      </c>
-      <c r="F66" s="120" t="s">
+      <c r="B66" s="115"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="150" t="s">
+        <v>305</v>
+      </c>
+      <c r="E66" s="151" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G66" s="121">
+      <c r="G66" s="153">
         <v>44897</v>
       </c>
-      <c r="H66" s="122">
+      <c r="H66" s="154">
         <v>44897</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="117"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="118" t="s">
-        <v>323</v>
-      </c>
-      <c r="E67" s="123" t="s">
-        <v>324</v>
-      </c>
-      <c r="F67" s="120" t="s">
+      <c r="B67" s="115"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67" s="151" t="s">
+        <v>245</v>
+      </c>
+      <c r="F67" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G67" s="121">
-        <v>44951</v>
-      </c>
-      <c r="H67" s="122">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G67" s="153">
+        <v>44897</v>
+      </c>
+      <c r="H67" s="154">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="117"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="118" t="s">
-        <v>338</v>
-      </c>
-      <c r="E68" s="123" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" s="120" t="s">
+      <c r="B68" s="115"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68" s="151" t="s">
+        <v>247</v>
+      </c>
+      <c r="F68" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="121">
-        <v>44951</v>
-      </c>
-      <c r="H68" s="122">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G68" s="153">
+        <v>44897</v>
+      </c>
+      <c r="H68" s="154">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="117"/>
-      <c r="C69" s="118"/>
-      <c r="D69" s="118" t="s">
-        <v>321</v>
-      </c>
-      <c r="E69" s="123" t="s">
-        <v>325</v>
-      </c>
-      <c r="F69" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="G69" s="121">
-        <v>44900</v>
-      </c>
-      <c r="H69" s="122">
-        <v>44949</v>
+      <c r="B69" s="115"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="150" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G69" s="153">
+        <v>44748</v>
+      </c>
+      <c r="H69" s="154">
+        <v>44748</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="117"/>
-      <c r="C70" s="118"/>
-      <c r="D70" s="118" t="s">
-        <v>328</v>
-      </c>
-      <c r="E70" s="119" t="s">
-        <v>329</v>
-      </c>
-      <c r="F70" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="G70" s="121">
-        <v>44896</v>
-      </c>
-      <c r="H70" s="122">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B70" s="115"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" s="151" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G70" s="153">
+        <v>44735</v>
+      </c>
+      <c r="H70" s="154">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="117"/>
-      <c r="C71" s="118"/>
-      <c r="D71" s="118" t="s">
-        <v>322</v>
-      </c>
-      <c r="E71" s="123" t="s">
-        <v>339</v>
-      </c>
-      <c r="F71" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="G71" s="121">
-        <v>44945</v>
-      </c>
-      <c r="H71" s="122">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="115"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="150" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" s="151" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" s="153">
+        <v>44854</v>
+      </c>
+      <c r="H71" s="154">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="117"/>
-      <c r="C72" s="118"/>
-      <c r="D72" s="118" t="s">
-        <v>334</v>
-      </c>
-      <c r="E72" s="123" t="s">
-        <v>335</v>
-      </c>
-      <c r="F72" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="G72" s="121">
-        <v>44910</v>
-      </c>
-      <c r="H72" s="122">
-        <v>44910</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="115"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="151" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="153">
+        <v>44770</v>
+      </c>
+      <c r="H72" s="154">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="117"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="118" t="s">
-        <v>340</v>
-      </c>
-      <c r="E73" s="123" t="s">
-        <v>341</v>
-      </c>
-      <c r="F73" s="120" t="s">
+      <c r="B73" s="115"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="150" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="151" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="152" t="s">
+        <v>256</v>
+      </c>
+      <c r="G73" s="153">
+        <v>44770</v>
+      </c>
+      <c r="H73" s="154">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="150" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" s="151" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G73" s="121">
-        <v>44951</v>
-      </c>
-      <c r="H73" s="122">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="E74" s="123" t="s">
-        <v>343</v>
-      </c>
-      <c r="F74" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G74" s="121">
-        <v>44952</v>
-      </c>
-      <c r="H74" s="122">
-        <v>44952</v>
+      <c r="G74" s="153">
+        <v>44770</v>
+      </c>
+      <c r="H74" s="154">
+        <v>44770</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="117"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="120"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="122"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="150" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" s="151" t="s">
+        <v>262</v>
+      </c>
+      <c r="F75" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" s="153">
+        <v>44770</v>
+      </c>
+      <c r="H75" s="154">
+        <v>44427</v>
+      </c>
     </row>
     <row r="76" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="118"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="120"/>
-      <c r="G76" s="121"/>
-      <c r="H76" s="122"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="151" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G76" s="153">
+        <v>44777</v>
+      </c>
+      <c r="H76" s="154">
+        <v>44777</v>
+      </c>
     </row>
     <row r="77" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="119"/>
-      <c r="F77" s="120"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="122"/>
-    </row>
-    <row r="78" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B77" s="115"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="150" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" s="151" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G77" s="153">
+        <v>44935</v>
+      </c>
+      <c r="H77" s="154">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="117"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118" t="s">
-        <v>394</v>
-      </c>
-      <c r="E78" s="123" t="s">
-        <v>395</v>
-      </c>
-      <c r="F78" s="120" t="s">
+      <c r="B78" s="115"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="150" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78" s="151" t="s">
+        <v>277</v>
+      </c>
+      <c r="F78" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G78" s="153">
+        <v>44931</v>
+      </c>
+      <c r="H78" s="154">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="150" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" s="151" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="153">
+        <v>44847</v>
+      </c>
+      <c r="H79" s="154">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="150" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="151" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" s="152" t="s">
         <v>267</v>
       </c>
-      <c r="G78" s="121">
-        <v>44957</v>
-      </c>
-      <c r="H78" s="122">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118" t="s">
-        <v>393</v>
-      </c>
-      <c r="E79" s="123" t="s">
-        <v>396</v>
-      </c>
-      <c r="F79" s="120" t="s">
-        <v>281</v>
-      </c>
-      <c r="G79" s="121">
-        <v>44281</v>
-      </c>
-      <c r="H79" s="122">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="118"/>
-      <c r="D80" s="118" t="s">
-        <v>397</v>
-      </c>
-      <c r="E80" s="123" t="s">
-        <v>398</v>
-      </c>
-      <c r="F80" s="120" t="s">
+      <c r="G80" s="153">
+        <v>44792</v>
+      </c>
+      <c r="H80" s="154">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="150" t="s">
+        <v>269</v>
+      </c>
+      <c r="E81" s="151" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G80" s="121">
-        <v>43257</v>
-      </c>
-      <c r="H80" s="122">
-        <v>43257</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="117"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="118" t="s">
-        <v>286</v>
-      </c>
-      <c r="E81" s="123" t="s">
-        <v>399</v>
-      </c>
-      <c r="F81" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="G81" s="121">
-        <v>44949</v>
-      </c>
-      <c r="H81" s="122">
-        <v>44949</v>
+      <c r="G81" s="153">
+        <v>44776</v>
+      </c>
+      <c r="H81" s="154">
+        <v>44776</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="117"/>
-      <c r="C82" s="118"/>
-      <c r="D82" s="118"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="120"/>
-      <c r="G82" s="121"/>
-      <c r="H82" s="122"/>
-    </row>
-    <row r="83" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="115"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="150" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="151" t="s">
+        <v>271</v>
+      </c>
+      <c r="F82" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G82" s="153">
+        <v>44777</v>
+      </c>
+      <c r="H82" s="154">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="117"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118" t="s">
-        <v>392</v>
-      </c>
-      <c r="E83" s="123" t="s">
-        <v>400</v>
-      </c>
-      <c r="F83" s="120" t="s">
+      <c r="B83" s="115"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="150" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" s="151" t="s">
+        <v>273</v>
+      </c>
+      <c r="F83" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G83" s="121">
-        <v>44957</v>
-      </c>
-      <c r="H83" s="122">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G83" s="153">
+        <v>44770</v>
+      </c>
+      <c r="H83" s="154">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="117"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="120"/>
-      <c r="G84" s="121"/>
-      <c r="H84" s="122"/>
-    </row>
-    <row r="85" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="115"/>
+      <c r="C84" s="116"/>
+      <c r="D84" s="150" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="156" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="153">
+        <v>44937</v>
+      </c>
+      <c r="H84" s="154">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="117"/>
-      <c r="C85" s="118"/>
-      <c r="D85" s="118"/>
-      <c r="E85" s="119"/>
-      <c r="F85" s="120"/>
-      <c r="G85" s="121"/>
-      <c r="H85" s="122"/>
-    </row>
-    <row r="86" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="115"/>
+      <c r="C85" s="116"/>
+      <c r="D85" s="150" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" s="156" t="s">
+        <v>295</v>
+      </c>
+      <c r="F85" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" s="153">
+        <v>44937</v>
+      </c>
+      <c r="H85" s="154">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="E86" s="119" t="s">
-        <v>331</v>
-      </c>
-      <c r="F86" s="120" t="s">
+      <c r="B86" s="115"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="150" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" s="156" t="s">
+        <v>297</v>
+      </c>
+      <c r="F86" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="G86" s="121">
-        <v>44893</v>
-      </c>
-      <c r="H86" s="122">
-        <v>44893</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G86" s="153">
+        <v>44937</v>
+      </c>
+      <c r="H86" s="154">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="118"/>
-      <c r="E87" s="119"/>
-      <c r="F87" s="120"/>
-      <c r="G87" s="121"/>
-      <c r="H87" s="122"/>
-    </row>
-    <row r="88" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="115"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="150" t="s">
+        <v>307</v>
+      </c>
+      <c r="E87" s="156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F87" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G87" s="153">
+        <v>44949</v>
+      </c>
+      <c r="H87" s="154">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="117"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="118"/>
-      <c r="E88" s="119"/>
-      <c r="F88" s="120"/>
-      <c r="G88" s="121"/>
-      <c r="H88" s="122"/>
-    </row>
-    <row r="89" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="115"/>
+      <c r="C88" s="116"/>
+      <c r="D88" s="150" t="s">
+        <v>292</v>
+      </c>
+      <c r="E88" s="156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G88" s="153">
+        <v>44937</v>
+      </c>
+      <c r="H88" s="154">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="118"/>
-      <c r="E89" s="119"/>
-      <c r="F89" s="120"/>
-      <c r="G89" s="121"/>
-      <c r="H89" s="122"/>
-    </row>
-    <row r="90" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="115"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="150" t="s">
+        <v>290</v>
+      </c>
+      <c r="E89" s="156" t="s">
+        <v>299</v>
+      </c>
+      <c r="F89" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G89" s="153">
+        <v>44937</v>
+      </c>
+      <c r="H89" s="154">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
-      <c r="E90" s="119"/>
-      <c r="F90" s="120"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="122"/>
-    </row>
-    <row r="91" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B90" s="115"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="150" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G90" s="153">
+        <v>44937</v>
+      </c>
+      <c r="H90" s="154">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="118"/>
-      <c r="D91" s="118"/>
-      <c r="E91" s="119"/>
-      <c r="F91" s="120"/>
-      <c r="G91" s="121"/>
-      <c r="H91" s="122"/>
-    </row>
-    <row r="92" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="115"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="150" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="156" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G91" s="153">
+        <v>44937</v>
+      </c>
+      <c r="H91" s="154">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="117"/>
-      <c r="C92" s="118"/>
-      <c r="D92" s="118"/>
-      <c r="E92" s="119"/>
-      <c r="F92" s="120"/>
-      <c r="G92" s="121"/>
-      <c r="H92" s="122"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="116" t="s">
+        <v>423</v>
+      </c>
+      <c r="E92" s="121" t="s">
+        <v>424</v>
+      </c>
+      <c r="F92" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G92" s="119">
+        <v>44959</v>
+      </c>
+      <c r="H92" s="120">
+        <v>44959</v>
+      </c>
     </row>
     <row r="93" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="117"/>
-      <c r="C93" s="118"/>
-      <c r="D93" s="118"/>
-      <c r="E93" s="119"/>
-      <c r="F93" s="120"/>
-      <c r="G93" s="121"/>
-      <c r="H93" s="122"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="207" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="162"/>
+      <c r="E93" s="162"/>
+      <c r="F93" s="162"/>
+      <c r="G93" s="162"/>
+      <c r="H93" s="163"/>
     </row>
     <row r="94" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="117"/>
-      <c r="C94" s="118"/>
-      <c r="D94" s="118"/>
-      <c r="E94" s="119"/>
-      <c r="F94" s="120"/>
-      <c r="G94" s="121"/>
-      <c r="H94" s="122"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="207"/>
+      <c r="D94" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94" s="158" t="s">
+        <v>275</v>
+      </c>
+      <c r="F94" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="G94" s="160">
+        <v>44167</v>
+      </c>
+      <c r="H94" s="161">
+        <v>44167</v>
+      </c>
     </row>
     <row r="95" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="117"/>
-      <c r="C95" s="118"/>
-      <c r="D95" s="118"/>
-      <c r="E95" s="119"/>
-      <c r="F95" s="120"/>
-      <c r="G95" s="121"/>
-      <c r="H95" s="122"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="E95" s="151" t="s">
+        <v>285</v>
+      </c>
+      <c r="F95" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G95" s="153">
+        <v>44167</v>
+      </c>
+      <c r="H95" s="154">
+        <v>44167</v>
+      </c>
     </row>
     <row r="96" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="117"/>
-      <c r="C96" s="118"/>
-      <c r="D96" s="118"/>
-      <c r="E96" s="119"/>
-      <c r="F96" s="120"/>
-      <c r="G96" s="121"/>
-      <c r="H96" s="122"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="150" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="151" t="s">
+        <v>279</v>
+      </c>
+      <c r="F96" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G96" s="153">
+        <v>43185</v>
+      </c>
+      <c r="H96" s="154">
+        <v>43185</v>
+      </c>
     </row>
     <row r="97" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="117"/>
-      <c r="C97" s="118"/>
-      <c r="D97" s="118"/>
-      <c r="E97" s="119"/>
-      <c r="F97" s="120"/>
-      <c r="G97" s="121"/>
-      <c r="H97" s="122"/>
-    </row>
-    <row r="98" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="115"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="150" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" s="151" t="s">
+        <v>282</v>
+      </c>
+      <c r="F97" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="G97" s="153">
+        <v>44216</v>
+      </c>
+      <c r="H97" s="154">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="117"/>
-      <c r="C98" s="118"/>
-      <c r="D98" s="118"/>
-      <c r="E98" s="119"/>
-      <c r="F98" s="120"/>
-      <c r="G98" s="121"/>
-      <c r="H98" s="122"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="E98" s="156" t="s">
+        <v>403</v>
+      </c>
+      <c r="F98" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98" s="153">
+        <v>43720</v>
+      </c>
+      <c r="H98" s="154">
+        <v>43720</v>
+      </c>
     </row>
     <row r="99" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="117"/>
-      <c r="C99" s="118"/>
-      <c r="D99" s="118"/>
-      <c r="E99" s="119"/>
-      <c r="F99" s="120"/>
-      <c r="G99" s="121"/>
-      <c r="H99" s="122"/>
-    </row>
-    <row r="100" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="115"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="E99" s="156" t="s">
+        <v>404</v>
+      </c>
+      <c r="F99" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G99" s="153">
+        <v>43785</v>
+      </c>
+      <c r="H99" s="154">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="117"/>
-      <c r="C100" s="118"/>
-      <c r="D100" s="118"/>
-      <c r="E100" s="119"/>
-      <c r="F100" s="120"/>
-      <c r="G100" s="121"/>
-      <c r="H100" s="122"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="E100" s="156" t="s">
+        <v>406</v>
+      </c>
+      <c r="F100" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G100" s="153">
+        <v>43208</v>
+      </c>
+      <c r="H100" s="154">
+        <v>43208</v>
+      </c>
     </row>
     <row r="101" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="117"/>
-      <c r="C101" s="118"/>
-      <c r="D101" s="118"/>
-      <c r="E101" s="119"/>
-      <c r="F101" s="120"/>
-      <c r="G101" s="121"/>
-      <c r="H101" s="122"/>
-    </row>
-    <row r="102" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="115"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="150" t="s">
+        <v>407</v>
+      </c>
+      <c r="E101" s="156" t="s">
+        <v>408</v>
+      </c>
+      <c r="F101" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="G101" s="153">
+        <v>43181</v>
+      </c>
+      <c r="H101" s="154">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="117"/>
-      <c r="C102" s="118"/>
-      <c r="D102" s="118"/>
-      <c r="E102" s="119"/>
-      <c r="F102" s="120"/>
-      <c r="G102" s="121"/>
-      <c r="H102" s="122"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="150" t="s">
+        <v>409</v>
+      </c>
+      <c r="E102" s="156" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="G102" s="153">
+        <v>44958</v>
+      </c>
+      <c r="H102" s="154">
+        <v>43181</v>
+      </c>
     </row>
     <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="117"/>
-      <c r="C103" s="118"/>
-      <c r="D103" s="118"/>
-      <c r="E103" s="119"/>
-      <c r="F103" s="120"/>
-      <c r="G103" s="121"/>
-      <c r="H103" s="122"/>
-    </row>
-    <row r="104" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B103" s="115"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="150" t="s">
+        <v>411</v>
+      </c>
+      <c r="E103" s="156" t="s">
+        <v>412</v>
+      </c>
+      <c r="F103" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="G103" s="153">
+        <v>44958</v>
+      </c>
+      <c r="H103" s="154">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="117"/>
-      <c r="C104" s="118"/>
-      <c r="D104" s="118"/>
-      <c r="E104" s="119"/>
-      <c r="F104" s="120"/>
-      <c r="G104" s="121"/>
-      <c r="H104" s="122"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="150" t="s">
+        <v>413</v>
+      </c>
+      <c r="E104" s="156" t="s">
+        <v>414</v>
+      </c>
+      <c r="F104" s="152" t="s">
+        <v>281</v>
+      </c>
+      <c r="G104" s="153">
+        <v>44958</v>
+      </c>
+      <c r="H104" s="154">
+        <v>43922</v>
+      </c>
     </row>
     <row r="105" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="117"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="118"/>
-      <c r="E105" s="119"/>
-      <c r="F105" s="120"/>
-      <c r="G105" s="121"/>
-      <c r="H105" s="122"/>
+      <c r="B105" s="115"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="116"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="118"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="120"/>
     </row>
     <row r="106" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="117"/>
-      <c r="C106" s="118"/>
-      <c r="D106" s="118"/>
-      <c r="E106" s="119"/>
-      <c r="F106" s="120"/>
-      <c r="G106" s="121"/>
-      <c r="H106" s="122"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="116"/>
+      <c r="D106" s="116"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="118"/>
+      <c r="G106" s="119"/>
+      <c r="H106" s="120"/>
     </row>
     <row r="107" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="117"/>
-      <c r="C107" s="118"/>
-      <c r="D107" s="118"/>
-      <c r="E107" s="119"/>
-      <c r="F107" s="120"/>
-      <c r="G107" s="121"/>
-      <c r="H107" s="122"/>
+      <c r="B107" s="115"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="116"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="118"/>
+      <c r="G107" s="119"/>
+      <c r="H107" s="120"/>
     </row>
     <row r="108" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="117"/>
-      <c r="C108" s="118"/>
-      <c r="D108" s="118"/>
-      <c r="E108" s="119"/>
-      <c r="F108" s="120"/>
-      <c r="G108" s="121"/>
-      <c r="H108" s="122"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="116"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="118"/>
+      <c r="G108" s="119"/>
+      <c r="H108" s="120"/>
     </row>
     <row r="109" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="117"/>
-      <c r="C109" s="118"/>
-      <c r="D109" s="118"/>
-      <c r="E109" s="119"/>
-      <c r="F109" s="120"/>
-      <c r="G109" s="121"/>
-      <c r="H109" s="122"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="116"/>
+      <c r="D109" s="116"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="118"/>
+      <c r="G109" s="119"/>
+      <c r="H109" s="120"/>
     </row>
     <row r="110" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="117"/>
-      <c r="C110" s="118"/>
-      <c r="D110" s="118"/>
-      <c r="E110" s="119"/>
-      <c r="F110" s="120"/>
-      <c r="G110" s="121"/>
-      <c r="H110" s="122"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="116"/>
+      <c r="E110" s="117"/>
+      <c r="F110" s="118"/>
+      <c r="G110" s="119"/>
+      <c r="H110" s="120"/>
     </row>
     <row r="111" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="117"/>
-      <c r="C111" s="118"/>
-      <c r="D111" s="118"/>
-      <c r="E111" s="119"/>
-      <c r="F111" s="120"/>
-      <c r="G111" s="121"/>
-      <c r="H111" s="122"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116" t="s">
+        <v>286</v>
+      </c>
+      <c r="E111" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="F111" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G111" s="119">
+        <v>44949</v>
+      </c>
+      <c r="H111" s="120">
+        <v>44949</v>
+      </c>
     </row>
     <row r="112" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="117"/>
-      <c r="C112" s="118"/>
-      <c r="D112" s="118"/>
-      <c r="E112" s="119"/>
-      <c r="F112" s="120"/>
-      <c r="G112" s="121"/>
-      <c r="H112" s="122"/>
+      <c r="B112" s="115"/>
+      <c r="C112" s="116"/>
+      <c r="D112" s="116"/>
+      <c r="E112" s="117"/>
+      <c r="F112" s="118"/>
+      <c r="G112" s="119"/>
+      <c r="H112" s="120"/>
     </row>
     <row r="113" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="118"/>
-      <c r="D113" s="118"/>
-      <c r="E113" s="119"/>
-      <c r="F113" s="120"/>
-      <c r="G113" s="121"/>
-      <c r="H113" s="122"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="116"/>
+      <c r="E113" s="117"/>
+      <c r="F113" s="118"/>
+      <c r="G113" s="119"/>
+      <c r="H113" s="120"/>
     </row>
     <row r="114" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="117"/>
-      <c r="C114" s="118"/>
-      <c r="D114" s="118"/>
-      <c r="E114" s="119"/>
-      <c r="F114" s="120"/>
-      <c r="G114" s="121"/>
-      <c r="H114" s="122"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="116"/>
+      <c r="E114" s="117"/>
+      <c r="F114" s="118"/>
+      <c r="G114" s="119"/>
+      <c r="H114" s="120"/>
     </row>
     <row r="115" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="117"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="119"/>
-      <c r="F115" s="120"/>
-      <c r="G115" s="121"/>
-      <c r="H115" s="122"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="116"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="118"/>
+      <c r="G115" s="119"/>
+      <c r="H115" s="120"/>
     </row>
     <row r="116" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="117"/>
-      <c r="C116" s="118"/>
-      <c r="D116" s="118"/>
-      <c r="E116" s="119"/>
-      <c r="F116" s="120"/>
-      <c r="G116" s="121"/>
-      <c r="H116" s="122"/>
-    </row>
-    <row r="117" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="115"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="116"/>
+      <c r="E116" s="117"/>
+      <c r="F116" s="118"/>
+      <c r="G116" s="119"/>
+      <c r="H116" s="120"/>
+    </row>
+    <row r="117" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="117"/>
-      <c r="C117" s="118"/>
-      <c r="D117" s="118"/>
-      <c r="E117" s="119"/>
-      <c r="F117" s="120"/>
-      <c r="G117" s="121"/>
-      <c r="H117" s="122"/>
-    </row>
-    <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="115"/>
+      <c r="C117" s="116" t="s">
+        <v>336</v>
+      </c>
+      <c r="D117" s="116" t="s">
+        <v>326</v>
+      </c>
+      <c r="E117" s="121" t="s">
+        <v>327</v>
+      </c>
+      <c r="F117" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G117" s="119">
+        <v>44902</v>
+      </c>
+      <c r="H117" s="120">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="117"/>
-      <c r="C118" s="118"/>
-      <c r="D118" s="118"/>
-      <c r="E118" s="119"/>
-      <c r="F118" s="120"/>
-      <c r="G118" s="121"/>
-      <c r="H118" s="122"/>
-    </row>
-    <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B118" s="115"/>
+      <c r="C118" s="116"/>
+      <c r="D118" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="E118" s="121" t="s">
+        <v>333</v>
+      </c>
+      <c r="F118" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G118" s="119">
+        <v>44897</v>
+      </c>
+      <c r="H118" s="120">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
-      <c r="B119" s="117"/>
-      <c r="C119" s="118"/>
-      <c r="D119" s="118"/>
-      <c r="E119" s="119"/>
-      <c r="F119" s="120"/>
-      <c r="G119" s="121"/>
-      <c r="H119" s="122"/>
-    </row>
-    <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B119" s="115"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="116" t="s">
+        <v>323</v>
+      </c>
+      <c r="E119" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="F119" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G119" s="119">
+        <v>44951</v>
+      </c>
+      <c r="H119" s="120">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
-      <c r="B120" s="117"/>
-      <c r="C120" s="118"/>
-      <c r="D120" s="118"/>
-      <c r="E120" s="119"/>
-      <c r="F120" s="120"/>
-      <c r="G120" s="121"/>
-      <c r="H120" s="122"/>
-    </row>
-    <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B120" s="115"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="E120" s="121" t="s">
+        <v>337</v>
+      </c>
+      <c r="F120" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G120" s="119">
+        <v>44951</v>
+      </c>
+      <c r="H120" s="120">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
-      <c r="B121" s="117"/>
-      <c r="C121" s="118"/>
-      <c r="D121" s="118"/>
-      <c r="E121" s="119"/>
-      <c r="F121" s="120"/>
-      <c r="G121" s="121"/>
-      <c r="H121" s="122"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="116" t="s">
+        <v>321</v>
+      </c>
+      <c r="E121" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="F121" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="G121" s="119">
+        <v>44900</v>
+      </c>
+      <c r="H121" s="120">
+        <v>44949</v>
+      </c>
     </row>
     <row r="122" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="117"/>
-      <c r="C122" s="118"/>
-      <c r="D122" s="118"/>
-      <c r="E122" s="119"/>
-      <c r="F122" s="120"/>
-      <c r="G122" s="121"/>
-      <c r="H122" s="122"/>
-    </row>
-    <row r="123" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="115"/>
+      <c r="C122" s="116"/>
+      <c r="D122" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="E122" s="117" t="s">
+        <v>329</v>
+      </c>
+      <c r="F122" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="G122" s="119">
+        <v>44896</v>
+      </c>
+      <c r="H122" s="120">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="124"/>
-      <c r="C123" s="125"/>
-      <c r="D123" s="125"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="127"/>
-      <c r="G123" s="128"/>
-      <c r="H123" s="129"/>
-    </row>
-    <row r="124" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B123" s="115"/>
+      <c r="C123" s="116"/>
+      <c r="D123" s="116" t="s">
+        <v>322</v>
+      </c>
+      <c r="E123" s="121" t="s">
+        <v>339</v>
+      </c>
+      <c r="F123" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="G123" s="119">
+        <v>44945</v>
+      </c>
+      <c r="H123" s="120">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="130"/>
-      <c r="G124" s="131"/>
-      <c r="H124" s="131"/>
-    </row>
-    <row r="125" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B124" s="115"/>
+      <c r="C124" s="116"/>
+      <c r="D124" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="E124" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="F124" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="G124" s="119">
+        <v>44910</v>
+      </c>
+      <c r="H124" s="120">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="130"/>
-      <c r="G125" s="131"/>
-      <c r="H125" s="131"/>
-    </row>
-    <row r="126" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B125" s="115"/>
+      <c r="C125" s="116"/>
+      <c r="D125" s="116" t="s">
+        <v>340</v>
+      </c>
+      <c r="E125" s="121" t="s">
+        <v>341</v>
+      </c>
+      <c r="F125" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G125" s="119">
+        <v>44951</v>
+      </c>
+      <c r="H125" s="120">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="130"/>
-      <c r="G126" s="131"/>
-      <c r="H126" s="131"/>
+      <c r="B126" s="115"/>
+      <c r="C126" s="116"/>
+      <c r="D126" s="116" t="s">
+        <v>342</v>
+      </c>
+      <c r="E126" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="F126" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G126" s="119">
+        <v>44952</v>
+      </c>
+      <c r="H126" s="120">
+        <v>44952</v>
+      </c>
     </row>
     <row r="127" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="130"/>
-      <c r="G127" s="131"/>
-      <c r="H127" s="131"/>
+      <c r="B127" s="115"/>
+      <c r="C127" s="116"/>
+      <c r="D127" s="116"/>
+      <c r="E127" s="117"/>
+      <c r="F127" s="118"/>
+      <c r="G127" s="119"/>
+      <c r="H127" s="120"/>
     </row>
     <row r="128" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="130"/>
-      <c r="G128" s="131"/>
-      <c r="H128" s="131"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="116"/>
+      <c r="D128" s="116"/>
+      <c r="E128" s="117"/>
+      <c r="F128" s="118"/>
+      <c r="G128" s="119"/>
+      <c r="H128" s="120"/>
     </row>
     <row r="129" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="130"/>
-      <c r="G129" s="131"/>
-      <c r="H129" s="131"/>
-    </row>
-    <row r="130" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B129" s="115"/>
+      <c r="C129" s="116"/>
+      <c r="D129" s="116"/>
+      <c r="E129" s="117"/>
+      <c r="F129" s="118"/>
+      <c r="G129" s="119"/>
+      <c r="H129" s="120"/>
+    </row>
+    <row r="130" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="130"/>
-      <c r="G130" s="131"/>
-      <c r="H130" s="131"/>
-    </row>
-    <row r="131" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B130" s="115"/>
+      <c r="C130" s="116"/>
+      <c r="D130" s="116" t="s">
+        <v>394</v>
+      </c>
+      <c r="E130" s="121" t="s">
+        <v>395</v>
+      </c>
+      <c r="F130" s="118" t="s">
+        <v>267</v>
+      </c>
+      <c r="G130" s="119">
+        <v>44957</v>
+      </c>
+      <c r="H130" s="120">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="130"/>
-      <c r="G131" s="131"/>
-      <c r="H131" s="131"/>
-    </row>
-    <row r="132" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B131" s="115"/>
+      <c r="C131" s="116"/>
+      <c r="D131" s="116" t="s">
+        <v>393</v>
+      </c>
+      <c r="E131" s="121" t="s">
+        <v>396</v>
+      </c>
+      <c r="F131" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="G131" s="119">
+        <v>44281</v>
+      </c>
+      <c r="H131" s="120">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="130"/>
-      <c r="G132" s="131"/>
-      <c r="H132" s="131"/>
-    </row>
-    <row r="133" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B132" s="115"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="116" t="s">
+        <v>397</v>
+      </c>
+      <c r="E132" s="121" t="s">
+        <v>398</v>
+      </c>
+      <c r="F132" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G132" s="119">
+        <v>43257</v>
+      </c>
+      <c r="H132" s="120">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="131"/>
-      <c r="H133" s="131"/>
+      <c r="B133" s="115"/>
+      <c r="C133" s="116"/>
+      <c r="D133" s="116" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="F133" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G133" s="119">
+        <v>44949</v>
+      </c>
+      <c r="H133" s="120">
+        <v>44949</v>
+      </c>
     </row>
     <row r="134" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="130"/>
-      <c r="G134" s="131"/>
-      <c r="H134" s="131"/>
-    </row>
-    <row r="135" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B134" s="115"/>
+      <c r="C134" s="116"/>
+      <c r="D134" s="116"/>
+      <c r="E134" s="121"/>
+      <c r="F134" s="118"/>
+      <c r="G134" s="119"/>
+      <c r="H134" s="120"/>
+    </row>
+    <row r="135" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="130"/>
-      <c r="G135" s="131"/>
-      <c r="H135" s="131"/>
+      <c r="B135" s="115"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116" t="s">
+        <v>392</v>
+      </c>
+      <c r="E135" s="121" t="s">
+        <v>400</v>
+      </c>
+      <c r="F135" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G135" s="119">
+        <v>44957</v>
+      </c>
+      <c r="H135" s="120">
+        <v>44957</v>
+      </c>
     </row>
     <row r="136" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="130"/>
-      <c r="G136" s="131"/>
-      <c r="H136" s="131"/>
+      <c r="B136" s="115"/>
+      <c r="C136" s="116"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="121"/>
+      <c r="F136" s="118"/>
+      <c r="G136" s="119"/>
+      <c r="H136" s="120"/>
     </row>
     <row r="137" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="130"/>
-      <c r="G137" s="131"/>
-      <c r="H137" s="131"/>
+      <c r="B137" s="115"/>
+      <c r="C137" s="116"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="117"/>
+      <c r="F137" s="118"/>
+      <c r="G137" s="119"/>
+      <c r="H137" s="120"/>
     </row>
     <row r="138" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="130"/>
-      <c r="G138" s="131"/>
-      <c r="H138" s="131"/>
+      <c r="B138" s="115"/>
+      <c r="C138" s="116"/>
+      <c r="D138" s="116" t="s">
+        <v>330</v>
+      </c>
+      <c r="E138" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="F138" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G138" s="119">
+        <v>44893</v>
+      </c>
+      <c r="H138" s="120">
+        <v>44893</v>
+      </c>
     </row>
     <row r="139" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="130"/>
-      <c r="G139" s="131"/>
-      <c r="H139" s="131"/>
-    </row>
-    <row r="140" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F140" s="95"/>
-      <c r="G140" s="111"/>
-      <c r="H140" s="111"/>
-    </row>
-    <row r="141" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F141" s="95"/>
-      <c r="G141" s="111"/>
-      <c r="H141" s="111"/>
+      <c r="B139" s="115"/>
+      <c r="C139" s="116"/>
+      <c r="D139" s="116"/>
+      <c r="E139" s="117"/>
+      <c r="F139" s="118"/>
+      <c r="G139" s="119"/>
+      <c r="H139" s="120"/>
+    </row>
+    <row r="140" spans="1:8" s="204" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="203"/>
+      <c r="B140" s="206" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" s="162"/>
+      <c r="D140" s="162"/>
+      <c r="E140" s="162"/>
+      <c r="F140" s="162"/>
+      <c r="G140" s="162"/>
+      <c r="H140" s="163"/>
+    </row>
+    <row r="141" spans="1:8" s="204" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="203"/>
+      <c r="B141" s="206"/>
+      <c r="C141" s="207" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="162"/>
+      <c r="E141" s="162"/>
+      <c r="F141" s="162"/>
+      <c r="G141" s="162"/>
+      <c r="H141" s="163"/>
     </row>
     <row r="142" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F142" s="95"/>
-      <c r="G142" s="111"/>
-      <c r="H142" s="111"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="115"/>
+      <c r="C142" s="207"/>
+      <c r="D142" s="116"/>
+      <c r="E142" s="117"/>
+      <c r="F142" s="118"/>
+      <c r="G142" s="119"/>
+      <c r="H142" s="120"/>
+    </row>
+    <row r="143" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="115"/>
+      <c r="C143" s="116"/>
+      <c r="D143" s="116"/>
+      <c r="E143" s="117"/>
+      <c r="F143" s="118"/>
+      <c r="G143" s="119"/>
+      <c r="H143" s="120"/>
+    </row>
+    <row r="144" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="115"/>
+      <c r="C144" s="116"/>
+      <c r="D144" s="116"/>
+      <c r="E144" s="117"/>
+      <c r="F144" s="118"/>
+      <c r="G144" s="119"/>
+      <c r="H144" s="120"/>
+    </row>
+    <row r="145" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="115"/>
+      <c r="C145" s="116"/>
+      <c r="D145" s="116"/>
+      <c r="E145" s="117"/>
+      <c r="F145" s="118"/>
+      <c r="G145" s="119"/>
+      <c r="H145" s="120"/>
+    </row>
+    <row r="146" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="115"/>
+      <c r="C146" s="116"/>
+      <c r="D146" s="116"/>
+      <c r="E146" s="117"/>
+      <c r="F146" s="118"/>
+      <c r="G146" s="119"/>
+      <c r="H146" s="120"/>
+    </row>
+    <row r="147" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="115"/>
+      <c r="C147" s="116"/>
+      <c r="D147" s="116"/>
+      <c r="E147" s="117"/>
+      <c r="F147" s="118"/>
+      <c r="G147" s="119"/>
+      <c r="H147" s="120"/>
+    </row>
+    <row r="148" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="115"/>
+      <c r="C148" s="116"/>
+      <c r="D148" s="116"/>
+      <c r="E148" s="117"/>
+      <c r="F148" s="118"/>
+      <c r="G148" s="119"/>
+      <c r="H148" s="120"/>
+    </row>
+    <row r="149" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="115"/>
+      <c r="C149" s="116"/>
+      <c r="D149" s="116"/>
+      <c r="E149" s="117"/>
+      <c r="F149" s="118"/>
+      <c r="G149" s="119"/>
+      <c r="H149" s="120"/>
+    </row>
+    <row r="150" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="115"/>
+      <c r="C150" s="116"/>
+      <c r="D150" s="116"/>
+      <c r="E150" s="117"/>
+      <c r="F150" s="118"/>
+      <c r="G150" s="119"/>
+      <c r="H150" s="120"/>
+    </row>
+    <row r="151" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="115"/>
+      <c r="C151" s="116"/>
+      <c r="D151" s="116"/>
+      <c r="E151" s="117"/>
+      <c r="F151" s="118"/>
+      <c r="G151" s="119"/>
+      <c r="H151" s="120"/>
+    </row>
+    <row r="152" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="115"/>
+      <c r="C152" s="116"/>
+      <c r="D152" s="116"/>
+      <c r="E152" s="117"/>
+      <c r="F152" s="118"/>
+      <c r="G152" s="119"/>
+      <c r="H152" s="120"/>
+    </row>
+    <row r="153" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="115"/>
+      <c r="C153" s="116"/>
+      <c r="D153" s="116"/>
+      <c r="E153" s="117"/>
+      <c r="F153" s="118"/>
+      <c r="G153" s="119"/>
+      <c r="H153" s="120"/>
+    </row>
+    <row r="154" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="115"/>
+      <c r="C154" s="116"/>
+      <c r="D154" s="116"/>
+      <c r="E154" s="117"/>
+      <c r="F154" s="118"/>
+      <c r="G154" s="119"/>
+      <c r="H154" s="120"/>
+    </row>
+    <row r="155" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="115"/>
+      <c r="C155" s="116"/>
+      <c r="D155" s="116"/>
+      <c r="E155" s="117"/>
+      <c r="F155" s="118"/>
+      <c r="G155" s="119"/>
+      <c r="H155" s="120"/>
+    </row>
+    <row r="156" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="115"/>
+      <c r="C156" s="116"/>
+      <c r="D156" s="116"/>
+      <c r="E156" s="117"/>
+      <c r="F156" s="118"/>
+      <c r="G156" s="119"/>
+      <c r="H156" s="120"/>
+    </row>
+    <row r="157" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="115"/>
+      <c r="C157" s="116"/>
+      <c r="D157" s="116"/>
+      <c r="E157" s="117"/>
+      <c r="F157" s="118"/>
+      <c r="G157" s="119"/>
+      <c r="H157" s="120"/>
+    </row>
+    <row r="158" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="115"/>
+      <c r="C158" s="116"/>
+      <c r="D158" s="116"/>
+      <c r="E158" s="117"/>
+      <c r="F158" s="118"/>
+      <c r="G158" s="119"/>
+      <c r="H158" s="120"/>
+    </row>
+    <row r="159" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="115"/>
+      <c r="C159" s="116"/>
+      <c r="D159" s="116"/>
+      <c r="E159" s="117"/>
+      <c r="F159" s="118"/>
+      <c r="G159" s="119"/>
+      <c r="H159" s="120"/>
+    </row>
+    <row r="160" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="115"/>
+      <c r="C160" s="116"/>
+      <c r="D160" s="116"/>
+      <c r="E160" s="117"/>
+      <c r="F160" s="118"/>
+      <c r="G160" s="119"/>
+      <c r="H160" s="120"/>
+    </row>
+    <row r="161" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="115"/>
+      <c r="C161" s="116"/>
+      <c r="D161" s="116"/>
+      <c r="E161" s="117"/>
+      <c r="F161" s="118"/>
+      <c r="G161" s="119"/>
+      <c r="H161" s="120"/>
+    </row>
+    <row r="162" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="115"/>
+      <c r="C162" s="116"/>
+      <c r="D162" s="116"/>
+      <c r="E162" s="117"/>
+      <c r="F162" s="118"/>
+      <c r="G162" s="119"/>
+      <c r="H162" s="120"/>
+    </row>
+    <row r="163" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="115"/>
+      <c r="C163" s="116"/>
+      <c r="D163" s="116"/>
+      <c r="E163" s="117"/>
+      <c r="F163" s="118"/>
+      <c r="G163" s="119"/>
+      <c r="H163" s="120"/>
+    </row>
+    <row r="164" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="115"/>
+      <c r="C164" s="116"/>
+      <c r="D164" s="116"/>
+      <c r="E164" s="117"/>
+      <c r="F164" s="118"/>
+      <c r="G164" s="119"/>
+      <c r="H164" s="120"/>
+    </row>
+    <row r="165" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="115"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="116"/>
+      <c r="E165" s="117"/>
+      <c r="F165" s="118"/>
+      <c r="G165" s="119"/>
+      <c r="H165" s="120"/>
+    </row>
+    <row r="166" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="115"/>
+      <c r="C166" s="116"/>
+      <c r="D166" s="116"/>
+      <c r="E166" s="117"/>
+      <c r="F166" s="118"/>
+      <c r="G166" s="119"/>
+      <c r="H166" s="120"/>
+    </row>
+    <row r="167" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="115"/>
+      <c r="C167" s="116"/>
+      <c r="D167" s="116"/>
+      <c r="E167" s="117"/>
+      <c r="F167" s="118"/>
+      <c r="G167" s="119"/>
+      <c r="H167" s="120"/>
+    </row>
+    <row r="168" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="115"/>
+      <c r="C168" s="116"/>
+      <c r="D168" s="116"/>
+      <c r="E168" s="117"/>
+      <c r="F168" s="118"/>
+      <c r="G168" s="119"/>
+      <c r="H168" s="120"/>
+    </row>
+    <row r="169" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="B169" s="115"/>
+      <c r="C169" s="116"/>
+      <c r="D169" s="116"/>
+      <c r="E169" s="117"/>
+      <c r="F169" s="118"/>
+      <c r="G169" s="119"/>
+      <c r="H169" s="120"/>
+    </row>
+    <row r="170" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="B170" s="115"/>
+      <c r="C170" s="116"/>
+      <c r="D170" s="116"/>
+      <c r="E170" s="117"/>
+      <c r="F170" s="118"/>
+      <c r="G170" s="119"/>
+      <c r="H170" s="120"/>
+    </row>
+    <row r="171" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="115"/>
+      <c r="C171" s="116"/>
+      <c r="D171" s="116"/>
+      <c r="E171" s="117"/>
+      <c r="F171" s="118"/>
+      <c r="G171" s="119"/>
+      <c r="H171" s="120"/>
+    </row>
+    <row r="172" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+      <c r="B172" s="115"/>
+      <c r="C172" s="116"/>
+      <c r="D172" s="116"/>
+      <c r="E172" s="117"/>
+      <c r="F172" s="118"/>
+      <c r="G172" s="119"/>
+      <c r="H172" s="120"/>
+    </row>
+    <row r="173" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="115"/>
+      <c r="C173" s="116"/>
+      <c r="D173" s="116"/>
+      <c r="E173" s="117"/>
+      <c r="F173" s="118"/>
+      <c r="G173" s="119"/>
+      <c r="H173" s="120"/>
+    </row>
+    <row r="174" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="B174" s="115"/>
+      <c r="C174" s="116"/>
+      <c r="D174" s="116"/>
+      <c r="E174" s="117"/>
+      <c r="F174" s="118"/>
+      <c r="G174" s="119"/>
+      <c r="H174" s="120"/>
+    </row>
+    <row r="175" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="B175" s="115"/>
+      <c r="C175" s="116"/>
+      <c r="D175" s="116"/>
+      <c r="E175" s="117"/>
+      <c r="F175" s="118"/>
+      <c r="G175" s="119"/>
+      <c r="H175" s="120"/>
+    </row>
+    <row r="176" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+      <c r="B176" s="115"/>
+      <c r="C176" s="116"/>
+      <c r="D176" s="116"/>
+      <c r="E176" s="117"/>
+      <c r="F176" s="118"/>
+      <c r="G176" s="119"/>
+      <c r="H176" s="120"/>
+    </row>
+    <row r="177" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+      <c r="B177" s="115"/>
+      <c r="C177" s="116"/>
+      <c r="D177" s="116"/>
+      <c r="E177" s="117"/>
+      <c r="F177" s="118"/>
+      <c r="G177" s="119"/>
+      <c r="H177" s="120"/>
+    </row>
+    <row r="178" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="122"/>
+      <c r="C178" s="123"/>
+      <c r="D178" s="123"/>
+      <c r="E178" s="124"/>
+      <c r="F178" s="125"/>
+      <c r="G178" s="126"/>
+      <c r="H178" s="127"/>
+    </row>
+    <row r="179" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="128"/>
+      <c r="G179" s="129"/>
+      <c r="H179" s="129"/>
+    </row>
+    <row r="180" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="128"/>
+      <c r="G180" s="129"/>
+      <c r="H180" s="129"/>
+    </row>
+    <row r="181" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="128"/>
+      <c r="G181" s="129"/>
+      <c r="H181" s="129"/>
+    </row>
+    <row r="182" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="128"/>
+      <c r="G182" s="129"/>
+      <c r="H182" s="129"/>
+    </row>
+    <row r="183" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="128"/>
+      <c r="G183" s="129"/>
+      <c r="H183" s="129"/>
+    </row>
+    <row r="184" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="128"/>
+      <c r="G184" s="129"/>
+      <c r="H184" s="129"/>
+    </row>
+    <row r="185" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="128"/>
+      <c r="G185" s="129"/>
+      <c r="H185" s="129"/>
+    </row>
+    <row r="186" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="128"/>
+      <c r="G186" s="129"/>
+      <c r="H186" s="129"/>
+    </row>
+    <row r="187" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="128"/>
+      <c r="G187" s="129"/>
+      <c r="H187" s="129"/>
+    </row>
+    <row r="188" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="128"/>
+      <c r="G188" s="129"/>
+      <c r="H188" s="129"/>
+    </row>
+    <row r="189" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="128"/>
+      <c r="G189" s="129"/>
+      <c r="H189" s="129"/>
+    </row>
+    <row r="190" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="128"/>
+      <c r="G190" s="129"/>
+      <c r="H190" s="129"/>
+    </row>
+    <row r="191" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="128"/>
+      <c r="G191" s="129"/>
+      <c r="H191" s="129"/>
+    </row>
+    <row r="192" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="128"/>
+      <c r="G192" s="129"/>
+      <c r="H192" s="129"/>
+    </row>
+    <row r="193" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="128"/>
+      <c r="G193" s="129"/>
+      <c r="H193" s="129"/>
+    </row>
+    <row r="194" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="128"/>
+      <c r="G194" s="129"/>
+      <c r="H194" s="129"/>
+    </row>
+    <row r="195" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F195" s="95"/>
+      <c r="G195" s="111"/>
+      <c r="H195" s="111"/>
+    </row>
+    <row r="196" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F196" s="95"/>
+      <c r="G196" s="111"/>
+      <c r="H196" s="111"/>
+    </row>
+    <row r="197" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F197" s="95"/>
+      <c r="G197" s="111"/>
+      <c r="H197" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="21">
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -5039,7 +5831,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55:I55"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5058,20 +5850,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="196" t="s">
+      <c r="C2" s="178"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="196" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="198"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -5092,10 +5884,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="202" t="s">
+      <c r="H3" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="203"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -5125,19 +5917,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="185" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="184" t="s">
+      <c r="G5" s="191" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -5149,23 +5941,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="191"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="179" t="s">
+      <c r="F6" s="189"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="180"/>
+      <c r="I6" s="173"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="192"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="187"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="186"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -5199,19 +5991,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="187" t="s">
+      <c r="C9" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="193" t="s">
+      <c r="F9" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="191" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -5224,24 +6016,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="179" t="s">
+      <c r="C10" s="183"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="180"/>
+      <c r="I10" s="173"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="186"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="193"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -5251,10 +6043,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="187" t="s">
+      <c r="C12" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="190" t="s">
+      <c r="D12" s="185" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -5263,7 +6055,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="184" t="s">
+      <c r="G12" s="191" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -5275,15 +6067,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="192"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="187"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="186"/>
+      <c r="G13" s="193"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -5328,8 +6120,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="178"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -5743,19 +6535,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="187" t="s">
+      <c r="C40" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="190" t="s">
+      <c r="D40" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="181" t="s">
+      <c r="E40" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="193" t="s">
+      <c r="F40" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="184" t="s">
+      <c r="G40" s="191" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -5767,23 +6559,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="179" t="s">
+      <c r="C41" s="183"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="180"/>
+      <c r="I41" s="173"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="195"/>
-      <c r="G42" s="186"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="193"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -5817,19 +6609,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="187" t="s">
+      <c r="C44" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="190" t="s">
+      <c r="D44" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="181" t="s">
+      <c r="E44" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="193" t="s">
+      <c r="F44" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="184" t="s">
+      <c r="G44" s="191" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5841,23 +6633,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="179" t="s">
+      <c r="C45" s="183"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="189"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="180"/>
+      <c r="I45" s="173"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="186"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="193"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -5882,8 +6674,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="178"/>
+      <c r="H48" s="194"/>
+      <c r="I48" s="195"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -5946,10 +6738,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="179" t="s">
+      <c r="H52" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="180"/>
+      <c r="I52" s="173"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -5982,35 +6774,35 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="178"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="195"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="145" t="s">
+      <c r="C56" s="143" t="s">
         <v>374</v>
       </c>
-      <c r="D56" s="146" t="s">
+      <c r="D56" s="144" t="s">
         <v>379</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="F56" s="147" t="s">
+      <c r="F56" s="145" t="s">
         <v>382</v>
       </c>
-      <c r="G56" s="144"/>
+      <c r="G56" s="142"/>
       <c r="H56" s="8"/>
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="61"/>
-      <c r="C57" s="145" t="s">
+      <c r="C57" s="143" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="141" t="s">
+      <c r="D57" s="139" t="s">
         <v>377</v>
       </c>
       <c r="E57" s="45"/>
@@ -6021,28 +6813,28 @@
     </row>
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="64"/>
-      <c r="C58" s="145" t="s">
+      <c r="C58" s="143" t="s">
         <v>376</v>
       </c>
-      <c r="D58" s="146" t="s">
+      <c r="D58" s="144" t="s">
         <v>378</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="F58" s="147" t="s">
+      <c r="F58" s="145" t="s">
         <v>383</v>
       </c>
-      <c r="G58" s="144"/>
+      <c r="G58" s="142"/>
       <c r="H58" s="8"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61"/>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="133" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="137" t="s">
+      <c r="D59" s="135" t="s">
         <v>310</v>
       </c>
       <c r="E59" s="45"/>
@@ -6053,28 +6845,28 @@
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="64"/>
-      <c r="C60" s="135" t="s">
+      <c r="C60" s="133" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="137" t="s">
+      <c r="D60" s="135" t="s">
         <v>313</v>
       </c>
       <c r="E60" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F60" s="139" t="s">
+      <c r="F60" s="137" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="133"/>
+      <c r="G60" s="131"/>
       <c r="H60" s="8"/>
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="64"/>
-      <c r="C61" s="135" t="s">
+      <c r="C61" s="133" t="s">
         <v>312</v>
       </c>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="135" t="s">
         <v>314</v>
       </c>
       <c r="E61" s="45"/>
@@ -6085,124 +6877,124 @@
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="64"/>
-      <c r="C62" s="140" t="s">
+      <c r="C62" s="138" t="s">
         <v>344</v>
       </c>
-      <c r="D62" s="141" t="s">
+      <c r="D62" s="139" t="s">
         <v>346</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F62" s="142" t="s">
+      <c r="F62" s="140" t="s">
         <v>320</v>
       </c>
-      <c r="G62" s="143"/>
+      <c r="G62" s="141"/>
       <c r="H62" s="8"/>
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="64"/>
-      <c r="C63" s="140" t="s">
+      <c r="C63" s="138" t="s">
         <v>345</v>
       </c>
-      <c r="D63" s="141" t="s">
+      <c r="D63" s="139" t="s">
         <v>347</v>
       </c>
       <c r="E63" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="F63" s="142" t="s">
+      <c r="F63" s="140" t="s">
         <v>349</v>
       </c>
-      <c r="G63" s="143"/>
+      <c r="G63" s="141"/>
       <c r="H63" s="8"/>
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="64"/>
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="D64" s="137" t="s">
+      <c r="D64" s="135" t="s">
         <v>316</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="F64" s="139" t="s">
+      <c r="F64" s="137" t="s">
         <v>318</v>
       </c>
-      <c r="G64" s="133"/>
+      <c r="G64" s="131"/>
       <c r="H64" s="8"/>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="64"/>
-      <c r="C65" s="140" t="s">
+      <c r="C65" s="138" t="s">
         <v>351</v>
       </c>
-      <c r="D65" s="141"/>
+      <c r="D65" s="139"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="143"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="141"/>
       <c r="H65" s="8"/>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="64"/>
-      <c r="C66" s="140" t="s">
+      <c r="C66" s="138" t="s">
         <v>352</v>
       </c>
-      <c r="D66" s="141"/>
+      <c r="D66" s="139"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="143"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="141"/>
       <c r="H66" s="8"/>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="64"/>
-      <c r="C67" s="140" t="s">
+      <c r="C67" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="D67" s="141" t="s">
+      <c r="D67" s="139" t="s">
         <v>353</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F67" s="142" t="s">
+      <c r="F67" s="140" t="s">
         <v>355</v>
       </c>
-      <c r="G67" s="143"/>
+      <c r="G67" s="141"/>
       <c r="H67" s="8"/>
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="64"/>
-      <c r="C68" s="140" t="s">
+      <c r="C68" s="138" t="s">
         <v>356</v>
       </c>
-      <c r="D68" s="141" t="s">
+      <c r="D68" s="139" t="s">
         <v>357</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F68" s="142" t="s">
+      <c r="F68" s="140" t="s">
         <v>355</v>
       </c>
-      <c r="G68" s="143"/>
+      <c r="G68" s="141"/>
       <c r="H68" s="8"/>
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B69" s="64"/>
-      <c r="C69" s="140" t="s">
+      <c r="C69" s="138" t="s">
         <v>358</v>
       </c>
-      <c r="D69" s="141" t="s">
+      <c r="D69" s="139" t="s">
         <v>359</v>
       </c>
       <c r="E69" s="45"/>
@@ -6213,28 +7005,28 @@
     </row>
     <row r="70" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B70" s="64"/>
-      <c r="C70" s="140" t="s">
+      <c r="C70" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="141" t="s">
+      <c r="D70" s="139" t="s">
         <v>362</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="F70" s="142" t="s">
+      <c r="F70" s="140" t="s">
         <v>365</v>
       </c>
-      <c r="G70" s="143"/>
+      <c r="G70" s="141"/>
       <c r="H70" s="8"/>
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B71" s="64"/>
-      <c r="C71" s="140" t="s">
+      <c r="C71" s="138" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="141" t="s">
+      <c r="D71" s="139" t="s">
         <v>363</v>
       </c>
       <c r="E71" s="45"/>
@@ -6245,10 +7037,10 @@
     </row>
     <row r="72" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="64"/>
-      <c r="C72" s="140" t="s">
+      <c r="C72" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="D72" s="141" t="s">
+      <c r="D72" s="139" t="s">
         <v>369</v>
       </c>
       <c r="E72" s="45"/>
@@ -6259,28 +7051,28 @@
     </row>
     <row r="73" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="64"/>
-      <c r="C73" s="140" t="s">
+      <c r="C73" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="D73" s="141" t="s">
+      <c r="D73" s="139" t="s">
         <v>370</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F73" s="142" t="s">
+      <c r="F73" s="140" t="s">
         <v>373</v>
       </c>
-      <c r="G73" s="143"/>
+      <c r="G73" s="141"/>
       <c r="H73" s="8"/>
       <c r="I73" s="17"/>
     </row>
     <row r="74" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="64"/>
-      <c r="C74" s="140" t="s">
+      <c r="C74" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="D74" s="141" t="s">
+      <c r="D74" s="139" t="s">
         <v>371</v>
       </c>
       <c r="E74" s="45"/>
@@ -6291,10 +7083,10 @@
     </row>
     <row r="75" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="64"/>
-      <c r="C75" s="148" t="s">
+      <c r="C75" s="146" t="s">
         <v>384</v>
       </c>
-      <c r="D75" s="149" t="s">
+      <c r="D75" s="147" t="s">
         <v>385</v>
       </c>
       <c r="E75" s="45"/>
@@ -6305,87 +7097,87 @@
     </row>
     <row r="76" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B76" s="64"/>
-      <c r="C76" s="148" t="s">
+      <c r="C76" s="146" t="s">
         <v>386</v>
       </c>
-      <c r="D76" s="149" t="s">
+      <c r="D76" s="147" t="s">
         <v>391</v>
       </c>
       <c r="E76" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F76" s="150" t="s">
+      <c r="F76" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="151"/>
+      <c r="G76" s="149"/>
       <c r="H76" s="8"/>
       <c r="I76" s="17"/>
     </row>
     <row r="77" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B77" s="64"/>
-      <c r="C77" s="148" t="s">
+      <c r="C77" s="146" t="s">
         <v>387</v>
       </c>
-      <c r="D77" s="149" t="s">
+      <c r="D77" s="147" t="s">
         <v>390</v>
       </c>
       <c r="E77" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="F77" s="150" t="s">
+      <c r="F77" s="148" t="s">
         <v>389</v>
       </c>
-      <c r="G77" s="151"/>
+      <c r="G77" s="149"/>
       <c r="H77" s="8"/>
       <c r="I77" s="17"/>
     </row>
     <row r="78" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="64"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="149"/>
+      <c r="C78" s="146"/>
+      <c r="D78" s="147"/>
       <c r="E78" s="42"/>
-      <c r="F78" s="150"/>
-      <c r="G78" s="151"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="149"/>
       <c r="H78" s="8"/>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="64"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="149"/>
+      <c r="C79" s="146"/>
+      <c r="D79" s="147"/>
       <c r="E79" s="42"/>
-      <c r="F79" s="150"/>
-      <c r="G79" s="151"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="149"/>
       <c r="H79" s="8"/>
       <c r="I79" s="17"/>
     </row>
     <row r="80" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="64"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="149"/>
+      <c r="C80" s="146"/>
+      <c r="D80" s="147"/>
       <c r="E80" s="42"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="151"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="149"/>
       <c r="H80" s="8"/>
       <c r="I80" s="17"/>
     </row>
     <row r="81" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="64"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="149"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="147"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="150"/>
-      <c r="G81" s="151"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="149"/>
       <c r="H81" s="8"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="64"/>
-      <c r="C82" s="134"/>
-      <c r="D82" s="136"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="134"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="138"/>
-      <c r="G82" s="132"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="130"/>
       <c r="H82" s="9"/>
       <c r="I82" s="19"/>
     </row>
@@ -6396,8 +7188,8 @@
       <c r="E83" s="25"/>
       <c r="F83" s="22"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="177"/>
-      <c r="I83" s="178"/>
+      <c r="H83" s="194"/>
+      <c r="I83" s="195"/>
     </row>
     <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="61"/>
@@ -6541,15 +7333,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -6560,22 +7359,15 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6604,14 +7396,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="197" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="176" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6622,8 +7414,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -7085,7 +7877,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="201" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7093,7 +7885,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="207"/>
+      <c r="C3" s="202"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -13,12 +13,11 @@
     <sheet name="Database" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="569">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1388,6 +1387,379 @@
   </si>
   <si>
     <t>1.00.0003</t>
+  </si>
+  <si>
+    <t>Membangun Sequence</t>
+  </si>
+  <si>
+    <t>FuncSys_General_GetSequence</t>
+  </si>
+  <si>
+    <t>Mendapatkan nilai dari Sequence</t>
+  </si>
+  <si>
+    <t>Menginisialisasi ulang sequence yang terkait dengan Skema (varSchemaName) dan Table (varTableName) tertentu kembali keangka tertentu (varSequenceNumber)</t>
+  </si>
+  <si>
+    <t>FuncSys_General_SetSequence</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblTaxTariff</t>
+  </si>
+  <si>
+    <t>Func_TblTaxTariff_INSERT</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblTaxTariff</t>
+  </si>
+  <si>
+    <t>Func_TblTaxTariff_UPDATE</t>
+  </si>
+  <si>
+    <t>Func_TblTaxType_INSERT</t>
+  </si>
+  <si>
+    <t>Func_TblTaxType_UPDATE</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblTaxType</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblTaxType</t>
+  </si>
+  <si>
+    <t>Func_TblTransactionTaxDetail_INSERT</t>
+  </si>
+  <si>
+    <t>Func_TblTransactionTaxDetail_UPDATE</t>
+  </si>
+  <si>
+    <t>1.01.0001</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblTransactionTaxDetail</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblTransactionTaxDetail</t>
+  </si>
+  <si>
+    <t>Func_TblTransactionTax_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblTransactionTax</t>
+  </si>
+  <si>
+    <t>Func_TblTransactionTax_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblTransactionTax</t>
+  </si>
+  <si>
+    <t>Func_TblDeliveryDestinationType_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblDeliveryDestinationType</t>
+  </si>
+  <si>
+    <t>Func_TblDeliveryDestinationType_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblDeliveryDestinationType</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblDeliveryOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_TblDeliveryOrderDetail_INSERT</t>
+  </si>
+  <si>
+    <t>Func_TblDeliveryOrderDetail_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblDeliveryOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_TblDeliveryOrder_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblDeliveryOrder</t>
+  </si>
+  <si>
+    <t>Func_TblDeliveryOrder_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblDeliveryOrder</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrderAdditionalCost_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblPurchaseOrderAdditionalCost</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblPurchaseOrderAdditionalCost</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrderAdditionalCost_UPDATE</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrderDetail_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblPurchaseOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrderDetail_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblPurchaseOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrderPaymentTerm_INSERT</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrderPaymentTerm_UPDATE</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblPurchaseOrderPaymentTerm</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblPurchaseOrderPaymentTerm</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrder_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblPurchaseOrder</t>
+  </si>
+  <si>
+    <t>1.01.0002</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblPurchaseOrder</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseOrder_UPDATE</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseRequisitionDetail_INSERT</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseRequisitionDetail_UPDATE</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblPurchaseRequisitionDetail</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblPurchaseRequisitionDetail</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblPurchaseRequisition</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseRequisition_INSERT</t>
+  </si>
+  <si>
+    <t>Func_TblPurchaseRequisition_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblPurchaseRequisition</t>
+  </si>
+  <si>
+    <t>Func_TblSupplier_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblSupplier</t>
+  </si>
+  <si>
+    <t>Func_TblSupplier_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblSupplier</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseInboundOrderDetail_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblWarehouseInboundOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseInboundOrderDetail_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblWarehouseInboundOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseInboundOrder_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblWarehouseInboundOrder</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseInboundOrder_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblWarehouseInboundOrder</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseOutboundOrderDetail_INSERT</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseOutboundOrderDetail_UPDATE</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblWarehouseOutboundOrderDetail</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblWarehouseOutboundOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseOutboundOrder_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblWarehouseOutboundOrder</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseOutboundOrder_UPDATE</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblWarehouseOutboundOrder</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseType_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblWarehouseType</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblWarehouseType</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouseType_UPDATE</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouse_INSERT</t>
+  </si>
+  <si>
+    <t>Memasukan data (INSERT) pada tabel TblWarehouse</t>
+  </si>
+  <si>
+    <t>Memutakhirkan data (UPDATE) pada tabel TblWarehouse</t>
+  </si>
+  <si>
+    <t>Func_TblWarehouse_UPDATE</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Delivery</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_DeliveryDestinationType</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_PurchaseOrder</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Pesanan Pembelian (PO) berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch)</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_PurchaseOrderAdditionalCost</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Perincian Pesanan Pembelian berdasarkan ID (varID). Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch)</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_PurchaseOrderDetail</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_PurchaseOrderPaymentTerm</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_PurchaseRequisition</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Ketentuan Pembayaran Pesanan Pembelian berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecil nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Permintaan Pembelian berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch)</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Pengiriman berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Jenis Tujuan Pengiriman berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varID)</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Biaya Tambahan Pesanan Pembelian berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch)</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_PurchaseRequisitionDetail</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Perincian Permintaan Pembelian berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch)</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Supplier</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Pemasok berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecil nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>1.02.0000</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Warehouse</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Gudang berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch)</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_WarehouseType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Jenis Gudang berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch)</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_DeliveryDestination</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List Tujuan Pengiriman berdasarkan ID Branch (varBranch_RefID).
+Adapun Pick Statement (varPickStatement), Sort Statement (varSortStatement), Filter Statement (varFilterStatement), dan Paging Statement (varPagingStatement) merupakan parameter optional yang dapat digunakan ataupun tidak sesuai dengan kebutuhan</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_DeliveryDestinationType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List Jenis Tujuan Pengiriman berdasarkan ID Branch (varBranch_RefID).
+Adapun Pick Statement (varPickStatement), Sort Statement (varSortStatement), Filter Statement (varFilterStatement), dan Paging Statement (varPagingStatement) merupakan parameter optional yang dapat digunakan ataupun tidak sesuai dengan kebutuhan</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_DeliveryOrder</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List Perintah Pengiriman berdasarkan ID Branch (varBranch_RefID).
+Adapun Pick Statement (varPickStatement), Sort Statement (varSortStatement), Filter Statement (varFilterStatement), dan Paging Statement (varPagingStatement) merupakan parameter optional yang dapat digunakan ataupun tidak sesuai dengan kebutuhan</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_PurchaseOrder</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data List Pesanan Pembelian berdasarkan ID Branch (varBranch_RefID).
+Adapun Pick Statement (varPickStatement), Sort Statement (varSortStatement), Filter Statement (varFilterStatement), dan Paging Statement (varPagingStatement) merupakan parameter optional yang dapat digunakan ataupun tidak sesuai dengan kebutuhan</t>
+  </si>
+  <si>
+    <t>Func_GetDataList_PurchaseRequisition</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1844,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,6 +1956,19 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="7" tint="0.40000610370189521"/>
+        </stop>
+        <stop position="1">
+          <color theme="1"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -2116,7 +2501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2393,9 +2778,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2405,15 +2787,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2564,6 +2937,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2585,12 +2968,66 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2615,57 +3052,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2678,18 +3064,47 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3002,25 +3417,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H197"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C143" sqref="C143"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="77" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="77" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" style="77" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="110" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" style="77" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="109" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="109" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
@@ -3040,2783 +3455,4355 @@
       <c r="G2" s="170"/>
       <c r="H2" s="171"/>
     </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="91" t="s">
+    <row r="3" spans="1:8" s="204" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="205" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="207" t="s">
         <v>226</v>
       </c>
       <c r="E3" s="168"/>
-      <c r="F3" s="112" t="s">
+      <c r="F3" s="208" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="209" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="210" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="204" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="203"/>
-      <c r="B4" s="205" t="s">
+    <row r="4" spans="1:8" s="162" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="161"/>
+      <c r="B4" s="172" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="163"/>
-    </row>
-    <row r="5" spans="1:8" s="204" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="203"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="207" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="159"/>
+    </row>
+    <row r="5" spans="1:8" s="162" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="161"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="163"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="159"/>
     </row>
     <row r="6" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="120"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="207" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="163"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="159"/>
     </row>
     <row r="9" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
     </row>
     <row r="10" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="120"/>
-    </row>
-    <row r="11" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
+    </row>
+    <row r="11" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="207" t="s">
+      <c r="B11" s="111"/>
+      <c r="C11" s="163" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="163"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="159"/>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
     </row>
     <row r="13" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-    </row>
-    <row r="14" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
+    </row>
+    <row r="14" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="207" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="163"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
     </row>
     <row r="15" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="207"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
     </row>
     <row r="16" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
-    </row>
-    <row r="17" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116"/>
+    </row>
+    <row r="17" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="207" t="s">
+      <c r="B17" s="111"/>
+      <c r="C17" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="163"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
     </row>
     <row r="18" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="207"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
     </row>
     <row r="19" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
-    </row>
-    <row r="20" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+    </row>
+    <row r="20" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="207" t="s">
+      <c r="B20" s="111"/>
+      <c r="C20" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="163"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159"/>
     </row>
     <row r="21" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
     </row>
     <row r="22" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="120"/>
-    </row>
-    <row r="23" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+    </row>
+    <row r="23" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="207" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="163"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="159"/>
     </row>
     <row r="24" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="207"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="120"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
-    </row>
-    <row r="26" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
+    </row>
+    <row r="26" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="207" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="163"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159"/>
     </row>
     <row r="27" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
     </row>
     <row r="28" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
-    </row>
-    <row r="29" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
+    </row>
+    <row r="29" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="207" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="163"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="159"/>
     </row>
     <row r="30" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="207"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
     </row>
     <row r="31" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="120"/>
-    </row>
-    <row r="32" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="116"/>
+    </row>
+    <row r="32" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="207" t="s">
+      <c r="B32" s="111"/>
+      <c r="C32" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="163"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="159"/>
     </row>
     <row r="33" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="120"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
     </row>
     <row r="34" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="120"/>
-    </row>
-    <row r="35" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
+    </row>
+    <row r="35" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="207" t="s">
+      <c r="B35" s="111"/>
+      <c r="C35" s="163" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="163"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="159"/>
     </row>
     <row r="36" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="120"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="120"/>
-    </row>
-    <row r="38" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
+    </row>
+    <row r="38" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="207" t="s">
+      <c r="B38" s="111"/>
+      <c r="C38" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="163"/>
-    </row>
-    <row r="39" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="159"/>
+    </row>
+    <row r="39" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="207"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="120"/>
-    </row>
-    <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="111"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="153" t="s">
+        <v>537</v>
+      </c>
+      <c r="E39" s="160" t="s">
+        <v>548</v>
+      </c>
+      <c r="F39" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="156">
+        <v>44743</v>
+      </c>
+      <c r="H39" s="157">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="120"/>
-    </row>
-    <row r="41" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="146" t="s">
+        <v>538</v>
+      </c>
+      <c r="E40" s="152" t="s">
+        <v>549</v>
+      </c>
+      <c r="F40" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H40" s="150">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="207" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="162"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="163"/>
-    </row>
-    <row r="42" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="146" t="s">
+        <v>539</v>
+      </c>
+      <c r="E41" s="152" t="s">
+        <v>540</v>
+      </c>
+      <c r="F41" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H41" s="150">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="157" t="s">
-        <v>425</v>
-      </c>
-      <c r="E42" s="164" t="s">
-        <v>426</v>
-      </c>
-      <c r="F42" s="159" t="s">
-        <v>267</v>
-      </c>
-      <c r="G42" s="160">
-        <v>44743</v>
-      </c>
-      <c r="H42" s="161">
-        <v>44728</v>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="146" t="s">
+        <v>541</v>
+      </c>
+      <c r="E42" s="152" t="s">
+        <v>550</v>
+      </c>
+      <c r="F42" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G42" s="149">
+        <v>44757</v>
+      </c>
+      <c r="H42" s="150">
+        <v>44732</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="150" t="s">
-        <v>427</v>
-      </c>
-      <c r="E43" s="156" t="s">
-        <v>428</v>
-      </c>
-      <c r="F43" s="152" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" s="153">
-        <v>44743</v>
-      </c>
-      <c r="H43" s="154">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="146" t="s">
+        <v>543</v>
+      </c>
+      <c r="E43" s="152" t="s">
+        <v>542</v>
+      </c>
+      <c r="F43" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G43" s="149">
+        <v>44757</v>
+      </c>
+      <c r="H43" s="150">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="78" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="150" t="s">
-        <v>429</v>
-      </c>
-      <c r="E44" s="156" t="s">
-        <v>430</v>
-      </c>
-      <c r="F44" s="152" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" s="153">
-        <v>44743</v>
-      </c>
-      <c r="H44" s="154">
-        <v>44728</v>
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="146" t="s">
+        <v>544</v>
+      </c>
+      <c r="E44" s="152" t="s">
+        <v>546</v>
+      </c>
+      <c r="F44" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="149">
+        <v>44851</v>
+      </c>
+      <c r="H44" s="150">
+        <v>44851</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="150" t="s">
-        <v>431</v>
-      </c>
-      <c r="E45" s="156" t="s">
-        <v>432</v>
-      </c>
-      <c r="F45" s="152" t="s">
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="146" t="s">
+        <v>545</v>
+      </c>
+      <c r="E45" s="152" t="s">
+        <v>547</v>
+      </c>
+      <c r="F45" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="149">
         <v>44743</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="150">
         <v>44728</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="150" t="s">
-        <v>433</v>
-      </c>
-      <c r="E46" s="151" t="s">
-        <v>434</v>
-      </c>
-      <c r="F46" s="152" t="s">
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="146" t="s">
+        <v>551</v>
+      </c>
+      <c r="E46" s="152" t="s">
+        <v>552</v>
+      </c>
+      <c r="F46" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G46" s="149">
+        <v>44757</v>
+      </c>
+      <c r="H46" s="150">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="146" t="s">
+        <v>553</v>
+      </c>
+      <c r="E47" s="152" t="s">
+        <v>554</v>
+      </c>
+      <c r="F47" s="148" t="s">
+        <v>555</v>
+      </c>
+      <c r="G47" s="149">
+        <v>44845</v>
+      </c>
+      <c r="H47" s="150">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="146" t="s">
+        <v>556</v>
+      </c>
+      <c r="E48" s="152" t="s">
+        <v>557</v>
+      </c>
+      <c r="F48" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H48" s="150">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="213" t="s">
+        <v>558</v>
+      </c>
+      <c r="E49" s="214" t="s">
+        <v>559</v>
+      </c>
+      <c r="F49" s="215" t="s">
+        <v>267</v>
+      </c>
+      <c r="G49" s="216">
+        <v>44743</v>
+      </c>
+      <c r="H49" s="217">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="211"/>
+      <c r="F50" s="211"/>
+      <c r="G50" s="211"/>
+      <c r="H50" s="212"/>
+    </row>
+    <row r="51" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="153" t="s">
+        <v>560</v>
+      </c>
+      <c r="E51" s="160" t="s">
+        <v>561</v>
+      </c>
+      <c r="F51" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="156">
+        <v>44672</v>
+      </c>
+      <c r="H51" s="157">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="146" t="s">
+        <v>562</v>
+      </c>
+      <c r="E52" s="152" t="s">
+        <v>563</v>
+      </c>
+      <c r="F52" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G46" s="153">
-        <v>44636</v>
-      </c>
-      <c r="H46" s="154">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="150" t="s">
-        <v>435</v>
-      </c>
-      <c r="E47" s="151" t="s">
-        <v>436</v>
-      </c>
-      <c r="F47" s="152" t="s">
+      <c r="G52" s="149">
+        <v>44663</v>
+      </c>
+      <c r="H52" s="150">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="146" t="s">
+        <v>564</v>
+      </c>
+      <c r="E53" s="152" t="s">
+        <v>565</v>
+      </c>
+      <c r="F53" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G47" s="153">
-        <v>44636</v>
-      </c>
-      <c r="H47" s="154">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="150" t="s">
-        <v>437</v>
-      </c>
-      <c r="E48" s="156" t="s">
-        <v>438</v>
-      </c>
-      <c r="F48" s="152" t="s">
+      <c r="G53" s="149">
+        <v>44630</v>
+      </c>
+      <c r="H53" s="150">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="146" t="s">
+        <v>566</v>
+      </c>
+      <c r="E54" s="152" t="s">
+        <v>567</v>
+      </c>
+      <c r="F54" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G48" s="153">
-        <v>44825</v>
-      </c>
-      <c r="H48" s="154">
-        <v>44825</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="150" t="s">
-        <v>439</v>
-      </c>
-      <c r="E49" s="151" t="s">
-        <v>440</v>
-      </c>
-      <c r="F49" s="152" t="s">
-        <v>256</v>
-      </c>
-      <c r="G49" s="153">
-        <v>44742</v>
-      </c>
-      <c r="H49" s="154">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="150" t="s">
-        <v>441</v>
-      </c>
-      <c r="E50" s="151" t="s">
-        <v>442</v>
-      </c>
-      <c r="F50" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G50" s="153">
-        <v>44635</v>
-      </c>
-      <c r="H50" s="154">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="150" t="s">
-        <v>444</v>
-      </c>
-      <c r="E51" s="151" t="s">
-        <v>443</v>
-      </c>
-      <c r="F51" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G51" s="153">
-        <v>44635</v>
-      </c>
-      <c r="H51" s="154">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="150" t="s">
-        <v>445</v>
-      </c>
-      <c r="E52" s="151" t="s">
-        <v>446</v>
-      </c>
-      <c r="F52" s="152" t="s">
-        <v>267</v>
-      </c>
-      <c r="G52" s="153">
-        <v>44644</v>
-      </c>
-      <c r="H52" s="154">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="150" t="s">
-        <v>447</v>
-      </c>
-      <c r="E53" s="151" t="s">
-        <v>448</v>
-      </c>
-      <c r="F53" s="152" t="s">
-        <v>449</v>
-      </c>
-      <c r="G53" s="153">
-        <v>44732</v>
-      </c>
-      <c r="H53" s="154">
-        <v>44637</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="120"/>
-    </row>
-    <row r="55" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G54" s="149">
+        <v>44627</v>
+      </c>
+      <c r="H54" s="150">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="207" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="162"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="163"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="146" t="s">
+        <v>568</v>
+      </c>
+      <c r="E55" s="152" t="s">
+        <v>567</v>
+      </c>
+      <c r="F55" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G55" s="149">
+        <v>44760</v>
+      </c>
+      <c r="H55" s="150">
+        <v>44627</v>
+      </c>
     </row>
     <row r="56" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="207"/>
-      <c r="D56" s="157" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" s="158" t="s">
-        <v>235</v>
-      </c>
-      <c r="F56" s="159" t="s">
-        <v>232</v>
-      </c>
-      <c r="G56" s="160">
-        <v>44910</v>
-      </c>
-      <c r="H56" s="161">
-        <v>44910</v>
-      </c>
+      <c r="B56" s="111"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
     </row>
     <row r="57" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="157" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="158" t="s">
-        <v>236</v>
-      </c>
-      <c r="F57" s="159" t="s">
-        <v>232</v>
-      </c>
-      <c r="G57" s="160">
-        <v>44908</v>
-      </c>
-      <c r="H57" s="161">
-        <v>44908</v>
-      </c>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="116"/>
     </row>
     <row r="58" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="150" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" s="151" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G58" s="153">
-        <v>44908</v>
-      </c>
-      <c r="H58" s="154">
-        <v>44908</v>
-      </c>
+      <c r="B58" s="111"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="116"/>
     </row>
     <row r="59" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="150" t="s">
-        <v>415</v>
-      </c>
-      <c r="E59" s="156" t="s">
-        <v>416</v>
-      </c>
-      <c r="F59" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G59" s="153">
-        <v>44960</v>
-      </c>
-      <c r="H59" s="154">
-        <v>44960</v>
-      </c>
+      <c r="B59" s="111"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="116"/>
     </row>
     <row r="60" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="150" t="s">
-        <v>238</v>
-      </c>
-      <c r="E60" s="151" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G60" s="153">
-        <v>44887</v>
-      </c>
-      <c r="H60" s="154">
-        <v>44887</v>
-      </c>
+      <c r="B60" s="111"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="116"/>
     </row>
     <row r="61" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="150" t="s">
-        <v>240</v>
-      </c>
-      <c r="E61" s="151" t="s">
-        <v>241</v>
-      </c>
-      <c r="F61" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G61" s="153">
-        <v>44887</v>
-      </c>
-      <c r="H61" s="154">
-        <v>44887</v>
-      </c>
+      <c r="B61" s="111"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="116"/>
     </row>
     <row r="62" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="150" t="s">
-        <v>417</v>
-      </c>
-      <c r="E62" s="156" t="s">
-        <v>420</v>
-      </c>
-      <c r="F62" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G62" s="153">
-        <v>44959</v>
-      </c>
-      <c r="H62" s="154">
-        <v>44959</v>
-      </c>
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="116"/>
     </row>
     <row r="63" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="150" t="s">
-        <v>418</v>
-      </c>
-      <c r="E63" s="151" t="s">
-        <v>421</v>
-      </c>
-      <c r="F63" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G63" s="153">
-        <v>44960</v>
-      </c>
-      <c r="H63" s="154">
-        <v>44960</v>
-      </c>
+      <c r="B63" s="111"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="116"/>
     </row>
     <row r="64" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="116"/>
-      <c r="D64" s="150" t="s">
-        <v>419</v>
-      </c>
-      <c r="E64" s="151" t="s">
-        <v>422</v>
-      </c>
-      <c r="F64" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G64" s="153">
-        <v>44960</v>
-      </c>
-      <c r="H64" s="154">
-        <v>44960</v>
-      </c>
+      <c r="B64" s="111"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="116"/>
     </row>
     <row r="65" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="150" t="s">
-        <v>242</v>
-      </c>
-      <c r="E65" s="151" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G65" s="153">
-        <v>44774</v>
-      </c>
-      <c r="H65" s="154">
-        <v>44774</v>
-      </c>
+      <c r="B65" s="111"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
     </row>
     <row r="66" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="116"/>
-      <c r="D66" s="150" t="s">
-        <v>305</v>
-      </c>
-      <c r="E66" s="151" t="s">
-        <v>306</v>
-      </c>
-      <c r="F66" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G66" s="153">
-        <v>44897</v>
-      </c>
-      <c r="H66" s="154">
-        <v>44897</v>
-      </c>
+      <c r="B66" s="111"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="116"/>
     </row>
     <row r="67" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="116"/>
-      <c r="D67" s="150" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" s="151" t="s">
-        <v>245</v>
-      </c>
-      <c r="F67" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67" s="153">
-        <v>44897</v>
-      </c>
-      <c r="H67" s="154">
-        <v>44897</v>
-      </c>
+      <c r="B67" s="111"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="115"/>
+      <c r="H67" s="116"/>
     </row>
     <row r="68" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="150" t="s">
-        <v>246</v>
-      </c>
-      <c r="E68" s="151" t="s">
-        <v>247</v>
-      </c>
-      <c r="F68" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G68" s="153">
-        <v>44897</v>
-      </c>
-      <c r="H68" s="154">
-        <v>44897</v>
-      </c>
+      <c r="B68" s="111"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="116"/>
     </row>
     <row r="69" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="116"/>
-      <c r="D69" s="150" t="s">
-        <v>248</v>
-      </c>
-      <c r="E69" s="151" t="s">
-        <v>249</v>
-      </c>
-      <c r="F69" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G69" s="153">
-        <v>44748</v>
-      </c>
-      <c r="H69" s="154">
-        <v>44748</v>
-      </c>
+      <c r="B69" s="111"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="116"/>
     </row>
     <row r="70" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="150" t="s">
-        <v>250</v>
-      </c>
-      <c r="E70" s="151" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G70" s="153">
-        <v>44735</v>
-      </c>
-      <c r="H70" s="154">
-        <v>44735</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="111"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="116"/>
+    </row>
+    <row r="71" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="150" t="s">
-        <v>252</v>
-      </c>
-      <c r="E71" s="151" t="s">
-        <v>253</v>
-      </c>
-      <c r="F71" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G71" s="153">
-        <v>44854</v>
-      </c>
-      <c r="H71" s="154">
-        <v>44854</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="111"/>
+      <c r="C71" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="158"/>
+      <c r="E71" s="158"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="158"/>
+      <c r="H71" s="159"/>
+    </row>
+    <row r="72" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="150" t="s">
-        <v>254</v>
-      </c>
-      <c r="E72" s="151" t="s">
-        <v>259</v>
-      </c>
-      <c r="F72" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G72" s="153">
-        <v>44770</v>
-      </c>
-      <c r="H72" s="154">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="111"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="153" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" s="160" t="s">
+        <v>426</v>
+      </c>
+      <c r="F72" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="G72" s="156">
+        <v>44743</v>
+      </c>
+      <c r="H72" s="157">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="150" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" s="151" t="s">
-        <v>260</v>
-      </c>
-      <c r="F73" s="152" t="s">
-        <v>256</v>
-      </c>
-      <c r="G73" s="153">
-        <v>44770</v>
-      </c>
-      <c r="H73" s="154">
-        <v>44427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="111"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="E73" s="152" t="s">
+        <v>428</v>
+      </c>
+      <c r="F73" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G73" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H73" s="150">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="150" t="s">
-        <v>257</v>
-      </c>
-      <c r="E74" s="151" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G74" s="153">
-        <v>44770</v>
-      </c>
-      <c r="H74" s="154">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="111"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="E74" s="152" t="s">
+        <v>430</v>
+      </c>
+      <c r="F74" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G74" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H74" s="150">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="150" t="s">
-        <v>258</v>
-      </c>
-      <c r="E75" s="151" t="s">
-        <v>262</v>
-      </c>
-      <c r="F75" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G75" s="153">
-        <v>44770</v>
-      </c>
-      <c r="H75" s="154">
-        <v>44427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="111"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="E75" s="152" t="s">
+        <v>432</v>
+      </c>
+      <c r="F75" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H75" s="150">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="150" t="s">
-        <v>283</v>
-      </c>
-      <c r="E76" s="151" t="s">
-        <v>263</v>
-      </c>
-      <c r="F76" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G76" s="153">
-        <v>44777</v>
-      </c>
-      <c r="H76" s="154">
-        <v>44777</v>
-      </c>
+      <c r="B76" s="111"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="211"/>
+      <c r="E76" s="211"/>
+      <c r="F76" s="211"/>
+      <c r="G76" s="211"/>
+      <c r="H76" s="212"/>
     </row>
     <row r="77" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="150" t="s">
-        <v>303</v>
-      </c>
-      <c r="E77" s="151" t="s">
-        <v>304</v>
-      </c>
-      <c r="F77" s="152" t="s">
+      <c r="B77" s="111"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="146" t="s">
+        <v>433</v>
+      </c>
+      <c r="E77" s="147" t="s">
+        <v>434</v>
+      </c>
+      <c r="F77" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G77" s="153">
-        <v>44935</v>
-      </c>
-      <c r="H77" s="154">
-        <v>44935</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G77" s="149">
+        <v>44636</v>
+      </c>
+      <c r="H77" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="150" t="s">
-        <v>284</v>
-      </c>
-      <c r="E78" s="151" t="s">
-        <v>277</v>
-      </c>
-      <c r="F78" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G78" s="153">
-        <v>44931</v>
-      </c>
-      <c r="H78" s="154">
-        <v>44931</v>
-      </c>
+      <c r="B78" s="111"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="211"/>
+      <c r="E78" s="211"/>
+      <c r="F78" s="211"/>
+      <c r="G78" s="211"/>
+      <c r="H78" s="212"/>
     </row>
     <row r="79" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="150" t="s">
-        <v>264</v>
-      </c>
-      <c r="E79" s="151" t="s">
-        <v>265</v>
-      </c>
-      <c r="F79" s="152" t="s">
+      <c r="B79" s="111"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="146" t="s">
+        <v>435</v>
+      </c>
+      <c r="E79" s="147" t="s">
+        <v>436</v>
+      </c>
+      <c r="F79" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G79" s="153">
-        <v>44847</v>
-      </c>
-      <c r="H79" s="154">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G79" s="149">
+        <v>44636</v>
+      </c>
+      <c r="H79" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="150" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="151" t="s">
-        <v>268</v>
-      </c>
-      <c r="F80" s="152" t="s">
-        <v>267</v>
-      </c>
-      <c r="G80" s="153">
-        <v>44792</v>
-      </c>
-      <c r="H80" s="154">
-        <v>44770</v>
-      </c>
+      <c r="B80" s="111"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="211"/>
+      <c r="E80" s="211"/>
+      <c r="F80" s="211"/>
+      <c r="G80" s="211"/>
+      <c r="H80" s="212"/>
     </row>
     <row r="81" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="115"/>
-      <c r="C81" s="116"/>
-      <c r="D81" s="150" t="s">
-        <v>269</v>
-      </c>
-      <c r="E81" s="151" t="s">
-        <v>270</v>
-      </c>
-      <c r="F81" s="152" t="s">
+      <c r="B81" s="111"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="146" t="s">
+        <v>437</v>
+      </c>
+      <c r="E81" s="152" t="s">
+        <v>438</v>
+      </c>
+      <c r="F81" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G81" s="153">
-        <v>44776</v>
-      </c>
-      <c r="H81" s="154">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G81" s="149">
+        <v>44825</v>
+      </c>
+      <c r="H81" s="150">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="150" t="s">
-        <v>302</v>
-      </c>
-      <c r="E82" s="151" t="s">
-        <v>271</v>
-      </c>
-      <c r="F82" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G82" s="153">
-        <v>44777</v>
-      </c>
-      <c r="H82" s="154">
-        <v>44777</v>
-      </c>
+      <c r="B82" s="111"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="211"/>
+      <c r="E82" s="211"/>
+      <c r="F82" s="211"/>
+      <c r="G82" s="211"/>
+      <c r="H82" s="212"/>
     </row>
     <row r="83" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="150" t="s">
-        <v>272</v>
-      </c>
-      <c r="E83" s="151" t="s">
-        <v>273</v>
-      </c>
-      <c r="F83" s="152" t="s">
+      <c r="B83" s="111"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="146" t="s">
+        <v>439</v>
+      </c>
+      <c r="E83" s="147" t="s">
+        <v>440</v>
+      </c>
+      <c r="F83" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G83" s="149">
+        <v>44742</v>
+      </c>
+      <c r="H83" s="150">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="211"/>
+      <c r="E84" s="211"/>
+      <c r="F84" s="211"/>
+      <c r="G84" s="211"/>
+      <c r="H84" s="212"/>
+    </row>
+    <row r="85" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="146" t="s">
+        <v>441</v>
+      </c>
+      <c r="E85" s="147" t="s">
+        <v>442</v>
+      </c>
+      <c r="F85" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G83" s="153">
-        <v>44770</v>
-      </c>
-      <c r="H83" s="154">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="115"/>
-      <c r="C84" s="116"/>
-      <c r="D84" s="150" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="156" t="s">
-        <v>296</v>
-      </c>
-      <c r="F84" s="152" t="s">
+      <c r="G85" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H85" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="146" t="s">
+        <v>444</v>
+      </c>
+      <c r="E86" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="F86" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G84" s="153">
-        <v>44937</v>
-      </c>
-      <c r="H84" s="154">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="115"/>
-      <c r="C85" s="116"/>
-      <c r="D85" s="150" t="s">
-        <v>293</v>
-      </c>
-      <c r="E85" s="156" t="s">
-        <v>295</v>
-      </c>
-      <c r="F85" s="152" t="s">
+      <c r="G86" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H86" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="146" t="s">
+        <v>445</v>
+      </c>
+      <c r="E87" s="147" t="s">
+        <v>446</v>
+      </c>
+      <c r="F87" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G87" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H87" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="111"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="146" t="s">
+        <v>447</v>
+      </c>
+      <c r="E88" s="147" t="s">
+        <v>448</v>
+      </c>
+      <c r="F88" s="148" t="s">
+        <v>449</v>
+      </c>
+      <c r="G88" s="149">
+        <v>44732</v>
+      </c>
+      <c r="H88" s="150">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="112"/>
+      <c r="E89" s="113"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="115"/>
+      <c r="H89" s="116"/>
+    </row>
+    <row r="90" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" s="158"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="158"/>
+      <c r="H90" s="159"/>
+    </row>
+    <row r="91" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="163"/>
+      <c r="D91" s="153" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="G85" s="153">
-        <v>44937</v>
-      </c>
-      <c r="H85" s="154">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="150" t="s">
-        <v>291</v>
-      </c>
-      <c r="E86" s="156" t="s">
-        <v>297</v>
-      </c>
-      <c r="F86" s="152" t="s">
+      <c r="G91" s="156">
+        <v>44910</v>
+      </c>
+      <c r="H91" s="157">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="111"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="153" t="s">
+        <v>233</v>
+      </c>
+      <c r="E92" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="F92" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="G86" s="153">
-        <v>44937</v>
-      </c>
-      <c r="H86" s="154">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="115"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="150" t="s">
-        <v>307</v>
-      </c>
-      <c r="E87" s="156" t="s">
-        <v>308</v>
-      </c>
-      <c r="F87" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G87" s="153">
-        <v>44949</v>
-      </c>
-      <c r="H87" s="154">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="115"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="150" t="s">
-        <v>292</v>
-      </c>
-      <c r="E88" s="156" t="s">
-        <v>298</v>
-      </c>
-      <c r="F88" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G88" s="153">
-        <v>44937</v>
-      </c>
-      <c r="H88" s="154">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="115"/>
-      <c r="C89" s="116"/>
-      <c r="D89" s="150" t="s">
-        <v>290</v>
-      </c>
-      <c r="E89" s="156" t="s">
-        <v>299</v>
-      </c>
-      <c r="F89" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G89" s="153">
-        <v>44937</v>
-      </c>
-      <c r="H89" s="154">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="116"/>
-      <c r="D90" s="150" t="s">
-        <v>289</v>
-      </c>
-      <c r="E90" s="156" t="s">
-        <v>300</v>
-      </c>
-      <c r="F90" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G90" s="153">
-        <v>44937</v>
-      </c>
-      <c r="H90" s="154">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="115"/>
-      <c r="C91" s="116"/>
-      <c r="D91" s="150" t="s">
-        <v>288</v>
-      </c>
-      <c r="E91" s="156" t="s">
-        <v>301</v>
-      </c>
-      <c r="F91" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G91" s="153">
-        <v>44937</v>
-      </c>
-      <c r="H91" s="154">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="116"/>
-      <c r="D92" s="116" t="s">
-        <v>423</v>
-      </c>
-      <c r="E92" s="121" t="s">
-        <v>424</v>
-      </c>
-      <c r="F92" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="G92" s="119">
-        <v>44959</v>
-      </c>
-      <c r="H92" s="120">
-        <v>44959</v>
+      <c r="G92" s="156">
+        <v>44908</v>
+      </c>
+      <c r="H92" s="157">
+        <v>44908</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="115"/>
-      <c r="C93" s="207" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" s="162"/>
-      <c r="E93" s="162"/>
-      <c r="F93" s="162"/>
-      <c r="G93" s="162"/>
-      <c r="H93" s="163"/>
-    </row>
-    <row r="94" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="111"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" s="147" t="s">
+        <v>237</v>
+      </c>
+      <c r="F93" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G93" s="149">
+        <v>44908</v>
+      </c>
+      <c r="H93" s="150">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="115"/>
-      <c r="C94" s="207"/>
-      <c r="D94" s="157" t="s">
-        <v>274</v>
-      </c>
-      <c r="E94" s="158" t="s">
-        <v>275</v>
-      </c>
-      <c r="F94" s="159" t="s">
-        <v>232</v>
-      </c>
-      <c r="G94" s="160">
-        <v>44167</v>
-      </c>
-      <c r="H94" s="161">
-        <v>44167</v>
-      </c>
+      <c r="B94" s="111"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="211"/>
+      <c r="E94" s="211"/>
+      <c r="F94" s="211"/>
+      <c r="G94" s="211"/>
+      <c r="H94" s="212"/>
     </row>
     <row r="95" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="115"/>
-      <c r="C95" s="116"/>
-      <c r="D95" s="155" t="s">
-        <v>276</v>
-      </c>
-      <c r="E95" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="F95" s="152" t="s">
+      <c r="B95" s="111"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="146" t="s">
+        <v>415</v>
+      </c>
+      <c r="E95" s="152" t="s">
+        <v>416</v>
+      </c>
+      <c r="F95" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G95" s="153">
-        <v>44167</v>
-      </c>
-      <c r="H95" s="154">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G95" s="149">
+        <v>44960</v>
+      </c>
+      <c r="H95" s="150">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="115"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="150" t="s">
-        <v>278</v>
-      </c>
-      <c r="E96" s="151" t="s">
-        <v>279</v>
-      </c>
-      <c r="F96" s="152" t="s">
-        <v>232</v>
-      </c>
-      <c r="G96" s="153">
-        <v>43185</v>
-      </c>
-      <c r="H96" s="154">
-        <v>43185</v>
-      </c>
+      <c r="B96" s="111"/>
+      <c r="C96" s="112"/>
+      <c r="D96" s="211"/>
+      <c r="E96" s="211"/>
+      <c r="F96" s="211"/>
+      <c r="G96" s="211"/>
+      <c r="H96" s="212"/>
     </row>
     <row r="97" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="115"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="150" t="s">
-        <v>280</v>
-      </c>
-      <c r="E97" s="151" t="s">
-        <v>282</v>
-      </c>
-      <c r="F97" s="152" t="s">
-        <v>281</v>
-      </c>
-      <c r="G97" s="153">
-        <v>44216</v>
-      </c>
-      <c r="H97" s="154">
-        <v>44216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B97" s="111"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="E97" s="147" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G97" s="149">
+        <v>44887</v>
+      </c>
+      <c r="H97" s="150">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="116"/>
-      <c r="D98" s="150" t="s">
-        <v>401</v>
-      </c>
-      <c r="E98" s="156" t="s">
-        <v>403</v>
-      </c>
-      <c r="F98" s="152" t="s">
+      <c r="B98" s="111"/>
+      <c r="C98" s="112"/>
+      <c r="D98" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" s="147" t="s">
+        <v>241</v>
+      </c>
+      <c r="F98" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G98" s="153">
-        <v>43720</v>
-      </c>
-      <c r="H98" s="154">
-        <v>43720</v>
+      <c r="G98" s="149">
+        <v>44887</v>
+      </c>
+      <c r="H98" s="150">
+        <v>44887</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="115"/>
-      <c r="C99" s="116"/>
-      <c r="D99" s="150" t="s">
-        <v>402</v>
-      </c>
-      <c r="E99" s="156" t="s">
-        <v>404</v>
-      </c>
-      <c r="F99" s="152" t="s">
+      <c r="B99" s="111"/>
+      <c r="C99" s="112"/>
+      <c r="D99" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="E99" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="F99" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G99" s="153">
-        <v>43785</v>
-      </c>
-      <c r="H99" s="154">
-        <v>43785</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G99" s="149">
+        <v>44959</v>
+      </c>
+      <c r="H99" s="150">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="116"/>
-      <c r="D100" s="150" t="s">
-        <v>405</v>
-      </c>
-      <c r="E100" s="156" t="s">
-        <v>406</v>
-      </c>
-      <c r="F100" s="152" t="s">
+      <c r="B100" s="111"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="146" t="s">
+        <v>418</v>
+      </c>
+      <c r="E100" s="147" t="s">
+        <v>421</v>
+      </c>
+      <c r="F100" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G100" s="153">
-        <v>43208</v>
-      </c>
-      <c r="H100" s="154">
-        <v>43208</v>
+      <c r="G100" s="149">
+        <v>44960</v>
+      </c>
+      <c r="H100" s="150">
+        <v>44960</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="115"/>
-      <c r="C101" s="116"/>
-      <c r="D101" s="150" t="s">
-        <v>407</v>
-      </c>
-      <c r="E101" s="156" t="s">
-        <v>408</v>
-      </c>
-      <c r="F101" s="152" t="s">
+      <c r="B101" s="111"/>
+      <c r="C101" s="112"/>
+      <c r="D101" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E101" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="F101" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G101" s="153">
-        <v>43181</v>
-      </c>
-      <c r="H101" s="154">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G101" s="149">
+        <v>44960</v>
+      </c>
+      <c r="H101" s="150">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="115"/>
-      <c r="C102" s="116"/>
-      <c r="D102" s="150" t="s">
-        <v>409</v>
-      </c>
-      <c r="E102" s="156" t="s">
-        <v>410</v>
-      </c>
-      <c r="F102" s="152" t="s">
-        <v>281</v>
-      </c>
-      <c r="G102" s="153">
-        <v>44958</v>
-      </c>
-      <c r="H102" s="154">
-        <v>43181</v>
-      </c>
+      <c r="B102" s="111"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="211"/>
+      <c r="E102" s="211"/>
+      <c r="F102" s="211"/>
+      <c r="G102" s="211"/>
+      <c r="H102" s="212"/>
     </row>
     <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="115"/>
-      <c r="C103" s="116"/>
-      <c r="D103" s="150" t="s">
-        <v>411</v>
-      </c>
-      <c r="E103" s="156" t="s">
-        <v>412</v>
-      </c>
-      <c r="F103" s="152" t="s">
-        <v>281</v>
-      </c>
-      <c r="G103" s="153">
-        <v>44958</v>
-      </c>
-      <c r="H103" s="154">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B103" s="111"/>
+      <c r="C103" s="112"/>
+      <c r="D103" s="146" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="147" t="s">
+        <v>243</v>
+      </c>
+      <c r="F103" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G103" s="149">
+        <v>44774</v>
+      </c>
+      <c r="H103" s="150">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="116"/>
-      <c r="D104" s="150" t="s">
-        <v>413</v>
-      </c>
-      <c r="E104" s="156" t="s">
-        <v>414</v>
-      </c>
-      <c r="F104" s="152" t="s">
-        <v>281</v>
-      </c>
-      <c r="G104" s="153">
-        <v>44958</v>
-      </c>
-      <c r="H104" s="154">
-        <v>43922</v>
-      </c>
+      <c r="B104" s="111"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="211"/>
+      <c r="E104" s="211"/>
+      <c r="F104" s="211"/>
+      <c r="G104" s="211"/>
+      <c r="H104" s="212"/>
     </row>
     <row r="105" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="115"/>
-      <c r="C105" s="116"/>
-      <c r="D105" s="116"/>
-      <c r="E105" s="121"/>
-      <c r="F105" s="118"/>
-      <c r="G105" s="119"/>
-      <c r="H105" s="120"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="112"/>
+      <c r="D105" s="146" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" s="147" t="s">
+        <v>306</v>
+      </c>
+      <c r="F105" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G105" s="149">
+        <v>44897</v>
+      </c>
+      <c r="H105" s="150">
+        <v>44897</v>
+      </c>
     </row>
     <row r="106" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="116"/>
-      <c r="D106" s="116"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="118"/>
-      <c r="G106" s="119"/>
-      <c r="H106" s="120"/>
+      <c r="B106" s="111"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="146" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="147" t="s">
+        <v>245</v>
+      </c>
+      <c r="F106" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G106" s="149">
+        <v>44897</v>
+      </c>
+      <c r="H106" s="150">
+        <v>44897</v>
+      </c>
     </row>
     <row r="107" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="115"/>
-      <c r="C107" s="116"/>
-      <c r="D107" s="116"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="118"/>
-      <c r="G107" s="119"/>
-      <c r="H107" s="120"/>
-    </row>
-    <row r="108" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B107" s="111"/>
+      <c r="C107" s="112"/>
+      <c r="D107" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="F107" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G107" s="149">
+        <v>44897</v>
+      </c>
+      <c r="H107" s="150">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="115"/>
-      <c r="C108" s="116"/>
-      <c r="D108" s="116"/>
-      <c r="E108" s="121"/>
-      <c r="F108" s="118"/>
-      <c r="G108" s="119"/>
-      <c r="H108" s="120"/>
+      <c r="B108" s="111"/>
+      <c r="C108" s="112"/>
+      <c r="D108" s="211"/>
+      <c r="E108" s="211"/>
+      <c r="F108" s="211"/>
+      <c r="G108" s="211"/>
+      <c r="H108" s="212"/>
     </row>
     <row r="109" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="116"/>
-      <c r="D109" s="116"/>
-      <c r="E109" s="121"/>
-      <c r="F109" s="118"/>
-      <c r="G109" s="119"/>
-      <c r="H109" s="120"/>
+      <c r="B109" s="111"/>
+      <c r="C109" s="112"/>
+      <c r="D109" s="146" t="s">
+        <v>248</v>
+      </c>
+      <c r="E109" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="F109" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G109" s="149">
+        <v>44748</v>
+      </c>
+      <c r="H109" s="150">
+        <v>44748</v>
+      </c>
     </row>
     <row r="110" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="115"/>
-      <c r="C110" s="116"/>
-      <c r="D110" s="116"/>
-      <c r="E110" s="117"/>
-      <c r="F110" s="118"/>
-      <c r="G110" s="119"/>
-      <c r="H110" s="120"/>
-    </row>
-    <row r="111" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="111"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="E110" s="147" t="s">
+        <v>251</v>
+      </c>
+      <c r="F110" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G110" s="149">
+        <v>44735</v>
+      </c>
+      <c r="H110" s="150">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="115"/>
-      <c r="C111" s="116"/>
-      <c r="D111" s="116" t="s">
-        <v>286</v>
-      </c>
-      <c r="E111" s="117" t="s">
-        <v>287</v>
-      </c>
-      <c r="F111" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="G111" s="119">
-        <v>44949</v>
-      </c>
-      <c r="H111" s="120">
-        <v>44949</v>
-      </c>
+      <c r="B111" s="111"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="211"/>
+      <c r="E111" s="211"/>
+      <c r="F111" s="211"/>
+      <c r="G111" s="211"/>
+      <c r="H111" s="212"/>
     </row>
     <row r="112" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112" s="115"/>
-      <c r="C112" s="116"/>
-      <c r="D112" s="116"/>
-      <c r="E112" s="117"/>
-      <c r="F112" s="118"/>
-      <c r="G112" s="119"/>
-      <c r="H112" s="120"/>
-    </row>
-    <row r="113" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B112" s="111"/>
+      <c r="C112" s="112"/>
+      <c r="D112" s="146" t="s">
+        <v>252</v>
+      </c>
+      <c r="E112" s="147" t="s">
+        <v>253</v>
+      </c>
+      <c r="F112" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G112" s="149">
+        <v>44854</v>
+      </c>
+      <c r="H112" s="150">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
-      <c r="B113" s="115"/>
-      <c r="C113" s="116"/>
-      <c r="D113" s="116"/>
-      <c r="E113" s="117"/>
-      <c r="F113" s="118"/>
-      <c r="G113" s="119"/>
-      <c r="H113" s="120"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="112"/>
+      <c r="D113" s="211"/>
+      <c r="E113" s="211"/>
+      <c r="F113" s="211"/>
+      <c r="G113" s="211"/>
+      <c r="H113" s="212"/>
     </row>
     <row r="114" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114" s="115"/>
-      <c r="C114" s="116"/>
-      <c r="D114" s="116"/>
-      <c r="E114" s="117"/>
-      <c r="F114" s="118"/>
-      <c r="G114" s="119"/>
-      <c r="H114" s="120"/>
+      <c r="B114" s="111"/>
+      <c r="C114" s="112"/>
+      <c r="D114" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" s="147" t="s">
+        <v>259</v>
+      </c>
+      <c r="F114" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G114" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H114" s="150">
+        <v>44770</v>
+      </c>
     </row>
     <row r="115" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
-      <c r="B115" s="115"/>
-      <c r="C115" s="116"/>
-      <c r="D115" s="116"/>
-      <c r="E115" s="121"/>
-      <c r="F115" s="118"/>
-      <c r="G115" s="119"/>
-      <c r="H115" s="120"/>
+      <c r="B115" s="111"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="E115" s="147" t="s">
+        <v>260</v>
+      </c>
+      <c r="F115" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G115" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H115" s="150">
+        <v>44427</v>
+      </c>
     </row>
     <row r="116" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
-      <c r="B116" s="115"/>
-      <c r="C116" s="116"/>
-      <c r="D116" s="116"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="118"/>
-      <c r="G116" s="119"/>
-      <c r="H116" s="120"/>
-    </row>
-    <row r="117" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B116" s="111"/>
+      <c r="C116" s="112"/>
+      <c r="D116" s="146" t="s">
+        <v>257</v>
+      </c>
+      <c r="E116" s="147" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G116" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H116" s="150">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
-      <c r="B117" s="115"/>
-      <c r="C117" s="116" t="s">
-        <v>336</v>
-      </c>
-      <c r="D117" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="E117" s="121" t="s">
-        <v>327</v>
-      </c>
-      <c r="F117" s="118" t="s">
+      <c r="B117" s="111"/>
+      <c r="C117" s="112"/>
+      <c r="D117" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" s="147" t="s">
+        <v>262</v>
+      </c>
+      <c r="F117" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G117" s="119">
-        <v>44902</v>
-      </c>
-      <c r="H117" s="120">
-        <v>44902</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G117" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H117" s="150">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
-      <c r="B118" s="115"/>
-      <c r="C118" s="116"/>
-      <c r="D118" s="116" t="s">
-        <v>332</v>
-      </c>
-      <c r="E118" s="121" t="s">
-        <v>333</v>
-      </c>
-      <c r="F118" s="118" t="s">
+      <c r="B118" s="111"/>
+      <c r="C118" s="112"/>
+      <c r="D118" s="211"/>
+      <c r="E118" s="211"/>
+      <c r="F118" s="211"/>
+      <c r="G118" s="211"/>
+      <c r="H118" s="212"/>
+    </row>
+    <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="111"/>
+      <c r="C119" s="112"/>
+      <c r="D119" s="146" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" s="147" t="s">
+        <v>263</v>
+      </c>
+      <c r="F119" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G118" s="119">
-        <v>44897</v>
-      </c>
-      <c r="H118" s="120">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="115"/>
-      <c r="C119" s="116"/>
-      <c r="D119" s="116" t="s">
-        <v>323</v>
-      </c>
-      <c r="E119" s="121" t="s">
-        <v>324</v>
-      </c>
-      <c r="F119" s="118" t="s">
+      <c r="G119" s="149">
+        <v>44777</v>
+      </c>
+      <c r="H119" s="150">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="111"/>
+      <c r="C120" s="112"/>
+      <c r="D120" s="146" t="s">
+        <v>303</v>
+      </c>
+      <c r="E120" s="147" t="s">
+        <v>304</v>
+      </c>
+      <c r="F120" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G119" s="119">
-        <v>44951</v>
-      </c>
-      <c r="H119" s="120">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="115"/>
-      <c r="C120" s="116"/>
-      <c r="D120" s="116" t="s">
-        <v>338</v>
-      </c>
-      <c r="E120" s="121" t="s">
-        <v>337</v>
-      </c>
-      <c r="F120" s="118" t="s">
+      <c r="G120" s="149">
+        <v>44935</v>
+      </c>
+      <c r="H120" s="150">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="111"/>
+      <c r="C121" s="112"/>
+      <c r="D121" s="146" t="s">
+        <v>284</v>
+      </c>
+      <c r="E121" s="147" t="s">
+        <v>277</v>
+      </c>
+      <c r="F121" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G120" s="119">
-        <v>44951</v>
-      </c>
-      <c r="H120" s="120">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="115"/>
-      <c r="C121" s="116"/>
-      <c r="D121" s="116" t="s">
-        <v>321</v>
-      </c>
-      <c r="E121" s="121" t="s">
-        <v>325</v>
-      </c>
-      <c r="F121" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="G121" s="119">
-        <v>44900</v>
-      </c>
-      <c r="H121" s="120">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G121" s="149">
+        <v>44931</v>
+      </c>
+      <c r="H121" s="150">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
-      <c r="B122" s="115"/>
-      <c r="C122" s="116"/>
-      <c r="D122" s="116" t="s">
-        <v>328</v>
-      </c>
-      <c r="E122" s="117" t="s">
-        <v>329</v>
-      </c>
-      <c r="F122" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="G122" s="119">
-        <v>44896</v>
-      </c>
-      <c r="H122" s="120">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B122" s="111"/>
+      <c r="C122" s="112"/>
+      <c r="D122" s="211"/>
+      <c r="E122" s="211"/>
+      <c r="F122" s="211"/>
+      <c r="G122" s="211"/>
+      <c r="H122" s="212"/>
+    </row>
+    <row r="123" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
-      <c r="B123" s="115"/>
-      <c r="C123" s="116"/>
-      <c r="D123" s="116" t="s">
-        <v>322</v>
-      </c>
-      <c r="E123" s="121" t="s">
-        <v>339</v>
-      </c>
-      <c r="F123" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="G123" s="119">
-        <v>44945</v>
-      </c>
-      <c r="H123" s="120">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B123" s="111"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="E123" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="F123" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G123" s="149">
+        <v>44847</v>
+      </c>
+      <c r="H123" s="150">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
-      <c r="B124" s="115"/>
-      <c r="C124" s="116"/>
-      <c r="D124" s="116" t="s">
-        <v>334</v>
-      </c>
-      <c r="E124" s="121" t="s">
-        <v>335</v>
-      </c>
-      <c r="F124" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="G124" s="119">
-        <v>44910</v>
-      </c>
-      <c r="H124" s="120">
-        <v>44910</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B124" s="111"/>
+      <c r="C124" s="112"/>
+      <c r="D124" s="211"/>
+      <c r="E124" s="211"/>
+      <c r="F124" s="211"/>
+      <c r="G124" s="211"/>
+      <c r="H124" s="212"/>
+    </row>
+    <row r="125" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
-      <c r="B125" s="115"/>
-      <c r="C125" s="116"/>
-      <c r="D125" s="116" t="s">
-        <v>340</v>
-      </c>
-      <c r="E125" s="121" t="s">
-        <v>341</v>
-      </c>
-      <c r="F125" s="118" t="s">
+      <c r="B125" s="111"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="146" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="F125" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G125" s="149">
+        <v>44792</v>
+      </c>
+      <c r="H125" s="150">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="112"/>
+      <c r="D126" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="E126" s="147" t="s">
+        <v>270</v>
+      </c>
+      <c r="F126" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G125" s="119">
-        <v>44951</v>
-      </c>
-      <c r="H125" s="120">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="115"/>
-      <c r="C126" s="116"/>
-      <c r="D126" s="116" t="s">
-        <v>342</v>
-      </c>
-      <c r="E126" s="121" t="s">
-        <v>343</v>
-      </c>
-      <c r="F126" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="G126" s="119">
-        <v>44952</v>
-      </c>
-      <c r="H126" s="120">
-        <v>44952</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G126" s="149">
+        <v>44776</v>
+      </c>
+      <c r="H126" s="150">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
-      <c r="B127" s="115"/>
-      <c r="C127" s="116"/>
-      <c r="D127" s="116"/>
-      <c r="E127" s="117"/>
-      <c r="F127" s="118"/>
-      <c r="G127" s="119"/>
-      <c r="H127" s="120"/>
+      <c r="B127" s="111"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="211"/>
+      <c r="E127" s="211"/>
+      <c r="F127" s="211"/>
+      <c r="G127" s="211"/>
+      <c r="H127" s="212"/>
     </row>
     <row r="128" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
-      <c r="B128" s="115"/>
-      <c r="C128" s="116"/>
-      <c r="D128" s="116"/>
-      <c r="E128" s="117"/>
-      <c r="F128" s="118"/>
-      <c r="G128" s="119"/>
-      <c r="H128" s="120"/>
-    </row>
-    <row r="129" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B128" s="111"/>
+      <c r="C128" s="112"/>
+      <c r="D128" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="E128" s="147" t="s">
+        <v>271</v>
+      </c>
+      <c r="F128" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G128" s="149">
+        <v>44777</v>
+      </c>
+      <c r="H128" s="150">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
-      <c r="B129" s="115"/>
-      <c r="C129" s="116"/>
-      <c r="D129" s="116"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="118"/>
-      <c r="G129" s="119"/>
-      <c r="H129" s="120"/>
-    </row>
-    <row r="130" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B129" s="111"/>
+      <c r="C129" s="112"/>
+      <c r="D129" s="211"/>
+      <c r="E129" s="211"/>
+      <c r="F129" s="211"/>
+      <c r="G129" s="211"/>
+      <c r="H129" s="212"/>
+    </row>
+    <row r="130" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-      <c r="B130" s="115"/>
-      <c r="C130" s="116"/>
-      <c r="D130" s="116" t="s">
-        <v>394</v>
-      </c>
-      <c r="E130" s="121" t="s">
-        <v>395</v>
-      </c>
-      <c r="F130" s="118" t="s">
-        <v>267</v>
-      </c>
-      <c r="G130" s="119">
-        <v>44957</v>
-      </c>
-      <c r="H130" s="120">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B130" s="111"/>
+      <c r="C130" s="112"/>
+      <c r="D130" s="146" t="s">
+        <v>272</v>
+      </c>
+      <c r="E130" s="147" t="s">
+        <v>273</v>
+      </c>
+      <c r="F130" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G130" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H130" s="150">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-      <c r="B131" s="115"/>
-      <c r="C131" s="116"/>
-      <c r="D131" s="116" t="s">
-        <v>393</v>
-      </c>
-      <c r="E131" s="121" t="s">
-        <v>396</v>
-      </c>
-      <c r="F131" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="G131" s="119">
-        <v>44281</v>
-      </c>
-      <c r="H131" s="120">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B131" s="111"/>
+      <c r="C131" s="112"/>
+      <c r="D131" s="211"/>
+      <c r="E131" s="211"/>
+      <c r="F131" s="211"/>
+      <c r="G131" s="211"/>
+      <c r="H131" s="212"/>
+    </row>
+    <row r="132" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-      <c r="B132" s="115"/>
-      <c r="C132" s="116"/>
-      <c r="D132" s="116" t="s">
-        <v>397</v>
-      </c>
-      <c r="E132" s="121" t="s">
-        <v>398</v>
-      </c>
-      <c r="F132" s="118" t="s">
+      <c r="B132" s="111"/>
+      <c r="C132" s="112"/>
+      <c r="D132" s="146" t="s">
+        <v>294</v>
+      </c>
+      <c r="E132" s="152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F132" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G132" s="119">
-        <v>43257</v>
-      </c>
-      <c r="H132" s="120">
-        <v>43257</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G132" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H132" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-      <c r="B133" s="115"/>
-      <c r="C133" s="116"/>
-      <c r="D133" s="116" t="s">
-        <v>286</v>
-      </c>
-      <c r="E133" s="121" t="s">
-        <v>399</v>
-      </c>
-      <c r="F133" s="118" t="s">
+      <c r="B133" s="111"/>
+      <c r="C133" s="112"/>
+      <c r="D133" s="146" t="s">
+        <v>293</v>
+      </c>
+      <c r="E133" s="152" t="s">
+        <v>295</v>
+      </c>
+      <c r="F133" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G133" s="119">
+      <c r="G133" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H133" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="111"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="146" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134" s="152" t="s">
+        <v>297</v>
+      </c>
+      <c r="F134" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G134" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H134" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="111"/>
+      <c r="C135" s="112"/>
+      <c r="D135" s="146" t="s">
+        <v>307</v>
+      </c>
+      <c r="E135" s="152" t="s">
+        <v>308</v>
+      </c>
+      <c r="F135" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G135" s="149">
         <v>44949</v>
       </c>
-      <c r="H133" s="120">
+      <c r="H135" s="150">
         <v>44949</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="115"/>
-      <c r="C134" s="116"/>
-      <c r="D134" s="116"/>
-      <c r="E134" s="121"/>
-      <c r="F134" s="118"/>
-      <c r="G134" s="119"/>
-      <c r="H134" s="120"/>
-    </row>
-    <row r="135" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="115"/>
-      <c r="C135" s="116"/>
-      <c r="D135" s="116" t="s">
-        <v>392</v>
-      </c>
-      <c r="E135" s="121" t="s">
-        <v>400</v>
-      </c>
-      <c r="F135" s="118" t="s">
+    <row r="136" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="111"/>
+      <c r="C136" s="112"/>
+      <c r="D136" s="146" t="s">
+        <v>292</v>
+      </c>
+      <c r="E136" s="152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F136" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G135" s="119">
-        <v>44957</v>
-      </c>
-      <c r="H135" s="120">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="115"/>
-      <c r="C136" s="116"/>
-      <c r="D136" s="116"/>
-      <c r="E136" s="121"/>
-      <c r="F136" s="118"/>
-      <c r="G136" s="119"/>
-      <c r="H136" s="120"/>
-    </row>
-    <row r="137" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G136" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H136" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-      <c r="B137" s="115"/>
-      <c r="C137" s="116"/>
-      <c r="D137" s="116"/>
-      <c r="E137" s="117"/>
-      <c r="F137" s="118"/>
-      <c r="G137" s="119"/>
-      <c r="H137" s="120"/>
-    </row>
-    <row r="138" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B137" s="111"/>
+      <c r="C137" s="112"/>
+      <c r="D137" s="146" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" s="152" t="s">
+        <v>299</v>
+      </c>
+      <c r="F137" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G137" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H137" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-      <c r="B138" s="115"/>
-      <c r="C138" s="116"/>
-      <c r="D138" s="116" t="s">
-        <v>330</v>
-      </c>
-      <c r="E138" s="117" t="s">
-        <v>331</v>
-      </c>
-      <c r="F138" s="118" t="s">
+      <c r="B138" s="111"/>
+      <c r="C138" s="112"/>
+      <c r="D138" s="146" t="s">
+        <v>289</v>
+      </c>
+      <c r="E138" s="152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F138" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G138" s="119">
-        <v>44893</v>
-      </c>
-      <c r="H138" s="120">
-        <v>44893</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G138" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H138" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-      <c r="B139" s="115"/>
-      <c r="C139" s="116"/>
-      <c r="D139" s="116"/>
-      <c r="E139" s="117"/>
-      <c r="F139" s="118"/>
-      <c r="G139" s="119"/>
-      <c r="H139" s="120"/>
-    </row>
-    <row r="140" spans="1:8" s="204" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="203"/>
-      <c r="B140" s="206" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" s="162"/>
-      <c r="D140" s="162"/>
-      <c r="E140" s="162"/>
-      <c r="F140" s="162"/>
-      <c r="G140" s="162"/>
-      <c r="H140" s="163"/>
-    </row>
-    <row r="141" spans="1:8" s="204" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="203"/>
-      <c r="B141" s="206"/>
-      <c r="C141" s="207" t="s">
-        <v>160</v>
-      </c>
-      <c r="D141" s="162"/>
-      <c r="E141" s="162"/>
-      <c r="F141" s="162"/>
-      <c r="G141" s="162"/>
-      <c r="H141" s="163"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="112"/>
+      <c r="D139" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="E139" s="152" t="s">
+        <v>301</v>
+      </c>
+      <c r="F139" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G139" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H139" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="111"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="211"/>
+      <c r="E140" s="211"/>
+      <c r="F140" s="211"/>
+      <c r="G140" s="211"/>
+      <c r="H140" s="212"/>
+    </row>
+    <row r="141" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="112"/>
+      <c r="D141" s="112" t="s">
+        <v>423</v>
+      </c>
+      <c r="E141" s="117" t="s">
+        <v>424</v>
+      </c>
+      <c r="F141" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G141" s="115">
+        <v>44959</v>
+      </c>
+      <c r="H141" s="116">
+        <v>44959</v>
+      </c>
     </row>
     <row r="142" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-      <c r="B142" s="115"/>
-      <c r="C142" s="207"/>
-      <c r="D142" s="116"/>
-      <c r="E142" s="117"/>
-      <c r="F142" s="118"/>
-      <c r="G142" s="119"/>
-      <c r="H142" s="120"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="163" t="s">
+        <v>146</v>
+      </c>
+      <c r="D142" s="158"/>
+      <c r="E142" s="158"/>
+      <c r="F142" s="158"/>
+      <c r="G142" s="158"/>
+      <c r="H142" s="159"/>
     </row>
     <row r="143" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-      <c r="B143" s="115"/>
-      <c r="C143" s="116"/>
-      <c r="D143" s="116"/>
-      <c r="E143" s="117"/>
-      <c r="F143" s="118"/>
-      <c r="G143" s="119"/>
-      <c r="H143" s="120"/>
+      <c r="B143" s="111"/>
+      <c r="C143" s="163"/>
+      <c r="D143" s="153" t="s">
+        <v>274</v>
+      </c>
+      <c r="E143" s="154" t="s">
+        <v>275</v>
+      </c>
+      <c r="F143" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G143" s="156">
+        <v>44167</v>
+      </c>
+      <c r="H143" s="157">
+        <v>44167</v>
+      </c>
     </row>
     <row r="144" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-      <c r="B144" s="115"/>
-      <c r="C144" s="116"/>
-      <c r="D144" s="116"/>
-      <c r="E144" s="117"/>
-      <c r="F144" s="118"/>
-      <c r="G144" s="119"/>
-      <c r="H144" s="120"/>
+      <c r="B144" s="111"/>
+      <c r="C144" s="112"/>
+      <c r="D144" s="151" t="s">
+        <v>276</v>
+      </c>
+      <c r="E144" s="147" t="s">
+        <v>285</v>
+      </c>
+      <c r="F144" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G144" s="149">
+        <v>44167</v>
+      </c>
+      <c r="H144" s="150">
+        <v>44167</v>
+      </c>
     </row>
     <row r="145" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-      <c r="B145" s="115"/>
-      <c r="C145" s="116"/>
-      <c r="D145" s="116"/>
-      <c r="E145" s="117"/>
-      <c r="F145" s="118"/>
-      <c r="G145" s="119"/>
-      <c r="H145" s="120"/>
+      <c r="B145" s="111"/>
+      <c r="C145" s="112"/>
+      <c r="D145" s="146" t="s">
+        <v>278</v>
+      </c>
+      <c r="E145" s="147" t="s">
+        <v>279</v>
+      </c>
+      <c r="F145" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G145" s="149">
+        <v>43185</v>
+      </c>
+      <c r="H145" s="150">
+        <v>43185</v>
+      </c>
     </row>
     <row r="146" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-      <c r="B146" s="115"/>
-      <c r="C146" s="116"/>
-      <c r="D146" s="116"/>
-      <c r="E146" s="117"/>
-      <c r="F146" s="118"/>
-      <c r="G146" s="119"/>
-      <c r="H146" s="120"/>
-    </row>
-    <row r="147" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B146" s="111"/>
+      <c r="C146" s="112"/>
+      <c r="D146" s="146" t="s">
+        <v>280</v>
+      </c>
+      <c r="E146" s="147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G146" s="149">
+        <v>44216</v>
+      </c>
+      <c r="H146" s="150">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-      <c r="B147" s="115"/>
-      <c r="C147" s="116"/>
-      <c r="D147" s="116"/>
-      <c r="E147" s="117"/>
-      <c r="F147" s="118"/>
-      <c r="G147" s="119"/>
-      <c r="H147" s="120"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="112"/>
+      <c r="D147" s="146" t="s">
+        <v>401</v>
+      </c>
+      <c r="E147" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="F147" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G147" s="149">
+        <v>43720</v>
+      </c>
+      <c r="H147" s="150">
+        <v>43720</v>
+      </c>
     </row>
     <row r="148" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
-      <c r="B148" s="115"/>
-      <c r="C148" s="116"/>
-      <c r="D148" s="116"/>
-      <c r="E148" s="117"/>
-      <c r="F148" s="118"/>
-      <c r="G148" s="119"/>
-      <c r="H148" s="120"/>
-    </row>
-    <row r="149" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B148" s="111"/>
+      <c r="C148" s="112"/>
+      <c r="D148" s="146" t="s">
+        <v>402</v>
+      </c>
+      <c r="E148" s="152" t="s">
+        <v>404</v>
+      </c>
+      <c r="F148" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G148" s="149">
+        <v>43785</v>
+      </c>
+      <c r="H148" s="150">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
-      <c r="B149" s="115"/>
-      <c r="C149" s="116"/>
-      <c r="D149" s="116"/>
-      <c r="E149" s="117"/>
-      <c r="F149" s="118"/>
-      <c r="G149" s="119"/>
-      <c r="H149" s="120"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="112"/>
+      <c r="D149" s="146" t="s">
+        <v>405</v>
+      </c>
+      <c r="E149" s="152" t="s">
+        <v>406</v>
+      </c>
+      <c r="F149" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G149" s="149">
+        <v>43208</v>
+      </c>
+      <c r="H149" s="150">
+        <v>43208</v>
+      </c>
     </row>
     <row r="150" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
-      <c r="B150" s="115"/>
-      <c r="C150" s="116"/>
-      <c r="D150" s="116"/>
-      <c r="E150" s="117"/>
-      <c r="F150" s="118"/>
-      <c r="G150" s="119"/>
-      <c r="H150" s="120"/>
-    </row>
-    <row r="151" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B150" s="111"/>
+      <c r="C150" s="112"/>
+      <c r="D150" s="146" t="s">
+        <v>407</v>
+      </c>
+      <c r="E150" s="152" t="s">
+        <v>408</v>
+      </c>
+      <c r="F150" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G150" s="149">
+        <v>43181</v>
+      </c>
+      <c r="H150" s="150">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
-      <c r="B151" s="115"/>
-      <c r="C151" s="116"/>
-      <c r="D151" s="116"/>
-      <c r="E151" s="117"/>
-      <c r="F151" s="118"/>
-      <c r="G151" s="119"/>
-      <c r="H151" s="120"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="112"/>
+      <c r="D151" s="146" t="s">
+        <v>409</v>
+      </c>
+      <c r="E151" s="152" t="s">
+        <v>410</v>
+      </c>
+      <c r="F151" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G151" s="149">
+        <v>44958</v>
+      </c>
+      <c r="H151" s="150">
+        <v>43181</v>
+      </c>
     </row>
     <row r="152" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
-      <c r="B152" s="115"/>
-      <c r="C152" s="116"/>
-      <c r="D152" s="116"/>
-      <c r="E152" s="117"/>
-      <c r="F152" s="118"/>
-      <c r="G152" s="119"/>
-      <c r="H152" s="120"/>
-    </row>
-    <row r="153" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B152" s="111"/>
+      <c r="C152" s="112"/>
+      <c r="D152" s="146" t="s">
+        <v>411</v>
+      </c>
+      <c r="E152" s="152" t="s">
+        <v>412</v>
+      </c>
+      <c r="F152" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G152" s="149">
+        <v>44958</v>
+      </c>
+      <c r="H152" s="150">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
-      <c r="B153" s="115"/>
-      <c r="C153" s="116"/>
-      <c r="D153" s="116"/>
-      <c r="E153" s="117"/>
-      <c r="F153" s="118"/>
-      <c r="G153" s="119"/>
-      <c r="H153" s="120"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="112"/>
+      <c r="D153" s="146" t="s">
+        <v>413</v>
+      </c>
+      <c r="E153" s="152" t="s">
+        <v>414</v>
+      </c>
+      <c r="F153" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G153" s="149">
+        <v>44958</v>
+      </c>
+      <c r="H153" s="150">
+        <v>43922</v>
+      </c>
     </row>
     <row r="154" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
-      <c r="B154" s="115"/>
-      <c r="C154" s="116"/>
-      <c r="D154" s="116"/>
+      <c r="B154" s="111"/>
+      <c r="C154" s="112"/>
+      <c r="D154" s="112"/>
       <c r="E154" s="117"/>
-      <c r="F154" s="118"/>
-      <c r="G154" s="119"/>
-      <c r="H154" s="120"/>
+      <c r="F154" s="114"/>
+      <c r="G154" s="115"/>
+      <c r="H154" s="116"/>
     </row>
     <row r="155" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
-      <c r="B155" s="115"/>
-      <c r="C155" s="116"/>
-      <c r="D155" s="116"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="112"/>
+      <c r="D155" s="112"/>
       <c r="E155" s="117"/>
-      <c r="F155" s="118"/>
-      <c r="G155" s="119"/>
-      <c r="H155" s="120"/>
+      <c r="F155" s="114"/>
+      <c r="G155" s="115"/>
+      <c r="H155" s="116"/>
     </row>
     <row r="156" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
-      <c r="B156" s="115"/>
-      <c r="C156" s="116"/>
-      <c r="D156" s="116"/>
+      <c r="B156" s="111"/>
+      <c r="C156" s="112"/>
+      <c r="D156" s="112"/>
       <c r="E156" s="117"/>
-      <c r="F156" s="118"/>
-      <c r="G156" s="119"/>
-      <c r="H156" s="120"/>
+      <c r="F156" s="114"/>
+      <c r="G156" s="115"/>
+      <c r="H156" s="116"/>
     </row>
     <row r="157" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
-      <c r="B157" s="115"/>
-      <c r="C157" s="116"/>
-      <c r="D157" s="116"/>
+      <c r="B157" s="111"/>
+      <c r="C157" s="112"/>
+      <c r="D157" s="112"/>
       <c r="E157" s="117"/>
-      <c r="F157" s="118"/>
-      <c r="G157" s="119"/>
-      <c r="H157" s="120"/>
+      <c r="F157" s="114"/>
+      <c r="G157" s="115"/>
+      <c r="H157" s="116"/>
     </row>
     <row r="158" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
-      <c r="B158" s="115"/>
-      <c r="C158" s="116"/>
-      <c r="D158" s="116"/>
+      <c r="B158" s="111"/>
+      <c r="C158" s="112"/>
+      <c r="D158" s="112"/>
       <c r="E158" s="117"/>
-      <c r="F158" s="118"/>
-      <c r="G158" s="119"/>
-      <c r="H158" s="120"/>
+      <c r="F158" s="114"/>
+      <c r="G158" s="115"/>
+      <c r="H158" s="116"/>
     </row>
     <row r="159" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
-      <c r="B159" s="115"/>
-      <c r="C159" s="116"/>
-      <c r="D159" s="116"/>
-      <c r="E159" s="117"/>
-      <c r="F159" s="118"/>
-      <c r="G159" s="119"/>
-      <c r="H159" s="120"/>
+      <c r="B159" s="111"/>
+      <c r="C159" s="112"/>
+      <c r="D159" s="112"/>
+      <c r="E159" s="113"/>
+      <c r="F159" s="114"/>
+      <c r="G159" s="115"/>
+      <c r="H159" s="116"/>
     </row>
     <row r="160" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
-      <c r="B160" s="115"/>
-      <c r="C160" s="116"/>
-      <c r="D160" s="116"/>
-      <c r="E160" s="117"/>
-      <c r="F160" s="118"/>
-      <c r="G160" s="119"/>
-      <c r="H160" s="120"/>
+      <c r="B160" s="111"/>
+      <c r="C160" s="112"/>
+      <c r="D160" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="E160" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="F160" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G160" s="115">
+        <v>44949</v>
+      </c>
+      <c r="H160" s="116">
+        <v>44949</v>
+      </c>
     </row>
     <row r="161" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
-      <c r="B161" s="115"/>
-      <c r="C161" s="116"/>
-      <c r="D161" s="116"/>
-      <c r="E161" s="117"/>
-      <c r="F161" s="118"/>
-      <c r="G161" s="119"/>
-      <c r="H161" s="120"/>
+      <c r="B161" s="111"/>
+      <c r="C161" s="112"/>
+      <c r="D161" s="112"/>
+      <c r="E161" s="113"/>
+      <c r="F161" s="114"/>
+      <c r="G161" s="115"/>
+      <c r="H161" s="116"/>
     </row>
     <row r="162" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
-      <c r="B162" s="115"/>
-      <c r="C162" s="116"/>
-      <c r="D162" s="116"/>
-      <c r="E162" s="117"/>
-      <c r="F162" s="118"/>
-      <c r="G162" s="119"/>
-      <c r="H162" s="120"/>
+      <c r="B162" s="111"/>
+      <c r="C162" s="112"/>
+      <c r="D162" s="112"/>
+      <c r="E162" s="113"/>
+      <c r="F162" s="114"/>
+      <c r="G162" s="115"/>
+      <c r="H162" s="116"/>
     </row>
     <row r="163" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
-      <c r="B163" s="115"/>
-      <c r="C163" s="116"/>
-      <c r="D163" s="116"/>
-      <c r="E163" s="117"/>
-      <c r="F163" s="118"/>
-      <c r="G163" s="119"/>
-      <c r="H163" s="120"/>
+      <c r="B163" s="111"/>
+      <c r="C163" s="112"/>
+      <c r="D163" s="112"/>
+      <c r="E163" s="113"/>
+      <c r="F163" s="114"/>
+      <c r="G163" s="115"/>
+      <c r="H163" s="116"/>
     </row>
     <row r="164" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
-      <c r="B164" s="115"/>
-      <c r="C164" s="116"/>
-      <c r="D164" s="116"/>
+      <c r="B164" s="111"/>
+      <c r="C164" s="112"/>
+      <c r="D164" s="112"/>
       <c r="E164" s="117"/>
-      <c r="F164" s="118"/>
-      <c r="G164" s="119"/>
-      <c r="H164" s="120"/>
+      <c r="F164" s="114"/>
+      <c r="G164" s="115"/>
+      <c r="H164" s="116"/>
     </row>
     <row r="165" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
-      <c r="B165" s="115"/>
-      <c r="C165" s="116"/>
-      <c r="D165" s="116"/>
-      <c r="E165" s="117"/>
-      <c r="F165" s="118"/>
-      <c r="G165" s="119"/>
-      <c r="H165" s="120"/>
-    </row>
-    <row r="166" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B165" s="111"/>
+      <c r="C165" s="112"/>
+      <c r="D165" s="112"/>
+      <c r="E165" s="113"/>
+      <c r="F165" s="114"/>
+      <c r="G165" s="115"/>
+      <c r="H165" s="116"/>
+    </row>
+    <row r="166" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
-      <c r="B166" s="115"/>
-      <c r="C166" s="116"/>
-      <c r="D166" s="116"/>
-      <c r="E166" s="117"/>
-      <c r="F166" s="118"/>
-      <c r="G166" s="119"/>
-      <c r="H166" s="120"/>
-    </row>
-    <row r="167" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B166" s="111"/>
+      <c r="C166" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="E166" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="F166" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G166" s="115">
+        <v>44902</v>
+      </c>
+      <c r="H166" s="116">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
-      <c r="B167" s="115"/>
-      <c r="C167" s="116"/>
-      <c r="D167" s="116"/>
-      <c r="E167" s="117"/>
-      <c r="F167" s="118"/>
-      <c r="G167" s="119"/>
-      <c r="H167" s="120"/>
-    </row>
-    <row r="168" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B167" s="111"/>
+      <c r="C167" s="112"/>
+      <c r="D167" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="E167" s="117" t="s">
+        <v>333</v>
+      </c>
+      <c r="F167" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G167" s="115">
+        <v>44897</v>
+      </c>
+      <c r="H167" s="116">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
-      <c r="B168" s="115"/>
-      <c r="C168" s="116"/>
-      <c r="D168" s="116"/>
-      <c r="E168" s="117"/>
-      <c r="F168" s="118"/>
-      <c r="G168" s="119"/>
-      <c r="H168" s="120"/>
-    </row>
-    <row r="169" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B168" s="111"/>
+      <c r="C168" s="112"/>
+      <c r="D168" s="112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E168" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G168" s="115">
+        <v>44951</v>
+      </c>
+      <c r="H168" s="116">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
-      <c r="B169" s="115"/>
-      <c r="C169" s="116"/>
-      <c r="D169" s="116"/>
-      <c r="E169" s="117"/>
-      <c r="F169" s="118"/>
-      <c r="G169" s="119"/>
-      <c r="H169" s="120"/>
-    </row>
-    <row r="170" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B169" s="111"/>
+      <c r="C169" s="112"/>
+      <c r="D169" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="E169" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="F169" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G169" s="115">
+        <v>44951</v>
+      </c>
+      <c r="H169" s="116">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
-      <c r="B170" s="115"/>
-      <c r="C170" s="116"/>
-      <c r="D170" s="116"/>
-      <c r="E170" s="117"/>
-      <c r="F170" s="118"/>
-      <c r="G170" s="119"/>
-      <c r="H170" s="120"/>
+      <c r="B170" s="111"/>
+      <c r="C170" s="112"/>
+      <c r="D170" s="112" t="s">
+        <v>321</v>
+      </c>
+      <c r="E170" s="117" t="s">
+        <v>325</v>
+      </c>
+      <c r="F170" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G170" s="115">
+        <v>44900</v>
+      </c>
+      <c r="H170" s="116">
+        <v>44949</v>
+      </c>
     </row>
     <row r="171" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
-      <c r="B171" s="115"/>
-      <c r="C171" s="116"/>
-      <c r="D171" s="116"/>
-      <c r="E171" s="117"/>
-      <c r="F171" s="118"/>
-      <c r="G171" s="119"/>
-      <c r="H171" s="120"/>
-    </row>
-    <row r="172" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B171" s="111"/>
+      <c r="C171" s="112"/>
+      <c r="D171" s="112" t="s">
+        <v>328</v>
+      </c>
+      <c r="E171" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="F171" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G171" s="115">
+        <v>44896</v>
+      </c>
+      <c r="H171" s="116">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
-      <c r="B172" s="115"/>
-      <c r="C172" s="116"/>
-      <c r="D172" s="116"/>
-      <c r="E172" s="117"/>
-      <c r="F172" s="118"/>
-      <c r="G172" s="119"/>
-      <c r="H172" s="120"/>
-    </row>
-    <row r="173" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B172" s="111"/>
+      <c r="C172" s="112"/>
+      <c r="D172" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="E172" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="F172" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G172" s="115">
+        <v>44945</v>
+      </c>
+      <c r="H172" s="116">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
-      <c r="B173" s="115"/>
-      <c r="C173" s="116"/>
-      <c r="D173" s="116"/>
-      <c r="E173" s="117"/>
-      <c r="F173" s="118"/>
-      <c r="G173" s="119"/>
-      <c r="H173" s="120"/>
-    </row>
-    <row r="174" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B173" s="111"/>
+      <c r="C173" s="112"/>
+      <c r="D173" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="E173" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="F173" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G173" s="115">
+        <v>44910</v>
+      </c>
+      <c r="H173" s="116">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
-      <c r="B174" s="115"/>
-      <c r="C174" s="116"/>
-      <c r="D174" s="116"/>
-      <c r="E174" s="117"/>
-      <c r="F174" s="118"/>
-      <c r="G174" s="119"/>
-      <c r="H174" s="120"/>
-    </row>
-    <row r="175" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B174" s="111"/>
+      <c r="C174" s="112"/>
+      <c r="D174" s="112" t="s">
+        <v>340</v>
+      </c>
+      <c r="E174" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="F174" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G174" s="115">
+        <v>44951</v>
+      </c>
+      <c r="H174" s="116">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
-      <c r="B175" s="115"/>
-      <c r="C175" s="116"/>
-      <c r="D175" s="116"/>
-      <c r="E175" s="117"/>
-      <c r="F175" s="118"/>
-      <c r="G175" s="119"/>
-      <c r="H175" s="120"/>
+      <c r="B175" s="111"/>
+      <c r="C175" s="112"/>
+      <c r="D175" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="E175" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="F175" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G175" s="115">
+        <v>44952</v>
+      </c>
+      <c r="H175" s="116">
+        <v>44952</v>
+      </c>
     </row>
     <row r="176" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
-      <c r="B176" s="115"/>
-      <c r="C176" s="116"/>
-      <c r="D176" s="116"/>
-      <c r="E176" s="117"/>
-      <c r="F176" s="118"/>
-      <c r="G176" s="119"/>
-      <c r="H176" s="120"/>
+      <c r="B176" s="111"/>
+      <c r="C176" s="112"/>
+      <c r="D176" s="112"/>
+      <c r="E176" s="113"/>
+      <c r="F176" s="114"/>
+      <c r="G176" s="115"/>
+      <c r="H176" s="116"/>
     </row>
     <row r="177" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
-      <c r="B177" s="115"/>
-      <c r="C177" s="116"/>
-      <c r="D177" s="116"/>
-      <c r="E177" s="117"/>
-      <c r="F177" s="118"/>
-      <c r="G177" s="119"/>
-      <c r="H177" s="120"/>
-    </row>
-    <row r="178" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="111"/>
+      <c r="C177" s="112"/>
+      <c r="D177" s="112"/>
+      <c r="E177" s="113"/>
+      <c r="F177" s="114"/>
+      <c r="G177" s="115"/>
+      <c r="H177" s="116"/>
+    </row>
+    <row r="178" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
-      <c r="B178" s="122"/>
-      <c r="C178" s="123"/>
-      <c r="D178" s="123"/>
-      <c r="E178" s="124"/>
-      <c r="F178" s="125"/>
-      <c r="G178" s="126"/>
-      <c r="H178" s="127"/>
-    </row>
-    <row r="179" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B178" s="111"/>
+      <c r="C178" s="112"/>
+      <c r="D178" s="112"/>
+      <c r="E178" s="113"/>
+      <c r="F178" s="114"/>
+      <c r="G178" s="115"/>
+      <c r="H178" s="116"/>
+    </row>
+    <row r="179" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="128"/>
-      <c r="G179" s="129"/>
-      <c r="H179" s="129"/>
-    </row>
-    <row r="180" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B179" s="111"/>
+      <c r="C179" s="112"/>
+      <c r="D179" s="112" t="s">
+        <v>394</v>
+      </c>
+      <c r="E179" s="117" t="s">
+        <v>395</v>
+      </c>
+      <c r="F179" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="G179" s="115">
+        <v>44957</v>
+      </c>
+      <c r="H179" s="116">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="128"/>
-      <c r="G180" s="129"/>
-      <c r="H180" s="129"/>
-    </row>
-    <row r="181" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B180" s="111"/>
+      <c r="C180" s="112"/>
+      <c r="D180" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="E180" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="F180" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G180" s="115">
+        <v>44281</v>
+      </c>
+      <c r="H180" s="116">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="128"/>
-      <c r="G181" s="129"/>
-      <c r="H181" s="129"/>
-    </row>
-    <row r="182" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B181" s="111"/>
+      <c r="C181" s="112"/>
+      <c r="D181" s="112" t="s">
+        <v>397</v>
+      </c>
+      <c r="E181" s="117" t="s">
+        <v>398</v>
+      </c>
+      <c r="F181" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G181" s="115">
+        <v>43257</v>
+      </c>
+      <c r="H181" s="116">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="128"/>
-      <c r="G182" s="129"/>
-      <c r="H182" s="129"/>
+      <c r="B182" s="111"/>
+      <c r="C182" s="112"/>
+      <c r="D182" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="E182" s="117" t="s">
+        <v>399</v>
+      </c>
+      <c r="F182" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G182" s="115">
+        <v>44949</v>
+      </c>
+      <c r="H182" s="116">
+        <v>44949</v>
+      </c>
     </row>
     <row r="183" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="128"/>
-      <c r="G183" s="129"/>
-      <c r="H183" s="129"/>
-    </row>
-    <row r="184" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B183" s="111"/>
+      <c r="C183" s="112"/>
+      <c r="D183" s="112"/>
+      <c r="E183" s="117"/>
+      <c r="F183" s="114"/>
+      <c r="G183" s="115"/>
+      <c r="H183" s="116"/>
+    </row>
+    <row r="184" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="128"/>
-      <c r="G184" s="129"/>
-      <c r="H184" s="129"/>
+      <c r="B184" s="111"/>
+      <c r="C184" s="112"/>
+      <c r="D184" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="E184" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="F184" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G184" s="115">
+        <v>44957</v>
+      </c>
+      <c r="H184" s="116">
+        <v>44957</v>
+      </c>
     </row>
     <row r="185" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="128"/>
-      <c r="G185" s="129"/>
-      <c r="H185" s="129"/>
+      <c r="B185" s="111"/>
+      <c r="C185" s="112"/>
+      <c r="D185" s="112"/>
+      <c r="E185" s="117"/>
+      <c r="F185" s="114"/>
+      <c r="G185" s="115"/>
+      <c r="H185" s="116"/>
     </row>
     <row r="186" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="128"/>
-      <c r="G186" s="129"/>
-      <c r="H186" s="129"/>
+      <c r="B186" s="111"/>
+      <c r="C186" s="112"/>
+      <c r="D186" s="112"/>
+      <c r="E186" s="113"/>
+      <c r="F186" s="114"/>
+      <c r="G186" s="115"/>
+      <c r="H186" s="116"/>
     </row>
     <row r="187" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="128"/>
-      <c r="G187" s="129"/>
-      <c r="H187" s="129"/>
+      <c r="B187" s="111"/>
+      <c r="C187" s="112"/>
+      <c r="D187" s="112" t="s">
+        <v>330</v>
+      </c>
+      <c r="E187" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="F187" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G187" s="115">
+        <v>44893</v>
+      </c>
+      <c r="H187" s="116">
+        <v>44893</v>
+      </c>
     </row>
     <row r="188" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="128"/>
-      <c r="G188" s="129"/>
-      <c r="H188" s="129"/>
-    </row>
-    <row r="189" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="128"/>
-      <c r="G189" s="129"/>
-      <c r="H189" s="129"/>
-    </row>
-    <row r="190" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="128"/>
-      <c r="G190" s="129"/>
-      <c r="H190" s="129"/>
+      <c r="B188" s="111"/>
+      <c r="C188" s="112"/>
+      <c r="D188" s="112"/>
+      <c r="E188" s="113"/>
+      <c r="F188" s="114"/>
+      <c r="G188" s="115"/>
+      <c r="H188" s="116"/>
+    </row>
+    <row r="189" spans="1:8" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="161"/>
+      <c r="B189" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189" s="158"/>
+      <c r="D189" s="158"/>
+      <c r="E189" s="158"/>
+      <c r="F189" s="158"/>
+      <c r="G189" s="158"/>
+      <c r="H189" s="159"/>
+    </row>
+    <row r="190" spans="1:8" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="161"/>
+      <c r="B190" s="164"/>
+      <c r="C190" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="D190" s="158"/>
+      <c r="E190" s="158"/>
+      <c r="F190" s="158"/>
+      <c r="G190" s="158"/>
+      <c r="H190" s="159"/>
     </row>
     <row r="191" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="128"/>
-      <c r="G191" s="129"/>
-      <c r="H191" s="129"/>
+      <c r="B191" s="111"/>
+      <c r="C191" s="163"/>
+      <c r="D191" s="112"/>
+      <c r="E191" s="113"/>
+      <c r="F191" s="114"/>
+      <c r="G191" s="115"/>
+      <c r="H191" s="116"/>
     </row>
     <row r="192" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="128"/>
-      <c r="G192" s="129"/>
-      <c r="H192" s="129"/>
-    </row>
-    <row r="193" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="128"/>
-      <c r="G193" s="129"/>
-      <c r="H193" s="129"/>
-    </row>
-    <row r="194" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="128"/>
-      <c r="G194" s="129"/>
-      <c r="H194" s="129"/>
+      <c r="B192" s="111"/>
+      <c r="C192" s="112"/>
+      <c r="D192" s="112"/>
+      <c r="E192" s="113"/>
+      <c r="F192" s="114"/>
+      <c r="G192" s="115"/>
+      <c r="H192" s="116"/>
+    </row>
+    <row r="193" spans="1:8" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="161"/>
+      <c r="B193" s="164" t="s">
+        <v>142</v>
+      </c>
+      <c r="C193" s="158"/>
+      <c r="D193" s="158"/>
+      <c r="E193" s="158"/>
+      <c r="F193" s="158"/>
+      <c r="G193" s="158"/>
+      <c r="H193" s="159"/>
+    </row>
+    <row r="194" spans="1:8" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="161"/>
+      <c r="B194" s="164"/>
+      <c r="C194" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="D194" s="158"/>
+      <c r="E194" s="158"/>
+      <c r="F194" s="158"/>
+      <c r="G194" s="158"/>
+      <c r="H194" s="159"/>
     </row>
     <row r="195" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F195" s="95"/>
-      <c r="G195" s="111"/>
-      <c r="H195" s="111"/>
+      <c r="A195" s="1"/>
+      <c r="B195" s="111"/>
+      <c r="C195" s="163"/>
+      <c r="D195" s="112"/>
+      <c r="E195" s="113"/>
+      <c r="F195" s="114"/>
+      <c r="G195" s="115"/>
+      <c r="H195" s="116"/>
     </row>
     <row r="196" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F196" s="95"/>
-      <c r="G196" s="111"/>
-      <c r="H196" s="111"/>
+      <c r="A196" s="1"/>
+      <c r="B196" s="111"/>
+      <c r="C196" s="112"/>
+      <c r="D196" s="112"/>
+      <c r="E196" s="113"/>
+      <c r="F196" s="114"/>
+      <c r="G196" s="115"/>
+      <c r="H196" s="116"/>
     </row>
     <row r="197" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F197" s="95"/>
-      <c r="G197" s="111"/>
-      <c r="H197" s="111"/>
+      <c r="A197" s="1"/>
+      <c r="B197" s="111"/>
+      <c r="C197" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="D197" s="158"/>
+      <c r="E197" s="158"/>
+      <c r="F197" s="158"/>
+      <c r="G197" s="158"/>
+      <c r="H197" s="159"/>
+    </row>
+    <row r="198" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="111"/>
+      <c r="C198" s="163"/>
+      <c r="D198" s="112"/>
+      <c r="E198" s="113"/>
+      <c r="F198" s="114"/>
+      <c r="G198" s="115"/>
+      <c r="H198" s="116"/>
+    </row>
+    <row r="199" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="111"/>
+      <c r="C199" s="112"/>
+      <c r="D199" s="112"/>
+      <c r="E199" s="113"/>
+      <c r="F199" s="114"/>
+      <c r="G199" s="115"/>
+      <c r="H199" s="116"/>
+    </row>
+    <row r="200" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="111"/>
+      <c r="C200" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="D200" s="158"/>
+      <c r="E200" s="158"/>
+      <c r="F200" s="158"/>
+      <c r="G200" s="158"/>
+      <c r="H200" s="159"/>
+    </row>
+    <row r="201" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="B201" s="111"/>
+      <c r="C201" s="163"/>
+      <c r="D201" s="112"/>
+      <c r="E201" s="113"/>
+      <c r="F201" s="114"/>
+      <c r="G201" s="115"/>
+      <c r="H201" s="116"/>
+    </row>
+    <row r="202" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="B202" s="111"/>
+      <c r="C202" s="112"/>
+      <c r="D202" s="112"/>
+      <c r="E202" s="113"/>
+      <c r="F202" s="114"/>
+      <c r="G202" s="115"/>
+      <c r="H202" s="116"/>
+    </row>
+    <row r="203" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203" s="111"/>
+      <c r="C203" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="D203" s="158"/>
+      <c r="E203" s="158"/>
+      <c r="F203" s="158"/>
+      <c r="G203" s="158"/>
+      <c r="H203" s="159"/>
+    </row>
+    <row r="204" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="B204" s="111"/>
+      <c r="C204" s="163"/>
+      <c r="D204" s="112"/>
+      <c r="E204" s="113"/>
+      <c r="F204" s="114"/>
+      <c r="G204" s="115"/>
+      <c r="H204" s="116"/>
+    </row>
+    <row r="205" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A205" s="1"/>
+      <c r="B205" s="111"/>
+      <c r="C205" s="112"/>
+      <c r="D205" s="112"/>
+      <c r="E205" s="113"/>
+      <c r="F205" s="114"/>
+      <c r="G205" s="115"/>
+      <c r="H205" s="116"/>
+    </row>
+    <row r="206" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A206" s="1"/>
+      <c r="B206" s="111"/>
+      <c r="C206" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="D206" s="158"/>
+      <c r="E206" s="158"/>
+      <c r="F206" s="158"/>
+      <c r="G206" s="158"/>
+      <c r="H206" s="159"/>
+    </row>
+    <row r="207" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="1"/>
+      <c r="B207" s="111"/>
+      <c r="C207" s="163"/>
+      <c r="D207" s="112"/>
+      <c r="E207" s="113"/>
+      <c r="F207" s="114"/>
+      <c r="G207" s="115"/>
+      <c r="H207" s="116"/>
+    </row>
+    <row r="208" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="1"/>
+      <c r="B208" s="111"/>
+      <c r="C208" s="112"/>
+      <c r="D208" s="112"/>
+      <c r="E208" s="113"/>
+      <c r="F208" s="114"/>
+      <c r="G208" s="115"/>
+      <c r="H208" s="116"/>
+    </row>
+    <row r="209" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="1"/>
+      <c r="B209" s="111"/>
+      <c r="C209" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="D209" s="158"/>
+      <c r="E209" s="158"/>
+      <c r="F209" s="158"/>
+      <c r="G209" s="158"/>
+      <c r="H209" s="159"/>
+    </row>
+    <row r="210" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="1"/>
+      <c r="B210" s="111"/>
+      <c r="C210" s="163"/>
+      <c r="D210" s="112"/>
+      <c r="E210" s="113"/>
+      <c r="F210" s="114"/>
+      <c r="G210" s="115"/>
+      <c r="H210" s="116"/>
+    </row>
+    <row r="211" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="1"/>
+      <c r="B211" s="111"/>
+      <c r="C211" s="112"/>
+      <c r="D211" s="112"/>
+      <c r="E211" s="113"/>
+      <c r="F211" s="114"/>
+      <c r="G211" s="115"/>
+      <c r="H211" s="116"/>
+    </row>
+    <row r="212" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="1"/>
+      <c r="B212" s="111"/>
+      <c r="C212" s="163" t="s">
+        <v>154</v>
+      </c>
+      <c r="D212" s="158"/>
+      <c r="E212" s="158"/>
+      <c r="F212" s="158"/>
+      <c r="G212" s="158"/>
+      <c r="H212" s="159"/>
+    </row>
+    <row r="213" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="1"/>
+      <c r="B213" s="111"/>
+      <c r="C213" s="163"/>
+      <c r="D213" s="112"/>
+      <c r="E213" s="113"/>
+      <c r="F213" s="114"/>
+      <c r="G213" s="115"/>
+      <c r="H213" s="116"/>
+    </row>
+    <row r="214" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="1"/>
+      <c r="B214" s="111"/>
+      <c r="C214" s="112"/>
+      <c r="D214" s="112"/>
+      <c r="E214" s="113"/>
+      <c r="F214" s="114"/>
+      <c r="G214" s="115"/>
+      <c r="H214" s="116"/>
+    </row>
+    <row r="215" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
+      <c r="B215" s="111"/>
+      <c r="C215" s="163" t="s">
+        <v>155</v>
+      </c>
+      <c r="D215" s="158"/>
+      <c r="E215" s="158"/>
+      <c r="F215" s="158"/>
+      <c r="G215" s="158"/>
+      <c r="H215" s="159"/>
+    </row>
+    <row r="216" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+      <c r="B216" s="111"/>
+      <c r="C216" s="163"/>
+      <c r="D216" s="112"/>
+      <c r="E216" s="113"/>
+      <c r="F216" s="114"/>
+      <c r="G216" s="115"/>
+      <c r="H216" s="116"/>
+    </row>
+    <row r="217" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+      <c r="B217" s="111"/>
+      <c r="C217" s="112"/>
+      <c r="D217" s="112"/>
+      <c r="E217" s="113"/>
+      <c r="F217" s="114"/>
+      <c r="G217" s="115"/>
+      <c r="H217" s="116"/>
+    </row>
+    <row r="218" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+      <c r="B218" s="111"/>
+      <c r="C218" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="D218" s="158"/>
+      <c r="E218" s="158"/>
+      <c r="F218" s="158"/>
+      <c r="G218" s="158"/>
+      <c r="H218" s="159"/>
+    </row>
+    <row r="219" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219" s="111"/>
+      <c r="C219" s="163"/>
+      <c r="D219" s="112"/>
+      <c r="E219" s="113"/>
+      <c r="F219" s="114"/>
+      <c r="G219" s="115"/>
+      <c r="H219" s="116"/>
+    </row>
+    <row r="220" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+      <c r="B220" s="111"/>
+      <c r="C220" s="112"/>
+      <c r="D220" s="112"/>
+      <c r="E220" s="113"/>
+      <c r="F220" s="114"/>
+      <c r="G220" s="115"/>
+      <c r="H220" s="116"/>
+    </row>
+    <row r="221" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
+      <c r="B221" s="111"/>
+      <c r="C221" s="163" t="s">
+        <v>157</v>
+      </c>
+      <c r="D221" s="158"/>
+      <c r="E221" s="158"/>
+      <c r="F221" s="158"/>
+      <c r="G221" s="158"/>
+      <c r="H221" s="159"/>
+    </row>
+    <row r="222" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A222" s="1"/>
+      <c r="B222" s="111"/>
+      <c r="C222" s="163"/>
+      <c r="D222" s="112"/>
+      <c r="E222" s="113"/>
+      <c r="F222" s="114"/>
+      <c r="G222" s="115"/>
+      <c r="H222" s="116"/>
+    </row>
+    <row r="223" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+      <c r="B223" s="111"/>
+      <c r="C223" s="112"/>
+      <c r="D223" s="112"/>
+      <c r="E223" s="113"/>
+      <c r="F223" s="114"/>
+      <c r="G223" s="115"/>
+      <c r="H223" s="116"/>
+    </row>
+    <row r="224" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224" s="111"/>
+      <c r="C224" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="D224" s="158"/>
+      <c r="E224" s="158"/>
+      <c r="F224" s="158"/>
+      <c r="G224" s="158"/>
+      <c r="H224" s="159"/>
+    </row>
+    <row r="225" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="B225" s="111"/>
+      <c r="C225" s="163"/>
+      <c r="D225" s="153" t="s">
+        <v>472</v>
+      </c>
+      <c r="E225" s="154" t="s">
+        <v>473</v>
+      </c>
+      <c r="F225" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G225" s="156">
+        <v>44663</v>
+      </c>
+      <c r="H225" s="157">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+      <c r="B226" s="111"/>
+      <c r="C226" s="112"/>
+      <c r="D226" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="E226" s="147" t="s">
+        <v>475</v>
+      </c>
+      <c r="F226" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G226" s="149">
+        <v>44663</v>
+      </c>
+      <c r="H226" s="150">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+      <c r="B227" s="111"/>
+      <c r="C227" s="112"/>
+      <c r="D227" s="146" t="s">
+        <v>477</v>
+      </c>
+      <c r="E227" s="147" t="s">
+        <v>476</v>
+      </c>
+      <c r="F227" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G227" s="149">
+        <v>44630</v>
+      </c>
+      <c r="H227" s="150">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228" s="111"/>
+      <c r="C228" s="112"/>
+      <c r="D228" s="146" t="s">
+        <v>478</v>
+      </c>
+      <c r="E228" s="147" t="s">
+        <v>479</v>
+      </c>
+      <c r="F228" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G228" s="149">
+        <v>44630</v>
+      </c>
+      <c r="H228" s="150">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+      <c r="B229" s="111"/>
+      <c r="C229" s="112"/>
+      <c r="D229" s="146" t="s">
+        <v>480</v>
+      </c>
+      <c r="E229" s="147" t="s">
+        <v>481</v>
+      </c>
+      <c r="F229" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G229" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H229" s="150">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="B230" s="111"/>
+      <c r="C230" s="112"/>
+      <c r="D230" s="146" t="s">
+        <v>482</v>
+      </c>
+      <c r="E230" s="147" t="s">
+        <v>483</v>
+      </c>
+      <c r="F230" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G230" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H230" s="150">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+      <c r="B231" s="111"/>
+      <c r="C231" s="112"/>
+      <c r="D231" s="146" t="s">
+        <v>484</v>
+      </c>
+      <c r="E231" s="147" t="s">
+        <v>485</v>
+      </c>
+      <c r="F231" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G231" s="149">
+        <v>44669</v>
+      </c>
+      <c r="H231" s="150">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="B232" s="111"/>
+      <c r="C232" s="112"/>
+      <c r="D232" s="146" t="s">
+        <v>487</v>
+      </c>
+      <c r="E232" s="147" t="s">
+        <v>486</v>
+      </c>
+      <c r="F232" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G232" s="149">
+        <v>44669</v>
+      </c>
+      <c r="H232" s="150">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A233" s="1"/>
+      <c r="B233" s="111"/>
+      <c r="C233" s="112"/>
+      <c r="D233" s="146" t="s">
+        <v>488</v>
+      </c>
+      <c r="E233" s="147" t="s">
+        <v>489</v>
+      </c>
+      <c r="F233" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G233" s="149">
+        <v>44733</v>
+      </c>
+      <c r="H233" s="150">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A234" s="1"/>
+      <c r="B234" s="111"/>
+      <c r="C234" s="112"/>
+      <c r="D234" s="146" t="s">
+        <v>490</v>
+      </c>
+      <c r="E234" s="147" t="s">
+        <v>491</v>
+      </c>
+      <c r="F234" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G234" s="149">
+        <v>44733</v>
+      </c>
+      <c r="H234" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A235" s="1"/>
+      <c r="B235" s="111"/>
+      <c r="C235" s="112"/>
+      <c r="D235" s="146" t="s">
+        <v>492</v>
+      </c>
+      <c r="E235" s="147" t="s">
+        <v>494</v>
+      </c>
+      <c r="F235" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G235" s="149">
+        <v>44671</v>
+      </c>
+      <c r="H235" s="150">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A236" s="1"/>
+      <c r="B236" s="111"/>
+      <c r="C236" s="112"/>
+      <c r="D236" s="146" t="s">
+        <v>493</v>
+      </c>
+      <c r="E236" s="147" t="s">
+        <v>495</v>
+      </c>
+      <c r="F236" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G236" s="149">
+        <v>44671</v>
+      </c>
+      <c r="H236" s="150">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A237" s="1"/>
+      <c r="B237" s="111"/>
+      <c r="C237" s="112"/>
+      <c r="D237" s="146" t="s">
+        <v>496</v>
+      </c>
+      <c r="E237" s="147" t="s">
+        <v>497</v>
+      </c>
+      <c r="F237" s="148" t="s">
+        <v>498</v>
+      </c>
+      <c r="G237" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H237" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A238" s="1"/>
+      <c r="B238" s="111"/>
+      <c r="C238" s="112"/>
+      <c r="D238" s="146" t="s">
+        <v>500</v>
+      </c>
+      <c r="E238" s="147" t="s">
+        <v>499</v>
+      </c>
+      <c r="F238" s="148" t="s">
+        <v>498</v>
+      </c>
+      <c r="G238" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H238" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A239" s="1"/>
+      <c r="B239" s="111"/>
+      <c r="C239" s="112"/>
+      <c r="D239" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="E239" s="147" t="s">
+        <v>503</v>
+      </c>
+      <c r="F239" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G239" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H239" s="150">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+      <c r="B240" s="111"/>
+      <c r="C240" s="112"/>
+      <c r="D240" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="E240" s="147" t="s">
+        <v>504</v>
+      </c>
+      <c r="F240" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G240" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H240" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+      <c r="B241" s="111"/>
+      <c r="C241" s="112"/>
+      <c r="D241" s="146" t="s">
+        <v>506</v>
+      </c>
+      <c r="E241" s="147" t="s">
+        <v>505</v>
+      </c>
+      <c r="F241" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G241" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H241" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+      <c r="B242" s="111"/>
+      <c r="C242" s="112"/>
+      <c r="D242" s="146" t="s">
+        <v>507</v>
+      </c>
+      <c r="E242" s="147" t="s">
+        <v>508</v>
+      </c>
+      <c r="F242" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G242" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H242" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+      <c r="B243" s="111"/>
+      <c r="C243" s="112"/>
+      <c r="D243" s="146" t="s">
+        <v>509</v>
+      </c>
+      <c r="E243" s="147" t="s">
+        <v>510</v>
+      </c>
+      <c r="F243" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G243" s="149">
+        <v>44846</v>
+      </c>
+      <c r="H243" s="150">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+      <c r="B244" s="111"/>
+      <c r="C244" s="112"/>
+      <c r="D244" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="E244" s="147" t="s">
+        <v>512</v>
+      </c>
+      <c r="F244" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G244" s="149">
+        <v>44846</v>
+      </c>
+      <c r="H244" s="150">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+      <c r="B245" s="111"/>
+      <c r="C245" s="112"/>
+      <c r="D245" s="146" t="s">
+        <v>513</v>
+      </c>
+      <c r="E245" s="147" t="s">
+        <v>514</v>
+      </c>
+      <c r="F245" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G245" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H245" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+      <c r="B246" s="111"/>
+      <c r="C246" s="112"/>
+      <c r="D246" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="E246" s="147" t="s">
+        <v>516</v>
+      </c>
+      <c r="F246" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G246" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H246" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+      <c r="B247" s="111"/>
+      <c r="C247" s="112"/>
+      <c r="D247" s="146" t="s">
+        <v>517</v>
+      </c>
+      <c r="E247" s="147" t="s">
+        <v>518</v>
+      </c>
+      <c r="F247" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G247" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H247" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+      <c r="B248" s="111"/>
+      <c r="C248" s="112"/>
+      <c r="D248" s="146" t="s">
+        <v>519</v>
+      </c>
+      <c r="E248" s="147" t="s">
+        <v>520</v>
+      </c>
+      <c r="F248" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G248" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H248" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+      <c r="B249" s="111"/>
+      <c r="C249" s="112"/>
+      <c r="D249" s="146" t="s">
+        <v>521</v>
+      </c>
+      <c r="E249" s="147" t="s">
+        <v>523</v>
+      </c>
+      <c r="F249" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G249" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H249" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+      <c r="B250" s="111"/>
+      <c r="C250" s="112"/>
+      <c r="D250" s="146" t="s">
+        <v>522</v>
+      </c>
+      <c r="E250" s="147" t="s">
+        <v>524</v>
+      </c>
+      <c r="F250" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G250" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H250" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+      <c r="B251" s="111"/>
+      <c r="C251" s="112"/>
+      <c r="D251" s="146" t="s">
+        <v>525</v>
+      </c>
+      <c r="E251" s="147" t="s">
+        <v>526</v>
+      </c>
+      <c r="F251" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G251" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H251" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+      <c r="B252" s="111"/>
+      <c r="C252" s="112"/>
+      <c r="D252" s="146" t="s">
+        <v>527</v>
+      </c>
+      <c r="E252" s="147" t="s">
+        <v>528</v>
+      </c>
+      <c r="F252" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G252" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H252" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+      <c r="B253" s="111"/>
+      <c r="C253" s="112"/>
+      <c r="D253" s="146" t="s">
+        <v>529</v>
+      </c>
+      <c r="E253" s="147" t="s">
+        <v>530</v>
+      </c>
+      <c r="F253" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G253" s="149">
+        <v>44617</v>
+      </c>
+      <c r="H253" s="150">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+      <c r="B254" s="111"/>
+      <c r="C254" s="112"/>
+      <c r="D254" s="146" t="s">
+        <v>532</v>
+      </c>
+      <c r="E254" s="147" t="s">
+        <v>531</v>
+      </c>
+      <c r="F254" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G254" s="149">
+        <v>44617</v>
+      </c>
+      <c r="H254" s="150">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+      <c r="B255" s="111"/>
+      <c r="C255" s="112"/>
+      <c r="D255" s="146" t="s">
+        <v>533</v>
+      </c>
+      <c r="E255" s="147" t="s">
+        <v>534</v>
+      </c>
+      <c r="F255" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G255" s="149">
+        <v>44740</v>
+      </c>
+      <c r="H255" s="150">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A256" s="1"/>
+      <c r="B256" s="111"/>
+      <c r="C256" s="112"/>
+      <c r="D256" s="146" t="s">
+        <v>536</v>
+      </c>
+      <c r="E256" s="147" t="s">
+        <v>535</v>
+      </c>
+      <c r="F256" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G256" s="149">
+        <v>44740</v>
+      </c>
+      <c r="H256" s="150">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A257" s="1"/>
+      <c r="B257" s="111"/>
+      <c r="C257" s="112"/>
+      <c r="D257" s="112"/>
+      <c r="E257" s="113"/>
+      <c r="F257" s="114"/>
+      <c r="G257" s="115"/>
+      <c r="H257" s="116"/>
+    </row>
+    <row r="258" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A258" s="1"/>
+      <c r="B258" s="111"/>
+      <c r="C258" s="163" t="s">
+        <v>147</v>
+      </c>
+      <c r="D258" s="158"/>
+      <c r="E258" s="158"/>
+      <c r="F258" s="158"/>
+      <c r="G258" s="158"/>
+      <c r="H258" s="159"/>
+    </row>
+    <row r="259" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+      <c r="B259" s="111"/>
+      <c r="C259" s="163"/>
+      <c r="D259" s="153" t="s">
+        <v>274</v>
+      </c>
+      <c r="E259" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="F259" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G259" s="156">
+        <v>44167</v>
+      </c>
+      <c r="H259" s="157">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+      <c r="B260" s="111"/>
+      <c r="C260" s="112"/>
+      <c r="D260" s="146" t="s">
+        <v>451</v>
+      </c>
+      <c r="E260" s="147" t="s">
+        <v>452</v>
+      </c>
+      <c r="F260" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G260" s="149">
+        <v>44575</v>
+      </c>
+      <c r="H260" s="150">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1"/>
+      <c r="B261" s="111"/>
+      <c r="C261" s="112"/>
+      <c r="D261" s="146" t="s">
+        <v>454</v>
+      </c>
+      <c r="E261" s="152" t="s">
+        <v>453</v>
+      </c>
+      <c r="F261" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G261" s="149">
+        <v>44404</v>
+      </c>
+      <c r="H261" s="150">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+      <c r="B262" s="111"/>
+      <c r="C262" s="112"/>
+      <c r="D262" s="112"/>
+      <c r="E262" s="113"/>
+      <c r="F262" s="114"/>
+      <c r="G262" s="115"/>
+      <c r="H262" s="116"/>
+    </row>
+    <row r="263" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+      <c r="B263" s="111"/>
+      <c r="C263" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="D263" s="158"/>
+      <c r="E263" s="158"/>
+      <c r="F263" s="158"/>
+      <c r="G263" s="158"/>
+      <c r="H263" s="159"/>
+    </row>
+    <row r="264" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A264" s="1"/>
+      <c r="B264" s="111"/>
+      <c r="C264" s="163"/>
+      <c r="D264" s="153" t="s">
+        <v>456</v>
+      </c>
+      <c r="E264" s="154" t="s">
+        <v>455</v>
+      </c>
+      <c r="F264" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G264" s="156">
+        <v>44635</v>
+      </c>
+      <c r="H264" s="157">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+      <c r="B265" s="111"/>
+      <c r="C265" s="112"/>
+      <c r="D265" s="146" t="s">
+        <v>458</v>
+      </c>
+      <c r="E265" s="147" t="s">
+        <v>457</v>
+      </c>
+      <c r="F265" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G265" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H265" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
+      <c r="B266" s="111"/>
+      <c r="C266" s="112"/>
+      <c r="D266" s="146" t="s">
+        <v>459</v>
+      </c>
+      <c r="E266" s="147" t="s">
+        <v>461</v>
+      </c>
+      <c r="F266" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G266" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H266" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A267" s="1"/>
+      <c r="B267" s="111"/>
+      <c r="C267" s="112"/>
+      <c r="D267" s="146" t="s">
+        <v>460</v>
+      </c>
+      <c r="E267" s="147" t="s">
+        <v>462</v>
+      </c>
+      <c r="F267" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G267" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H267" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+      <c r="B268" s="111"/>
+      <c r="C268" s="112"/>
+      <c r="D268" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="E268" s="147" t="s">
+        <v>466</v>
+      </c>
+      <c r="F268" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G268" s="149">
+        <v>44701</v>
+      </c>
+      <c r="H268" s="150">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+      <c r="B269" s="111"/>
+      <c r="C269" s="112"/>
+      <c r="D269" s="146" t="s">
+        <v>464</v>
+      </c>
+      <c r="E269" s="147" t="s">
+        <v>467</v>
+      </c>
+      <c r="F269" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G269" s="149">
+        <v>44701</v>
+      </c>
+      <c r="H269" s="150">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+      <c r="B270" s="111"/>
+      <c r="C270" s="112"/>
+      <c r="D270" s="146" t="s">
+        <v>468</v>
+      </c>
+      <c r="E270" s="147" t="s">
+        <v>469</v>
+      </c>
+      <c r="F270" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G270" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H270" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+      <c r="B271" s="111"/>
+      <c r="C271" s="112"/>
+      <c r="D271" s="146" t="s">
+        <v>470</v>
+      </c>
+      <c r="E271" s="147" t="s">
+        <v>471</v>
+      </c>
+      <c r="F271" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G271" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H271" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="118"/>
+      <c r="C272" s="119"/>
+      <c r="D272" s="119"/>
+      <c r="E272" s="120"/>
+      <c r="F272" s="121"/>
+      <c r="G272" s="122"/>
+      <c r="H272" s="123"/>
+    </row>
+    <row r="273" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="124"/>
+      <c r="G273" s="125"/>
+      <c r="H273" s="125"/>
+    </row>
+    <row r="274" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="124"/>
+      <c r="G274" s="125"/>
+      <c r="H274" s="125"/>
+    </row>
+    <row r="275" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="124"/>
+      <c r="G275" s="125"/>
+      <c r="H275" s="125"/>
+    </row>
+    <row r="276" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="124"/>
+      <c r="G276" s="125"/>
+      <c r="H276" s="125"/>
+    </row>
+    <row r="277" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="124"/>
+      <c r="G277" s="125"/>
+      <c r="H277" s="125"/>
+    </row>
+    <row r="278" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="124"/>
+      <c r="G278" s="125"/>
+      <c r="H278" s="125"/>
+    </row>
+    <row r="279" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="124"/>
+      <c r="G279" s="125"/>
+      <c r="H279" s="125"/>
+    </row>
+    <row r="280" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="124"/>
+      <c r="G280" s="125"/>
+      <c r="H280" s="125"/>
+    </row>
+    <row r="281" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="124"/>
+      <c r="G281" s="125"/>
+      <c r="H281" s="125"/>
+    </row>
+    <row r="282" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="124"/>
+      <c r="G282" s="125"/>
+      <c r="H282" s="125"/>
+    </row>
+    <row r="283" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="124"/>
+      <c r="G283" s="125"/>
+      <c r="H283" s="125"/>
+    </row>
+    <row r="284" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="124"/>
+      <c r="G284" s="125"/>
+      <c r="H284" s="125"/>
+    </row>
+    <row r="285" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="124"/>
+      <c r="G285" s="125"/>
+      <c r="H285" s="125"/>
+    </row>
+    <row r="286" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="124"/>
+      <c r="G286" s="125"/>
+      <c r="H286" s="125"/>
+    </row>
+    <row r="287" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="124"/>
+      <c r="G287" s="125"/>
+      <c r="H287" s="125"/>
+    </row>
+    <row r="288" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="124"/>
+      <c r="G288" s="125"/>
+      <c r="H288" s="125"/>
+    </row>
+    <row r="289" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F289" s="95"/>
+      <c r="G289" s="110"/>
+      <c r="H289" s="110"/>
+    </row>
+    <row r="290" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F290" s="95"/>
+      <c r="G290" s="110"/>
+      <c r="H290" s="110"/>
+    </row>
+    <row r="291" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F291" s="95"/>
+      <c r="G291" s="110"/>
+      <c r="H291" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C93:C94"/>
+  <mergeCells count="35">
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C142:C143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -5850,20 +7837,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="174" t="s">
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="174" t="s">
+      <c r="F2" s="194"/>
+      <c r="G2" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="175"/>
-      <c r="I2" s="176"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="194"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -5884,10 +7871,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="180" t="s">
+      <c r="H3" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="181"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -5917,19 +7904,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="186" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="188" t="s">
+      <c r="F5" s="189" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="191" t="s">
+      <c r="G5" s="180" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -5941,23 +7928,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="186"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="172" t="s">
+      <c r="F6" s="190"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="173"/>
+      <c r="I6" s="176"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="187"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="188"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="193"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="182"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -5991,19 +7978,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="182" t="s">
+      <c r="C9" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="185" t="s">
+      <c r="D9" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="196" t="s">
+      <c r="E9" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="188" t="s">
+      <c r="F9" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="191" t="s">
+      <c r="G9" s="180" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -6016,24 +8003,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="172" t="s">
+      <c r="C10" s="184"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="173"/>
+      <c r="I10" s="176"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="193"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="182"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -6043,10 +8030,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="182" t="s">
+      <c r="C12" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="185" t="s">
+      <c r="D12" s="186" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -6055,7 +8042,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="191" t="s">
+      <c r="G12" s="180" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -6067,15 +8054,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="187"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="188"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="193"/>
+      <c r="G13" s="182"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -6120,8 +8107,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -6535,19 +8522,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="185" t="s">
+      <c r="D40" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="196" t="s">
+      <c r="E40" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="188" t="s">
+      <c r="F40" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="191" t="s">
+      <c r="G40" s="180" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -6559,23 +8546,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="183"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="172" t="s">
+      <c r="C41" s="184"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="181"/>
+      <c r="H41" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="173"/>
+      <c r="I41" s="176"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="193"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="182"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -6609,19 +8596,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="185" t="s">
+      <c r="D44" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="196" t="s">
+      <c r="E44" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="188" t="s">
+      <c r="F44" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="191" t="s">
+      <c r="G44" s="180" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -6633,23 +8620,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="189"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="172" t="s">
+      <c r="C45" s="184"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="181"/>
+      <c r="H45" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="173"/>
+      <c r="I45" s="176"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="193"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="182"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -6674,8 +8661,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="194"/>
-      <c r="I48" s="195"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="174"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -6738,10 +8725,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="172" t="s">
+      <c r="H52" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="173"/>
+      <c r="I52" s="176"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -6774,35 +8761,35 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="195"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="174"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="143" t="s">
+      <c r="C56" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="D56" s="144" t="s">
+      <c r="D56" s="140" t="s">
         <v>379</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="F56" s="145" t="s">
+      <c r="F56" s="141" t="s">
         <v>382</v>
       </c>
-      <c r="G56" s="142"/>
+      <c r="G56" s="138"/>
       <c r="H56" s="8"/>
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="61"/>
-      <c r="C57" s="143" t="s">
+      <c r="C57" s="139" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="139" t="s">
+      <c r="D57" s="135" t="s">
         <v>377</v>
       </c>
       <c r="E57" s="45"/>
@@ -6813,28 +8800,28 @@
     </row>
     <row r="58" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="64"/>
-      <c r="C58" s="143" t="s">
+      <c r="C58" s="139" t="s">
         <v>376</v>
       </c>
-      <c r="D58" s="144" t="s">
+      <c r="D58" s="140" t="s">
         <v>378</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="F58" s="145" t="s">
+      <c r="F58" s="141" t="s">
         <v>383</v>
       </c>
-      <c r="G58" s="142"/>
+      <c r="G58" s="138"/>
       <c r="H58" s="8"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="61"/>
-      <c r="C59" s="133" t="s">
+      <c r="C59" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="135" t="s">
+      <c r="D59" s="131" t="s">
         <v>310</v>
       </c>
       <c r="E59" s="45"/>
@@ -6845,28 +8832,28 @@
     </row>
     <row r="60" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="64"/>
-      <c r="C60" s="133" t="s">
+      <c r="C60" s="129" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="135" t="s">
+      <c r="D60" s="131" t="s">
         <v>313</v>
       </c>
       <c r="E60" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F60" s="137" t="s">
+      <c r="F60" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="G60" s="131"/>
+      <c r="G60" s="127"/>
       <c r="H60" s="8"/>
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="64"/>
-      <c r="C61" s="133" t="s">
+      <c r="C61" s="129" t="s">
         <v>312</v>
       </c>
-      <c r="D61" s="135" t="s">
+      <c r="D61" s="131" t="s">
         <v>314</v>
       </c>
       <c r="E61" s="45"/>
@@ -6877,124 +8864,124 @@
     </row>
     <row r="62" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="64"/>
-      <c r="C62" s="138" t="s">
+      <c r="C62" s="134" t="s">
         <v>344</v>
       </c>
-      <c r="D62" s="139" t="s">
+      <c r="D62" s="135" t="s">
         <v>346</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="F62" s="140" t="s">
+      <c r="F62" s="136" t="s">
         <v>320</v>
       </c>
-      <c r="G62" s="141"/>
+      <c r="G62" s="137"/>
       <c r="H62" s="8"/>
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="64"/>
-      <c r="C63" s="138" t="s">
+      <c r="C63" s="134" t="s">
         <v>345</v>
       </c>
-      <c r="D63" s="139" t="s">
+      <c r="D63" s="135" t="s">
         <v>347</v>
       </c>
       <c r="E63" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="F63" s="140" t="s">
+      <c r="F63" s="136" t="s">
         <v>349</v>
       </c>
-      <c r="G63" s="141"/>
+      <c r="G63" s="137"/>
       <c r="H63" s="8"/>
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="64"/>
-      <c r="C64" s="133" t="s">
+      <c r="C64" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="D64" s="135" t="s">
+      <c r="D64" s="131" t="s">
         <v>316</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="F64" s="137" t="s">
+      <c r="F64" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="G64" s="131"/>
+      <c r="G64" s="127"/>
       <c r="H64" s="8"/>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="64"/>
-      <c r="C65" s="138" t="s">
+      <c r="C65" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="D65" s="139"/>
+      <c r="D65" s="135"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="141"/>
+      <c r="F65" s="136"/>
+      <c r="G65" s="137"/>
       <c r="H65" s="8"/>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="64"/>
-      <c r="C66" s="138" t="s">
+      <c r="C66" s="134" t="s">
         <v>352</v>
       </c>
-      <c r="D66" s="139"/>
+      <c r="D66" s="135"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="141"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="137"/>
       <c r="H66" s="8"/>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="64"/>
-      <c r="C67" s="138" t="s">
+      <c r="C67" s="134" t="s">
         <v>350</v>
       </c>
-      <c r="D67" s="139" t="s">
+      <c r="D67" s="135" t="s">
         <v>353</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F67" s="140" t="s">
+      <c r="F67" s="136" t="s">
         <v>355</v>
       </c>
-      <c r="G67" s="141"/>
+      <c r="G67" s="137"/>
       <c r="H67" s="8"/>
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="64"/>
-      <c r="C68" s="138" t="s">
+      <c r="C68" s="134" t="s">
         <v>356</v>
       </c>
-      <c r="D68" s="139" t="s">
+      <c r="D68" s="135" t="s">
         <v>357</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="F68" s="140" t="s">
+      <c r="F68" s="136" t="s">
         <v>355</v>
       </c>
-      <c r="G68" s="141"/>
+      <c r="G68" s="137"/>
       <c r="H68" s="8"/>
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B69" s="64"/>
-      <c r="C69" s="138" t="s">
+      <c r="C69" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="D69" s="139" t="s">
+      <c r="D69" s="135" t="s">
         <v>359</v>
       </c>
       <c r="E69" s="45"/>
@@ -7005,28 +8992,28 @@
     </row>
     <row r="70" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B70" s="64"/>
-      <c r="C70" s="138" t="s">
+      <c r="C70" s="134" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="139" t="s">
+      <c r="D70" s="135" t="s">
         <v>362</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="F70" s="140" t="s">
+      <c r="F70" s="136" t="s">
         <v>365</v>
       </c>
-      <c r="G70" s="141"/>
+      <c r="G70" s="137"/>
       <c r="H70" s="8"/>
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B71" s="64"/>
-      <c r="C71" s="138" t="s">
+      <c r="C71" s="134" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="139" t="s">
+      <c r="D71" s="135" t="s">
         <v>363</v>
       </c>
       <c r="E71" s="45"/>
@@ -7037,10 +9024,10 @@
     </row>
     <row r="72" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="64"/>
-      <c r="C72" s="138" t="s">
+      <c r="C72" s="134" t="s">
         <v>366</v>
       </c>
-      <c r="D72" s="139" t="s">
+      <c r="D72" s="135" t="s">
         <v>369</v>
       </c>
       <c r="E72" s="45"/>
@@ -7051,28 +9038,28 @@
     </row>
     <row r="73" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="64"/>
-      <c r="C73" s="138" t="s">
+      <c r="C73" s="134" t="s">
         <v>367</v>
       </c>
-      <c r="D73" s="139" t="s">
+      <c r="D73" s="135" t="s">
         <v>370</v>
       </c>
       <c r="E73" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="F73" s="140" t="s">
+      <c r="F73" s="136" t="s">
         <v>373</v>
       </c>
-      <c r="G73" s="141"/>
+      <c r="G73" s="137"/>
       <c r="H73" s="8"/>
       <c r="I73" s="17"/>
     </row>
     <row r="74" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="64"/>
-      <c r="C74" s="138" t="s">
+      <c r="C74" s="134" t="s">
         <v>368</v>
       </c>
-      <c r="D74" s="139" t="s">
+      <c r="D74" s="135" t="s">
         <v>371</v>
       </c>
       <c r="E74" s="45"/>
@@ -7083,10 +9070,10 @@
     </row>
     <row r="75" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="64"/>
-      <c r="C75" s="146" t="s">
+      <c r="C75" s="142" t="s">
         <v>384</v>
       </c>
-      <c r="D75" s="147" t="s">
+      <c r="D75" s="143" t="s">
         <v>385</v>
       </c>
       <c r="E75" s="45"/>
@@ -7097,87 +9084,87 @@
     </row>
     <row r="76" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B76" s="64"/>
-      <c r="C76" s="146" t="s">
+      <c r="C76" s="142" t="s">
         <v>386</v>
       </c>
-      <c r="D76" s="147" t="s">
+      <c r="D76" s="143" t="s">
         <v>391</v>
       </c>
       <c r="E76" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="F76" s="148" t="s">
+      <c r="F76" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="149"/>
+      <c r="G76" s="145"/>
       <c r="H76" s="8"/>
       <c r="I76" s="17"/>
     </row>
     <row r="77" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B77" s="64"/>
-      <c r="C77" s="146" t="s">
+      <c r="C77" s="142" t="s">
         <v>387</v>
       </c>
-      <c r="D77" s="147" t="s">
+      <c r="D77" s="143" t="s">
         <v>390</v>
       </c>
       <c r="E77" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="F77" s="148" t="s">
+      <c r="F77" s="144" t="s">
         <v>389</v>
       </c>
-      <c r="G77" s="149"/>
+      <c r="G77" s="145"/>
       <c r="H77" s="8"/>
       <c r="I77" s="17"/>
     </row>
     <row r="78" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="64"/>
-      <c r="C78" s="146"/>
-      <c r="D78" s="147"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="143"/>
       <c r="E78" s="42"/>
-      <c r="F78" s="148"/>
-      <c r="G78" s="149"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="145"/>
       <c r="H78" s="8"/>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="64"/>
-      <c r="C79" s="146"/>
-      <c r="D79" s="147"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="143"/>
       <c r="E79" s="42"/>
-      <c r="F79" s="148"/>
-      <c r="G79" s="149"/>
+      <c r="F79" s="144"/>
+      <c r="G79" s="145"/>
       <c r="H79" s="8"/>
       <c r="I79" s="17"/>
     </row>
     <row r="80" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="64"/>
-      <c r="C80" s="146"/>
-      <c r="D80" s="147"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="143"/>
       <c r="E80" s="42"/>
-      <c r="F80" s="148"/>
-      <c r="G80" s="149"/>
+      <c r="F80" s="144"/>
+      <c r="G80" s="145"/>
       <c r="H80" s="8"/>
       <c r="I80" s="17"/>
     </row>
     <row r="81" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="64"/>
-      <c r="C81" s="146"/>
-      <c r="D81" s="147"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="143"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="148"/>
-      <c r="G81" s="149"/>
+      <c r="F81" s="144"/>
+      <c r="G81" s="145"/>
       <c r="H81" s="8"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="64"/>
-      <c r="C82" s="132"/>
-      <c r="D82" s="134"/>
+      <c r="C82" s="128"/>
+      <c r="D82" s="130"/>
       <c r="E82" s="39"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="130"/>
+      <c r="F82" s="132"/>
+      <c r="G82" s="126"/>
       <c r="H82" s="9"/>
       <c r="I82" s="19"/>
     </row>
@@ -7188,8 +9175,8 @@
       <c r="E83" s="25"/>
       <c r="F83" s="22"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="194"/>
-      <c r="I83" s="195"/>
+      <c r="H83" s="173"/>
+      <c r="I83" s="174"/>
     </row>
     <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="61"/>
@@ -7333,22 +9320,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -7359,15 +9339,22 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7396,14 +9383,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="175" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="193" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="194" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7414,8 +9401,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -7877,7 +9864,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="202" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7885,7 +9872,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="202"/>
+      <c r="C3" s="203"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="599">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1760,6 +1760,118 @@
   </si>
   <si>
     <t>Func_GetDataList_PurchaseRequisition</t>
+  </si>
+  <si>
+    <t>Func_General_GetAddressByCountryAdministrativeAreaID</t>
+  </si>
+  <si>
+    <t>Mendapatkan alamat berdasarkan ID Wilayah Administratif (varCountryAdministrativeArea_RefID).</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_AccountingEntryRecordType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Jenis Entri Pencatatan Akuntansi berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Bank</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Bank berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_BankAccount</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Akun Bank berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_AppObject_WorkFlowPathAction</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Aksi pada Path Work Flow berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_General_DataConditional_NullZero_BigInt</t>
+  </si>
+  <si>
+    <t>Func_General_DataConditional_NullZero_Int</t>
+  </si>
+  <si>
+    <t>Func_General_DataConditional_NullZero_SmallInt</t>
+  </si>
+  <si>
+    <t>Mendapatkan Kondisional untuk NULL dan/atau ZERO bagi data SMALLINT (varValue)</t>
+  </si>
+  <si>
+    <t>Mendapatkan Kondisional untuk NULL dan/atau ZERO bagi data BIGINT (varValue)</t>
+  </si>
+  <si>
+    <t>Mendapatkan Kondisional untuk NULL dan/atau ZERO bagi data INTEGER (varValue)</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_OrganizationalDepartment</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_OrganizationalJobPosition</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_WorkerType</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Jenis Pekerja berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Worker</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Pekerja berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Departemen Organisasi berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Posisi Jabatan Organisasi berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Person</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Orang berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_WorkerCareerInternal</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Karir Internal Pekerja berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecil nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_ApproverEntity</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Entitas Pengesah berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
   </si>
 </sst>
 </file>
@@ -2941,35 +3053,143 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2977,12 +3197,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2992,66 +3206,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3063,48 +3217,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3417,13 +3529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3432,7 +3544,7 @@
     <col min="2" max="2" width="20.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="77" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" style="77" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" style="78" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="108" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="109" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="109" bestFit="1" customWidth="1"/>
@@ -3441,44 +3553,44 @@
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167" t="s">
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="171"/>
-    </row>
-    <row r="3" spans="1:8" s="204" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="205" t="s">
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
+    </row>
+    <row r="3" spans="1:8" s="163" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="206" t="s">
+      <c r="C3" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="207" t="s">
+      <c r="D3" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="208" t="s">
+      <c r="E3" s="186"/>
+      <c r="F3" s="167" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="209" t="s">
+      <c r="G3" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="210" t="s">
+      <c r="H3" s="169" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="162" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="161"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="183" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="158"/>
@@ -3490,8 +3602,8 @@
     </row>
     <row r="5" spans="1:8" s="162" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="161"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="163" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="177" t="s">
         <v>160</v>
       </c>
       <c r="D5" s="158"/>
@@ -3503,7 +3615,7 @@
     <row r="6" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="111"/>
-      <c r="C6" s="163"/>
+      <c r="C6" s="177"/>
       <c r="D6" s="112"/>
       <c r="E6" s="113"/>
       <c r="F6" s="114"/>
@@ -3523,7 +3635,7 @@
     <row r="8" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="111"/>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="177" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="158"/>
@@ -3535,7 +3647,7 @@
     <row r="9" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="111"/>
-      <c r="C9" s="163"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="112"/>
       <c r="E9" s="113"/>
       <c r="F9" s="114"/>
@@ -3555,7 +3667,7 @@
     <row r="11" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="111"/>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="177" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="158"/>
@@ -3567,7 +3679,7 @@
     <row r="12" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="111"/>
-      <c r="C12" s="163"/>
+      <c r="C12" s="177"/>
       <c r="D12" s="112"/>
       <c r="E12" s="113"/>
       <c r="F12" s="114"/>
@@ -3587,7 +3699,7 @@
     <row r="14" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="111"/>
-      <c r="C14" s="163" t="s">
+      <c r="C14" s="177" t="s">
         <v>163</v>
       </c>
       <c r="D14" s="158"/>
@@ -3599,7 +3711,7 @@
     <row r="15" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="111"/>
-      <c r="C15" s="163"/>
+      <c r="C15" s="177"/>
       <c r="D15" s="112"/>
       <c r="E15" s="113"/>
       <c r="F15" s="114"/>
@@ -3619,7 +3731,7 @@
     <row r="17" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="111"/>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="177" t="s">
         <v>164</v>
       </c>
       <c r="D17" s="158"/>
@@ -3631,7 +3743,7 @@
     <row r="18" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="111"/>
-      <c r="C18" s="163"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="112"/>
       <c r="E18" s="113"/>
       <c r="F18" s="114"/>
@@ -3651,7 +3763,7 @@
     <row r="20" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="111"/>
-      <c r="C20" s="163" t="s">
+      <c r="C20" s="177" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="158"/>
@@ -3663,7 +3775,7 @@
     <row r="21" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="111"/>
-      <c r="C21" s="163"/>
+      <c r="C21" s="177"/>
       <c r="D21" s="112"/>
       <c r="E21" s="113"/>
       <c r="F21" s="114"/>
@@ -3683,7 +3795,7 @@
     <row r="23" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="111"/>
-      <c r="C23" s="163" t="s">
+      <c r="C23" s="177" t="s">
         <v>165</v>
       </c>
       <c r="D23" s="158"/>
@@ -3695,7 +3807,7 @@
     <row r="24" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="111"/>
-      <c r="C24" s="163"/>
+      <c r="C24" s="177"/>
       <c r="D24" s="112"/>
       <c r="E24" s="113"/>
       <c r="F24" s="114"/>
@@ -3715,7 +3827,7 @@
     <row r="26" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="111"/>
-      <c r="C26" s="163" t="s">
+      <c r="C26" s="177" t="s">
         <v>166</v>
       </c>
       <c r="D26" s="158"/>
@@ -3727,7 +3839,7 @@
     <row r="27" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="111"/>
-      <c r="C27" s="163"/>
+      <c r="C27" s="177"/>
       <c r="D27" s="112"/>
       <c r="E27" s="113"/>
       <c r="F27" s="114"/>
@@ -3744,88 +3856,132 @@
       <c r="G28" s="115"/>
       <c r="H28" s="116"/>
     </row>
-    <row r="29" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="111"/>
-      <c r="C29" s="163" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="171"/>
     </row>
     <row r="30" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="111"/>
-      <c r="C30" s="163"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="112"/>
       <c r="E30" s="113"/>
       <c r="F30" s="114"/>
       <c r="G30" s="115"/>
       <c r="H30" s="116"/>
     </row>
-    <row r="31" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="111"/>
       <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="116"/>
-    </row>
-    <row r="32" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="153" t="s">
+        <v>585</v>
+      </c>
+      <c r="E31" s="160" t="s">
+        <v>591</v>
+      </c>
+      <c r="F31" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="156">
+        <v>44853</v>
+      </c>
+      <c r="H31" s="157">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="111"/>
-      <c r="C32" s="163" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="159"/>
-    </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C32" s="112"/>
+      <c r="D32" s="146" t="s">
+        <v>586</v>
+      </c>
+      <c r="E32" s="152" t="s">
+        <v>592</v>
+      </c>
+      <c r="F32" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="149">
+        <v>44964</v>
+      </c>
+      <c r="H32" s="150">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="111"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="116"/>
-    </row>
-    <row r="34" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C33" s="112"/>
+      <c r="D33" s="146" t="s">
+        <v>589</v>
+      </c>
+      <c r="E33" s="152" t="s">
+        <v>590</v>
+      </c>
+      <c r="F33" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="149">
+        <v>44964</v>
+      </c>
+      <c r="H33" s="150">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="111"/>
       <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="116"/>
-    </row>
-    <row r="35" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="146" t="s">
+        <v>595</v>
+      </c>
+      <c r="E34" s="152" t="s">
+        <v>596</v>
+      </c>
+      <c r="F34" s="148" t="s">
+        <v>555</v>
+      </c>
+      <c r="G34" s="149">
+        <v>44964</v>
+      </c>
+      <c r="H34" s="150">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="111"/>
-      <c r="C35" s="163" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="159"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="146" t="s">
+        <v>587</v>
+      </c>
+      <c r="E35" s="152" t="s">
+        <v>588</v>
+      </c>
+      <c r="F35" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="149">
+        <v>44964</v>
+      </c>
+      <c r="H35" s="150">
+        <v>44964</v>
+      </c>
     </row>
     <row r="36" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="111"/>
-      <c r="C36" s="163"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="112"/>
-      <c r="E36" s="113"/>
+      <c r="E36" s="117"/>
       <c r="F36" s="114"/>
       <c r="G36" s="115"/>
       <c r="H36" s="116"/>
@@ -3835,352 +3991,242 @@
       <c r="B37" s="111"/>
       <c r="C37" s="112"/>
       <c r="D37" s="112"/>
-      <c r="E37" s="113"/>
+      <c r="E37" s="117"/>
       <c r="F37" s="114"/>
       <c r="G37" s="115"/>
       <c r="H37" s="116"/>
     </row>
-    <row r="38" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="111"/>
-      <c r="C38" s="163" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="159"/>
-    </row>
-    <row r="39" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
+    </row>
+    <row r="39" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="111"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="153" t="s">
-        <v>537</v>
-      </c>
-      <c r="E39" s="160" t="s">
-        <v>548</v>
-      </c>
-      <c r="F39" s="155" t="s">
-        <v>267</v>
-      </c>
-      <c r="G39" s="156">
-        <v>44743</v>
-      </c>
-      <c r="H39" s="157">
-        <v>44739</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="116"/>
+    </row>
+    <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="111"/>
       <c r="C40" s="112"/>
-      <c r="D40" s="146" t="s">
-        <v>538</v>
-      </c>
-      <c r="E40" s="152" t="s">
-        <v>549</v>
-      </c>
-      <c r="F40" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G40" s="149">
-        <v>44743</v>
-      </c>
-      <c r="H40" s="150">
-        <v>44732</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="116"/>
+    </row>
+    <row r="41" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="111"/>
       <c r="C41" s="112"/>
-      <c r="D41" s="146" t="s">
-        <v>539</v>
-      </c>
-      <c r="E41" s="152" t="s">
-        <v>540</v>
-      </c>
-      <c r="F41" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="149">
-        <v>44743</v>
-      </c>
-      <c r="H41" s="150">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="D41" s="112"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="116"/>
+    </row>
+    <row r="42" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="111"/>
       <c r="C42" s="112"/>
-      <c r="D42" s="146" t="s">
-        <v>541</v>
-      </c>
-      <c r="E42" s="152" t="s">
-        <v>550</v>
-      </c>
-      <c r="F42" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G42" s="149">
-        <v>44757</v>
-      </c>
-      <c r="H42" s="150">
-        <v>44732</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D42" s="112"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="116"/>
+    </row>
+    <row r="43" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="111"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="146" t="s">
-        <v>543</v>
-      </c>
-      <c r="E43" s="152" t="s">
-        <v>542</v>
-      </c>
-      <c r="F43" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G43" s="149">
-        <v>44757</v>
-      </c>
-      <c r="H43" s="150">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="78" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="C43" s="177" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="159"/>
+    </row>
+    <row r="44" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="111"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="146" t="s">
-        <v>544</v>
-      </c>
-      <c r="E44" s="152" t="s">
-        <v>546</v>
-      </c>
-      <c r="F44" s="148" t="s">
+      <c r="C44" s="177"/>
+      <c r="D44" s="112" t="s">
+        <v>569</v>
+      </c>
+      <c r="E44" s="117" t="s">
+        <v>570</v>
+      </c>
+      <c r="F44" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="149">
-        <v>44851</v>
-      </c>
-      <c r="H44" s="150">
-        <v>44851</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G44" s="115">
+        <v>44663</v>
+      </c>
+      <c r="H44" s="116">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="111"/>
       <c r="C45" s="112"/>
-      <c r="D45" s="146" t="s">
-        <v>545</v>
-      </c>
-      <c r="E45" s="152" t="s">
-        <v>547</v>
-      </c>
-      <c r="F45" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G45" s="149">
-        <v>44743</v>
-      </c>
-      <c r="H45" s="150">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D45" s="112"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="116"/>
+    </row>
+    <row r="46" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="111"/>
       <c r="C46" s="112"/>
-      <c r="D46" s="146" t="s">
-        <v>551</v>
-      </c>
-      <c r="E46" s="152" t="s">
-        <v>552</v>
-      </c>
-      <c r="F46" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G46" s="149">
-        <v>44757</v>
-      </c>
-      <c r="H46" s="150">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="D46" s="112"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="116"/>
+    </row>
+    <row r="47" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="111"/>
       <c r="C47" s="112"/>
-      <c r="D47" s="146" t="s">
-        <v>553</v>
-      </c>
-      <c r="E47" s="152" t="s">
-        <v>554</v>
-      </c>
-      <c r="F47" s="148" t="s">
-        <v>555</v>
-      </c>
-      <c r="G47" s="149">
-        <v>44845</v>
-      </c>
-      <c r="H47" s="150">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="171"/>
+    </row>
+    <row r="48" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="111"/>
       <c r="C48" s="112"/>
-      <c r="D48" s="146" t="s">
-        <v>556</v>
-      </c>
-      <c r="E48" s="152" t="s">
-        <v>557</v>
-      </c>
-      <c r="F48" s="148" t="s">
+      <c r="D48" s="153" t="s">
+        <v>571</v>
+      </c>
+      <c r="E48" s="160" t="s">
+        <v>572</v>
+      </c>
+      <c r="F48" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="G48" s="149">
-        <v>44743</v>
-      </c>
-      <c r="H48" s="150">
-        <v>44739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="G48" s="156">
+        <v>44845</v>
+      </c>
+      <c r="H48" s="157">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="111"/>
       <c r="C49" s="112"/>
-      <c r="D49" s="213" t="s">
-        <v>558</v>
-      </c>
-      <c r="E49" s="214" t="s">
-        <v>559</v>
-      </c>
-      <c r="F49" s="215" t="s">
-        <v>267</v>
-      </c>
-      <c r="G49" s="216">
-        <v>44743</v>
-      </c>
-      <c r="H49" s="217">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="146" t="s">
+        <v>573</v>
+      </c>
+      <c r="E49" s="152" t="s">
+        <v>574</v>
+      </c>
+      <c r="F49" s="148" t="s">
+        <v>555</v>
+      </c>
+      <c r="G49" s="149">
+        <v>44845</v>
+      </c>
+      <c r="H49" s="150">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="111"/>
       <c r="C50" s="112"/>
-      <c r="D50" s="211"/>
-      <c r="E50" s="211"/>
-      <c r="F50" s="211"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="212"/>
-    </row>
-    <row r="51" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="D50" s="146" t="s">
+        <v>575</v>
+      </c>
+      <c r="E50" s="152" t="s">
+        <v>576</v>
+      </c>
+      <c r="F50" s="148" t="s">
+        <v>555</v>
+      </c>
+      <c r="G50" s="149">
+        <v>44845</v>
+      </c>
+      <c r="H50" s="150">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="111"/>
       <c r="C51" s="112"/>
-      <c r="D51" s="153" t="s">
-        <v>560</v>
-      </c>
-      <c r="E51" s="160" t="s">
-        <v>561</v>
-      </c>
-      <c r="F51" s="155" t="s">
-        <v>267</v>
-      </c>
-      <c r="G51" s="156">
-        <v>44672</v>
-      </c>
-      <c r="H51" s="157">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D51" s="146"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="150"/>
+    </row>
+    <row r="52" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="111"/>
       <c r="C52" s="112"/>
-      <c r="D52" s="146" t="s">
-        <v>562</v>
+      <c r="D52" s="153" t="s">
+        <v>593</v>
       </c>
       <c r="E52" s="152" t="s">
-        <v>563</v>
-      </c>
-      <c r="F52" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G52" s="149">
-        <v>44663</v>
-      </c>
-      <c r="H52" s="150">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="F52" s="155" t="s">
+        <v>555</v>
+      </c>
+      <c r="G52" s="156">
+        <v>44964</v>
+      </c>
+      <c r="H52" s="157">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="111"/>
       <c r="C53" s="112"/>
-      <c r="D53" s="146" t="s">
-        <v>564</v>
-      </c>
-      <c r="E53" s="152" t="s">
-        <v>565</v>
-      </c>
-      <c r="F53" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G53" s="149">
-        <v>44630</v>
-      </c>
-      <c r="H53" s="150">
-        <v>44630</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="D53" s="112"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="116"/>
+    </row>
+    <row r="54" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="111"/>
       <c r="C54" s="112"/>
-      <c r="D54" s="146" t="s">
-        <v>566</v>
-      </c>
-      <c r="E54" s="152" t="s">
-        <v>567</v>
-      </c>
-      <c r="F54" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G54" s="149">
-        <v>44627</v>
-      </c>
-      <c r="H54" s="150">
-        <v>44627</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="D54" s="112"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="116"/>
+    </row>
+    <row r="55" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="111"/>
       <c r="C55" s="112"/>
-      <c r="D55" s="146" t="s">
-        <v>568</v>
-      </c>
-      <c r="E55" s="152" t="s">
-        <v>567</v>
-      </c>
-      <c r="F55" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G55" s="149">
-        <v>44760</v>
-      </c>
-      <c r="H55" s="150">
-        <v>44627</v>
-      </c>
+      <c r="D55" s="112"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="116"/>
     </row>
     <row r="56" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
@@ -4332,1360 +4378,1174 @@
       <c r="G70" s="115"/>
       <c r="H70" s="116"/>
     </row>
-    <row r="71" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="111"/>
-      <c r="C71" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="158"/>
-      <c r="E71" s="158"/>
-      <c r="F71" s="158"/>
-      <c r="G71" s="158"/>
-      <c r="H71" s="159"/>
-    </row>
-    <row r="72" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="116"/>
+    </row>
+    <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="111"/>
-      <c r="C72" s="163"/>
-      <c r="D72" s="153" t="s">
-        <v>425</v>
-      </c>
-      <c r="E72" s="160" t="s">
-        <v>426</v>
-      </c>
-      <c r="F72" s="155" t="s">
-        <v>267</v>
-      </c>
-      <c r="G72" s="156">
-        <v>44743</v>
-      </c>
-      <c r="H72" s="157">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="116"/>
+    </row>
+    <row r="73" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="111"/>
       <c r="C73" s="112"/>
-      <c r="D73" s="146" t="s">
-        <v>427</v>
-      </c>
-      <c r="E73" s="152" t="s">
-        <v>428</v>
-      </c>
-      <c r="F73" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G73" s="149">
-        <v>44743</v>
-      </c>
-      <c r="H73" s="150">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D73" s="112"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="116"/>
+    </row>
+    <row r="74" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="111"/>
       <c r="C74" s="112"/>
-      <c r="D74" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="E74" s="152" t="s">
-        <v>430</v>
-      </c>
-      <c r="F74" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G74" s="149">
-        <v>44743</v>
-      </c>
-      <c r="H74" s="150">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D74" s="112"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="114"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="116"/>
+    </row>
+    <row r="75" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="111"/>
       <c r="C75" s="112"/>
-      <c r="D75" s="146" t="s">
-        <v>431</v>
-      </c>
-      <c r="E75" s="152" t="s">
-        <v>432</v>
-      </c>
-      <c r="F75" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G75" s="149">
-        <v>44743</v>
-      </c>
-      <c r="H75" s="150">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="112"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="114"/>
+      <c r="G75" s="115"/>
+      <c r="H75" s="116"/>
+    </row>
+    <row r="76" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="111"/>
       <c r="C76" s="112"/>
-      <c r="D76" s="211"/>
-      <c r="E76" s="211"/>
-      <c r="F76" s="211"/>
-      <c r="G76" s="211"/>
-      <c r="H76" s="212"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="116"/>
     </row>
     <row r="77" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="111"/>
       <c r="C77" s="112"/>
-      <c r="D77" s="146" t="s">
-        <v>433</v>
-      </c>
-      <c r="E77" s="147" t="s">
-        <v>434</v>
-      </c>
-      <c r="F77" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G77" s="149">
-        <v>44636</v>
-      </c>
-      <c r="H77" s="150">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="112"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="116"/>
+    </row>
+    <row r="78" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="111"/>
       <c r="C78" s="112"/>
-      <c r="D78" s="211"/>
-      <c r="E78" s="211"/>
-      <c r="F78" s="211"/>
-      <c r="G78" s="211"/>
-      <c r="H78" s="212"/>
-    </row>
-    <row r="79" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D78" s="112"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="115"/>
+      <c r="H78" s="116"/>
+    </row>
+    <row r="79" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="111"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="146" t="s">
-        <v>435</v>
-      </c>
-      <c r="E79" s="147" t="s">
-        <v>436</v>
-      </c>
-      <c r="F79" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G79" s="149">
-        <v>44636</v>
-      </c>
-      <c r="H79" s="150">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="177" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="158"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+      <c r="G79" s="158"/>
+      <c r="H79" s="159"/>
+    </row>
+    <row r="80" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="111"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="211"/>
-      <c r="E80" s="211"/>
-      <c r="F80" s="211"/>
-      <c r="G80" s="211"/>
-      <c r="H80" s="212"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="115"/>
+      <c r="H80" s="116"/>
     </row>
     <row r="81" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="111"/>
       <c r="C81" s="112"/>
-      <c r="D81" s="146" t="s">
-        <v>437</v>
-      </c>
-      <c r="E81" s="152" t="s">
-        <v>438</v>
-      </c>
-      <c r="F81" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G81" s="149">
-        <v>44825</v>
-      </c>
-      <c r="H81" s="150">
-        <v>44825</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="112"/>
+      <c r="E81" s="113"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="116"/>
+    </row>
+    <row r="82" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="111"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="211"/>
-      <c r="E82" s="211"/>
-      <c r="F82" s="211"/>
-      <c r="G82" s="211"/>
-      <c r="H82" s="212"/>
+      <c r="C82" s="177" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="158"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="158"/>
+      <c r="G82" s="158"/>
+      <c r="H82" s="159"/>
     </row>
     <row r="83" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="111"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="146" t="s">
-        <v>439</v>
-      </c>
-      <c r="E83" s="147" t="s">
-        <v>440</v>
-      </c>
-      <c r="F83" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G83" s="149">
-        <v>44742</v>
-      </c>
-      <c r="H83" s="150">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="177"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="114"/>
+      <c r="G83" s="115"/>
+      <c r="H83" s="116"/>
+    </row>
+    <row r="84" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="111"/>
       <c r="C84" s="112"/>
-      <c r="D84" s="211"/>
-      <c r="E84" s="211"/>
-      <c r="F84" s="211"/>
-      <c r="G84" s="211"/>
-      <c r="H84" s="212"/>
-    </row>
-    <row r="85" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D84" s="112"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="115"/>
+      <c r="H84" s="116"/>
+    </row>
+    <row r="85" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="111"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="146" t="s">
-        <v>441</v>
-      </c>
-      <c r="E85" s="147" t="s">
-        <v>442</v>
-      </c>
-      <c r="F85" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G85" s="149">
-        <v>44635</v>
-      </c>
-      <c r="H85" s="150">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C85" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="158"/>
+      <c r="E85" s="158"/>
+      <c r="F85" s="158"/>
+      <c r="G85" s="158"/>
+      <c r="H85" s="159"/>
+    </row>
+    <row r="86" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="111"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="146" t="s">
-        <v>444</v>
-      </c>
-      <c r="E86" s="147" t="s">
-        <v>443</v>
-      </c>
-      <c r="F86" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G86" s="149">
-        <v>44635</v>
-      </c>
-      <c r="H86" s="150">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C86" s="177"/>
+      <c r="D86" s="153" t="s">
+        <v>537</v>
+      </c>
+      <c r="E86" s="160" t="s">
+        <v>548</v>
+      </c>
+      <c r="F86" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" s="156">
+        <v>44743</v>
+      </c>
+      <c r="H86" s="157">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="111"/>
       <c r="C87" s="112"/>
       <c r="D87" s="146" t="s">
-        <v>445</v>
-      </c>
-      <c r="E87" s="147" t="s">
-        <v>446</v>
+        <v>538</v>
+      </c>
+      <c r="E87" s="152" t="s">
+        <v>549</v>
       </c>
       <c r="F87" s="148" t="s">
         <v>267</v>
       </c>
       <c r="G87" s="149">
-        <v>44644</v>
+        <v>44743</v>
       </c>
       <c r="H87" s="150">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="111"/>
       <c r="C88" s="112"/>
       <c r="D88" s="146" t="s">
-        <v>447</v>
-      </c>
-      <c r="E88" s="147" t="s">
-        <v>448</v>
+        <v>539</v>
+      </c>
+      <c r="E88" s="152" t="s">
+        <v>540</v>
       </c>
       <c r="F88" s="148" t="s">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="G88" s="149">
-        <v>44732</v>
+        <v>44743</v>
       </c>
       <c r="H88" s="150">
-        <v>44637</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="111"/>
       <c r="C89" s="112"/>
-      <c r="D89" s="112"/>
-      <c r="E89" s="113"/>
-      <c r="F89" s="114"/>
-      <c r="G89" s="115"/>
-      <c r="H89" s="116"/>
-    </row>
-    <row r="90" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D89" s="146" t="s">
+        <v>541</v>
+      </c>
+      <c r="E89" s="152" t="s">
+        <v>550</v>
+      </c>
+      <c r="F89" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G89" s="149">
+        <v>44757</v>
+      </c>
+      <c r="H89" s="150">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="111"/>
-      <c r="C90" s="163" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" s="158"/>
-      <c r="E90" s="158"/>
-      <c r="F90" s="158"/>
-      <c r="G90" s="158"/>
-      <c r="H90" s="159"/>
-    </row>
-    <row r="91" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C90" s="112"/>
+      <c r="D90" s="146" t="s">
+        <v>543</v>
+      </c>
+      <c r="E90" s="152" t="s">
+        <v>542</v>
+      </c>
+      <c r="F90" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G90" s="149">
+        <v>44757</v>
+      </c>
+      <c r="H90" s="150">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="78" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="111"/>
-      <c r="C91" s="163"/>
-      <c r="D91" s="153" t="s">
-        <v>227</v>
-      </c>
-      <c r="E91" s="154" t="s">
-        <v>235</v>
-      </c>
-      <c r="F91" s="155" t="s">
+      <c r="C91" s="112"/>
+      <c r="D91" s="146" t="s">
+        <v>544</v>
+      </c>
+      <c r="E91" s="152" t="s">
+        <v>546</v>
+      </c>
+      <c r="F91" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G91" s="156">
-        <v>44910</v>
-      </c>
-      <c r="H91" s="157">
-        <v>44910</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G91" s="149">
+        <v>44851</v>
+      </c>
+      <c r="H91" s="150">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="111"/>
       <c r="C92" s="112"/>
-      <c r="D92" s="153" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" s="154" t="s">
-        <v>236</v>
-      </c>
-      <c r="F92" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="G92" s="156">
-        <v>44908</v>
-      </c>
-      <c r="H92" s="157">
-        <v>44908</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D92" s="146" t="s">
+        <v>545</v>
+      </c>
+      <c r="E92" s="152" t="s">
+        <v>547</v>
+      </c>
+      <c r="F92" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G92" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H92" s="150">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="111"/>
       <c r="C93" s="112"/>
       <c r="D93" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="E93" s="147" t="s">
-        <v>237</v>
+        <v>551</v>
+      </c>
+      <c r="E93" s="152" t="s">
+        <v>552</v>
       </c>
       <c r="F93" s="148" t="s">
-        <v>232</v>
+        <v>465</v>
       </c>
       <c r="G93" s="149">
-        <v>44908</v>
+        <v>44757</v>
       </c>
       <c r="H93" s="150">
-        <v>44908</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="111"/>
       <c r="C94" s="112"/>
-      <c r="D94" s="211"/>
-      <c r="E94" s="211"/>
-      <c r="F94" s="211"/>
-      <c r="G94" s="211"/>
-      <c r="H94" s="212"/>
-    </row>
-    <row r="95" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D94" s="146" t="s">
+        <v>553</v>
+      </c>
+      <c r="E94" s="152" t="s">
+        <v>554</v>
+      </c>
+      <c r="F94" s="148" t="s">
+        <v>555</v>
+      </c>
+      <c r="G94" s="149">
+        <v>44845</v>
+      </c>
+      <c r="H94" s="150">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="111"/>
       <c r="C95" s="112"/>
       <c r="D95" s="146" t="s">
-        <v>415</v>
+        <v>556</v>
       </c>
       <c r="E95" s="152" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="F95" s="148" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G95" s="149">
-        <v>44960</v>
+        <v>44743</v>
       </c>
       <c r="H95" s="150">
-        <v>44960</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="111"/>
       <c r="C96" s="112"/>
-      <c r="D96" s="211"/>
-      <c r="E96" s="211"/>
-      <c r="F96" s="211"/>
-      <c r="G96" s="211"/>
-      <c r="H96" s="212"/>
-    </row>
-    <row r="97" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D96" s="172" t="s">
+        <v>558</v>
+      </c>
+      <c r="E96" s="173" t="s">
+        <v>559</v>
+      </c>
+      <c r="F96" s="174" t="s">
+        <v>267</v>
+      </c>
+      <c r="G96" s="175">
+        <v>44743</v>
+      </c>
+      <c r="H96" s="176">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="111"/>
       <c r="C97" s="112"/>
-      <c r="D97" s="146" t="s">
-        <v>238</v>
-      </c>
-      <c r="E97" s="147" t="s">
-        <v>239</v>
-      </c>
-      <c r="F97" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G97" s="149">
-        <v>44887</v>
-      </c>
-      <c r="H97" s="150">
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D97" s="170"/>
+      <c r="E97" s="170"/>
+      <c r="F97" s="170"/>
+      <c r="G97" s="170"/>
+      <c r="H97" s="171"/>
+    </row>
+    <row r="98" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="111"/>
       <c r="C98" s="112"/>
-      <c r="D98" s="146" t="s">
-        <v>240</v>
-      </c>
-      <c r="E98" s="147" t="s">
-        <v>241</v>
-      </c>
-      <c r="F98" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G98" s="149">
-        <v>44887</v>
-      </c>
-      <c r="H98" s="150">
-        <v>44887</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D98" s="153" t="s">
+        <v>560</v>
+      </c>
+      <c r="E98" s="160" t="s">
+        <v>561</v>
+      </c>
+      <c r="F98" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="G98" s="156">
+        <v>44672</v>
+      </c>
+      <c r="H98" s="157">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="111"/>
       <c r="C99" s="112"/>
       <c r="D99" s="146" t="s">
-        <v>417</v>
+        <v>562</v>
       </c>
       <c r="E99" s="152" t="s">
-        <v>420</v>
+        <v>563</v>
       </c>
       <c r="F99" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G99" s="149">
-        <v>44959</v>
+        <v>44663</v>
       </c>
       <c r="H99" s="150">
-        <v>44959</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="111"/>
       <c r="C100" s="112"/>
       <c r="D100" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="E100" s="147" t="s">
-        <v>421</v>
+        <v>564</v>
+      </c>
+      <c r="E100" s="152" t="s">
+        <v>565</v>
       </c>
       <c r="F100" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G100" s="149">
-        <v>44960</v>
+        <v>44630</v>
       </c>
       <c r="H100" s="150">
-        <v>44960</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="111"/>
       <c r="C101" s="112"/>
       <c r="D101" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="E101" s="147" t="s">
-        <v>422</v>
+        <v>566</v>
+      </c>
+      <c r="E101" s="152" t="s">
+        <v>567</v>
       </c>
       <c r="F101" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G101" s="149">
-        <v>44960</v>
+        <v>44627</v>
       </c>
       <c r="H101" s="150">
-        <v>44960</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="111"/>
       <c r="C102" s="112"/>
-      <c r="D102" s="211"/>
-      <c r="E102" s="211"/>
-      <c r="F102" s="211"/>
-      <c r="G102" s="211"/>
-      <c r="H102" s="212"/>
+      <c r="D102" s="146" t="s">
+        <v>568</v>
+      </c>
+      <c r="E102" s="152" t="s">
+        <v>567</v>
+      </c>
+      <c r="F102" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G102" s="149">
+        <v>44760</v>
+      </c>
+      <c r="H102" s="150">
+        <v>44627</v>
+      </c>
     </row>
     <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="111"/>
       <c r="C103" s="112"/>
-      <c r="D103" s="146" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="147" t="s">
-        <v>243</v>
-      </c>
-      <c r="F103" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G103" s="149">
-        <v>44774</v>
-      </c>
-      <c r="H103" s="150">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="112"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="114"/>
+      <c r="G103" s="115"/>
+      <c r="H103" s="116"/>
+    </row>
+    <row r="104" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="111"/>
       <c r="C104" s="112"/>
-      <c r="D104" s="211"/>
-      <c r="E104" s="211"/>
-      <c r="F104" s="211"/>
-      <c r="G104" s="211"/>
-      <c r="H104" s="212"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="113"/>
+      <c r="F104" s="114"/>
+      <c r="G104" s="115"/>
+      <c r="H104" s="116"/>
     </row>
     <row r="105" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="111"/>
       <c r="C105" s="112"/>
-      <c r="D105" s="146" t="s">
-        <v>305</v>
-      </c>
-      <c r="E105" s="147" t="s">
-        <v>306</v>
-      </c>
-      <c r="F105" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G105" s="149">
-        <v>44897</v>
-      </c>
-      <c r="H105" s="150">
-        <v>44897</v>
-      </c>
+      <c r="D105" s="112"/>
+      <c r="E105" s="113"/>
+      <c r="F105" s="114"/>
+      <c r="G105" s="115"/>
+      <c r="H105" s="116"/>
     </row>
     <row r="106" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="111"/>
       <c r="C106" s="112"/>
-      <c r="D106" s="146" t="s">
-        <v>244</v>
-      </c>
-      <c r="E106" s="147" t="s">
-        <v>245</v>
-      </c>
-      <c r="F106" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G106" s="149">
-        <v>44897</v>
-      </c>
-      <c r="H106" s="150">
-        <v>44897</v>
-      </c>
+      <c r="D106" s="112"/>
+      <c r="E106" s="113"/>
+      <c r="F106" s="114"/>
+      <c r="G106" s="115"/>
+      <c r="H106" s="116"/>
     </row>
     <row r="107" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="111"/>
       <c r="C107" s="112"/>
-      <c r="D107" s="146" t="s">
-        <v>246</v>
-      </c>
-      <c r="E107" s="147" t="s">
-        <v>247</v>
-      </c>
-      <c r="F107" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G107" s="149">
-        <v>44897</v>
-      </c>
-      <c r="H107" s="150">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D107" s="112"/>
+      <c r="E107" s="113"/>
+      <c r="F107" s="114"/>
+      <c r="G107" s="115"/>
+      <c r="H107" s="116"/>
+    </row>
+    <row r="108" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="111"/>
       <c r="C108" s="112"/>
-      <c r="D108" s="211"/>
-      <c r="E108" s="211"/>
-      <c r="F108" s="211"/>
-      <c r="G108" s="211"/>
-      <c r="H108" s="212"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="113"/>
+      <c r="F108" s="114"/>
+      <c r="G108" s="115"/>
+      <c r="H108" s="116"/>
     </row>
     <row r="109" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="111"/>
       <c r="C109" s="112"/>
-      <c r="D109" s="146" t="s">
-        <v>248</v>
-      </c>
-      <c r="E109" s="147" t="s">
-        <v>249</v>
-      </c>
-      <c r="F109" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G109" s="149">
-        <v>44748</v>
-      </c>
-      <c r="H109" s="150">
-        <v>44748</v>
-      </c>
+      <c r="D109" s="112"/>
+      <c r="E109" s="113"/>
+      <c r="F109" s="114"/>
+      <c r="G109" s="115"/>
+      <c r="H109" s="116"/>
     </row>
     <row r="110" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="111"/>
       <c r="C110" s="112"/>
-      <c r="D110" s="146" t="s">
-        <v>250</v>
-      </c>
-      <c r="E110" s="147" t="s">
-        <v>251</v>
-      </c>
-      <c r="F110" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G110" s="149">
-        <v>44735</v>
-      </c>
-      <c r="H110" s="150">
-        <v>44735</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D110" s="112"/>
+      <c r="E110" s="113"/>
+      <c r="F110" s="114"/>
+      <c r="G110" s="115"/>
+      <c r="H110" s="116"/>
+    </row>
+    <row r="111" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="111"/>
       <c r="C111" s="112"/>
-      <c r="D111" s="211"/>
-      <c r="E111" s="211"/>
-      <c r="F111" s="211"/>
-      <c r="G111" s="211"/>
-      <c r="H111" s="212"/>
+      <c r="D111" s="112"/>
+      <c r="E111" s="113"/>
+      <c r="F111" s="114"/>
+      <c r="G111" s="115"/>
+      <c r="H111" s="116"/>
     </row>
     <row r="112" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="111"/>
       <c r="C112" s="112"/>
-      <c r="D112" s="146" t="s">
-        <v>252</v>
-      </c>
-      <c r="E112" s="147" t="s">
-        <v>253</v>
-      </c>
-      <c r="F112" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G112" s="149">
-        <v>44854</v>
-      </c>
-      <c r="H112" s="150">
-        <v>44854</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D112" s="112"/>
+      <c r="E112" s="113"/>
+      <c r="F112" s="114"/>
+      <c r="G112" s="115"/>
+      <c r="H112" s="116"/>
+    </row>
+    <row r="113" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="111"/>
       <c r="C113" s="112"/>
-      <c r="D113" s="211"/>
-      <c r="E113" s="211"/>
-      <c r="F113" s="211"/>
-      <c r="G113" s="211"/>
-      <c r="H113" s="212"/>
+      <c r="D113" s="112"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="114"/>
+      <c r="G113" s="115"/>
+      <c r="H113" s="116"/>
     </row>
     <row r="114" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="111"/>
       <c r="C114" s="112"/>
-      <c r="D114" s="146" t="s">
-        <v>254</v>
-      </c>
-      <c r="E114" s="147" t="s">
-        <v>259</v>
-      </c>
-      <c r="F114" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G114" s="149">
-        <v>44770</v>
-      </c>
-      <c r="H114" s="150">
-        <v>44770</v>
-      </c>
+      <c r="D114" s="112"/>
+      <c r="E114" s="113"/>
+      <c r="F114" s="114"/>
+      <c r="G114" s="115"/>
+      <c r="H114" s="116"/>
     </row>
     <row r="115" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="111"/>
       <c r="C115" s="112"/>
-      <c r="D115" s="146" t="s">
-        <v>255</v>
-      </c>
-      <c r="E115" s="147" t="s">
-        <v>260</v>
-      </c>
-      <c r="F115" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G115" s="149">
-        <v>44770</v>
-      </c>
-      <c r="H115" s="150">
-        <v>44427</v>
-      </c>
+      <c r="D115" s="112"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="114"/>
+      <c r="G115" s="115"/>
+      <c r="H115" s="116"/>
     </row>
     <row r="116" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="111"/>
       <c r="C116" s="112"/>
-      <c r="D116" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="E116" s="147" t="s">
-        <v>261</v>
-      </c>
-      <c r="F116" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G116" s="149">
-        <v>44770</v>
-      </c>
-      <c r="H116" s="150">
-        <v>44770</v>
-      </c>
+      <c r="D116" s="112"/>
+      <c r="E116" s="113"/>
+      <c r="F116" s="114"/>
+      <c r="G116" s="115"/>
+      <c r="H116" s="116"/>
     </row>
     <row r="117" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="111"/>
       <c r="C117" s="112"/>
-      <c r="D117" s="146" t="s">
-        <v>258</v>
-      </c>
-      <c r="E117" s="147" t="s">
-        <v>262</v>
-      </c>
-      <c r="F117" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G117" s="149">
-        <v>44770</v>
-      </c>
-      <c r="H117" s="150">
-        <v>44427</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D117" s="112"/>
+      <c r="E117" s="113"/>
+      <c r="F117" s="114"/>
+      <c r="G117" s="115"/>
+      <c r="H117" s="116"/>
+    </row>
+    <row r="118" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="111"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="211"/>
-      <c r="E118" s="211"/>
-      <c r="F118" s="211"/>
-      <c r="G118" s="211"/>
-      <c r="H118" s="212"/>
-    </row>
-    <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C118" s="177" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" s="158"/>
+      <c r="E118" s="158"/>
+      <c r="F118" s="158"/>
+      <c r="G118" s="158"/>
+      <c r="H118" s="159"/>
+    </row>
+    <row r="119" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="111"/>
-      <c r="C119" s="112"/>
-      <c r="D119" s="146" t="s">
-        <v>283</v>
-      </c>
-      <c r="E119" s="147" t="s">
-        <v>263</v>
-      </c>
-      <c r="F119" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G119" s="149">
-        <v>44777</v>
-      </c>
-      <c r="H119" s="150">
-        <v>44777</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C119" s="177"/>
+      <c r="D119" s="153" t="s">
+        <v>425</v>
+      </c>
+      <c r="E119" s="160" t="s">
+        <v>426</v>
+      </c>
+      <c r="F119" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="G119" s="156">
+        <v>44743</v>
+      </c>
+      <c r="H119" s="157">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="111"/>
       <c r="C120" s="112"/>
       <c r="D120" s="146" t="s">
-        <v>303</v>
-      </c>
-      <c r="E120" s="147" t="s">
-        <v>304</v>
+        <v>427</v>
+      </c>
+      <c r="E120" s="152" t="s">
+        <v>428</v>
       </c>
       <c r="F120" s="148" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G120" s="149">
-        <v>44935</v>
+        <v>44743</v>
       </c>
       <c r="H120" s="150">
-        <v>44935</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="111"/>
       <c r="C121" s="112"/>
       <c r="D121" s="146" t="s">
-        <v>284</v>
-      </c>
-      <c r="E121" s="147" t="s">
-        <v>277</v>
+        <v>429</v>
+      </c>
+      <c r="E121" s="152" t="s">
+        <v>430</v>
       </c>
       <c r="F121" s="148" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G121" s="149">
-        <v>44931</v>
+        <v>44743</v>
       </c>
       <c r="H121" s="150">
-        <v>44931</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="111"/>
       <c r="C122" s="112"/>
-      <c r="D122" s="211"/>
-      <c r="E122" s="211"/>
-      <c r="F122" s="211"/>
-      <c r="G122" s="211"/>
-      <c r="H122" s="212"/>
-    </row>
-    <row r="123" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D122" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="E122" s="152" t="s">
+        <v>432</v>
+      </c>
+      <c r="F122" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G122" s="149">
+        <v>44743</v>
+      </c>
+      <c r="H122" s="150">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="111"/>
       <c r="C123" s="112"/>
-      <c r="D123" s="146" t="s">
-        <v>264</v>
-      </c>
-      <c r="E123" s="147" t="s">
-        <v>265</v>
-      </c>
-      <c r="F123" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G123" s="149">
-        <v>44847</v>
-      </c>
-      <c r="H123" s="150">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D123" s="170"/>
+      <c r="E123" s="170"/>
+      <c r="F123" s="170"/>
+      <c r="G123" s="170"/>
+      <c r="H123" s="171"/>
+    </row>
+    <row r="124" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="111"/>
       <c r="C124" s="112"/>
-      <c r="D124" s="211"/>
-      <c r="E124" s="211"/>
-      <c r="F124" s="211"/>
-      <c r="G124" s="211"/>
-      <c r="H124" s="212"/>
-    </row>
-    <row r="125" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D124" s="146" t="s">
+        <v>433</v>
+      </c>
+      <c r="E124" s="147" t="s">
+        <v>434</v>
+      </c>
+      <c r="F124" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G124" s="149">
+        <v>44636</v>
+      </c>
+      <c r="H124" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="111"/>
       <c r="C125" s="112"/>
-      <c r="D125" s="146" t="s">
-        <v>266</v>
-      </c>
-      <c r="E125" s="147" t="s">
-        <v>268</v>
-      </c>
-      <c r="F125" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G125" s="149">
-        <v>44792</v>
-      </c>
-      <c r="H125" s="150">
-        <v>44770</v>
-      </c>
+      <c r="D125" s="170"/>
+      <c r="E125" s="170"/>
+      <c r="F125" s="170"/>
+      <c r="G125" s="170"/>
+      <c r="H125" s="171"/>
     </row>
     <row r="126" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="111"/>
       <c r="C126" s="112"/>
       <c r="D126" s="146" t="s">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="E126" s="147" t="s">
-        <v>270</v>
+        <v>436</v>
       </c>
       <c r="F126" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G126" s="149">
-        <v>44776</v>
+        <v>44636</v>
       </c>
       <c r="H126" s="150">
-        <v>44776</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="111"/>
       <c r="C127" s="112"/>
-      <c r="D127" s="211"/>
-      <c r="E127" s="211"/>
-      <c r="F127" s="211"/>
-      <c r="G127" s="211"/>
-      <c r="H127" s="212"/>
+      <c r="D127" s="170"/>
+      <c r="E127" s="170"/>
+      <c r="F127" s="170"/>
+      <c r="G127" s="170"/>
+      <c r="H127" s="171"/>
     </row>
     <row r="128" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="111"/>
       <c r="C128" s="112"/>
       <c r="D128" s="146" t="s">
-        <v>302</v>
-      </c>
-      <c r="E128" s="147" t="s">
-        <v>271</v>
+        <v>437</v>
+      </c>
+      <c r="E128" s="152" t="s">
+        <v>438</v>
       </c>
       <c r="F128" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G128" s="149">
-        <v>44777</v>
+        <v>44825</v>
       </c>
       <c r="H128" s="150">
-        <v>44777</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="111"/>
       <c r="C129" s="112"/>
-      <c r="D129" s="211"/>
-      <c r="E129" s="211"/>
-      <c r="F129" s="211"/>
-      <c r="G129" s="211"/>
-      <c r="H129" s="212"/>
+      <c r="D129" s="170"/>
+      <c r="E129" s="170"/>
+      <c r="F129" s="170"/>
+      <c r="G129" s="170"/>
+      <c r="H129" s="171"/>
     </row>
     <row r="130" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="111"/>
       <c r="C130" s="112"/>
       <c r="D130" s="146" t="s">
-        <v>272</v>
+        <v>439</v>
       </c>
       <c r="E130" s="147" t="s">
-        <v>273</v>
+        <v>440</v>
       </c>
       <c r="F130" s="148" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G130" s="149">
-        <v>44770</v>
+        <v>44742</v>
       </c>
       <c r="H130" s="150">
-        <v>44770</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="111"/>
       <c r="C131" s="112"/>
-      <c r="D131" s="211"/>
-      <c r="E131" s="211"/>
-      <c r="F131" s="211"/>
-      <c r="G131" s="211"/>
-      <c r="H131" s="212"/>
-    </row>
-    <row r="132" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D131" s="170"/>
+      <c r="E131" s="170"/>
+      <c r="F131" s="170"/>
+      <c r="G131" s="170"/>
+      <c r="H131" s="171"/>
+    </row>
+    <row r="132" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="111"/>
       <c r="C132" s="112"/>
       <c r="D132" s="146" t="s">
-        <v>294</v>
-      </c>
-      <c r="E132" s="152" t="s">
-        <v>296</v>
+        <v>441</v>
+      </c>
+      <c r="E132" s="147" t="s">
+        <v>442</v>
       </c>
       <c r="F132" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G132" s="149">
-        <v>44937</v>
+        <v>44635</v>
       </c>
       <c r="H132" s="150">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="111"/>
       <c r="C133" s="112"/>
       <c r="D133" s="146" t="s">
-        <v>293</v>
-      </c>
-      <c r="E133" s="152" t="s">
-        <v>295</v>
+        <v>444</v>
+      </c>
+      <c r="E133" s="147" t="s">
+        <v>443</v>
       </c>
       <c r="F133" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G133" s="149">
-        <v>44937</v>
+        <v>44635</v>
       </c>
       <c r="H133" s="150">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="111"/>
       <c r="C134" s="112"/>
       <c r="D134" s="146" t="s">
-        <v>291</v>
-      </c>
-      <c r="E134" s="152" t="s">
-        <v>297</v>
+        <v>445</v>
+      </c>
+      <c r="E134" s="147" t="s">
+        <v>446</v>
       </c>
       <c r="F134" s="148" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G134" s="149">
-        <v>44937</v>
+        <v>44644</v>
       </c>
       <c r="H134" s="150">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="111"/>
       <c r="C135" s="112"/>
       <c r="D135" s="146" t="s">
-        <v>307</v>
-      </c>
-      <c r="E135" s="152" t="s">
-        <v>308</v>
+        <v>447</v>
+      </c>
+      <c r="E135" s="147" t="s">
+        <v>448</v>
       </c>
       <c r="F135" s="148" t="s">
-        <v>232</v>
+        <v>449</v>
       </c>
       <c r="G135" s="149">
-        <v>44949</v>
+        <v>44732</v>
       </c>
       <c r="H135" s="150">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="111"/>
       <c r="C136" s="112"/>
-      <c r="D136" s="146" t="s">
-        <v>292</v>
-      </c>
-      <c r="E136" s="152" t="s">
-        <v>298</v>
-      </c>
-      <c r="F136" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G136" s="149">
-        <v>44937</v>
-      </c>
-      <c r="H136" s="150">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D136" s="112"/>
+      <c r="E136" s="113"/>
+      <c r="F136" s="114"/>
+      <c r="G136" s="115"/>
+      <c r="H136" s="116"/>
+    </row>
+    <row r="137" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="111"/>
-      <c r="C137" s="112"/>
-      <c r="D137" s="146" t="s">
-        <v>290</v>
-      </c>
-      <c r="E137" s="152" t="s">
-        <v>299</v>
-      </c>
-      <c r="F137" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G137" s="149">
-        <v>44937</v>
-      </c>
-      <c r="H137" s="150">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C137" s="177" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" s="158"/>
+      <c r="E137" s="158"/>
+      <c r="F137" s="158"/>
+      <c r="G137" s="158"/>
+      <c r="H137" s="159"/>
+    </row>
+    <row r="138" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="111"/>
-      <c r="C138" s="112"/>
-      <c r="D138" s="146" t="s">
-        <v>289</v>
-      </c>
-      <c r="E138" s="152" t="s">
-        <v>300</v>
-      </c>
-      <c r="F138" s="148" t="s">
+      <c r="C138" s="177"/>
+      <c r="D138" s="153" t="s">
+        <v>227</v>
+      </c>
+      <c r="E138" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="F138" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="G138" s="149">
-        <v>44937</v>
-      </c>
-      <c r="H138" s="150">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="G138" s="156">
+        <v>44910</v>
+      </c>
+      <c r="H138" s="157">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="111"/>
       <c r="C139" s="112"/>
-      <c r="D139" s="146" t="s">
-        <v>288</v>
-      </c>
-      <c r="E139" s="152" t="s">
-        <v>301</v>
-      </c>
-      <c r="F139" s="148" t="s">
+      <c r="D139" s="153" t="s">
+        <v>233</v>
+      </c>
+      <c r="E139" s="154" t="s">
+        <v>236</v>
+      </c>
+      <c r="F139" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="G139" s="149">
-        <v>44937</v>
-      </c>
-      <c r="H139" s="150">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G139" s="156">
+        <v>44908</v>
+      </c>
+      <c r="H139" s="157">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="111"/>
       <c r="C140" s="112"/>
-      <c r="D140" s="211"/>
-      <c r="E140" s="211"/>
-      <c r="F140" s="211"/>
-      <c r="G140" s="211"/>
-      <c r="H140" s="212"/>
-    </row>
-    <row r="141" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D140" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="E140" s="147" t="s">
+        <v>237</v>
+      </c>
+      <c r="F140" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G140" s="149">
+        <v>44908</v>
+      </c>
+      <c r="H140" s="150">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="111"/>
       <c r="C141" s="112"/>
-      <c r="D141" s="112" t="s">
-        <v>423</v>
-      </c>
-      <c r="E141" s="117" t="s">
-        <v>424</v>
-      </c>
-      <c r="F141" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="G141" s="115">
-        <v>44959</v>
-      </c>
-      <c r="H141" s="116">
-        <v>44959</v>
-      </c>
+      <c r="D141" s="170"/>
+      <c r="E141" s="170"/>
+      <c r="F141" s="170"/>
+      <c r="G141" s="170"/>
+      <c r="H141" s="171"/>
     </row>
     <row r="142" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="111"/>
-      <c r="C142" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="D142" s="158"/>
-      <c r="E142" s="158"/>
-      <c r="F142" s="158"/>
-      <c r="G142" s="158"/>
-      <c r="H142" s="159"/>
-    </row>
-    <row r="143" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C142" s="112"/>
+      <c r="D142" s="146" t="s">
+        <v>415</v>
+      </c>
+      <c r="E142" s="152" t="s">
+        <v>416</v>
+      </c>
+      <c r="F142" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G142" s="149">
+        <v>44960</v>
+      </c>
+      <c r="H142" s="150">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="111"/>
-      <c r="C143" s="163"/>
-      <c r="D143" s="153" t="s">
-        <v>274</v>
-      </c>
-      <c r="E143" s="154" t="s">
-        <v>275</v>
-      </c>
-      <c r="F143" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="G143" s="156">
-        <v>44167</v>
-      </c>
-      <c r="H143" s="157">
-        <v>44167</v>
-      </c>
+      <c r="C143" s="112"/>
+      <c r="D143" s="170"/>
+      <c r="E143" s="170"/>
+      <c r="F143" s="170"/>
+      <c r="G143" s="170"/>
+      <c r="H143" s="171"/>
     </row>
     <row r="144" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="111"/>
       <c r="C144" s="112"/>
-      <c r="D144" s="151" t="s">
-        <v>276</v>
+      <c r="D144" s="146" t="s">
+        <v>579</v>
       </c>
       <c r="E144" s="147" t="s">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="F144" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G144" s="149">
-        <v>44167</v>
+        <v>44964</v>
       </c>
       <c r="H144" s="150">
-        <v>44167</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="111"/>
       <c r="C145" s="112"/>
-      <c r="D145" s="146" t="s">
-        <v>278</v>
-      </c>
-      <c r="E145" s="147" t="s">
-        <v>279</v>
-      </c>
-      <c r="F145" s="148" t="s">
+      <c r="D145" s="153" t="s">
+        <v>580</v>
+      </c>
+      <c r="E145" s="154" t="s">
+        <v>584</v>
+      </c>
+      <c r="F145" s="155" t="s">
         <v>232</v>
       </c>
       <c r="G145" s="149">
-        <v>43185</v>
+        <v>44964</v>
       </c>
       <c r="H145" s="150">
-        <v>43185</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="111"/>
       <c r="C146" s="112"/>
-      <c r="D146" s="146" t="s">
-        <v>280</v>
-      </c>
-      <c r="E146" s="147" t="s">
-        <v>282</v>
-      </c>
-      <c r="F146" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G146" s="149">
-        <v>44216</v>
+      <c r="D146" s="112" t="s">
+        <v>581</v>
+      </c>
+      <c r="E146" s="113" t="s">
+        <v>582</v>
+      </c>
+      <c r="F146" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G146" s="156">
+        <v>44964</v>
       </c>
       <c r="H146" s="150">
-        <v>44216</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="111"/>
       <c r="C147" s="112"/>
-      <c r="D147" s="146" t="s">
-        <v>401</v>
-      </c>
-      <c r="E147" s="152" t="s">
-        <v>403</v>
-      </c>
-      <c r="F147" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G147" s="149">
-        <v>43720</v>
-      </c>
-      <c r="H147" s="150">
-        <v>43720</v>
-      </c>
+      <c r="D147" s="170"/>
+      <c r="E147" s="170"/>
+      <c r="F147" s="170"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="171"/>
     </row>
     <row r="148" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="111"/>
       <c r="C148" s="112"/>
       <c r="D148" s="146" t="s">
-        <v>402</v>
-      </c>
-      <c r="E148" s="152" t="s">
-        <v>404</v>
+        <v>238</v>
+      </c>
+      <c r="E148" s="147" t="s">
+        <v>239</v>
       </c>
       <c r="F148" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G148" s="149">
-        <v>43785</v>
+        <v>44887</v>
       </c>
       <c r="H148" s="150">
-        <v>43785</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="111"/>
       <c r="C149" s="112"/>
       <c r="D149" s="146" t="s">
-        <v>405</v>
-      </c>
-      <c r="E149" s="152" t="s">
-        <v>406</v>
+        <v>240</v>
+      </c>
+      <c r="E149" s="147" t="s">
+        <v>241</v>
       </c>
       <c r="F149" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G149" s="149">
-        <v>43208</v>
+        <v>44887</v>
       </c>
       <c r="H149" s="150">
-        <v>43208</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -5693,39 +5553,39 @@
       <c r="B150" s="111"/>
       <c r="C150" s="112"/>
       <c r="D150" s="146" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E150" s="152" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F150" s="148" t="s">
         <v>232</v>
       </c>
       <c r="G150" s="149">
-        <v>43181</v>
+        <v>44959</v>
       </c>
       <c r="H150" s="150">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="111"/>
       <c r="C151" s="112"/>
       <c r="D151" s="146" t="s">
-        <v>409</v>
-      </c>
-      <c r="E151" s="152" t="s">
-        <v>410</v>
+        <v>418</v>
+      </c>
+      <c r="E151" s="147" t="s">
+        <v>421</v>
       </c>
       <c r="F151" s="148" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G151" s="149">
-        <v>44958</v>
+        <v>44960</v>
       </c>
       <c r="H151" s="150">
-        <v>43181</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -5733,743 +5593,939 @@
       <c r="B152" s="111"/>
       <c r="C152" s="112"/>
       <c r="D152" s="146" t="s">
-        <v>411</v>
-      </c>
-      <c r="E152" s="152" t="s">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="E152" s="147" t="s">
+        <v>422</v>
       </c>
       <c r="F152" s="148" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G152" s="149">
-        <v>44958</v>
+        <v>44960</v>
       </c>
       <c r="H152" s="150">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="111"/>
       <c r="C153" s="112"/>
-      <c r="D153" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="E153" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="F153" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G153" s="149">
-        <v>44958</v>
-      </c>
-      <c r="H153" s="150">
-        <v>43922</v>
-      </c>
+      <c r="D153" s="170"/>
+      <c r="E153" s="170"/>
+      <c r="F153" s="170"/>
+      <c r="G153" s="170"/>
+      <c r="H153" s="171"/>
     </row>
     <row r="154" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="111"/>
       <c r="C154" s="112"/>
-      <c r="D154" s="112"/>
-      <c r="E154" s="117"/>
-      <c r="F154" s="114"/>
-      <c r="G154" s="115"/>
-      <c r="H154" s="116"/>
-    </row>
-    <row r="155" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D154" s="146" t="s">
+        <v>242</v>
+      </c>
+      <c r="E154" s="147" t="s">
+        <v>243</v>
+      </c>
+      <c r="F154" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G154" s="149">
+        <v>44774</v>
+      </c>
+      <c r="H154" s="150">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="111"/>
       <c r="C155" s="112"/>
-      <c r="D155" s="112"/>
-      <c r="E155" s="117"/>
-      <c r="F155" s="114"/>
-      <c r="G155" s="115"/>
-      <c r="H155" s="116"/>
+      <c r="D155" s="170"/>
+      <c r="E155" s="170"/>
+      <c r="F155" s="170"/>
+      <c r="G155" s="170"/>
+      <c r="H155" s="171"/>
     </row>
     <row r="156" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="111"/>
       <c r="C156" s="112"/>
-      <c r="D156" s="112"/>
-      <c r="E156" s="117"/>
-      <c r="F156" s="114"/>
-      <c r="G156" s="115"/>
-      <c r="H156" s="116"/>
+      <c r="D156" s="146" t="s">
+        <v>305</v>
+      </c>
+      <c r="E156" s="147" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G156" s="149">
+        <v>44897</v>
+      </c>
+      <c r="H156" s="150">
+        <v>44897</v>
+      </c>
     </row>
     <row r="157" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="111"/>
       <c r="C157" s="112"/>
-      <c r="D157" s="112"/>
-      <c r="E157" s="117"/>
-      <c r="F157" s="114"/>
-      <c r="G157" s="115"/>
-      <c r="H157" s="116"/>
+      <c r="D157" s="146" t="s">
+        <v>244</v>
+      </c>
+      <c r="E157" s="147" t="s">
+        <v>245</v>
+      </c>
+      <c r="F157" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G157" s="149">
+        <v>44897</v>
+      </c>
+      <c r="H157" s="150">
+        <v>44897</v>
+      </c>
     </row>
     <row r="158" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="111"/>
       <c r="C158" s="112"/>
-      <c r="D158" s="112"/>
-      <c r="E158" s="117"/>
-      <c r="F158" s="114"/>
-      <c r="G158" s="115"/>
-      <c r="H158" s="116"/>
-    </row>
-    <row r="159" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D158" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="E158" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="F158" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G158" s="149">
+        <v>44897</v>
+      </c>
+      <c r="H158" s="150">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="111"/>
       <c r="C159" s="112"/>
-      <c r="D159" s="112"/>
-      <c r="E159" s="113"/>
-      <c r="F159" s="114"/>
-      <c r="G159" s="115"/>
-      <c r="H159" s="116"/>
+      <c r="D159" s="170"/>
+      <c r="E159" s="170"/>
+      <c r="F159" s="170"/>
+      <c r="G159" s="170"/>
+      <c r="H159" s="171"/>
     </row>
     <row r="160" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="111"/>
       <c r="C160" s="112"/>
-      <c r="D160" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="E160" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="F160" s="114" t="s">
+      <c r="D160" s="146" t="s">
+        <v>248</v>
+      </c>
+      <c r="E160" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="F160" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G160" s="115">
-        <v>44949</v>
-      </c>
-      <c r="H160" s="116">
-        <v>44949</v>
+      <c r="G160" s="149">
+        <v>44748</v>
+      </c>
+      <c r="H160" s="150">
+        <v>44748</v>
       </c>
     </row>
     <row r="161" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="111"/>
       <c r="C161" s="112"/>
-      <c r="D161" s="112"/>
-      <c r="E161" s="113"/>
-      <c r="F161" s="114"/>
-      <c r="G161" s="115"/>
-      <c r="H161" s="116"/>
-    </row>
-    <row r="162" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D161" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="E161" s="147" t="s">
+        <v>251</v>
+      </c>
+      <c r="F161" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G161" s="149">
+        <v>44735</v>
+      </c>
+      <c r="H161" s="150">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="111"/>
       <c r="C162" s="112"/>
-      <c r="D162" s="112"/>
-      <c r="E162" s="113"/>
-      <c r="F162" s="114"/>
-      <c r="G162" s="115"/>
-      <c r="H162" s="116"/>
+      <c r="D162" s="170"/>
+      <c r="E162" s="170"/>
+      <c r="F162" s="170"/>
+      <c r="G162" s="170"/>
+      <c r="H162" s="171"/>
     </row>
     <row r="163" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="111"/>
       <c r="C163" s="112"/>
-      <c r="D163" s="112"/>
-      <c r="E163" s="113"/>
-      <c r="F163" s="114"/>
-      <c r="G163" s="115"/>
-      <c r="H163" s="116"/>
-    </row>
-    <row r="164" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D163" s="146" t="s">
+        <v>252</v>
+      </c>
+      <c r="E163" s="147" t="s">
+        <v>253</v>
+      </c>
+      <c r="F163" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G163" s="149">
+        <v>44854</v>
+      </c>
+      <c r="H163" s="150">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="111"/>
       <c r="C164" s="112"/>
-      <c r="D164" s="112"/>
-      <c r="E164" s="117"/>
-      <c r="F164" s="114"/>
-      <c r="G164" s="115"/>
-      <c r="H164" s="116"/>
+      <c r="D164" s="170"/>
+      <c r="E164" s="170"/>
+      <c r="F164" s="170"/>
+      <c r="G164" s="170"/>
+      <c r="H164" s="171"/>
     </row>
     <row r="165" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="111"/>
       <c r="C165" s="112"/>
-      <c r="D165" s="112"/>
-      <c r="E165" s="113"/>
-      <c r="F165" s="114"/>
-      <c r="G165" s="115"/>
-      <c r="H165" s="116"/>
-    </row>
-    <row r="166" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D165" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="E165" s="147" t="s">
+        <v>259</v>
+      </c>
+      <c r="F165" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G165" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H165" s="150">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="111"/>
-      <c r="C166" s="112" t="s">
-        <v>336</v>
-      </c>
-      <c r="D166" s="112" t="s">
-        <v>326</v>
-      </c>
-      <c r="E166" s="117" t="s">
-        <v>327</v>
-      </c>
-      <c r="F166" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="G166" s="115">
-        <v>44902</v>
-      </c>
-      <c r="H166" s="116">
-        <v>44902</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C166" s="112"/>
+      <c r="D166" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="E166" s="147" t="s">
+        <v>260</v>
+      </c>
+      <c r="F166" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G166" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H166" s="150">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="111"/>
       <c r="C167" s="112"/>
-      <c r="D167" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="E167" s="117" t="s">
-        <v>333</v>
-      </c>
-      <c r="F167" s="114" t="s">
+      <c r="D167" s="146" t="s">
+        <v>257</v>
+      </c>
+      <c r="E167" s="147" t="s">
+        <v>261</v>
+      </c>
+      <c r="F167" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G167" s="115">
-        <v>44897</v>
-      </c>
-      <c r="H167" s="116">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G167" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H167" s="150">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="111"/>
       <c r="C168" s="112"/>
-      <c r="D168" s="112" t="s">
-        <v>323</v>
-      </c>
-      <c r="E168" s="117" t="s">
-        <v>324</v>
-      </c>
-      <c r="F168" s="114" t="s">
+      <c r="D168" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="E168" s="147" t="s">
+        <v>262</v>
+      </c>
+      <c r="F168" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G168" s="115">
-        <v>44951</v>
-      </c>
-      <c r="H168" s="116">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G168" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H168" s="150">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="111"/>
       <c r="C169" s="112"/>
-      <c r="D169" s="112" t="s">
-        <v>338</v>
-      </c>
-      <c r="E169" s="117" t="s">
-        <v>337</v>
-      </c>
-      <c r="F169" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="G169" s="115">
-        <v>44951</v>
-      </c>
-      <c r="H169" s="116">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D169" s="170"/>
+      <c r="E169" s="170"/>
+      <c r="F169" s="170"/>
+      <c r="G169" s="170"/>
+      <c r="H169" s="171"/>
+    </row>
+    <row r="170" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="111"/>
       <c r="C170" s="112"/>
-      <c r="D170" s="112" t="s">
-        <v>321</v>
-      </c>
-      <c r="E170" s="117" t="s">
-        <v>325</v>
-      </c>
-      <c r="F170" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="G170" s="115">
-        <v>44900</v>
-      </c>
-      <c r="H170" s="116">
-        <v>44949</v>
+      <c r="D170" s="146" t="s">
+        <v>283</v>
+      </c>
+      <c r="E170" s="147" t="s">
+        <v>263</v>
+      </c>
+      <c r="F170" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G170" s="149">
+        <v>44777</v>
+      </c>
+      <c r="H170" s="150">
+        <v>44777</v>
       </c>
     </row>
     <row r="171" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="111"/>
       <c r="C171" s="112"/>
-      <c r="D171" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="E171" s="113" t="s">
-        <v>329</v>
-      </c>
-      <c r="F171" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="G171" s="115">
-        <v>44896</v>
-      </c>
-      <c r="H171" s="116">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D171" s="146" t="s">
+        <v>303</v>
+      </c>
+      <c r="E171" s="147" t="s">
+        <v>304</v>
+      </c>
+      <c r="F171" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G171" s="149">
+        <v>44935</v>
+      </c>
+      <c r="H171" s="150">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="111"/>
       <c r="C172" s="112"/>
-      <c r="D172" s="112" t="s">
-        <v>322</v>
-      </c>
-      <c r="E172" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="F172" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="G172" s="115">
-        <v>44945</v>
-      </c>
-      <c r="H172" s="116">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D172" s="146" t="s">
+        <v>284</v>
+      </c>
+      <c r="E172" s="147" t="s">
+        <v>277</v>
+      </c>
+      <c r="F172" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G172" s="149">
+        <v>44931</v>
+      </c>
+      <c r="H172" s="150">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="111"/>
       <c r="C173" s="112"/>
-      <c r="D173" s="112" t="s">
-        <v>334</v>
-      </c>
-      <c r="E173" s="117" t="s">
-        <v>335</v>
-      </c>
-      <c r="F173" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="G173" s="115">
-        <v>44910</v>
-      </c>
-      <c r="H173" s="116">
-        <v>44910</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D173" s="170"/>
+      <c r="E173" s="170"/>
+      <c r="F173" s="170"/>
+      <c r="G173" s="170"/>
+      <c r="H173" s="171"/>
+    </row>
+    <row r="174" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="111"/>
       <c r="C174" s="112"/>
-      <c r="D174" s="112" t="s">
-        <v>340</v>
-      </c>
-      <c r="E174" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="F174" s="114" t="s">
+      <c r="D174" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="E174" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="F174" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G174" s="115">
-        <v>44951</v>
-      </c>
-      <c r="H174" s="116">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G174" s="149">
+        <v>44847</v>
+      </c>
+      <c r="H174" s="150">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="111"/>
       <c r="C175" s="112"/>
-      <c r="D175" s="112" t="s">
-        <v>342</v>
-      </c>
-      <c r="E175" s="117" t="s">
-        <v>343</v>
-      </c>
-      <c r="F175" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="G175" s="115">
-        <v>44952</v>
-      </c>
-      <c r="H175" s="116">
-        <v>44952</v>
-      </c>
+      <c r="D175" s="170"/>
+      <c r="E175" s="170"/>
+      <c r="F175" s="170"/>
+      <c r="G175" s="170"/>
+      <c r="H175" s="171"/>
     </row>
     <row r="176" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="111"/>
       <c r="C176" s="112"/>
-      <c r="D176" s="112"/>
-      <c r="E176" s="113"/>
-      <c r="F176" s="114"/>
-      <c r="G176" s="115"/>
-      <c r="H176" s="116"/>
+      <c r="D176" s="146" t="s">
+        <v>266</v>
+      </c>
+      <c r="E176" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="F176" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G176" s="149">
+        <v>44792</v>
+      </c>
+      <c r="H176" s="150">
+        <v>44770</v>
+      </c>
     </row>
     <row r="177" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="111"/>
       <c r="C177" s="112"/>
-      <c r="D177" s="112"/>
-      <c r="E177" s="113"/>
-      <c r="F177" s="114"/>
-      <c r="G177" s="115"/>
-      <c r="H177" s="116"/>
-    </row>
-    <row r="178" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D177" s="146" t="s">
+        <v>269</v>
+      </c>
+      <c r="E177" s="147" t="s">
+        <v>270</v>
+      </c>
+      <c r="F177" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G177" s="149">
+        <v>44776</v>
+      </c>
+      <c r="H177" s="150">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="111"/>
       <c r="C178" s="112"/>
-      <c r="D178" s="112"/>
-      <c r="E178" s="113"/>
-      <c r="F178" s="114"/>
-      <c r="G178" s="115"/>
-      <c r="H178" s="116"/>
-    </row>
-    <row r="179" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D178" s="170"/>
+      <c r="E178" s="170"/>
+      <c r="F178" s="170"/>
+      <c r="G178" s="170"/>
+      <c r="H178" s="171"/>
+    </row>
+    <row r="179" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="111"/>
       <c r="C179" s="112"/>
-      <c r="D179" s="112" t="s">
-        <v>394</v>
-      </c>
-      <c r="E179" s="117" t="s">
-        <v>395</v>
-      </c>
-      <c r="F179" s="114" t="s">
-        <v>267</v>
-      </c>
-      <c r="G179" s="115">
-        <v>44957</v>
-      </c>
-      <c r="H179" s="116">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D179" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="E179" s="147" t="s">
+        <v>271</v>
+      </c>
+      <c r="F179" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G179" s="149">
+        <v>44777</v>
+      </c>
+      <c r="H179" s="150">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="111"/>
       <c r="C180" s="112"/>
-      <c r="D180" s="112" t="s">
-        <v>393</v>
-      </c>
-      <c r="E180" s="117" t="s">
-        <v>396</v>
-      </c>
-      <c r="F180" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="G180" s="115">
-        <v>44281</v>
-      </c>
-      <c r="H180" s="116">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D180" s="170"/>
+      <c r="E180" s="170"/>
+      <c r="F180" s="170"/>
+      <c r="G180" s="170"/>
+      <c r="H180" s="171"/>
+    </row>
+    <row r="181" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="111"/>
       <c r="C181" s="112"/>
-      <c r="D181" s="112" t="s">
-        <v>397</v>
-      </c>
-      <c r="E181" s="117" t="s">
-        <v>398</v>
-      </c>
-      <c r="F181" s="114" t="s">
+      <c r="D181" s="146" t="s">
+        <v>272</v>
+      </c>
+      <c r="E181" s="147" t="s">
+        <v>273</v>
+      </c>
+      <c r="F181" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G181" s="115">
-        <v>43257</v>
-      </c>
-      <c r="H181" s="116">
-        <v>43257</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G181" s="149">
+        <v>44770</v>
+      </c>
+      <c r="H181" s="150">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="111"/>
       <c r="C182" s="112"/>
-      <c r="D182" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="E182" s="117" t="s">
-        <v>399</v>
-      </c>
-      <c r="F182" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="G182" s="115">
-        <v>44949</v>
-      </c>
-      <c r="H182" s="116">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D182" s="170"/>
+      <c r="E182" s="170"/>
+      <c r="F182" s="170"/>
+      <c r="G182" s="170"/>
+      <c r="H182" s="171"/>
+    </row>
+    <row r="183" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="111"/>
       <c r="C183" s="112"/>
-      <c r="D183" s="112"/>
-      <c r="E183" s="117"/>
-      <c r="F183" s="114"/>
-      <c r="G183" s="115"/>
-      <c r="H183" s="116"/>
-    </row>
-    <row r="184" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D183" s="146" t="s">
+        <v>294</v>
+      </c>
+      <c r="E183" s="152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F183" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G183" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H183" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="111"/>
       <c r="C184" s="112"/>
-      <c r="D184" s="112" t="s">
-        <v>392</v>
-      </c>
-      <c r="E184" s="117" t="s">
-        <v>400</v>
-      </c>
-      <c r="F184" s="114" t="s">
+      <c r="D184" s="146" t="s">
+        <v>293</v>
+      </c>
+      <c r="E184" s="152" t="s">
+        <v>295</v>
+      </c>
+      <c r="F184" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G184" s="115">
-        <v>44957</v>
-      </c>
-      <c r="H184" s="116">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G184" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H184" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="111"/>
       <c r="C185" s="112"/>
-      <c r="D185" s="112"/>
-      <c r="E185" s="117"/>
-      <c r="F185" s="114"/>
-      <c r="G185" s="115"/>
-      <c r="H185" s="116"/>
-    </row>
-    <row r="186" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D185" s="146" t="s">
+        <v>291</v>
+      </c>
+      <c r="E185" s="152" t="s">
+        <v>297</v>
+      </c>
+      <c r="F185" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G185" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H185" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="111"/>
       <c r="C186" s="112"/>
-      <c r="D186" s="112"/>
-      <c r="E186" s="113"/>
-      <c r="F186" s="114"/>
-      <c r="G186" s="115"/>
-      <c r="H186" s="116"/>
-    </row>
-    <row r="187" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D186" s="146" t="s">
+        <v>307</v>
+      </c>
+      <c r="E186" s="152" t="s">
+        <v>308</v>
+      </c>
+      <c r="F186" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G186" s="149">
+        <v>44949</v>
+      </c>
+      <c r="H186" s="150">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="111"/>
       <c r="C187" s="112"/>
-      <c r="D187" s="112" t="s">
-        <v>330</v>
-      </c>
-      <c r="E187" s="113" t="s">
-        <v>331</v>
-      </c>
-      <c r="F187" s="114" t="s">
+      <c r="D187" s="146" t="s">
+        <v>292</v>
+      </c>
+      <c r="E187" s="152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F187" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="G187" s="115">
-        <v>44893</v>
-      </c>
-      <c r="H187" s="116">
-        <v>44893</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G187" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H187" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="111"/>
       <c r="C188" s="112"/>
-      <c r="D188" s="112"/>
-      <c r="E188" s="113"/>
-      <c r="F188" s="114"/>
-      <c r="G188" s="115"/>
-      <c r="H188" s="116"/>
-    </row>
-    <row r="189" spans="1:8" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="161"/>
-      <c r="B189" s="164" t="s">
-        <v>143</v>
-      </c>
-      <c r="C189" s="158"/>
-      <c r="D189" s="158"/>
-      <c r="E189" s="158"/>
-      <c r="F189" s="158"/>
-      <c r="G189" s="158"/>
-      <c r="H189" s="159"/>
-    </row>
-    <row r="190" spans="1:8" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="161"/>
-      <c r="B190" s="164"/>
-      <c r="C190" s="163" t="s">
-        <v>160</v>
-      </c>
-      <c r="D190" s="158"/>
-      <c r="E190" s="158"/>
-      <c r="F190" s="158"/>
-      <c r="G190" s="158"/>
-      <c r="H190" s="159"/>
-    </row>
-    <row r="191" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D188" s="146" t="s">
+        <v>290</v>
+      </c>
+      <c r="E188" s="152" t="s">
+        <v>299</v>
+      </c>
+      <c r="F188" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G188" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H188" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="111"/>
+      <c r="C189" s="112"/>
+      <c r="D189" s="146" t="s">
+        <v>289</v>
+      </c>
+      <c r="E189" s="152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F189" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G189" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H189" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="111"/>
+      <c r="C190" s="112"/>
+      <c r="D190" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="E190" s="152" t="s">
+        <v>301</v>
+      </c>
+      <c r="F190" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G190" s="149">
+        <v>44937</v>
+      </c>
+      <c r="H190" s="150">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="111"/>
-      <c r="C191" s="163"/>
-      <c r="D191" s="112"/>
-      <c r="E191" s="113"/>
-      <c r="F191" s="114"/>
-      <c r="G191" s="115"/>
-      <c r="H191" s="116"/>
-    </row>
-    <row r="192" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C191" s="112"/>
+      <c r="D191" s="170"/>
+      <c r="E191" s="170"/>
+      <c r="F191" s="170"/>
+      <c r="G191" s="170"/>
+      <c r="H191" s="171"/>
+    </row>
+    <row r="192" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="111"/>
       <c r="C192" s="112"/>
-      <c r="D192" s="112"/>
-      <c r="E192" s="113"/>
-      <c r="F192" s="114"/>
-      <c r="G192" s="115"/>
-      <c r="H192" s="116"/>
-    </row>
-    <row r="193" spans="1:8" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="161"/>
-      <c r="B193" s="164" t="s">
-        <v>142</v>
-      </c>
-      <c r="C193" s="158"/>
+      <c r="D192" s="112" t="s">
+        <v>423</v>
+      </c>
+      <c r="E192" s="117" t="s">
+        <v>424</v>
+      </c>
+      <c r="F192" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G192" s="115">
+        <v>44959</v>
+      </c>
+      <c r="H192" s="116">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="111"/>
+      <c r="C193" s="177" t="s">
+        <v>146</v>
+      </c>
       <c r="D193" s="158"/>
       <c r="E193" s="158"/>
       <c r="F193" s="158"/>
       <c r="G193" s="158"/>
       <c r="H193" s="159"/>
     </row>
-    <row r="194" spans="1:8" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="161"/>
-      <c r="B194" s="164"/>
-      <c r="C194" s="163" t="s">
-        <v>148</v>
-      </c>
-      <c r="D194" s="158"/>
-      <c r="E194" s="158"/>
-      <c r="F194" s="158"/>
-      <c r="G194" s="158"/>
-      <c r="H194" s="159"/>
+    <row r="194" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="111"/>
+      <c r="C194" s="177"/>
+      <c r="D194" s="153" t="s">
+        <v>274</v>
+      </c>
+      <c r="E194" s="154" t="s">
+        <v>275</v>
+      </c>
+      <c r="F194" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G194" s="156">
+        <v>44167</v>
+      </c>
+      <c r="H194" s="157">
+        <v>44167</v>
+      </c>
     </row>
     <row r="195" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="111"/>
-      <c r="C195" s="163"/>
-      <c r="D195" s="112"/>
-      <c r="E195" s="113"/>
-      <c r="F195" s="114"/>
-      <c r="G195" s="115"/>
-      <c r="H195" s="116"/>
+      <c r="C195" s="112"/>
+      <c r="D195" s="151" t="s">
+        <v>276</v>
+      </c>
+      <c r="E195" s="147" t="s">
+        <v>285</v>
+      </c>
+      <c r="F195" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G195" s="149">
+        <v>44167</v>
+      </c>
+      <c r="H195" s="150">
+        <v>44167</v>
+      </c>
     </row>
     <row r="196" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="111"/>
       <c r="C196" s="112"/>
-      <c r="D196" s="112"/>
-      <c r="E196" s="113"/>
-      <c r="F196" s="114"/>
-      <c r="G196" s="115"/>
-      <c r="H196" s="116"/>
+      <c r="D196" s="146" t="s">
+        <v>278</v>
+      </c>
+      <c r="E196" s="147" t="s">
+        <v>279</v>
+      </c>
+      <c r="F196" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G196" s="149">
+        <v>43185</v>
+      </c>
+      <c r="H196" s="150">
+        <v>43185</v>
+      </c>
     </row>
     <row r="197" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="111"/>
-      <c r="C197" s="163" t="s">
-        <v>149</v>
-      </c>
-      <c r="D197" s="158"/>
-      <c r="E197" s="158"/>
-      <c r="F197" s="158"/>
-      <c r="G197" s="158"/>
-      <c r="H197" s="159"/>
-    </row>
-    <row r="198" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C197" s="112"/>
+      <c r="D197" s="146" t="s">
+        <v>280</v>
+      </c>
+      <c r="E197" s="147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F197" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G197" s="149">
+        <v>44216</v>
+      </c>
+      <c r="H197" s="150">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="111"/>
-      <c r="C198" s="163"/>
-      <c r="D198" s="112"/>
-      <c r="E198" s="113"/>
-      <c r="F198" s="114"/>
-      <c r="G198" s="115"/>
-      <c r="H198" s="116"/>
+      <c r="C198" s="112"/>
+      <c r="D198" s="146" t="s">
+        <v>401</v>
+      </c>
+      <c r="E198" s="152" t="s">
+        <v>403</v>
+      </c>
+      <c r="F198" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G198" s="149">
+        <v>43720</v>
+      </c>
+      <c r="H198" s="150">
+        <v>43720</v>
+      </c>
     </row>
     <row r="199" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="111"/>
       <c r="C199" s="112"/>
-      <c r="D199" s="112"/>
-      <c r="E199" s="113"/>
-      <c r="F199" s="114"/>
-      <c r="G199" s="115"/>
-      <c r="H199" s="116"/>
-    </row>
-    <row r="200" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D199" s="146" t="s">
+        <v>402</v>
+      </c>
+      <c r="E199" s="152" t="s">
+        <v>404</v>
+      </c>
+      <c r="F199" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G199" s="149">
+        <v>43785</v>
+      </c>
+      <c r="H199" s="150">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="111"/>
-      <c r="C200" s="163" t="s">
-        <v>150</v>
-      </c>
-      <c r="D200" s="158"/>
-      <c r="E200" s="158"/>
-      <c r="F200" s="158"/>
-      <c r="G200" s="158"/>
-      <c r="H200" s="159"/>
+      <c r="C200" s="112"/>
+      <c r="D200" s="146" t="s">
+        <v>405</v>
+      </c>
+      <c r="E200" s="152" t="s">
+        <v>406</v>
+      </c>
+      <c r="F200" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G200" s="149">
+        <v>43208</v>
+      </c>
+      <c r="H200" s="150">
+        <v>43208</v>
+      </c>
     </row>
     <row r="201" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="111"/>
-      <c r="C201" s="163"/>
-      <c r="D201" s="112"/>
-      <c r="E201" s="113"/>
-      <c r="F201" s="114"/>
-      <c r="G201" s="115"/>
-      <c r="H201" s="116"/>
-    </row>
-    <row r="202" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C201" s="112"/>
+      <c r="D201" s="146" t="s">
+        <v>407</v>
+      </c>
+      <c r="E201" s="152" t="s">
+        <v>408</v>
+      </c>
+      <c r="F201" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G201" s="149">
+        <v>43181</v>
+      </c>
+      <c r="H201" s="150">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="111"/>
       <c r="C202" s="112"/>
-      <c r="D202" s="112"/>
-      <c r="E202" s="113"/>
-      <c r="F202" s="114"/>
-      <c r="G202" s="115"/>
-      <c r="H202" s="116"/>
+      <c r="D202" s="146" t="s">
+        <v>409</v>
+      </c>
+      <c r="E202" s="152" t="s">
+        <v>410</v>
+      </c>
+      <c r="F202" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G202" s="149">
+        <v>44958</v>
+      </c>
+      <c r="H202" s="150">
+        <v>43181</v>
+      </c>
     </row>
     <row r="203" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="111"/>
-      <c r="C203" s="163" t="s">
-        <v>151</v>
-      </c>
-      <c r="D203" s="158"/>
-      <c r="E203" s="158"/>
-      <c r="F203" s="158"/>
-      <c r="G203" s="158"/>
-      <c r="H203" s="159"/>
-    </row>
-    <row r="204" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C203" s="112"/>
+      <c r="D203" s="146" t="s">
+        <v>411</v>
+      </c>
+      <c r="E203" s="152" t="s">
+        <v>412</v>
+      </c>
+      <c r="F203" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G203" s="149">
+        <v>44958</v>
+      </c>
+      <c r="H203" s="150">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="111"/>
-      <c r="C204" s="163"/>
-      <c r="D204" s="112"/>
-      <c r="E204" s="113"/>
-      <c r="F204" s="114"/>
-      <c r="G204" s="115"/>
-      <c r="H204" s="116"/>
+      <c r="C204" s="112"/>
+      <c r="D204" s="146" t="s">
+        <v>413</v>
+      </c>
+      <c r="E204" s="152" t="s">
+        <v>414</v>
+      </c>
+      <c r="F204" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G204" s="149">
+        <v>44958</v>
+      </c>
+      <c r="H204" s="150">
+        <v>43922</v>
+      </c>
     </row>
     <row r="205" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="111"/>
       <c r="C205" s="112"/>
       <c r="D205" s="112"/>
-      <c r="E205" s="113"/>
+      <c r="E205" s="117"/>
       <c r="F205" s="114"/>
       <c r="G205" s="115"/>
       <c r="H205" s="116"/>
@@ -6477,21 +6533,19 @@
     <row r="206" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="111"/>
-      <c r="C206" s="163" t="s">
-        <v>152</v>
-      </c>
-      <c r="D206" s="158"/>
-      <c r="E206" s="158"/>
-      <c r="F206" s="158"/>
-      <c r="G206" s="158"/>
-      <c r="H206" s="159"/>
+      <c r="C206" s="112"/>
+      <c r="D206" s="112"/>
+      <c r="E206" s="117"/>
+      <c r="F206" s="114"/>
+      <c r="G206" s="115"/>
+      <c r="H206" s="116"/>
     </row>
     <row r="207" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="111"/>
-      <c r="C207" s="163"/>
+      <c r="C207" s="112"/>
       <c r="D207" s="112"/>
-      <c r="E207" s="113"/>
+      <c r="E207" s="117"/>
       <c r="F207" s="114"/>
       <c r="G207" s="115"/>
       <c r="H207" s="116"/>
@@ -6501,7 +6555,7 @@
       <c r="B208" s="111"/>
       <c r="C208" s="112"/>
       <c r="D208" s="112"/>
-      <c r="E208" s="113"/>
+      <c r="E208" s="117"/>
       <c r="F208" s="114"/>
       <c r="G208" s="115"/>
       <c r="H208" s="116"/>
@@ -6509,19 +6563,17 @@
     <row r="209" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="111"/>
-      <c r="C209" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="D209" s="158"/>
-      <c r="E209" s="158"/>
-      <c r="F209" s="158"/>
-      <c r="G209" s="158"/>
-      <c r="H209" s="159"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="117"/>
+      <c r="F209" s="114"/>
+      <c r="G209" s="115"/>
+      <c r="H209" s="116"/>
     </row>
     <row r="210" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="111"/>
-      <c r="C210" s="163"/>
+      <c r="C210" s="112"/>
       <c r="D210" s="112"/>
       <c r="E210" s="113"/>
       <c r="F210" s="114"/>
@@ -6532,28 +6584,36 @@
       <c r="A211" s="1"/>
       <c r="B211" s="111"/>
       <c r="C211" s="112"/>
-      <c r="D211" s="112"/>
-      <c r="E211" s="113"/>
-      <c r="F211" s="114"/>
-      <c r="G211" s="115"/>
-      <c r="H211" s="116"/>
+      <c r="D211" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="E211" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="F211" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G211" s="115">
+        <v>44949</v>
+      </c>
+      <c r="H211" s="116">
+        <v>44949</v>
+      </c>
     </row>
     <row r="212" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="111"/>
-      <c r="C212" s="163" t="s">
-        <v>154</v>
-      </c>
-      <c r="D212" s="158"/>
-      <c r="E212" s="158"/>
-      <c r="F212" s="158"/>
-      <c r="G212" s="158"/>
-      <c r="H212" s="159"/>
+      <c r="C212" s="112"/>
+      <c r="D212" s="112"/>
+      <c r="E212" s="113"/>
+      <c r="F212" s="114"/>
+      <c r="G212" s="115"/>
+      <c r="H212" s="116"/>
     </row>
     <row r="213" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="111"/>
-      <c r="C213" s="163"/>
+      <c r="C213" s="112"/>
       <c r="D213" s="112"/>
       <c r="E213" s="113"/>
       <c r="F213" s="114"/>
@@ -6573,755 +6633,621 @@
     <row r="215" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="111"/>
-      <c r="C215" s="163" t="s">
-        <v>155</v>
-      </c>
-      <c r="D215" s="158"/>
-      <c r="E215" s="158"/>
-      <c r="F215" s="158"/>
-      <c r="G215" s="158"/>
-      <c r="H215" s="159"/>
+      <c r="C215" s="112"/>
+      <c r="D215" s="112"/>
+      <c r="E215" s="117"/>
+      <c r="F215" s="114"/>
+      <c r="G215" s="115"/>
+      <c r="H215" s="116"/>
     </row>
     <row r="216" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="111"/>
-      <c r="C216" s="163"/>
+      <c r="C216" s="112"/>
       <c r="D216" s="112"/>
       <c r="E216" s="113"/>
       <c r="F216" s="114"/>
       <c r="G216" s="115"/>
       <c r="H216" s="116"/>
     </row>
-    <row r="217" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="111"/>
-      <c r="C217" s="112"/>
-      <c r="D217" s="112"/>
-      <c r="E217" s="113"/>
-      <c r="F217" s="114"/>
-      <c r="G217" s="115"/>
-      <c r="H217" s="116"/>
-    </row>
-    <row r="218" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C217" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="D217" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="E217" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="F217" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G217" s="115">
+        <v>44902</v>
+      </c>
+      <c r="H217" s="116">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="111"/>
-      <c r="C218" s="163" t="s">
-        <v>156</v>
-      </c>
-      <c r="D218" s="158"/>
-      <c r="E218" s="158"/>
-      <c r="F218" s="158"/>
-      <c r="G218" s="158"/>
-      <c r="H218" s="159"/>
-    </row>
-    <row r="219" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C218" s="112"/>
+      <c r="D218" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="E218" s="117" t="s">
+        <v>333</v>
+      </c>
+      <c r="F218" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G218" s="115">
+        <v>44897</v>
+      </c>
+      <c r="H218" s="116">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="111"/>
-      <c r="C219" s="163"/>
-      <c r="D219" s="112"/>
-      <c r="E219" s="113"/>
-      <c r="F219" s="114"/>
-      <c r="G219" s="115"/>
-      <c r="H219" s="116"/>
-    </row>
-    <row r="220" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C219" s="112"/>
+      <c r="D219" s="112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E219" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="F219" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G219" s="115">
+        <v>44951</v>
+      </c>
+      <c r="H219" s="116">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="111"/>
       <c r="C220" s="112"/>
-      <c r="D220" s="112"/>
-      <c r="E220" s="113"/>
-      <c r="F220" s="114"/>
-      <c r="G220" s="115"/>
-      <c r="H220" s="116"/>
-    </row>
-    <row r="221" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D220" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="E220" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="F220" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G220" s="115">
+        <v>44951</v>
+      </c>
+      <c r="H220" s="116">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="111"/>
-      <c r="C221" s="163" t="s">
-        <v>157</v>
-      </c>
-      <c r="D221" s="158"/>
-      <c r="E221" s="158"/>
-      <c r="F221" s="158"/>
-      <c r="G221" s="158"/>
-      <c r="H221" s="159"/>
+      <c r="C221" s="112"/>
+      <c r="D221" s="112" t="s">
+        <v>321</v>
+      </c>
+      <c r="E221" s="117" t="s">
+        <v>325</v>
+      </c>
+      <c r="F221" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G221" s="115">
+        <v>44900</v>
+      </c>
+      <c r="H221" s="116">
+        <v>44949</v>
+      </c>
     </row>
     <row r="222" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="111"/>
-      <c r="C222" s="163"/>
-      <c r="D222" s="112"/>
-      <c r="E222" s="113"/>
-      <c r="F222" s="114"/>
-      <c r="G222" s="115"/>
-      <c r="H222" s="116"/>
-    </row>
-    <row r="223" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C222" s="112"/>
+      <c r="D222" s="112" t="s">
+        <v>328</v>
+      </c>
+      <c r="E222" s="113" t="s">
+        <v>329</v>
+      </c>
+      <c r="F222" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G222" s="115">
+        <v>44896</v>
+      </c>
+      <c r="H222" s="116">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="111"/>
       <c r="C223" s="112"/>
-      <c r="D223" s="112"/>
-      <c r="E223" s="113"/>
-      <c r="F223" s="114"/>
-      <c r="G223" s="115"/>
-      <c r="H223" s="116"/>
-    </row>
-    <row r="224" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D223" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="E223" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="F223" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G223" s="115">
+        <v>44945</v>
+      </c>
+      <c r="H223" s="116">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="111"/>
-      <c r="C224" s="163" t="s">
-        <v>158</v>
-      </c>
-      <c r="D224" s="158"/>
-      <c r="E224" s="158"/>
-      <c r="F224" s="158"/>
-      <c r="G224" s="158"/>
-      <c r="H224" s="159"/>
-    </row>
-    <row r="225" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C224" s="112"/>
+      <c r="D224" s="112" t="s">
+        <v>334</v>
+      </c>
+      <c r="E224" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="F224" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G224" s="115">
+        <v>44910</v>
+      </c>
+      <c r="H224" s="116">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="111"/>
-      <c r="C225" s="163"/>
-      <c r="D225" s="153" t="s">
-        <v>472</v>
-      </c>
-      <c r="E225" s="154" t="s">
-        <v>473</v>
-      </c>
-      <c r="F225" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="G225" s="156">
-        <v>44663</v>
-      </c>
-      <c r="H225" s="157">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C225" s="112"/>
+      <c r="D225" s="170"/>
+      <c r="E225" s="170"/>
+      <c r="F225" s="170"/>
+      <c r="G225" s="170"/>
+      <c r="H225" s="171"/>
+    </row>
+    <row r="226" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="111"/>
       <c r="C226" s="112"/>
-      <c r="D226" s="146" t="s">
-        <v>474</v>
-      </c>
-      <c r="E226" s="147" t="s">
-        <v>475</v>
-      </c>
-      <c r="F226" s="148" t="s">
+      <c r="D226" s="153" t="s">
+        <v>577</v>
+      </c>
+      <c r="E226" s="160" t="s">
+        <v>578</v>
+      </c>
+      <c r="F226" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="G226" s="149">
-        <v>44663</v>
-      </c>
-      <c r="H226" s="150">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G226" s="156">
+        <v>44964</v>
+      </c>
+      <c r="H226" s="157">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="111"/>
       <c r="C227" s="112"/>
-      <c r="D227" s="146" t="s">
-        <v>477</v>
-      </c>
-      <c r="E227" s="147" t="s">
-        <v>476</v>
-      </c>
-      <c r="F227" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G227" s="149">
-        <v>44630</v>
-      </c>
-      <c r="H227" s="150">
-        <v>44630</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D227" s="112" t="s">
+        <v>597</v>
+      </c>
+      <c r="E227" s="117" t="s">
+        <v>598</v>
+      </c>
+      <c r="F227" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G227" s="115">
+        <v>44964</v>
+      </c>
+      <c r="H227" s="116">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="111"/>
       <c r="C228" s="112"/>
-      <c r="D228" s="146" t="s">
-        <v>478</v>
-      </c>
-      <c r="E228" s="147" t="s">
-        <v>479</v>
-      </c>
-      <c r="F228" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G228" s="149">
-        <v>44630</v>
-      </c>
-      <c r="H228" s="150">
-        <v>44630</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D228" s="170"/>
+      <c r="E228" s="170"/>
+      <c r="F228" s="170"/>
+      <c r="G228" s="170"/>
+      <c r="H228" s="171"/>
+    </row>
+    <row r="229" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="111"/>
       <c r="C229" s="112"/>
-      <c r="D229" s="146" t="s">
-        <v>480</v>
-      </c>
-      <c r="E229" s="147" t="s">
-        <v>481</v>
-      </c>
-      <c r="F229" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G229" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H229" s="150">
-        <v>44630</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D229" s="112" t="s">
+        <v>340</v>
+      </c>
+      <c r="E229" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="F229" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G229" s="115">
+        <v>44951</v>
+      </c>
+      <c r="H229" s="116">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="111"/>
       <c r="C230" s="112"/>
-      <c r="D230" s="146" t="s">
-        <v>482</v>
-      </c>
-      <c r="E230" s="147" t="s">
-        <v>483</v>
-      </c>
-      <c r="F230" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G230" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H230" s="150">
-        <v>44630</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D230" s="170"/>
+      <c r="E230" s="170"/>
+      <c r="F230" s="170"/>
+      <c r="G230" s="170"/>
+      <c r="H230" s="171"/>
+    </row>
+    <row r="231" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="111"/>
       <c r="C231" s="112"/>
-      <c r="D231" s="146" t="s">
-        <v>484</v>
-      </c>
-      <c r="E231" s="147" t="s">
-        <v>485</v>
-      </c>
-      <c r="F231" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G231" s="149">
-        <v>44669</v>
-      </c>
-      <c r="H231" s="150">
-        <v>44824</v>
+      <c r="D231" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="E231" s="117" t="s">
+        <v>343</v>
+      </c>
+      <c r="F231" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G231" s="115">
+        <v>44952</v>
+      </c>
+      <c r="H231" s="116">
+        <v>44952</v>
       </c>
     </row>
     <row r="232" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="111"/>
       <c r="C232" s="112"/>
-      <c r="D232" s="146" t="s">
-        <v>487</v>
-      </c>
-      <c r="E232" s="147" t="s">
-        <v>486</v>
-      </c>
-      <c r="F232" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G232" s="149">
-        <v>44669</v>
-      </c>
-      <c r="H232" s="150">
-        <v>44824</v>
-      </c>
+      <c r="D232" s="112"/>
+      <c r="E232" s="113"/>
+      <c r="F232" s="114"/>
+      <c r="G232" s="115"/>
+      <c r="H232" s="116"/>
     </row>
     <row r="233" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="111"/>
       <c r="C233" s="112"/>
-      <c r="D233" s="146" t="s">
-        <v>488</v>
-      </c>
-      <c r="E233" s="147" t="s">
-        <v>489</v>
-      </c>
-      <c r="F233" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G233" s="149">
-        <v>44733</v>
-      </c>
-      <c r="H233" s="150">
-        <v>44622</v>
-      </c>
+      <c r="D233" s="112"/>
+      <c r="E233" s="113"/>
+      <c r="F233" s="114"/>
+      <c r="G233" s="115"/>
+      <c r="H233" s="116"/>
     </row>
     <row r="234" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="111"/>
       <c r="C234" s="112"/>
-      <c r="D234" s="146" t="s">
-        <v>490</v>
-      </c>
-      <c r="E234" s="147" t="s">
-        <v>491</v>
-      </c>
-      <c r="F234" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G234" s="149">
-        <v>44733</v>
-      </c>
-      <c r="H234" s="150">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D234" s="112"/>
+      <c r="E234" s="113"/>
+      <c r="F234" s="114"/>
+      <c r="G234" s="115"/>
+      <c r="H234" s="116"/>
+    </row>
+    <row r="235" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="111"/>
       <c r="C235" s="112"/>
-      <c r="D235" s="146" t="s">
-        <v>492</v>
-      </c>
-      <c r="E235" s="147" t="s">
-        <v>494</v>
-      </c>
-      <c r="F235" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G235" s="149">
-        <v>44671</v>
-      </c>
-      <c r="H235" s="150">
-        <v>44732</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D235" s="112" t="s">
+        <v>394</v>
+      </c>
+      <c r="E235" s="117" t="s">
+        <v>395</v>
+      </c>
+      <c r="F235" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="G235" s="115">
+        <v>44957</v>
+      </c>
+      <c r="H235" s="116">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="111"/>
       <c r="C236" s="112"/>
-      <c r="D236" s="146" t="s">
-        <v>493</v>
-      </c>
-      <c r="E236" s="147" t="s">
-        <v>495</v>
-      </c>
-      <c r="F236" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G236" s="149">
-        <v>44671</v>
-      </c>
-      <c r="H236" s="150">
-        <v>44732</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D236" s="112" t="s">
+        <v>393</v>
+      </c>
+      <c r="E236" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="F236" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="G236" s="115">
+        <v>44281</v>
+      </c>
+      <c r="H236" s="116">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="111"/>
       <c r="C237" s="112"/>
-      <c r="D237" s="146" t="s">
-        <v>496</v>
-      </c>
-      <c r="E237" s="147" t="s">
-        <v>497</v>
-      </c>
-      <c r="F237" s="148" t="s">
-        <v>498</v>
-      </c>
-      <c r="G237" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H237" s="150">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D237" s="112" t="s">
+        <v>397</v>
+      </c>
+      <c r="E237" s="117" t="s">
+        <v>398</v>
+      </c>
+      <c r="F237" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G237" s="115">
+        <v>43257</v>
+      </c>
+      <c r="H237" s="116">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="111"/>
       <c r="C238" s="112"/>
-      <c r="D238" s="146" t="s">
-        <v>500</v>
-      </c>
-      <c r="E238" s="147" t="s">
-        <v>499</v>
-      </c>
-      <c r="F238" s="148" t="s">
-        <v>498</v>
-      </c>
-      <c r="G238" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H238" s="150">
-        <v>44621</v>
+      <c r="D238" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="E238" s="117" t="s">
+        <v>399</v>
+      </c>
+      <c r="F238" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G238" s="115">
+        <v>44949</v>
+      </c>
+      <c r="H238" s="116">
+        <v>44949</v>
       </c>
     </row>
     <row r="239" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="111"/>
       <c r="C239" s="112"/>
-      <c r="D239" s="146" t="s">
-        <v>501</v>
-      </c>
-      <c r="E239" s="147" t="s">
-        <v>503</v>
-      </c>
-      <c r="F239" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G239" s="149">
-        <v>44644</v>
-      </c>
-      <c r="H239" s="150">
-        <v>44622</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D239" s="112"/>
+      <c r="E239" s="117"/>
+      <c r="F239" s="114"/>
+      <c r="G239" s="115"/>
+      <c r="H239" s="116"/>
+    </row>
+    <row r="240" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="111"/>
       <c r="C240" s="112"/>
-      <c r="D240" s="146" t="s">
-        <v>502</v>
-      </c>
-      <c r="E240" s="147" t="s">
-        <v>504</v>
-      </c>
-      <c r="F240" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G240" s="149">
-        <v>44644</v>
-      </c>
-      <c r="H240" s="150">
-        <v>44621</v>
+      <c r="D240" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="E240" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="F240" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G240" s="115">
+        <v>44957</v>
+      </c>
+      <c r="H240" s="116">
+        <v>44957</v>
       </c>
     </row>
     <row r="241" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="111"/>
       <c r="C241" s="112"/>
-      <c r="D241" s="146" t="s">
-        <v>506</v>
-      </c>
-      <c r="E241" s="147" t="s">
-        <v>505</v>
-      </c>
-      <c r="F241" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G241" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H241" s="150">
-        <v>44621</v>
-      </c>
+      <c r="D241" s="112"/>
+      <c r="E241" s="117"/>
+      <c r="F241" s="114"/>
+      <c r="G241" s="115"/>
+      <c r="H241" s="116"/>
     </row>
     <row r="242" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="111"/>
       <c r="C242" s="112"/>
-      <c r="D242" s="146" t="s">
-        <v>507</v>
-      </c>
-      <c r="E242" s="147" t="s">
-        <v>508</v>
-      </c>
-      <c r="F242" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G242" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H242" s="150">
-        <v>44621</v>
-      </c>
+      <c r="D242" s="112"/>
+      <c r="E242" s="113"/>
+      <c r="F242" s="114"/>
+      <c r="G242" s="115"/>
+      <c r="H242" s="116"/>
     </row>
     <row r="243" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="111"/>
       <c r="C243" s="112"/>
-      <c r="D243" s="146" t="s">
-        <v>509</v>
-      </c>
-      <c r="E243" s="147" t="s">
-        <v>510</v>
-      </c>
-      <c r="F243" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G243" s="149">
-        <v>44846</v>
-      </c>
-      <c r="H243" s="150">
-        <v>44627</v>
+      <c r="D243" s="112" t="s">
+        <v>330</v>
+      </c>
+      <c r="E243" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="F243" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="G243" s="115">
+        <v>44893</v>
+      </c>
+      <c r="H243" s="116">
+        <v>44893</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="111"/>
       <c r="C244" s="112"/>
-      <c r="D244" s="146" t="s">
-        <v>511</v>
-      </c>
-      <c r="E244" s="147" t="s">
-        <v>512</v>
-      </c>
-      <c r="F244" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G244" s="149">
-        <v>44846</v>
-      </c>
-      <c r="H244" s="150">
-        <v>44627</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="1"/>
-      <c r="B245" s="111"/>
-      <c r="C245" s="112"/>
-      <c r="D245" s="146" t="s">
-        <v>513</v>
-      </c>
-      <c r="E245" s="147" t="s">
-        <v>514</v>
-      </c>
-      <c r="F245" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G245" s="149">
-        <v>44628</v>
-      </c>
-      <c r="H245" s="150">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-      <c r="B246" s="111"/>
-      <c r="C246" s="112"/>
-      <c r="D246" s="146" t="s">
-        <v>515</v>
-      </c>
-      <c r="E246" s="147" t="s">
-        <v>516</v>
-      </c>
-      <c r="F246" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G246" s="149">
-        <v>44628</v>
-      </c>
-      <c r="H246" s="150">
-        <v>44628</v>
-      </c>
+      <c r="D244" s="112"/>
+      <c r="E244" s="113"/>
+      <c r="F244" s="114"/>
+      <c r="G244" s="115"/>
+      <c r="H244" s="116"/>
+    </row>
+    <row r="245" spans="1:8" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A245" s="161"/>
+      <c r="B245" s="184" t="s">
+        <v>143</v>
+      </c>
+      <c r="C245" s="158"/>
+      <c r="D245" s="158"/>
+      <c r="E245" s="158"/>
+      <c r="F245" s="158"/>
+      <c r="G245" s="158"/>
+      <c r="H245" s="159"/>
+    </row>
+    <row r="246" spans="1:8" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="161"/>
+      <c r="B246" s="184"/>
+      <c r="C246" s="177" t="s">
+        <v>160</v>
+      </c>
+      <c r="D246" s="158"/>
+      <c r="E246" s="158"/>
+      <c r="F246" s="158"/>
+      <c r="G246" s="158"/>
+      <c r="H246" s="159"/>
     </row>
     <row r="247" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="111"/>
-      <c r="C247" s="112"/>
-      <c r="D247" s="146" t="s">
-        <v>517</v>
-      </c>
-      <c r="E247" s="147" t="s">
-        <v>518</v>
-      </c>
-      <c r="F247" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G247" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H247" s="150">
-        <v>44628</v>
-      </c>
+      <c r="C247" s="177"/>
+      <c r="D247" s="112"/>
+      <c r="E247" s="113"/>
+      <c r="F247" s="114"/>
+      <c r="G247" s="115"/>
+      <c r="H247" s="116"/>
     </row>
     <row r="248" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="111"/>
       <c r="C248" s="112"/>
-      <c r="D248" s="146" t="s">
-        <v>519</v>
-      </c>
-      <c r="E248" s="147" t="s">
-        <v>520</v>
-      </c>
-      <c r="F248" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G248" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H248" s="150">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="1"/>
-      <c r="B249" s="111"/>
-      <c r="C249" s="112"/>
-      <c r="D249" s="146" t="s">
-        <v>521</v>
-      </c>
-      <c r="E249" s="147" t="s">
-        <v>523</v>
-      </c>
-      <c r="F249" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G249" s="149">
-        <v>44628</v>
-      </c>
-      <c r="H249" s="150">
-        <v>44628</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="1"/>
-      <c r="B250" s="111"/>
-      <c r="C250" s="112"/>
-      <c r="D250" s="146" t="s">
-        <v>522</v>
-      </c>
-      <c r="E250" s="147" t="s">
-        <v>524</v>
-      </c>
-      <c r="F250" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G250" s="149">
-        <v>44628</v>
-      </c>
-      <c r="H250" s="150">
-        <v>44628</v>
-      </c>
+      <c r="D248" s="112"/>
+      <c r="E248" s="113"/>
+      <c r="F248" s="114"/>
+      <c r="G248" s="115"/>
+      <c r="H248" s="116"/>
+    </row>
+    <row r="249" spans="1:8" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A249" s="161"/>
+      <c r="B249" s="184" t="s">
+        <v>142</v>
+      </c>
+      <c r="C249" s="158"/>
+      <c r="D249" s="158"/>
+      <c r="E249" s="158"/>
+      <c r="F249" s="158"/>
+      <c r="G249" s="158"/>
+      <c r="H249" s="159"/>
+    </row>
+    <row r="250" spans="1:8" s="162" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="161"/>
+      <c r="B250" s="184"/>
+      <c r="C250" s="177" t="s">
+        <v>148</v>
+      </c>
+      <c r="D250" s="158"/>
+      <c r="E250" s="158"/>
+      <c r="F250" s="158"/>
+      <c r="G250" s="158"/>
+      <c r="H250" s="159"/>
     </row>
     <row r="251" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="111"/>
-      <c r="C251" s="112"/>
-      <c r="D251" s="146" t="s">
-        <v>525</v>
-      </c>
-      <c r="E251" s="147" t="s">
-        <v>526</v>
-      </c>
-      <c r="F251" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G251" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H251" s="150">
-        <v>44628</v>
-      </c>
+      <c r="C251" s="177"/>
+      <c r="D251" s="112"/>
+      <c r="E251" s="113"/>
+      <c r="F251" s="114"/>
+      <c r="G251" s="115"/>
+      <c r="H251" s="116"/>
     </row>
     <row r="252" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="111"/>
       <c r="C252" s="112"/>
-      <c r="D252" s="146" t="s">
-        <v>527</v>
-      </c>
-      <c r="E252" s="147" t="s">
-        <v>528</v>
-      </c>
-      <c r="F252" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G252" s="149">
-        <v>44698</v>
-      </c>
-      <c r="H252" s="150">
-        <v>44628</v>
-      </c>
+      <c r="D252" s="112"/>
+      <c r="E252" s="113"/>
+      <c r="F252" s="114"/>
+      <c r="G252" s="115"/>
+      <c r="H252" s="116"/>
     </row>
     <row r="253" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="111"/>
-      <c r="C253" s="112"/>
-      <c r="D253" s="146" t="s">
-        <v>529</v>
-      </c>
-      <c r="E253" s="147" t="s">
-        <v>530</v>
-      </c>
-      <c r="F253" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G253" s="149">
-        <v>44617</v>
-      </c>
-      <c r="H253" s="150">
-        <v>44617</v>
-      </c>
+      <c r="C253" s="177" t="s">
+        <v>149</v>
+      </c>
+      <c r="D253" s="158"/>
+      <c r="E253" s="158"/>
+      <c r="F253" s="158"/>
+      <c r="G253" s="158"/>
+      <c r="H253" s="159"/>
     </row>
     <row r="254" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="111"/>
-      <c r="C254" s="112"/>
-      <c r="D254" s="146" t="s">
-        <v>532</v>
-      </c>
-      <c r="E254" s="147" t="s">
-        <v>531</v>
-      </c>
-      <c r="F254" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G254" s="149">
-        <v>44617</v>
-      </c>
-      <c r="H254" s="150">
-        <v>44617</v>
-      </c>
+      <c r="C254" s="177"/>
+      <c r="D254" s="112"/>
+      <c r="E254" s="113"/>
+      <c r="F254" s="114"/>
+      <c r="G254" s="115"/>
+      <c r="H254" s="116"/>
     </row>
     <row r="255" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="111"/>
       <c r="C255" s="112"/>
-      <c r="D255" s="146" t="s">
-        <v>533</v>
-      </c>
-      <c r="E255" s="147" t="s">
-        <v>534</v>
-      </c>
-      <c r="F255" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G255" s="149">
-        <v>44740</v>
-      </c>
-      <c r="H255" s="150">
-        <v>44662</v>
-      </c>
+      <c r="D255" s="112"/>
+      <c r="E255" s="113"/>
+      <c r="F255" s="114"/>
+      <c r="G255" s="115"/>
+      <c r="H255" s="116"/>
     </row>
     <row r="256" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="111"/>
-      <c r="C256" s="112"/>
-      <c r="D256" s="146" t="s">
-        <v>536</v>
-      </c>
-      <c r="E256" s="147" t="s">
-        <v>535</v>
-      </c>
-      <c r="F256" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G256" s="149">
-        <v>44740</v>
-      </c>
-      <c r="H256" s="150">
-        <v>44662</v>
-      </c>
+      <c r="C256" s="177" t="s">
+        <v>150</v>
+      </c>
+      <c r="D256" s="158"/>
+      <c r="E256" s="158"/>
+      <c r="F256" s="158"/>
+      <c r="G256" s="158"/>
+      <c r="H256" s="159"/>
     </row>
     <row r="257" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="111"/>
-      <c r="C257" s="112"/>
+      <c r="C257" s="177"/>
       <c r="D257" s="112"/>
       <c r="E257" s="113"/>
       <c r="F257" s="114"/>
@@ -7331,479 +7257,1375 @@
     <row r="258" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="111"/>
-      <c r="C258" s="163" t="s">
-        <v>147</v>
-      </c>
-      <c r="D258" s="158"/>
-      <c r="E258" s="158"/>
-      <c r="F258" s="158"/>
-      <c r="G258" s="158"/>
-      <c r="H258" s="159"/>
+      <c r="C258" s="112"/>
+      <c r="D258" s="112"/>
+      <c r="E258" s="113"/>
+      <c r="F258" s="114"/>
+      <c r="G258" s="115"/>
+      <c r="H258" s="116"/>
     </row>
     <row r="259" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="111"/>
-      <c r="C259" s="163"/>
-      <c r="D259" s="153" t="s">
-        <v>274</v>
-      </c>
-      <c r="E259" s="154" t="s">
-        <v>450</v>
-      </c>
-      <c r="F259" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="G259" s="156">
-        <v>44167</v>
-      </c>
-      <c r="H259" s="157">
-        <v>44167</v>
-      </c>
+      <c r="C259" s="177" t="s">
+        <v>151</v>
+      </c>
+      <c r="D259" s="158"/>
+      <c r="E259" s="158"/>
+      <c r="F259" s="158"/>
+      <c r="G259" s="158"/>
+      <c r="H259" s="159"/>
     </row>
     <row r="260" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="111"/>
-      <c r="C260" s="112"/>
-      <c r="D260" s="146" t="s">
-        <v>451</v>
-      </c>
-      <c r="E260" s="147" t="s">
-        <v>452</v>
-      </c>
-      <c r="F260" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G260" s="149">
-        <v>44575</v>
-      </c>
-      <c r="H260" s="150">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C260" s="177"/>
+      <c r="D260" s="112"/>
+      <c r="E260" s="113"/>
+      <c r="F260" s="114"/>
+      <c r="G260" s="115"/>
+      <c r="H260" s="116"/>
+    </row>
+    <row r="261" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="111"/>
       <c r="C261" s="112"/>
-      <c r="D261" s="146" t="s">
-        <v>454</v>
-      </c>
-      <c r="E261" s="152" t="s">
-        <v>453</v>
-      </c>
-      <c r="F261" s="148" t="s">
-        <v>281</v>
-      </c>
-      <c r="G261" s="149">
-        <v>44404</v>
-      </c>
-      <c r="H261" s="150">
-        <v>44404</v>
-      </c>
+      <c r="D261" s="112"/>
+      <c r="E261" s="113"/>
+      <c r="F261" s="114"/>
+      <c r="G261" s="115"/>
+      <c r="H261" s="116"/>
     </row>
     <row r="262" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="111"/>
-      <c r="C262" s="112"/>
-      <c r="D262" s="112"/>
-      <c r="E262" s="113"/>
-      <c r="F262" s="114"/>
-      <c r="G262" s="115"/>
-      <c r="H262" s="116"/>
+      <c r="C262" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="D262" s="158"/>
+      <c r="E262" s="158"/>
+      <c r="F262" s="158"/>
+      <c r="G262" s="158"/>
+      <c r="H262" s="159"/>
     </row>
     <row r="263" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="111"/>
-      <c r="C263" s="163" t="s">
-        <v>159</v>
-      </c>
-      <c r="D263" s="158"/>
-      <c r="E263" s="158"/>
-      <c r="F263" s="158"/>
-      <c r="G263" s="158"/>
-      <c r="H263" s="159"/>
+      <c r="C263" s="177"/>
+      <c r="D263" s="112"/>
+      <c r="E263" s="113"/>
+      <c r="F263" s="114"/>
+      <c r="G263" s="115"/>
+      <c r="H263" s="116"/>
     </row>
     <row r="264" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="111"/>
-      <c r="C264" s="163"/>
-      <c r="D264" s="153" t="s">
-        <v>456</v>
-      </c>
-      <c r="E264" s="154" t="s">
-        <v>455</v>
-      </c>
-      <c r="F264" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="G264" s="156">
-        <v>44635</v>
-      </c>
-      <c r="H264" s="157">
-        <v>44635</v>
-      </c>
+      <c r="C264" s="112"/>
+      <c r="D264" s="112"/>
+      <c r="E264" s="113"/>
+      <c r="F264" s="114"/>
+      <c r="G264" s="115"/>
+      <c r="H264" s="116"/>
     </row>
     <row r="265" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="111"/>
-      <c r="C265" s="112"/>
-      <c r="D265" s="146" t="s">
-        <v>458</v>
-      </c>
-      <c r="E265" s="147" t="s">
-        <v>457</v>
-      </c>
-      <c r="F265" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G265" s="149">
-        <v>44635</v>
-      </c>
-      <c r="H265" s="150">
-        <v>44635</v>
-      </c>
+      <c r="C265" s="177" t="s">
+        <v>153</v>
+      </c>
+      <c r="D265" s="158"/>
+      <c r="E265" s="158"/>
+      <c r="F265" s="158"/>
+      <c r="G265" s="158"/>
+      <c r="H265" s="159"/>
     </row>
     <row r="266" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="111"/>
-      <c r="C266" s="112"/>
-      <c r="D266" s="146" t="s">
-        <v>459</v>
-      </c>
-      <c r="E266" s="147" t="s">
-        <v>461</v>
-      </c>
-      <c r="F266" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G266" s="149">
-        <v>44635</v>
-      </c>
-      <c r="H266" s="150">
-        <v>44635</v>
-      </c>
+      <c r="C266" s="177"/>
+      <c r="D266" s="112"/>
+      <c r="E266" s="113"/>
+      <c r="F266" s="114"/>
+      <c r="G266" s="115"/>
+      <c r="H266" s="116"/>
     </row>
     <row r="267" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="111"/>
       <c r="C267" s="112"/>
-      <c r="D267" s="146" t="s">
-        <v>460</v>
-      </c>
-      <c r="E267" s="147" t="s">
-        <v>462</v>
-      </c>
-      <c r="F267" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="G267" s="149">
-        <v>44635</v>
-      </c>
-      <c r="H267" s="150">
-        <v>44635</v>
-      </c>
+      <c r="D267" s="112"/>
+      <c r="E267" s="113"/>
+      <c r="F267" s="114"/>
+      <c r="G267" s="115"/>
+      <c r="H267" s="116"/>
     </row>
     <row r="268" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="111"/>
-      <c r="C268" s="112"/>
-      <c r="D268" s="146" t="s">
-        <v>463</v>
-      </c>
-      <c r="E268" s="147" t="s">
-        <v>466</v>
-      </c>
-      <c r="F268" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G268" s="149">
-        <v>44701</v>
-      </c>
-      <c r="H268" s="150">
-        <v>44644</v>
-      </c>
+      <c r="C268" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="D268" s="158"/>
+      <c r="E268" s="158"/>
+      <c r="F268" s="158"/>
+      <c r="G268" s="158"/>
+      <c r="H268" s="159"/>
     </row>
     <row r="269" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="111"/>
-      <c r="C269" s="112"/>
-      <c r="D269" s="146" t="s">
-        <v>464</v>
-      </c>
-      <c r="E269" s="147" t="s">
-        <v>467</v>
-      </c>
-      <c r="F269" s="148" t="s">
-        <v>465</v>
-      </c>
-      <c r="G269" s="149">
-        <v>44701</v>
-      </c>
-      <c r="H269" s="150">
-        <v>44644</v>
-      </c>
+      <c r="C269" s="177"/>
+      <c r="D269" s="112"/>
+      <c r="E269" s="113"/>
+      <c r="F269" s="114"/>
+      <c r="G269" s="115"/>
+      <c r="H269" s="116"/>
     </row>
     <row r="270" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="111"/>
       <c r="C270" s="112"/>
-      <c r="D270" s="146" t="s">
-        <v>468</v>
-      </c>
-      <c r="E270" s="147" t="s">
-        <v>469</v>
-      </c>
-      <c r="F270" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G270" s="149">
-        <v>44644</v>
-      </c>
-      <c r="H270" s="150">
-        <v>44636</v>
-      </c>
+      <c r="D270" s="112"/>
+      <c r="E270" s="113"/>
+      <c r="F270" s="114"/>
+      <c r="G270" s="115"/>
+      <c r="H270" s="116"/>
     </row>
     <row r="271" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="111"/>
-      <c r="C271" s="112"/>
-      <c r="D271" s="146" t="s">
-        <v>470</v>
-      </c>
-      <c r="E271" s="147" t="s">
-        <v>471</v>
-      </c>
-      <c r="F271" s="148" t="s">
-        <v>267</v>
-      </c>
-      <c r="G271" s="149">
-        <v>44644</v>
-      </c>
-      <c r="H271" s="150">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C271" s="177" t="s">
+        <v>155</v>
+      </c>
+      <c r="D271" s="158"/>
+      <c r="E271" s="158"/>
+      <c r="F271" s="158"/>
+      <c r="G271" s="158"/>
+      <c r="H271" s="159"/>
+    </row>
+    <row r="272" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
-      <c r="B272" s="118"/>
-      <c r="C272" s="119"/>
-      <c r="D272" s="119"/>
-      <c r="E272" s="120"/>
-      <c r="F272" s="121"/>
-      <c r="G272" s="122"/>
-      <c r="H272" s="123"/>
+      <c r="B272" s="111"/>
+      <c r="C272" s="177"/>
+      <c r="D272" s="112"/>
+      <c r="E272" s="113"/>
+      <c r="F272" s="114"/>
+      <c r="G272" s="115"/>
+      <c r="H272" s="116"/>
     </row>
     <row r="273" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1"/>
-      <c r="F273" s="124"/>
-      <c r="G273" s="125"/>
-      <c r="H273" s="125"/>
+      <c r="B273" s="111"/>
+      <c r="C273" s="112"/>
+      <c r="D273" s="112"/>
+      <c r="E273" s="113"/>
+      <c r="F273" s="114"/>
+      <c r="G273" s="115"/>
+      <c r="H273" s="116"/>
     </row>
     <row r="274" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1"/>
-      <c r="F274" s="124"/>
-      <c r="G274" s="125"/>
-      <c r="H274" s="125"/>
+      <c r="B274" s="111"/>
+      <c r="C274" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="D274" s="158"/>
+      <c r="E274" s="158"/>
+      <c r="F274" s="158"/>
+      <c r="G274" s="158"/>
+      <c r="H274" s="159"/>
     </row>
     <row r="275" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-      <c r="F275" s="124"/>
-      <c r="G275" s="125"/>
-      <c r="H275" s="125"/>
+      <c r="B275" s="111"/>
+      <c r="C275" s="177"/>
+      <c r="D275" s="112"/>
+      <c r="E275" s="113"/>
+      <c r="F275" s="114"/>
+      <c r="G275" s="115"/>
+      <c r="H275" s="116"/>
     </row>
     <row r="276" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="124"/>
-      <c r="G276" s="125"/>
-      <c r="H276" s="125"/>
+      <c r="B276" s="111"/>
+      <c r="C276" s="112"/>
+      <c r="D276" s="112"/>
+      <c r="E276" s="113"/>
+      <c r="F276" s="114"/>
+      <c r="G276" s="115"/>
+      <c r="H276" s="116"/>
     </row>
     <row r="277" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1"/>
-      <c r="F277" s="124"/>
-      <c r="G277" s="125"/>
-      <c r="H277" s="125"/>
+      <c r="B277" s="111"/>
+      <c r="C277" s="177" t="s">
+        <v>157</v>
+      </c>
+      <c r="D277" s="158"/>
+      <c r="E277" s="158"/>
+      <c r="F277" s="158"/>
+      <c r="G277" s="158"/>
+      <c r="H277" s="159"/>
     </row>
     <row r="278" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="124"/>
-      <c r="G278" s="125"/>
-      <c r="H278" s="125"/>
+      <c r="B278" s="111"/>
+      <c r="C278" s="177"/>
+      <c r="D278" s="112"/>
+      <c r="E278" s="113"/>
+      <c r="F278" s="114"/>
+      <c r="G278" s="115"/>
+      <c r="H278" s="116"/>
     </row>
     <row r="279" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1"/>
-      <c r="F279" s="124"/>
-      <c r="G279" s="125"/>
-      <c r="H279" s="125"/>
+      <c r="B279" s="111"/>
+      <c r="C279" s="112"/>
+      <c r="D279" s="112"/>
+      <c r="E279" s="113"/>
+      <c r="F279" s="114"/>
+      <c r="G279" s="115"/>
+      <c r="H279" s="116"/>
     </row>
     <row r="280" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1"/>
-      <c r="F280" s="124"/>
-      <c r="G280" s="125"/>
-      <c r="H280" s="125"/>
+      <c r="B280" s="111"/>
+      <c r="C280" s="177" t="s">
+        <v>158</v>
+      </c>
+      <c r="D280" s="158"/>
+      <c r="E280" s="158"/>
+      <c r="F280" s="158"/>
+      <c r="G280" s="158"/>
+      <c r="H280" s="159"/>
     </row>
     <row r="281" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="124"/>
-      <c r="G281" s="125"/>
-      <c r="H281" s="125"/>
+      <c r="B281" s="111"/>
+      <c r="C281" s="177"/>
+      <c r="D281" s="153" t="s">
+        <v>472</v>
+      </c>
+      <c r="E281" s="154" t="s">
+        <v>473</v>
+      </c>
+      <c r="F281" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G281" s="156">
+        <v>44663</v>
+      </c>
+      <c r="H281" s="157">
+        <v>44663</v>
+      </c>
     </row>
     <row r="282" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
-      <c r="F282" s="124"/>
-      <c r="G282" s="125"/>
-      <c r="H282" s="125"/>
+      <c r="B282" s="111"/>
+      <c r="C282" s="112"/>
+      <c r="D282" s="146" t="s">
+        <v>474</v>
+      </c>
+      <c r="E282" s="147" t="s">
+        <v>475</v>
+      </c>
+      <c r="F282" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G282" s="149">
+        <v>44663</v>
+      </c>
+      <c r="H282" s="150">
+        <v>44663</v>
+      </c>
     </row>
     <row r="283" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="124"/>
-      <c r="G283" s="125"/>
-      <c r="H283" s="125"/>
+      <c r="B283" s="111"/>
+      <c r="C283" s="112"/>
+      <c r="D283" s="146" t="s">
+        <v>477</v>
+      </c>
+      <c r="E283" s="147" t="s">
+        <v>476</v>
+      </c>
+      <c r="F283" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G283" s="149">
+        <v>44630</v>
+      </c>
+      <c r="H283" s="150">
+        <v>44630</v>
+      </c>
     </row>
     <row r="284" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1"/>
-      <c r="F284" s="124"/>
-      <c r="G284" s="125"/>
-      <c r="H284" s="125"/>
+      <c r="B284" s="111"/>
+      <c r="C284" s="112"/>
+      <c r="D284" s="146" t="s">
+        <v>478</v>
+      </c>
+      <c r="E284" s="147" t="s">
+        <v>479</v>
+      </c>
+      <c r="F284" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G284" s="149">
+        <v>44630</v>
+      </c>
+      <c r="H284" s="150">
+        <v>44630</v>
+      </c>
     </row>
     <row r="285" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="124"/>
-      <c r="G285" s="125"/>
-      <c r="H285" s="125"/>
+      <c r="B285" s="111"/>
+      <c r="C285" s="112"/>
+      <c r="D285" s="146" t="s">
+        <v>480</v>
+      </c>
+      <c r="E285" s="147" t="s">
+        <v>481</v>
+      </c>
+      <c r="F285" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G285" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H285" s="150">
+        <v>44630</v>
+      </c>
     </row>
     <row r="286" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="124"/>
-      <c r="G286" s="125"/>
-      <c r="H286" s="125"/>
+      <c r="B286" s="111"/>
+      <c r="C286" s="112"/>
+      <c r="D286" s="146" t="s">
+        <v>482</v>
+      </c>
+      <c r="E286" s="147" t="s">
+        <v>483</v>
+      </c>
+      <c r="F286" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G286" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H286" s="150">
+        <v>44630</v>
+      </c>
     </row>
     <row r="287" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="124"/>
-      <c r="G287" s="125"/>
-      <c r="H287" s="125"/>
+      <c r="B287" s="111"/>
+      <c r="C287" s="112"/>
+      <c r="D287" s="146" t="s">
+        <v>484</v>
+      </c>
+      <c r="E287" s="147" t="s">
+        <v>485</v>
+      </c>
+      <c r="F287" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G287" s="149">
+        <v>44669</v>
+      </c>
+      <c r="H287" s="150">
+        <v>44824</v>
+      </c>
     </row>
     <row r="288" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1"/>
-      <c r="F288" s="124"/>
-      <c r="G288" s="125"/>
-      <c r="H288" s="125"/>
-    </row>
-    <row r="289" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F289" s="95"/>
-      <c r="G289" s="110"/>
-      <c r="H289" s="110"/>
-    </row>
-    <row r="290" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F290" s="95"/>
-      <c r="G290" s="110"/>
-      <c r="H290" s="110"/>
-    </row>
-    <row r="291" spans="6:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F291" s="95"/>
-      <c r="G291" s="110"/>
-      <c r="H291" s="110"/>
+      <c r="B288" s="111"/>
+      <c r="C288" s="112"/>
+      <c r="D288" s="146" t="s">
+        <v>487</v>
+      </c>
+      <c r="E288" s="147" t="s">
+        <v>486</v>
+      </c>
+      <c r="F288" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G288" s="149">
+        <v>44669</v>
+      </c>
+      <c r="H288" s="150">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+      <c r="B289" s="111"/>
+      <c r="C289" s="112"/>
+      <c r="D289" s="146" t="s">
+        <v>488</v>
+      </c>
+      <c r="E289" s="147" t="s">
+        <v>489</v>
+      </c>
+      <c r="F289" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G289" s="149">
+        <v>44733</v>
+      </c>
+      <c r="H289" s="150">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+      <c r="B290" s="111"/>
+      <c r="C290" s="112"/>
+      <c r="D290" s="146" t="s">
+        <v>490</v>
+      </c>
+      <c r="E290" s="147" t="s">
+        <v>491</v>
+      </c>
+      <c r="F290" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G290" s="149">
+        <v>44733</v>
+      </c>
+      <c r="H290" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="111"/>
+      <c r="C291" s="112"/>
+      <c r="D291" s="146" t="s">
+        <v>492</v>
+      </c>
+      <c r="E291" s="147" t="s">
+        <v>494</v>
+      </c>
+      <c r="F291" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G291" s="149">
+        <v>44671</v>
+      </c>
+      <c r="H291" s="150">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+      <c r="B292" s="111"/>
+      <c r="C292" s="112"/>
+      <c r="D292" s="146" t="s">
+        <v>493</v>
+      </c>
+      <c r="E292" s="147" t="s">
+        <v>495</v>
+      </c>
+      <c r="F292" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G292" s="149">
+        <v>44671</v>
+      </c>
+      <c r="H292" s="150">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+      <c r="B293" s="111"/>
+      <c r="C293" s="112"/>
+      <c r="D293" s="146" t="s">
+        <v>496</v>
+      </c>
+      <c r="E293" s="147" t="s">
+        <v>497</v>
+      </c>
+      <c r="F293" s="148" t="s">
+        <v>498</v>
+      </c>
+      <c r="G293" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H293" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+      <c r="B294" s="111"/>
+      <c r="C294" s="112"/>
+      <c r="D294" s="146" t="s">
+        <v>500</v>
+      </c>
+      <c r="E294" s="147" t="s">
+        <v>499</v>
+      </c>
+      <c r="F294" s="148" t="s">
+        <v>498</v>
+      </c>
+      <c r="G294" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H294" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+      <c r="B295" s="111"/>
+      <c r="C295" s="112"/>
+      <c r="D295" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="E295" s="147" t="s">
+        <v>503</v>
+      </c>
+      <c r="F295" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G295" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H295" s="150">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+      <c r="B296" s="111"/>
+      <c r="C296" s="112"/>
+      <c r="D296" s="146" t="s">
+        <v>502</v>
+      </c>
+      <c r="E296" s="147" t="s">
+        <v>504</v>
+      </c>
+      <c r="F296" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G296" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H296" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A297" s="1"/>
+      <c r="B297" s="111"/>
+      <c r="C297" s="112"/>
+      <c r="D297" s="146" t="s">
+        <v>506</v>
+      </c>
+      <c r="E297" s="147" t="s">
+        <v>505</v>
+      </c>
+      <c r="F297" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G297" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H297" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+      <c r="B298" s="111"/>
+      <c r="C298" s="112"/>
+      <c r="D298" s="146" t="s">
+        <v>507</v>
+      </c>
+      <c r="E298" s="147" t="s">
+        <v>508</v>
+      </c>
+      <c r="F298" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G298" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H298" s="150">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+      <c r="B299" s="111"/>
+      <c r="C299" s="112"/>
+      <c r="D299" s="146" t="s">
+        <v>509</v>
+      </c>
+      <c r="E299" s="147" t="s">
+        <v>510</v>
+      </c>
+      <c r="F299" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G299" s="149">
+        <v>44846</v>
+      </c>
+      <c r="H299" s="150">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+      <c r="B300" s="111"/>
+      <c r="C300" s="112"/>
+      <c r="D300" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="E300" s="147" t="s">
+        <v>512</v>
+      </c>
+      <c r="F300" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G300" s="149">
+        <v>44846</v>
+      </c>
+      <c r="H300" s="150">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+      <c r="B301" s="111"/>
+      <c r="C301" s="112"/>
+      <c r="D301" s="146" t="s">
+        <v>513</v>
+      </c>
+      <c r="E301" s="147" t="s">
+        <v>514</v>
+      </c>
+      <c r="F301" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G301" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H301" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+      <c r="B302" s="111"/>
+      <c r="C302" s="112"/>
+      <c r="D302" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="E302" s="147" t="s">
+        <v>516</v>
+      </c>
+      <c r="F302" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G302" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H302" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+      <c r="B303" s="111"/>
+      <c r="C303" s="112"/>
+      <c r="D303" s="146" t="s">
+        <v>517</v>
+      </c>
+      <c r="E303" s="147" t="s">
+        <v>518</v>
+      </c>
+      <c r="F303" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G303" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H303" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+      <c r="B304" s="111"/>
+      <c r="C304" s="112"/>
+      <c r="D304" s="146" t="s">
+        <v>519</v>
+      </c>
+      <c r="E304" s="147" t="s">
+        <v>520</v>
+      </c>
+      <c r="F304" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G304" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H304" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+      <c r="B305" s="111"/>
+      <c r="C305" s="112"/>
+      <c r="D305" s="146" t="s">
+        <v>521</v>
+      </c>
+      <c r="E305" s="147" t="s">
+        <v>523</v>
+      </c>
+      <c r="F305" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G305" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H305" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+      <c r="B306" s="111"/>
+      <c r="C306" s="112"/>
+      <c r="D306" s="146" t="s">
+        <v>522</v>
+      </c>
+      <c r="E306" s="147" t="s">
+        <v>524</v>
+      </c>
+      <c r="F306" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G306" s="149">
+        <v>44628</v>
+      </c>
+      <c r="H306" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+      <c r="B307" s="111"/>
+      <c r="C307" s="112"/>
+      <c r="D307" s="146" t="s">
+        <v>525</v>
+      </c>
+      <c r="E307" s="147" t="s">
+        <v>526</v>
+      </c>
+      <c r="F307" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G307" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H307" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+      <c r="B308" s="111"/>
+      <c r="C308" s="112"/>
+      <c r="D308" s="146" t="s">
+        <v>527</v>
+      </c>
+      <c r="E308" s="147" t="s">
+        <v>528</v>
+      </c>
+      <c r="F308" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G308" s="149">
+        <v>44698</v>
+      </c>
+      <c r="H308" s="150">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+      <c r="B309" s="111"/>
+      <c r="C309" s="112"/>
+      <c r="D309" s="146" t="s">
+        <v>529</v>
+      </c>
+      <c r="E309" s="147" t="s">
+        <v>530</v>
+      </c>
+      <c r="F309" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G309" s="149">
+        <v>44617</v>
+      </c>
+      <c r="H309" s="150">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+      <c r="B310" s="111"/>
+      <c r="C310" s="112"/>
+      <c r="D310" s="146" t="s">
+        <v>532</v>
+      </c>
+      <c r="E310" s="147" t="s">
+        <v>531</v>
+      </c>
+      <c r="F310" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G310" s="149">
+        <v>44617</v>
+      </c>
+      <c r="H310" s="150">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+      <c r="B311" s="111"/>
+      <c r="C311" s="112"/>
+      <c r="D311" s="146" t="s">
+        <v>533</v>
+      </c>
+      <c r="E311" s="147" t="s">
+        <v>534</v>
+      </c>
+      <c r="F311" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G311" s="149">
+        <v>44740</v>
+      </c>
+      <c r="H311" s="150">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+      <c r="B312" s="111"/>
+      <c r="C312" s="112"/>
+      <c r="D312" s="146" t="s">
+        <v>536</v>
+      </c>
+      <c r="E312" s="147" t="s">
+        <v>535</v>
+      </c>
+      <c r="F312" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G312" s="149">
+        <v>44740</v>
+      </c>
+      <c r="H312" s="150">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+      <c r="B313" s="111"/>
+      <c r="C313" s="112"/>
+      <c r="D313" s="112"/>
+      <c r="E313" s="113"/>
+      <c r="F313" s="114"/>
+      <c r="G313" s="115"/>
+      <c r="H313" s="116"/>
+    </row>
+    <row r="314" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+      <c r="B314" s="111"/>
+      <c r="C314" s="177" t="s">
+        <v>147</v>
+      </c>
+      <c r="D314" s="158"/>
+      <c r="E314" s="158"/>
+      <c r="F314" s="158"/>
+      <c r="G314" s="158"/>
+      <c r="H314" s="159"/>
+    </row>
+    <row r="315" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+      <c r="B315" s="111"/>
+      <c r="C315" s="177"/>
+      <c r="D315" s="153" t="s">
+        <v>274</v>
+      </c>
+      <c r="E315" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="F315" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G315" s="156">
+        <v>44167</v>
+      </c>
+      <c r="H315" s="157">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+      <c r="B316" s="111"/>
+      <c r="C316" s="112"/>
+      <c r="D316" s="146" t="s">
+        <v>451</v>
+      </c>
+      <c r="E316" s="147" t="s">
+        <v>452</v>
+      </c>
+      <c r="F316" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="G316" s="149">
+        <v>44575</v>
+      </c>
+      <c r="H316" s="150">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+      <c r="B317" s="111"/>
+      <c r="C317" s="112"/>
+      <c r="D317" s="146" t="s">
+        <v>454</v>
+      </c>
+      <c r="E317" s="152" t="s">
+        <v>453</v>
+      </c>
+      <c r="F317" s="148" t="s">
+        <v>281</v>
+      </c>
+      <c r="G317" s="149">
+        <v>44404</v>
+      </c>
+      <c r="H317" s="150">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+      <c r="B318" s="111"/>
+      <c r="C318" s="112"/>
+      <c r="D318" s="112"/>
+      <c r="E318" s="113"/>
+      <c r="F318" s="114"/>
+      <c r="G318" s="115"/>
+      <c r="H318" s="116"/>
+    </row>
+    <row r="319" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+      <c r="B319" s="111"/>
+      <c r="C319" s="177" t="s">
+        <v>159</v>
+      </c>
+      <c r="D319" s="158"/>
+      <c r="E319" s="158"/>
+      <c r="F319" s="158"/>
+      <c r="G319" s="158"/>
+      <c r="H319" s="159"/>
+    </row>
+    <row r="320" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+      <c r="B320" s="111"/>
+      <c r="C320" s="177"/>
+      <c r="D320" s="153" t="s">
+        <v>456</v>
+      </c>
+      <c r="E320" s="154" t="s">
+        <v>455</v>
+      </c>
+      <c r="F320" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="G320" s="156">
+        <v>44635</v>
+      </c>
+      <c r="H320" s="157">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="B321" s="111"/>
+      <c r="C321" s="112"/>
+      <c r="D321" s="146" t="s">
+        <v>458</v>
+      </c>
+      <c r="E321" s="147" t="s">
+        <v>457</v>
+      </c>
+      <c r="F321" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G321" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H321" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+      <c r="B322" s="111"/>
+      <c r="C322" s="112"/>
+      <c r="D322" s="146" t="s">
+        <v>459</v>
+      </c>
+      <c r="E322" s="147" t="s">
+        <v>461</v>
+      </c>
+      <c r="F322" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G322" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H322" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+      <c r="B323" s="111"/>
+      <c r="C323" s="112"/>
+      <c r="D323" s="146" t="s">
+        <v>460</v>
+      </c>
+      <c r="E323" s="147" t="s">
+        <v>462</v>
+      </c>
+      <c r="F323" s="148" t="s">
+        <v>232</v>
+      </c>
+      <c r="G323" s="149">
+        <v>44635</v>
+      </c>
+      <c r="H323" s="150">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+      <c r="B324" s="111"/>
+      <c r="C324" s="112"/>
+      <c r="D324" s="146" t="s">
+        <v>463</v>
+      </c>
+      <c r="E324" s="147" t="s">
+        <v>466</v>
+      </c>
+      <c r="F324" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G324" s="149">
+        <v>44701</v>
+      </c>
+      <c r="H324" s="150">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+      <c r="B325" s="111"/>
+      <c r="C325" s="112"/>
+      <c r="D325" s="146" t="s">
+        <v>464</v>
+      </c>
+      <c r="E325" s="147" t="s">
+        <v>467</v>
+      </c>
+      <c r="F325" s="148" t="s">
+        <v>465</v>
+      </c>
+      <c r="G325" s="149">
+        <v>44701</v>
+      </c>
+      <c r="H325" s="150">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+      <c r="B326" s="111"/>
+      <c r="C326" s="112"/>
+      <c r="D326" s="146" t="s">
+        <v>468</v>
+      </c>
+      <c r="E326" s="147" t="s">
+        <v>469</v>
+      </c>
+      <c r="F326" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G326" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H326" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+      <c r="B327" s="111"/>
+      <c r="C327" s="112"/>
+      <c r="D327" s="146" t="s">
+        <v>470</v>
+      </c>
+      <c r="E327" s="147" t="s">
+        <v>471</v>
+      </c>
+      <c r="F327" s="148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G327" s="149">
+        <v>44644</v>
+      </c>
+      <c r="H327" s="150">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="B328" s="118"/>
+      <c r="C328" s="119"/>
+      <c r="D328" s="119"/>
+      <c r="E328" s="120"/>
+      <c r="F328" s="121"/>
+      <c r="G328" s="122"/>
+      <c r="H328" s="123"/>
+    </row>
+    <row r="329" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="124"/>
+      <c r="G329" s="125"/>
+      <c r="H329" s="125"/>
+    </row>
+    <row r="330" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="124"/>
+      <c r="G330" s="125"/>
+      <c r="H330" s="125"/>
+    </row>
+    <row r="331" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="124"/>
+      <c r="G331" s="125"/>
+      <c r="H331" s="125"/>
+    </row>
+    <row r="332" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="124"/>
+      <c r="G332" s="125"/>
+      <c r="H332" s="125"/>
+    </row>
+    <row r="333" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="124"/>
+      <c r="G333" s="125"/>
+      <c r="H333" s="125"/>
+    </row>
+    <row r="334" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="124"/>
+      <c r="G334" s="125"/>
+      <c r="H334" s="125"/>
+    </row>
+    <row r="335" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="124"/>
+      <c r="G335" s="125"/>
+      <c r="H335" s="125"/>
+    </row>
+    <row r="336" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="124"/>
+      <c r="G336" s="125"/>
+      <c r="H336" s="125"/>
+    </row>
+    <row r="337" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="124"/>
+      <c r="G337" s="125"/>
+      <c r="H337" s="125"/>
+    </row>
+    <row r="338" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="124"/>
+      <c r="G338" s="125"/>
+      <c r="H338" s="125"/>
+    </row>
+    <row r="339" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="124"/>
+      <c r="G339" s="125"/>
+      <c r="H339" s="125"/>
+    </row>
+    <row r="340" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="124"/>
+      <c r="G340" s="125"/>
+      <c r="H340" s="125"/>
+    </row>
+    <row r="341" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="124"/>
+      <c r="G341" s="125"/>
+      <c r="H341" s="125"/>
+    </row>
+    <row r="342" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="124"/>
+      <c r="G342" s="125"/>
+      <c r="H342" s="125"/>
+    </row>
+    <row r="343" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="124"/>
+      <c r="G343" s="125"/>
+      <c r="H343" s="125"/>
+    </row>
+    <row r="344" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="124"/>
+      <c r="G344" s="125"/>
+      <c r="H344" s="125"/>
+    </row>
+    <row r="345" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F345" s="95"/>
+      <c r="G345" s="110"/>
+      <c r="H345" s="110"/>
+    </row>
+    <row r="346" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F346" s="95"/>
+      <c r="G346" s="110"/>
+      <c r="H346" s="110"/>
+    </row>
+    <row r="347" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F347" s="95"/>
+      <c r="G347" s="110"/>
+      <c r="H347" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="C319:C320"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -7837,20 +8659,20 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="192" t="s">
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="194"/>
-      <c r="G2" s="192" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="193"/>
-      <c r="I2" s="194"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="191"/>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
@@ -7871,10 +8693,10 @@
       <c r="G3" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="198" t="s">
+      <c r="H3" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="199"/>
+      <c r="I3" s="196"/>
     </row>
     <row r="4" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
@@ -7904,19 +8726,19 @@
     </row>
     <row r="5" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="183" t="s">
+      <c r="C5" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="200" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="189" t="s">
+      <c r="F5" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="180" t="s">
+      <c r="G5" s="206" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -7928,23 +8750,23 @@
     </row>
     <row r="6" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="61"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="187"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="175" t="s">
+      <c r="F6" s="204"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="176"/>
+      <c r="I6" s="188"/>
     </row>
     <row r="7" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="61"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="188"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="202"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="182"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="8" t="s">
         <v>23</v>
       </c>
@@ -7978,19 +8800,19 @@
     </row>
     <row r="9" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B9" s="61"/>
-      <c r="C9" s="183" t="s">
+      <c r="C9" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="189" t="s">
+      <c r="F9" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="180" t="s">
+      <c r="G9" s="206" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -8003,24 +8825,24 @@
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="61"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="175" t="s">
+      <c r="C10" s="198"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="176"/>
+      <c r="I10" s="188"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="182"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="208"/>
       <c r="H11" s="8" t="s">
         <v>23</v>
       </c>
@@ -8030,10 +8852,10 @@
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B12" s="61"/>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="186" t="s">
+      <c r="D12" s="200" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -8042,7 +8864,7 @@
       <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="180" t="s">
+      <c r="G12" s="206" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -8054,15 +8876,15 @@
     </row>
     <row r="13" spans="2:11" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B13" s="61"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="188"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="202"/>
       <c r="E13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="182"/>
+      <c r="G13" s="208"/>
       <c r="H13" s="8"/>
       <c r="I13" s="17"/>
     </row>
@@ -8107,8 +8929,8 @@
       <c r="E16" s="25"/>
       <c r="F16" s="22"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="174"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="210"/>
     </row>
     <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
@@ -8522,19 +9344,19 @@
     </row>
     <row r="40" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B40" s="61"/>
-      <c r="C40" s="183" t="s">
+      <c r="C40" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="186" t="s">
+      <c r="D40" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="177" t="s">
+      <c r="E40" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="189" t="s">
+      <c r="F40" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="180" t="s">
+      <c r="G40" s="206" t="s">
         <v>47</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -8546,23 +9368,23 @@
     </row>
     <row r="41" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="175" t="s">
+      <c r="C41" s="198"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="212"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="176"/>
+      <c r="I41" s="188"/>
     </row>
     <row r="42" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B42" s="61"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="182"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="208"/>
       <c r="H42" s="8" t="s">
         <v>23</v>
       </c>
@@ -8596,19 +9418,19 @@
     </row>
     <row r="44" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="61"/>
-      <c r="C44" s="183" t="s">
+      <c r="C44" s="197" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="186" t="s">
+      <c r="D44" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="177" t="s">
+      <c r="E44" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="189" t="s">
+      <c r="F44" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="180" t="s">
+      <c r="G44" s="206" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -8620,23 +9442,23 @@
     </row>
     <row r="45" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="61"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="175" t="s">
+      <c r="C45" s="198"/>
+      <c r="D45" s="201"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="207"/>
+      <c r="H45" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="176"/>
+      <c r="I45" s="188"/>
     </row>
     <row r="46" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B46" s="61"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="179"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="182"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="208"/>
       <c r="H46" s="8" t="s">
         <v>23</v>
       </c>
@@ -8661,8 +9483,8 @@
       <c r="E48" s="25"/>
       <c r="F48" s="22"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="174"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="210"/>
     </row>
     <row r="49" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="61" t="s">
@@ -8725,10 +9547,10 @@
       <c r="E52" s="39"/>
       <c r="F52" s="12"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="175" t="s">
+      <c r="H52" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="176"/>
+      <c r="I52" s="188"/>
     </row>
     <row r="53" spans="2:9" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61"/>
@@ -8761,8 +9583,8 @@
       <c r="E55" s="25"/>
       <c r="F55" s="22"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="174"/>
+      <c r="H55" s="209"/>
+      <c r="I55" s="210"/>
     </row>
     <row r="56" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="64" t="s">
@@ -9175,8 +9997,8 @@
       <c r="E83" s="25"/>
       <c r="F83" s="22"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="173"/>
-      <c r="I83" s="174"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="210"/>
     </row>
     <row r="84" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="61"/>
@@ -9320,15 +10142,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -9339,22 +10168,15 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9383,14 +10205,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="193" t="s">
+      <c r="C2" s="215"/>
+      <c r="D2" s="190" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="191" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9401,8 +10223,8 @@
       <c r="C3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="198"/>
-      <c r="E3" s="199"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="84" t="s">
@@ -9864,7 +10686,7 @@
       <c r="B2" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="216" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9872,7 +10694,7 @@
       <c r="B3" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="203"/>
+      <c r="C3" s="217"/>
     </row>
     <row r="4" spans="2:3" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="634">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -1985,6 +1985,30 @@
   </si>
   <si>
     <t>Mendapatkan Data Entities untuk Edge Work Flow berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_AppObject_WorkFlow</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Work Flow berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_AppObject_WorkFlowVersion</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Versi Work Flow berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_AppObject_WorkFlowPath</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Jalur Work Flow berdasarkan ID (varID).
 Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
 Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
   </si>
@@ -3667,13 +3691,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E242" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E240" sqref="E240"/>
+      <selection pane="bottomRight" activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7215,10 +7239,10 @@
       <c r="B240" s="111"/>
       <c r="C240" s="112"/>
       <c r="D240" s="148" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E240" s="214" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F240" s="149" t="s">
         <v>232</v>
@@ -7235,39 +7259,39 @@
       <c r="B241" s="111"/>
       <c r="C241" s="112"/>
       <c r="D241" s="148" t="s">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="E241" s="214" t="s">
-        <v>577</v>
+        <v>627</v>
       </c>
       <c r="F241" s="149" t="s">
         <v>232</v>
       </c>
       <c r="G241" s="150">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="H241" s="151">
-        <v>44964</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="242" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="111"/>
       <c r="C242" s="112"/>
-      <c r="D242" s="143" t="s">
-        <v>593</v>
-      </c>
-      <c r="E242" s="215" t="s">
-        <v>594</v>
-      </c>
-      <c r="F242" s="144" t="s">
-        <v>281</v>
-      </c>
-      <c r="G242" s="145">
-        <v>44964</v>
-      </c>
-      <c r="H242" s="146">
-        <v>44901</v>
+      <c r="D242" s="148" t="s">
+        <v>632</v>
+      </c>
+      <c r="E242" s="214" t="s">
+        <v>633</v>
+      </c>
+      <c r="F242" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="G242" s="150">
+        <v>44965</v>
+      </c>
+      <c r="H242" s="151">
+        <v>44965</v>
       </c>
     </row>
     <row r="243" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -7275,279 +7299,299 @@
       <c r="B243" s="111"/>
       <c r="C243" s="112"/>
       <c r="D243" s="148" t="s">
-        <v>622</v>
+        <v>576</v>
       </c>
       <c r="E243" s="214" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="F243" s="149" t="s">
         <v>232</v>
       </c>
       <c r="G243" s="150">
-        <v>44965</v>
+        <v>44964</v>
       </c>
       <c r="H243" s="151">
-        <v>44965</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="111"/>
       <c r="C244" s="112"/>
-      <c r="D244" s="112" t="s">
-        <v>623</v>
-      </c>
-      <c r="E244" s="216" t="s">
-        <v>625</v>
-      </c>
-      <c r="F244" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="G244" s="114">
-        <v>44965</v>
-      </c>
-      <c r="H244" s="115">
-        <v>44965</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D244" s="143" t="s">
+        <v>593</v>
+      </c>
+      <c r="E244" s="215" t="s">
+        <v>594</v>
+      </c>
+      <c r="F244" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="G244" s="145">
+        <v>44964</v>
+      </c>
+      <c r="H244" s="146">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="111"/>
       <c r="C245" s="112"/>
-      <c r="D245" s="163"/>
-      <c r="E245" s="213"/>
-      <c r="F245" s="163"/>
-      <c r="G245" s="163"/>
-      <c r="H245" s="164"/>
-    </row>
-    <row r="246" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D245" s="148" t="s">
+        <v>630</v>
+      </c>
+      <c r="E245" s="214" t="s">
+        <v>631</v>
+      </c>
+      <c r="F245" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="G245" s="150">
+        <v>44965</v>
+      </c>
+      <c r="H245" s="151">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="111"/>
       <c r="C246" s="112"/>
-      <c r="D246" s="112" t="s">
-        <v>339</v>
-      </c>
-      <c r="E246" s="216" t="s">
-        <v>340</v>
-      </c>
-      <c r="F246" s="113" t="s">
+      <c r="D246" s="148" t="s">
+        <v>622</v>
+      </c>
+      <c r="E246" s="214" t="s">
+        <v>624</v>
+      </c>
+      <c r="F246" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="G246" s="114">
-        <v>44951</v>
-      </c>
-      <c r="H246" s="115">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G246" s="150">
+        <v>44965</v>
+      </c>
+      <c r="H246" s="151">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="111"/>
       <c r="C247" s="112"/>
-      <c r="D247" s="163"/>
-      <c r="E247" s="213"/>
-      <c r="F247" s="163"/>
-      <c r="G247" s="163"/>
-      <c r="H247" s="164"/>
-    </row>
-    <row r="248" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D247" s="112" t="s">
+        <v>623</v>
+      </c>
+      <c r="E247" s="216" t="s">
+        <v>625</v>
+      </c>
+      <c r="F247" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="G247" s="114">
+        <v>44965</v>
+      </c>
+      <c r="H247" s="115">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="111"/>
       <c r="C248" s="112"/>
-      <c r="D248" s="112" t="s">
-        <v>341</v>
-      </c>
-      <c r="E248" s="216" t="s">
-        <v>342</v>
-      </c>
-      <c r="F248" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="G248" s="114">
-        <v>44952</v>
-      </c>
-      <c r="H248" s="115">
-        <v>44952</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D248" s="163"/>
+      <c r="E248" s="213"/>
+      <c r="F248" s="163"/>
+      <c r="G248" s="163"/>
+      <c r="H248" s="164"/>
+    </row>
+    <row r="249" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="111"/>
       <c r="C249" s="112"/>
-      <c r="D249" s="112"/>
-      <c r="E249" s="212"/>
-      <c r="F249" s="113"/>
-      <c r="G249" s="114"/>
-      <c r="H249" s="115"/>
-    </row>
-    <row r="250" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D249" s="112" t="s">
+        <v>339</v>
+      </c>
+      <c r="E249" s="216" t="s">
+        <v>340</v>
+      </c>
+      <c r="F249" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="G249" s="114">
+        <v>44951</v>
+      </c>
+      <c r="H249" s="115">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="111"/>
       <c r="C250" s="112"/>
-      <c r="D250" s="112"/>
-      <c r="E250" s="212"/>
-      <c r="F250" s="113"/>
-      <c r="G250" s="114"/>
-      <c r="H250" s="115"/>
-    </row>
-    <row r="251" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D250" s="163"/>
+      <c r="E250" s="213"/>
+      <c r="F250" s="163"/>
+      <c r="G250" s="163"/>
+      <c r="H250" s="164"/>
+    </row>
+    <row r="251" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="111"/>
       <c r="C251" s="112"/>
-      <c r="D251" s="112"/>
-      <c r="E251" s="212"/>
-      <c r="F251" s="113"/>
-      <c r="G251" s="114"/>
-      <c r="H251" s="115"/>
-    </row>
-    <row r="252" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D251" s="112" t="s">
+        <v>341</v>
+      </c>
+      <c r="E251" s="216" t="s">
+        <v>342</v>
+      </c>
+      <c r="F251" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="G251" s="114">
+        <v>44952</v>
+      </c>
+      <c r="H251" s="115">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="111"/>
       <c r="C252" s="112"/>
-      <c r="D252" s="112" t="s">
-        <v>393</v>
-      </c>
-      <c r="E252" s="216" t="s">
-        <v>394</v>
-      </c>
-      <c r="F252" s="113" t="s">
-        <v>267</v>
-      </c>
-      <c r="G252" s="114">
-        <v>44957</v>
-      </c>
-      <c r="H252" s="115">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D252" s="112"/>
+      <c r="E252" s="212"/>
+      <c r="F252" s="113"/>
+      <c r="G252" s="114"/>
+      <c r="H252" s="115"/>
+    </row>
+    <row r="253" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="111"/>
       <c r="C253" s="112"/>
-      <c r="D253" s="112" t="s">
-        <v>392</v>
-      </c>
-      <c r="E253" s="216" t="s">
-        <v>395</v>
-      </c>
-      <c r="F253" s="113" t="s">
-        <v>281</v>
-      </c>
-      <c r="G253" s="114">
-        <v>44281</v>
-      </c>
-      <c r="H253" s="115">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D253" s="112"/>
+      <c r="E253" s="212"/>
+      <c r="F253" s="113"/>
+      <c r="G253" s="114"/>
+      <c r="H253" s="115"/>
+    </row>
+    <row r="254" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="111"/>
       <c r="C254" s="112"/>
-      <c r="D254" s="112" t="s">
-        <v>396</v>
-      </c>
-      <c r="E254" s="216" t="s">
-        <v>397</v>
-      </c>
-      <c r="F254" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="G254" s="114">
-        <v>43257</v>
-      </c>
-      <c r="H254" s="115">
-        <v>43257</v>
-      </c>
+      <c r="D254" s="112"/>
+      <c r="E254" s="212"/>
+      <c r="F254" s="113"/>
+      <c r="G254" s="114"/>
+      <c r="H254" s="115"/>
     </row>
     <row r="255" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="111"/>
       <c r="C255" s="112"/>
       <c r="D255" s="112" t="s">
-        <v>285</v>
+        <v>393</v>
       </c>
       <c r="E255" s="216" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F255" s="113" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G255" s="114">
-        <v>44949</v>
+        <v>44957</v>
       </c>
       <c r="H255" s="115">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="111"/>
       <c r="C256" s="112"/>
-      <c r="D256" s="112"/>
-      <c r="E256" s="216"/>
-      <c r="F256" s="113"/>
-      <c r="G256" s="114"/>
-      <c r="H256" s="115"/>
+      <c r="D256" s="112" t="s">
+        <v>392</v>
+      </c>
+      <c r="E256" s="216" t="s">
+        <v>395</v>
+      </c>
+      <c r="F256" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="G256" s="114">
+        <v>44281</v>
+      </c>
+      <c r="H256" s="115">
+        <v>44557</v>
+      </c>
     </row>
     <row r="257" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="111"/>
       <c r="C257" s="112"/>
       <c r="D257" s="112" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E257" s="216" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F257" s="113" t="s">
         <v>232</v>
       </c>
       <c r="G257" s="114">
-        <v>44957</v>
+        <v>43257</v>
       </c>
       <c r="H257" s="115">
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="111"/>
       <c r="C258" s="112"/>
-      <c r="D258" s="112"/>
-      <c r="E258" s="216"/>
-      <c r="F258" s="113"/>
-      <c r="G258" s="114"/>
-      <c r="H258" s="115"/>
+      <c r="D258" s="112" t="s">
+        <v>285</v>
+      </c>
+      <c r="E258" s="216" t="s">
+        <v>398</v>
+      </c>
+      <c r="F258" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="G258" s="114">
+        <v>44949</v>
+      </c>
+      <c r="H258" s="115">
+        <v>44949</v>
+      </c>
     </row>
     <row r="259" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="111"/>
       <c r="C259" s="112"/>
       <c r="D259" s="112"/>
-      <c r="E259" s="212"/>
+      <c r="E259" s="216"/>
       <c r="F259" s="113"/>
       <c r="G259" s="114"/>
       <c r="H259" s="115"/>
     </row>
-    <row r="260" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="111"/>
       <c r="C260" s="112"/>
       <c r="D260" s="112" t="s">
-        <v>329</v>
-      </c>
-      <c r="E260" s="212" t="s">
-        <v>330</v>
+        <v>391</v>
+      </c>
+      <c r="E260" s="216" t="s">
+        <v>399</v>
       </c>
       <c r="F260" s="113" t="s">
         <v>232</v>
       </c>
       <c r="G260" s="114">
-        <v>44893</v>
+        <v>44957</v>
       </c>
       <c r="H260" s="115">
-        <v>44893</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="261" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -7555,104 +7599,112 @@
       <c r="B261" s="111"/>
       <c r="C261" s="112"/>
       <c r="D261" s="112"/>
-      <c r="E261" s="212"/>
+      <c r="E261" s="216"/>
       <c r="F261" s="113"/>
       <c r="G261" s="114"/>
       <c r="H261" s="115"/>
     </row>
-    <row r="262" spans="1:8" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="154"/>
-      <c r="B262" s="173" t="s">
-        <v>143</v>
-      </c>
-      <c r="C262" s="152"/>
-      <c r="D262" s="152"/>
-      <c r="E262" s="211"/>
-      <c r="F262" s="152"/>
-      <c r="G262" s="152"/>
-      <c r="H262" s="153"/>
-    </row>
-    <row r="263" spans="1:8" s="155" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="154"/>
-      <c r="B263" s="173"/>
-      <c r="C263" s="174" t="s">
-        <v>160</v>
-      </c>
-      <c r="D263" s="152"/>
-      <c r="E263" s="211"/>
-      <c r="F263" s="152"/>
-      <c r="G263" s="152"/>
-      <c r="H263" s="153"/>
+    <row r="262" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+      <c r="B262" s="111"/>
+      <c r="C262" s="112"/>
+      <c r="D262" s="112"/>
+      <c r="E262" s="212"/>
+      <c r="F262" s="113"/>
+      <c r="G262" s="114"/>
+      <c r="H262" s="115"/>
+    </row>
+    <row r="263" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+      <c r="B263" s="111"/>
+      <c r="C263" s="112"/>
+      <c r="D263" s="112" t="s">
+        <v>329</v>
+      </c>
+      <c r="E263" s="212" t="s">
+        <v>330</v>
+      </c>
+      <c r="F263" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="G263" s="114">
+        <v>44893</v>
+      </c>
+      <c r="H263" s="115">
+        <v>44893</v>
+      </c>
     </row>
     <row r="264" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="111"/>
-      <c r="C264" s="174"/>
+      <c r="C264" s="112"/>
       <c r="D264" s="112"/>
       <c r="E264" s="212"/>
       <c r="F264" s="113"/>
       <c r="G264" s="114"/>
       <c r="H264" s="115"/>
     </row>
-    <row r="265" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="1"/>
-      <c r="B265" s="111"/>
-      <c r="C265" s="112"/>
-      <c r="D265" s="112"/>
-      <c r="E265" s="212"/>
-      <c r="F265" s="113"/>
-      <c r="G265" s="114"/>
-      <c r="H265" s="115"/>
-    </row>
-    <row r="266" spans="1:8" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="154"/>
+      <c r="B265" s="173" t="s">
+        <v>143</v>
+      </c>
+      <c r="C265" s="152"/>
+      <c r="D265" s="152"/>
+      <c r="E265" s="211"/>
+      <c r="F265" s="152"/>
+      <c r="G265" s="152"/>
+      <c r="H265" s="153"/>
+    </row>
+    <row r="266" spans="1:8" s="155" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="154"/>
-      <c r="B266" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="C266" s="152"/>
+      <c r="B266" s="173"/>
+      <c r="C266" s="174" t="s">
+        <v>160</v>
+      </c>
       <c r="D266" s="152"/>
       <c r="E266" s="211"/>
       <c r="F266" s="152"/>
       <c r="G266" s="152"/>
       <c r="H266" s="153"/>
     </row>
-    <row r="267" spans="1:8" s="155" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="154"/>
-      <c r="B267" s="173"/>
-      <c r="C267" s="174" t="s">
-        <v>148</v>
-      </c>
-      <c r="D267" s="152"/>
-      <c r="E267" s="211"/>
-      <c r="F267" s="152"/>
-      <c r="G267" s="152"/>
-      <c r="H267" s="153"/>
+    <row r="267" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A267" s="1"/>
+      <c r="B267" s="111"/>
+      <c r="C267" s="174"/>
+      <c r="D267" s="112"/>
+      <c r="E267" s="212"/>
+      <c r="F267" s="113"/>
+      <c r="G267" s="114"/>
+      <c r="H267" s="115"/>
     </row>
     <row r="268" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="111"/>
-      <c r="C268" s="174"/>
+      <c r="C268" s="112"/>
       <c r="D268" s="112"/>
       <c r="E268" s="212"/>
       <c r="F268" s="113"/>
       <c r="G268" s="114"/>
       <c r="H268" s="115"/>
     </row>
-    <row r="269" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="1"/>
-      <c r="B269" s="111"/>
-      <c r="C269" s="112"/>
-      <c r="D269" s="112"/>
-      <c r="E269" s="212"/>
-      <c r="F269" s="113"/>
-      <c r="G269" s="114"/>
-      <c r="H269" s="115"/>
-    </row>
-    <row r="270" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="1"/>
-      <c r="B270" s="111"/>
+    <row r="269" spans="1:8" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A269" s="154"/>
+      <c r="B269" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="C269" s="152"/>
+      <c r="D269" s="152"/>
+      <c r="E269" s="211"/>
+      <c r="F269" s="152"/>
+      <c r="G269" s="152"/>
+      <c r="H269" s="153"/>
+    </row>
+    <row r="270" spans="1:8" s="155" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="154"/>
+      <c r="B270" s="173"/>
       <c r="C270" s="174" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D270" s="152"/>
       <c r="E270" s="211"/>
@@ -7684,7 +7736,7 @@
       <c r="A273" s="1"/>
       <c r="B273" s="111"/>
       <c r="C273" s="174" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D273" s="152"/>
       <c r="E273" s="211"/>
@@ -7716,7 +7768,7 @@
       <c r="A276" s="1"/>
       <c r="B276" s="111"/>
       <c r="C276" s="174" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D276" s="152"/>
       <c r="E276" s="211"/>
@@ -7748,7 +7800,7 @@
       <c r="A279" s="1"/>
       <c r="B279" s="111"/>
       <c r="C279" s="174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D279" s="152"/>
       <c r="E279" s="211"/>
@@ -7780,7 +7832,7 @@
       <c r="A282" s="1"/>
       <c r="B282" s="111"/>
       <c r="C282" s="174" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D282" s="152"/>
       <c r="E282" s="211"/>
@@ -7812,7 +7864,7 @@
       <c r="A285" s="1"/>
       <c r="B285" s="111"/>
       <c r="C285" s="174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D285" s="152"/>
       <c r="E285" s="211"/>
@@ -7844,7 +7896,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="111"/>
       <c r="C288" s="174" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D288" s="152"/>
       <c r="E288" s="211"/>
@@ -7876,7 +7928,7 @@
       <c r="A291" s="1"/>
       <c r="B291" s="111"/>
       <c r="C291" s="174" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D291" s="152"/>
       <c r="E291" s="211"/>
@@ -7908,7 +7960,7 @@
       <c r="A294" s="1"/>
       <c r="B294" s="111"/>
       <c r="C294" s="174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D294" s="152"/>
       <c r="E294" s="211"/>
@@ -7940,7 +7992,7 @@
       <c r="A297" s="1"/>
       <c r="B297" s="111"/>
       <c r="C297" s="174" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D297" s="152"/>
       <c r="E297" s="211"/>
@@ -7952,80 +8004,52 @@
       <c r="A298" s="1"/>
       <c r="B298" s="111"/>
       <c r="C298" s="174"/>
-      <c r="D298" s="148" t="s">
-        <v>471</v>
-      </c>
-      <c r="E298" s="219" t="s">
-        <v>472</v>
-      </c>
-      <c r="F298" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="G298" s="150">
-        <v>44663</v>
-      </c>
-      <c r="H298" s="151">
-        <v>44663</v>
-      </c>
+      <c r="D298" s="112"/>
+      <c r="E298" s="212"/>
+      <c r="F298" s="113"/>
+      <c r="G298" s="114"/>
+      <c r="H298" s="115"/>
     </row>
     <row r="299" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="111"/>
       <c r="C299" s="112"/>
-      <c r="D299" s="143" t="s">
-        <v>473</v>
-      </c>
-      <c r="E299" s="217" t="s">
-        <v>474</v>
-      </c>
-      <c r="F299" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G299" s="145">
-        <v>44663</v>
-      </c>
-      <c r="H299" s="146">
-        <v>44663</v>
-      </c>
+      <c r="D299" s="112"/>
+      <c r="E299" s="212"/>
+      <c r="F299" s="113"/>
+      <c r="G299" s="114"/>
+      <c r="H299" s="115"/>
     </row>
     <row r="300" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="111"/>
-      <c r="C300" s="112"/>
-      <c r="D300" s="143" t="s">
-        <v>476</v>
-      </c>
-      <c r="E300" s="217" t="s">
-        <v>475</v>
-      </c>
-      <c r="F300" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G300" s="145">
-        <v>44630</v>
-      </c>
-      <c r="H300" s="146">
-        <v>44630</v>
-      </c>
+      <c r="C300" s="174" t="s">
+        <v>158</v>
+      </c>
+      <c r="D300" s="152"/>
+      <c r="E300" s="211"/>
+      <c r="F300" s="152"/>
+      <c r="G300" s="152"/>
+      <c r="H300" s="153"/>
     </row>
     <row r="301" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="111"/>
-      <c r="C301" s="112"/>
-      <c r="D301" s="143" t="s">
-        <v>477</v>
-      </c>
-      <c r="E301" s="217" t="s">
-        <v>478</v>
-      </c>
-      <c r="F301" s="144" t="s">
+      <c r="C301" s="174"/>
+      <c r="D301" s="148" t="s">
+        <v>471</v>
+      </c>
+      <c r="E301" s="219" t="s">
+        <v>472</v>
+      </c>
+      <c r="F301" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="G301" s="145">
-        <v>44630</v>
-      </c>
-      <c r="H301" s="146">
-        <v>44630</v>
+      <c r="G301" s="150">
+        <v>44663</v>
+      </c>
+      <c r="H301" s="151">
+        <v>44663</v>
       </c>
     </row>
     <row r="302" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8033,19 +8057,19 @@
       <c r="B302" s="111"/>
       <c r="C302" s="112"/>
       <c r="D302" s="143" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E302" s="217" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F302" s="144" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G302" s="145">
-        <v>44698</v>
+        <v>44663</v>
       </c>
       <c r="H302" s="146">
-        <v>44630</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="303" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8053,16 +8077,16 @@
       <c r="B303" s="111"/>
       <c r="C303" s="112"/>
       <c r="D303" s="143" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E303" s="217" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F303" s="144" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G303" s="145">
-        <v>44698</v>
+        <v>44630</v>
       </c>
       <c r="H303" s="146">
         <v>44630</v>
@@ -8073,19 +8097,19 @@
       <c r="B304" s="111"/>
       <c r="C304" s="112"/>
       <c r="D304" s="143" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E304" s="217" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F304" s="144" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="G304" s="145">
-        <v>44669</v>
+        <v>44630</v>
       </c>
       <c r="H304" s="146">
-        <v>44824</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8093,19 +8117,19 @@
       <c r="B305" s="111"/>
       <c r="C305" s="112"/>
       <c r="D305" s="143" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E305" s="217" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F305" s="144" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G305" s="145">
-        <v>44669</v>
+        <v>44698</v>
       </c>
       <c r="H305" s="146">
-        <v>44824</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="306" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8113,19 +8137,19 @@
       <c r="B306" s="111"/>
       <c r="C306" s="112"/>
       <c r="D306" s="143" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E306" s="217" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F306" s="144" t="s">
-        <v>464</v>
+        <v>281</v>
       </c>
       <c r="G306" s="145">
-        <v>44733</v>
+        <v>44698</v>
       </c>
       <c r="H306" s="146">
-        <v>44622</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="307" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8133,19 +8157,19 @@
       <c r="B307" s="111"/>
       <c r="C307" s="112"/>
       <c r="D307" s="143" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E307" s="217" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F307" s="144" t="s">
-        <v>464</v>
+        <v>256</v>
       </c>
       <c r="G307" s="145">
-        <v>44733</v>
+        <v>44669</v>
       </c>
       <c r="H307" s="146">
-        <v>44621</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="308" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8153,19 +8177,19 @@
       <c r="B308" s="111"/>
       <c r="C308" s="112"/>
       <c r="D308" s="143" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E308" s="217" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F308" s="144" t="s">
-        <v>464</v>
+        <v>256</v>
       </c>
       <c r="G308" s="145">
-        <v>44671</v>
+        <v>44669</v>
       </c>
       <c r="H308" s="146">
-        <v>44732</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="309" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8173,19 +8197,19 @@
       <c r="B309" s="111"/>
       <c r="C309" s="112"/>
       <c r="D309" s="143" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E309" s="217" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F309" s="144" t="s">
         <v>464</v>
       </c>
       <c r="G309" s="145">
-        <v>44671</v>
+        <v>44733</v>
       </c>
       <c r="H309" s="146">
-        <v>44732</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="310" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8193,16 +8217,16 @@
       <c r="B310" s="111"/>
       <c r="C310" s="112"/>
       <c r="D310" s="143" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E310" s="217" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F310" s="144" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="G310" s="145">
-        <v>44698</v>
+        <v>44733</v>
       </c>
       <c r="H310" s="146">
         <v>44621</v>
@@ -8213,19 +8237,19 @@
       <c r="B311" s="111"/>
       <c r="C311" s="112"/>
       <c r="D311" s="143" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E311" s="217" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F311" s="144" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="G311" s="145">
-        <v>44698</v>
+        <v>44671</v>
       </c>
       <c r="H311" s="146">
-        <v>44621</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="312" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8233,19 +8257,19 @@
       <c r="B312" s="111"/>
       <c r="C312" s="112"/>
       <c r="D312" s="143" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E312" s="217" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F312" s="144" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
       <c r="G312" s="145">
-        <v>44644</v>
+        <v>44671</v>
       </c>
       <c r="H312" s="146">
-        <v>44622</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="313" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8253,16 +8277,16 @@
       <c r="B313" s="111"/>
       <c r="C313" s="112"/>
       <c r="D313" s="143" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E313" s="217" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F313" s="144" t="s">
-        <v>267</v>
+        <v>497</v>
       </c>
       <c r="G313" s="145">
-        <v>44644</v>
+        <v>44698</v>
       </c>
       <c r="H313" s="146">
         <v>44621</v>
@@ -8273,13 +8297,13 @@
       <c r="B314" s="111"/>
       <c r="C314" s="112"/>
       <c r="D314" s="143" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E314" s="217" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F314" s="144" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="G314" s="145">
         <v>44698</v>
@@ -8293,19 +8317,19 @@
       <c r="B315" s="111"/>
       <c r="C315" s="112"/>
       <c r="D315" s="143" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E315" s="217" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F315" s="144" t="s">
-        <v>464</v>
+        <v>267</v>
       </c>
       <c r="G315" s="145">
-        <v>44698</v>
+        <v>44644</v>
       </c>
       <c r="H315" s="146">
-        <v>44621</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="316" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8313,19 +8337,19 @@
       <c r="B316" s="111"/>
       <c r="C316" s="112"/>
       <c r="D316" s="143" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E316" s="217" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F316" s="144" t="s">
         <v>267</v>
       </c>
       <c r="G316" s="145">
-        <v>44846</v>
+        <v>44644</v>
       </c>
       <c r="H316" s="146">
-        <v>44627</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="317" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8333,19 +8357,19 @@
       <c r="B317" s="111"/>
       <c r="C317" s="112"/>
       <c r="D317" s="143" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E317" s="217" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F317" s="144" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
       <c r="G317" s="145">
-        <v>44846</v>
+        <v>44698</v>
       </c>
       <c r="H317" s="146">
-        <v>44627</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="318" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8353,19 +8377,19 @@
       <c r="B318" s="111"/>
       <c r="C318" s="112"/>
       <c r="D318" s="143" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E318" s="217" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F318" s="144" t="s">
-        <v>232</v>
+        <v>464</v>
       </c>
       <c r="G318" s="145">
-        <v>44628</v>
+        <v>44698</v>
       </c>
       <c r="H318" s="146">
-        <v>44628</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="319" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8373,19 +8397,19 @@
       <c r="B319" s="111"/>
       <c r="C319" s="112"/>
       <c r="D319" s="143" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E319" s="217" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F319" s="144" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G319" s="145">
-        <v>44628</v>
+        <v>44846</v>
       </c>
       <c r="H319" s="146">
-        <v>44628</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="320" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8393,19 +8417,19 @@
       <c r="B320" s="111"/>
       <c r="C320" s="112"/>
       <c r="D320" s="143" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E320" s="217" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F320" s="144" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G320" s="145">
-        <v>44698</v>
+        <v>44846</v>
       </c>
       <c r="H320" s="146">
-        <v>44628</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="321" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8413,16 +8437,16 @@
       <c r="B321" s="111"/>
       <c r="C321" s="112"/>
       <c r="D321" s="143" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E321" s="217" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F321" s="144" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G321" s="145">
-        <v>44698</v>
+        <v>44628</v>
       </c>
       <c r="H321" s="146">
         <v>44628</v>
@@ -8433,10 +8457,10 @@
       <c r="B322" s="111"/>
       <c r="C322" s="112"/>
       <c r="D322" s="143" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E322" s="217" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F322" s="144" t="s">
         <v>232</v>
@@ -8453,16 +8477,16 @@
       <c r="B323" s="111"/>
       <c r="C323" s="112"/>
       <c r="D323" s="143" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E323" s="217" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F323" s="144" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="G323" s="145">
-        <v>44628</v>
+        <v>44698</v>
       </c>
       <c r="H323" s="146">
         <v>44628</v>
@@ -8473,10 +8497,10 @@
       <c r="B324" s="111"/>
       <c r="C324" s="112"/>
       <c r="D324" s="143" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E324" s="217" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F324" s="144" t="s">
         <v>281</v>
@@ -8493,16 +8517,16 @@
       <c r="B325" s="111"/>
       <c r="C325" s="112"/>
       <c r="D325" s="143" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E325" s="217" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F325" s="144" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G325" s="145">
-        <v>44698</v>
+        <v>44628</v>
       </c>
       <c r="H325" s="146">
         <v>44628</v>
@@ -8513,19 +8537,19 @@
       <c r="B326" s="111"/>
       <c r="C326" s="112"/>
       <c r="D326" s="143" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E326" s="217" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F326" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G326" s="145">
-        <v>44617</v>
+        <v>44628</v>
       </c>
       <c r="H326" s="146">
-        <v>44617</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="327" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8533,19 +8557,19 @@
       <c r="B327" s="111"/>
       <c r="C327" s="112"/>
       <c r="D327" s="143" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E327" s="217" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F327" s="144" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="G327" s="145">
-        <v>44617</v>
+        <v>44698</v>
       </c>
       <c r="H327" s="146">
-        <v>44617</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="328" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8553,19 +8577,19 @@
       <c r="B328" s="111"/>
       <c r="C328" s="112"/>
       <c r="D328" s="143" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E328" s="217" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F328" s="144" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G328" s="145">
-        <v>44740</v>
+        <v>44698</v>
       </c>
       <c r="H328" s="146">
-        <v>44662</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="329" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8573,202 +8597,202 @@
       <c r="B329" s="111"/>
       <c r="C329" s="112"/>
       <c r="D329" s="143" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E329" s="217" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F329" s="144" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="G329" s="145">
-        <v>44740</v>
+        <v>44617</v>
       </c>
       <c r="H329" s="146">
-        <v>44662</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="330" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="111"/>
       <c r="C330" s="112"/>
-      <c r="D330" s="112"/>
-      <c r="E330" s="212"/>
-      <c r="F330" s="113"/>
-      <c r="G330" s="114"/>
-      <c r="H330" s="115"/>
+      <c r="D330" s="143" t="s">
+        <v>531</v>
+      </c>
+      <c r="E330" s="217" t="s">
+        <v>530</v>
+      </c>
+      <c r="F330" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G330" s="145">
+        <v>44617</v>
+      </c>
+      <c r="H330" s="146">
+        <v>44617</v>
+      </c>
     </row>
     <row r="331" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="111"/>
-      <c r="C331" s="174" t="s">
-        <v>147</v>
-      </c>
-      <c r="D331" s="152"/>
-      <c r="E331" s="211"/>
-      <c r="F331" s="152"/>
-      <c r="G331" s="152"/>
-      <c r="H331" s="153"/>
+      <c r="C331" s="112"/>
+      <c r="D331" s="143" t="s">
+        <v>532</v>
+      </c>
+      <c r="E331" s="217" t="s">
+        <v>533</v>
+      </c>
+      <c r="F331" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="G331" s="145">
+        <v>44740</v>
+      </c>
+      <c r="H331" s="146">
+        <v>44662</v>
+      </c>
     </row>
     <row r="332" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="111"/>
-      <c r="C332" s="174"/>
-      <c r="D332" s="148" t="s">
-        <v>274</v>
-      </c>
-      <c r="E332" s="219" t="s">
-        <v>449</v>
-      </c>
-      <c r="F332" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="G332" s="150">
-        <v>44167</v>
-      </c>
-      <c r="H332" s="151">
-        <v>44167</v>
+      <c r="C332" s="112"/>
+      <c r="D332" s="143" t="s">
+        <v>535</v>
+      </c>
+      <c r="E332" s="217" t="s">
+        <v>534</v>
+      </c>
+      <c r="F332" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="G332" s="145">
+        <v>44740</v>
+      </c>
+      <c r="H332" s="146">
+        <v>44662</v>
       </c>
     </row>
     <row r="333" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="111"/>
       <c r="C333" s="112"/>
-      <c r="D333" s="143" t="s">
-        <v>450</v>
-      </c>
-      <c r="E333" s="217" t="s">
-        <v>451</v>
-      </c>
-      <c r="F333" s="144" t="s">
-        <v>256</v>
-      </c>
-      <c r="G333" s="145">
-        <v>44575</v>
-      </c>
-      <c r="H333" s="146">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D333" s="112"/>
+      <c r="E333" s="212"/>
+      <c r="F333" s="113"/>
+      <c r="G333" s="114"/>
+      <c r="H333" s="115"/>
+    </row>
+    <row r="334" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="111"/>
-      <c r="C334" s="112"/>
-      <c r="D334" s="143" t="s">
-        <v>453</v>
-      </c>
-      <c r="E334" s="215" t="s">
-        <v>452</v>
-      </c>
-      <c r="F334" s="144" t="s">
-        <v>281</v>
-      </c>
-      <c r="G334" s="145">
-        <v>44404</v>
-      </c>
-      <c r="H334" s="146">
-        <v>44404</v>
-      </c>
+      <c r="C334" s="174" t="s">
+        <v>147</v>
+      </c>
+      <c r="D334" s="152"/>
+      <c r="E334" s="211"/>
+      <c r="F334" s="152"/>
+      <c r="G334" s="152"/>
+      <c r="H334" s="153"/>
     </row>
     <row r="335" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="111"/>
-      <c r="C335" s="112"/>
-      <c r="D335" s="112"/>
-      <c r="E335" s="212"/>
-      <c r="F335" s="113"/>
-      <c r="G335" s="114"/>
-      <c r="H335" s="115"/>
+      <c r="C335" s="174"/>
+      <c r="D335" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="E335" s="219" t="s">
+        <v>449</v>
+      </c>
+      <c r="F335" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="G335" s="150">
+        <v>44167</v>
+      </c>
+      <c r="H335" s="151">
+        <v>44167</v>
+      </c>
     </row>
     <row r="336" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="111"/>
-      <c r="C336" s="174" t="s">
-        <v>159</v>
-      </c>
-      <c r="D336" s="152"/>
-      <c r="E336" s="211"/>
-      <c r="F336" s="152"/>
-      <c r="G336" s="152"/>
-      <c r="H336" s="153"/>
-    </row>
-    <row r="337" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C336" s="112"/>
+      <c r="D336" s="143" t="s">
+        <v>450</v>
+      </c>
+      <c r="E336" s="217" t="s">
+        <v>451</v>
+      </c>
+      <c r="F336" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="G336" s="145">
+        <v>44575</v>
+      </c>
+      <c r="H336" s="146">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="111"/>
-      <c r="C337" s="174"/>
-      <c r="D337" s="148" t="s">
-        <v>455</v>
-      </c>
-      <c r="E337" s="219" t="s">
-        <v>454</v>
-      </c>
-      <c r="F337" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="G337" s="150">
-        <v>44635</v>
-      </c>
-      <c r="H337" s="151">
-        <v>44635</v>
+      <c r="C337" s="112"/>
+      <c r="D337" s="143" t="s">
+        <v>453</v>
+      </c>
+      <c r="E337" s="215" t="s">
+        <v>452</v>
+      </c>
+      <c r="F337" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="G337" s="145">
+        <v>44404</v>
+      </c>
+      <c r="H337" s="146">
+        <v>44404</v>
       </c>
     </row>
     <row r="338" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="111"/>
       <c r="C338" s="112"/>
-      <c r="D338" s="143" t="s">
-        <v>457</v>
-      </c>
-      <c r="E338" s="217" t="s">
-        <v>456</v>
-      </c>
-      <c r="F338" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G338" s="145">
-        <v>44635</v>
-      </c>
-      <c r="H338" s="146">
-        <v>44635</v>
-      </c>
+      <c r="D338" s="112"/>
+      <c r="E338" s="212"/>
+      <c r="F338" s="113"/>
+      <c r="G338" s="114"/>
+      <c r="H338" s="115"/>
     </row>
     <row r="339" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="111"/>
-      <c r="C339" s="112"/>
-      <c r="D339" s="143" t="s">
-        <v>458</v>
-      </c>
-      <c r="E339" s="217" t="s">
-        <v>460</v>
-      </c>
-      <c r="F339" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G339" s="145">
-        <v>44635</v>
-      </c>
-      <c r="H339" s="146">
-        <v>44635</v>
-      </c>
+      <c r="C339" s="174" t="s">
+        <v>159</v>
+      </c>
+      <c r="D339" s="152"/>
+      <c r="E339" s="211"/>
+      <c r="F339" s="152"/>
+      <c r="G339" s="152"/>
+      <c r="H339" s="153"/>
     </row>
     <row r="340" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="111"/>
-      <c r="C340" s="112"/>
-      <c r="D340" s="143" t="s">
-        <v>459</v>
-      </c>
-      <c r="E340" s="217" t="s">
-        <v>461</v>
-      </c>
-      <c r="F340" s="144" t="s">
+      <c r="C340" s="174"/>
+      <c r="D340" s="148" t="s">
+        <v>455</v>
+      </c>
+      <c r="E340" s="219" t="s">
+        <v>454</v>
+      </c>
+      <c r="F340" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="G340" s="145">
+      <c r="G340" s="150">
         <v>44635</v>
       </c>
-      <c r="H340" s="146">
+      <c r="H340" s="151">
         <v>44635</v>
       </c>
     </row>
@@ -8777,19 +8801,19 @@
       <c r="B341" s="111"/>
       <c r="C341" s="112"/>
       <c r="D341" s="143" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E341" s="217" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F341" s="144" t="s">
-        <v>464</v>
+        <v>232</v>
       </c>
       <c r="G341" s="145">
-        <v>44701</v>
+        <v>44635</v>
       </c>
       <c r="H341" s="146">
-        <v>44644</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="342" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8797,19 +8821,19 @@
       <c r="B342" s="111"/>
       <c r="C342" s="112"/>
       <c r="D342" s="143" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E342" s="217" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F342" s="144" t="s">
-        <v>464</v>
+        <v>232</v>
       </c>
       <c r="G342" s="145">
-        <v>44701</v>
+        <v>44635</v>
       </c>
       <c r="H342" s="146">
-        <v>44644</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="343" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8817,19 +8841,19 @@
       <c r="B343" s="111"/>
       <c r="C343" s="112"/>
       <c r="D343" s="143" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E343" s="217" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F343" s="144" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G343" s="145">
-        <v>44644</v>
+        <v>44635</v>
       </c>
       <c r="H343" s="146">
-        <v>44636</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="344" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -8837,60 +8861,90 @@
       <c r="B344" s="111"/>
       <c r="C344" s="112"/>
       <c r="D344" s="143" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E344" s="217" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F344" s="144" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
       <c r="G344" s="145">
+        <v>44701</v>
+      </c>
+      <c r="H344" s="146">
         <v>44644</v>
       </c>
-      <c r="H344" s="146">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
-      <c r="B345" s="116"/>
-      <c r="C345" s="117"/>
-      <c r="D345" s="117"/>
-      <c r="E345" s="220"/>
-      <c r="F345" s="118"/>
-      <c r="G345" s="119"/>
-      <c r="H345" s="120"/>
+      <c r="B345" s="111"/>
+      <c r="C345" s="112"/>
+      <c r="D345" s="143" t="s">
+        <v>463</v>
+      </c>
+      <c r="E345" s="217" t="s">
+        <v>466</v>
+      </c>
+      <c r="F345" s="144" t="s">
+        <v>464</v>
+      </c>
+      <c r="G345" s="145">
+        <v>44701</v>
+      </c>
+      <c r="H345" s="146">
+        <v>44644</v>
+      </c>
     </row>
     <row r="346" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="221"/>
-      <c r="F346" s="121"/>
-      <c r="G346" s="122"/>
-      <c r="H346" s="122"/>
+      <c r="B346" s="111"/>
+      <c r="C346" s="112"/>
+      <c r="D346" s="143" t="s">
+        <v>467</v>
+      </c>
+      <c r="E346" s="217" t="s">
+        <v>468</v>
+      </c>
+      <c r="F346" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="G346" s="145">
+        <v>44644</v>
+      </c>
+      <c r="H346" s="146">
+        <v>44636</v>
+      </c>
     </row>
     <row r="347" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="221"/>
-      <c r="F347" s="121"/>
-      <c r="G347" s="122"/>
-      <c r="H347" s="122"/>
-    </row>
-    <row r="348" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B347" s="111"/>
+      <c r="C347" s="112"/>
+      <c r="D347" s="143" t="s">
+        <v>469</v>
+      </c>
+      <c r="E347" s="217" t="s">
+        <v>470</v>
+      </c>
+      <c r="F347" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="G347" s="145">
+        <v>44644</v>
+      </c>
+      <c r="H347" s="146">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="221"/>
-      <c r="F348" s="121"/>
-      <c r="G348" s="122"/>
-      <c r="H348" s="122"/>
+      <c r="B348" s="116"/>
+      <c r="C348" s="117"/>
+      <c r="D348" s="117"/>
+      <c r="E348" s="220"/>
+      <c r="F348" s="118"/>
+      <c r="G348" s="119"/>
+      <c r="H348" s="120"/>
     </row>
     <row r="349" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
@@ -9022,38 +9076,68 @@
       <c r="G361" s="122"/>
       <c r="H361" s="122"/>
     </row>
-    <row r="362" spans="1:8" s="78" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="E362" s="210"/>
-      <c r="F362" s="95"/>
-      <c r="G362" s="110"/>
-      <c r="H362" s="110"/>
-    </row>
-    <row r="363" spans="1:8" s="78" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="E363" s="210"/>
-      <c r="F363" s="95"/>
-      <c r="G363" s="110"/>
-      <c r="H363" s="110"/>
-    </row>
-    <row r="364" spans="1:8" s="78" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="E364" s="210"/>
-      <c r="F364" s="95"/>
-      <c r="G364" s="110"/>
-      <c r="H364" s="110"/>
+    <row r="362" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="221"/>
+      <c r="F362" s="121"/>
+      <c r="G362" s="122"/>
+      <c r="H362" s="122"/>
+    </row>
+    <row r="363" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="221"/>
+      <c r="F363" s="121"/>
+      <c r="G363" s="122"/>
+      <c r="H363" s="122"/>
+    </row>
+    <row r="364" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="221"/>
+      <c r="F364" s="121"/>
+      <c r="G364" s="122"/>
+      <c r="H364" s="122"/>
+    </row>
+    <row r="365" spans="1:8" s="78" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="E365" s="210"/>
+      <c r="F365" s="95"/>
+      <c r="G365" s="110"/>
+      <c r="H365" s="110"/>
+    </row>
+    <row r="366" spans="1:8" s="78" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="E366" s="210"/>
+      <c r="F366" s="95"/>
+      <c r="G366" s="110"/>
+      <c r="H366" s="110"/>
+    </row>
+    <row r="367" spans="1:8" s="78" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="E367" s="210"/>
+      <c r="F367" s="95"/>
+      <c r="G367" s="110"/>
+      <c r="H367" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C291:C292"/>
     <mergeCell ref="C294:C295"/>
     <mergeCell ref="C297:C298"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C336:C337"/>
-    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="C339:C340"/>
     <mergeCell ref="C279:C280"/>
     <mergeCell ref="C282:C283"/>
     <mergeCell ref="C285:C286"/>
     <mergeCell ref="C288:C289"/>
-    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="C291:C292"/>
     <mergeCell ref="C273:C274"/>
+    <mergeCell ref="C276:C277"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C14:C15"/>
@@ -9070,11 +9154,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C270:C271"/>
     <mergeCell ref="C151:C152"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C266:C267"/>
     <mergeCell ref="C207:C208"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>

--- a/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
+++ b/Documentation/Documents/Blue Print/Documents - Model/Model-Catalogue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="642">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -2011,6 +2011,36 @@
     <t>Mendapatkan Data Entities untuk Jalur Work Flow berdasarkan ID (varID).
 Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
 Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Advance</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Uang Muka berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_AdvanceDetail</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Perincian Uang Muka berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_GetDataEntities_Currency</t>
+  </si>
+  <si>
+    <t>Mendapatkan Data Entities untuk Mata Uang berdasarkan ID (varID).
+Seluruh Field Reference secara default akan dieksplorasi untuk pencarian data, kecuali bila termasuk pada daftar yang dikecualikan (varListExcludeReferenceFieldDataSearch).
+Depth Level (varDepthLevel) digunakan untuk menentukan tingkat kedalaman pencarian Field Reference. Dengan semakin kecilnya nilai yang dimasukkan maka akan mempersingkat pula waktu pencarian (Pencarian tidak sampai terlalu dalam). Bila Depth Level tidak didefinisikan (NULL) maka seluruh Node Field Reference akan diekspansi sampai pada titik terakhir.</t>
+  </si>
+  <si>
+    <t>Func_General_JSONObject_ExtractToElements</t>
+  </si>
+  <si>
+    <t>Mengkestraksi element pada Object JSON</t>
   </si>
 </sst>
 </file>
@@ -3223,129 +3253,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3379,6 +3286,129 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3691,13 +3721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H374"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E243" sqref="E243"/>
+      <selection pane="bottomRight" activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3706,7 +3736,7 @@
     <col min="2" max="2" width="20.5703125" style="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" style="77" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" style="210" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" style="169" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="108" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="109" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="109" bestFit="1" customWidth="1"/>
@@ -3715,19 +3745,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="175" t="s">
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="184" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="171"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
     </row>
     <row r="3" spans="1:8" s="156" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="157" t="s">
@@ -3739,7 +3769,7 @@
       <c r="D3" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="176"/>
+      <c r="E3" s="190"/>
       <c r="F3" s="160" t="s">
         <v>228</v>
       </c>
@@ -3752,24 +3782,24 @@
     </row>
     <row r="4" spans="1:8" s="155" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="154"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="187" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="152"/>
       <c r="D4" s="152"/>
-      <c r="E4" s="211"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="152"/>
       <c r="G4" s="152"/>
       <c r="H4" s="153"/>
     </row>
     <row r="5" spans="1:8" s="155" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="154"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="181" t="s">
         <v>160</v>
       </c>
       <c r="D5" s="152"/>
-      <c r="E5" s="211"/>
+      <c r="E5" s="170"/>
       <c r="F5" s="152"/>
       <c r="G5" s="152"/>
       <c r="H5" s="153"/>
@@ -3777,9 +3807,9 @@
     <row r="6" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="111"/>
-      <c r="C6" s="174"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="112"/>
-      <c r="E6" s="212"/>
+      <c r="E6" s="171"/>
       <c r="F6" s="113"/>
       <c r="G6" s="114"/>
       <c r="H6" s="115"/>
@@ -3789,7 +3819,7 @@
       <c r="B7" s="111"/>
       <c r="C7" s="112"/>
       <c r="D7" s="112"/>
-      <c r="E7" s="212"/>
+      <c r="E7" s="171"/>
       <c r="F7" s="113"/>
       <c r="G7" s="114"/>
       <c r="H7" s="115"/>
@@ -3797,11 +3827,11 @@
     <row r="8" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="111"/>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="181" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="152"/>
-      <c r="E8" s="211"/>
+      <c r="E8" s="170"/>
       <c r="F8" s="152"/>
       <c r="G8" s="152"/>
       <c r="H8" s="153"/>
@@ -3809,9 +3839,9 @@
     <row r="9" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="111"/>
-      <c r="C9" s="174"/>
+      <c r="C9" s="181"/>
       <c r="D9" s="112"/>
-      <c r="E9" s="212"/>
+      <c r="E9" s="171"/>
       <c r="F9" s="113"/>
       <c r="G9" s="114"/>
       <c r="H9" s="115"/>
@@ -3821,7 +3851,7 @@
       <c r="B10" s="111"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
-      <c r="E10" s="212"/>
+      <c r="E10" s="171"/>
       <c r="F10" s="113"/>
       <c r="G10" s="114"/>
       <c r="H10" s="115"/>
@@ -3829,11 +3859,11 @@
     <row r="11" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="111"/>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="181" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="152"/>
-      <c r="E11" s="211"/>
+      <c r="E11" s="170"/>
       <c r="F11" s="152"/>
       <c r="G11" s="152"/>
       <c r="H11" s="153"/>
@@ -3841,9 +3871,9 @@
     <row r="12" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="111"/>
-      <c r="C12" s="174"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="112"/>
-      <c r="E12" s="212"/>
+      <c r="E12" s="171"/>
       <c r="F12" s="113"/>
       <c r="G12" s="114"/>
       <c r="H12" s="115"/>
@@ -3853,7 +3883,7 @@
       <c r="B13" s="111"/>
       <c r="C13" s="112"/>
       <c r="D13" s="112"/>
-      <c r="E13" s="212"/>
+      <c r="E13" s="171"/>
       <c r="F13" s="113"/>
       <c r="G13" s="114"/>
       <c r="H13" s="115"/>
@@ -3861,11 +3891,11 @@
     <row r="14" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="111"/>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="181" t="s">
         <v>163</v>
       </c>
       <c r="D14" s="152"/>
-      <c r="E14" s="211"/>
+      <c r="E14" s="170"/>
       <c r="F14" s="152"/>
       <c r="G14" s="152"/>
       <c r="H14" s="153"/>
@@ -3873,9 +3903,9 @@
     <row r="15" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="111"/>
-      <c r="C15" s="174"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="112"/>
-      <c r="E15" s="212"/>
+      <c r="E15" s="171"/>
       <c r="F15" s="113"/>
       <c r="G15" s="114"/>
       <c r="H15" s="115"/>
@@ -3885,7 +3915,7 @@
       <c r="B16" s="111"/>
       <c r="C16" s="112"/>
       <c r="D16" s="112"/>
-      <c r="E16" s="212"/>
+      <c r="E16" s="171"/>
       <c r="F16" s="113"/>
       <c r="G16" s="114"/>
       <c r="H16" s="115"/>
@@ -3893,11 +3923,11 @@
     <row r="17" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="111"/>
-      <c r="C17" s="174" t="s">
+      <c r="C17" s="181" t="s">
         <v>164</v>
       </c>
       <c r="D17" s="152"/>
-      <c r="E17" s="211"/>
+      <c r="E17" s="170"/>
       <c r="F17" s="152"/>
       <c r="G17" s="152"/>
       <c r="H17" s="153"/>
@@ -3905,9 +3935,9 @@
     <row r="18" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="111"/>
-      <c r="C18" s="174"/>
+      <c r="C18" s="181"/>
       <c r="D18" s="112"/>
-      <c r="E18" s="212"/>
+      <c r="E18" s="171"/>
       <c r="F18" s="113"/>
       <c r="G18" s="114"/>
       <c r="H18" s="115"/>
@@ -3917,7 +3947,7 @@
       <c r="B19" s="111"/>
       <c r="C19" s="112"/>
       <c r="D19" s="112"/>
-      <c r="E19" s="212"/>
+      <c r="E19" s="171"/>
       <c r="F19" s="113"/>
       <c r="G19" s="114"/>
       <c r="H19" s="115"/>
@@ -3925,11 +3955,11 @@
     <row r="20" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="111"/>
-      <c r="C20" s="174" t="s">
+      <c r="C20" s="181" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="152"/>
-      <c r="E20" s="211"/>
+      <c r="E20" s="170"/>
       <c r="F20" s="152"/>
       <c r="G20" s="152"/>
       <c r="H20" s="153"/>
@@ -3937,9 +3967,9 @@
     <row r="21" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="111"/>
-      <c r="C21" s="174"/>
+      <c r="C21" s="181"/>
       <c r="D21" s="112"/>
-      <c r="E21" s="212"/>
+      <c r="E21" s="171"/>
       <c r="F21" s="113"/>
       <c r="G21" s="114"/>
       <c r="H21" s="115"/>
@@ -3949,241 +3979,261 @@
       <c r="B22" s="111"/>
       <c r="C22" s="112"/>
       <c r="D22" s="112"/>
-      <c r="E22" s="212"/>
+      <c r="E22" s="171"/>
       <c r="F22" s="113"/>
       <c r="G22" s="114"/>
       <c r="H22" s="115"/>
     </row>
-    <row r="23" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="111"/>
-      <c r="C23" s="174" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="153"/>
-    </row>
-    <row r="24" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C23" s="112"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="164"/>
+    </row>
+    <row r="24" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="111"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="212"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="115"/>
-    </row>
-    <row r="25" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C24" s="112"/>
+      <c r="D24" s="148" t="s">
+        <v>634</v>
+      </c>
+      <c r="E24" s="173" t="s">
+        <v>635</v>
+      </c>
+      <c r="F24" s="149" t="s">
+        <v>554</v>
+      </c>
+      <c r="G24" s="150">
+        <v>44966</v>
+      </c>
+      <c r="H24" s="151">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="111"/>
       <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
-    </row>
-    <row r="26" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="143" t="s">
+        <v>636</v>
+      </c>
+      <c r="E25" s="174" t="s">
+        <v>637</v>
+      </c>
+      <c r="F25" s="149" t="s">
+        <v>554</v>
+      </c>
+      <c r="G25" s="145">
+        <v>44966</v>
+      </c>
+      <c r="H25" s="146">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="111"/>
-      <c r="C26" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="152"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="153"/>
-    </row>
-    <row r="27" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+    </row>
+    <row r="27" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="111"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
+      <c r="C27" s="181" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="152"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="153"/>
     </row>
     <row r="28" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
+      <c r="C28" s="181"/>
       <c r="D28" s="112"/>
-      <c r="E28" s="212"/>
+      <c r="E28" s="171"/>
       <c r="F28" s="113"/>
       <c r="G28" s="114"/>
       <c r="H28" s="115"/>
     </row>
-    <row r="29" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="111"/>
       <c r="C29" s="112"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="164"/>
-    </row>
-    <row r="30" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D29" s="112"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
+    </row>
+    <row r="30" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-    </row>
-    <row r="31" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C30" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="152"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="153"/>
+    </row>
+    <row r="31" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="148" t="s">
-        <v>581</v>
-      </c>
-      <c r="E31" s="214" t="s">
-        <v>587</v>
-      </c>
-      <c r="F31" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="G31" s="150">
-        <v>44853</v>
-      </c>
-      <c r="H31" s="151">
-        <v>44853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C31" s="181"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
+    </row>
+    <row r="32" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="111"/>
       <c r="C32" s="112"/>
-      <c r="D32" s="143" t="s">
-        <v>582</v>
-      </c>
-      <c r="E32" s="215" t="s">
-        <v>588</v>
-      </c>
-      <c r="F32" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="145">
-        <v>44964</v>
-      </c>
-      <c r="H32" s="146">
-        <v>44964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="D32" s="112"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
+    </row>
+    <row r="33" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="111"/>
       <c r="C33" s="112"/>
-      <c r="D33" s="143" t="s">
-        <v>585</v>
-      </c>
-      <c r="E33" s="215" t="s">
-        <v>586</v>
-      </c>
-      <c r="F33" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="145">
-        <v>44964</v>
-      </c>
-      <c r="H33" s="146">
-        <v>44964</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="D33" s="163"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="164"/>
+    </row>
+    <row r="34" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="111"/>
       <c r="C34" s="112"/>
-      <c r="D34" s="143" t="s">
-        <v>591</v>
-      </c>
-      <c r="E34" s="215" t="s">
-        <v>592</v>
-      </c>
-      <c r="F34" s="144" t="s">
-        <v>554</v>
-      </c>
-      <c r="G34" s="145">
-        <v>44964</v>
-      </c>
-      <c r="H34" s="146">
-        <v>44722</v>
-      </c>
+      <c r="D34" s="112"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="115"/>
     </row>
     <row r="35" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="111"/>
       <c r="C35" s="112"/>
-      <c r="D35" s="143" t="s">
-        <v>583</v>
-      </c>
-      <c r="E35" s="215" t="s">
-        <v>584</v>
-      </c>
-      <c r="F35" s="144" t="s">
+      <c r="D35" s="148" t="s">
+        <v>581</v>
+      </c>
+      <c r="E35" s="173" t="s">
+        <v>587</v>
+      </c>
+      <c r="F35" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="G35" s="145">
-        <v>44964</v>
-      </c>
-      <c r="H35" s="146">
-        <v>44964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G35" s="150">
+        <v>44853</v>
+      </c>
+      <c r="H35" s="151">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="111"/>
       <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="115"/>
-    </row>
-    <row r="37" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D36" s="143" t="s">
+        <v>582</v>
+      </c>
+      <c r="E36" s="174" t="s">
+        <v>588</v>
+      </c>
+      <c r="F36" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="145">
+        <v>44964</v>
+      </c>
+      <c r="H36" s="146">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="111"/>
       <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="115"/>
-    </row>
-    <row r="38" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D37" s="143" t="s">
+        <v>585</v>
+      </c>
+      <c r="E37" s="174" t="s">
+        <v>586</v>
+      </c>
+      <c r="F37" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="145">
+        <v>44964</v>
+      </c>
+      <c r="H37" s="146">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="111"/>
       <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="115"/>
-    </row>
-    <row r="39" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D38" s="143" t="s">
+        <v>591</v>
+      </c>
+      <c r="E38" s="174" t="s">
+        <v>592</v>
+      </c>
+      <c r="F38" s="144" t="s">
+        <v>554</v>
+      </c>
+      <c r="G38" s="145">
+        <v>44964</v>
+      </c>
+      <c r="H38" s="146">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="111"/>
       <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="212"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="115"/>
+      <c r="D39" s="143" t="s">
+        <v>583</v>
+      </c>
+      <c r="E39" s="174" t="s">
+        <v>584</v>
+      </c>
+      <c r="F39" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G39" s="145">
+        <v>44964</v>
+      </c>
+      <c r="H39" s="146">
+        <v>44964</v>
+      </c>
     </row>
     <row r="40" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="111"/>
       <c r="C40" s="112"/>
       <c r="D40" s="112"/>
-      <c r="E40" s="212"/>
+      <c r="E40" s="175"/>
       <c r="F40" s="113"/>
       <c r="G40" s="114"/>
       <c r="H40" s="115"/>
@@ -4193,7 +4243,7 @@
       <c r="B41" s="111"/>
       <c r="C41" s="112"/>
       <c r="D41" s="112"/>
-      <c r="E41" s="212"/>
+      <c r="E41" s="175"/>
       <c r="F41" s="113"/>
       <c r="G41" s="114"/>
       <c r="H41" s="115"/>
@@ -4203,49 +4253,37 @@
       <c r="B42" s="111"/>
       <c r="C42" s="112"/>
       <c r="D42" s="112"/>
-      <c r="E42" s="212"/>
+      <c r="E42" s="175"/>
       <c r="F42" s="113"/>
       <c r="G42" s="114"/>
       <c r="H42" s="115"/>
     </row>
-    <row r="43" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="111"/>
-      <c r="C43" s="174" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="152"/>
-      <c r="E43" s="211"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="153"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="115"/>
     </row>
     <row r="44" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="111"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="112" t="s">
-        <v>568</v>
-      </c>
-      <c r="E44" s="216" t="s">
-        <v>569</v>
-      </c>
-      <c r="F44" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="114">
-        <v>44663</v>
-      </c>
-      <c r="H44" s="115">
-        <v>44663</v>
-      </c>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="115"/>
     </row>
     <row r="45" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="111"/>
       <c r="C45" s="112"/>
       <c r="D45" s="112"/>
-      <c r="E45" s="212"/>
+      <c r="E45" s="171"/>
       <c r="F45" s="113"/>
       <c r="G45" s="114"/>
       <c r="H45" s="115"/>
@@ -4255,119 +4293,91 @@
       <c r="B46" s="111"/>
       <c r="C46" s="112"/>
       <c r="D46" s="112"/>
-      <c r="E46" s="212"/>
+      <c r="E46" s="171"/>
       <c r="F46" s="113"/>
       <c r="G46" s="114"/>
       <c r="H46" s="115"/>
     </row>
-    <row r="47" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="111"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="213"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="164"/>
-    </row>
-    <row r="48" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C47" s="181" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="152"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="153"/>
+    </row>
+    <row r="48" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="111"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="148" t="s">
-        <v>570</v>
-      </c>
-      <c r="E48" s="214" t="s">
-        <v>571</v>
-      </c>
-      <c r="F48" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G48" s="150">
-        <v>44845</v>
-      </c>
-      <c r="H48" s="151">
-        <v>44838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C48" s="181"/>
+      <c r="D48" s="112" t="s">
+        <v>568</v>
+      </c>
+      <c r="E48" s="175" t="s">
+        <v>569</v>
+      </c>
+      <c r="F48" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="114">
+        <v>44663</v>
+      </c>
+      <c r="H48" s="115">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="111"/>
       <c r="C49" s="112"/>
-      <c r="D49" s="143" t="s">
-        <v>572</v>
-      </c>
-      <c r="E49" s="215" t="s">
-        <v>573</v>
-      </c>
-      <c r="F49" s="144" t="s">
-        <v>554</v>
-      </c>
-      <c r="G49" s="145">
-        <v>44845</v>
-      </c>
-      <c r="H49" s="146">
-        <v>44726</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="D49" s="112"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="115"/>
+    </row>
+    <row r="50" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="111"/>
       <c r="C50" s="112"/>
-      <c r="D50" s="143" t="s">
-        <v>574</v>
-      </c>
-      <c r="E50" s="215" t="s">
-        <v>575</v>
-      </c>
-      <c r="F50" s="144" t="s">
-        <v>554</v>
-      </c>
-      <c r="G50" s="145">
-        <v>44845</v>
-      </c>
-      <c r="H50" s="146">
-        <v>44722</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="D50" s="112"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="115"/>
+    </row>
+    <row r="51" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="111"/>
       <c r="C51" s="112"/>
-      <c r="D51" s="143" t="s">
-        <v>614</v>
-      </c>
-      <c r="E51" s="215" t="s">
-        <v>615</v>
-      </c>
-      <c r="F51" s="144" t="s">
-        <v>599</v>
-      </c>
-      <c r="G51" s="145">
-        <v>44965</v>
-      </c>
-      <c r="H51" s="146">
-        <v>44732</v>
-      </c>
+      <c r="D51" s="163"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="163"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="164"/>
     </row>
     <row r="52" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="111"/>
       <c r="C52" s="112"/>
-      <c r="D52" s="143" t="s">
-        <v>616</v>
-      </c>
-      <c r="E52" s="215" t="s">
-        <v>617</v>
-      </c>
-      <c r="F52" s="144" t="s">
-        <v>599</v>
-      </c>
-      <c r="G52" s="145">
-        <v>44965</v>
-      </c>
-      <c r="H52" s="146">
-        <v>44726</v>
+      <c r="D52" s="148" t="s">
+        <v>570</v>
+      </c>
+      <c r="E52" s="173" t="s">
+        <v>571</v>
+      </c>
+      <c r="F52" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="150">
+        <v>44845</v>
+      </c>
+      <c r="H52" s="151">
+        <v>44838</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -4375,19 +4385,19 @@
       <c r="B53" s="111"/>
       <c r="C53" s="112"/>
       <c r="D53" s="143" t="s">
-        <v>618</v>
-      </c>
-      <c r="E53" s="215" t="s">
-        <v>619</v>
+        <v>572</v>
+      </c>
+      <c r="E53" s="174" t="s">
+        <v>573</v>
       </c>
       <c r="F53" s="144" t="s">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="G53" s="145">
-        <v>44965</v>
+        <v>44845</v>
       </c>
       <c r="H53" s="146">
-        <v>44727</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
@@ -4395,120 +4405,120 @@
       <c r="B54" s="111"/>
       <c r="C54" s="112"/>
       <c r="D54" s="143" t="s">
-        <v>620</v>
-      </c>
-      <c r="E54" s="215" t="s">
-        <v>621</v>
+        <v>574</v>
+      </c>
+      <c r="E54" s="174" t="s">
+        <v>575</v>
       </c>
       <c r="F54" s="144" t="s">
-        <v>599</v>
+        <v>554</v>
       </c>
       <c r="G54" s="145">
-        <v>44965</v>
+        <v>44845</v>
       </c>
       <c r="H54" s="146">
-        <v>44726</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="111"/>
       <c r="C55" s="112"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="217"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="146"/>
-    </row>
-    <row r="56" spans="1:8" s="78" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="D55" s="143" t="s">
+        <v>614</v>
+      </c>
+      <c r="E55" s="174" t="s">
+        <v>615</v>
+      </c>
+      <c r="F55" s="144" t="s">
+        <v>599</v>
+      </c>
+      <c r="G55" s="145">
+        <v>44965</v>
+      </c>
+      <c r="H55" s="146">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="111"/>
       <c r="C56" s="112"/>
-      <c r="D56" s="148" t="s">
-        <v>603</v>
-      </c>
-      <c r="E56" s="215" t="s">
-        <v>604</v>
-      </c>
-      <c r="F56" s="149" t="s">
+      <c r="D56" s="143" t="s">
+        <v>616</v>
+      </c>
+      <c r="E56" s="174" t="s">
+        <v>617</v>
+      </c>
+      <c r="F56" s="144" t="s">
         <v>599</v>
       </c>
-      <c r="G56" s="150">
+      <c r="G56" s="145">
         <v>44965</v>
       </c>
-      <c r="H56" s="151">
-        <v>44739</v>
+      <c r="H56" s="146">
+        <v>44726</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="111"/>
       <c r="C57" s="112"/>
-      <c r="D57" s="148" t="s">
-        <v>606</v>
-      </c>
-      <c r="E57" s="215" t="s">
-        <v>607</v>
-      </c>
-      <c r="F57" s="149" t="s">
+      <c r="D57" s="143" t="s">
+        <v>618</v>
+      </c>
+      <c r="E57" s="174" t="s">
+        <v>619</v>
+      </c>
+      <c r="F57" s="144" t="s">
         <v>599</v>
       </c>
-      <c r="G57" s="150">
+      <c r="G57" s="145">
         <v>44965</v>
       </c>
-      <c r="H57" s="151">
-        <v>44725</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="H57" s="146">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="111"/>
       <c r="C58" s="112"/>
-      <c r="D58" s="148" t="s">
-        <v>608</v>
-      </c>
-      <c r="E58" s="215" t="s">
-        <v>611</v>
-      </c>
-      <c r="F58" s="149" t="s">
+      <c r="D58" s="143" t="s">
+        <v>620</v>
+      </c>
+      <c r="E58" s="174" t="s">
+        <v>621</v>
+      </c>
+      <c r="F58" s="144" t="s">
         <v>599</v>
       </c>
-      <c r="G58" s="150">
+      <c r="G58" s="145">
         <v>44965</v>
       </c>
-      <c r="H58" s="151">
-        <v>44725</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="H58" s="146">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="111"/>
       <c r="C59" s="112"/>
-      <c r="D59" s="148" t="s">
-        <v>609</v>
-      </c>
-      <c r="E59" s="215" t="s">
-        <v>612</v>
-      </c>
-      <c r="F59" s="149" t="s">
-        <v>599</v>
-      </c>
-      <c r="G59" s="150">
-        <v>44965</v>
-      </c>
-      <c r="H59" s="151">
-        <v>44725</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="D59" s="143"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="146"/>
+    </row>
+    <row r="60" spans="1:8" s="78" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="111"/>
       <c r="C60" s="112"/>
       <c r="D60" s="148" t="s">
-        <v>610</v>
-      </c>
-      <c r="E60" s="215" t="s">
-        <v>613</v>
+        <v>603</v>
+      </c>
+      <c r="E60" s="174" t="s">
+        <v>604</v>
       </c>
       <c r="F60" s="149" t="s">
         <v>599</v>
@@ -4517,28 +4527,38 @@
         <v>44965</v>
       </c>
       <c r="H60" s="151">
-        <v>44725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="111"/>
       <c r="C61" s="112"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="217"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="151"/>
-    </row>
-    <row r="62" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="D61" s="148" t="s">
+        <v>606</v>
+      </c>
+      <c r="E61" s="174" t="s">
+        <v>607</v>
+      </c>
+      <c r="F61" s="149" t="s">
+        <v>599</v>
+      </c>
+      <c r="G61" s="150">
+        <v>44965</v>
+      </c>
+      <c r="H61" s="151">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="111"/>
       <c r="C62" s="112"/>
       <c r="D62" s="148" t="s">
-        <v>598</v>
-      </c>
-      <c r="E62" s="215" t="s">
-        <v>600</v>
+        <v>608</v>
+      </c>
+      <c r="E62" s="174" t="s">
+        <v>611</v>
       </c>
       <c r="F62" s="149" t="s">
         <v>599</v>
@@ -4547,28 +4567,38 @@
         <v>44965</v>
       </c>
       <c r="H62" s="151">
-        <v>44830</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="111"/>
       <c r="C63" s="112"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="215"/>
-      <c r="F63" s="149"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="151"/>
-    </row>
-    <row r="64" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="D63" s="148" t="s">
+        <v>609</v>
+      </c>
+      <c r="E63" s="174" t="s">
+        <v>612</v>
+      </c>
+      <c r="F63" s="149" t="s">
+        <v>599</v>
+      </c>
+      <c r="G63" s="150">
+        <v>44965</v>
+      </c>
+      <c r="H63" s="151">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="111"/>
       <c r="C64" s="112"/>
       <c r="D64" s="148" t="s">
-        <v>601</v>
-      </c>
-      <c r="E64" s="215" t="s">
-        <v>602</v>
+        <v>610</v>
+      </c>
+      <c r="E64" s="174" t="s">
+        <v>613</v>
       </c>
       <c r="F64" s="149" t="s">
         <v>599</v>
@@ -4577,95 +4607,125 @@
         <v>44965</v>
       </c>
       <c r="H64" s="151">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="111"/>
       <c r="C65" s="112"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="212"/>
-      <c r="F65" s="149"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="151"/>
-    </row>
-    <row r="66" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="D65" s="148" t="s">
+        <v>638</v>
+      </c>
+      <c r="E65" s="174" t="s">
+        <v>639</v>
+      </c>
+      <c r="F65" s="149" t="s">
+        <v>554</v>
+      </c>
+      <c r="G65" s="150">
+        <v>44966</v>
+      </c>
+      <c r="H65" s="151">
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="111"/>
       <c r="C66" s="112"/>
-      <c r="D66" s="148" t="s">
-        <v>589</v>
-      </c>
-      <c r="E66" s="215" t="s">
-        <v>590</v>
-      </c>
-      <c r="F66" s="149" t="s">
-        <v>554</v>
-      </c>
-      <c r="G66" s="150">
-        <v>44964</v>
-      </c>
-      <c r="H66" s="151">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D66" s="148"/>
+      <c r="E66" s="176"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="151"/>
+    </row>
+    <row r="67" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="111"/>
       <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="212"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="115"/>
+      <c r="D67" s="148" t="s">
+        <v>598</v>
+      </c>
+      <c r="E67" s="174" t="s">
+        <v>600</v>
+      </c>
+      <c r="F67" s="149" t="s">
+        <v>599</v>
+      </c>
+      <c r="G67" s="150">
+        <v>44965</v>
+      </c>
+      <c r="H67" s="151">
+        <v>44830</v>
+      </c>
     </row>
     <row r="68" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="111"/>
       <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="212"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="115"/>
-    </row>
-    <row r="69" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D68" s="148"/>
+      <c r="E68" s="174"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="150"/>
+      <c r="H68" s="151"/>
+    </row>
+    <row r="69" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="111"/>
       <c r="C69" s="112"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="212"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="115"/>
+      <c r="D69" s="148" t="s">
+        <v>601</v>
+      </c>
+      <c r="E69" s="174" t="s">
+        <v>602</v>
+      </c>
+      <c r="F69" s="149" t="s">
+        <v>599</v>
+      </c>
+      <c r="G69" s="150">
+        <v>44965</v>
+      </c>
+      <c r="H69" s="151">
+        <v>44736</v>
+      </c>
     </row>
     <row r="70" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="111"/>
       <c r="C70" s="112"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="212"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="115"/>
-    </row>
-    <row r="71" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D70" s="148"/>
+      <c r="E70" s="171"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="150"/>
+      <c r="H70" s="151"/>
+    </row>
+    <row r="71" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="111"/>
       <c r="C71" s="112"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="212"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="115"/>
+      <c r="D71" s="148" t="s">
+        <v>589</v>
+      </c>
+      <c r="E71" s="174" t="s">
+        <v>590</v>
+      </c>
+      <c r="F71" s="149" t="s">
+        <v>554</v>
+      </c>
+      <c r="G71" s="150">
+        <v>44964</v>
+      </c>
+      <c r="H71" s="151">
+        <v>44728</v>
+      </c>
     </row>
     <row r="72" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="111"/>
       <c r="C72" s="112"/>
       <c r="D72" s="112"/>
-      <c r="E72" s="212"/>
+      <c r="E72" s="171"/>
       <c r="F72" s="113"/>
       <c r="G72" s="114"/>
       <c r="H72" s="115"/>
@@ -4675,7 +4735,7 @@
       <c r="B73" s="111"/>
       <c r="C73" s="112"/>
       <c r="D73" s="112"/>
-      <c r="E73" s="212"/>
+      <c r="E73" s="171"/>
       <c r="F73" s="113"/>
       <c r="G73" s="114"/>
       <c r="H73" s="115"/>
@@ -4685,7 +4745,7 @@
       <c r="B74" s="111"/>
       <c r="C74" s="112"/>
       <c r="D74" s="112"/>
-      <c r="E74" s="212"/>
+      <c r="E74" s="171"/>
       <c r="F74" s="113"/>
       <c r="G74" s="114"/>
       <c r="H74" s="115"/>
@@ -4695,7 +4755,7 @@
       <c r="B75" s="111"/>
       <c r="C75" s="112"/>
       <c r="D75" s="112"/>
-      <c r="E75" s="212"/>
+      <c r="E75" s="171"/>
       <c r="F75" s="113"/>
       <c r="G75" s="114"/>
       <c r="H75" s="115"/>
@@ -4705,7 +4765,7 @@
       <c r="B76" s="111"/>
       <c r="C76" s="112"/>
       <c r="D76" s="112"/>
-      <c r="E76" s="212"/>
+      <c r="E76" s="171"/>
       <c r="F76" s="113"/>
       <c r="G76" s="114"/>
       <c r="H76" s="115"/>
@@ -4715,7 +4775,7 @@
       <c r="B77" s="111"/>
       <c r="C77" s="112"/>
       <c r="D77" s="112"/>
-      <c r="E77" s="212"/>
+      <c r="E77" s="171"/>
       <c r="F77" s="113"/>
       <c r="G77" s="114"/>
       <c r="H77" s="115"/>
@@ -4725,7 +4785,7 @@
       <c r="B78" s="111"/>
       <c r="C78" s="112"/>
       <c r="D78" s="112"/>
-      <c r="E78" s="212"/>
+      <c r="E78" s="171"/>
       <c r="F78" s="113"/>
       <c r="G78" s="114"/>
       <c r="H78" s="115"/>
@@ -4735,7 +4795,7 @@
       <c r="B79" s="111"/>
       <c r="C79" s="112"/>
       <c r="D79" s="112"/>
-      <c r="E79" s="212"/>
+      <c r="E79" s="171"/>
       <c r="F79" s="113"/>
       <c r="G79" s="114"/>
       <c r="H79" s="115"/>
@@ -4745,7 +4805,7 @@
       <c r="B80" s="111"/>
       <c r="C80" s="112"/>
       <c r="D80" s="112"/>
-      <c r="E80" s="212"/>
+      <c r="E80" s="171"/>
       <c r="F80" s="113"/>
       <c r="G80" s="114"/>
       <c r="H80" s="115"/>
@@ -4755,7 +4815,7 @@
       <c r="B81" s="111"/>
       <c r="C81" s="112"/>
       <c r="D81" s="112"/>
-      <c r="E81" s="212"/>
+      <c r="E81" s="171"/>
       <c r="F81" s="113"/>
       <c r="G81" s="114"/>
       <c r="H81" s="115"/>
@@ -4765,7 +4825,7 @@
       <c r="B82" s="111"/>
       <c r="C82" s="112"/>
       <c r="D82" s="112"/>
-      <c r="E82" s="212"/>
+      <c r="E82" s="171"/>
       <c r="F82" s="113"/>
       <c r="G82" s="114"/>
       <c r="H82" s="115"/>
@@ -4775,7 +4835,7 @@
       <c r="B83" s="111"/>
       <c r="C83" s="112"/>
       <c r="D83" s="112"/>
-      <c r="E83" s="212"/>
+      <c r="E83" s="171"/>
       <c r="F83" s="113"/>
       <c r="G83" s="114"/>
       <c r="H83" s="115"/>
@@ -4785,7 +4845,7 @@
       <c r="B84" s="111"/>
       <c r="C84" s="112"/>
       <c r="D84" s="112"/>
-      <c r="E84" s="212"/>
+      <c r="E84" s="171"/>
       <c r="F84" s="113"/>
       <c r="G84" s="114"/>
       <c r="H84" s="115"/>
@@ -4795,7 +4855,7 @@
       <c r="B85" s="111"/>
       <c r="C85" s="112"/>
       <c r="D85" s="112"/>
-      <c r="E85" s="212"/>
+      <c r="E85" s="171"/>
       <c r="F85" s="113"/>
       <c r="G85" s="114"/>
       <c r="H85" s="115"/>
@@ -4805,7 +4865,7 @@
       <c r="B86" s="111"/>
       <c r="C86" s="112"/>
       <c r="D86" s="112"/>
-      <c r="E86" s="212"/>
+      <c r="E86" s="171"/>
       <c r="F86" s="113"/>
       <c r="G86" s="114"/>
       <c r="H86" s="115"/>
@@ -4815,7 +4875,7 @@
       <c r="B87" s="111"/>
       <c r="C87" s="112"/>
       <c r="D87" s="112"/>
-      <c r="E87" s="212"/>
+      <c r="E87" s="171"/>
       <c r="F87" s="113"/>
       <c r="G87" s="114"/>
       <c r="H87" s="115"/>
@@ -4825,7 +4885,7 @@
       <c r="B88" s="111"/>
       <c r="C88" s="112"/>
       <c r="D88" s="112"/>
-      <c r="E88" s="212"/>
+      <c r="E88" s="171"/>
       <c r="F88" s="113"/>
       <c r="G88" s="114"/>
       <c r="H88" s="115"/>
@@ -4835,7 +4895,7 @@
       <c r="B89" s="111"/>
       <c r="C89" s="112"/>
       <c r="D89" s="112"/>
-      <c r="E89" s="212"/>
+      <c r="E89" s="171"/>
       <c r="F89" s="113"/>
       <c r="G89" s="114"/>
       <c r="H89" s="115"/>
@@ -4845,7 +4905,7 @@
       <c r="B90" s="111"/>
       <c r="C90" s="112"/>
       <c r="D90" s="112"/>
-      <c r="E90" s="212"/>
+      <c r="E90" s="171"/>
       <c r="F90" s="113"/>
       <c r="G90" s="114"/>
       <c r="H90" s="115"/>
@@ -4855,7 +4915,7 @@
       <c r="B91" s="111"/>
       <c r="C91" s="112"/>
       <c r="D91" s="112"/>
-      <c r="E91" s="212"/>
+      <c r="E91" s="171"/>
       <c r="F91" s="113"/>
       <c r="G91" s="114"/>
       <c r="H91" s="115"/>
@@ -4865,29 +4925,27 @@
       <c r="B92" s="111"/>
       <c r="C92" s="112"/>
       <c r="D92" s="112"/>
-      <c r="E92" s="212"/>
+      <c r="E92" s="171"/>
       <c r="F92" s="113"/>
       <c r="G92" s="114"/>
       <c r="H92" s="115"/>
     </row>
-    <row r="93" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="111"/>
-      <c r="C93" s="174" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="152"/>
-      <c r="E93" s="211"/>
-      <c r="F93" s="152"/>
-      <c r="G93" s="152"/>
-      <c r="H93" s="153"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="112"/>
+      <c r="E93" s="171"/>
+      <c r="F93" s="113"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="115"/>
     </row>
     <row r="94" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="111"/>
-      <c r="C94" s="174"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="112"/>
-      <c r="E94" s="212"/>
+      <c r="E94" s="171"/>
       <c r="F94" s="113"/>
       <c r="G94" s="114"/>
       <c r="H94" s="115"/>
@@ -4897,173 +4955,125 @@
       <c r="B95" s="111"/>
       <c r="C95" s="112"/>
       <c r="D95" s="112"/>
-      <c r="E95" s="212"/>
+      <c r="E95" s="171"/>
       <c r="F95" s="113"/>
       <c r="G95" s="114"/>
       <c r="H95" s="115"/>
     </row>
-    <row r="96" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="111"/>
-      <c r="C96" s="174" t="s">
-        <v>168</v>
-      </c>
-      <c r="D96" s="152"/>
-      <c r="E96" s="211"/>
-      <c r="F96" s="152"/>
-      <c r="G96" s="152"/>
-      <c r="H96" s="153"/>
+      <c r="C96" s="112"/>
+      <c r="D96" s="112"/>
+      <c r="E96" s="171"/>
+      <c r="F96" s="113"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="115"/>
     </row>
     <row r="97" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="111"/>
-      <c r="C97" s="174"/>
+      <c r="C97" s="112"/>
       <c r="D97" s="112"/>
-      <c r="E97" s="212"/>
+      <c r="E97" s="171"/>
       <c r="F97" s="113"/>
       <c r="G97" s="114"/>
       <c r="H97" s="115"/>
     </row>
-    <row r="98" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="111"/>
-      <c r="C98" s="112"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="212"/>
-      <c r="F98" s="113"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="115"/>
-    </row>
-    <row r="99" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="181" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="152"/>
+      <c r="E98" s="170"/>
+      <c r="F98" s="152"/>
+      <c r="G98" s="152"/>
+      <c r="H98" s="153"/>
+    </row>
+    <row r="99" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="111"/>
-      <c r="C99" s="174" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="152"/>
-      <c r="E99" s="211"/>
-      <c r="F99" s="152"/>
-      <c r="G99" s="152"/>
-      <c r="H99" s="153"/>
-    </row>
-    <row r="100" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C99" s="181"/>
+      <c r="D99" s="112"/>
+      <c r="E99" s="171"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="114"/>
+      <c r="H99" s="115"/>
+    </row>
+    <row r="100" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="111"/>
-      <c r="C100" s="174"/>
-      <c r="D100" s="148" t="s">
-        <v>536</v>
-      </c>
-      <c r="E100" s="214" t="s">
-        <v>547</v>
-      </c>
-      <c r="F100" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G100" s="150">
-        <v>44743</v>
-      </c>
-      <c r="H100" s="151">
-        <v>44739</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="171"/>
+      <c r="F100" s="113"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="115"/>
+    </row>
+    <row r="101" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="111"/>
-      <c r="C101" s="112"/>
-      <c r="D101" s="143" t="s">
-        <v>537</v>
-      </c>
-      <c r="E101" s="215" t="s">
-        <v>548</v>
-      </c>
-      <c r="F101" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="G101" s="145">
-        <v>44743</v>
-      </c>
-      <c r="H101" s="146">
-        <v>44732</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C101" s="181" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" s="152"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="152"/>
+      <c r="G101" s="152"/>
+      <c r="H101" s="153"/>
+    </row>
+    <row r="102" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="111"/>
-      <c r="C102" s="112"/>
-      <c r="D102" s="143" t="s">
-        <v>538</v>
-      </c>
-      <c r="E102" s="215" t="s">
-        <v>539</v>
-      </c>
-      <c r="F102" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="G102" s="145">
-        <v>44743</v>
-      </c>
-      <c r="H102" s="146">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C102" s="181"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="171"/>
+      <c r="F102" s="113"/>
+      <c r="G102" s="114"/>
+      <c r="H102" s="115"/>
+    </row>
+    <row r="103" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="111"/>
       <c r="C103" s="112"/>
-      <c r="D103" s="143" t="s">
-        <v>540</v>
-      </c>
-      <c r="E103" s="215" t="s">
-        <v>549</v>
-      </c>
-      <c r="F103" s="144" t="s">
-        <v>464</v>
-      </c>
-      <c r="G103" s="145">
-        <v>44757</v>
-      </c>
-      <c r="H103" s="146">
-        <v>44732</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D103" s="112"/>
+      <c r="E103" s="171"/>
+      <c r="F103" s="113"/>
+      <c r="G103" s="114"/>
+      <c r="H103" s="115"/>
+    </row>
+    <row r="104" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="111"/>
-      <c r="C104" s="112"/>
-      <c r="D104" s="143" t="s">
-        <v>542</v>
-      </c>
-      <c r="E104" s="215" t="s">
-        <v>541</v>
-      </c>
-      <c r="F104" s="144" t="s">
-        <v>464</v>
-      </c>
-      <c r="G104" s="145">
-        <v>44757</v>
-      </c>
-      <c r="H104" s="146">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C104" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="152"/>
+      <c r="E104" s="170"/>
+      <c r="F104" s="152"/>
+      <c r="G104" s="152"/>
+      <c r="H104" s="153"/>
+    </row>
+    <row r="105" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="111"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="143" t="s">
-        <v>543</v>
-      </c>
-      <c r="E105" s="215" t="s">
-        <v>545</v>
-      </c>
-      <c r="F105" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G105" s="145">
-        <v>44851</v>
-      </c>
-      <c r="H105" s="146">
-        <v>44851</v>
+      <c r="C105" s="181"/>
+      <c r="D105" s="148" t="s">
+        <v>536</v>
+      </c>
+      <c r="E105" s="173" t="s">
+        <v>547</v>
+      </c>
+      <c r="F105" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="G105" s="150">
+        <v>44743</v>
+      </c>
+      <c r="H105" s="151">
+        <v>44739</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -5071,10 +5081,10 @@
       <c r="B106" s="111"/>
       <c r="C106" s="112"/>
       <c r="D106" s="143" t="s">
-        <v>544</v>
-      </c>
-      <c r="E106" s="215" t="s">
-        <v>546</v>
+        <v>537</v>
+      </c>
+      <c r="E106" s="174" t="s">
+        <v>548</v>
       </c>
       <c r="F106" s="144" t="s">
         <v>267</v>
@@ -5083,7 +5093,7 @@
         <v>44743</v>
       </c>
       <c r="H106" s="146">
-        <v>44728</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -5091,39 +5101,39 @@
       <c r="B107" s="111"/>
       <c r="C107" s="112"/>
       <c r="D107" s="143" t="s">
-        <v>550</v>
-      </c>
-      <c r="E107" s="215" t="s">
-        <v>551</v>
+        <v>538</v>
+      </c>
+      <c r="E107" s="174" t="s">
+        <v>539</v>
       </c>
       <c r="F107" s="144" t="s">
-        <v>464</v>
+        <v>267</v>
       </c>
       <c r="G107" s="145">
-        <v>44757</v>
+        <v>44743</v>
       </c>
       <c r="H107" s="146">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="111"/>
       <c r="C108" s="112"/>
       <c r="D108" s="143" t="s">
-        <v>552</v>
-      </c>
-      <c r="E108" s="215" t="s">
-        <v>553</v>
+        <v>540</v>
+      </c>
+      <c r="E108" s="174" t="s">
+        <v>549</v>
       </c>
       <c r="F108" s="144" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="G108" s="145">
-        <v>44845</v>
+        <v>44757</v>
       </c>
       <c r="H108" s="146">
-        <v>44736</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -5131,207 +5141,257 @@
       <c r="B109" s="111"/>
       <c r="C109" s="112"/>
       <c r="D109" s="143" t="s">
-        <v>555</v>
-      </c>
-      <c r="E109" s="215" t="s">
-        <v>556</v>
+        <v>542</v>
+      </c>
+      <c r="E109" s="174" t="s">
+        <v>541</v>
       </c>
       <c r="F109" s="144" t="s">
-        <v>267</v>
+        <v>464</v>
       </c>
       <c r="G109" s="145">
-        <v>44743</v>
+        <v>44757</v>
       </c>
       <c r="H109" s="146">
-        <v>44739</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="78" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="111"/>
       <c r="C110" s="112"/>
-      <c r="D110" s="165" t="s">
-        <v>557</v>
-      </c>
-      <c r="E110" s="218" t="s">
-        <v>558</v>
-      </c>
-      <c r="F110" s="166" t="s">
-        <v>267</v>
-      </c>
-      <c r="G110" s="167">
-        <v>44743</v>
-      </c>
-      <c r="H110" s="168">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D110" s="143" t="s">
+        <v>543</v>
+      </c>
+      <c r="E110" s="174" t="s">
+        <v>545</v>
+      </c>
+      <c r="F110" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G110" s="145">
+        <v>44851</v>
+      </c>
+      <c r="H110" s="146">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="111"/>
       <c r="C111" s="112"/>
-      <c r="D111" s="163"/>
-      <c r="E111" s="213"/>
-      <c r="F111" s="163"/>
-      <c r="G111" s="163"/>
-      <c r="H111" s="164"/>
-    </row>
-    <row r="112" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="D111" s="143" t="s">
+        <v>544</v>
+      </c>
+      <c r="E111" s="174" t="s">
+        <v>546</v>
+      </c>
+      <c r="F111" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="G111" s="145">
+        <v>44743</v>
+      </c>
+      <c r="H111" s="146">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="111"/>
       <c r="C112" s="112"/>
-      <c r="D112" s="148" t="s">
-        <v>559</v>
-      </c>
-      <c r="E112" s="214" t="s">
-        <v>560</v>
-      </c>
-      <c r="F112" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G112" s="150">
-        <v>44672</v>
-      </c>
-      <c r="H112" s="151">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="D112" s="143" t="s">
+        <v>550</v>
+      </c>
+      <c r="E112" s="174" t="s">
+        <v>551</v>
+      </c>
+      <c r="F112" s="144" t="s">
+        <v>464</v>
+      </c>
+      <c r="G112" s="145">
+        <v>44757</v>
+      </c>
+      <c r="H112" s="146">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="78" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="111"/>
       <c r="C113" s="112"/>
       <c r="D113" s="143" t="s">
-        <v>561</v>
-      </c>
-      <c r="E113" s="215" t="s">
-        <v>562</v>
+        <v>552</v>
+      </c>
+      <c r="E113" s="174" t="s">
+        <v>553</v>
       </c>
       <c r="F113" s="144" t="s">
-        <v>232</v>
+        <v>554</v>
       </c>
       <c r="G113" s="145">
-        <v>44663</v>
+        <v>44845</v>
       </c>
       <c r="H113" s="146">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="111"/>
       <c r="C114" s="112"/>
       <c r="D114" s="143" t="s">
-        <v>563</v>
-      </c>
-      <c r="E114" s="215" t="s">
-        <v>564</v>
+        <v>555</v>
+      </c>
+      <c r="E114" s="174" t="s">
+        <v>556</v>
       </c>
       <c r="F114" s="144" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G114" s="145">
-        <v>44630</v>
+        <v>44743</v>
       </c>
       <c r="H114" s="146">
-        <v>44630</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="111"/>
       <c r="C115" s="112"/>
-      <c r="D115" s="143" t="s">
-        <v>565</v>
-      </c>
-      <c r="E115" s="215" t="s">
-        <v>566</v>
-      </c>
-      <c r="F115" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G115" s="145">
-        <v>44627</v>
-      </c>
-      <c r="H115" s="146">
-        <v>44627</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="D115" s="165" t="s">
+        <v>557</v>
+      </c>
+      <c r="E115" s="177" t="s">
+        <v>558</v>
+      </c>
+      <c r="F115" s="166" t="s">
+        <v>267</v>
+      </c>
+      <c r="G115" s="167">
+        <v>44743</v>
+      </c>
+      <c r="H115" s="168">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="111"/>
       <c r="C116" s="112"/>
-      <c r="D116" s="143" t="s">
-        <v>567</v>
-      </c>
-      <c r="E116" s="215" t="s">
-        <v>566</v>
-      </c>
-      <c r="F116" s="144" t="s">
-        <v>281</v>
-      </c>
-      <c r="G116" s="145">
-        <v>44760</v>
-      </c>
-      <c r="H116" s="146">
-        <v>44627</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D116" s="163"/>
+      <c r="E116" s="172"/>
+      <c r="F116" s="163"/>
+      <c r="G116" s="163"/>
+      <c r="H116" s="164"/>
+    </row>
+    <row r="117" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="111"/>
       <c r="C117" s="112"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="212"/>
-      <c r="F117" s="113"/>
-      <c r="G117" s="114"/>
-      <c r="H117" s="115"/>
-    </row>
-    <row r="118" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D117" s="148" t="s">
+        <v>559</v>
+      </c>
+      <c r="E117" s="173" t="s">
+        <v>560</v>
+      </c>
+      <c r="F117" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="G117" s="150">
+        <v>44672</v>
+      </c>
+      <c r="H117" s="151">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="111"/>
       <c r="C118" s="112"/>
-      <c r="D118" s="112"/>
-      <c r="E118" s="212"/>
-      <c r="F118" s="113"/>
-      <c r="G118" s="114"/>
-      <c r="H118" s="115"/>
-    </row>
-    <row r="119" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D118" s="143" t="s">
+        <v>561</v>
+      </c>
+      <c r="E118" s="174" t="s">
+        <v>562</v>
+      </c>
+      <c r="F118" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G118" s="145">
+        <v>44663</v>
+      </c>
+      <c r="H118" s="146">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="111"/>
       <c r="C119" s="112"/>
-      <c r="D119" s="112"/>
-      <c r="E119" s="212"/>
-      <c r="F119" s="113"/>
-      <c r="G119" s="114"/>
-      <c r="H119" s="115"/>
-    </row>
-    <row r="120" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D119" s="143" t="s">
+        <v>563</v>
+      </c>
+      <c r="E119" s="174" t="s">
+        <v>564</v>
+      </c>
+      <c r="F119" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G119" s="145">
+        <v>44630</v>
+      </c>
+      <c r="H119" s="146">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="111"/>
       <c r="C120" s="112"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="212"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="114"/>
-      <c r="H120" s="115"/>
-    </row>
-    <row r="121" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D120" s="143" t="s">
+        <v>565</v>
+      </c>
+      <c r="E120" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="F120" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G120" s="145">
+        <v>44627</v>
+      </c>
+      <c r="H120" s="146">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="111"/>
       <c r="C121" s="112"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="212"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="114"/>
-      <c r="H121" s="115"/>
+      <c r="D121" s="143" t="s">
+        <v>567</v>
+      </c>
+      <c r="E121" s="174" t="s">
+        <v>566</v>
+      </c>
+      <c r="F121" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="G121" s="145">
+        <v>44760</v>
+      </c>
+      <c r="H121" s="146">
+        <v>44627</v>
+      </c>
     </row>
     <row r="122" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="111"/>
       <c r="C122" s="112"/>
       <c r="D122" s="112"/>
-      <c r="E122" s="212"/>
+      <c r="E122" s="171"/>
       <c r="F122" s="113"/>
       <c r="G122" s="114"/>
       <c r="H122" s="115"/>
@@ -5341,7 +5401,7 @@
       <c r="B123" s="111"/>
       <c r="C123" s="112"/>
       <c r="D123" s="112"/>
-      <c r="E123" s="212"/>
+      <c r="E123" s="171"/>
       <c r="F123" s="113"/>
       <c r="G123" s="114"/>
       <c r="H123" s="115"/>
@@ -5351,7 +5411,7 @@
       <c r="B124" s="111"/>
       <c r="C124" s="112"/>
       <c r="D124" s="112"/>
-      <c r="E124" s="212"/>
+      <c r="E124" s="171"/>
       <c r="F124" s="113"/>
       <c r="G124" s="114"/>
       <c r="H124" s="115"/>
@@ -5361,7 +5421,7 @@
       <c r="B125" s="111"/>
       <c r="C125" s="112"/>
       <c r="D125" s="112"/>
-      <c r="E125" s="212"/>
+      <c r="E125" s="171"/>
       <c r="F125" s="113"/>
       <c r="G125" s="114"/>
       <c r="H125" s="115"/>
@@ -5371,7 +5431,7 @@
       <c r="B126" s="111"/>
       <c r="C126" s="112"/>
       <c r="D126" s="112"/>
-      <c r="E126" s="212"/>
+      <c r="E126" s="171"/>
       <c r="F126" s="113"/>
       <c r="G126" s="114"/>
       <c r="H126" s="115"/>
@@ -5381,7 +5441,7 @@
       <c r="B127" s="111"/>
       <c r="C127" s="112"/>
       <c r="D127" s="112"/>
-      <c r="E127" s="212"/>
+      <c r="E127" s="171"/>
       <c r="F127" s="113"/>
       <c r="G127" s="114"/>
       <c r="H127" s="115"/>
@@ -5391,7 +5451,7 @@
       <c r="B128" s="111"/>
       <c r="C128" s="112"/>
       <c r="D128" s="112"/>
-      <c r="E128" s="212"/>
+      <c r="E128" s="171"/>
       <c r="F128" s="113"/>
       <c r="G128" s="114"/>
       <c r="H128" s="115"/>
@@ -5401,7 +5461,7 @@
       <c r="B129" s="111"/>
       <c r="C129" s="112"/>
       <c r="D129" s="112"/>
-      <c r="E129" s="212"/>
+      <c r="E129" s="171"/>
       <c r="F129" s="113"/>
       <c r="G129" s="114"/>
       <c r="H129" s="115"/>
@@ -5411,7 +5471,7 @@
       <c r="B130" s="111"/>
       <c r="C130" s="112"/>
       <c r="D130" s="112"/>
-      <c r="E130" s="212"/>
+      <c r="E130" s="171"/>
       <c r="F130" s="113"/>
       <c r="G130" s="114"/>
       <c r="H130" s="115"/>
@@ -5421,373 +5481,341 @@
       <c r="B131" s="111"/>
       <c r="C131" s="112"/>
       <c r="D131" s="112"/>
-      <c r="E131" s="212"/>
+      <c r="E131" s="171"/>
       <c r="F131" s="113"/>
       <c r="G131" s="114"/>
       <c r="H131" s="115"/>
     </row>
-    <row r="132" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="111"/>
-      <c r="C132" s="174" t="s">
-        <v>57</v>
-      </c>
-      <c r="D132" s="152"/>
-      <c r="E132" s="211"/>
-      <c r="F132" s="152"/>
-      <c r="G132" s="152"/>
-      <c r="H132" s="153"/>
-    </row>
-    <row r="133" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C132" s="112"/>
+      <c r="D132" s="112"/>
+      <c r="E132" s="171"/>
+      <c r="F132" s="113"/>
+      <c r="G132" s="114"/>
+      <c r="H132" s="115"/>
+    </row>
+    <row r="133" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="111"/>
-      <c r="C133" s="174"/>
-      <c r="D133" s="148" t="s">
-        <v>424</v>
-      </c>
-      <c r="E133" s="214" t="s">
-        <v>425</v>
-      </c>
-      <c r="F133" s="149" t="s">
-        <v>267</v>
-      </c>
-      <c r="G133" s="150">
-        <v>44743</v>
-      </c>
-      <c r="H133" s="151">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C133" s="112"/>
+      <c r="D133" s="112"/>
+      <c r="E133" s="171"/>
+      <c r="F133" s="113"/>
+      <c r="G133" s="114"/>
+      <c r="H133" s="115"/>
+    </row>
+    <row r="134" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="111"/>
       <c r="C134" s="112"/>
-      <c r="D134" s="143" t="s">
-        <v>426</v>
-      </c>
-      <c r="E134" s="215" t="s">
-        <v>427</v>
-      </c>
-      <c r="F134" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="G134" s="145">
-        <v>44743</v>
-      </c>
-      <c r="H134" s="146">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D134" s="112"/>
+      <c r="E134" s="171"/>
+      <c r="F134" s="113"/>
+      <c r="G134" s="114"/>
+      <c r="H134" s="115"/>
+    </row>
+    <row r="135" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="111"/>
       <c r="C135" s="112"/>
-      <c r="D135" s="143" t="s">
-        <v>428</v>
-      </c>
-      <c r="E135" s="215" t="s">
-        <v>429</v>
-      </c>
-      <c r="F135" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="G135" s="145">
-        <v>44743</v>
-      </c>
-      <c r="H135" s="146">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D135" s="112"/>
+      <c r="E135" s="171"/>
+      <c r="F135" s="113"/>
+      <c r="G135" s="114"/>
+      <c r="H135" s="115"/>
+    </row>
+    <row r="136" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="111"/>
       <c r="C136" s="112"/>
-      <c r="D136" s="143" t="s">
-        <v>430</v>
-      </c>
-      <c r="E136" s="215" t="s">
-        <v>431</v>
-      </c>
-      <c r="F136" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="G136" s="145">
-        <v>44743</v>
-      </c>
-      <c r="H136" s="146">
-        <v>44728</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="112"/>
+      <c r="E136" s="171"/>
+      <c r="F136" s="113"/>
+      <c r="G136" s="114"/>
+      <c r="H136" s="115"/>
+    </row>
+    <row r="137" spans="1:8" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="111"/>
-      <c r="C137" s="112"/>
-      <c r="D137" s="163"/>
-      <c r="E137" s="213"/>
-      <c r="F137" s="163"/>
-      <c r="G137" s="163"/>
-      <c r="H137" s="164"/>
-    </row>
-    <row r="138" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C137" s="181" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" s="152"/>
+      <c r="E137" s="170"/>
+      <c r="F137" s="152"/>
+      <c r="G137" s="152"/>
+      <c r="H137" s="153"/>
+    </row>
+    <row r="138" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="111"/>
-      <c r="C138" s="112"/>
-      <c r="D138" s="143" t="s">
-        <v>432</v>
-      </c>
-      <c r="E138" s="217" t="s">
-        <v>433</v>
-      </c>
-      <c r="F138" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G138" s="145">
-        <v>44636</v>
-      </c>
-      <c r="H138" s="146">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C138" s="181"/>
+      <c r="D138" s="148" t="s">
+        <v>424</v>
+      </c>
+      <c r="E138" s="173" t="s">
+        <v>425</v>
+      </c>
+      <c r="F138" s="149" t="s">
+        <v>267</v>
+      </c>
+      <c r="G138" s="150">
+        <v>44743</v>
+      </c>
+      <c r="H138" s="151">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="111"/>
       <c r="C139" s="112"/>
-      <c r="D139" s="163"/>
-      <c r="E139" s="213"/>
-      <c r="F139" s="163"/>
-      <c r="G139" s="163"/>
-      <c r="H139" s="164"/>
-    </row>
-    <row r="140" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D139" s="143" t="s">
+        <v>426</v>
+      </c>
+      <c r="E139" s="174" t="s">
+        <v>427</v>
+      </c>
+      <c r="F139" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="G139" s="145">
+        <v>44743</v>
+      </c>
+      <c r="H139" s="146">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="111"/>
       <c r="C140" s="112"/>
       <c r="D140" s="143" t="s">
-        <v>434</v>
-      </c>
-      <c r="E140" s="217" t="s">
-        <v>435</v>
+        <v>428</v>
+      </c>
+      <c r="E140" s="174" t="s">
+        <v>429</v>
       </c>
       <c r="F140" s="144" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G140" s="145">
-        <v>44636</v>
+        <v>44743</v>
       </c>
       <c r="H140" s="146">
-        <v>44636</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="111"/>
       <c r="C141" s="112"/>
-      <c r="D141" s="163"/>
-      <c r="E141" s="213"/>
-      <c r="F141" s="163"/>
-      <c r="G141" s="163"/>
-      <c r="H141" s="164"/>
-    </row>
-    <row r="142" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D141" s="143" t="s">
+        <v>430</v>
+      </c>
+      <c r="E141" s="174" t="s">
+        <v>431</v>
+      </c>
+      <c r="F141" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="G141" s="145">
+        <v>44743</v>
+      </c>
+      <c r="H141" s="146">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="111"/>
       <c r="C142" s="112"/>
-      <c r="D142" s="143" t="s">
-        <v>436</v>
-      </c>
-      <c r="E142" s="215" t="s">
-        <v>437</v>
-      </c>
-      <c r="F142" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G142" s="145">
-        <v>44825</v>
-      </c>
-      <c r="H142" s="146">
-        <v>44825</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="163"/>
+      <c r="E142" s="172"/>
+      <c r="F142" s="163"/>
+      <c r="G142" s="163"/>
+      <c r="H142" s="164"/>
+    </row>
+    <row r="143" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="111"/>
       <c r="C143" s="112"/>
-      <c r="D143" s="163"/>
-      <c r="E143" s="213"/>
-      <c r="F143" s="163"/>
-      <c r="G143" s="163"/>
-      <c r="H143" s="164"/>
-    </row>
-    <row r="144" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D143" s="143" t="s">
+        <v>432</v>
+      </c>
+      <c r="E143" s="176" t="s">
+        <v>433</v>
+      </c>
+      <c r="F143" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G143" s="145">
+        <v>44636</v>
+      </c>
+      <c r="H143" s="146">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="111"/>
       <c r="C144" s="112"/>
-      <c r="D144" s="143" t="s">
-        <v>438</v>
-      </c>
-      <c r="E144" s="217" t="s">
-        <v>439</v>
-      </c>
-      <c r="F144" s="144" t="s">
-        <v>256</v>
-      </c>
-      <c r="G144" s="145">
-        <v>44742</v>
-      </c>
-      <c r="H144" s="146">
-        <v>44734</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="163"/>
+      <c r="E144" s="172"/>
+      <c r="F144" s="163"/>
+      <c r="G144" s="163"/>
+      <c r="H144" s="164"/>
+    </row>
+    <row r="145" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="111"/>
       <c r="C145" s="112"/>
-      <c r="D145" s="163"/>
-      <c r="E145" s="213"/>
-      <c r="F145" s="163"/>
-      <c r="G145" s="163"/>
-      <c r="H145" s="164"/>
-    </row>
-    <row r="146" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D145" s="143" t="s">
+        <v>434</v>
+      </c>
+      <c r="E145" s="176" t="s">
+        <v>435</v>
+      </c>
+      <c r="F145" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G145" s="145">
+        <v>44636</v>
+      </c>
+      <c r="H145" s="146">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="111"/>
       <c r="C146" s="112"/>
-      <c r="D146" s="143" t="s">
-        <v>440</v>
-      </c>
-      <c r="E146" s="217" t="s">
-        <v>441</v>
-      </c>
-      <c r="F146" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G146" s="145">
-        <v>44635</v>
-      </c>
-      <c r="H146" s="146">
-        <v>44635</v>
-      </c>
+      <c r="D146" s="163"/>
+      <c r="E146" s="172"/>
+      <c r="F146" s="163"/>
+      <c r="G146" s="163"/>
+      <c r="H146" s="164"/>
     </row>
     <row r="147" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="111"/>
       <c r="C147" s="112"/>
       <c r="D147" s="143" t="s">
-        <v>443</v>
-      </c>
-      <c r="E147" s="217" t="s">
-        <v>442</v>
+        <v>436</v>
+      </c>
+      <c r="E147" s="174" t="s">
+        <v>437</v>
       </c>
       <c r="F147" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G147" s="145">
-        <v>44635</v>
+        <v>44825</v>
       </c>
       <c r="H147" s="146">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="111"/>
       <c r="C148" s="112"/>
-      <c r="D148" s="143" t="s">
-        <v>444</v>
-      </c>
-      <c r="E148" s="217" t="s">
-        <v>445</v>
-      </c>
-      <c r="F148" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="G148" s="145">
-        <v>44644</v>
-      </c>
-      <c r="H148" s="146">
-        <v>44636</v>
-      </c>
+      <c r="D148" s="163"/>
+      <c r="E148" s="172"/>
+      <c r="F148" s="163"/>
+      <c r="G148" s="163"/>
+      <c r="H148" s="164"/>
     </row>
     <row r="149" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="111"/>
       <c r="C149" s="112"/>
       <c r="D149" s="143" t="s">
-        <v>446</v>
-      </c>
-      <c r="E149" s="217" t="s">
-        <v>447</v>
+        <v>438</v>
+      </c>
+      <c r="E149" s="176" t="s">
+        <v>439</v>
       </c>
       <c r="F149" s="144" t="s">
-        <v>448</v>
+        <v>256</v>
       </c>
       <c r="G149" s="145">
-        <v>44732</v>
+        <v>44742</v>
       </c>
       <c r="H149" s="146">
-        <v>44637</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="111"/>
       <c r="C150" s="112"/>
-      <c r="D150" s="112"/>
-      <c r="E150" s="212"/>
-      <c r="F150" s="113"/>
-      <c r="G150" s="114"/>
-      <c r="H150" s="115"/>
+      <c r="D150" s="163"/>
+      <c r="E150" s="172"/>
+      <c r="F150" s="163"/>
+      <c r="G150" s="163"/>
+      <c r="H150" s="164"/>
     </row>
     <row r="151" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="111"/>
-      <c r="C151" s="174" t="s">
-        <v>170</v>
-      </c>
-      <c r="D151" s="152"/>
-      <c r="E151" s="211"/>
-      <c r="F151" s="152"/>
-      <c r="G151" s="152"/>
-      <c r="H151" s="153"/>
+      <c r="C151" s="112"/>
+      <c r="D151" s="143" t="s">
+        <v>440</v>
+      </c>
+      <c r="E151" s="176" t="s">
+        <v>441</v>
+      </c>
+      <c r="F151" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G151" s="145">
+        <v>44635</v>
+      </c>
+      <c r="H151" s="146">
+        <v>44635</v>
+      </c>
     </row>
     <row r="152" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="111"/>
-      <c r="C152" s="174"/>
-      <c r="D152" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="E152" s="219" t="s">
-        <v>235</v>
-      </c>
-      <c r="F152" s="149" t="s">
+      <c r="C152" s="112"/>
+      <c r="D152" s="143" t="s">
+        <v>443</v>
+      </c>
+      <c r="E152" s="176" t="s">
+        <v>442</v>
+      </c>
+      <c r="F152" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="G152" s="150">
-        <v>44910</v>
-      </c>
-      <c r="H152" s="151">
-        <v>44910</v>
+      <c r="G152" s="145">
+        <v>44635</v>
+      </c>
+      <c r="H152" s="146">
+        <v>44635</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="111"/>
       <c r="C153" s="112"/>
-      <c r="D153" s="148" t="s">
-        <v>233</v>
-      </c>
-      <c r="E153" s="219" t="s">
-        <v>236</v>
-      </c>
-      <c r="F153" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="G153" s="150">
-        <v>44908</v>
-      </c>
-      <c r="H153" s="151">
-        <v>44908</v>
+      <c r="D153" s="143" t="s">
+        <v>444</v>
+      </c>
+      <c r="E153" s="176" t="s">
+        <v>445</v>
+      </c>
+      <c r="F153" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="G153" s="145">
+        <v>44644</v>
+      </c>
+      <c r="H153" s="146">
+        <v>44636</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -5795,289 +5823,291 @@
       <c r="B154" s="111"/>
       <c r="C154" s="112"/>
       <c r="D154" s="143" t="s">
-        <v>234</v>
-      </c>
-      <c r="E154" s="217" t="s">
-        <v>237</v>
+        <v>446</v>
+      </c>
+      <c r="E154" s="176" t="s">
+        <v>447</v>
       </c>
       <c r="F154" s="144" t="s">
-        <v>232</v>
+        <v>448</v>
       </c>
       <c r="G154" s="145">
-        <v>44908</v>
+        <v>44732</v>
       </c>
       <c r="H154" s="146">
-        <v>44908</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="111"/>
       <c r="C155" s="112"/>
-      <c r="D155" s="163"/>
-      <c r="E155" s="213"/>
-      <c r="F155" s="163"/>
-      <c r="G155" s="163"/>
-      <c r="H155" s="164"/>
+      <c r="D155" s="112"/>
+      <c r="E155" s="171"/>
+      <c r="F155" s="113"/>
+      <c r="G155" s="114"/>
+      <c r="H155" s="115"/>
     </row>
     <row r="156" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="111"/>
-      <c r="C156" s="112"/>
-      <c r="D156" s="143" t="s">
-        <v>414</v>
-      </c>
-      <c r="E156" s="215" t="s">
-        <v>415</v>
-      </c>
-      <c r="F156" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G156" s="145">
-        <v>44960</v>
-      </c>
-      <c r="H156" s="146">
-        <v>44960</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C156" s="181" t="s">
+        <v>170</v>
+      </c>
+      <c r="D156" s="152"/>
+      <c r="E156" s="170"/>
+      <c r="F156" s="152"/>
+      <c r="G156" s="152"/>
+      <c r="H156" s="153"/>
+    </row>
+    <row r="157" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="111"/>
-      <c r="C157" s="112"/>
-      <c r="D157" s="163"/>
-      <c r="E157" s="213"/>
-      <c r="F157" s="163"/>
-      <c r="G157" s="163"/>
-      <c r="H157" s="164"/>
+      <c r="C157" s="181"/>
+      <c r="D157" s="148" t="s">
+        <v>227</v>
+      </c>
+      <c r="E157" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="F157" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="G157" s="150">
+        <v>44910</v>
+      </c>
+      <c r="H157" s="151">
+        <v>44910</v>
+      </c>
     </row>
     <row r="158" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="111"/>
       <c r="C158" s="112"/>
-      <c r="D158" s="143" t="s">
-        <v>578</v>
-      </c>
-      <c r="E158" s="217" t="s">
-        <v>595</v>
-      </c>
-      <c r="F158" s="144" t="s">
+      <c r="D158" s="148" t="s">
+        <v>233</v>
+      </c>
+      <c r="E158" s="178" t="s">
+        <v>236</v>
+      </c>
+      <c r="F158" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="G158" s="145">
-        <v>44964</v>
-      </c>
-      <c r="H158" s="146">
-        <v>44964</v>
+      <c r="G158" s="150">
+        <v>44908</v>
+      </c>
+      <c r="H158" s="151">
+        <v>44908</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="111"/>
       <c r="C159" s="112"/>
-      <c r="D159" s="148" t="s">
-        <v>579</v>
-      </c>
-      <c r="E159" s="219" t="s">
-        <v>596</v>
-      </c>
-      <c r="F159" s="149" t="s">
+      <c r="D159" s="143" t="s">
+        <v>234</v>
+      </c>
+      <c r="E159" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="F159" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G159" s="145">
-        <v>44964</v>
+        <v>44908</v>
       </c>
       <c r="H159" s="146">
-        <v>44964</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="111"/>
       <c r="C160" s="112"/>
-      <c r="D160" s="112" t="s">
-        <v>580</v>
-      </c>
-      <c r="E160" s="212" t="s">
-        <v>597</v>
-      </c>
-      <c r="F160" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="G160" s="150">
-        <v>44964</v>
-      </c>
-      <c r="H160" s="146">
-        <v>44964</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D160" s="163"/>
+      <c r="E160" s="172"/>
+      <c r="F160" s="163"/>
+      <c r="G160" s="163"/>
+      <c r="H160" s="164"/>
+    </row>
+    <row r="161" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="111"/>
       <c r="C161" s="112"/>
-      <c r="D161" s="163"/>
-      <c r="E161" s="213"/>
-      <c r="F161" s="163"/>
-      <c r="G161" s="163"/>
-      <c r="H161" s="164"/>
-    </row>
-    <row r="162" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D161" s="143" t="s">
+        <v>414</v>
+      </c>
+      <c r="E161" s="174" t="s">
+        <v>415</v>
+      </c>
+      <c r="F161" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G161" s="145">
+        <v>44960</v>
+      </c>
+      <c r="H161" s="146">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="111"/>
       <c r="C162" s="112"/>
-      <c r="D162" s="143" t="s">
-        <v>238</v>
-      </c>
-      <c r="E162" s="217" t="s">
-        <v>239</v>
-      </c>
-      <c r="F162" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G162" s="145">
-        <v>44887</v>
-      </c>
-      <c r="H162" s="146">
-        <v>44887</v>
-      </c>
+      <c r="D162" s="163"/>
+      <c r="E162" s="172"/>
+      <c r="F162" s="163"/>
+      <c r="G162" s="163"/>
+      <c r="H162" s="164"/>
     </row>
     <row r="163" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="111"/>
       <c r="C163" s="112"/>
       <c r="D163" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="E163" s="217" t="s">
-        <v>241</v>
+        <v>578</v>
+      </c>
+      <c r="E163" s="176" t="s">
+        <v>595</v>
       </c>
       <c r="F163" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G163" s="145">
-        <v>44887</v>
+        <v>44964</v>
       </c>
       <c r="H163" s="146">
-        <v>44887</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="164" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="111"/>
       <c r="C164" s="112"/>
-      <c r="D164" s="143" t="s">
-        <v>416</v>
-      </c>
-      <c r="E164" s="215" t="s">
-        <v>419</v>
-      </c>
-      <c r="F164" s="144" t="s">
+      <c r="D164" s="148" t="s">
+        <v>579</v>
+      </c>
+      <c r="E164" s="178" t="s">
+        <v>596</v>
+      </c>
+      <c r="F164" s="149" t="s">
         <v>232</v>
       </c>
       <c r="G164" s="145">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H164" s="146">
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="165" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="111"/>
       <c r="C165" s="112"/>
-      <c r="D165" s="143" t="s">
-        <v>417</v>
-      </c>
-      <c r="E165" s="217" t="s">
-        <v>420</v>
-      </c>
-      <c r="F165" s="144" t="s">
+      <c r="D165" s="112" t="s">
+        <v>580</v>
+      </c>
+      <c r="E165" s="171" t="s">
+        <v>597</v>
+      </c>
+      <c r="F165" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="G165" s="145">
-        <v>44960</v>
+      <c r="G165" s="150">
+        <v>44964</v>
       </c>
       <c r="H165" s="146">
-        <v>44960</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="111"/>
       <c r="C166" s="112"/>
-      <c r="D166" s="143" t="s">
-        <v>418</v>
-      </c>
-      <c r="E166" s="217" t="s">
-        <v>421</v>
-      </c>
-      <c r="F166" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G166" s="145">
-        <v>44960</v>
-      </c>
-      <c r="H166" s="146">
-        <v>44960</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D166" s="163"/>
+      <c r="E166" s="172"/>
+      <c r="F166" s="163"/>
+      <c r="G166" s="163"/>
+      <c r="H166" s="164"/>
+    </row>
+    <row r="167" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="111"/>
       <c r="C167" s="112"/>
-      <c r="D167" s="163"/>
-      <c r="E167" s="213"/>
-      <c r="F167" s="163"/>
-      <c r="G167" s="163"/>
-      <c r="H167" s="164"/>
+      <c r="D167" s="143" t="s">
+        <v>238</v>
+      </c>
+      <c r="E167" s="176" t="s">
+        <v>239</v>
+      </c>
+      <c r="F167" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G167" s="145">
+        <v>44887</v>
+      </c>
+      <c r="H167" s="146">
+        <v>44887</v>
+      </c>
     </row>
     <row r="168" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="111"/>
       <c r="C168" s="112"/>
       <c r="D168" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="E168" s="217" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="E168" s="176" t="s">
+        <v>241</v>
       </c>
       <c r="F168" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G168" s="145">
-        <v>44774</v>
+        <v>44887</v>
       </c>
       <c r="H168" s="146">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="111"/>
       <c r="C169" s="112"/>
-      <c r="D169" s="163"/>
-      <c r="E169" s="213"/>
-      <c r="F169" s="163"/>
-      <c r="G169" s="163"/>
-      <c r="H169" s="164"/>
+      <c r="D169" s="143" t="s">
+        <v>416</v>
+      </c>
+      <c r="E169" s="174" t="s">
+        <v>419</v>
+      </c>
+      <c r="F169" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G169" s="145">
+        <v>44959</v>
+      </c>
+      <c r="H169" s="146">
+        <v>44959</v>
+      </c>
     </row>
     <row r="170" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="111"/>
       <c r="C170" s="112"/>
       <c r="D170" s="143" t="s">
-        <v>304</v>
-      </c>
-      <c r="E170" s="217" t="s">
-        <v>305</v>
+        <v>417</v>
+      </c>
+      <c r="E170" s="176" t="s">
+        <v>420</v>
       </c>
       <c r="F170" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G170" s="145">
-        <v>44897</v>
+        <v>44960</v>
       </c>
       <c r="H170" s="146">
-        <v>44897</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="171" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -6085,119 +6115,119 @@
       <c r="B171" s="111"/>
       <c r="C171" s="112"/>
       <c r="D171" s="143" t="s">
-        <v>244</v>
-      </c>
-      <c r="E171" s="217" t="s">
-        <v>245</v>
+        <v>418</v>
+      </c>
+      <c r="E171" s="176" t="s">
+        <v>421</v>
       </c>
       <c r="F171" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G171" s="145">
-        <v>44897</v>
+        <v>44960</v>
       </c>
       <c r="H171" s="146">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="111"/>
       <c r="C172" s="112"/>
-      <c r="D172" s="143" t="s">
-        <v>246</v>
-      </c>
-      <c r="E172" s="217" t="s">
-        <v>247</v>
-      </c>
-      <c r="F172" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G172" s="145">
-        <v>44897</v>
-      </c>
-      <c r="H172" s="146">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D172" s="163"/>
+      <c r="E172" s="172"/>
+      <c r="F172" s="163"/>
+      <c r="G172" s="163"/>
+      <c r="H172" s="164"/>
+    </row>
+    <row r="173" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="111"/>
       <c r="C173" s="112"/>
-      <c r="D173" s="163"/>
-      <c r="E173" s="213"/>
-      <c r="F173" s="163"/>
-      <c r="G173" s="163"/>
-      <c r="H173" s="164"/>
-    </row>
-    <row r="174" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D173" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="E173" s="176" t="s">
+        <v>243</v>
+      </c>
+      <c r="F173" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G173" s="145">
+        <v>44774</v>
+      </c>
+      <c r="H173" s="146">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="111"/>
       <c r="C174" s="112"/>
-      <c r="D174" s="143" t="s">
-        <v>248</v>
-      </c>
-      <c r="E174" s="217" t="s">
-        <v>249</v>
-      </c>
-      <c r="F174" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G174" s="145">
-        <v>44748</v>
-      </c>
-      <c r="H174" s="146">
-        <v>44748</v>
-      </c>
+      <c r="D174" s="163"/>
+      <c r="E174" s="172"/>
+      <c r="F174" s="163"/>
+      <c r="G174" s="163"/>
+      <c r="H174" s="164"/>
     </row>
     <row r="175" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="111"/>
       <c r="C175" s="112"/>
       <c r="D175" s="143" t="s">
-        <v>250</v>
-      </c>
-      <c r="E175" s="217" t="s">
-        <v>251</v>
+        <v>304</v>
+      </c>
+      <c r="E175" s="176" t="s">
+        <v>305</v>
       </c>
       <c r="F175" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G175" s="145">
-        <v>44735</v>
+        <v>44897</v>
       </c>
       <c r="H175" s="146">
-        <v>44735</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="111"/>
       <c r="C176" s="112"/>
-      <c r="D176" s="163"/>
-      <c r="E176" s="213"/>
-      <c r="F176" s="163"/>
-      <c r="G176" s="163"/>
-      <c r="H176" s="164"/>
+      <c r="D176" s="143" t="s">
+        <v>244</v>
+      </c>
+      <c r="E176" s="176" t="s">
+        <v>245</v>
+      </c>
+      <c r="F176" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G176" s="145">
+        <v>44897</v>
+      </c>
+      <c r="H176" s="146">
+        <v>44897</v>
+      </c>
     </row>
     <row r="177" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="111"/>
       <c r="C177" s="112"/>
       <c r="D177" s="143" t="s">
-        <v>252</v>
-      </c>
-      <c r="E177" s="217" t="s">
-        <v>253</v>
+        <v>246</v>
+      </c>
+      <c r="E177" s="176" t="s">
+        <v>247</v>
       </c>
       <c r="F177" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G177" s="145">
-        <v>44854</v>
+        <v>44897</v>
       </c>
       <c r="H177" s="146">
-        <v>44854</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="178" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6205,7 +6235,7 @@
       <c r="B178" s="111"/>
       <c r="C178" s="112"/>
       <c r="D178" s="163"/>
-      <c r="E178" s="213"/>
+      <c r="E178" s="172"/>
       <c r="F178" s="163"/>
       <c r="G178" s="163"/>
       <c r="H178" s="164"/>
@@ -6215,59 +6245,49 @@
       <c r="B179" s="111"/>
       <c r="C179" s="112"/>
       <c r="D179" s="143" t="s">
-        <v>254</v>
-      </c>
-      <c r="E179" s="217" t="s">
-        <v>259</v>
+        <v>640</v>
+      </c>
+      <c r="E179" s="176" t="s">
+        <v>641</v>
       </c>
       <c r="F179" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G179" s="145">
-        <v>44770</v>
+        <v>44966</v>
       </c>
       <c r="H179" s="146">
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="111"/>
       <c r="C180" s="112"/>
-      <c r="D180" s="143" t="s">
-        <v>255</v>
-      </c>
-      <c r="E180" s="217" t="s">
-        <v>260</v>
-      </c>
-      <c r="F180" s="144" t="s">
-        <v>256</v>
-      </c>
-      <c r="G180" s="145">
-        <v>44770</v>
-      </c>
-      <c r="H180" s="146">
-        <v>44427</v>
-      </c>
+      <c r="D180" s="163"/>
+      <c r="E180" s="172"/>
+      <c r="F180" s="163"/>
+      <c r="G180" s="163"/>
+      <c r="H180" s="164"/>
     </row>
     <row r="181" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="111"/>
       <c r="C181" s="112"/>
       <c r="D181" s="143" t="s">
-        <v>257</v>
-      </c>
-      <c r="E181" s="217" t="s">
-        <v>261</v>
+        <v>248</v>
+      </c>
+      <c r="E181" s="176" t="s">
+        <v>249</v>
       </c>
       <c r="F181" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G181" s="145">
-        <v>44770</v>
+        <v>44748</v>
       </c>
       <c r="H181" s="146">
-        <v>44770</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="182" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -6275,19 +6295,19 @@
       <c r="B182" s="111"/>
       <c r="C182" s="112"/>
       <c r="D182" s="143" t="s">
-        <v>258</v>
-      </c>
-      <c r="E182" s="217" t="s">
-        <v>262</v>
+        <v>250</v>
+      </c>
+      <c r="E182" s="176" t="s">
+        <v>251</v>
       </c>
       <c r="F182" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G182" s="145">
-        <v>44770</v>
+        <v>44735</v>
       </c>
       <c r="H182" s="146">
-        <v>44427</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="183" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6295,7 +6315,7 @@
       <c r="B183" s="111"/>
       <c r="C183" s="112"/>
       <c r="D183" s="163"/>
-      <c r="E183" s="213"/>
+      <c r="E183" s="172"/>
       <c r="F183" s="163"/>
       <c r="G183" s="163"/>
       <c r="H183" s="164"/>
@@ -6305,169 +6325,179 @@
       <c r="B184" s="111"/>
       <c r="C184" s="112"/>
       <c r="D184" s="143" t="s">
-        <v>283</v>
-      </c>
-      <c r="E184" s="217" t="s">
-        <v>263</v>
+        <v>252</v>
+      </c>
+      <c r="E184" s="176" t="s">
+        <v>253</v>
       </c>
       <c r="F184" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G184" s="145">
-        <v>44777</v>
+        <v>44854</v>
       </c>
       <c r="H184" s="146">
-        <v>44777</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="111"/>
       <c r="C185" s="112"/>
-      <c r="D185" s="143" t="s">
-        <v>302</v>
-      </c>
-      <c r="E185" s="217" t="s">
-        <v>303</v>
-      </c>
-      <c r="F185" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G185" s="145">
-        <v>44935</v>
-      </c>
-      <c r="H185" s="146">
-        <v>44935</v>
-      </c>
+      <c r="D185" s="163"/>
+      <c r="E185" s="172"/>
+      <c r="F185" s="163"/>
+      <c r="G185" s="163"/>
+      <c r="H185" s="164"/>
     </row>
     <row r="186" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="111"/>
       <c r="C186" s="112"/>
       <c r="D186" s="143" t="s">
-        <v>284</v>
-      </c>
-      <c r="E186" s="217" t="s">
-        <v>277</v>
+        <v>254</v>
+      </c>
+      <c r="E186" s="176" t="s">
+        <v>259</v>
       </c>
       <c r="F186" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G186" s="145">
-        <v>44931</v>
+        <v>44770</v>
       </c>
       <c r="H186" s="146">
-        <v>44931</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="111"/>
       <c r="C187" s="112"/>
-      <c r="D187" s="163"/>
-      <c r="E187" s="213"/>
-      <c r="F187" s="163"/>
-      <c r="G187" s="163"/>
-      <c r="H187" s="164"/>
+      <c r="D187" s="143" t="s">
+        <v>255</v>
+      </c>
+      <c r="E187" s="176" t="s">
+        <v>260</v>
+      </c>
+      <c r="F187" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="G187" s="145">
+        <v>44770</v>
+      </c>
+      <c r="H187" s="146">
+        <v>44427</v>
+      </c>
     </row>
     <row r="188" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="111"/>
       <c r="C188" s="112"/>
       <c r="D188" s="143" t="s">
-        <v>264</v>
-      </c>
-      <c r="E188" s="217" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+      <c r="E188" s="176" t="s">
+        <v>261</v>
       </c>
       <c r="F188" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G188" s="145">
-        <v>44847</v>
+        <v>44770</v>
       </c>
       <c r="H188" s="146">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="111"/>
       <c r="C189" s="112"/>
-      <c r="D189" s="163"/>
-      <c r="E189" s="213"/>
-      <c r="F189" s="163"/>
-      <c r="G189" s="163"/>
-      <c r="H189" s="164"/>
-    </row>
-    <row r="190" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D189" s="143" t="s">
+        <v>258</v>
+      </c>
+      <c r="E189" s="176" t="s">
+        <v>262</v>
+      </c>
+      <c r="F189" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G189" s="145">
+        <v>44770</v>
+      </c>
+      <c r="H189" s="146">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="111"/>
       <c r="C190" s="112"/>
-      <c r="D190" s="143" t="s">
-        <v>266</v>
-      </c>
-      <c r="E190" s="217" t="s">
-        <v>268</v>
-      </c>
-      <c r="F190" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="G190" s="145">
-        <v>44792</v>
-      </c>
-      <c r="H190" s="146">
-        <v>44770</v>
-      </c>
+      <c r="D190" s="163"/>
+      <c r="E190" s="172"/>
+      <c r="F190" s="163"/>
+      <c r="G190" s="163"/>
+      <c r="H190" s="164"/>
     </row>
     <row r="191" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="111"/>
       <c r="C191" s="112"/>
       <c r="D191" s="143" t="s">
-        <v>269</v>
-      </c>
-      <c r="E191" s="217" t="s">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="E191" s="176" t="s">
+        <v>263</v>
       </c>
       <c r="F191" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G191" s="145">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="H191" s="146">
-        <v>44776</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="111"/>
       <c r="C192" s="112"/>
-      <c r="D192" s="163"/>
-      <c r="E192" s="213"/>
-      <c r="F192" s="163"/>
-      <c r="G192" s="163"/>
-      <c r="H192" s="164"/>
+      <c r="D192" s="143" t="s">
+        <v>302</v>
+      </c>
+      <c r="E192" s="176" t="s">
+        <v>303</v>
+      </c>
+      <c r="F192" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G192" s="145">
+        <v>44935</v>
+      </c>
+      <c r="H192" s="146">
+        <v>44935</v>
+      </c>
     </row>
     <row r="193" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="111"/>
       <c r="C193" s="112"/>
       <c r="D193" s="143" t="s">
-        <v>301</v>
-      </c>
-      <c r="E193" s="217" t="s">
-        <v>271</v>
+        <v>284</v>
+      </c>
+      <c r="E193" s="176" t="s">
+        <v>277</v>
       </c>
       <c r="F193" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G193" s="145">
-        <v>44777</v>
+        <v>44931</v>
       </c>
       <c r="H193" s="146">
-        <v>44777</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="194" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6475,7 +6505,7 @@
       <c r="B194" s="111"/>
       <c r="C194" s="112"/>
       <c r="D194" s="163"/>
-      <c r="E194" s="213"/>
+      <c r="E194" s="172"/>
       <c r="F194" s="163"/>
       <c r="G194" s="163"/>
       <c r="H194" s="164"/>
@@ -6485,19 +6515,19 @@
       <c r="B195" s="111"/>
       <c r="C195" s="112"/>
       <c r="D195" s="143" t="s">
-        <v>272</v>
-      </c>
-      <c r="E195" s="217" t="s">
-        <v>273</v>
+        <v>264</v>
+      </c>
+      <c r="E195" s="176" t="s">
+        <v>265</v>
       </c>
       <c r="F195" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G195" s="145">
-        <v>44770</v>
+        <v>44847</v>
       </c>
       <c r="H195" s="146">
-        <v>44770</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="196" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6505,160 +6535,130 @@
       <c r="B196" s="111"/>
       <c r="C196" s="112"/>
       <c r="D196" s="163"/>
-      <c r="E196" s="213"/>
+      <c r="E196" s="172"/>
       <c r="F196" s="163"/>
       <c r="G196" s="163"/>
       <c r="H196" s="164"/>
     </row>
-    <row r="197" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="111"/>
       <c r="C197" s="112"/>
       <c r="D197" s="143" t="s">
-        <v>293</v>
-      </c>
-      <c r="E197" s="215" t="s">
-        <v>295</v>
+        <v>266</v>
+      </c>
+      <c r="E197" s="176" t="s">
+        <v>268</v>
       </c>
       <c r="F197" s="144" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G197" s="145">
-        <v>44937</v>
+        <v>44792</v>
       </c>
       <c r="H197" s="146">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="111"/>
       <c r="C198" s="112"/>
       <c r="D198" s="143" t="s">
-        <v>292</v>
-      </c>
-      <c r="E198" s="215" t="s">
-        <v>294</v>
+        <v>269</v>
+      </c>
+      <c r="E198" s="176" t="s">
+        <v>270</v>
       </c>
       <c r="F198" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G198" s="145">
-        <v>44937</v>
+        <v>44776</v>
       </c>
       <c r="H198" s="146">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="111"/>
       <c r="C199" s="112"/>
-      <c r="D199" s="143" t="s">
-        <v>290</v>
-      </c>
-      <c r="E199" s="215" t="s">
-        <v>296</v>
-      </c>
-      <c r="F199" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G199" s="145">
-        <v>44937</v>
-      </c>
-      <c r="H199" s="146">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D199" s="163"/>
+      <c r="E199" s="172"/>
+      <c r="F199" s="163"/>
+      <c r="G199" s="163"/>
+      <c r="H199" s="164"/>
+    </row>
+    <row r="200" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="111"/>
       <c r="C200" s="112"/>
       <c r="D200" s="143" t="s">
-        <v>306</v>
-      </c>
-      <c r="E200" s="215" t="s">
-        <v>307</v>
+        <v>301</v>
+      </c>
+      <c r="E200" s="176" t="s">
+        <v>271</v>
       </c>
       <c r="F200" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G200" s="145">
-        <v>44949</v>
+        <v>44777</v>
       </c>
       <c r="H200" s="146">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="111"/>
       <c r="C201" s="112"/>
-      <c r="D201" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="E201" s="215" t="s">
-        <v>297</v>
-      </c>
-      <c r="F201" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G201" s="145">
-        <v>44937</v>
-      </c>
-      <c r="H201" s="146">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D201" s="163"/>
+      <c r="E201" s="172"/>
+      <c r="F201" s="163"/>
+      <c r="G201" s="163"/>
+      <c r="H201" s="164"/>
+    </row>
+    <row r="202" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="111"/>
       <c r="C202" s="112"/>
       <c r="D202" s="143" t="s">
-        <v>289</v>
-      </c>
-      <c r="E202" s="215" t="s">
-        <v>298</v>
+        <v>272</v>
+      </c>
+      <c r="E202" s="176" t="s">
+        <v>273</v>
       </c>
       <c r="F202" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G202" s="145">
-        <v>44937</v>
+        <v>44770</v>
       </c>
       <c r="H202" s="146">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="111"/>
       <c r="C203" s="112"/>
-      <c r="D203" s="143" t="s">
-        <v>288</v>
-      </c>
-      <c r="E203" s="215" t="s">
-        <v>299</v>
-      </c>
-      <c r="F203" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G203" s="145">
-        <v>44937</v>
-      </c>
-      <c r="H203" s="146">
-        <v>44937</v>
-      </c>
+      <c r="D203" s="163"/>
+      <c r="E203" s="172"/>
+      <c r="F203" s="163"/>
+      <c r="G203" s="163"/>
+      <c r="H203" s="164"/>
     </row>
     <row r="204" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="111"/>
       <c r="C204" s="112"/>
       <c r="D204" s="143" t="s">
-        <v>287</v>
-      </c>
-      <c r="E204" s="215" t="s">
-        <v>300</v>
+        <v>293</v>
+      </c>
+      <c r="E204" s="174" t="s">
+        <v>295</v>
       </c>
       <c r="F204" s="144" t="s">
         <v>232</v>
@@ -6670,226 +6670,226 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="111"/>
       <c r="C205" s="112"/>
-      <c r="D205" s="163"/>
-      <c r="E205" s="213"/>
-      <c r="F205" s="163"/>
-      <c r="G205" s="163"/>
-      <c r="H205" s="164"/>
-    </row>
-    <row r="206" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D205" s="143" t="s">
+        <v>292</v>
+      </c>
+      <c r="E205" s="174" t="s">
+        <v>294</v>
+      </c>
+      <c r="F205" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G205" s="145">
+        <v>44937</v>
+      </c>
+      <c r="H205" s="146">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="111"/>
       <c r="C206" s="112"/>
-      <c r="D206" s="112" t="s">
-        <v>422</v>
-      </c>
-      <c r="E206" s="216" t="s">
-        <v>423</v>
-      </c>
-      <c r="F206" s="113" t="s">
+      <c r="D206" s="143" t="s">
+        <v>290</v>
+      </c>
+      <c r="E206" s="174" t="s">
+        <v>296</v>
+      </c>
+      <c r="F206" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="G206" s="114">
-        <v>44959</v>
-      </c>
-      <c r="H206" s="115">
-        <v>44959</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G206" s="145">
+        <v>44937</v>
+      </c>
+      <c r="H206" s="146">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="111"/>
-      <c r="C207" s="174" t="s">
-        <v>146</v>
-      </c>
-      <c r="D207" s="152"/>
-      <c r="E207" s="211"/>
-      <c r="F207" s="152"/>
-      <c r="G207" s="152"/>
-      <c r="H207" s="153"/>
-    </row>
-    <row r="208" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C207" s="112"/>
+      <c r="D207" s="143" t="s">
+        <v>306</v>
+      </c>
+      <c r="E207" s="174" t="s">
+        <v>307</v>
+      </c>
+      <c r="F207" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G207" s="145">
+        <v>44949</v>
+      </c>
+      <c r="H207" s="146">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="111"/>
-      <c r="C208" s="174"/>
-      <c r="D208" s="148" t="s">
-        <v>274</v>
-      </c>
-      <c r="E208" s="219" t="s">
-        <v>275</v>
-      </c>
-      <c r="F208" s="149" t="s">
+      <c r="C208" s="112"/>
+      <c r="D208" s="143" t="s">
+        <v>291</v>
+      </c>
+      <c r="E208" s="174" t="s">
+        <v>297</v>
+      </c>
+      <c r="F208" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="G208" s="150">
-        <v>44167</v>
-      </c>
-      <c r="H208" s="151">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G208" s="145">
+        <v>44937</v>
+      </c>
+      <c r="H208" s="146">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="111"/>
       <c r="C209" s="112"/>
-      <c r="D209" s="147" t="s">
-        <v>276</v>
-      </c>
-      <c r="E209" s="217" t="s">
-        <v>605</v>
+      <c r="D209" s="143" t="s">
+        <v>289</v>
+      </c>
+      <c r="E209" s="174" t="s">
+        <v>298</v>
       </c>
       <c r="F209" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G209" s="145">
-        <v>44167</v>
+        <v>44937</v>
       </c>
       <c r="H209" s="146">
-        <v>44167</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="111"/>
       <c r="C210" s="112"/>
       <c r="D210" s="143" t="s">
-        <v>278</v>
-      </c>
-      <c r="E210" s="217" t="s">
-        <v>279</v>
+        <v>288</v>
+      </c>
+      <c r="E210" s="174" t="s">
+        <v>299</v>
       </c>
       <c r="F210" s="144" t="s">
         <v>232</v>
       </c>
       <c r="G210" s="145">
-        <v>43185</v>
+        <v>44937</v>
       </c>
       <c r="H210" s="146">
-        <v>43185</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="111"/>
       <c r="C211" s="112"/>
       <c r="D211" s="143" t="s">
-        <v>280</v>
-      </c>
-      <c r="E211" s="217" t="s">
-        <v>282</v>
+        <v>287</v>
+      </c>
+      <c r="E211" s="174" t="s">
+        <v>300</v>
       </c>
       <c r="F211" s="144" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G211" s="145">
-        <v>44216</v>
+        <v>44937</v>
       </c>
       <c r="H211" s="146">
-        <v>44216</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" s="78" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="111"/>
       <c r="C212" s="112"/>
-      <c r="D212" s="143" t="s">
-        <v>400</v>
-      </c>
-      <c r="E212" s="215" t="s">
-        <v>402</v>
-      </c>
-      <c r="F212" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G212" s="145">
-        <v>43720</v>
-      </c>
-      <c r="H212" s="146">
-        <v>43720</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D212" s="163"/>
+      <c r="E212" s="172"/>
+      <c r="F212" s="163"/>
+      <c r="G212" s="163"/>
+      <c r="H212" s="164"/>
+    </row>
+    <row r="213" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="111"/>
       <c r="C213" s="112"/>
-      <c r="D213" s="143" t="s">
-        <v>401</v>
-      </c>
-      <c r="E213" s="215" t="s">
-        <v>403</v>
-      </c>
-      <c r="F213" s="144" t="s">
+      <c r="D213" s="112" t="s">
+        <v>422</v>
+      </c>
+      <c r="E213" s="175" t="s">
+        <v>423</v>
+      </c>
+      <c r="F213" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="G213" s="145">
-        <v>43785</v>
-      </c>
-      <c r="H213" s="146">
-        <v>43785</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G213" s="114">
+        <v>44959</v>
+      </c>
+      <c r="H213" s="115">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="111"/>
-      <c r="C214" s="112"/>
-      <c r="D214" s="143" t="s">
-        <v>404</v>
-      </c>
-      <c r="E214" s="215" t="s">
-        <v>405</v>
-      </c>
-      <c r="F214" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G214" s="145">
-        <v>43208</v>
-      </c>
-      <c r="H214" s="146">
-        <v>43208</v>
-      </c>
+      <c r="C214" s="181" t="s">
+        <v>146</v>
+      </c>
+      <c r="D214" s="152"/>
+      <c r="E214" s="170"/>
+      <c r="F214" s="152"/>
+      <c r="G214" s="152"/>
+      <c r="H214" s="153"/>
     </row>
     <row r="215" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="111"/>
-      <c r="C215" s="112"/>
-      <c r="D215" s="143" t="s">
-        <v>406</v>
-      </c>
-      <c r="E215" s="215" t="s">
-        <v>407</v>
-      </c>
-      <c r="F215" s="144" t="s">
+      <c r="C215" s="181"/>
+      <c r="D215" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="E215" s="178" t="s">
+        <v>275</v>
+      </c>
+      <c r="F215" s="149" t="s">
         <v>232</v>
       </c>
-      <c r="G215" s="145">
-        <v>43181</v>
-      </c>
-      <c r="H215" s="146">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G215" s="150">
+        <v>44167</v>
+      </c>
+      <c r="H215" s="151">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="111"/>
       <c r="C216" s="112"/>
-      <c r="D216" s="143" t="s">
-        <v>408</v>
-      </c>
-      <c r="E216" s="215" t="s">
-        <v>409</v>
+      <c r="D216" s="147" t="s">
+        <v>276</v>
+      </c>
+      <c r="E216" s="176" t="s">
+        <v>605</v>
       </c>
       <c r="F216" s="144" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G216" s="145">
-        <v>44958</v>
+        <v>44167</v>
       </c>
       <c r="H216" s="146">
-        <v>43181</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="217" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -6897,119 +6897,179 @@
       <c r="B217" s="111"/>
       <c r="C217" s="112"/>
       <c r="D217" s="143" t="s">
-        <v>410</v>
-      </c>
-      <c r="E217" s="215" t="s">
-        <v>411</v>
+        <v>278</v>
+      </c>
+      <c r="E217" s="176" t="s">
+        <v>279</v>
       </c>
       <c r="F217" s="144" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="G217" s="145">
-        <v>44958</v>
+        <v>43185</v>
       </c>
       <c r="H217" s="146">
-        <v>43181</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="111"/>
       <c r="C218" s="112"/>
       <c r="D218" s="143" t="s">
-        <v>412</v>
-      </c>
-      <c r="E218" s="215" t="s">
-        <v>413</v>
+        <v>280</v>
+      </c>
+      <c r="E218" s="176" t="s">
+        <v>282</v>
       </c>
       <c r="F218" s="144" t="s">
         <v>281</v>
       </c>
       <c r="G218" s="145">
-        <v>44958</v>
+        <v>44216</v>
       </c>
       <c r="H218" s="146">
-        <v>43922</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="111"/>
       <c r="C219" s="112"/>
-      <c r="D219" s="112"/>
-      <c r="E219" s="216"/>
-      <c r="F219" s="113"/>
-      <c r="G219" s="114"/>
-      <c r="H219" s="115"/>
+      <c r="D219" s="143" t="s">
+        <v>400</v>
+      </c>
+      <c r="E219" s="174" t="s">
+        <v>402</v>
+      </c>
+      <c r="F219" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G219" s="145">
+        <v>43720</v>
+      </c>
+      <c r="H219" s="146">
+        <v>43720</v>
+      </c>
     </row>
     <row r="220" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="111"/>
       <c r="C220" s="112"/>
-      <c r="D220" s="112"/>
-      <c r="E220" s="216"/>
-      <c r="F220" s="113"/>
-      <c r="G220" s="114"/>
-      <c r="H220" s="115"/>
-    </row>
-    <row r="221" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D220" s="143" t="s">
+        <v>401</v>
+      </c>
+      <c r="E220" s="174" t="s">
+        <v>403</v>
+      </c>
+      <c r="F220" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G220" s="145">
+        <v>43785</v>
+      </c>
+      <c r="H220" s="146">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="111"/>
       <c r="C221" s="112"/>
-      <c r="D221" s="112"/>
-      <c r="E221" s="216"/>
-      <c r="F221" s="113"/>
-      <c r="G221" s="114"/>
-      <c r="H221" s="115"/>
+      <c r="D221" s="143" t="s">
+        <v>404</v>
+      </c>
+      <c r="E221" s="174" t="s">
+        <v>405</v>
+      </c>
+      <c r="F221" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G221" s="145">
+        <v>43208</v>
+      </c>
+      <c r="H221" s="146">
+        <v>43208</v>
+      </c>
     </row>
     <row r="222" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="111"/>
       <c r="C222" s="112"/>
-      <c r="D222" s="112"/>
-      <c r="E222" s="216"/>
-      <c r="F222" s="113"/>
-      <c r="G222" s="114"/>
-      <c r="H222" s="115"/>
-    </row>
-    <row r="223" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D222" s="143" t="s">
+        <v>406</v>
+      </c>
+      <c r="E222" s="174" t="s">
+        <v>407</v>
+      </c>
+      <c r="F222" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="G222" s="145">
+        <v>43181</v>
+      </c>
+      <c r="H222" s="146">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="111"/>
       <c r="C223" s="112"/>
-      <c r="D223" s="112"/>
-      <c r="E223" s="216"/>
-      <c r="F223" s="113"/>
-      <c r="G223" s="114"/>
-      <c r="H223" s="115"/>
+      <c r="D223" s="143" t="s">
+        <v>408</v>
+      </c>
+      <c r="E223" s="174" t="s">
+        <v>409</v>
+      </c>
+      <c r="F223" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="G223" s="145">
+        <v>44958</v>
+      </c>
+      <c r="H223" s="146">
+        <v>43181</v>
+      </c>
     </row>
     <row r="224" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="111"/>
       <c r="C224" s="112"/>
-      <c r="D224" s="112"/>
-      <c r="E224" s="212"/>
-      <c r="F224" s="113"/>
-      <c r="G224" s="114"/>
-      <c r="H224" s="115"/>
-    </row>
-    <row r="225" spans="1:8" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D224" s="143" t="s">
+        <v>410</v>
+      </c>
+      <c r="E224" s="174" t="s">
+        <v>411</v>
+      </c>
+      <c r="F224" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="G224" s="145">
+        <v>44958</v>
+      </c>
+      <c r="H224" s="146">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="111"/>
       <c r="C225" s="112"/>
-      <c r="D225" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="E225" s="212" t="s">
-        <v>286</v>
-      </c>
-      <c r="F225" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="G225" s="114">
-        <v>44949</v>
-      </c>
-      <c r="H225" s="115">
-        <v>44949</v>
+      <c r="D225" s="143" t="s">
+        <v>412</v>
+      </c>
+      <c r="E225" s="174" t="s">
+        <v>413</v>
+      </c>
+      <c r="F225" s="144" t="s">
+        <v>281</v>
+      </c>
+      <c r="G225" s="145">
+        <v>44958</v>
+      </c>
+      <c r="H225" s="146">
+        <v>43922</v>
     